--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BDBCE9-07B6-40AE-B0E2-37C3879B4108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E77FBA2-EAC9-4089-8CA9-6322ACFF9DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12060" yWindow="3705" windowWidth="23925" windowHeight="16665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13065" yWindow="3255" windowWidth="23925" windowHeight="16665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="747">
   <si>
     <t>缪尔赛思</t>
   </si>
@@ -1317,9 +1317,6 @@
     <t>*maa://20996</t>
   </si>
   <si>
-    <t>**maa://20903</t>
-  </si>
-  <si>
     <t>maa://20925</t>
   </si>
   <si>
@@ -1350,9 +1347,6 @@
     <t>maa://20897</t>
   </si>
   <si>
-    <t>maa://20826, maa://20865</t>
-  </si>
-  <si>
     <t>maa://20900</t>
   </si>
   <si>
@@ -1386,9 +1380,6 @@
     <t>maa://30500, *maa://27290</t>
   </si>
   <si>
-    <t>maa://20916</t>
-  </si>
-  <si>
     <t>maa://20847</t>
   </si>
   <si>
@@ -1461,9 +1452,6 @@
     <t>maa://20844</t>
   </si>
   <si>
-    <t>maa://28187, maa://33504</t>
-  </si>
-  <si>
     <t>maa://20993, maa://20829</t>
   </si>
   <si>
@@ -1605,9 +1593,6 @@
     <t>maa://20868</t>
   </si>
   <si>
-    <t>maa://20909</t>
-  </si>
-  <si>
     <t>maa://30501</t>
   </si>
   <si>
@@ -1626,12 +1611,6 @@
     <t>maa://30719</t>
   </si>
   <si>
-    <t>maa://23019, maa://20837, maa://37113, **maa://37666</t>
-  </si>
-  <si>
-    <t>maa://23020, maa://29023, maa://34319</t>
-  </si>
-  <si>
     <t>maa://20856</t>
   </si>
   <si>
@@ -1746,9 +1725,6 @@
     <t>maa://35198</t>
   </si>
   <si>
-    <t>*maa://34866, maa://34714</t>
-  </si>
-  <si>
     <t>maa://20895, maa://34883</t>
   </si>
   <si>
@@ -1767,9 +1743,6 @@
     <t>maa://20860</t>
   </si>
   <si>
-    <t>maa://25760, *maa://20872, *maa://35854</t>
-  </si>
-  <si>
     <t>maa://27823, *maa://28190, maa://22894, *maa://20906</t>
   </si>
   <si>
@@ -1794,15 +1767,9 @@
     <t>maa://20956, *maa://20830</t>
   </si>
   <si>
-    <t>maa://20955</t>
-  </si>
-  <si>
     <t>maa://24636, maa://25778</t>
   </si>
   <si>
-    <t>**maa://20995</t>
-  </si>
-  <si>
     <t>maa://26499</t>
   </si>
   <si>
@@ -1812,9 +1779,6 @@
     <t>maa://20988</t>
   </si>
   <si>
-    <t>maa://28187</t>
-  </si>
-  <si>
     <t>maa://20985</t>
   </si>
   <si>
@@ -1836,15 +1800,9 @@
     <t>maa://30714, maa://30675</t>
   </si>
   <si>
-    <t>maa://20922, *maa://32623, maa://34242, *maa://34900</t>
-  </si>
-  <si>
     <t>maa://32999</t>
   </si>
   <si>
-    <t>*maa://30667, maa://30666, *maa://26836, *maa://34428, maa://37607, maa://37850</t>
-  </si>
-  <si>
     <t>maa://30512</t>
   </si>
   <si>
@@ -1854,9 +1812,6 @@
     <t>maa://29024</t>
   </si>
   <si>
-    <t>maa://20867, *maa://32202, maa://38485</t>
-  </si>
-  <si>
     <t>maa://30674</t>
   </si>
   <si>
@@ -1899,9 +1854,6 @@
     <t>maa://22467</t>
   </si>
   <si>
-    <t>**maa://30678</t>
-  </si>
-  <si>
     <t>*maa://20825, *maa://21445, *maa://35726</t>
   </si>
   <si>
@@ -1977,9 +1929,6 @@
     <t>*maa://34205</t>
   </si>
   <si>
-    <t>maa://30671, maa://30669, maa://37275, *maa://32410, maa://33671</t>
-  </si>
-  <si>
     <t>maa://38295</t>
   </si>
   <si>
@@ -2022,12 +1971,6 @@
     <t>maa://39025</t>
   </si>
   <si>
-    <t>maa://20845, maa://38727</t>
-  </si>
-  <si>
-    <t>maa://28567, maa://30525, *maa://28188, maa://30524, maa://38735</t>
-  </si>
-  <si>
     <t>maa://28784, maa://29088, maa://20974, maa://31124, maa://28950, *maa://33612, maa://29087, *maa://20823</t>
   </si>
   <si>
@@ -2043,9 +1986,6 @@
     <t>maa://37690</t>
   </si>
   <si>
-    <t>maa://24556</t>
-  </si>
-  <si>
     <t>*maa://20862</t>
   </si>
   <si>
@@ -2082,9 +2022,6 @@
     <t>maa://39148</t>
   </si>
   <si>
-    <t>maa://39149</t>
-  </si>
-  <si>
     <t>maa://39150</t>
   </si>
   <si>
@@ -2100,152 +2037,245 @@
     <t>maa://39154</t>
   </si>
   <si>
-    <t>更新日期：2024.07.10</t>
+    <t>送葬人</t>
+  </si>
+  <si>
+    <t>奥斯塔</t>
+  </si>
+  <si>
+    <t>松果</t>
+  </si>
+  <si>
+    <t>假日威龙陈</t>
+  </si>
+  <si>
+    <t>maa://36643, maa://36864, maa://39140</t>
+  </si>
+  <si>
+    <t>IW-8</t>
+  </si>
+  <si>
+    <t>6-8</t>
+  </si>
+  <si>
+    <t>maa://39157</t>
+  </si>
+  <si>
+    <t>maa://39158</t>
+  </si>
+  <si>
+    <t>maa://39159</t>
+  </si>
+  <si>
+    <t>maa://39160</t>
+  </si>
+  <si>
+    <t>maa://39161</t>
+  </si>
+  <si>
+    <t>maa://39162</t>
+  </si>
+  <si>
+    <t>maa://39163</t>
+  </si>
+  <si>
+    <t>maa://39164</t>
+  </si>
+  <si>
+    <t>**maa://39165</t>
+  </si>
+  <si>
+    <t>maa://32414, maa://32505, maa://39155</t>
+  </si>
+  <si>
+    <t>maa://36642, maa://36867, maa://39155</t>
+  </si>
+  <si>
+    <t>maa://39166, maa://39167</t>
+  </si>
+  <si>
+    <t>maa://39168</t>
+  </si>
+  <si>
+    <t>maa://39169</t>
+  </si>
+  <si>
+    <t>maa://39170</t>
+  </si>
+  <si>
+    <t>maa://39171</t>
+  </si>
+  <si>
+    <t>maa://39173</t>
+  </si>
+  <si>
+    <t>maa://39174</t>
+  </si>
+  <si>
+    <t>maa://39175</t>
+  </si>
+  <si>
+    <t>maa://39176</t>
+  </si>
+  <si>
+    <t>maa://39179</t>
+  </si>
+  <si>
+    <t>maa://39180</t>
+  </si>
+  <si>
+    <t>maa://39183</t>
+  </si>
+  <si>
+    <t>maa://39184</t>
+  </si>
+  <si>
+    <t>渡桥</t>
+  </si>
+  <si>
+    <t>*maa://30679</t>
+  </si>
+  <si>
+    <t>maa://39238</t>
+  </si>
+  <si>
+    <t>11-16</t>
+  </si>
+  <si>
+    <t>maa://39239</t>
+  </si>
+  <si>
+    <t>更新日期：2024.08.04</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>送葬人</t>
-  </si>
-  <si>
-    <t>奥斯塔</t>
-  </si>
-  <si>
-    <t>松果</t>
-  </si>
-  <si>
-    <t>假日威龙陈</t>
-  </si>
-  <si>
-    <t>maa://36643, maa://36864, maa://39140</t>
-  </si>
-  <si>
-    <t>IW-8</t>
-  </si>
-  <si>
-    <t>6-8</t>
-  </si>
-  <si>
-    <t>maa://39157</t>
-  </si>
-  <si>
-    <t>maa://39158</t>
-  </si>
-  <si>
-    <t>maa://39159</t>
-  </si>
-  <si>
-    <t>maa://30677, maa://39140</t>
-  </si>
-  <si>
-    <t>maa://29058, maa://38723, maa://39140</t>
-  </si>
-  <si>
-    <t>maa://39160</t>
-  </si>
-  <si>
-    <t>maa://39161</t>
-  </si>
-  <si>
-    <t>maa://39162</t>
-  </si>
-  <si>
-    <t>maa://39163</t>
-  </si>
-  <si>
-    <t>maa://39164</t>
-  </si>
-  <si>
-    <t>**maa://39165</t>
-  </si>
-  <si>
-    <t>maa://32414, maa://32505, maa://39155</t>
-  </si>
-  <si>
-    <t>maa://36642, maa://36867, maa://39155</t>
-  </si>
-  <si>
-    <t>maa://39166, maa://39167</t>
-  </si>
-  <si>
-    <t>maa://39168</t>
-  </si>
-  <si>
-    <t>maa://39169</t>
-  </si>
-  <si>
-    <t>maa://39170</t>
-  </si>
-  <si>
-    <t>maa://39171</t>
-  </si>
-  <si>
-    <t>maa://39172</t>
-  </si>
-  <si>
-    <t>maa://39173</t>
-  </si>
-  <si>
-    <t>maa://39174</t>
-  </si>
-  <si>
-    <t>maa://39175</t>
-  </si>
-  <si>
-    <t>maa://39176</t>
-  </si>
-  <si>
-    <t>maa://39177</t>
-  </si>
-  <si>
-    <t>maa://39178</t>
-  </si>
-  <si>
-    <t>maa://39179</t>
-  </si>
-  <si>
-    <t>maa://39180</t>
-  </si>
-  <si>
-    <t>maa://39181</t>
-  </si>
-  <si>
-    <t>maa://39183</t>
-  </si>
-  <si>
-    <t>maa://39184</t>
-  </si>
-  <si>
-    <t>渡桥</t>
-  </si>
-  <si>
-    <t>maa://27376, **maa://20838, **maa://39182</t>
-  </si>
-  <si>
-    <t>*maa://30679</t>
-  </si>
-  <si>
-    <t>maa://28133, *maa://28277, maa://25369, *maa://33132, maa://39217</t>
-  </si>
-  <si>
-    <t>maa://39238</t>
-  </si>
-  <si>
-    <t>maa://30710, maa://36845, maa://31558, maa://30668, maa://39217</t>
-  </si>
-  <si>
-    <t>maa://25774, maa://28133, maa://22469, **maa://31349, maa://39217</t>
-  </si>
-  <si>
-    <t>11-16</t>
-  </si>
-  <si>
-    <t>maa://39239</t>
-  </si>
-  <si>
-    <t>maa://36868, maa://35996, maa://39217</t>
-  </si>
-  <si>
-    <t>maa://36646, maa://36845, maa://39217</t>
+    <t>maa://20865, maa://20826</t>
+  </si>
+  <si>
+    <t>*maa://20916</t>
+  </si>
+  <si>
+    <t>maa://27376, **maa://20838</t>
+  </si>
+  <si>
+    <t>*maa://20845, maa://38727</t>
+  </si>
+  <si>
+    <t>maa://28187, maa://33504, maa://39520</t>
+  </si>
+  <si>
+    <t>maa://28567, maa://30525, *maa://28188, maa://38735, maa://30524</t>
+  </si>
+  <si>
+    <t>maa://39693</t>
+  </si>
+  <si>
+    <t>*maa://39240</t>
+  </si>
+  <si>
+    <t>*maa://20909</t>
+  </si>
+  <si>
+    <t>maa://23019, maa://20837, maa://37113, *maa://37666</t>
+  </si>
+  <si>
+    <t>maa://23020, maa://29023, maa://34319, **maa://39515</t>
+  </si>
+  <si>
+    <t>**maa://39149</t>
+  </si>
+  <si>
+    <t>maa://34866, maa://34714</t>
+  </si>
+  <si>
+    <t>maa://25760, *maa://35854, *maa://20872</t>
+  </si>
+  <si>
+    <t>maa://28133, *maa://28277, maa://25369, *maa://33132</t>
+  </si>
+  <si>
+    <t>*maa://20955</t>
+  </si>
+  <si>
+    <t>**maa://24556</t>
+  </si>
+  <si>
+    <t>桑葚</t>
+  </si>
+  <si>
+    <t>蜜莓</t>
+  </si>
+  <si>
+    <t>GA-2</t>
+  </si>
+  <si>
+    <t>maa://28187, maa://39520</t>
+  </si>
+  <si>
+    <t>maa://39140, maa://30677</t>
+  </si>
+  <si>
+    <t>maa://29058, maa://39140, maa://38723</t>
+  </si>
+  <si>
+    <t>maa://20922, *maa://32623, *maa://34242, maa://34900</t>
+  </si>
+  <si>
+    <t>*maa://30667, maa://30666, *maa://26836, *maa://34428, maa://37607, maa://37850, maa://39588</t>
+  </si>
+  <si>
+    <t>maa://20867, *maa://32202, **maa://38485</t>
+  </si>
+  <si>
+    <t>褐果</t>
+  </si>
+  <si>
+    <t>SV-3</t>
+  </si>
+  <si>
+    <t>maa://30710, maa://36845, maa://31558, maa://30668</t>
+  </si>
+  <si>
+    <t>maa://25774, maa://28133, maa://22469, **maa://31349</t>
+  </si>
+  <si>
+    <t>**maa://39172</t>
+  </si>
+  <si>
+    <t>纯烬艾雅法拉</t>
+  </si>
+  <si>
+    <t>FC-5</t>
+  </si>
+  <si>
+    <t>maa://39692, **maa://39810</t>
+  </si>
+  <si>
+    <t>**maa://39177</t>
+  </si>
+  <si>
+    <t>**maa://39178</t>
+  </si>
+  <si>
+    <t>哈洛德</t>
+  </si>
+  <si>
+    <t>*maa://30671, maa://30669, maa://37275, *maa://32410, maa://33671</t>
+  </si>
+  <si>
+    <t>*maa://39181</t>
+  </si>
+  <si>
+    <t>maa://36868, maa://35996</t>
+  </si>
+  <si>
+    <t>maa://36646, maa://36845</t>
+  </si>
+  <si>
+    <t>衡沙</t>
+  </si>
+  <si>
+    <t>DV-2</t>
   </si>
 </sst>
 </file>
@@ -2602,10 +2632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF314"/>
+  <dimension ref="A1:AF320"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2723,7 +2753,7 @@
         <v>426</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>688</v>
+        <v>703</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -2750,10 +2780,7 @@
         <v>251</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>427</v>
+        <v>0</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -2784,7 +2811,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -2815,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F6" s="2"/>
       <c r="H6" s="1"/>
@@ -2844,7 +2871,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F7" s="2"/>
       <c r="H7" s="1"/>
@@ -2873,7 +2900,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F8" s="2"/>
       <c r="H8" s="1"/>
@@ -2902,7 +2929,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>657</v>
+        <v>640</v>
       </c>
       <c r="F9" s="2"/>
       <c r="H9" s="1"/>
@@ -2931,7 +2958,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F10" s="2"/>
       <c r="H10" s="1"/>
@@ -2960,7 +2987,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F11" s="2"/>
       <c r="H11" s="1"/>
@@ -2989,7 +3016,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>658</v>
+        <v>641</v>
       </c>
       <c r="F12" s="2"/>
       <c r="H12" s="1"/>
@@ -3018,7 +3045,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>659</v>
+        <v>642</v>
       </c>
       <c r="F13" s="2"/>
       <c r="H13" s="1"/>
@@ -3047,7 +3074,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F14" s="2"/>
       <c r="H14" s="1"/>
@@ -3076,7 +3103,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F15" s="2"/>
       <c r="H15" s="1"/>
@@ -3105,7 +3132,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F16" s="2"/>
       <c r="H16" s="1"/>
@@ -3134,7 +3161,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F17" s="2"/>
       <c r="H17" s="1"/>
@@ -3163,7 +3190,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>438</v>
+        <v>704</v>
       </c>
       <c r="F18" s="2"/>
       <c r="H18" s="1"/>
@@ -3192,7 +3219,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F19" s="2"/>
       <c r="H19" s="1"/>
@@ -3221,7 +3248,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F20" s="2"/>
       <c r="H20" s="1"/>
@@ -3250,7 +3277,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F21" s="2"/>
       <c r="H21" s="1"/>
@@ -3279,7 +3306,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F22" s="2"/>
       <c r="H22" s="1"/>
@@ -3308,7 +3335,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F23" s="2"/>
       <c r="H23" s="1"/>
@@ -3366,7 +3393,7 @@
         <v>3</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F25" s="2"/>
       <c r="H25" s="1"/>
@@ -3395,7 +3422,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F26" s="2"/>
       <c r="H26" s="1"/>
@@ -3424,7 +3451,7 @@
         <v>3</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F27" s="2"/>
       <c r="H27" s="1"/>
@@ -3453,7 +3480,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F28" s="2"/>
       <c r="H28" s="1"/>
@@ -3482,7 +3509,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>660</v>
+        <v>643</v>
       </c>
       <c r="F29" s="2"/>
       <c r="H29" s="1"/>
@@ -3511,7 +3538,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.2">
@@ -3525,7 +3552,7 @@
         <v>2</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.2">
@@ -3539,7 +3566,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>450</v>
+        <v>705</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -3553,7 +3580,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -3567,7 +3594,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -3578,10 +3605,10 @@
         <v>351</v>
       </c>
       <c r="C35" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>727</v>
+        <v>706</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -3595,7 +3622,7 @@
         <v>1</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -3609,7 +3636,7 @@
         <v>2</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3623,7 +3650,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3637,7 +3664,7 @@
         <v>1</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3651,7 +3678,7 @@
         <v>4</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3665,7 +3692,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3679,7 +3706,7 @@
         <v>1</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3693,7 +3720,7 @@
         <v>1</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -3707,7 +3734,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>661</v>
+        <v>644</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -3721,7 +3748,7 @@
         <v>1</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -3735,7 +3762,7 @@
         <v>1</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -3749,7 +3776,7 @@
         <v>2</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -3763,7 +3790,7 @@
         <v>1</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -3777,7 +3804,7 @@
         <v>1</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -3791,7 +3818,7 @@
         <v>2</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -3805,7 +3832,7 @@
         <v>1</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -3819,7 +3846,7 @@
         <v>1</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -3833,7 +3860,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -3847,7 +3874,7 @@
         <v>2</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -3861,7 +3888,7 @@
         <v>1</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -3875,7 +3902,7 @@
         <v>1</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -3889,7 +3916,7 @@
         <v>5</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -3903,7 +3930,7 @@
         <v>1</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -3917,7 +3944,7 @@
         <v>2</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>662</v>
+        <v>707</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -3928,10 +3955,10 @@
         <v>266</v>
       </c>
       <c r="C60" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>475</v>
+        <v>708</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -3945,7 +3972,7 @@
         <v>5</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>663</v>
+        <v>709</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -3959,21 +3986,21 @@
         <v>2</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>361</v>
+        <v>275</v>
       </c>
       <c r="C63" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>477</v>
+        <v>710</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -3981,27 +4008,27 @@
         <v>80</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C64" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>664</v>
+        <v>473</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>267</v>
+        <v>362</v>
       </c>
       <c r="C65" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>478</v>
+        <v>645</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -4009,97 +4036,97 @@
         <v>81</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>353</v>
+        <v>267</v>
       </c>
       <c r="C66" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>403</v>
+        <v>81</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>310</v>
+        <v>353</v>
       </c>
       <c r="C67" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>693</v>
+        <v>475</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>42</v>
+        <v>403</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>363</v>
+        <v>310</v>
       </c>
       <c r="C68" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>337</v>
+        <v>363</v>
       </c>
       <c r="C69" s="1">
         <v>1</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>676</v>
+        <v>655</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>268</v>
+        <v>337</v>
       </c>
       <c r="C70" s="1">
         <v>1</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>480</v>
+        <v>656</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C71" s="1">
         <v>1</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C72" s="1">
         <v>1</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -4107,55 +4134,55 @@
         <v>44</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C73" s="1">
         <v>1</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>354</v>
+        <v>269</v>
       </c>
       <c r="C74" s="1">
         <v>1</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>45</v>
+        <v>139</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>271</v>
+        <v>354</v>
       </c>
       <c r="C75" s="1">
         <v>1</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>360</v>
+        <v>271</v>
       </c>
       <c r="C76" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -4163,69 +4190,69 @@
         <v>46</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C77" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>176</v>
+        <v>46</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C78" s="1">
         <v>1</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>272</v>
+        <v>365</v>
       </c>
       <c r="C79" s="1">
         <v>1</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>350</v>
+        <v>272</v>
       </c>
       <c r="C80" s="1">
         <v>1</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>106</v>
+        <v>193</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>273</v>
+        <v>350</v>
       </c>
       <c r="C81" s="1">
         <v>1</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -4233,41 +4260,41 @@
         <v>106</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>366</v>
+        <v>273</v>
       </c>
       <c r="C82" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C83" s="1">
         <v>2</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C84" s="1">
         <v>2</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -4275,69 +4302,69 @@
         <v>47</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C85" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="C86" s="1">
         <v>1</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>274</v>
+        <v>362</v>
       </c>
       <c r="C87" s="1">
         <v>1</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>689</v>
+        <v>48</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>694</v>
+        <v>274</v>
       </c>
       <c r="C88" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>35</v>
+        <v>493</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>194</v>
+        <v>667</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>370</v>
+        <v>672</v>
       </c>
       <c r="C89" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>498</v>
+        <v>35</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -4345,94 +4372,97 @@
         <v>194</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C90" s="1">
         <v>1</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>275</v>
+        <v>371</v>
       </c>
       <c r="C91" s="1">
         <v>1</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>372</v>
+        <v>275</v>
       </c>
       <c r="C92" s="1">
         <v>1</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>108</v>
+        <v>178</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="C93" s="1">
         <v>1</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="C94" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>217</v>
+        <v>82</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="C95" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>677</v>
+        <v>499</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>140</v>
+        <v>217</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>284</v>
+        <v>365</v>
       </c>
       <c r="C96" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -4440,139 +4470,139 @@
         <v>140</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="C97" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>504</v>
+        <v>711</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>24</v>
+        <v>140</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>374</v>
+        <v>276</v>
       </c>
       <c r="C98" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C99" s="1">
         <v>1</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>678</v>
+        <v>501</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="C100" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>506</v>
+        <v>658</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>342</v>
+        <v>365</v>
       </c>
       <c r="C101" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>376</v>
+        <v>342</v>
       </c>
       <c r="C102" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>218</v>
+        <v>50</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>353</v>
+        <v>376</v>
       </c>
       <c r="C103" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>83</v>
+        <v>218</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>250</v>
+        <v>353</v>
       </c>
       <c r="C104" s="1">
         <v>1</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>219</v>
+        <v>83</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>345</v>
+        <v>250</v>
       </c>
       <c r="C105" s="1">
         <v>1</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>84</v>
+        <v>219</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>277</v>
+        <v>345</v>
       </c>
       <c r="C106" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -4580,41 +4610,41 @@
         <v>84</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C107" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>141</v>
+        <v>84</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C108" s="1">
         <v>1</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C109" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>665</v>
+        <v>510</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -4622,83 +4652,83 @@
         <v>142</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>377</v>
+        <v>280</v>
       </c>
       <c r="C110" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>515</v>
+        <v>646</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>179</v>
+        <v>142</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C111" s="1">
         <v>2</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>51</v>
+        <v>179</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="C112" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>373</v>
+        <v>336</v>
       </c>
       <c r="C113" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>279</v>
+        <v>373</v>
       </c>
       <c r="C114" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>363</v>
+        <v>279</v>
       </c>
       <c r="C115" s="1">
         <v>1</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -4706,69 +4736,69 @@
         <v>25</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="C116" s="1">
         <v>1</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>344</v>
+        <v>374</v>
       </c>
       <c r="C117" s="1">
         <v>1</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="C118" s="1">
         <v>1</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>195</v>
+        <v>54</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>378</v>
+        <v>333</v>
       </c>
       <c r="C119" s="1">
         <v>1</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>524</v>
+        <v>712</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>341</v>
+        <v>378</v>
       </c>
       <c r="C120" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -4776,41 +4806,41 @@
         <v>220</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>281</v>
+        <v>341</v>
       </c>
       <c r="C121" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>26</v>
+        <v>220</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C122" s="1">
         <v>2</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>221</v>
+        <v>26</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C123" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -4818,27 +4848,27 @@
         <v>221</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C124" s="1">
         <v>1</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>112</v>
+        <v>221</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C125" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -4846,139 +4876,139 @@
         <v>112</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C126" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>531</v>
+        <v>713</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>196</v>
+        <v>112</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="C127" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>679</v>
+        <v>714</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>353</v>
+        <v>279</v>
       </c>
       <c r="C128" s="1">
         <v>1</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>532</v>
+        <v>659</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="C129" s="1">
         <v>1</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
       <c r="C130" s="1">
         <v>1</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C131" s="1">
         <v>1</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C132" s="1">
         <v>1</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>728</v>
+        <v>528</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C133" s="1">
         <v>1</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>536</v>
+        <v>699</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>404</v>
+        <v>180</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>360</v>
+        <v>381</v>
       </c>
       <c r="C134" s="1">
         <v>1</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>666</v>
+        <v>529</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>198</v>
+        <v>404</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>286</v>
+        <v>360</v>
       </c>
       <c r="C135" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>537</v>
+        <v>647</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -4986,153 +5016,153 @@
         <v>198</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C136" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>362</v>
+        <v>287</v>
       </c>
       <c r="C137" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>146</v>
+        <v>199</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>288</v>
+        <v>362</v>
       </c>
       <c r="C138" s="1">
         <v>1</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>680</v>
+        <v>532</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>27</v>
+        <v>146</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>382</v>
+        <v>288</v>
       </c>
       <c r="C139" s="1">
         <v>1</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>540</v>
+        <v>660</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>222</v>
+        <v>27</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>289</v>
+        <v>382</v>
       </c>
       <c r="C140" s="1">
         <v>1</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>114</v>
+        <v>222</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>383</v>
+        <v>289</v>
       </c>
       <c r="C141" s="1">
         <v>1</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>405</v>
+        <v>114</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="C142" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>115</v>
+        <v>405</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>345</v>
+        <v>412</v>
       </c>
       <c r="C143" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>290</v>
+        <v>345</v>
       </c>
       <c r="C144" s="1">
         <v>1</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>55</v>
+        <v>147</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C145" s="1">
         <v>1</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>681</v>
+        <v>538</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C146" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>546</v>
+        <v>661</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
@@ -5140,111 +5170,111 @@
         <v>85</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C147" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>406</v>
+        <v>85</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>345</v>
+        <v>293</v>
       </c>
       <c r="C148" s="1">
         <v>1</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>667</v>
+        <v>540</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>148</v>
+        <v>406</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>294</v>
+        <v>345</v>
       </c>
       <c r="C149" s="1">
         <v>1</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>682</v>
+        <v>648</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>384</v>
+        <v>294</v>
       </c>
       <c r="C150" s="1">
         <v>1</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>548</v>
+        <v>715</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>353</v>
+        <v>384</v>
       </c>
       <c r="C151" s="1">
         <v>1</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>279</v>
+        <v>353</v>
       </c>
       <c r="C152" s="1">
         <v>1</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>690</v>
+        <v>56</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>695</v>
+        <v>279</v>
       </c>
       <c r="C153" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>35</v>
+        <v>543</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>87</v>
+        <v>668</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>263</v>
+        <v>673</v>
       </c>
       <c r="C154" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>551</v>
+        <v>35</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
@@ -5252,167 +5282,167 @@
         <v>87</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="C155" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C156" s="1">
         <v>1</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>683</v>
+        <v>545</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>181</v>
+        <v>57</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>370</v>
+        <v>296</v>
       </c>
       <c r="C157" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>553</v>
+        <v>662</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>88</v>
+        <v>181</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="C158" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C159" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>691</v>
+        <v>117</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>341</v>
+        <v>372</v>
       </c>
       <c r="C160" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>35</v>
+        <v>548</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>223</v>
+        <v>669</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>297</v>
+        <v>341</v>
       </c>
       <c r="C161" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>684</v>
+        <v>35</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>333</v>
+        <v>297</v>
       </c>
       <c r="C162" s="1">
         <v>1</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>556</v>
+        <v>663</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>58</v>
+        <v>224</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="C163" s="1">
         <v>1</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C164" s="1">
         <v>1</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>668</v>
+        <v>550</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>149</v>
+        <v>28</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>371</v>
+        <v>299</v>
       </c>
       <c r="C165" s="1">
         <v>1</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>558</v>
+        <v>649</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>251</v>
+        <v>371</v>
       </c>
       <c r="C166" s="1">
         <v>1</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
@@ -5420,69 +5450,69 @@
         <v>118</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>352</v>
+        <v>251</v>
       </c>
       <c r="C167" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C168" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>300</v>
+        <v>353</v>
       </c>
       <c r="C169" s="1">
         <v>1</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>225</v>
+        <v>150</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>373</v>
+        <v>300</v>
       </c>
       <c r="C170" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
-        <v>29</v>
+        <v>225</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>301</v>
+        <v>373</v>
       </c>
       <c r="C171" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
@@ -5490,27 +5520,27 @@
         <v>29</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C172" s="1">
         <v>1</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
-        <v>151</v>
+        <v>29</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>385</v>
+        <v>302</v>
       </c>
       <c r="C173" s="1">
         <v>1</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
@@ -5518,69 +5548,69 @@
         <v>151</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C174" s="1">
         <v>1</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>59</v>
+        <v>151</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>271</v>
+        <v>386</v>
       </c>
       <c r="C175" s="1">
         <v>1</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>340</v>
+        <v>271</v>
       </c>
       <c r="C176" s="1">
         <v>1</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
-        <v>226</v>
+        <v>89</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="C177" s="1">
         <v>1</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>685</v>
+        <v>562</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>119</v>
+        <v>226</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>303</v>
+        <v>359</v>
       </c>
       <c r="C178" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>570</v>
+        <v>664</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
@@ -5588,55 +5618,55 @@
         <v>119</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>336</v>
+        <v>303</v>
       </c>
       <c r="C179" s="1">
         <v>2</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>571</v>
+        <v>716</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C180" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="C181" s="1">
         <v>1</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="C182" s="1">
         <v>1</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
@@ -5644,41 +5674,41 @@
         <v>152</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C183" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
-        <v>60</v>
+        <v>152</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="C184" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
-        <v>227</v>
+        <v>60</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>304</v>
+        <v>351</v>
       </c>
       <c r="C185" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
@@ -5686,27 +5716,27 @@
         <v>227</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>415</v>
+        <v>304</v>
       </c>
       <c r="C186" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>686</v>
+        <v>717</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
-        <v>183</v>
+        <v>227</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>368</v>
+        <v>415</v>
       </c>
       <c r="C187" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>578</v>
+        <v>665</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
@@ -5720,63 +5750,63 @@
         <v>4</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>305</v>
+        <v>368</v>
       </c>
       <c r="C189" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>687</v>
+        <v>569</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
-        <v>228</v>
+        <v>153</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>354</v>
+        <v>305</v>
       </c>
       <c r="C190" s="1">
         <v>1</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>579</v>
+        <v>666</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="C191" s="1">
         <v>1</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
-        <v>154</v>
+        <v>229</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>387</v>
+        <v>362</v>
       </c>
       <c r="C192" s="1">
         <v>1</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
@@ -5784,27 +5814,27 @@
         <v>154</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>353</v>
+        <v>387</v>
       </c>
       <c r="C193" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
-        <v>61</v>
+        <v>154</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="C194" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
@@ -5812,41 +5842,41 @@
         <v>61</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>386</v>
+        <v>341</v>
       </c>
       <c r="C195" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C196" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>729</v>
+        <v>575</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
-        <v>230</v>
+        <v>62</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C197" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>585</v>
+        <v>718</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
@@ -5854,256 +5884,247 @@
         <v>230</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>363</v>
+        <v>386</v>
       </c>
       <c r="C198" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
-        <v>692</v>
+        <v>230</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>396</v>
+        <v>363</v>
       </c>
       <c r="C199" s="1">
         <v>1</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>730</v>
+        <v>719</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
-        <v>200</v>
+        <v>670</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>351</v>
+        <v>396</v>
       </c>
       <c r="C200" s="1">
         <v>1</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>669</v>
+        <v>700</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>389</v>
+        <v>351</v>
       </c>
       <c r="C201" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>587</v>
+        <v>720</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>91</v>
+        <v>721</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>380</v>
+        <v>305</v>
       </c>
       <c r="C202" s="1">
-        <v>1</v>
-      </c>
-      <c r="D202" s="4" t="s">
-        <v>696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
-        <v>121</v>
+        <v>30</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>253</v>
+        <v>389</v>
       </c>
       <c r="C203" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="C204" s="1">
         <v>1</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>589</v>
+        <v>674</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>342</v>
+        <v>253</v>
       </c>
       <c r="C205" s="1">
-        <v>1</v>
-      </c>
-      <c r="D205" s="4" t="s">
-        <v>590</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>295</v>
+        <v>370</v>
       </c>
       <c r="C206" s="1">
         <v>1</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="C207" s="1">
         <v>1</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>697</v>
+        <v>579</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
-        <v>32</v>
+        <v>722</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>266</v>
+        <v>723</v>
       </c>
       <c r="C208" s="1">
-        <v>1</v>
-      </c>
-      <c r="D208" s="4" t="s">
-        <v>592</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="C209" s="1">
         <v>1</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
-        <v>63</v>
+        <v>156</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C210" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>594</v>
+        <v>675</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>309</v>
+        <v>266</v>
       </c>
       <c r="C211" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>698</v>
+        <v>724</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
-        <v>157</v>
+        <v>32</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C212" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>699</v>
+        <v>581</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>351</v>
+        <v>308</v>
       </c>
       <c r="C213" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
-        <v>201</v>
+        <v>63</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C214" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>700</v>
+        <v>676</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C215" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>701</v>
+        <v>725</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
-        <v>312</v>
+        <v>92</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>351</v>
@@ -6112,662 +6133,659 @@
         <v>1</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
-        <v>33</v>
+        <v>201</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>362</v>
+        <v>310</v>
       </c>
       <c r="C217" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>597</v>
+        <v>726</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>362</v>
+        <v>311</v>
       </c>
       <c r="C218" s="1">
         <v>1</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>598</v>
+        <v>677</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
-        <v>231</v>
+        <v>312</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="C219" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>599</v>
+        <v>584</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
-        <v>203</v>
+        <v>33</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="C220" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>600</v>
+        <v>585</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>389</v>
+        <v>362</v>
       </c>
       <c r="C221" s="1">
         <v>1</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>601</v>
+        <v>586</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
-        <v>158</v>
+        <v>231</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C222" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>602</v>
+        <v>587</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>315</v>
+        <v>340</v>
       </c>
       <c r="C223" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>603</v>
+        <v>727</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>362</v>
+        <v>389</v>
       </c>
       <c r="C224" s="1">
         <v>1</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C225" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>605</v>
+        <v>728</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
-        <v>122</v>
+        <v>232</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C226" s="1">
         <v>1</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>605</v>
+        <v>589</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
-        <v>122</v>
+        <v>233</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>317</v>
+        <v>362</v>
       </c>
       <c r="C227" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="C228" s="1">
         <v>1</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>390</v>
+        <v>317</v>
       </c>
       <c r="C229" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>608</v>
+        <v>729</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
-        <v>205</v>
+        <v>730</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>391</v>
+        <v>731</v>
       </c>
       <c r="C230" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D230" s="4" t="s">
-        <v>702</v>
+        <v>35</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>392</v>
+        <v>292</v>
       </c>
       <c r="C231" s="1">
         <v>1</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>609</v>
+        <v>592</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
-        <v>184</v>
+        <v>93</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>265</v>
+        <v>390</v>
       </c>
       <c r="C232" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>610</v>
+        <v>593</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
-        <v>64</v>
+        <v>205</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>251</v>
+        <v>391</v>
       </c>
       <c r="C233" s="1">
         <v>1</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>611</v>
+        <v>678</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
-        <v>234</v>
+        <v>184</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>318</v>
+        <v>392</v>
       </c>
       <c r="C234" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>612</v>
+        <v>594</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
-        <v>234</v>
+        <v>184</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C235" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>613</v>
+        <v>595</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
-        <v>123</v>
+        <v>64</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>317</v>
+        <v>251</v>
       </c>
       <c r="C236" s="1">
         <v>1</v>
       </c>
       <c r="D236" s="4" t="s">
-        <v>614</v>
+        <v>596</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
-        <v>185</v>
+        <v>234</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C237" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>615</v>
+        <v>597</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
-        <v>160</v>
+        <v>234</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>373</v>
+        <v>268</v>
       </c>
       <c r="C238" s="1">
         <v>2</v>
       </c>
       <c r="D238" s="4" t="s">
-        <v>616</v>
+        <v>598</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="C239" s="1">
         <v>1</v>
       </c>
       <c r="D239" s="4" t="s">
-        <v>617</v>
+        <v>599</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>393</v>
+        <v>319</v>
       </c>
       <c r="C240" s="1">
         <v>1</v>
       </c>
       <c r="D240" s="4" t="s">
-        <v>618</v>
+        <v>600</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C241" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>619</v>
+        <v>601</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="C242" s="1">
         <v>1</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>703</v>
+        <v>602</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
-        <v>235</v>
+        <v>160</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>363</v>
+        <v>393</v>
       </c>
       <c r="C243" s="1">
         <v>1</v>
       </c>
       <c r="D243" s="4" t="s">
-        <v>620</v>
+        <v>603</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>320</v>
+        <v>386</v>
       </c>
       <c r="C244" s="1">
         <v>1</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>621</v>
+        <v>604</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="C245" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>622</v>
+        <v>679</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
-        <v>65</v>
+        <v>235</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>389</v>
+        <v>363</v>
       </c>
       <c r="C246" s="1">
         <v>1</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>623</v>
+        <v>605</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
-        <v>206</v>
+        <v>162</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="C247" s="1">
-        <v>1</v>
-      </c>
-      <c r="D247" s="4" t="s">
-        <v>670</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
-        <v>407</v>
+        <v>125</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>413</v>
+        <v>342</v>
       </c>
       <c r="C248" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>704</v>
+        <v>606</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>321</v>
+        <v>389</v>
       </c>
       <c r="C249" s="1">
         <v>1</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>624</v>
+        <v>607</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
-        <v>126</v>
+        <v>206</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>260</v>
+        <v>365</v>
       </c>
       <c r="C250" s="1">
         <v>1</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>625</v>
+        <v>650</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
-        <v>67</v>
+        <v>407</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>349</v>
+        <v>413</v>
       </c>
       <c r="C251" s="1">
         <v>1</v>
       </c>
       <c r="D251" s="4" t="s">
-        <v>705</v>
+        <v>680</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
-        <v>207</v>
+        <v>66</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>388</v>
+        <v>321</v>
       </c>
       <c r="C252" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D252" s="4" t="s">
-        <v>626</v>
+        <v>608</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>354</v>
+        <v>260</v>
       </c>
       <c r="C253" s="1">
         <v>1</v>
       </c>
       <c r="D253" s="4" t="s">
-        <v>627</v>
+        <v>609</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="C254" s="1">
         <v>1</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>628</v>
+        <v>681</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
-        <v>34</v>
+        <v>207</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="C255" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>706</v>
+        <v>610</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
-        <v>94</v>
+        <v>163</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>296</v>
+        <v>354</v>
       </c>
       <c r="C256" s="1">
         <v>1</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>629</v>
+        <v>611</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>416</v>
+        <v>370</v>
       </c>
       <c r="C257" s="1">
         <v>1</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>630</v>
+        <v>612</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
-        <v>236</v>
+        <v>34</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>322</v>
+        <v>351</v>
       </c>
       <c r="C258" s="1">
         <v>1</v>
       </c>
       <c r="D258" s="4" t="s">
-        <v>631</v>
+        <v>682</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
-        <v>164</v>
+        <v>94</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>378</v>
+        <v>296</v>
       </c>
       <c r="C259" s="1">
         <v>1</v>
       </c>
       <c r="D259" s="4" t="s">
-        <v>632</v>
+        <v>613</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
-        <v>186</v>
+        <v>94</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>388</v>
+        <v>416</v>
       </c>
       <c r="C260" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D260" s="4" t="s">
-        <v>731</v>
+        <v>614</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
-        <v>128</v>
+        <v>236</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="C261" s="1">
         <v>1</v>
       </c>
       <c r="D261" s="4" t="s">
-        <v>633</v>
+        <v>615</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
-        <v>95</v>
+        <v>164</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>323</v>
+        <v>378</v>
       </c>
       <c r="C262" s="1">
         <v>1</v>
       </c>
       <c r="D262" s="4" t="s">
-        <v>634</v>
+        <v>616</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>388</v>
       </c>
       <c r="C263" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D263" s="4" t="s">
         <v>732</v>
@@ -6775,715 +6793,799 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>324</v>
+        <v>253</v>
       </c>
       <c r="C264" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D264" s="4" t="s">
-        <v>707</v>
+        <v>617</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
-        <v>408</v>
+        <v>95</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C265" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D265" s="4" t="s">
-        <v>708</v>
+        <v>618</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
-        <v>69</v>
+        <v>165</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="C266" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>709</v>
+        <v>733</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
-        <v>325</v>
+        <v>68</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>373</v>
+        <v>324</v>
       </c>
       <c r="C267" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>635</v>
+        <v>683</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
-        <v>70</v>
+        <v>408</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>375</v>
+        <v>324</v>
       </c>
       <c r="C268" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D268" s="4" t="s">
-        <v>710</v>
+        <v>684</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="C269" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D269" s="4" t="s">
-        <v>711</v>
+        <v>685</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
-        <v>96</v>
+        <v>325</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>326</v>
+        <v>373</v>
       </c>
       <c r="C270" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D270" s="4" t="s">
-        <v>712</v>
+        <v>619</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
-        <v>129</v>
+        <v>70</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>260</v>
+        <v>375</v>
       </c>
       <c r="C271" s="1">
         <v>1</v>
       </c>
       <c r="D271" s="4" t="s">
-        <v>713</v>
+        <v>686</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
-        <v>208</v>
+        <v>71</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C272" s="1">
         <v>1</v>
       </c>
       <c r="D272" s="4" t="s">
-        <v>636</v>
+        <v>687</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
-        <v>166</v>
+        <v>96</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>273</v>
+        <v>326</v>
       </c>
       <c r="C273" s="1">
         <v>1</v>
       </c>
       <c r="D273" s="4" t="s">
-        <v>637</v>
+        <v>688</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>386</v>
+        <v>260</v>
       </c>
       <c r="C274" s="1">
         <v>1</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>638</v>
+        <v>689</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>340</v>
+        <v>367</v>
       </c>
       <c r="C275" s="1">
         <v>1</v>
       </c>
       <c r="D275" s="4" t="s">
-        <v>639</v>
+        <v>620</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>340</v>
+        <v>273</v>
       </c>
       <c r="C276" s="1">
         <v>1</v>
       </c>
       <c r="D276" s="4" t="s">
-        <v>714</v>
+        <v>621</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
-        <v>237</v>
+        <v>166</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>257</v>
+        <v>386</v>
       </c>
       <c r="C277" s="1">
         <v>1</v>
       </c>
       <c r="D277" s="4" t="s">
-        <v>715</v>
+        <v>622</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>394</v>
+        <v>340</v>
       </c>
       <c r="C278" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D278" s="4" t="s">
-        <v>640</v>
+        <v>623</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>294</v>
+        <v>340</v>
       </c>
       <c r="C279" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D279" s="4" t="s">
-        <v>35</v>
+        <v>734</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
-        <v>131</v>
+        <v>237</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>327</v>
+        <v>257</v>
       </c>
       <c r="C280" s="1">
         <v>1</v>
       </c>
       <c r="D280" s="4" t="s">
-        <v>641</v>
+        <v>690</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C281" s="1">
         <v>2</v>
       </c>
-      <c r="B281" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="C281" s="1">
-        <v>1</v>
-      </c>
       <c r="D281" s="4" t="s">
-        <v>671</v>
+        <v>624</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
-        <v>3</v>
+        <v>167</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="C282" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D282" s="4" t="s">
-        <v>642</v>
+        <v>35</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
-        <v>4</v>
+        <v>131</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>381</v>
+        <v>327</v>
       </c>
       <c r="C283" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D283" s="4" t="s">
-        <v>643</v>
+        <v>625</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>733</v>
+        <v>348</v>
       </c>
       <c r="C284" s="1">
         <v>1</v>
       </c>
       <c r="D284" s="4" t="s">
-        <v>734</v>
+        <v>651</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
-        <v>417</v>
+        <v>3</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>418</v>
+        <v>265</v>
       </c>
       <c r="C285" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D285" s="4" t="s">
-        <v>716</v>
+        <v>626</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>294</v>
+        <v>381</v>
       </c>
       <c r="C286" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D286" s="4" t="s">
-        <v>717</v>
+        <v>627</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>351</v>
+        <v>701</v>
       </c>
       <c r="C287" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D287" s="4" t="s">
-        <v>644</v>
+        <v>702</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
-        <v>242</v>
+        <v>735</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>348</v>
+        <v>736</v>
       </c>
       <c r="C288" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D288" s="4" t="s">
-        <v>718</v>
+        <v>737</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
-        <v>7</v>
+        <v>417</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>328</v>
+        <v>418</v>
       </c>
       <c r="C289" s="1">
         <v>1</v>
       </c>
       <c r="D289" s="4" t="s">
-        <v>719</v>
+        <v>691</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>329</v>
+        <v>294</v>
       </c>
       <c r="C290" s="1">
         <v>1</v>
       </c>
       <c r="D290" s="4" t="s">
-        <v>645</v>
+        <v>692</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>319</v>
+        <v>351</v>
       </c>
       <c r="C291" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D291" s="4" t="s">
-        <v>720</v>
+        <v>628</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" s="2" t="s">
-        <v>10</v>
+        <v>242</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>395</v>
+        <v>348</v>
       </c>
       <c r="C292" s="1">
         <v>1</v>
       </c>
       <c r="D292" s="4" t="s">
-        <v>646</v>
+        <v>693</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="s">
-        <v>409</v>
+        <v>7</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>386</v>
+        <v>328</v>
       </c>
       <c r="C293" s="1">
         <v>1</v>
       </c>
       <c r="D293" s="4" t="s">
-        <v>672</v>
+        <v>738</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="C294" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D294" s="4" t="s">
-        <v>647</v>
+        <v>629</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
-        <v>419</v>
+        <v>9</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>420</v>
+        <v>319</v>
       </c>
       <c r="C295" s="1">
         <v>1</v>
       </c>
       <c r="D295" s="4" t="s">
-        <v>648</v>
+        <v>739</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C296" s="1">
         <v>1</v>
       </c>
       <c r="D296" s="4" t="s">
-        <v>649</v>
+        <v>630</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
-        <v>13</v>
+        <v>740</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C297" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D297" s="4" t="s">
-        <v>650</v>
+        <v>35</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
-        <v>14</v>
+        <v>409</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>330</v>
+        <v>386</v>
       </c>
       <c r="C298" s="1">
         <v>1</v>
       </c>
       <c r="D298" s="4" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>398</v>
+        <v>306</v>
       </c>
       <c r="C299" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D299" s="4" t="s">
-        <v>652</v>
+        <v>741</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
-        <v>1</v>
+        <v>419</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>399</v>
+        <v>420</v>
       </c>
       <c r="C300" s="1">
         <v>1</v>
       </c>
       <c r="D300" s="4" t="s">
-        <v>653</v>
+        <v>631</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
-        <v>238</v>
+        <v>12</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>362</v>
+        <v>396</v>
       </c>
       <c r="C301" s="1">
         <v>1</v>
       </c>
       <c r="D301" s="4" t="s">
-        <v>654</v>
+        <v>632</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
-        <v>243</v>
+        <v>13</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>373</v>
+        <v>397</v>
       </c>
       <c r="C302" s="1">
         <v>1</v>
       </c>
       <c r="D302" s="4" t="s">
-        <v>673</v>
+        <v>633</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
-        <v>239</v>
+        <v>14</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>370</v>
+        <v>330</v>
       </c>
       <c r="C303" s="1">
         <v>1</v>
       </c>
       <c r="D303" s="4" t="s">
-        <v>721</v>
+        <v>634</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
-        <v>244</v>
+        <v>15</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>287</v>
+        <v>398</v>
       </c>
       <c r="C304" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D304" s="4" t="s">
-        <v>655</v>
+        <v>635</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
-        <v>240</v>
+        <v>1</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>362</v>
+        <v>399</v>
       </c>
       <c r="C305" s="1">
         <v>1</v>
       </c>
       <c r="D305" s="4" t="s">
-        <v>722</v>
+        <v>636</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>331</v>
+        <v>362</v>
       </c>
       <c r="C306" s="1">
         <v>1</v>
       </c>
       <c r="D306" s="4" t="s">
-        <v>723</v>
+        <v>637</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="C307" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D307" s="4" t="s">
-        <v>735</v>
+        <v>653</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="s">
-        <v>400</v>
+        <v>239</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>343</v>
+        <v>370</v>
       </c>
       <c r="C308" s="1">
         <v>1</v>
       </c>
       <c r="D308" s="4" t="s">
-        <v>674</v>
+        <v>694</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309" s="2" t="s">
-        <v>411</v>
+        <v>244</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>388</v>
+        <v>287</v>
       </c>
       <c r="C309" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D309" s="4" t="s">
-        <v>736</v>
+        <v>638</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310" s="2" t="s">
-        <v>410</v>
+        <v>240</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>281</v>
+        <v>362</v>
       </c>
       <c r="C310" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D310" s="4" t="s">
-        <v>656</v>
+        <v>695</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="s">
-        <v>421</v>
+        <v>241</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="C311" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D311" s="4" t="s">
-        <v>35</v>
+        <v>742</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312" s="2" t="s">
-        <v>422</v>
+        <v>245</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>423</v>
+        <v>388</v>
       </c>
       <c r="C312" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D312" s="4" t="s">
-        <v>724</v>
+        <v>743</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313" s="2" t="s">
-        <v>424</v>
+        <v>400</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>251</v>
+        <v>343</v>
       </c>
       <c r="C313" s="1">
         <v>1</v>
       </c>
       <c r="D313" s="4" t="s">
-        <v>725</v>
+        <v>654</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314" s="2" t="s">
-        <v>726</v>
+        <v>411</v>
       </c>
       <c r="B314" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C314" s="1">
+        <v>2</v>
+      </c>
+      <c r="D314" s="4" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A315" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C315" s="1">
+        <v>4</v>
+      </c>
+      <c r="D315" s="4" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A316" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C316" s="1">
+        <v>0</v>
+      </c>
+      <c r="D316" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A317" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="C317" s="1">
+        <v>1</v>
+      </c>
+      <c r="D317" s="4" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A318" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C318" s="1">
+        <v>1</v>
+      </c>
+      <c r="D318" s="4" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A319" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="B319" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="C314" s="1">
+      <c r="C319" s="1">
         <v>0</v>
       </c>
-      <c r="D314" s="4" t="s">
+      <c r="D319" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A320" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="C320" s="1">
+        <v>0</v>
+      </c>
+      <c r="D320" s="4" t="s">
         <v>35</v>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E77FBA2-EAC9-4089-8CA9-6322ACFF9DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D94D95-2C4F-460D-A42E-0573D24C91D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13065" yWindow="3255" windowWidth="23925" windowHeight="16665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11460" yWindow="3120" windowWidth="23925" windowHeight="16665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="748">
   <si>
     <t>缪尔赛思</t>
   </si>
@@ -1311,9 +1311,6 @@
     <t>海霓</t>
   </si>
   <si>
-    <t>**maa://20990</t>
-  </si>
-  <si>
     <t>*maa://20996</t>
   </si>
   <si>
@@ -1557,9 +1554,6 @@
     <t>maa://20887</t>
   </si>
   <si>
-    <t>maa://28554</t>
-  </si>
-  <si>
     <t>*maa://20933, maa://20822</t>
   </si>
   <si>
@@ -1743,9 +1737,6 @@
     <t>maa://20860</t>
   </si>
   <si>
-    <t>maa://27823, *maa://28190, maa://22894, *maa://20906</t>
-  </si>
-  <si>
     <t>maa://20854</t>
   </si>
   <si>
@@ -1965,9 +1956,6 @@
     <t>maa://39023</t>
   </si>
   <si>
-    <t>maa://39024</t>
-  </si>
-  <si>
     <t>maa://39025</t>
   </si>
   <si>
@@ -2145,137 +2133,152 @@
     <t>maa://39239</t>
   </si>
   <si>
-    <t>更新日期：2024.08.04</t>
+    <t>maa://20865, maa://20826</t>
+  </si>
+  <si>
+    <t>*maa://20916</t>
+  </si>
+  <si>
+    <t>maa://27376, **maa://20838</t>
+  </si>
+  <si>
+    <t>*maa://20845, maa://38727</t>
+  </si>
+  <si>
+    <t>maa://28187, maa://33504, maa://39520</t>
+  </si>
+  <si>
+    <t>maa://28567, maa://30525, *maa://28188, maa://38735, maa://30524</t>
+  </si>
+  <si>
+    <t>maa://39693</t>
+  </si>
+  <si>
+    <t>*maa://39240</t>
+  </si>
+  <si>
+    <t>*maa://20909</t>
+  </si>
+  <si>
+    <t>maa://23019, maa://20837, maa://37113, *maa://37666</t>
+  </si>
+  <si>
+    <t>maa://23020, maa://29023, maa://34319, **maa://39515</t>
+  </si>
+  <si>
+    <t>**maa://39149</t>
+  </si>
+  <si>
+    <t>maa://34866, maa://34714</t>
+  </si>
+  <si>
+    <t>maa://25760, *maa://35854, *maa://20872</t>
+  </si>
+  <si>
+    <t>maa://28133, *maa://28277, maa://25369, *maa://33132</t>
+  </si>
+  <si>
+    <t>*maa://20955</t>
+  </si>
+  <si>
+    <t>**maa://24556</t>
+  </si>
+  <si>
+    <t>桑葚</t>
+  </si>
+  <si>
+    <t>蜜莓</t>
+  </si>
+  <si>
+    <t>GA-2</t>
+  </si>
+  <si>
+    <t>maa://28187, maa://39520</t>
+  </si>
+  <si>
+    <t>maa://39140, maa://30677</t>
+  </si>
+  <si>
+    <t>maa://29058, maa://39140, maa://38723</t>
+  </si>
+  <si>
+    <t>maa://20922, *maa://32623, *maa://34242, maa://34900</t>
+  </si>
+  <si>
+    <t>*maa://30667, maa://30666, *maa://26836, *maa://34428, maa://37607, maa://37850, maa://39588</t>
+  </si>
+  <si>
+    <t>maa://20867, *maa://32202, **maa://38485</t>
+  </si>
+  <si>
+    <t>褐果</t>
+  </si>
+  <si>
+    <t>SV-3</t>
+  </si>
+  <si>
+    <t>maa://30710, maa://36845, maa://31558, maa://30668</t>
+  </si>
+  <si>
+    <t>maa://25774, maa://28133, maa://22469, **maa://31349</t>
+  </si>
+  <si>
+    <t>**maa://39172</t>
+  </si>
+  <si>
+    <t>纯烬艾雅法拉</t>
+  </si>
+  <si>
+    <t>FC-5</t>
+  </si>
+  <si>
+    <t>**maa://39177</t>
+  </si>
+  <si>
+    <t>**maa://39178</t>
+  </si>
+  <si>
+    <t>哈洛德</t>
+  </si>
+  <si>
+    <t>*maa://30671, maa://30669, maa://37275, *maa://32410, maa://33671</t>
+  </si>
+  <si>
+    <t>*maa://39181</t>
+  </si>
+  <si>
+    <t>maa://36868, maa://35996</t>
+  </si>
+  <si>
+    <t>maa://36646, maa://36845</t>
+  </si>
+  <si>
+    <t>衡沙</t>
+  </si>
+  <si>
+    <t>DV-2</t>
+  </si>
+  <si>
+    <t>*maa://20990</t>
+  </si>
+  <si>
+    <t>*maa://39024</t>
+  </si>
+  <si>
+    <t>*maa://28554</t>
+  </si>
+  <si>
+    <t>*maa://27823, *maa://28190, maa://22894, *maa://20906</t>
+  </si>
+  <si>
+    <t>maa://39695</t>
+  </si>
+  <si>
+    <t>maa://39692, *maa://39810</t>
+  </si>
+  <si>
+    <t>更新日期：2024.08.10</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maa://20865, maa://20826</t>
-  </si>
-  <si>
-    <t>*maa://20916</t>
-  </si>
-  <si>
-    <t>maa://27376, **maa://20838</t>
-  </si>
-  <si>
-    <t>*maa://20845, maa://38727</t>
-  </si>
-  <si>
-    <t>maa://28187, maa://33504, maa://39520</t>
-  </si>
-  <si>
-    <t>maa://28567, maa://30525, *maa://28188, maa://38735, maa://30524</t>
-  </si>
-  <si>
-    <t>maa://39693</t>
-  </si>
-  <si>
-    <t>*maa://39240</t>
-  </si>
-  <si>
-    <t>*maa://20909</t>
-  </si>
-  <si>
-    <t>maa://23019, maa://20837, maa://37113, *maa://37666</t>
-  </si>
-  <si>
-    <t>maa://23020, maa://29023, maa://34319, **maa://39515</t>
-  </si>
-  <si>
-    <t>**maa://39149</t>
-  </si>
-  <si>
-    <t>maa://34866, maa://34714</t>
-  </si>
-  <si>
-    <t>maa://25760, *maa://35854, *maa://20872</t>
-  </si>
-  <si>
-    <t>maa://28133, *maa://28277, maa://25369, *maa://33132</t>
-  </si>
-  <si>
-    <t>*maa://20955</t>
-  </si>
-  <si>
-    <t>**maa://24556</t>
-  </si>
-  <si>
-    <t>桑葚</t>
-  </si>
-  <si>
-    <t>蜜莓</t>
-  </si>
-  <si>
-    <t>GA-2</t>
-  </si>
-  <si>
-    <t>maa://28187, maa://39520</t>
-  </si>
-  <si>
-    <t>maa://39140, maa://30677</t>
-  </si>
-  <si>
-    <t>maa://29058, maa://39140, maa://38723</t>
-  </si>
-  <si>
-    <t>maa://20922, *maa://32623, *maa://34242, maa://34900</t>
-  </si>
-  <si>
-    <t>*maa://30667, maa://30666, *maa://26836, *maa://34428, maa://37607, maa://37850, maa://39588</t>
-  </si>
-  <si>
-    <t>maa://20867, *maa://32202, **maa://38485</t>
-  </si>
-  <si>
-    <t>褐果</t>
-  </si>
-  <si>
-    <t>SV-3</t>
-  </si>
-  <si>
-    <t>maa://30710, maa://36845, maa://31558, maa://30668</t>
-  </si>
-  <si>
-    <t>maa://25774, maa://28133, maa://22469, **maa://31349</t>
-  </si>
-  <si>
-    <t>**maa://39172</t>
-  </si>
-  <si>
-    <t>纯烬艾雅法拉</t>
-  </si>
-  <si>
-    <t>FC-5</t>
-  </si>
-  <si>
-    <t>maa://39692, **maa://39810</t>
-  </si>
-  <si>
-    <t>**maa://39177</t>
-  </si>
-  <si>
-    <t>**maa://39178</t>
-  </si>
-  <si>
-    <t>哈洛德</t>
-  </si>
-  <si>
-    <t>*maa://30671, maa://30669, maa://37275, *maa://32410, maa://33671</t>
-  </si>
-  <si>
-    <t>*maa://39181</t>
-  </si>
-  <si>
-    <t>maa://36868, maa://35996</t>
-  </si>
-  <si>
-    <t>maa://36646, maa://36845</t>
-  </si>
-  <si>
-    <t>衡沙</t>
-  </si>
-  <si>
-    <t>DV-2</t>
   </si>
 </sst>
 </file>
@@ -2635,7 +2638,7 @@
   <dimension ref="A1:AF320"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2719,7 +2722,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>425</v>
+        <v>741</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -2750,10 +2753,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>703</v>
+        <v>747</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -2811,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -2842,7 +2845,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F6" s="2"/>
       <c r="H6" s="1"/>
@@ -2871,7 +2874,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F7" s="2"/>
       <c r="H7" s="1"/>
@@ -2900,7 +2903,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F8" s="2"/>
       <c r="H8" s="1"/>
@@ -2929,7 +2932,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="F9" s="2"/>
       <c r="H9" s="1"/>
@@ -2958,7 +2961,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F10" s="2"/>
       <c r="H10" s="1"/>
@@ -2987,7 +2990,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F11" s="2"/>
       <c r="H11" s="1"/>
@@ -3016,7 +3019,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="F12" s="2"/>
       <c r="H12" s="1"/>
@@ -3045,7 +3048,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="F13" s="2"/>
       <c r="H13" s="1"/>
@@ -3074,7 +3077,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F14" s="2"/>
       <c r="H14" s="1"/>
@@ -3103,7 +3106,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F15" s="2"/>
       <c r="H15" s="1"/>
@@ -3132,7 +3135,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F16" s="2"/>
       <c r="H16" s="1"/>
@@ -3161,7 +3164,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F17" s="2"/>
       <c r="H17" s="1"/>
@@ -3190,7 +3193,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="F18" s="2"/>
       <c r="H18" s="1"/>
@@ -3219,7 +3222,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F19" s="2"/>
       <c r="H19" s="1"/>
@@ -3248,7 +3251,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F20" s="2"/>
       <c r="H20" s="1"/>
@@ -3277,7 +3280,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F21" s="2"/>
       <c r="H21" s="1"/>
@@ -3306,7 +3309,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F22" s="2"/>
       <c r="H22" s="1"/>
@@ -3335,7 +3338,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F23" s="2"/>
       <c r="H23" s="1"/>
@@ -3393,7 +3396,7 @@
         <v>3</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F25" s="2"/>
       <c r="H25" s="1"/>
@@ -3422,7 +3425,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F26" s="2"/>
       <c r="H26" s="1"/>
@@ -3451,7 +3454,7 @@
         <v>3</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F27" s="2"/>
       <c r="H27" s="1"/>
@@ -3480,7 +3483,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F28" s="2"/>
       <c r="H28" s="1"/>
@@ -3509,7 +3512,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>643</v>
+        <v>742</v>
       </c>
       <c r="F29" s="2"/>
       <c r="H29" s="1"/>
@@ -3538,7 +3541,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.2">
@@ -3552,7 +3555,7 @@
         <v>2</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.2">
@@ -3566,7 +3569,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -3580,7 +3583,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -3594,7 +3597,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -3608,7 +3611,7 @@
         <v>2</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -3622,7 +3625,7 @@
         <v>1</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -3636,7 +3639,7 @@
         <v>2</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3650,7 +3653,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3664,7 +3667,7 @@
         <v>1</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3678,7 +3681,7 @@
         <v>4</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3692,7 +3695,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3706,7 +3709,7 @@
         <v>1</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3720,7 +3723,7 @@
         <v>1</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -3734,7 +3737,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -3748,7 +3751,7 @@
         <v>1</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -3762,7 +3765,7 @@
         <v>1</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -3776,7 +3779,7 @@
         <v>2</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -3790,7 +3793,7 @@
         <v>1</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -3804,7 +3807,7 @@
         <v>1</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -3818,7 +3821,7 @@
         <v>2</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -3832,7 +3835,7 @@
         <v>1</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -3846,7 +3849,7 @@
         <v>1</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -3860,7 +3863,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -3874,7 +3877,7 @@
         <v>2</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -3888,7 +3891,7 @@
         <v>1</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -3902,7 +3905,7 @@
         <v>1</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -3916,7 +3919,7 @@
         <v>5</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -3930,7 +3933,7 @@
         <v>1</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -3944,7 +3947,7 @@
         <v>2</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -3958,7 +3961,7 @@
         <v>3</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -3972,7 +3975,7 @@
         <v>5</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -3986,7 +3989,7 @@
         <v>2</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -4000,7 +4003,7 @@
         <v>1</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -4014,7 +4017,7 @@
         <v>2</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -4028,7 +4031,7 @@
         <v>8</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -4042,7 +4045,7 @@
         <v>2</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -4056,7 +4059,7 @@
         <v>1</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -4070,7 +4073,7 @@
         <v>3</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -4084,7 +4087,7 @@
         <v>1</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -4098,7 +4101,7 @@
         <v>1</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -4112,7 +4115,7 @@
         <v>1</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -4126,7 +4129,7 @@
         <v>1</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -4140,7 +4143,7 @@
         <v>1</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -4154,7 +4157,7 @@
         <v>1</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -4168,7 +4171,7 @@
         <v>1</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -4182,7 +4185,7 @@
         <v>1</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -4196,7 +4199,7 @@
         <v>4</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -4210,7 +4213,7 @@
         <v>1</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -4224,7 +4227,7 @@
         <v>1</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -4238,7 +4241,7 @@
         <v>1</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -4252,7 +4255,7 @@
         <v>1</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -4266,7 +4269,7 @@
         <v>1</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -4280,7 +4283,7 @@
         <v>2</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -4294,7 +4297,7 @@
         <v>2</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -4308,7 +4311,7 @@
         <v>2</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -4322,7 +4325,7 @@
         <v>1</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -4336,7 +4339,7 @@
         <v>1</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -4350,15 +4353,15 @@
         <v>1</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="C89" s="1">
         <v>0</v>
@@ -4378,7 +4381,7 @@
         <v>1</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -4392,7 +4395,7 @@
         <v>1</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -4406,7 +4409,7 @@
         <v>1</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -4420,7 +4423,7 @@
         <v>1</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -4434,7 +4437,7 @@
         <v>1</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -4448,7 +4451,7 @@
         <v>2</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -4462,7 +4465,7 @@
         <v>1</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -4476,7 +4479,7 @@
         <v>1</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -4490,7 +4493,7 @@
         <v>2</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -4504,7 +4507,7 @@
         <v>1</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -4518,7 +4521,7 @@
         <v>1</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -4532,7 +4535,7 @@
         <v>2</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -4546,7 +4549,7 @@
         <v>1</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -4560,7 +4563,7 @@
         <v>6</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -4574,7 +4577,7 @@
         <v>1</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -4588,7 +4591,7 @@
         <v>1</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -4602,7 +4605,7 @@
         <v>1</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>507</v>
+        <v>743</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -4616,7 +4619,7 @@
         <v>2</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -4630,7 +4633,7 @@
         <v>1</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -4644,7 +4647,7 @@
         <v>1</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -4658,7 +4661,7 @@
         <v>4</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -4672,7 +4675,7 @@
         <v>2</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -4686,7 +4689,7 @@
         <v>2</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -4700,7 +4703,7 @@
         <v>1</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -4714,7 +4717,7 @@
         <v>2</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -4728,7 +4731,7 @@
         <v>1</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -4742,7 +4745,7 @@
         <v>1</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -4756,7 +4759,7 @@
         <v>1</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -4770,7 +4773,7 @@
         <v>1</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -4784,7 +4787,7 @@
         <v>1</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -4798,7 +4801,7 @@
         <v>1</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -4812,7 +4815,7 @@
         <v>3</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -4826,7 +4829,7 @@
         <v>2</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -4840,7 +4843,7 @@
         <v>2</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -4854,7 +4857,7 @@
         <v>1</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -4868,7 +4871,7 @@
         <v>1</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -4882,7 +4885,7 @@
         <v>4</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -4896,7 +4899,7 @@
         <v>4</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -4910,7 +4913,7 @@
         <v>1</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -4924,7 +4927,7 @@
         <v>1</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -4938,7 +4941,7 @@
         <v>1</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -4952,7 +4955,7 @@
         <v>1</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -4966,7 +4969,7 @@
         <v>1</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -4980,7 +4983,7 @@
         <v>1</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -4994,7 +4997,7 @@
         <v>1</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -5008,7 +5011,7 @@
         <v>1</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -5022,7 +5025,7 @@
         <v>3</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
@@ -5036,7 +5039,7 @@
         <v>2</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
@@ -5050,7 +5053,7 @@
         <v>1</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
@@ -5064,7 +5067,7 @@
         <v>1</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
@@ -5078,7 +5081,7 @@
         <v>1</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
@@ -5092,7 +5095,7 @@
         <v>1</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
@@ -5106,7 +5109,7 @@
         <v>1</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
@@ -5120,7 +5123,7 @@
         <v>3</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
@@ -5134,7 +5137,7 @@
         <v>1</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
@@ -5148,7 +5151,7 @@
         <v>1</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
@@ -5162,7 +5165,7 @@
         <v>1</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
@@ -5176,7 +5179,7 @@
         <v>2</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
@@ -5190,7 +5193,7 @@
         <v>1</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
@@ -5204,7 +5207,7 @@
         <v>1</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
@@ -5218,7 +5221,7 @@
         <v>1</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
@@ -5232,7 +5235,7 @@
         <v>1</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
@@ -5246,7 +5249,7 @@
         <v>1</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
@@ -5260,15 +5263,15 @@
         <v>1</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="C154" s="1">
         <v>0</v>
@@ -5288,7 +5291,7 @@
         <v>2</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
@@ -5302,7 +5305,7 @@
         <v>1</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
@@ -5316,7 +5319,7 @@
         <v>1</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
@@ -5330,7 +5333,7 @@
         <v>2</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
@@ -5344,7 +5347,7 @@
         <v>4</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
@@ -5358,12 +5361,12 @@
         <v>1</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>341</v>
@@ -5386,7 +5389,7 @@
         <v>1</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
@@ -5400,7 +5403,7 @@
         <v>1</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
@@ -5414,7 +5417,7 @@
         <v>1</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
@@ -5428,7 +5431,7 @@
         <v>1</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
@@ -5442,7 +5445,7 @@
         <v>1</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
@@ -5456,7 +5459,7 @@
         <v>1</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
@@ -5470,7 +5473,7 @@
         <v>2</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
@@ -5484,7 +5487,7 @@
         <v>1</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
@@ -5498,7 +5501,7 @@
         <v>1</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
@@ -5512,7 +5515,7 @@
         <v>2</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
@@ -5526,7 +5529,7 @@
         <v>1</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
@@ -5540,7 +5543,7 @@
         <v>1</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
@@ -5554,7 +5557,7 @@
         <v>1</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
@@ -5568,7 +5571,7 @@
         <v>1</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
@@ -5582,7 +5585,7 @@
         <v>1</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
@@ -5596,7 +5599,7 @@
         <v>1</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
@@ -5610,7 +5613,7 @@
         <v>1</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
@@ -5624,7 +5627,7 @@
         <v>2</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
@@ -5638,7 +5641,7 @@
         <v>2</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
@@ -5652,7 +5655,7 @@
         <v>1</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
@@ -5666,7 +5669,7 @@
         <v>1</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
@@ -5680,7 +5683,7 @@
         <v>1</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
@@ -5694,7 +5697,7 @@
         <v>2</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
@@ -5708,7 +5711,7 @@
         <v>1</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
@@ -5722,7 +5725,7 @@
         <v>3</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
@@ -5736,7 +5739,7 @@
         <v>1</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
@@ -5750,7 +5753,7 @@
         <v>4</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>569</v>
+        <v>744</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
@@ -5764,7 +5767,7 @@
         <v>4</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>569</v>
+        <v>744</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
@@ -5778,7 +5781,7 @@
         <v>1</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
@@ -5792,7 +5795,7 @@
         <v>1</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
@@ -5806,7 +5809,7 @@
         <v>1</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
@@ -5820,7 +5823,7 @@
         <v>1</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
@@ -5834,7 +5837,7 @@
         <v>2</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
@@ -5848,7 +5851,7 @@
         <v>3</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
@@ -5862,7 +5865,7 @@
         <v>1</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
@@ -5876,7 +5879,7 @@
         <v>4</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
@@ -5890,7 +5893,7 @@
         <v>2</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
@@ -5904,12 +5907,12 @@
         <v>1</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>396</v>
@@ -5918,7 +5921,7 @@
         <v>1</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
@@ -5932,12 +5935,12 @@
         <v>1</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>305</v>
@@ -5957,7 +5960,7 @@
         <v>2</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
@@ -5971,7 +5974,7 @@
         <v>1</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
@@ -5996,7 +5999,7 @@
         <v>1</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
@@ -6010,18 +6013,21 @@
         <v>1</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="C208" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D208" s="4" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
@@ -6035,7 +6041,7 @@
         <v>1</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
@@ -6049,7 +6055,7 @@
         <v>1</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
@@ -6063,7 +6069,7 @@
         <v>2</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
@@ -6077,7 +6083,7 @@
         <v>1</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
@@ -6091,7 +6097,7 @@
         <v>2</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
@@ -6105,7 +6111,7 @@
         <v>1</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
@@ -6119,7 +6125,7 @@
         <v>2</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
@@ -6133,7 +6139,7 @@
         <v>1</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
@@ -6147,7 +6153,7 @@
         <v>3</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
@@ -6161,7 +6167,7 @@
         <v>1</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
@@ -6175,7 +6181,7 @@
         <v>1</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
@@ -6189,7 +6195,7 @@
         <v>1</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
@@ -6203,7 +6209,7 @@
         <v>1</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
@@ -6217,7 +6223,7 @@
         <v>2</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
@@ -6231,7 +6237,7 @@
         <v>4</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
@@ -6245,7 +6251,7 @@
         <v>1</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
@@ -6259,7 +6265,7 @@
         <v>7</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
@@ -6273,7 +6279,7 @@
         <v>1</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
@@ -6287,7 +6293,7 @@
         <v>1</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
@@ -6301,7 +6307,7 @@
         <v>1</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
@@ -6315,15 +6321,15 @@
         <v>3</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="C230" s="1">
         <v>0</v>
@@ -6343,7 +6349,7 @@
         <v>1</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
@@ -6357,7 +6363,7 @@
         <v>2</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
@@ -6371,7 +6377,7 @@
         <v>1</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
@@ -6385,7 +6391,7 @@
         <v>1</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
@@ -6399,7 +6405,7 @@
         <v>3</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
@@ -6413,7 +6419,7 @@
         <v>1</v>
       </c>
       <c r="D236" s="4" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
@@ -6427,7 +6433,7 @@
         <v>2</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
@@ -6441,7 +6447,7 @@
         <v>2</v>
       </c>
       <c r="D238" s="4" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
@@ -6455,7 +6461,7 @@
         <v>1</v>
       </c>
       <c r="D239" s="4" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
@@ -6469,7 +6475,7 @@
         <v>1</v>
       </c>
       <c r="D240" s="4" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
@@ -6483,7 +6489,7 @@
         <v>2</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
@@ -6497,7 +6503,7 @@
         <v>1</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
@@ -6511,7 +6517,7 @@
         <v>1</v>
       </c>
       <c r="D243" s="4" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
@@ -6525,7 +6531,7 @@
         <v>1</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
@@ -6539,7 +6545,7 @@
         <v>1</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
@@ -6553,7 +6559,7 @@
         <v>1</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
@@ -6578,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
@@ -6592,7 +6598,7 @@
         <v>1</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
@@ -6606,7 +6612,7 @@
         <v>1</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
@@ -6620,7 +6626,7 @@
         <v>1</v>
       </c>
       <c r="D251" s="4" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
@@ -6634,7 +6640,7 @@
         <v>1</v>
       </c>
       <c r="D252" s="4" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
@@ -6648,7 +6654,7 @@
         <v>1</v>
       </c>
       <c r="D253" s="4" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
@@ -6662,7 +6668,7 @@
         <v>1</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
@@ -6676,7 +6682,7 @@
         <v>2</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
@@ -6690,7 +6696,7 @@
         <v>1</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
@@ -6704,7 +6710,7 @@
         <v>1</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
@@ -6718,7 +6724,7 @@
         <v>1</v>
       </c>
       <c r="D258" s="4" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
@@ -6732,7 +6738,7 @@
         <v>1</v>
       </c>
       <c r="D259" s="4" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
@@ -6746,7 +6752,7 @@
         <v>1</v>
       </c>
       <c r="D260" s="4" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
@@ -6760,7 +6766,7 @@
         <v>1</v>
       </c>
       <c r="D261" s="4" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
@@ -6774,7 +6780,7 @@
         <v>1</v>
       </c>
       <c r="D262" s="4" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
@@ -6788,7 +6794,7 @@
         <v>4</v>
       </c>
       <c r="D263" s="4" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
@@ -6802,7 +6808,7 @@
         <v>1</v>
       </c>
       <c r="D264" s="4" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
@@ -6816,7 +6822,7 @@
         <v>1</v>
       </c>
       <c r="D265" s="4" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
@@ -6830,7 +6836,7 @@
         <v>4</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
@@ -6844,7 +6850,7 @@
         <v>3</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
@@ -6858,7 +6864,7 @@
         <v>3</v>
       </c>
       <c r="D268" s="4" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
@@ -6872,7 +6878,7 @@
         <v>2</v>
       </c>
       <c r="D269" s="4" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
@@ -6886,7 +6892,7 @@
         <v>2</v>
       </c>
       <c r="D270" s="4" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
@@ -6900,7 +6906,7 @@
         <v>1</v>
       </c>
       <c r="D271" s="4" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
@@ -6914,7 +6920,7 @@
         <v>1</v>
       </c>
       <c r="D272" s="4" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
@@ -6928,7 +6934,7 @@
         <v>1</v>
       </c>
       <c r="D273" s="4" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
@@ -6942,7 +6948,7 @@
         <v>1</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
@@ -6956,7 +6962,7 @@
         <v>1</v>
       </c>
       <c r="D275" s="4" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
@@ -6970,7 +6976,7 @@
         <v>1</v>
       </c>
       <c r="D276" s="4" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
@@ -6984,7 +6990,7 @@
         <v>1</v>
       </c>
       <c r="D277" s="4" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
@@ -6998,7 +7004,7 @@
         <v>1</v>
       </c>
       <c r="D278" s="4" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
@@ -7012,7 +7018,7 @@
         <v>1</v>
       </c>
       <c r="D279" s="4" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
@@ -7026,7 +7032,7 @@
         <v>1</v>
       </c>
       <c r="D280" s="4" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
@@ -7040,7 +7046,7 @@
         <v>2</v>
       </c>
       <c r="D281" s="4" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
@@ -7068,7 +7074,7 @@
         <v>1</v>
       </c>
       <c r="D283" s="4" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
@@ -7082,7 +7088,7 @@
         <v>1</v>
       </c>
       <c r="D284" s="4" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
@@ -7096,7 +7102,7 @@
         <v>2</v>
       </c>
       <c r="D285" s="4" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
@@ -7110,7 +7116,7 @@
         <v>2</v>
       </c>
       <c r="D286" s="4" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
@@ -7118,27 +7124,27 @@
         <v>4</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="C287" s="1">
         <v>1</v>
       </c>
       <c r="D287" s="4" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="C288" s="1">
         <v>2</v>
       </c>
       <c r="D288" s="4" t="s">
-        <v>737</v>
+        <v>746</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
@@ -7152,7 +7158,7 @@
         <v>1</v>
       </c>
       <c r="D289" s="4" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
@@ -7166,7 +7172,7 @@
         <v>1</v>
       </c>
       <c r="D290" s="4" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
@@ -7180,7 +7186,7 @@
         <v>2</v>
       </c>
       <c r="D291" s="4" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
@@ -7194,7 +7200,7 @@
         <v>1</v>
       </c>
       <c r="D292" s="4" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
@@ -7208,7 +7214,7 @@
         <v>1</v>
       </c>
       <c r="D293" s="4" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
@@ -7222,7 +7228,7 @@
         <v>1</v>
       </c>
       <c r="D294" s="4" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
@@ -7236,7 +7242,7 @@
         <v>1</v>
       </c>
       <c r="D295" s="4" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
@@ -7250,12 +7256,12 @@
         <v>1</v>
       </c>
       <c r="D296" s="4" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>396</v>
@@ -7278,7 +7284,7 @@
         <v>1</v>
       </c>
       <c r="D298" s="4" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
@@ -7292,7 +7298,7 @@
         <v>5</v>
       </c>
       <c r="D299" s="4" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
@@ -7306,7 +7312,7 @@
         <v>1</v>
       </c>
       <c r="D300" s="4" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
@@ -7320,7 +7326,7 @@
         <v>1</v>
       </c>
       <c r="D301" s="4" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
@@ -7334,7 +7340,7 @@
         <v>1</v>
       </c>
       <c r="D302" s="4" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
@@ -7348,7 +7354,7 @@
         <v>1</v>
       </c>
       <c r="D303" s="4" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
@@ -7362,7 +7368,7 @@
         <v>4</v>
       </c>
       <c r="D304" s="4" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
@@ -7376,7 +7382,7 @@
         <v>1</v>
       </c>
       <c r="D305" s="4" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
@@ -7390,7 +7396,7 @@
         <v>1</v>
       </c>
       <c r="D306" s="4" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
@@ -7404,7 +7410,7 @@
         <v>1</v>
       </c>
       <c r="D307" s="4" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
@@ -7418,7 +7424,7 @@
         <v>1</v>
       </c>
       <c r="D308" s="4" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
@@ -7432,7 +7438,7 @@
         <v>2</v>
       </c>
       <c r="D309" s="4" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
@@ -7446,7 +7452,7 @@
         <v>1</v>
       </c>
       <c r="D310" s="4" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
@@ -7460,7 +7466,7 @@
         <v>1</v>
       </c>
       <c r="D311" s="4" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
@@ -7474,7 +7480,7 @@
         <v>2</v>
       </c>
       <c r="D312" s="4" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
@@ -7488,7 +7494,7 @@
         <v>1</v>
       </c>
       <c r="D313" s="4" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
@@ -7502,7 +7508,7 @@
         <v>2</v>
       </c>
       <c r="D314" s="4" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
@@ -7516,7 +7522,7 @@
         <v>4</v>
       </c>
       <c r="D315" s="4" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.2">
@@ -7544,7 +7550,7 @@
         <v>1</v>
       </c>
       <c r="D317" s="4" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
@@ -7558,12 +7564,12 @@
         <v>1</v>
       </c>
       <c r="D318" s="4" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319" s="2" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>362</v>
@@ -7577,10 +7583,10 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320" s="2" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="C320" s="1">
         <v>0</v>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D94D95-2C4F-460D-A42E-0573D24C91D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3EFCC1C-B9A7-40D9-A037-D87A10986728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11460" yWindow="3120" windowWidth="23925" windowHeight="16665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="757">
   <si>
     <t>缪尔赛思</t>
   </si>
@@ -1332,9 +1332,6 @@
     <t>maa://20857</t>
   </si>
   <si>
-    <t>maa://20919</t>
-  </si>
-  <si>
     <t>maa://20848</t>
   </si>
   <si>
@@ -1359,9 +1356,6 @@
     <t>maa://20864</t>
   </si>
   <si>
-    <t>*maa://20849, maa://29036, maa://30285</t>
-  </si>
-  <si>
     <t>maa://20920</t>
   </si>
   <si>
@@ -1428,9 +1422,6 @@
     <t>maa://30502</t>
   </si>
   <si>
-    <t>maa://20932</t>
-  </si>
-  <si>
     <t>*maa://20965</t>
   </si>
   <si>
@@ -1812,9 +1803,6 @@
     <t>maa://20923</t>
   </si>
   <si>
-    <t>maa://24093, maa://20924, maa://31559</t>
-  </si>
-  <si>
     <t>maa://20840</t>
   </si>
   <si>
@@ -1833,9 +1821,6 @@
     <t>*maa://31560, maa://20884</t>
   </si>
   <si>
-    <t>*maa://20883</t>
-  </si>
-  <si>
     <t>maa://29027</t>
   </si>
   <si>
@@ -1869,9 +1854,6 @@
     <t>maa://29635</t>
   </si>
   <si>
-    <t>maa://38296</t>
-  </si>
-  <si>
     <t>maa://20899</t>
   </si>
   <si>
@@ -1971,9 +1953,6 @@
     <t>maa://37694</t>
   </si>
   <si>
-    <t>maa://37690</t>
-  </si>
-  <si>
     <t>*maa://20862</t>
   </si>
   <si>
@@ -2019,9 +1998,6 @@
     <t>maa://39153</t>
   </si>
   <si>
-    <t>maa://39156</t>
-  </si>
-  <si>
     <t>maa://39154</t>
   </si>
   <si>
@@ -2139,9 +2115,6 @@
     <t>*maa://20916</t>
   </si>
   <si>
-    <t>maa://27376, **maa://20838</t>
-  </si>
-  <si>
     <t>*maa://20845, maa://38727</t>
   </si>
   <si>
@@ -2163,9 +2136,6 @@
     <t>maa://23019, maa://20837, maa://37113, *maa://37666</t>
   </si>
   <si>
-    <t>maa://23020, maa://29023, maa://34319, **maa://39515</t>
-  </si>
-  <si>
     <t>**maa://39149</t>
   </si>
   <si>
@@ -2205,9 +2175,6 @@
     <t>maa://20922, *maa://32623, *maa://34242, maa://34900</t>
   </si>
   <si>
-    <t>*maa://30667, maa://30666, *maa://26836, *maa://34428, maa://37607, maa://37850, maa://39588</t>
-  </si>
-  <si>
     <t>maa://20867, *maa://32202, **maa://38485</t>
   </si>
   <si>
@@ -2241,9 +2208,6 @@
     <t>哈洛德</t>
   </si>
   <si>
-    <t>*maa://30671, maa://30669, maa://37275, *maa://32410, maa://33671</t>
-  </si>
-  <si>
     <t>*maa://39181</t>
   </si>
   <si>
@@ -2277,7 +2241,70 @@
     <t>maa://39692, *maa://39810</t>
   </si>
   <si>
-    <t>更新日期：2024.08.10</t>
+    <t>maa://20919, **maa://24873</t>
+  </si>
+  <si>
+    <t>*maa://20849, **maa://28758, maa://29036, maa://30285</t>
+  </si>
+  <si>
+    <t>maa://27376, **maa://20838, *maa://40163</t>
+  </si>
+  <si>
+    <t>maa://20932, maa://40838</t>
+  </si>
+  <si>
+    <t>maa://40157</t>
+  </si>
+  <si>
+    <t>maa://23020, maa://29023, maa://34319, *maa://39515</t>
+  </si>
+  <si>
+    <t>maa://40158</t>
+  </si>
+  <si>
+    <t>maa://40159</t>
+  </si>
+  <si>
+    <t>*maa://37690</t>
+  </si>
+  <si>
+    <t>maa://39156, maa://39550</t>
+  </si>
+  <si>
+    <t>maa://39694</t>
+  </si>
+  <si>
+    <t>*maa://30667, maa://30666, *maa://26836, *maa://34428, maa://37607, maa://39588, maa://37850</t>
+  </si>
+  <si>
+    <t>maa://40160</t>
+  </si>
+  <si>
+    <t>maa://24093, maa://31559, maa://20924</t>
+  </si>
+  <si>
+    <t>**maa://20883</t>
+  </si>
+  <si>
+    <t>*maa://38296</t>
+  </si>
+  <si>
+    <t>maa://40161</t>
+  </si>
+  <si>
+    <t>maa://40162</t>
+  </si>
+  <si>
+    <t>maa://30671, maa://30669, maa://37275, *maa://32410, maa://33671</t>
+  </si>
+  <si>
+    <t>maa://40164</t>
+  </si>
+  <si>
+    <t>maa://40165</t>
+  </si>
+  <si>
+    <t>更新日期：2024.08.31</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2638,7 +2665,7 @@
   <dimension ref="A1:AF320"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2722,7 +2749,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>741</v>
+        <v>729</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -2756,7 +2783,7 @@
         <v>425</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>747</v>
+        <v>756</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -2932,7 +2959,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="F9" s="2"/>
       <c r="H9" s="1"/>
@@ -3019,7 +3046,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="F12" s="2"/>
       <c r="H12" s="1"/>
@@ -3048,7 +3075,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="F13" s="2"/>
       <c r="H13" s="1"/>
@@ -3074,10 +3101,10 @@
         <v>338</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>432</v>
+        <v>735</v>
       </c>
       <c r="F14" s="2"/>
       <c r="H14" s="1"/>
@@ -3106,7 +3133,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F15" s="2"/>
       <c r="H15" s="1"/>
@@ -3135,7 +3162,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F16" s="2"/>
       <c r="H16" s="1"/>
@@ -3164,7 +3191,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F17" s="2"/>
       <c r="H17" s="1"/>
@@ -3193,7 +3220,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="F18" s="2"/>
       <c r="H18" s="1"/>
@@ -3222,7 +3249,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F19" s="2"/>
       <c r="H19" s="1"/>
@@ -3251,7 +3278,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F20" s="2"/>
       <c r="H20" s="1"/>
@@ -3280,7 +3307,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F21" s="2"/>
       <c r="H21" s="1"/>
@@ -3309,7 +3336,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F22" s="2"/>
       <c r="H22" s="1"/>
@@ -3338,7 +3365,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F23" s="2"/>
       <c r="H23" s="1"/>
@@ -3393,10 +3420,10 @@
         <v>346</v>
       </c>
       <c r="C25" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>441</v>
+        <v>736</v>
       </c>
       <c r="F25" s="2"/>
       <c r="H25" s="1"/>
@@ -3425,7 +3452,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F26" s="2"/>
       <c r="H26" s="1"/>
@@ -3454,7 +3481,7 @@
         <v>3</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F27" s="2"/>
       <c r="H27" s="1"/>
@@ -3483,7 +3510,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F28" s="2"/>
       <c r="H28" s="1"/>
@@ -3512,7 +3539,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
       <c r="F29" s="2"/>
       <c r="H29" s="1"/>
@@ -3541,7 +3568,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.2">
@@ -3555,7 +3582,7 @@
         <v>2</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.2">
@@ -3569,7 +3596,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -3583,7 +3610,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -3597,7 +3624,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -3608,10 +3635,10 @@
         <v>351</v>
       </c>
       <c r="C35" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -3625,7 +3652,7 @@
         <v>1</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -3639,7 +3666,7 @@
         <v>2</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3653,7 +3680,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3667,7 +3694,7 @@
         <v>1</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3681,7 +3708,7 @@
         <v>4</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3695,7 +3722,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3709,7 +3736,7 @@
         <v>1</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3723,7 +3750,7 @@
         <v>1</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -3737,7 +3764,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -3751,7 +3778,7 @@
         <v>1</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -3765,7 +3792,7 @@
         <v>1</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -3779,7 +3806,7 @@
         <v>2</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -3793,7 +3820,7 @@
         <v>1</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -3807,7 +3834,7 @@
         <v>1</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -3821,7 +3848,7 @@
         <v>2</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -3835,7 +3862,7 @@
         <v>1</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -3846,10 +3873,10 @@
         <v>356</v>
       </c>
       <c r="C52" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>464</v>
+        <v>738</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -3863,7 +3890,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -3877,7 +3904,7 @@
         <v>2</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -3891,7 +3918,7 @@
         <v>1</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -3905,7 +3932,7 @@
         <v>1</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -3919,7 +3946,7 @@
         <v>5</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -3933,7 +3960,7 @@
         <v>1</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -3947,7 +3974,7 @@
         <v>2</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -3961,7 +3988,7 @@
         <v>3</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -3975,7 +4002,7 @@
         <v>5</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -3989,7 +4016,7 @@
         <v>2</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -4003,7 +4030,7 @@
         <v>1</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -4017,7 +4044,7 @@
         <v>2</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -4031,7 +4058,7 @@
         <v>8</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -4045,7 +4072,7 @@
         <v>2</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -4059,7 +4086,7 @@
         <v>1</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -4073,7 +4100,7 @@
         <v>3</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -4087,7 +4114,7 @@
         <v>1</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -4101,7 +4128,7 @@
         <v>1</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -4115,7 +4142,7 @@
         <v>1</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -4129,7 +4156,7 @@
         <v>1</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -4143,7 +4170,7 @@
         <v>1</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -4157,7 +4184,7 @@
         <v>1</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -4171,7 +4198,7 @@
         <v>1</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -4185,7 +4212,7 @@
         <v>1</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -4199,7 +4226,7 @@
         <v>4</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -4213,7 +4240,7 @@
         <v>1</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -4227,7 +4254,7 @@
         <v>1</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -4241,7 +4268,7 @@
         <v>1</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -4255,7 +4282,7 @@
         <v>1</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -4269,7 +4296,7 @@
         <v>1</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -4283,7 +4310,7 @@
         <v>2</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -4297,7 +4324,7 @@
         <v>2</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -4311,7 +4338,7 @@
         <v>2</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -4325,7 +4352,7 @@
         <v>1</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -4339,7 +4366,7 @@
         <v>1</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -4353,21 +4380,21 @@
         <v>1</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="C89" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>35</v>
+        <v>739</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -4381,7 +4408,7 @@
         <v>1</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -4395,7 +4422,7 @@
         <v>1</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -4409,7 +4436,7 @@
         <v>1</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -4423,7 +4450,7 @@
         <v>1</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -4437,7 +4464,7 @@
         <v>1</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -4451,7 +4478,7 @@
         <v>2</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -4465,7 +4492,7 @@
         <v>1</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -4479,7 +4506,7 @@
         <v>1</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -4493,7 +4520,7 @@
         <v>2</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -4507,7 +4534,7 @@
         <v>1</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -4521,7 +4548,7 @@
         <v>1</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -4535,7 +4562,7 @@
         <v>2</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -4549,7 +4576,7 @@
         <v>1</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -4563,7 +4590,7 @@
         <v>6</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -4577,7 +4604,7 @@
         <v>1</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -4591,7 +4618,7 @@
         <v>1</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -4605,7 +4632,7 @@
         <v>1</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>743</v>
+        <v>731</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -4619,7 +4646,7 @@
         <v>2</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -4633,7 +4660,7 @@
         <v>1</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -4647,7 +4674,7 @@
         <v>1</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -4661,7 +4688,7 @@
         <v>4</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -4675,7 +4702,7 @@
         <v>2</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -4689,7 +4716,7 @@
         <v>2</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -4703,7 +4730,7 @@
         <v>1</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -4717,7 +4744,7 @@
         <v>2</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -4731,7 +4758,7 @@
         <v>1</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -4745,7 +4772,7 @@
         <v>1</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -4759,7 +4786,7 @@
         <v>1</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -4773,7 +4800,7 @@
         <v>1</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -4787,7 +4814,7 @@
         <v>1</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -4801,7 +4828,7 @@
         <v>1</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -4815,7 +4842,7 @@
         <v>3</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -4829,7 +4856,7 @@
         <v>2</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -4843,7 +4870,7 @@
         <v>2</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -4857,7 +4884,7 @@
         <v>1</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -4871,7 +4898,7 @@
         <v>1</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -4885,7 +4912,7 @@
         <v>4</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -4899,7 +4926,7 @@
         <v>4</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>709</v>
+        <v>740</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -4913,7 +4940,7 @@
         <v>1</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -4927,7 +4954,7 @@
         <v>1</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -4941,7 +4968,7 @@
         <v>1</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -4955,7 +4982,7 @@
         <v>1</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -4969,7 +4996,7 @@
         <v>1</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -4983,7 +5010,7 @@
         <v>1</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -4997,7 +5024,7 @@
         <v>1</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -5011,7 +5038,7 @@
         <v>1</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -5025,7 +5052,7 @@
         <v>3</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
@@ -5039,7 +5066,7 @@
         <v>2</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
@@ -5053,7 +5080,7 @@
         <v>1</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
@@ -5067,7 +5094,7 @@
         <v>1</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
@@ -5081,7 +5108,7 @@
         <v>1</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
@@ -5095,7 +5122,7 @@
         <v>1</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
@@ -5109,7 +5136,7 @@
         <v>1</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
@@ -5123,7 +5150,7 @@
         <v>3</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
@@ -5137,7 +5164,7 @@
         <v>1</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
@@ -5151,7 +5178,7 @@
         <v>1</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
@@ -5165,7 +5192,7 @@
         <v>1</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
@@ -5179,7 +5206,7 @@
         <v>2</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
@@ -5193,7 +5220,7 @@
         <v>1</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
@@ -5207,7 +5234,7 @@
         <v>1</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
@@ -5221,7 +5248,7 @@
         <v>1</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
@@ -5235,7 +5262,7 @@
         <v>1</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
@@ -5249,7 +5276,7 @@
         <v>1</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
@@ -5263,21 +5290,21 @@
         <v>1</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="C154" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>35</v>
+        <v>741</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
@@ -5291,7 +5318,7 @@
         <v>2</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
@@ -5305,7 +5332,7 @@
         <v>1</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
@@ -5319,7 +5346,7 @@
         <v>1</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
@@ -5333,7 +5360,7 @@
         <v>2</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
@@ -5347,7 +5374,7 @@
         <v>4</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
@@ -5361,21 +5388,21 @@
         <v>1</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>341</v>
       </c>
       <c r="C161" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>35</v>
+        <v>742</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
@@ -5389,7 +5416,7 @@
         <v>1</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
@@ -5403,7 +5430,7 @@
         <v>1</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
@@ -5417,7 +5444,7 @@
         <v>1</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
@@ -5431,7 +5458,7 @@
         <v>1</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>645</v>
+        <v>743</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
@@ -5445,7 +5472,7 @@
         <v>1</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
@@ -5459,7 +5486,7 @@
         <v>1</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
@@ -5473,7 +5500,7 @@
         <v>2</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
@@ -5487,7 +5514,7 @@
         <v>1</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
@@ -5501,7 +5528,7 @@
         <v>1</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
@@ -5515,7 +5542,7 @@
         <v>2</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
@@ -5529,7 +5556,7 @@
         <v>1</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
@@ -5543,7 +5570,7 @@
         <v>1</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
@@ -5557,7 +5584,7 @@
         <v>1</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
@@ -5571,7 +5598,7 @@
         <v>1</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
@@ -5585,7 +5612,7 @@
         <v>1</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
@@ -5599,7 +5626,7 @@
         <v>1</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
@@ -5613,7 +5640,7 @@
         <v>1</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
@@ -5627,7 +5654,7 @@
         <v>2</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
@@ -5641,7 +5668,7 @@
         <v>2</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
@@ -5655,7 +5682,7 @@
         <v>1</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
@@ -5669,7 +5696,7 @@
         <v>1</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
@@ -5683,7 +5710,7 @@
         <v>1</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
@@ -5697,7 +5724,7 @@
         <v>2</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
@@ -5711,7 +5738,7 @@
         <v>1</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
@@ -5725,7 +5752,7 @@
         <v>3</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
@@ -5736,10 +5763,10 @@
         <v>415</v>
       </c>
       <c r="C187" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>661</v>
+        <v>744</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
@@ -5753,7 +5780,7 @@
         <v>4</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>744</v>
+        <v>732</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
@@ -5767,7 +5794,7 @@
         <v>4</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>744</v>
+        <v>732</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
@@ -5781,7 +5808,7 @@
         <v>1</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
@@ -5795,7 +5822,7 @@
         <v>1</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
@@ -5809,7 +5836,7 @@
         <v>1</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
@@ -5823,7 +5850,7 @@
         <v>1</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
@@ -5837,7 +5864,7 @@
         <v>2</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
@@ -5851,7 +5878,7 @@
         <v>3</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
@@ -5865,7 +5892,7 @@
         <v>1</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
@@ -5879,7 +5906,7 @@
         <v>4</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
@@ -5893,7 +5920,7 @@
         <v>2</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
@@ -5907,12 +5934,12 @@
         <v>1</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>396</v>
@@ -5921,7 +5948,7 @@
         <v>1</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
@@ -5935,18 +5962,21 @@
         <v>1</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>305</v>
       </c>
       <c r="C202" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D202" s="4" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
@@ -5960,7 +5990,7 @@
         <v>2</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
@@ -5974,7 +6004,7 @@
         <v>1</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
@@ -5999,7 +6029,7 @@
         <v>1</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
@@ -6013,21 +6043,21 @@
         <v>1</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="C208" s="1">
         <v>1</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>745</v>
+        <v>733</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
@@ -6041,7 +6071,7 @@
         <v>1</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
@@ -6055,7 +6085,7 @@
         <v>1</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
@@ -6069,7 +6099,7 @@
         <v>2</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
@@ -6083,7 +6113,7 @@
         <v>1</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
@@ -6097,7 +6127,7 @@
         <v>2</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
@@ -6111,7 +6141,7 @@
         <v>1</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
@@ -6125,7 +6155,7 @@
         <v>2</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
@@ -6139,7 +6169,7 @@
         <v>1</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
@@ -6153,7 +6183,7 @@
         <v>3</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
@@ -6167,7 +6197,7 @@
         <v>1</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
@@ -6181,7 +6211,7 @@
         <v>1</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
@@ -6195,7 +6225,7 @@
         <v>1</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
@@ -6209,7 +6239,7 @@
         <v>1</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
@@ -6223,7 +6253,7 @@
         <v>2</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
@@ -6237,7 +6267,7 @@
         <v>4</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
@@ -6251,7 +6281,7 @@
         <v>1</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
@@ -6265,7 +6295,7 @@
         <v>7</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>723</v>
+        <v>746</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
@@ -6279,7 +6309,7 @@
         <v>1</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
@@ -6293,7 +6323,7 @@
         <v>1</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
@@ -6307,7 +6337,7 @@
         <v>1</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
@@ -6321,21 +6351,21 @@
         <v>3</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>724</v>
+        <v>713</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
-        <v>725</v>
+        <v>714</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>726</v>
+        <v>715</v>
       </c>
       <c r="C230" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D230" s="4" t="s">
-        <v>35</v>
+        <v>747</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
@@ -6349,7 +6379,7 @@
         <v>1</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
@@ -6363,7 +6393,7 @@
         <v>2</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
@@ -6377,7 +6407,7 @@
         <v>1</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
@@ -6391,7 +6421,7 @@
         <v>1</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
@@ -6405,7 +6435,7 @@
         <v>3</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>592</v>
+        <v>748</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
@@ -6419,7 +6449,7 @@
         <v>1</v>
       </c>
       <c r="D236" s="4" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
@@ -6433,7 +6463,7 @@
         <v>2</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
@@ -6447,7 +6477,7 @@
         <v>2</v>
       </c>
       <c r="D238" s="4" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
@@ -6461,7 +6491,7 @@
         <v>1</v>
       </c>
       <c r="D239" s="4" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
@@ -6475,7 +6505,7 @@
         <v>1</v>
       </c>
       <c r="D240" s="4" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
@@ -6489,7 +6519,7 @@
         <v>2</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
@@ -6503,7 +6533,7 @@
         <v>1</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>599</v>
+        <v>749</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
@@ -6517,7 +6547,7 @@
         <v>1</v>
       </c>
       <c r="D243" s="4" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
@@ -6531,7 +6561,7 @@
         <v>1</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
@@ -6545,7 +6575,7 @@
         <v>1</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
@@ -6559,7 +6589,7 @@
         <v>1</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
@@ -6584,7 +6614,7 @@
         <v>3</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
@@ -6598,7 +6628,7 @@
         <v>1</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
@@ -6612,7 +6642,7 @@
         <v>1</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
@@ -6626,7 +6656,7 @@
         <v>1</v>
       </c>
       <c r="D251" s="4" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
@@ -6640,7 +6670,7 @@
         <v>1</v>
       </c>
       <c r="D252" s="4" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
@@ -6654,7 +6684,7 @@
         <v>1</v>
       </c>
       <c r="D253" s="4" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
@@ -6668,7 +6698,7 @@
         <v>1</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
@@ -6682,7 +6712,7 @@
         <v>2</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
@@ -6696,7 +6726,7 @@
         <v>1</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
@@ -6710,7 +6740,7 @@
         <v>1</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
@@ -6724,7 +6754,7 @@
         <v>1</v>
       </c>
       <c r="D258" s="4" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
@@ -6738,7 +6768,7 @@
         <v>1</v>
       </c>
       <c r="D259" s="4" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
@@ -6752,7 +6782,7 @@
         <v>1</v>
       </c>
       <c r="D260" s="4" t="s">
-        <v>611</v>
+        <v>750</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
@@ -6766,7 +6796,7 @@
         <v>1</v>
       </c>
       <c r="D261" s="4" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
@@ -6780,7 +6810,7 @@
         <v>1</v>
       </c>
       <c r="D262" s="4" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
@@ -6794,7 +6824,7 @@
         <v>4</v>
       </c>
       <c r="D263" s="4" t="s">
-        <v>727</v>
+        <v>716</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
@@ -6808,7 +6838,7 @@
         <v>1</v>
       </c>
       <c r="D264" s="4" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
@@ -6822,7 +6852,7 @@
         <v>1</v>
       </c>
       <c r="D265" s="4" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
@@ -6836,7 +6866,7 @@
         <v>4</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>728</v>
+        <v>717</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
@@ -6850,7 +6880,7 @@
         <v>3</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
@@ -6864,7 +6894,7 @@
         <v>3</v>
       </c>
       <c r="D268" s="4" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
@@ -6878,7 +6908,7 @@
         <v>2</v>
       </c>
       <c r="D269" s="4" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
@@ -6892,7 +6922,7 @@
         <v>2</v>
       </c>
       <c r="D270" s="4" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
@@ -6906,7 +6936,7 @@
         <v>1</v>
       </c>
       <c r="D271" s="4" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
@@ -6920,7 +6950,7 @@
         <v>1</v>
       </c>
       <c r="D272" s="4" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
@@ -6934,7 +6964,7 @@
         <v>1</v>
       </c>
       <c r="D273" s="4" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
@@ -6948,7 +6978,7 @@
         <v>1</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
@@ -6962,7 +6992,7 @@
         <v>1</v>
       </c>
       <c r="D275" s="4" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
@@ -6976,7 +7006,7 @@
         <v>1</v>
       </c>
       <c r="D276" s="4" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
@@ -6990,7 +7020,7 @@
         <v>1</v>
       </c>
       <c r="D277" s="4" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
@@ -7004,7 +7034,7 @@
         <v>1</v>
       </c>
       <c r="D278" s="4" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
@@ -7018,7 +7048,7 @@
         <v>1</v>
       </c>
       <c r="D279" s="4" t="s">
-        <v>729</v>
+        <v>718</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
@@ -7032,7 +7062,7 @@
         <v>1</v>
       </c>
       <c r="D280" s="4" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
@@ -7046,7 +7076,7 @@
         <v>2</v>
       </c>
       <c r="D281" s="4" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
@@ -7057,10 +7087,10 @@
         <v>294</v>
       </c>
       <c r="C282" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D282" s="4" t="s">
-        <v>35</v>
+        <v>751</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
@@ -7074,7 +7104,7 @@
         <v>1</v>
       </c>
       <c r="D283" s="4" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
@@ -7088,7 +7118,7 @@
         <v>1</v>
       </c>
       <c r="D284" s="4" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
@@ -7102,7 +7132,7 @@
         <v>2</v>
       </c>
       <c r="D285" s="4" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
@@ -7116,7 +7146,7 @@
         <v>2</v>
       </c>
       <c r="D286" s="4" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
@@ -7124,27 +7154,27 @@
         <v>4</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="C287" s="1">
         <v>1</v>
       </c>
       <c r="D287" s="4" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
-        <v>730</v>
+        <v>719</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>731</v>
+        <v>720</v>
       </c>
       <c r="C288" s="1">
         <v>2</v>
       </c>
       <c r="D288" s="4" t="s">
-        <v>746</v>
+        <v>734</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
@@ -7158,7 +7188,7 @@
         <v>1</v>
       </c>
       <c r="D289" s="4" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
@@ -7172,7 +7202,7 @@
         <v>1</v>
       </c>
       <c r="D290" s="4" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
@@ -7186,7 +7216,7 @@
         <v>2</v>
       </c>
       <c r="D291" s="4" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
@@ -7200,7 +7230,7 @@
         <v>1</v>
       </c>
       <c r="D292" s="4" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
@@ -7214,7 +7244,7 @@
         <v>1</v>
       </c>
       <c r="D293" s="4" t="s">
-        <v>732</v>
+        <v>721</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
@@ -7228,7 +7258,7 @@
         <v>1</v>
       </c>
       <c r="D294" s="4" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
@@ -7242,7 +7272,7 @@
         <v>1</v>
       </c>
       <c r="D295" s="4" t="s">
-        <v>733</v>
+        <v>722</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
@@ -7256,21 +7286,21 @@
         <v>1</v>
       </c>
       <c r="D296" s="4" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
-        <v>734</v>
+        <v>723</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>396</v>
       </c>
       <c r="C297" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D297" s="4" t="s">
-        <v>35</v>
+        <v>752</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
@@ -7284,7 +7314,7 @@
         <v>1</v>
       </c>
       <c r="D298" s="4" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
@@ -7298,7 +7328,7 @@
         <v>5</v>
       </c>
       <c r="D299" s="4" t="s">
-        <v>735</v>
+        <v>753</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
@@ -7312,7 +7342,7 @@
         <v>1</v>
       </c>
       <c r="D300" s="4" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
@@ -7326,7 +7356,7 @@
         <v>1</v>
       </c>
       <c r="D301" s="4" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
@@ -7340,7 +7370,7 @@
         <v>1</v>
       </c>
       <c r="D302" s="4" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
@@ -7354,7 +7384,7 @@
         <v>1</v>
       </c>
       <c r="D303" s="4" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
@@ -7368,7 +7398,7 @@
         <v>4</v>
       </c>
       <c r="D304" s="4" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
@@ -7382,7 +7412,7 @@
         <v>1</v>
       </c>
       <c r="D305" s="4" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
@@ -7396,7 +7426,7 @@
         <v>1</v>
       </c>
       <c r="D306" s="4" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
@@ -7410,7 +7440,7 @@
         <v>1</v>
       </c>
       <c r="D307" s="4" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
@@ -7424,7 +7454,7 @@
         <v>1</v>
       </c>
       <c r="D308" s="4" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
@@ -7438,7 +7468,7 @@
         <v>2</v>
       </c>
       <c r="D309" s="4" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
@@ -7452,7 +7482,7 @@
         <v>1</v>
       </c>
       <c r="D310" s="4" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
@@ -7466,7 +7496,7 @@
         <v>1</v>
       </c>
       <c r="D311" s="4" t="s">
-        <v>736</v>
+        <v>724</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
@@ -7480,7 +7510,7 @@
         <v>2</v>
       </c>
       <c r="D312" s="4" t="s">
-        <v>737</v>
+        <v>725</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
@@ -7494,7 +7524,7 @@
         <v>1</v>
       </c>
       <c r="D313" s="4" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
@@ -7508,7 +7538,7 @@
         <v>2</v>
       </c>
       <c r="D314" s="4" t="s">
-        <v>738</v>
+        <v>726</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
@@ -7522,7 +7552,7 @@
         <v>4</v>
       </c>
       <c r="D315" s="4" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.2">
@@ -7550,7 +7580,7 @@
         <v>1</v>
       </c>
       <c r="D317" s="4" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
@@ -7564,35 +7594,35 @@
         <v>1</v>
       </c>
       <c r="D318" s="4" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319" s="2" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>362</v>
       </c>
       <c r="C319" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D319" s="4" t="s">
-        <v>35</v>
+        <v>754</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320" s="2" t="s">
-        <v>739</v>
+        <v>727</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
       <c r="C320" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D320" s="4" t="s">
-        <v>35</v>
+        <v>755</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3EFCC1C-B9A7-40D9-A037-D87A10986728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FBBC24-94F8-4A19-A1C9-4E1EAE969C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8280" yWindow="4335" windowWidth="23925" windowHeight="16665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="769">
   <si>
     <t>缪尔赛思</t>
   </si>
@@ -1335,9 +1335,6 @@
     <t>maa://20848</t>
   </si>
   <si>
-    <t>*maa://20930</t>
-  </si>
-  <si>
     <t>maa://20897</t>
   </si>
   <si>
@@ -1365,9 +1362,6 @@
     <t>*maa://20871</t>
   </si>
   <si>
-    <t>maa://36644, maa://36866</t>
-  </si>
-  <si>
     <t>maa://30500, *maa://27290</t>
   </si>
   <si>
@@ -1428,9 +1422,6 @@
     <t>maa://28900, maa://30126</t>
   </si>
   <si>
-    <t>maa://27970</t>
-  </si>
-  <si>
     <t>*maa://38298</t>
   </si>
   <si>
@@ -1476,9 +1467,6 @@
     <t>maa://28072</t>
   </si>
   <si>
-    <t>maa://20960</t>
-  </si>
-  <si>
     <t>maa://20972</t>
   </si>
   <si>
@@ -1530,9 +1518,6 @@
     <t>maa://20966</t>
   </si>
   <si>
-    <t>maa://20843, **maa://24483</t>
-  </si>
-  <si>
     <t>maa://20894</t>
   </si>
   <si>
@@ -1668,9 +1653,6 @@
     <t>maa://29059</t>
   </si>
   <si>
-    <t>maa://20905</t>
-  </si>
-  <si>
     <t>maa://32418</t>
   </si>
   <si>
@@ -1701,9 +1683,6 @@
     <t>maa://20970</t>
   </si>
   <si>
-    <t>maa://20969</t>
-  </si>
-  <si>
     <t>maa://20999</t>
   </si>
   <si>
@@ -1953,9 +1932,6 @@
     <t>maa://37694</t>
   </si>
   <si>
-    <t>*maa://20862</t>
-  </si>
-  <si>
     <t>maa://28070</t>
   </si>
   <si>
@@ -1974,9 +1950,6 @@
     <t>maa://39142</t>
   </si>
   <si>
-    <t>*maa://20893</t>
-  </si>
-  <si>
     <t>maa://39143</t>
   </si>
   <si>
@@ -2112,12 +2085,6 @@
     <t>maa://20865, maa://20826</t>
   </si>
   <si>
-    <t>*maa://20916</t>
-  </si>
-  <si>
-    <t>*maa://20845, maa://38727</t>
-  </si>
-  <si>
     <t>maa://28187, maa://33504, maa://39520</t>
   </si>
   <si>
@@ -2127,15 +2094,9 @@
     <t>maa://39693</t>
   </si>
   <si>
-    <t>*maa://39240</t>
-  </si>
-  <si>
     <t>*maa://20909</t>
   </si>
   <si>
-    <t>maa://23019, maa://20837, maa://37113, *maa://37666</t>
-  </si>
-  <si>
     <t>**maa://39149</t>
   </si>
   <si>
@@ -2232,9 +2193,6 @@
     <t>*maa://28554</t>
   </si>
   <si>
-    <t>*maa://27823, *maa://28190, maa://22894, *maa://20906</t>
-  </si>
-  <si>
     <t>maa://39695</t>
   </si>
   <si>
@@ -2244,12 +2202,6 @@
     <t>maa://20919, **maa://24873</t>
   </si>
   <si>
-    <t>*maa://20849, **maa://28758, maa://29036, maa://30285</t>
-  </si>
-  <si>
-    <t>maa://27376, **maa://20838, *maa://40163</t>
-  </si>
-  <si>
     <t>maa://20932, maa://40838</t>
   </si>
   <si>
@@ -2274,18 +2226,12 @@
     <t>maa://39694</t>
   </si>
   <si>
-    <t>*maa://30667, maa://30666, *maa://26836, *maa://34428, maa://37607, maa://39588, maa://37850</t>
-  </si>
-  <si>
     <t>maa://40160</t>
   </si>
   <si>
     <t>maa://24093, maa://31559, maa://20924</t>
   </si>
   <si>
-    <t>**maa://20883</t>
-  </si>
-  <si>
     <t>*maa://38296</t>
   </si>
   <si>
@@ -2304,7 +2250,97 @@
     <t>maa://40165</t>
   </si>
   <si>
-    <t>更新日期：2024.08.31</t>
+    <t>齐尔查克</t>
+  </si>
+  <si>
+    <t>石英</t>
+  </si>
+  <si>
+    <t>铎铃</t>
+  </si>
+  <si>
+    <t>赫德雷</t>
+  </si>
+  <si>
+    <t>乌尔比安</t>
+  </si>
+  <si>
+    <t>莱欧斯</t>
+  </si>
+  <si>
+    <t>森西</t>
+  </si>
+  <si>
+    <t>玛露西尔</t>
+  </si>
+  <si>
+    <t>maa://20930</t>
+  </si>
+  <si>
+    <t>*maa://20849, *maa://28758, maa://29036, maa://30285</t>
+  </si>
+  <si>
+    <t>maa://36644, maa://36866, maa://27794</t>
+  </si>
+  <si>
+    <t>maa://20916</t>
+  </si>
+  <si>
+    <t>maa://27376, **maa://20838, **maa://40163</t>
+  </si>
+  <si>
+    <t>maa://27970, maa://41118</t>
+  </si>
+  <si>
+    <t>*maa://20845, **maa://38727</t>
+  </si>
+  <si>
+    <t>maa://27794, maa://20960</t>
+  </si>
+  <si>
+    <t>maa://27794, *maa://20893</t>
+  </si>
+  <si>
+    <t>*maa://39240, **maa://40517</t>
+  </si>
+  <si>
+    <t>maa://27794, maa://20843, **maa://24483</t>
+  </si>
+  <si>
+    <t>maa://23019, maa://20837, maa://37113, **maa://40517, *maa://37666</t>
+  </si>
+  <si>
+    <t>*maa://20905</t>
+  </si>
+  <si>
+    <t>maa://20969, maa://41303</t>
+  </si>
+  <si>
+    <t>maa://27823, *maa://28190, maa://22894, *maa://20906</t>
+  </si>
+  <si>
+    <t>*maa://30667, maa://30666, *maa://26836, *maa://34428, *maa://30723, maa://37607, maa://39588, *maa://37850</t>
+  </si>
+  <si>
+    <t>maa://27794, *maa://20862</t>
+  </si>
+  <si>
+    <t>DH-4</t>
+  </si>
+  <si>
+    <t>IW-7</t>
+  </si>
+  <si>
+    <t>maa://40956</t>
+  </si>
+  <si>
+    <t>*maa://40957, maa://41035</t>
+  </si>
+  <si>
+    <t>maa://41110</t>
+  </si>
+  <si>
+    <t>更新日期：2024.09.16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2662,10 +2698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF320"/>
+  <dimension ref="A1:AF329"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2749,7 +2785,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>729</v>
+        <v>716</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -2783,7 +2819,7 @@
         <v>425</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>756</v>
+        <v>768</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -2959,7 +2995,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="F9" s="2"/>
       <c r="H9" s="1"/>
@@ -3046,7 +3082,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="F12" s="2"/>
       <c r="H12" s="1"/>
@@ -3075,7 +3111,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="F13" s="2"/>
       <c r="H13" s="1"/>
@@ -3104,7 +3140,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>735</v>
+        <v>721</v>
       </c>
       <c r="F14" s="2"/>
       <c r="H14" s="1"/>
@@ -3162,7 +3198,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>433</v>
+        <v>746</v>
       </c>
       <c r="F16" s="2"/>
       <c r="H16" s="1"/>
@@ -3191,7 +3227,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F17" s="2"/>
       <c r="H17" s="1"/>
@@ -3220,7 +3256,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="F18" s="2"/>
       <c r="H18" s="1"/>
@@ -3249,7 +3285,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F19" s="2"/>
       <c r="H19" s="1"/>
@@ -3278,7 +3314,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F20" s="2"/>
       <c r="H20" s="1"/>
@@ -3307,7 +3343,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F21" s="2"/>
       <c r="H21" s="1"/>
@@ -3336,7 +3372,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F22" s="2"/>
       <c r="H22" s="1"/>
@@ -3365,7 +3401,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F23" s="2"/>
       <c r="H23" s="1"/>
@@ -3423,7 +3459,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>736</v>
+        <v>747</v>
       </c>
       <c r="F25" s="2"/>
       <c r="H25" s="1"/>
@@ -3452,7 +3488,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F26" s="2"/>
       <c r="H26" s="1"/>
@@ -3481,7 +3517,7 @@
         <v>3</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F27" s="2"/>
       <c r="H27" s="1"/>
@@ -3510,7 +3546,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F28" s="2"/>
       <c r="H28" s="1"/>
@@ -3539,7 +3575,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>730</v>
+        <v>717</v>
       </c>
       <c r="F29" s="2"/>
       <c r="H29" s="1"/>
@@ -3565,10 +3601,10 @@
         <v>365</v>
       </c>
       <c r="C30" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>443</v>
+        <v>748</v>
       </c>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.2">
@@ -3582,7 +3618,7 @@
         <v>2</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.2">
@@ -3596,7 +3632,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>692</v>
+        <v>749</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -3610,7 +3646,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -3624,7 +3660,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -3638,7 +3674,7 @@
         <v>3</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>737</v>
+        <v>750</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -3652,7 +3688,7 @@
         <v>1</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -3666,7 +3702,7 @@
         <v>2</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3680,7 +3716,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3694,7 +3730,7 @@
         <v>1</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3708,7 +3744,7 @@
         <v>4</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3722,7 +3758,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3736,7 +3772,7 @@
         <v>1</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3750,7 +3786,7 @@
         <v>1</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -3764,7 +3800,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -3778,7 +3814,7 @@
         <v>1</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -3792,7 +3828,7 @@
         <v>1</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -3806,7 +3842,7 @@
         <v>2</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -3820,7 +3856,7 @@
         <v>1</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -3834,7 +3870,7 @@
         <v>1</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -3848,7 +3884,7 @@
         <v>2</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -3862,7 +3898,7 @@
         <v>1</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -3876,7 +3912,7 @@
         <v>2</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>738</v>
+        <v>722</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -3890,7 +3926,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -3904,7 +3940,7 @@
         <v>2</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -3915,10 +3951,10 @@
         <v>347</v>
       </c>
       <c r="C55" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>464</v>
+        <v>751</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -3932,7 +3968,7 @@
         <v>1</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -3946,7 +3982,7 @@
         <v>5</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -3960,7 +3996,7 @@
         <v>1</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -3974,7 +4010,7 @@
         <v>2</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>693</v>
+        <v>752</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -3988,7 +4024,7 @@
         <v>3</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -4002,7 +4038,7 @@
         <v>5</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>695</v>
+        <v>684</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -4016,7 +4052,7 @@
         <v>2</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -4030,7 +4066,7 @@
         <v>1</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>696</v>
+        <v>685</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -4044,7 +4080,7 @@
         <v>2</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -4058,7 +4094,7 @@
         <v>8</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -4072,7 +4108,7 @@
         <v>2</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -4086,7 +4122,7 @@
         <v>1</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -4100,7 +4136,7 @@
         <v>3</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -4114,7 +4150,7 @@
         <v>1</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -4128,7 +4164,7 @@
         <v>1</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -4142,7 +4178,7 @@
         <v>1</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -4156,7 +4192,7 @@
         <v>1</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -4170,7 +4206,7 @@
         <v>1</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -4184,7 +4220,7 @@
         <v>1</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -4198,7 +4234,7 @@
         <v>1</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -4212,7 +4248,7 @@
         <v>1</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -4226,7 +4262,7 @@
         <v>4</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -4240,7 +4276,7 @@
         <v>1</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -4251,10 +4287,10 @@
         <v>365</v>
       </c>
       <c r="C79" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>480</v>
+        <v>753</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -4268,7 +4304,7 @@
         <v>1</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -4282,7 +4318,7 @@
         <v>1</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -4296,7 +4332,7 @@
         <v>1</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -4310,7 +4346,7 @@
         <v>2</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -4324,7 +4360,7 @@
         <v>2</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -4338,7 +4374,7 @@
         <v>2</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -4352,7 +4388,7 @@
         <v>1</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -4366,7 +4402,7 @@
         <v>1</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -4380,21 +4416,21 @@
         <v>1</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="C89" s="1">
         <v>1</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>739</v>
+        <v>723</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -4408,7 +4444,7 @@
         <v>1</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -4422,7 +4458,7 @@
         <v>1</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -4436,7 +4472,7 @@
         <v>1</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -4450,7 +4486,7 @@
         <v>1</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -4464,7 +4500,7 @@
         <v>1</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -4478,7 +4514,7 @@
         <v>2</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -4489,10 +4525,10 @@
         <v>365</v>
       </c>
       <c r="C96" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>646</v>
+        <v>754</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -4503,10 +4539,10 @@
         <v>284</v>
       </c>
       <c r="C97" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>697</v>
+        <v>755</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -4520,7 +4556,7 @@
         <v>2</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -4534,7 +4570,7 @@
         <v>1</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -4548,7 +4584,7 @@
         <v>1</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -4559,10 +4595,10 @@
         <v>365</v>
       </c>
       <c r="C101" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>498</v>
+        <v>756</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -4576,7 +4612,7 @@
         <v>1</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -4590,7 +4626,7 @@
         <v>6</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -4604,7 +4640,7 @@
         <v>1</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -4618,7 +4654,7 @@
         <v>1</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -4632,7 +4668,7 @@
         <v>1</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -4646,7 +4682,7 @@
         <v>2</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -4660,7 +4696,7 @@
         <v>1</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -4674,7 +4710,7 @@
         <v>1</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -4688,7 +4724,7 @@
         <v>4</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -4702,7 +4738,7 @@
         <v>2</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -4716,7 +4752,7 @@
         <v>2</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -4730,7 +4766,7 @@
         <v>1</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -4744,7 +4780,7 @@
         <v>2</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -4758,7 +4794,7 @@
         <v>1</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -4772,7 +4808,7 @@
         <v>1</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -4786,7 +4822,7 @@
         <v>1</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -4800,7 +4836,7 @@
         <v>1</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -4814,7 +4850,7 @@
         <v>1</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>698</v>
+        <v>686</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -4828,7 +4864,7 @@
         <v>1</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -4842,7 +4878,7 @@
         <v>3</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -4856,7 +4892,7 @@
         <v>2</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -4870,7 +4906,7 @@
         <v>2</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -4884,7 +4920,7 @@
         <v>1</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -4898,7 +4934,7 @@
         <v>1</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -4909,10 +4945,10 @@
         <v>284</v>
       </c>
       <c r="C126" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>699</v>
+        <v>757</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -4926,7 +4962,7 @@
         <v>4</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>740</v>
+        <v>724</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -4940,7 +4976,7 @@
         <v>1</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -4954,7 +4990,7 @@
         <v>1</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -4968,7 +5004,7 @@
         <v>1</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -4982,7 +5018,7 @@
         <v>1</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -4996,7 +5032,7 @@
         <v>1</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -5010,7 +5046,7 @@
         <v>1</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -5024,7 +5060,7 @@
         <v>1</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -5038,7 +5074,7 @@
         <v>1</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -5052,7 +5088,7 @@
         <v>3</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
@@ -5066,7 +5102,7 @@
         <v>2</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
@@ -5080,7 +5116,7 @@
         <v>1</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
@@ -5094,7 +5130,7 @@
         <v>1</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
@@ -5108,7 +5144,7 @@
         <v>1</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
@@ -5122,7 +5158,7 @@
         <v>1</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
@@ -5136,7 +5172,7 @@
         <v>1</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
@@ -5150,7 +5186,7 @@
         <v>3</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
@@ -5164,7 +5200,7 @@
         <v>1</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
@@ -5178,7 +5214,7 @@
         <v>1</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
@@ -5192,7 +5228,7 @@
         <v>1</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
@@ -5206,7 +5242,7 @@
         <v>2</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
@@ -5220,7 +5256,7 @@
         <v>1</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
@@ -5234,7 +5270,7 @@
         <v>1</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
@@ -5248,7 +5284,7 @@
         <v>1</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>700</v>
+        <v>687</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
@@ -5262,7 +5298,7 @@
         <v>1</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
@@ -5276,7 +5312,7 @@
         <v>1</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
@@ -5290,21 +5326,21 @@
         <v>1</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="C154" s="1">
         <v>1</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>741</v>
+        <v>725</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
@@ -5318,7 +5354,7 @@
         <v>2</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
@@ -5332,7 +5368,7 @@
         <v>1</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
@@ -5346,7 +5382,7 @@
         <v>1</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
@@ -5360,7 +5396,7 @@
         <v>2</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
@@ -5374,7 +5410,7 @@
         <v>4</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
@@ -5388,12 +5424,12 @@
         <v>1</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>341</v>
@@ -5402,7 +5438,7 @@
         <v>1</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>742</v>
+        <v>726</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
@@ -5416,7 +5452,7 @@
         <v>1</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
@@ -5430,7 +5466,7 @@
         <v>1</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>544</v>
+        <v>758</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
@@ -5444,7 +5480,7 @@
         <v>1</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
@@ -5458,7 +5494,7 @@
         <v>1</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>743</v>
+        <v>727</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
@@ -5472,7 +5508,7 @@
         <v>1</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
@@ -5486,7 +5522,7 @@
         <v>1</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
@@ -5500,7 +5536,7 @@
         <v>2</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
@@ -5514,7 +5550,7 @@
         <v>1</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
@@ -5528,7 +5564,7 @@
         <v>1</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
@@ -5542,7 +5578,7 @@
         <v>2</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
@@ -5556,7 +5592,7 @@
         <v>1</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
@@ -5570,7 +5606,7 @@
         <v>1</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
@@ -5584,7 +5620,7 @@
         <v>1</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
@@ -5595,10 +5631,10 @@
         <v>386</v>
       </c>
       <c r="C175" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>555</v>
+        <v>759</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
@@ -5612,7 +5648,7 @@
         <v>1</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
@@ -5626,7 +5662,7 @@
         <v>1</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
@@ -5640,7 +5676,7 @@
         <v>1</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
@@ -5654,7 +5690,7 @@
         <v>2</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>701</v>
+        <v>688</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
@@ -5668,7 +5704,7 @@
         <v>2</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
@@ -5682,7 +5718,7 @@
         <v>1</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
@@ -5696,7 +5732,7 @@
         <v>1</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
@@ -5710,7 +5746,7 @@
         <v>1</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
@@ -5724,7 +5760,7 @@
         <v>2</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
@@ -5738,7 +5774,7 @@
         <v>1</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
@@ -5752,7 +5788,7 @@
         <v>3</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
@@ -5766,7 +5802,7 @@
         <v>2</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>744</v>
+        <v>728</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
@@ -5780,7 +5816,7 @@
         <v>4</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>732</v>
+        <v>760</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
@@ -5794,7 +5830,7 @@
         <v>4</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>732</v>
+        <v>760</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
@@ -5808,7 +5844,7 @@
         <v>1</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
@@ -5822,7 +5858,7 @@
         <v>1</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
@@ -5836,7 +5872,7 @@
         <v>1</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
@@ -5850,7 +5886,7 @@
         <v>1</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
@@ -5864,7 +5900,7 @@
         <v>2</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
@@ -5878,7 +5914,7 @@
         <v>3</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
@@ -5892,7 +5928,7 @@
         <v>1</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
@@ -5906,7 +5942,7 @@
         <v>4</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>703</v>
+        <v>690</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
@@ -5920,7 +5956,7 @@
         <v>2</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
@@ -5934,12 +5970,12 @@
         <v>1</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>704</v>
+        <v>691</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>396</v>
@@ -5948,7 +5984,7 @@
         <v>1</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
@@ -5962,12 +5998,12 @@
         <v>1</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>706</v>
+        <v>693</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>305</v>
@@ -5976,7 +6012,7 @@
         <v>1</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>745</v>
+        <v>729</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
@@ -5990,7 +6026,7 @@
         <v>2</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
@@ -6004,7 +6040,7 @@
         <v>1</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
@@ -6029,7 +6065,7 @@
         <v>1</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
@@ -6043,21 +6079,21 @@
         <v>1</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
-        <v>707</v>
+        <v>694</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>708</v>
+        <v>695</v>
       </c>
       <c r="C208" s="1">
         <v>1</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>733</v>
+        <v>719</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
@@ -6071,7 +6107,7 @@
         <v>1</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
@@ -6085,7 +6121,7 @@
         <v>1</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
@@ -6099,7 +6135,7 @@
         <v>2</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>709</v>
+        <v>696</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
@@ -6113,7 +6149,7 @@
         <v>1</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
@@ -6127,7 +6163,7 @@
         <v>2</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
@@ -6141,7 +6177,7 @@
         <v>1</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
@@ -6155,7 +6191,7 @@
         <v>2</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
@@ -6169,7 +6205,7 @@
         <v>1</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
@@ -6183,7 +6219,7 @@
         <v>3</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>711</v>
+        <v>698</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
@@ -6197,7 +6233,7 @@
         <v>1</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
@@ -6211,7 +6247,7 @@
         <v>1</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
@@ -6225,7 +6261,7 @@
         <v>1</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
@@ -6239,7 +6275,7 @@
         <v>1</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
@@ -6253,7 +6289,7 @@
         <v>2</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
@@ -6267,7 +6303,7 @@
         <v>4</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>712</v>
+        <v>699</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
@@ -6281,7 +6317,7 @@
         <v>1</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
@@ -6292,10 +6328,10 @@
         <v>314</v>
       </c>
       <c r="C225" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>746</v>
+        <v>761</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
@@ -6309,7 +6345,7 @@
         <v>1</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
@@ -6323,7 +6359,7 @@
         <v>1</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
@@ -6337,7 +6373,7 @@
         <v>1</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
@@ -6351,21 +6387,21 @@
         <v>3</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>713</v>
+        <v>700</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
-        <v>714</v>
+        <v>701</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>715</v>
+        <v>702</v>
       </c>
       <c r="C230" s="1">
         <v>1</v>
       </c>
       <c r="D230" s="4" t="s">
-        <v>747</v>
+        <v>730</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
@@ -6379,7 +6415,7 @@
         <v>1</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
@@ -6393,7 +6429,7 @@
         <v>2</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
@@ -6407,7 +6443,7 @@
         <v>1</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
@@ -6421,7 +6457,7 @@
         <v>1</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
@@ -6435,7 +6471,7 @@
         <v>3</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>748</v>
+        <v>731</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
@@ -6443,27 +6479,24 @@
         <v>64</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>251</v>
+        <v>318</v>
       </c>
       <c r="C236" s="1">
-        <v>1</v>
-      </c>
-      <c r="D236" s="4" t="s">
-        <v>589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
-        <v>234</v>
+        <v>64</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>318</v>
+        <v>251</v>
       </c>
       <c r="C237" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
@@ -6471,55 +6504,55 @@
         <v>234</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>268</v>
+        <v>318</v>
       </c>
       <c r="C238" s="1">
         <v>2</v>
       </c>
       <c r="D238" s="4" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>317</v>
+        <v>268</v>
       </c>
       <c r="C239" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D239" s="4" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
-        <v>185</v>
+        <v>123</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C240" s="1">
         <v>1</v>
       </c>
       <c r="D240" s="4" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>373</v>
+        <v>319</v>
       </c>
       <c r="C241" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
@@ -6527,13 +6560,13 @@
         <v>160</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>341</v>
+        <v>373</v>
       </c>
       <c r="C242" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>749</v>
+        <v>587</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
@@ -6541,813 +6574,810 @@
         <v>160</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>393</v>
+        <v>341</v>
       </c>
       <c r="C243" s="1">
-        <v>1</v>
-      </c>
-      <c r="D243" s="4" t="s">
-        <v>595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="C244" s="1">
         <v>1</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>334</v>
+        <v>386</v>
       </c>
       <c r="C245" s="1">
         <v>1</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>667</v>
+        <v>589</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
-        <v>235</v>
+        <v>124</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>363</v>
+        <v>334</v>
       </c>
       <c r="C246" s="1">
         <v>1</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>597</v>
+        <v>658</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
-        <v>162</v>
+        <v>235</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>320</v>
+        <v>363</v>
       </c>
       <c r="C247" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D247" s="4" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="C248" s="1">
-        <v>3</v>
-      </c>
-      <c r="D248" s="4" t="s">
-        <v>598</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>389</v>
+        <v>342</v>
       </c>
       <c r="C249" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
-        <v>206</v>
+        <v>65</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>365</v>
+        <v>389</v>
       </c>
       <c r="C250" s="1">
         <v>1</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>639</v>
+        <v>592</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
-        <v>407</v>
+        <v>206</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>413</v>
+        <v>365</v>
       </c>
       <c r="C251" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D251" s="4" t="s">
-        <v>668</v>
+        <v>762</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
-        <v>66</v>
+        <v>407</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>321</v>
+        <v>413</v>
       </c>
       <c r="C252" s="1">
         <v>1</v>
       </c>
       <c r="D252" s="4" t="s">
-        <v>600</v>
+        <v>659</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
-        <v>126</v>
+        <v>66</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>260</v>
+        <v>321</v>
       </c>
       <c r="C253" s="1">
         <v>1</v>
       </c>
       <c r="D253" s="4" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>349</v>
+        <v>260</v>
       </c>
       <c r="C254" s="1">
         <v>1</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>669</v>
+        <v>594</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
-        <v>207</v>
+        <v>67</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>388</v>
+        <v>349</v>
       </c>
       <c r="C255" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>602</v>
+        <v>660</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
-        <v>163</v>
+        <v>207</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>354</v>
+        <v>388</v>
       </c>
       <c r="C256" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
-        <v>127</v>
+        <v>739</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>370</v>
+        <v>763</v>
       </c>
       <c r="C257" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>604</v>
+        <v>35</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
-        <v>34</v>
+        <v>163</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C258" s="1">
         <v>1</v>
       </c>
       <c r="D258" s="4" t="s">
-        <v>670</v>
+        <v>596</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>296</v>
+        <v>370</v>
       </c>
       <c r="C259" s="1">
         <v>1</v>
       </c>
       <c r="D259" s="4" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>416</v>
+        <v>351</v>
       </c>
       <c r="C260" s="1">
         <v>1</v>
       </c>
       <c r="D260" s="4" t="s">
-        <v>750</v>
+        <v>661</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
-        <v>236</v>
+        <v>94</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="C261" s="1">
         <v>1</v>
       </c>
       <c r="D261" s="4" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
-        <v>164</v>
+        <v>94</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>378</v>
+        <v>416</v>
       </c>
       <c r="C262" s="1">
         <v>1</v>
       </c>
       <c r="D262" s="4" t="s">
-        <v>607</v>
+        <v>732</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
-        <v>186</v>
+        <v>236</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>388</v>
+        <v>322</v>
       </c>
       <c r="C263" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D263" s="4" t="s">
-        <v>716</v>
+        <v>599</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>253</v>
+        <v>378</v>
       </c>
       <c r="C264" s="1">
         <v>1</v>
       </c>
       <c r="D264" s="4" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
-        <v>95</v>
+        <v>186</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>323</v>
+        <v>388</v>
       </c>
       <c r="C265" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D265" s="4" t="s">
-        <v>609</v>
+        <v>703</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>388</v>
+        <v>253</v>
       </c>
       <c r="C266" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>717</v>
+        <v>601</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C267" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>671</v>
+        <v>602</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
-        <v>408</v>
+        <v>165</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>324</v>
+        <v>388</v>
       </c>
       <c r="C268" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D268" s="4" t="s">
-        <v>672</v>
+        <v>704</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>351</v>
+        <v>324</v>
       </c>
       <c r="C269" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D269" s="4" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
-        <v>325</v>
+        <v>740</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="C270" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D270" s="4" t="s">
-        <v>610</v>
+        <v>35</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
-        <v>70</v>
+        <v>408</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>375</v>
+        <v>324</v>
       </c>
       <c r="C271" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D271" s="4" t="s">
-        <v>674</v>
+        <v>663</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="C272" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D272" s="4" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
-        <v>96</v>
+        <v>325</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>326</v>
+        <v>373</v>
       </c>
       <c r="C273" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D273" s="4" t="s">
-        <v>676</v>
+        <v>603</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
-        <v>129</v>
+        <v>70</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>260</v>
+        <v>375</v>
       </c>
       <c r="C274" s="1">
         <v>1</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
-        <v>208</v>
+        <v>71</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C275" s="1">
         <v>1</v>
       </c>
       <c r="D275" s="4" t="s">
-        <v>611</v>
+        <v>666</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
-        <v>166</v>
+        <v>96</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>273</v>
+        <v>326</v>
       </c>
       <c r="C276" s="1">
         <v>1</v>
       </c>
       <c r="D276" s="4" t="s">
-        <v>612</v>
+        <v>667</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>386</v>
+        <v>260</v>
       </c>
       <c r="C277" s="1">
         <v>1</v>
       </c>
       <c r="D277" s="4" t="s">
-        <v>613</v>
+        <v>668</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>340</v>
+        <v>367</v>
       </c>
       <c r="C278" s="1">
         <v>1</v>
       </c>
       <c r="D278" s="4" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>340</v>
+        <v>273</v>
       </c>
       <c r="C279" s="1">
         <v>1</v>
       </c>
       <c r="D279" s="4" t="s">
-        <v>718</v>
+        <v>605</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
-        <v>237</v>
+        <v>166</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>257</v>
+        <v>386</v>
       </c>
       <c r="C280" s="1">
         <v>1</v>
       </c>
       <c r="D280" s="4" t="s">
-        <v>678</v>
+        <v>606</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>394</v>
+        <v>340</v>
       </c>
       <c r="C281" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D281" s="4" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>294</v>
+        <v>340</v>
       </c>
       <c r="C282" s="1">
         <v>1</v>
       </c>
       <c r="D282" s="4" t="s">
-        <v>751</v>
+        <v>705</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
-        <v>131</v>
+        <v>237</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>327</v>
+        <v>257</v>
       </c>
       <c r="C283" s="1">
         <v>1</v>
       </c>
       <c r="D283" s="4" t="s">
-        <v>616</v>
+        <v>669</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C284" s="1">
         <v>2</v>
       </c>
-      <c r="B284" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="C284" s="1">
-        <v>1</v>
-      </c>
       <c r="D284" s="4" t="s">
-        <v>640</v>
+        <v>608</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
-        <v>3</v>
+        <v>167</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="C285" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D285" s="4" t="s">
-        <v>617</v>
+        <v>733</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
-        <v>4</v>
+        <v>131</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>381</v>
+        <v>327</v>
       </c>
       <c r="C286" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D286" s="4" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>689</v>
+        <v>348</v>
       </c>
       <c r="C287" s="1">
         <v>1</v>
       </c>
       <c r="D287" s="4" t="s">
-        <v>690</v>
+        <v>632</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
-        <v>719</v>
+        <v>3</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>720</v>
+        <v>265</v>
       </c>
       <c r="C288" s="1">
         <v>2</v>
       </c>
       <c r="D288" s="4" t="s">
-        <v>734</v>
+        <v>610</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
-        <v>417</v>
+        <v>4</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>418</v>
+        <v>381</v>
       </c>
       <c r="C289" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D289" s="4" t="s">
-        <v>679</v>
+        <v>611</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>294</v>
+        <v>680</v>
       </c>
       <c r="C290" s="1">
         <v>1</v>
       </c>
       <c r="D290" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
-        <v>6</v>
+        <v>706</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>351</v>
+        <v>707</v>
       </c>
       <c r="C291" s="1">
         <v>2</v>
       </c>
       <c r="D291" s="4" t="s">
-        <v>619</v>
+        <v>720</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" s="2" t="s">
-        <v>242</v>
+        <v>417</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>348</v>
+        <v>418</v>
       </c>
       <c r="C292" s="1">
         <v>1</v>
       </c>
       <c r="D292" s="4" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>328</v>
+        <v>294</v>
       </c>
       <c r="C293" s="1">
         <v>1</v>
       </c>
       <c r="D293" s="4" t="s">
-        <v>721</v>
+        <v>671</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="C294" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D294" s="4" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
-        <v>9</v>
+        <v>242</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>319</v>
+        <v>348</v>
       </c>
       <c r="C295" s="1">
         <v>1</v>
       </c>
       <c r="D295" s="4" t="s">
-        <v>722</v>
+        <v>672</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>395</v>
+        <v>328</v>
       </c>
       <c r="C296" s="1">
         <v>1</v>
       </c>
       <c r="D296" s="4" t="s">
-        <v>621</v>
+        <v>708</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
-        <v>723</v>
+        <v>8</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>396</v>
+        <v>329</v>
       </c>
       <c r="C297" s="1">
         <v>1</v>
       </c>
       <c r="D297" s="4" t="s">
-        <v>752</v>
+        <v>613</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
-        <v>409</v>
+        <v>741</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>386</v>
+        <v>764</v>
       </c>
       <c r="C298" s="1">
         <v>1</v>
       </c>
       <c r="D298" s="4" t="s">
-        <v>641</v>
+        <v>765</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="C299" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D299" s="4" t="s">
-        <v>753</v>
+        <v>709</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
-        <v>419</v>
+        <v>10</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>420</v>
+        <v>395</v>
       </c>
       <c r="C300" s="1">
         <v>1</v>
       </c>
       <c r="D300" s="4" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
-        <v>12</v>
+        <v>710</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>396</v>
@@ -7356,124 +7386,124 @@
         <v>1</v>
       </c>
       <c r="D301" s="4" t="s">
-        <v>623</v>
+        <v>734</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
-        <v>13</v>
+        <v>409</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="C302" s="1">
         <v>1</v>
       </c>
       <c r="D302" s="4" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="C303" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D303" s="4" t="s">
-        <v>625</v>
+        <v>735</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
-        <v>15</v>
+        <v>419</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>398</v>
+        <v>420</v>
       </c>
       <c r="C304" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D304" s="4" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C305" s="1">
         <v>1</v>
       </c>
       <c r="D305" s="4" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
-        <v>238</v>
+        <v>13</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>362</v>
+        <v>397</v>
       </c>
       <c r="C306" s="1">
         <v>1</v>
       </c>
       <c r="D306" s="4" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
-        <v>243</v>
+        <v>14</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>373</v>
+        <v>330</v>
       </c>
       <c r="C307" s="1">
         <v>1</v>
       </c>
       <c r="D307" s="4" t="s">
-        <v>642</v>
+        <v>618</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="s">
-        <v>239</v>
+        <v>15</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>370</v>
+        <v>398</v>
       </c>
       <c r="C308" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D308" s="4" t="s">
-        <v>682</v>
+        <v>619</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309" s="2" t="s">
-        <v>244</v>
+        <v>1</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>287</v>
+        <v>399</v>
       </c>
       <c r="C309" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D309" s="4" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>362</v>
@@ -7482,147 +7512,273 @@
         <v>1</v>
       </c>
       <c r="D310" s="4" t="s">
-        <v>683</v>
+        <v>621</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>331</v>
+        <v>373</v>
       </c>
       <c r="C311" s="1">
         <v>1</v>
       </c>
       <c r="D311" s="4" t="s">
-        <v>724</v>
+        <v>634</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312" s="2" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="C312" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D312" s="4" t="s">
-        <v>725</v>
+        <v>673</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313" s="2" t="s">
-        <v>400</v>
+        <v>244</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>343</v>
+        <v>287</v>
       </c>
       <c r="C313" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D313" s="4" t="s">
-        <v>643</v>
+        <v>622</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314" s="2" t="s">
-        <v>411</v>
+        <v>240</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>388</v>
+        <v>362</v>
       </c>
       <c r="C314" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D314" s="4" t="s">
-        <v>726</v>
+        <v>674</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315" s="2" t="s">
-        <v>410</v>
+        <v>241</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>281</v>
+        <v>331</v>
       </c>
       <c r="C315" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D315" s="4" t="s">
-        <v>630</v>
+        <v>711</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316" s="2" t="s">
-        <v>421</v>
+        <v>245</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="C316" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D316" s="4" t="s">
-        <v>35</v>
+        <v>712</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317" s="2" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>423</v>
+        <v>343</v>
       </c>
       <c r="C317" s="1">
         <v>1</v>
       </c>
       <c r="D317" s="4" t="s">
-        <v>684</v>
+        <v>635</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318" s="2" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>251</v>
+        <v>388</v>
       </c>
       <c r="C318" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D318" s="4" t="s">
-        <v>685</v>
+        <v>713</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319" s="2" t="s">
-        <v>686</v>
+        <v>410</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>362</v>
+        <v>281</v>
       </c>
       <c r="C319" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D319" s="4" t="s">
-        <v>754</v>
+        <v>623</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320" s="2" t="s">
-        <v>727</v>
+        <v>421</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>728</v>
+        <v>351</v>
       </c>
       <c r="C320" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D320" s="4" t="s">
-        <v>755</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A321" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="C321" s="1">
+        <v>1</v>
+      </c>
+      <c r="D321" s="4" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A322" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C322" s="1">
+        <v>1</v>
+      </c>
+      <c r="D322" s="4" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A323" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C323" s="1">
+        <v>2</v>
+      </c>
+      <c r="D323" s="4" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A324" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C324" s="1">
+        <v>1</v>
+      </c>
+      <c r="D324" s="4" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A325" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="C325" s="1">
+        <v>1</v>
+      </c>
+      <c r="D325" s="4" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A326" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C326" s="1">
+        <v>0</v>
+      </c>
+      <c r="D326" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A327" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C327" s="1">
+        <v>0</v>
+      </c>
+      <c r="D327" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A328" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C328" s="1">
+        <v>0</v>
+      </c>
+      <c r="D328" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A329" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C329" s="1">
+        <v>1</v>
+      </c>
+      <c r="D329" s="4" t="s">
+        <v>767</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FBBC24-94F8-4A19-A1C9-4E1EAE969C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A448BE3-1124-4979-8263-A659EB32D45A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8280" yWindow="4335" windowWidth="23925" windowHeight="16665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10275" yWindow="4155" windowWidth="23925" windowHeight="16665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="768">
   <si>
     <t>缪尔赛思</t>
   </si>
@@ -2338,17 +2338,13 @@
   </si>
   <si>
     <t>maa://41110</t>
-  </si>
-  <si>
-    <t>更新日期：2024.09.16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2379,6 +2375,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2400,7 +2403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2415,8 +2418,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2698,10 +2707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF329"/>
+  <dimension ref="A1:AF330"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2741,56 +2750,36 @@
     <col min="33" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="5" t="s">
+    <row r="1" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="5" t="s">
         <v>246</v>
       </c>
+      <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="2"/>
-      <c r="L1" s="1"/>
-      <c r="N1" s="2"/>
-      <c r="P1" s="1"/>
-      <c r="R1" s="2"/>
-      <c r="T1" s="1"/>
-      <c r="V1" s="2"/>
-      <c r="X1" s="1"/>
-      <c r="Z1" s="2"/>
-      <c r="AB1" s="1"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>132</v>
+        <v>247</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>716</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="I2" s="6"/>
       <c r="J2" s="2"/>
       <c r="L2" s="1"/>
       <c r="N2" s="2"/>
@@ -2805,22 +2794,20 @@
       <c r="AE2" s="3"/>
       <c r="AF2" s="3"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>332</v>
+        <v>250</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>768</v>
-      </c>
+        <v>716</v>
+      </c>
+      <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -2838,20 +2825,23 @@
       <c r="AE3" s="3"/>
       <c r="AF3" s="3"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>251</v>
+        <v>332</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
       <c r="J4" s="2"/>
       <c r="L4" s="1"/>
       <c r="N4" s="2"/>
@@ -2866,23 +2856,20 @@
       <c r="AE4" s="3"/>
       <c r="AF4" s="3"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>333</v>
+        <v>251</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
       <c r="J5" s="2"/>
       <c r="L5" s="1"/>
       <c r="N5" s="2"/>
@@ -2897,21 +2884,23 @@
       <c r="AE5" s="3"/>
       <c r="AF5" s="3"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>252</v>
+        <v>333</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="H6" s="1"/>
+        <v>426</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
       <c r="J6" s="2"/>
       <c r="L6" s="1"/>
       <c r="N6" s="2"/>
@@ -2928,16 +2917,16 @@
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F7" s="2"/>
       <c r="H7" s="1"/>
@@ -2957,16 +2946,16 @@
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>334</v>
+        <v>253</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F8" s="2"/>
       <c r="H8" s="1"/>
@@ -2986,16 +2975,16 @@
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>624</v>
+        <v>429</v>
       </c>
       <c r="F9" s="2"/>
       <c r="H9" s="1"/>
@@ -3015,16 +3004,16 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>430</v>
+        <v>624</v>
       </c>
       <c r="F10" s="2"/>
       <c r="H10" s="1"/>
@@ -3044,16 +3033,16 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>254</v>
+        <v>336</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F11" s="2"/>
       <c r="H11" s="1"/>
@@ -3073,16 +3062,16 @@
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>401</v>
+        <v>38</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>343</v>
+        <v>254</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>625</v>
+        <v>431</v>
       </c>
       <c r="F12" s="2"/>
       <c r="H12" s="1"/>
@@ -3102,16 +3091,16 @@
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>255</v>
+        <v>401</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F13" s="2"/>
       <c r="H13" s="1"/>
@@ -3131,16 +3120,16 @@
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>209</v>
+        <v>255</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>721</v>
+        <v>626</v>
       </c>
       <c r="F14" s="2"/>
       <c r="H14" s="1"/>
@@ -3160,16 +3149,16 @@
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>432</v>
+        <v>721</v>
       </c>
       <c r="F15" s="2"/>
       <c r="H15" s="1"/>
@@ -3189,16 +3178,16 @@
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>746</v>
+        <v>432</v>
       </c>
       <c r="F16" s="2"/>
       <c r="H16" s="1"/>
@@ -3218,16 +3207,16 @@
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>256</v>
+        <v>339</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>433</v>
+        <v>746</v>
       </c>
       <c r="F17" s="2"/>
       <c r="H17" s="1"/>
@@ -3247,16 +3236,16 @@
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>340</v>
+        <v>256</v>
       </c>
       <c r="C18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>682</v>
+        <v>433</v>
       </c>
       <c r="F18" s="2"/>
       <c r="H18" s="1"/>
@@ -3276,16 +3265,16 @@
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>73</v>
+        <v>170</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>434</v>
+        <v>682</v>
       </c>
       <c r="F19" s="2"/>
       <c r="H19" s="1"/>
@@ -3305,16 +3294,16 @@
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C20" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F20" s="2"/>
       <c r="H20" s="1"/>
@@ -3334,16 +3323,16 @@
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F21" s="2"/>
       <c r="H21" s="1"/>
@@ -3363,16 +3352,16 @@
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>187</v>
+        <v>75</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F22" s="2"/>
       <c r="H22" s="1"/>
@@ -3392,16 +3381,16 @@
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>257</v>
+        <v>344</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F23" s="2"/>
       <c r="H23" s="1"/>
@@ -3421,16 +3410,16 @@
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>345</v>
+        <v>257</v>
       </c>
       <c r="C24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>35</v>
+        <v>438</v>
       </c>
       <c r="F24" s="2"/>
       <c r="H24" s="1"/>
@@ -3450,16 +3439,16 @@
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C25" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>747</v>
+        <v>35</v>
       </c>
       <c r="F25" s="2"/>
       <c r="H25" s="1"/>
@@ -3479,16 +3468,16 @@
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>19</v>
+        <v>171</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C26" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>439</v>
+        <v>747</v>
       </c>
       <c r="F26" s="2"/>
       <c r="H26" s="1"/>
@@ -3508,16 +3497,16 @@
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>258</v>
+        <v>347</v>
       </c>
       <c r="C27" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F27" s="2"/>
       <c r="H27" s="1"/>
@@ -3537,16 +3526,16 @@
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>348</v>
+        <v>258</v>
       </c>
       <c r="C28" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F28" s="2"/>
       <c r="H28" s="1"/>
@@ -3566,16 +3555,16 @@
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>717</v>
+        <v>441</v>
       </c>
       <c r="F29" s="2"/>
       <c r="H29" s="1"/>
@@ -3595,273 +3584,288 @@
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>402</v>
+        <v>40</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="C30" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>748</v>
-      </c>
+        <v>717</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="H30" s="1"/>
+      <c r="J30" s="2"/>
+      <c r="L30" s="1"/>
+      <c r="N30" s="2"/>
+      <c r="P30" s="1"/>
+      <c r="R30" s="2"/>
+      <c r="T30" s="1"/>
+      <c r="V30" s="2"/>
+      <c r="X30" s="1"/>
+      <c r="Z30" s="2"/>
+      <c r="AB30" s="1"/>
+      <c r="AD30" s="3"/>
+      <c r="AE30" s="3"/>
+      <c r="AF30" s="3"/>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>41</v>
+        <v>402</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>259</v>
+        <v>365</v>
       </c>
       <c r="C31" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>442</v>
+        <v>748</v>
       </c>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>340</v>
+        <v>259</v>
       </c>
       <c r="C32" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>749</v>
+        <v>442</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>443</v>
+        <v>749</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C35" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>750</v>
+        <v>444</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>260</v>
+        <v>351</v>
       </c>
       <c r="C36" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>445</v>
+        <v>750</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C38" s="1">
         <v>2</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D38" s="4" t="s">
         <v>446</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="C38" s="1">
-        <v>1</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C39" s="1">
         <v>1</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C40" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>212</v>
+        <v>76</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>256</v>
+        <v>336</v>
       </c>
       <c r="C41" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>77</v>
+        <v>212</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>353</v>
+        <v>256</v>
       </c>
       <c r="C42" s="1">
         <v>1</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="C43" s="1">
-        <v>1</v>
-      </c>
-      <c r="D43" s="4" t="s">
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>452</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C44" s="1">
-        <v>1</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C45" s="1">
         <v>1</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>453</v>
+        <v>627</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>342</v>
+        <v>262</v>
       </c>
       <c r="C46" s="1">
         <v>1</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>213</v>
+        <v>104</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>263</v>
+        <v>342</v>
       </c>
       <c r="C47" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>354</v>
+        <v>263</v>
       </c>
       <c r="C48" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>354</v>
@@ -3870,63 +3874,63 @@
         <v>1</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C50" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>264</v>
+        <v>355</v>
       </c>
       <c r="C51" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>105</v>
+        <v>215</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>356</v>
+        <v>264</v>
       </c>
       <c r="C52" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>722</v>
+        <v>459</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C53" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>460</v>
+        <v>722</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -3934,27 +3938,27 @@
         <v>21</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C54" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>136</v>
+        <v>21</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="C55" s="1">
         <v>2</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>751</v>
+        <v>461</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -3962,41 +3966,41 @@
         <v>136</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>414</v>
+        <v>347</v>
       </c>
       <c r="C56" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>462</v>
+        <v>751</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>265</v>
+        <v>414</v>
       </c>
       <c r="C57" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>192</v>
+        <v>137</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>333</v>
+        <v>265</v>
       </c>
       <c r="C58" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -4004,27 +4008,27 @@
         <v>192</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>359</v>
+        <v>333</v>
       </c>
       <c r="C59" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>752</v>
+        <v>464</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>266</v>
+        <v>359</v>
       </c>
       <c r="C60" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>683</v>
+        <v>752</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -4032,27 +4036,27 @@
         <v>174</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>360</v>
+        <v>266</v>
       </c>
       <c r="C61" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="C62" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>465</v>
+        <v>684</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -4060,27 +4064,27 @@
         <v>175</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>275</v>
+        <v>341</v>
       </c>
       <c r="C63" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>685</v>
+        <v>465</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>361</v>
+        <v>275</v>
       </c>
       <c r="C64" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>466</v>
+        <v>685</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -4088,27 +4092,27 @@
         <v>80</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C65" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>628</v>
+        <v>466</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>267</v>
+        <v>362</v>
       </c>
       <c r="C66" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>467</v>
+        <v>628</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -4116,97 +4120,97 @@
         <v>81</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>353</v>
+        <v>267</v>
       </c>
       <c r="C67" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>403</v>
+        <v>81</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>310</v>
+        <v>353</v>
       </c>
       <c r="C68" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>650</v>
+        <v>468</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>42</v>
+        <v>403</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>363</v>
+        <v>310</v>
       </c>
       <c r="C69" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>636</v>
+        <v>650</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>337</v>
+        <v>363</v>
       </c>
       <c r="C70" s="1">
         <v>1</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>268</v>
+        <v>337</v>
       </c>
       <c r="C71" s="1">
         <v>1</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>469</v>
+        <v>637</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C72" s="1">
         <v>1</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C73" s="1">
         <v>1</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -4214,55 +4218,55 @@
         <v>44</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C74" s="1">
         <v>1</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>354</v>
+        <v>269</v>
       </c>
       <c r="C75" s="1">
         <v>1</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>45</v>
+        <v>139</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>271</v>
+        <v>354</v>
       </c>
       <c r="C76" s="1">
         <v>1</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>360</v>
+        <v>271</v>
       </c>
       <c r="C77" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -4270,69 +4274,69 @@
         <v>46</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C78" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>176</v>
+        <v>46</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C79" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>753</v>
+        <v>476</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>272</v>
+        <v>365</v>
       </c>
       <c r="C80" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>477</v>
+        <v>753</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>350</v>
+        <v>272</v>
       </c>
       <c r="C81" s="1">
         <v>1</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>106</v>
+        <v>193</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>273</v>
+        <v>350</v>
       </c>
       <c r="C82" s="1">
         <v>1</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -4340,41 +4344,41 @@
         <v>106</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>366</v>
+        <v>273</v>
       </c>
       <c r="C83" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C84" s="1">
         <v>2</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C85" s="1">
         <v>2</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -4382,69 +4386,69 @@
         <v>47</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C86" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="C87" s="1">
         <v>1</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>274</v>
+        <v>362</v>
       </c>
       <c r="C88" s="1">
         <v>1</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>646</v>
+        <v>48</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>651</v>
+        <v>274</v>
       </c>
       <c r="C89" s="1">
         <v>1</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>723</v>
+        <v>485</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>194</v>
+        <v>646</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>370</v>
+        <v>651</v>
       </c>
       <c r="C90" s="1">
         <v>1</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>486</v>
+        <v>723</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -4452,97 +4456,97 @@
         <v>194</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C91" s="1">
         <v>1</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>275</v>
+        <v>371</v>
       </c>
       <c r="C92" s="1">
         <v>1</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>372</v>
+        <v>275</v>
       </c>
       <c r="C93" s="1">
         <v>1</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>108</v>
+        <v>178</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="C94" s="1">
         <v>1</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="C95" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>217</v>
+        <v>82</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="C96" s="1">
         <v>2</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>754</v>
+        <v>491</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>140</v>
+        <v>217</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>284</v>
+        <v>365</v>
       </c>
       <c r="C97" s="1">
         <v>2</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -4550,139 +4554,139 @@
         <v>140</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="C98" s="1">
         <v>2</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>492</v>
+        <v>755</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>24</v>
+        <v>140</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>374</v>
+        <v>276</v>
       </c>
       <c r="C99" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C100" s="1">
         <v>1</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>638</v>
+        <v>493</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="C101" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>756</v>
+        <v>638</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>342</v>
+        <v>365</v>
       </c>
       <c r="C102" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>494</v>
+        <v>756</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>376</v>
+        <v>342</v>
       </c>
       <c r="C103" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>218</v>
+        <v>50</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>353</v>
+        <v>376</v>
       </c>
       <c r="C104" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>83</v>
+        <v>218</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>250</v>
+        <v>353</v>
       </c>
       <c r="C105" s="1">
         <v>1</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>219</v>
+        <v>83</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>345</v>
+        <v>250</v>
       </c>
       <c r="C106" s="1">
         <v>1</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>718</v>
+        <v>497</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>84</v>
+        <v>219</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>277</v>
+        <v>345</v>
       </c>
       <c r="C107" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>498</v>
+        <v>718</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -4690,41 +4694,41 @@
         <v>84</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C108" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>141</v>
+        <v>84</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C109" s="1">
         <v>1</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C110" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>629</v>
+        <v>500</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -4732,83 +4736,83 @@
         <v>142</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>377</v>
+        <v>280</v>
       </c>
       <c r="C111" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>501</v>
+        <v>629</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>179</v>
+        <v>142</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C112" s="1">
         <v>2</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>51</v>
+        <v>179</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="C113" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>373</v>
+        <v>336</v>
       </c>
       <c r="C114" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>279</v>
+        <v>373</v>
       </c>
       <c r="C115" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>363</v>
+        <v>279</v>
       </c>
       <c r="C116" s="1">
         <v>1</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -4816,69 +4820,69 @@
         <v>25</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="C117" s="1">
         <v>1</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>344</v>
+        <v>374</v>
       </c>
       <c r="C118" s="1">
         <v>1</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="C119" s="1">
         <v>1</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>686</v>
+        <v>508</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>195</v>
+        <v>54</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>378</v>
+        <v>333</v>
       </c>
       <c r="C120" s="1">
         <v>1</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>509</v>
+        <v>686</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>341</v>
+        <v>378</v>
       </c>
       <c r="C121" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -4886,41 +4890,41 @@
         <v>220</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>281</v>
+        <v>341</v>
       </c>
       <c r="C122" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>26</v>
+        <v>220</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C123" s="1">
         <v>2</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>221</v>
+        <v>26</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C124" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -4928,27 +4932,27 @@
         <v>221</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C125" s="1">
         <v>1</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>112</v>
+        <v>221</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C126" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>757</v>
+        <v>514</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -4956,139 +4960,139 @@
         <v>112</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C127" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>724</v>
+        <v>757</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>196</v>
+        <v>112</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="C128" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>639</v>
+        <v>724</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>353</v>
+        <v>279</v>
       </c>
       <c r="C129" s="1">
         <v>1</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>515</v>
+        <v>639</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="C130" s="1">
         <v>1</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
       <c r="C131" s="1">
         <v>1</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C132" s="1">
         <v>1</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C133" s="1">
         <v>1</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>678</v>
+        <v>518</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C134" s="1">
         <v>1</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>519</v>
+        <v>678</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>404</v>
+        <v>180</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>360</v>
+        <v>381</v>
       </c>
       <c r="C135" s="1">
         <v>1</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>630</v>
+        <v>519</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>198</v>
+        <v>404</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>286</v>
+        <v>360</v>
       </c>
       <c r="C136" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>520</v>
+        <v>630</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
@@ -5096,153 +5100,153 @@
         <v>198</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C137" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>362</v>
+        <v>287</v>
       </c>
       <c r="C138" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>146</v>
+        <v>199</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>288</v>
+        <v>362</v>
       </c>
       <c r="C139" s="1">
         <v>1</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>640</v>
+        <v>522</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>27</v>
+        <v>146</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>382</v>
+        <v>288</v>
       </c>
       <c r="C140" s="1">
         <v>1</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>523</v>
+        <v>640</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>222</v>
+        <v>27</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>289</v>
+        <v>382</v>
       </c>
       <c r="C141" s="1">
         <v>1</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>114</v>
+        <v>222</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>383</v>
+        <v>289</v>
       </c>
       <c r="C142" s="1">
         <v>1</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>405</v>
+        <v>114</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="C143" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>115</v>
+        <v>405</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>345</v>
+        <v>412</v>
       </c>
       <c r="C144" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>290</v>
+        <v>345</v>
       </c>
       <c r="C145" s="1">
         <v>1</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>55</v>
+        <v>147</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C146" s="1">
         <v>1</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>641</v>
+        <v>528</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C147" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>529</v>
+        <v>641</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
@@ -5250,111 +5254,111 @@
         <v>85</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C148" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>406</v>
+        <v>85</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>345</v>
+        <v>293</v>
       </c>
       <c r="C149" s="1">
         <v>1</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>631</v>
+        <v>530</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>148</v>
+        <v>406</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>294</v>
+        <v>345</v>
       </c>
       <c r="C150" s="1">
         <v>1</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>687</v>
+        <v>631</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>384</v>
+        <v>294</v>
       </c>
       <c r="C151" s="1">
         <v>1</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>531</v>
+        <v>687</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>353</v>
+        <v>384</v>
       </c>
       <c r="C152" s="1">
         <v>1</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>279</v>
+        <v>353</v>
       </c>
       <c r="C153" s="1">
         <v>1</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>647</v>
+        <v>56</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>652</v>
+        <v>279</v>
       </c>
       <c r="C154" s="1">
         <v>1</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>725</v>
+        <v>533</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>87</v>
+        <v>647</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>263</v>
+        <v>652</v>
       </c>
       <c r="C155" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>534</v>
+        <v>725</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
@@ -5362,167 +5366,167 @@
         <v>87</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="C156" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C157" s="1">
         <v>1</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>642</v>
+        <v>535</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>181</v>
+        <v>57</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>370</v>
+        <v>296</v>
       </c>
       <c r="C158" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>536</v>
+        <v>642</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>88</v>
+        <v>181</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="C159" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C160" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>648</v>
+        <v>117</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>341</v>
+        <v>372</v>
       </c>
       <c r="C161" s="1">
         <v>1</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>726</v>
+        <v>538</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>223</v>
+        <v>648</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>297</v>
+        <v>341</v>
       </c>
       <c r="C162" s="1">
         <v>1</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>643</v>
+        <v>726</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>333</v>
+        <v>297</v>
       </c>
       <c r="C163" s="1">
         <v>1</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>758</v>
+        <v>643</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>58</v>
+        <v>224</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="C164" s="1">
         <v>1</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>539</v>
+        <v>758</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C165" s="1">
         <v>1</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>727</v>
+        <v>539</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>149</v>
+        <v>28</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>371</v>
+        <v>299</v>
       </c>
       <c r="C166" s="1">
         <v>1</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>540</v>
+        <v>727</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>251</v>
+        <v>371</v>
       </c>
       <c r="C167" s="1">
         <v>1</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
@@ -5530,69 +5534,69 @@
         <v>118</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>352</v>
+        <v>251</v>
       </c>
       <c r="C168" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C169" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>300</v>
+        <v>353</v>
       </c>
       <c r="C170" s="1">
         <v>1</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
-        <v>225</v>
+        <v>150</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>373</v>
+        <v>300</v>
       </c>
       <c r="C171" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>29</v>
+        <v>225</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>301</v>
+        <v>373</v>
       </c>
       <c r="C172" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
@@ -5600,27 +5604,27 @@
         <v>29</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C173" s="1">
         <v>1</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>151</v>
+        <v>29</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>385</v>
+        <v>302</v>
       </c>
       <c r="C174" s="1">
         <v>1</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
@@ -5628,69 +5632,69 @@
         <v>151</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C175" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>759</v>
+        <v>548</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>59</v>
+        <v>151</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>271</v>
+        <v>386</v>
       </c>
       <c r="C176" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>549</v>
+        <v>759</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>340</v>
+        <v>271</v>
       </c>
       <c r="C177" s="1">
         <v>1</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>226</v>
+        <v>89</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="C178" s="1">
         <v>1</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>644</v>
+        <v>550</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
-        <v>119</v>
+        <v>226</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>303</v>
+        <v>359</v>
       </c>
       <c r="C179" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>688</v>
+        <v>644</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
@@ -5698,55 +5702,55 @@
         <v>119</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>336</v>
+        <v>303</v>
       </c>
       <c r="C180" s="1">
         <v>2</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>551</v>
+        <v>688</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C181" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="C182" s="1">
         <v>1</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="C183" s="1">
         <v>1</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
@@ -5754,41 +5758,41 @@
         <v>152</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C184" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
-        <v>60</v>
+        <v>152</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="C185" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
-        <v>227</v>
+        <v>60</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>304</v>
+        <v>351</v>
       </c>
       <c r="C186" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>689</v>
+        <v>556</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
@@ -5796,27 +5800,27 @@
         <v>227</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>415</v>
+        <v>304</v>
       </c>
       <c r="C187" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>728</v>
+        <v>689</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
-        <v>183</v>
+        <v>227</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>368</v>
+        <v>415</v>
       </c>
       <c r="C188" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>760</v>
+        <v>728</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
@@ -5835,58 +5839,58 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>305</v>
+        <v>368</v>
       </c>
       <c r="C190" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>645</v>
+        <v>760</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
-        <v>228</v>
+        <v>153</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>354</v>
+        <v>305</v>
       </c>
       <c r="C191" s="1">
         <v>1</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>557</v>
+        <v>645</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="C192" s="1">
         <v>1</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
-        <v>154</v>
+        <v>229</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>387</v>
+        <v>362</v>
       </c>
       <c r="C193" s="1">
         <v>1</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
@@ -5894,27 +5898,27 @@
         <v>154</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>353</v>
+        <v>387</v>
       </c>
       <c r="C194" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
-        <v>61</v>
+        <v>154</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="C195" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
@@ -5922,41 +5926,41 @@
         <v>61</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>386</v>
+        <v>341</v>
       </c>
       <c r="C196" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C197" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>690</v>
+        <v>562</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>230</v>
+        <v>62</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C198" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>563</v>
+        <v>690</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
@@ -5964,94 +5968,97 @@
         <v>230</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>363</v>
+        <v>386</v>
       </c>
       <c r="C199" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>691</v>
+        <v>563</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
-        <v>649</v>
+        <v>230</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>396</v>
+        <v>363</v>
       </c>
       <c r="C200" s="1">
         <v>1</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>679</v>
+        <v>691</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
-        <v>200</v>
+        <v>649</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>351</v>
+        <v>396</v>
       </c>
       <c r="C201" s="1">
         <v>1</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>693</v>
+        <v>200</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>305</v>
+        <v>351</v>
       </c>
       <c r="C202" s="1">
         <v>1</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>729</v>
+        <v>692</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
-        <v>30</v>
+        <v>693</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>389</v>
+        <v>305</v>
       </c>
       <c r="C203" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>564</v>
+        <v>729</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="C204" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>653</v>
+        <v>564</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>253</v>
+        <v>380</v>
       </c>
       <c r="C205" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D205" s="4" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
@@ -6059,83 +6066,80 @@
         <v>121</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>370</v>
+        <v>253</v>
       </c>
       <c r="C206" s="1">
-        <v>1</v>
-      </c>
-      <c r="D206" s="4" t="s">
-        <v>565</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>342</v>
+        <v>370</v>
       </c>
       <c r="C207" s="1">
         <v>1</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
-        <v>694</v>
+        <v>155</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>695</v>
+        <v>342</v>
       </c>
       <c r="C208" s="1">
         <v>1</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>719</v>
+        <v>566</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
-        <v>31</v>
+        <v>694</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>295</v>
+        <v>695</v>
       </c>
       <c r="C209" s="1">
         <v>1</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>567</v>
+        <v>719</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
-        <v>156</v>
+        <v>31</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="C210" s="1">
         <v>1</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>654</v>
+        <v>567</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
-        <v>32</v>
+        <v>156</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>266</v>
+        <v>306</v>
       </c>
       <c r="C211" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>696</v>
+        <v>654</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
@@ -6143,27 +6147,27 @@
         <v>32</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>307</v>
+        <v>266</v>
       </c>
       <c r="C212" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>568</v>
+        <v>696</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C213" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
@@ -6171,102 +6175,102 @@
         <v>63</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C214" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>655</v>
+        <v>569</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
-        <v>157</v>
+        <v>63</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C215" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>697</v>
+        <v>655</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>351</v>
+        <v>310</v>
       </c>
       <c r="C216" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>570</v>
+        <v>697</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
-        <v>201</v>
+        <v>92</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>310</v>
+        <v>351</v>
       </c>
       <c r="C217" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>698</v>
+        <v>570</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C218" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>656</v>
+        <v>698</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
-        <v>312</v>
+        <v>202</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>351</v>
+        <v>311</v>
       </c>
       <c r="C219" s="1">
         <v>1</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>571</v>
+        <v>656</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
-        <v>33</v>
+        <v>312</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="C220" s="1">
         <v>1</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
-        <v>231</v>
+        <v>33</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>362</v>
@@ -6275,7 +6279,7 @@
         <v>1</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
@@ -6283,97 +6287,97 @@
         <v>231</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>313</v>
+        <v>362</v>
       </c>
       <c r="C222" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>340</v>
+        <v>313</v>
       </c>
       <c r="C223" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>699</v>
+        <v>574</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>389</v>
+        <v>340</v>
       </c>
       <c r="C224" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>575</v>
+        <v>699</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>314</v>
+        <v>389</v>
       </c>
       <c r="C225" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>761</v>
+        <v>575</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
-        <v>232</v>
+        <v>158</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C226" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>576</v>
+        <v>761</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>362</v>
+        <v>315</v>
       </c>
       <c r="C227" s="1">
         <v>1</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
-        <v>122</v>
+        <v>233</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>316</v>
+        <v>362</v>
       </c>
       <c r="C228" s="1">
         <v>1</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
@@ -6381,83 +6385,83 @@
         <v>122</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C229" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>700</v>
+        <v>578</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
-        <v>701</v>
+        <v>122</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>702</v>
+        <v>317</v>
       </c>
       <c r="C230" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D230" s="4" t="s">
-        <v>730</v>
+        <v>700</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
-        <v>159</v>
+        <v>701</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>292</v>
+        <v>702</v>
       </c>
       <c r="C231" s="1">
         <v>1</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>579</v>
+        <v>730</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>390</v>
+        <v>292</v>
       </c>
       <c r="C232" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
-        <v>205</v>
+        <v>93</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C233" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>657</v>
+        <v>580</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C234" s="1">
         <v>1</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>581</v>
+        <v>657</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
@@ -6465,24 +6469,27 @@
         <v>184</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>265</v>
+        <v>392</v>
       </c>
       <c r="C235" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>731</v>
+        <v>581</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
-        <v>64</v>
+        <v>184</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>318</v>
+        <v>265</v>
       </c>
       <c r="C236" s="1">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="D236" s="4" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
@@ -6490,27 +6497,24 @@
         <v>64</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>251</v>
+        <v>318</v>
       </c>
       <c r="C237" s="1">
-        <v>1</v>
-      </c>
-      <c r="D237" s="4" t="s">
-        <v>582</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
-        <v>234</v>
+        <v>64</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>318</v>
+        <v>251</v>
       </c>
       <c r="C238" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D238" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
@@ -6518,55 +6522,55 @@
         <v>234</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>268</v>
+        <v>318</v>
       </c>
       <c r="C239" s="1">
         <v>2</v>
       </c>
       <c r="D239" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>317</v>
+        <v>268</v>
       </c>
       <c r="C240" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D240" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
-        <v>185</v>
+        <v>123</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C241" s="1">
         <v>1</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>373</v>
+        <v>319</v>
       </c>
       <c r="C242" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
@@ -6574,10 +6578,13 @@
         <v>160</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>341</v>
+        <v>373</v>
       </c>
       <c r="C243" s="1">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D243" s="4" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
@@ -6585,248 +6592,245 @@
         <v>160</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>393</v>
+        <v>341</v>
       </c>
       <c r="C244" s="1">
-        <v>1</v>
-      </c>
-      <c r="D244" s="4" t="s">
-        <v>588</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="C245" s="1">
         <v>1</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>334</v>
+        <v>386</v>
       </c>
       <c r="C246" s="1">
         <v>1</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>658</v>
+        <v>589</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
-        <v>235</v>
+        <v>124</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>363</v>
+        <v>334</v>
       </c>
       <c r="C247" s="1">
         <v>1</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>590</v>
+        <v>658</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
-        <v>162</v>
+        <v>235</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>320</v>
+        <v>363</v>
       </c>
       <c r="C248" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D248" s="4" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="C249" s="1">
-        <v>3</v>
-      </c>
-      <c r="D249" s="4" t="s">
-        <v>591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>389</v>
+        <v>342</v>
       </c>
       <c r="C250" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
-        <v>206</v>
+        <v>65</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>365</v>
+        <v>389</v>
       </c>
       <c r="C251" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D251" s="4" t="s">
-        <v>762</v>
+        <v>592</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
-        <v>407</v>
+        <v>206</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>413</v>
+        <v>365</v>
       </c>
       <c r="C252" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D252" s="4" t="s">
-        <v>659</v>
+        <v>762</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
-        <v>66</v>
+        <v>407</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>321</v>
+        <v>413</v>
       </c>
       <c r="C253" s="1">
         <v>1</v>
       </c>
       <c r="D253" s="4" t="s">
-        <v>593</v>
+        <v>659</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
-        <v>126</v>
+        <v>66</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>260</v>
+        <v>321</v>
       </c>
       <c r="C254" s="1">
         <v>1</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>349</v>
+        <v>260</v>
       </c>
       <c r="C255" s="1">
         <v>1</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>660</v>
+        <v>594</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
-        <v>207</v>
+        <v>67</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>388</v>
+        <v>349</v>
       </c>
       <c r="C256" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>595</v>
+        <v>660</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
-        <v>739</v>
+        <v>207</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>763</v>
+        <v>388</v>
       </c>
       <c r="C257" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>35</v>
+        <v>595</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
-        <v>163</v>
+        <v>739</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>354</v>
+        <v>763</v>
       </c>
       <c r="C258" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D258" s="4" t="s">
-        <v>596</v>
+        <v>35</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="C259" s="1">
         <v>1</v>
       </c>
       <c r="D259" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
-        <v>34</v>
+        <v>127</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="C260" s="1">
         <v>1</v>
       </c>
       <c r="D260" s="4" t="s">
-        <v>661</v>
+        <v>597</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>296</v>
+        <v>351</v>
       </c>
       <c r="C261" s="1">
         <v>1</v>
       </c>
       <c r="D261" s="4" t="s">
-        <v>598</v>
+        <v>661</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
@@ -6834,251 +6838,251 @@
         <v>94</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>416</v>
+        <v>296</v>
       </c>
       <c r="C262" s="1">
         <v>1</v>
       </c>
       <c r="D262" s="4" t="s">
-        <v>732</v>
+        <v>598</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
-        <v>236</v>
+        <v>94</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>322</v>
+        <v>416</v>
       </c>
       <c r="C263" s="1">
         <v>1</v>
       </c>
       <c r="D263" s="4" t="s">
-        <v>599</v>
+        <v>732</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
-        <v>164</v>
+        <v>236</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>378</v>
+        <v>322</v>
       </c>
       <c r="C264" s="1">
         <v>1</v>
       </c>
       <c r="D264" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="C265" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D265" s="4" t="s">
-        <v>703</v>
+        <v>600</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
-        <v>128</v>
+        <v>186</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>253</v>
+        <v>388</v>
       </c>
       <c r="C266" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>601</v>
+        <v>703</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>323</v>
+        <v>253</v>
       </c>
       <c r="C267" s="1">
         <v>1</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
-        <v>165</v>
+        <v>95</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>388</v>
+        <v>323</v>
       </c>
       <c r="C268" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D268" s="4" t="s">
-        <v>704</v>
+        <v>602</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
-        <v>68</v>
+        <v>165</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>324</v>
+        <v>388</v>
       </c>
       <c r="C269" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D269" s="4" t="s">
-        <v>662</v>
+        <v>704</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
-        <v>740</v>
+        <v>68</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>366</v>
+        <v>324</v>
       </c>
       <c r="C270" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D270" s="4" t="s">
-        <v>35</v>
+        <v>662</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
-        <v>408</v>
+        <v>740</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>324</v>
+        <v>366</v>
       </c>
       <c r="C271" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D271" s="4" t="s">
-        <v>663</v>
+        <v>35</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
-        <v>69</v>
+        <v>408</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>351</v>
+        <v>324</v>
       </c>
       <c r="C272" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D272" s="4" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
-        <v>325</v>
+        <v>69</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>373</v>
+        <v>351</v>
       </c>
       <c r="C273" s="1">
         <v>2</v>
       </c>
       <c r="D273" s="4" t="s">
-        <v>603</v>
+        <v>664</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
-        <v>70</v>
+        <v>325</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C274" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>665</v>
+        <v>603</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="C275" s="1">
         <v>1</v>
       </c>
       <c r="D275" s="4" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="C276" s="1">
         <v>1</v>
       </c>
       <c r="D276" s="4" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>260</v>
+        <v>326</v>
       </c>
       <c r="C277" s="1">
         <v>1</v>
       </c>
       <c r="D277" s="4" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
-        <v>208</v>
+        <v>129</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>367</v>
+        <v>260</v>
       </c>
       <c r="C278" s="1">
         <v>1</v>
       </c>
       <c r="D278" s="4" t="s">
-        <v>604</v>
+        <v>668</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>273</v>
+        <v>367</v>
       </c>
       <c r="C279" s="1">
         <v>1</v>
       </c>
       <c r="D279" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
@@ -7086,32 +7090,32 @@
         <v>166</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>386</v>
+        <v>273</v>
       </c>
       <c r="C280" s="1">
         <v>1</v>
       </c>
       <c r="D280" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>340</v>
+        <v>386</v>
       </c>
       <c r="C281" s="1">
         <v>1</v>
       </c>
       <c r="D281" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>340</v>
@@ -7120,105 +7124,105 @@
         <v>1</v>
       </c>
       <c r="D282" s="4" t="s">
-        <v>705</v>
+        <v>607</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
-        <v>237</v>
+        <v>130</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>257</v>
+        <v>340</v>
       </c>
       <c r="C283" s="1">
         <v>1</v>
       </c>
       <c r="D283" s="4" t="s">
-        <v>669</v>
+        <v>705</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
-        <v>72</v>
+        <v>237</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>394</v>
+        <v>257</v>
       </c>
       <c r="C284" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D284" s="4" t="s">
-        <v>608</v>
+        <v>669</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
-        <v>167</v>
+        <v>72</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>294</v>
+        <v>394</v>
       </c>
       <c r="C285" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D285" s="4" t="s">
-        <v>733</v>
+        <v>608</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>327</v>
+        <v>294</v>
       </c>
       <c r="C286" s="1">
         <v>1</v>
       </c>
       <c r="D286" s="4" t="s">
-        <v>609</v>
+        <v>733</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
-        <v>2</v>
+        <v>131</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="C287" s="1">
         <v>1</v>
       </c>
       <c r="D287" s="4" t="s">
-        <v>632</v>
+        <v>609</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>265</v>
+        <v>348</v>
       </c>
       <c r="C288" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D288" s="4" t="s">
-        <v>610</v>
+        <v>632</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>381</v>
+        <v>265</v>
       </c>
       <c r="C289" s="1">
         <v>2</v>
       </c>
       <c r="D289" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
@@ -7226,525 +7230,525 @@
         <v>4</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>680</v>
+        <v>381</v>
       </c>
       <c r="C290" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D290" s="4" t="s">
-        <v>681</v>
+        <v>611</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
-        <v>706</v>
+        <v>4</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>707</v>
+        <v>680</v>
       </c>
       <c r="C291" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D291" s="4" t="s">
-        <v>720</v>
+        <v>681</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" s="2" t="s">
-        <v>417</v>
+        <v>706</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>418</v>
+        <v>707</v>
       </c>
       <c r="C292" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D292" s="4" t="s">
-        <v>670</v>
+        <v>720</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="s">
-        <v>5</v>
+        <v>417</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>294</v>
+        <v>418</v>
       </c>
       <c r="C293" s="1">
         <v>1</v>
       </c>
       <c r="D293" s="4" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>351</v>
+        <v>294</v>
       </c>
       <c r="C294" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D294" s="4" t="s">
-        <v>612</v>
+        <v>671</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
-        <v>242</v>
+        <v>6</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C295" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D295" s="4" t="s">
-        <v>672</v>
+        <v>612</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="C296" s="1">
         <v>1</v>
       </c>
       <c r="D296" s="4" t="s">
-        <v>708</v>
+        <v>672</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C297" s="1">
         <v>1</v>
       </c>
       <c r="D297" s="4" t="s">
-        <v>613</v>
+        <v>708</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
-        <v>741</v>
+        <v>8</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>764</v>
+        <v>329</v>
       </c>
       <c r="C298" s="1">
         <v>1</v>
       </c>
       <c r="D298" s="4" t="s">
-        <v>765</v>
+        <v>613</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
-        <v>9</v>
+        <v>741</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>319</v>
+        <v>764</v>
       </c>
       <c r="C299" s="1">
         <v>1</v>
       </c>
       <c r="D299" s="4" t="s">
-        <v>709</v>
+        <v>765</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>395</v>
+        <v>319</v>
       </c>
       <c r="C300" s="1">
         <v>1</v>
       </c>
       <c r="D300" s="4" t="s">
-        <v>614</v>
+        <v>709</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
-        <v>710</v>
+        <v>10</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C301" s="1">
         <v>1</v>
       </c>
       <c r="D301" s="4" t="s">
-        <v>734</v>
+        <v>614</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
-        <v>409</v>
+        <v>710</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="C302" s="1">
         <v>1</v>
       </c>
       <c r="D302" s="4" t="s">
-        <v>633</v>
+        <v>734</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
-        <v>11</v>
+        <v>409</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>306</v>
+        <v>386</v>
       </c>
       <c r="C303" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D303" s="4" t="s">
-        <v>735</v>
+        <v>633</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
-        <v>419</v>
+        <v>11</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>420</v>
+        <v>306</v>
       </c>
       <c r="C304" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D304" s="4" t="s">
-        <v>615</v>
+        <v>735</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
-        <v>12</v>
+        <v>419</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>396</v>
+        <v>420</v>
       </c>
       <c r="C305" s="1">
         <v>1</v>
       </c>
       <c r="D305" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C306" s="1">
         <v>1</v>
       </c>
       <c r="D306" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>330</v>
+        <v>397</v>
       </c>
       <c r="C307" s="1">
         <v>1</v>
       </c>
       <c r="D307" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>398</v>
+        <v>330</v>
       </c>
       <c r="C308" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D308" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309" s="2" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C309" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D309" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310" s="2" t="s">
-        <v>238</v>
+        <v>1</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>362</v>
+        <v>399</v>
       </c>
       <c r="C310" s="1">
         <v>1</v>
       </c>
       <c r="D310" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="C311" s="1">
         <v>1</v>
       </c>
       <c r="D311" s="4" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312" s="2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C312" s="1">
         <v>1</v>
       </c>
       <c r="D312" s="4" t="s">
-        <v>673</v>
+        <v>634</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313" s="2" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>287</v>
+        <v>370</v>
       </c>
       <c r="C313" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D313" s="4" t="s">
-        <v>622</v>
+        <v>673</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>362</v>
+        <v>287</v>
       </c>
       <c r="C314" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D314" s="4" t="s">
-        <v>674</v>
+        <v>622</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>331</v>
+        <v>362</v>
       </c>
       <c r="C315" s="1">
         <v>1</v>
       </c>
       <c r="D315" s="4" t="s">
-        <v>711</v>
+        <v>674</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>388</v>
+        <v>331</v>
       </c>
       <c r="C316" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D316" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317" s="2" t="s">
-        <v>400</v>
+        <v>245</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>343</v>
+        <v>388</v>
       </c>
       <c r="C317" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D317" s="4" t="s">
-        <v>635</v>
+        <v>712</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318" s="2" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>388</v>
+        <v>343</v>
       </c>
       <c r="C318" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D318" s="4" t="s">
-        <v>713</v>
+        <v>635</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>281</v>
+        <v>388</v>
       </c>
       <c r="C319" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D319" s="4" t="s">
-        <v>623</v>
+        <v>713</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320" s="2" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>351</v>
+        <v>281</v>
       </c>
       <c r="C320" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D320" s="4" t="s">
-        <v>35</v>
+        <v>623</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>423</v>
+        <v>351</v>
       </c>
       <c r="C321" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D321" s="4" t="s">
-        <v>675</v>
+        <v>35</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>251</v>
+        <v>423</v>
       </c>
       <c r="C322" s="1">
         <v>1</v>
       </c>
       <c r="D322" s="4" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323" s="2" t="s">
-        <v>742</v>
+        <v>424</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>412</v>
+        <v>251</v>
       </c>
       <c r="C323" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D323" s="4" t="s">
-        <v>766</v>
+        <v>676</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324" s="2" t="s">
-        <v>677</v>
+        <v>742</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>362</v>
+        <v>412</v>
       </c>
       <c r="C324" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D324" s="4" t="s">
-        <v>736</v>
+        <v>766</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325" s="2" t="s">
-        <v>714</v>
+        <v>677</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>715</v>
+        <v>362</v>
       </c>
       <c r="C325" s="1">
         <v>1</v>
       </c>
       <c r="D325" s="4" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326" s="2" t="s">
-        <v>744</v>
+        <v>714</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>336</v>
+        <v>715</v>
       </c>
       <c r="C326" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D326" s="4" t="s">
-        <v>35</v>
+        <v>737</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327" s="2" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>386</v>
+        <v>336</v>
       </c>
       <c r="C327" s="1">
         <v>0</v>
@@ -7755,10 +7759,10 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328" s="2" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>344</v>
+        <v>386</v>
       </c>
       <c r="C328" s="1">
         <v>0</v>
@@ -7769,22 +7773,36 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C329" s="1">
+        <v>0</v>
+      </c>
+      <c r="D329" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A330" s="2" t="s">
         <v>745</v>
       </c>
-      <c r="B329" s="2" t="s">
+      <c r="B330" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C329" s="1">
-        <v>1</v>
-      </c>
-      <c r="D329" s="4" t="s">
+      <c r="C330" s="1">
+        <v>1</v>
+      </c>
+      <c r="D330" s="4" t="s">
         <v>767</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="F1:I2"/>
-    <mergeCell ref="F3:I5"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:H2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -442,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF330"/>
+  <dimension ref="A1:AB330"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
@@ -488,7 +488,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="8" t="inlineStr">
         <is>
-          <t>更新日期：2024.09.22 01:35:26</t>
+          <t>更新日期：2024.09.22 08:01:38</t>
         </is>
       </c>
       <c r="E1" s="5" t="inlineStr">

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -488,7 +488,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="8" t="inlineStr">
         <is>
-          <t>更新日期：2024.09.22 08:01:38</t>
+          <t>更新日期：2024.09.28 13:17:02</t>
         </is>
       </c>
       <c r="E1" s="5" t="inlineStr">
@@ -5798,7 +5798,7 @@
       </c>
       <c r="D226" s="4" t="inlineStr">
         <is>
-          <t>*maa://30667, maa://30666, *maa://26836, *maa://34428, *maa://30723, maa://37607, maa://39588, *maa://37850</t>
+          <t>*maa://30667, maa://30666, *maa://26836, *maa://34428, maa://37607, *maa://30723, maa://39588, *maa://37850</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -488,7 +488,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="8" t="inlineStr">
         <is>
-          <t>更新日期：2024.09.28 13:17:02</t>
+          <t>更新日期：2024.09.30 13:18:17</t>
         </is>
       </c>
       <c r="E1" s="5" t="inlineStr">
@@ -3615,12 +3615,12 @@
       </c>
       <c r="C127" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D127" s="4" t="inlineStr">
         <is>
-          <t>maa://23019, maa://20837, maa://37113, maa://40517, *maa://37666</t>
+          <t>maa://23019, maa://20837, maa://37113, maa://40517, *maa://37666, maa://41686</t>
         </is>
       </c>
     </row>
@@ -7470,7 +7470,7 @@
       </c>
       <c r="D302" s="4" t="inlineStr">
         <is>
-          <t>maa://40162</t>
+          <t>*maa://40162</t>
         </is>
       </c>
     </row>
@@ -7509,12 +7509,12 @@
       </c>
       <c r="C304" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D304" s="4" t="inlineStr">
         <is>
-          <t>maa://30671, maa://30669, maa://37275, *maa://32410, maa://33671</t>
+          <t>maa://30671, maa://30669, maa://37275, *maa://32410, maa://33671, maa://41605</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -488,7 +488,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="8" t="inlineStr">
         <is>
-          <t>更新日期：2024.09.30 13:18:17</t>
+          <t>更新日期：2024.10.01 08:00:38</t>
         </is>
       </c>
       <c r="E1" s="5" t="inlineStr">
@@ -5798,7 +5798,7 @@
       </c>
       <c r="D226" s="4" t="inlineStr">
         <is>
-          <t>*maa://30667, maa://30666, *maa://26836, *maa://34428, maa://37607, *maa://30723, maa://39588, *maa://37850</t>
+          <t>*maa://30667, maa://30666, *maa://26836, maa://37607, *maa://34428, *maa://30723, maa://39588, *maa://37850</t>
         </is>
       </c>
     </row>
@@ -7096,7 +7096,7 @@
       </c>
       <c r="D285" s="4" t="inlineStr">
         <is>
-          <t>maa://25775, maa://25393</t>
+          <t>maa://25775, *maa://25393</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -488,7 +488,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="8" t="inlineStr">
         <is>
-          <t>更新日期：2024.10.01 08:00:38</t>
+          <t>更新日期：2024.10.02 13:18:00</t>
         </is>
       </c>
       <c r="E1" s="5" t="inlineStr">
@@ -615,12 +615,12 @@
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://41855</t>
         </is>
       </c>
       <c r="F5" s="7" t="n"/>
@@ -998,7 +998,7 @@
       </c>
       <c r="D16" s="4" t="inlineStr">
         <is>
-          <t>maa://20848</t>
+          <t>*maa://20848</t>
         </is>
       </c>
       <c r="F16" s="2" t="n"/>
@@ -3725,12 +3725,12 @@
       </c>
       <c r="C132" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D132" s="4" t="inlineStr">
         <is>
-          <t>**maa://20915</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -4940,7 +4940,7 @@
       </c>
       <c r="D187" s="4" t="inlineStr">
         <is>
-          <t>maa://25760, *maa://35854, *maa://20872</t>
+          <t>maa://25760, *maa://35854, **maa://20872</t>
         </is>
       </c>
     </row>
@@ -6497,12 +6497,12 @@
       </c>
       <c r="C258" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D258" s="4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://41362</t>
         </is>
       </c>
     </row>
@@ -7355,12 +7355,12 @@
       </c>
       <c r="C297" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D297" s="4" t="inlineStr">
         <is>
-          <t>**maa://39177</t>
+          <t>None</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -488,7 +488,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="8" t="inlineStr">
         <is>
-          <t>更新日期：2024.10.02 13:18:00</t>
+          <t>更新日期：2024.10.03 13:18:27</t>
         </is>
       </c>
       <c r="E1" s="5" t="inlineStr">
@@ -2273,12 +2273,12 @@
       </c>
       <c r="C66" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D66" s="4" t="inlineStr">
         <is>
-          <t>maa://28784, maa://29088, maa://20974, maa://31124, maa://28950, *maa://33612, maa://29087, *maa://20823</t>
+          <t>maa://28784, maa://29088, maa://20974, maa://31124, maa://28950, *maa://33612, maa://29087, *maa://20823, maa://41832</t>
         </is>
       </c>
     </row>
@@ -7954,7 +7954,7 @@
       </c>
       <c r="D324" s="4" t="inlineStr">
         <is>
-          <t>*maa://40957, *maa://41128, maa://41035</t>
+          <t>*maa://40957, *maa://41128, *maa://41035</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -488,7 +488,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="8" t="inlineStr">
         <is>
-          <t>更新日期：2024.10.03 13:18:27</t>
+          <t>更新日期：2024.10.06 13:17:02</t>
         </is>
       </c>
       <c r="E1" s="5" t="inlineStr">
@@ -2278,7 +2278,7 @@
       </c>
       <c r="D66" s="4" t="inlineStr">
         <is>
-          <t>maa://28784, maa://29088, maa://20974, maa://31124, maa://28950, *maa://33612, maa://29087, *maa://20823, maa://41832</t>
+          <t>maa://28784, maa://29088, maa://20974, maa://31124, maa://28950, *maa://33612, maa://29087, *maa://20823, *maa://41832</t>
         </is>
       </c>
     </row>
@@ -3136,7 +3136,7 @@
       </c>
       <c r="D105" s="4" t="inlineStr">
         <is>
-          <t>*maa://20979</t>
+          <t>**maa://20979</t>
         </is>
       </c>
     </row>
@@ -7448,7 +7448,7 @@
       </c>
       <c r="D301" s="4" t="inlineStr">
         <is>
-          <t>*maa://34205</t>
+          <t>maa://34205</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -488,7 +488,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="8" t="inlineStr">
         <is>
-          <t>更新日期：2024.10.06 13:17:02</t>
+          <t>更新日期：2024.10.07 09:07:26</t>
         </is>
       </c>
       <c r="E1" s="5" t="inlineStr">
@@ -3774,7 +3774,7 @@
       </c>
       <c r="D134" s="4" t="inlineStr">
         <is>
-          <t>*maa://30679</t>
+          <t>**maa://30679</t>
         </is>
       </c>
     </row>
@@ -3884,7 +3884,7 @@
       </c>
       <c r="D139" s="4" t="inlineStr">
         <is>
-          <t>maa://20971</t>
+          <t>*maa://20971</t>
         </is>
       </c>
     </row>
@@ -5265,12 +5265,12 @@
       </c>
       <c r="C202" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D202" s="4" t="inlineStr">
         <is>
-          <t>**maa://24556</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7514,7 +7514,7 @@
       </c>
       <c r="D304" s="4" t="inlineStr">
         <is>
-          <t>maa://30671, maa://30669, maa://37275, *maa://32410, maa://33671, maa://41605</t>
+          <t>maa://30671, maa://30669, maa://37275, *maa://32410, maa://41605, maa://33671</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -488,7 +488,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="8" t="inlineStr">
         <is>
-          <t>更新日期：2024.10.06 13:17:02</t>
+          <t>更新日期：2024.10.07 09:14:47</t>
         </is>
       </c>
       <c r="E1" s="5" t="inlineStr">
@@ -3774,7 +3774,7 @@
       </c>
       <c r="D134" s="4" t="inlineStr">
         <is>
-          <t>*maa://30679</t>
+          <t>**maa://30679</t>
         </is>
       </c>
     </row>
@@ -3884,7 +3884,7 @@
       </c>
       <c r="D139" s="4" t="inlineStr">
         <is>
-          <t>maa://20971</t>
+          <t>*maa://20971</t>
         </is>
       </c>
     </row>
@@ -5265,12 +5265,12 @@
       </c>
       <c r="C202" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D202" s="4" t="inlineStr">
         <is>
-          <t>**maa://24556</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7514,7 +7514,7 @@
       </c>
       <c r="D304" s="4" t="inlineStr">
         <is>
-          <t>maa://30671, maa://30669, maa://37275, *maa://32410, maa://33671, maa://41605</t>
+          <t>maa://30671, maa://30669, maa://37275, *maa://32410, maa://41605, maa://33671</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -442,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB330"/>
+  <dimension ref="A1:AB337"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
@@ -488,7 +488,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="8" t="inlineStr">
         <is>
-          <t>更新日期：2024.10.06 13:17:02</t>
+          <t>更新日期：2024.10.09 13:19:18</t>
         </is>
       </c>
       <c r="E1" s="5" t="inlineStr">
@@ -959,12 +959,12 @@
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D15" s="4" t="inlineStr">
         <is>
-          <t>maa://20919, **maa://24873</t>
+          <t>maa://20919</t>
         </is>
       </c>
       <c r="F15" s="2" t="n"/>
@@ -1933,88 +1933,88 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>狮蝎</t>
+          <t>空</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>1-9</t>
+          <t>CB-7</t>
         </is>
       </c>
       <c r="C51" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D51" s="4" t="inlineStr">
         <is>
-          <t>maa://20953, maa://31173</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>食铁兽</t>
+          <t>狮蝎</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>WR-7</t>
+          <t>1-9</t>
         </is>
       </c>
       <c r="C52" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D52" s="4" t="inlineStr">
         <is>
-          <t>maa://30502</t>
+          <t>maa://20953, maa://31173</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>能天使</t>
+          <t>食铁兽</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>4-10</t>
+          <t>WR-7</t>
         </is>
       </c>
       <c r="C53" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D53" s="4" t="inlineStr">
         <is>
-          <t>maa://20932, maa://40838</t>
+          <t>maa://30502</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>推进之王</t>
+          <t>能天使</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>1-7</t>
+          <t>4-10</t>
         </is>
       </c>
       <c r="C54" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D54" s="4" t="inlineStr">
         <is>
-          <t>*maa://20965</t>
+          <t>maa://20932, maa://40838</t>
         </is>
       </c>
     </row>
@@ -2026,29 +2026,29 @@
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>11-2</t>
+          <t>1-7</t>
         </is>
       </c>
       <c r="C55" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D55" s="4" t="inlineStr">
         <is>
-          <t>maa://28900, maa://30126</t>
+          <t>*maa://20965</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>伊芙利特</t>
+          <t>推进之王</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>1-5</t>
+          <t>11-2</t>
         </is>
       </c>
       <c r="C56" s="1" t="inlineStr">
@@ -2058,7 +2058,7 @@
       </c>
       <c r="D56" s="4" t="inlineStr">
         <is>
-          <t>maa://27970, maa://41118</t>
+          <t>maa://28900, maa://30126</t>
         </is>
       </c>
     </row>
@@ -2070,61 +2070,61 @@
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>CW-3</t>
+          <t>1-5</t>
         </is>
       </c>
       <c r="C57" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D57" s="4" t="inlineStr">
         <is>
-          <t>maa://38298</t>
+          <t>maa://27970, maa://41118</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>艾雅法拉</t>
+          <t>伊芙利特</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>OF-5</t>
+          <t>CW-3</t>
         </is>
       </c>
       <c r="C58" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D58" s="4" t="inlineStr">
         <is>
-          <t>maa://20841, maa://24093, maa://31559, maa://25777, maa://20631</t>
+          <t>maa://38298</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>安洁莉娜</t>
+          <t>艾雅法拉</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>2-7</t>
+          <t>OF-5</t>
         </is>
       </c>
       <c r="C59" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D59" s="4" t="inlineStr">
         <is>
-          <t>maa://20844</t>
+          <t>maa://20841, maa://24093, maa://31559, maa://25777, maa://20631</t>
         </is>
       </c>
     </row>
@@ -2136,39 +2136,39 @@
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>4-4</t>
+          <t>2-7</t>
         </is>
       </c>
       <c r="C60" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D60" s="4" t="inlineStr">
         <is>
-          <t>*maa://20845, **maa://38727</t>
+          <t>maa://20844</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>闪灵</t>
+          <t>安洁莉娜</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>NL-5</t>
+          <t>4-4</t>
         </is>
       </c>
       <c r="C61" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D61" s="4" t="inlineStr">
         <is>
-          <t>maa://28187, maa://33504, maa://39520</t>
+          <t>*maa://20845, **maa://38727</t>
         </is>
       </c>
     </row>
@@ -2180,39 +2180,39 @@
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>NL-5</t>
         </is>
       </c>
       <c r="C62" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D62" s="4" t="inlineStr">
         <is>
-          <t>maa://28567, maa://30525, *maa://28188, maa://38735, maa://30524</t>
+          <t>maa://28187, maa://33504, maa://39520</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>夜莺</t>
+          <t>闪灵</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="C63" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D63" s="4" t="inlineStr">
         <is>
-          <t>maa://20993, maa://20829</t>
+          <t>maa://28567, maa://30525, *maa://28188, maa://38735, maa://30524</t>
         </is>
       </c>
     </row>
@@ -2224,39 +2224,39 @@
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>TW-3</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="C64" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D64" s="4" t="inlineStr">
         <is>
-          <t>maa://39693</t>
+          <t>maa://20993, maa://20829</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>星熊</t>
+          <t>夜莺</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>6-4</t>
+          <t>TW-3</t>
         </is>
       </c>
       <c r="C65" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D65" s="4" t="inlineStr">
         <is>
-          <t>maa://20976, maa://20815</t>
+          <t>maa://39693</t>
         </is>
       </c>
     </row>
@@ -2268,39 +2268,39 @@
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>6-4</t>
         </is>
       </c>
       <c r="C66" s="1" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D66" s="4" t="inlineStr">
         <is>
-          <t>maa://28784, maa://29088, maa://20974, maa://31124, maa://28950, *maa://33612, maa://29087, *maa://20823, *maa://41832</t>
+          <t>maa://20976, maa://20815</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>塞雷娅</t>
+          <t>星熊</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>MB-3</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C67" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D67" s="4" t="inlineStr">
         <is>
-          <t>maa://20944, maa://35393</t>
+          <t>maa://28784, maa://29088, maa://20974, maa://31124, maa://28950, *maa://33612, maa://29087, *maa://20823, *maa://41832</t>
         </is>
       </c>
     </row>
@@ -2312,73 +2312,73 @@
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>MB-3</t>
         </is>
       </c>
       <c r="C68" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D68" s="4" t="inlineStr">
         <is>
-          <t>maa://20943</t>
+          <t>maa://20944, maa://35393</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>银灰</t>
+          <t>塞雷娅</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>BI-7</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C69" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D69" s="4" t="inlineStr">
         <is>
-          <t>maa://36643, maa://36864, maa://39140</t>
+          <t>maa://20943</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>暴行</t>
+          <t>银灰</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>BI-7</t>
         </is>
       </c>
       <c r="C70" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D70" s="4" t="inlineStr">
         <is>
-          <t>maa://39139</t>
+          <t>maa://36643, maa://36864, maa://39140</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>猎蜂</t>
+          <t>暴行</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>7-4</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="C71" s="1" t="inlineStr">
@@ -2388,19 +2388,19 @@
       </c>
       <c r="D71" s="4" t="inlineStr">
         <is>
-          <t>maa://39142</t>
+          <t>maa://39139</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>夜魔</t>
+          <t>猎蜂</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>S4-1</t>
+          <t>7-4</t>
         </is>
       </c>
       <c r="C72" s="1" t="inlineStr">
@@ -2410,19 +2410,19 @@
       </c>
       <c r="D72" s="4" t="inlineStr">
         <is>
-          <t>maa://20989</t>
+          <t>maa://39142</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>格拉尼</t>
+          <t>夜魔</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>GT-6</t>
+          <t>S4-1</t>
         </is>
       </c>
       <c r="C73" s="1" t="inlineStr">
@@ -2432,19 +2432,19 @@
       </c>
       <c r="D73" s="4" t="inlineStr">
         <is>
-          <t>maa://20873</t>
+          <t>maa://20989</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>斯卡蒂</t>
+          <t>格拉尼</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>GT-4</t>
+          <t>GT-6</t>
         </is>
       </c>
       <c r="C74" s="1" t="inlineStr">
@@ -2454,7 +2454,7 @@
       </c>
       <c r="D74" s="4" t="inlineStr">
         <is>
-          <t>maa://20958</t>
+          <t>maa://20873</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>GT-6</t>
+          <t>GT-4</t>
         </is>
       </c>
       <c r="C75" s="1" t="inlineStr">
@@ -2476,19 +2476,19 @@
       </c>
       <c r="D75" s="4" t="inlineStr">
         <is>
-          <t>maa://20957</t>
+          <t>maa://20958</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>格雷伊</t>
+          <t>斯卡蒂</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>GT-6</t>
         </is>
       </c>
       <c r="C76" s="1" t="inlineStr">
@@ -2498,19 +2498,19 @@
       </c>
       <c r="D76" s="4" t="inlineStr">
         <is>
-          <t>maa://20875</t>
+          <t>maa://20957</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>诗怀雅</t>
+          <t>格雷伊</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>S2-3</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="C77" s="1" t="inlineStr">
@@ -2520,29 +2520,29 @@
       </c>
       <c r="D77" s="4" t="inlineStr">
         <is>
-          <t>maa://20952</t>
+          <t>maa://20875</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>陈</t>
+          <t>诗怀雅</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>S2-3</t>
         </is>
       </c>
       <c r="C78" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D78" s="4" t="inlineStr">
         <is>
-          <t>maa://30525, maa://20859, *maa://28188, maa://30524</t>
+          <t>maa://20952</t>
         </is>
       </c>
     </row>
@@ -2554,73 +2554,73 @@
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>5-9</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="C79" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D79" s="4" t="inlineStr">
         <is>
-          <t>maa://28072</t>
+          <t>maa://30525, maa://20859, *maa://28188, maa://30524</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>苏苏洛</t>
+          <t>陈</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="C80" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D80" s="4" t="inlineStr">
         <is>
-          <t>maa://27794, maa://20960</t>
+          <t>maa://28072</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>锡兰</t>
+          <t>苏苏洛</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>OF-3</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="C81" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D81" s="4" t="inlineStr">
         <is>
-          <t>maa://20972</t>
+          <t>maa://27794, maa://20960</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>格劳克斯</t>
+          <t>锡兰</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>OF-3</t>
         </is>
       </c>
       <c r="C82" s="1" t="inlineStr">
@@ -2630,19 +2630,19 @@
       </c>
       <c r="D82" s="4" t="inlineStr">
         <is>
-          <t>maa://20874</t>
+          <t>maa://20972</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>黑</t>
+          <t>格劳克斯</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>OF-7</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="C83" s="1" t="inlineStr">
@@ -2652,7 +2652,7 @@
       </c>
       <c r="D83" s="4" t="inlineStr">
         <is>
-          <t>maa://20885</t>
+          <t>maa://20874</t>
         </is>
       </c>
     </row>
@@ -2664,29 +2664,29 @@
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>2-1</t>
+          <t>OF-7</t>
         </is>
       </c>
       <c r="C84" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D84" s="4" t="inlineStr">
         <is>
-          <t>maa://20886, maa://25136</t>
+          <t>maa://20885</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>桃金娘</t>
+          <t>黑</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>6-3</t>
+          <t>2-1</t>
         </is>
       </c>
       <c r="C85" s="1" t="inlineStr">
@@ -2696,19 +2696,19 @@
       </c>
       <c r="D85" s="4" t="inlineStr">
         <is>
-          <t>maa://24472, *maa://35841</t>
+          <t>maa://20886, maa://25136</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>赫拉格</t>
+          <t>桃金娘</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>6-3</t>
         </is>
       </c>
       <c r="C86" s="1" t="inlineStr">
@@ -2718,7 +2718,7 @@
       </c>
       <c r="D86" s="4" t="inlineStr">
         <is>
-          <t>*maa://28190, maa://20880</t>
+          <t>maa://24472, *maa://35841</t>
         </is>
       </c>
     </row>
@@ -2730,29 +2730,29 @@
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>7-10</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C87" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D87" s="4" t="inlineStr">
         <is>
-          <t>maa://24609</t>
+          <t>*maa://28190, maa://20880</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>红云</t>
+          <t>赫拉格</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>7-10</t>
         </is>
       </c>
       <c r="C88" s="1" t="inlineStr">
@@ -2762,19 +2762,19 @@
       </c>
       <c r="D88" s="4" t="inlineStr">
         <is>
-          <t>maa://20890</t>
+          <t>maa://24609</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>炎客</t>
+          <t>红云</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>S4-3</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C89" s="1" t="inlineStr">
@@ -2784,19 +2784,19 @@
       </c>
       <c r="D89" s="4" t="inlineStr">
         <is>
-          <t>maa://20984</t>
+          <t>maa://20890</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>送葬人</t>
+          <t>炎客</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>IW-8</t>
+          <t>S4-3</t>
         </is>
       </c>
       <c r="C90" s="1" t="inlineStr">
@@ -2806,19 +2806,19 @@
       </c>
       <c r="D90" s="4" t="inlineStr">
         <is>
-          <t>maa://40157</t>
+          <t>maa://20984</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>麦哲伦</t>
+          <t>送葬人</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>IW-8</t>
         </is>
       </c>
       <c r="C91" s="1" t="inlineStr">
@@ -2828,7 +2828,7 @@
       </c>
       <c r="D91" s="4" t="inlineStr">
         <is>
-          <t>maa://20927</t>
+          <t>maa://40157</t>
         </is>
       </c>
     </row>
@@ -2840,7 +2840,7 @@
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>2-2</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C92" s="1" t="inlineStr">
@@ -2850,19 +2850,19 @@
       </c>
       <c r="D92" s="4" t="inlineStr">
         <is>
-          <t>*maa://20926</t>
+          <t>maa://20927</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>伊桑</t>
+          <t>麦哲伦</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>TW-3</t>
+          <t>2-2</t>
         </is>
       </c>
       <c r="C93" s="1" t="inlineStr">
@@ -2872,19 +2872,19 @@
       </c>
       <c r="D93" s="4" t="inlineStr">
         <is>
-          <t>maa://20991</t>
+          <t>*maa://20926</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>微风</t>
+          <t>伊桑</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>4-1</t>
+          <t>TW-3</t>
         </is>
       </c>
       <c r="C94" s="1" t="inlineStr">
@@ -2894,19 +2894,19 @@
       </c>
       <c r="D94" s="4" t="inlineStr">
         <is>
-          <t>maa://20967</t>
+          <t>maa://20991</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>梅</t>
+          <t>微风</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>4-4</t>
+          <t>4-1</t>
         </is>
       </c>
       <c r="C95" s="1" t="inlineStr">
@@ -2916,41 +2916,41 @@
       </c>
       <c r="D95" s="4" t="inlineStr">
         <is>
-          <t>maa://20929</t>
+          <t>maa://20967</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>拜松</t>
+          <t>梅</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>4-4</t>
         </is>
       </c>
       <c r="C96" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D96" s="4" t="inlineStr">
         <is>
-          <t>maa://31560, maa://20852</t>
+          <t>maa://20929</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>槐琥</t>
+          <t>拜松</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C97" s="1" t="inlineStr">
@@ -2960,19 +2960,19 @@
       </c>
       <c r="D97" s="4" t="inlineStr">
         <is>
-          <t>maa://27794, *maa://20893</t>
+          <t>maa://31560, maa://20852</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>莫斯提马</t>
+          <t>槐琥</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>DM-3</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="C98" s="1" t="inlineStr">
@@ -2982,7 +2982,7 @@
       </c>
       <c r="D98" s="4" t="inlineStr">
         <is>
-          <t>*maa://39240, maa://40517</t>
+          <t>maa://27794, *maa://20893</t>
         </is>
       </c>
     </row>
@@ -2994,7 +2994,7 @@
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>CB-5</t>
+          <t>DM-3</t>
         </is>
       </c>
       <c r="C99" s="1" t="inlineStr">
@@ -3004,41 +3004,41 @@
       </c>
       <c r="D99" s="4" t="inlineStr">
         <is>
-          <t>*maa://29094, maa://28904</t>
+          <t>*maa://39240, maa://40517</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>苇草</t>
+          <t>莫斯提马</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>9-5</t>
+          <t>CB-5</t>
         </is>
       </c>
       <c r="C100" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D100" s="4" t="inlineStr">
         <is>
-          <t>maa://20966</t>
+          <t>*maa://29094, maa://28904</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>布洛卡</t>
+          <t>苇草</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>7-8</t>
+          <t>9-5</t>
         </is>
       </c>
       <c r="C101" s="1" t="inlineStr">
@@ -3048,129 +3048,129 @@
       </c>
       <c r="D101" s="4" t="inlineStr">
         <is>
-          <t>maa://39143</t>
+          <t>maa://20966</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>安比尔</t>
+          <t>布洛卡</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>7-8</t>
         </is>
       </c>
       <c r="C102" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D102" s="4" t="inlineStr">
         <is>
-          <t>maa://27794, maa://20843, **maa://24483</t>
+          <t>maa://39143</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>灰喉</t>
+          <t>安比尔</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>2-10</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="C103" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D103" s="4" t="inlineStr">
         <is>
-          <t>maa://20894</t>
+          <t>maa://27794, maa://20843, **maa://24483</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>煌</t>
+          <t>灰喉</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>11-13</t>
+          <t>2-10</t>
         </is>
       </c>
       <c r="C104" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D104" s="4" t="inlineStr">
         <is>
-          <t>maa://25018, maa://25776, maa://28361, maa://25772, *maa://25161, maa://32653</t>
+          <t>maa://20894</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>雪雉</t>
+          <t>煌</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>11-13</t>
         </is>
       </c>
       <c r="C105" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D105" s="4" t="inlineStr">
         <is>
-          <t>**maa://20979</t>
+          <t>maa://25018, maa://25776, maa://28361, maa://25772, *maa://25161, maa://32653</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>吽</t>
+          <t>雪雉</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>S2-4</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C106" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D106" s="4" t="inlineStr">
         <is>
-          <t>maa://20887</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>阿</t>
+          <t>吽</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t>2-8</t>
+          <t>S2-4</t>
         </is>
       </c>
       <c r="C107" s="1" t="inlineStr">
@@ -3180,29 +3180,29 @@
       </c>
       <c r="D107" s="4" t="inlineStr">
         <is>
-          <t>*maa://28554</t>
+          <t>maa://20887</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>年</t>
+          <t>阿</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>WR-9</t>
+          <t>2-8</t>
         </is>
       </c>
       <c r="C108" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D108" s="4" t="inlineStr">
         <is>
-          <t>*maa://20933, maa://20822</t>
+          <t>*maa://28554</t>
         </is>
       </c>
     </row>
@@ -3214,29 +3214,29 @@
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>S6-2</t>
+          <t>WR-9</t>
         </is>
       </c>
       <c r="C109" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D109" s="4" t="inlineStr">
         <is>
-          <t>maa://29037</t>
+          <t>*maa://20933, maa://20822</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>惊蛰</t>
+          <t>年</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>S3-6</t>
+          <t>S6-2</t>
         </is>
       </c>
       <c r="C110" s="1" t="inlineStr">
@@ -3246,29 +3246,29 @@
       </c>
       <c r="D110" s="4" t="inlineStr">
         <is>
-          <t>maa://20904</t>
+          <t>maa://29037</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>刻俄柏</t>
+          <t>惊蛰</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>RI-6</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C111" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D111" s="4" t="inlineStr">
         <is>
-          <t>maa://20908, *maa://23346, maa://35723, maa://38822</t>
+          <t>maa://20904</t>
         </is>
       </c>
     </row>
@@ -3280,29 +3280,29 @@
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>11-7</t>
+          <t>RI-6</t>
         </is>
       </c>
       <c r="C112" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D112" s="4" t="inlineStr">
         <is>
-          <t>maa://29659, maa://29031</t>
+          <t>maa://20908, *maa://23346, maa://35723, maa://38822</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>清流</t>
+          <t>刻俄柏</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>11-7</t>
         </is>
       </c>
       <c r="C113" s="1" t="inlineStr">
@@ -3312,85 +3312,85 @@
       </c>
       <c r="D113" s="4" t="inlineStr">
         <is>
-          <t>maa://31560, maa://20940</t>
+          <t>maa://29659, maa://29031</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>宴</t>
+          <t>清流</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>1-12</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C114" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D114" s="4" t="inlineStr">
         <is>
-          <t>maa://20986</t>
+          <t>maa://31560, maa://20940</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>柏喙</t>
+          <t>宴</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>1-12</t>
         </is>
       </c>
       <c r="C115" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D115" s="4" t="inlineStr">
         <is>
-          <t>maa://31560, maa://20851</t>
+          <t>maa://20986</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>慑砂</t>
+          <t>柏喙</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>S3-6</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C116" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D116" s="4" t="inlineStr">
         <is>
-          <t>maa://20949</t>
+          <t>maa://31560, maa://20851</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>风笛</t>
+          <t>慑砂</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C117" s="1" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="D117" s="4" t="inlineStr">
         <is>
-          <t>maa://20869</t>
+          <t>maa://20949</t>
         </is>
       </c>
     </row>
@@ -3412,7 +3412,7 @@
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>9-5</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="C118" s="1" t="inlineStr">
@@ -3422,19 +3422,19 @@
       </c>
       <c r="D118" s="4" t="inlineStr">
         <is>
-          <t>maa://29650</t>
+          <t>maa://20869</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>断罪者</t>
+          <t>风笛</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>9-5</t>
         </is>
       </c>
       <c r="C119" s="1" t="inlineStr">
@@ -3444,19 +3444,19 @@
       </c>
       <c r="D119" s="4" t="inlineStr">
         <is>
-          <t>maa://20868</t>
+          <t>maa://29650</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>刻刀</t>
+          <t>断罪者</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>2-7</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="C120" s="1" t="inlineStr">
@@ -3466,19 +3466,19 @@
       </c>
       <c r="D120" s="4" t="inlineStr">
         <is>
-          <t>*maa://20909</t>
+          <t>maa://20868</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>巫恋</t>
+          <t>刻刀</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
         <is>
-          <t>6-5</t>
+          <t>2-7</t>
         </is>
       </c>
       <c r="C121" s="1" t="inlineStr">
@@ -3488,29 +3488,29 @@
       </c>
       <c r="D121" s="4" t="inlineStr">
         <is>
-          <t>maa://30501</t>
+          <t>*maa://20909</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>傀影</t>
+          <t>巫恋</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>6-5</t>
         </is>
       </c>
       <c r="C122" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D122" s="4" t="inlineStr">
         <is>
-          <t>maa://20914, maa://20829, maa://31937</t>
+          <t>maa://30501</t>
         </is>
       </c>
     </row>
@@ -3522,29 +3522,29 @@
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>DM-5</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="C123" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D123" s="4" t="inlineStr">
         <is>
-          <t>maa://37484, maa://24611</t>
+          <t>maa://20914, maa://20829, maa://31937</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>极境</t>
+          <t>傀影</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>S3-6</t>
+          <t>DM-5</t>
         </is>
       </c>
       <c r="C124" s="1" t="inlineStr">
@@ -3554,29 +3554,29 @@
       </c>
       <c r="D124" s="4" t="inlineStr">
         <is>
-          <t>maa://24491, maa://24493</t>
+          <t>maa://37484, maa://24611</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>温蒂</t>
+          <t>极境</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
         <is>
-          <t>BI-5</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C125" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D125" s="4" t="inlineStr">
         <is>
-          <t>maa://21422</t>
+          <t>maa://24491, maa://24493</t>
         </is>
       </c>
     </row>
@@ -3588,7 +3588,7 @@
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>IC-6</t>
+          <t>BI-5</t>
         </is>
       </c>
       <c r="C126" s="1" t="inlineStr">
@@ -3598,29 +3598,29 @@
       </c>
       <c r="D126" s="4" t="inlineStr">
         <is>
-          <t>maa://30719</t>
+          <t>maa://21422</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>温蒂</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t>DM-3</t>
+          <t>IC-6</t>
         </is>
       </c>
       <c r="C127" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D127" s="4" t="inlineStr">
         <is>
-          <t>maa://23019, maa://20837, maa://37113, maa://40517, *maa://37666, maa://41686</t>
+          <t>maa://30719</t>
         </is>
       </c>
     </row>
@@ -3632,51 +3632,51 @@
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>DM-7</t>
+          <t>DM-3</t>
         </is>
       </c>
       <c r="C128" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D128" s="4" t="inlineStr">
         <is>
-          <t>maa://23020, maa://29023, maa://34319, *maa://39515</t>
+          <t>maa://23019, maa://20837, maa://37113, maa://40517, *maa://37666, maa://41686</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>月禾</t>
+          <t>W</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t>S3-6</t>
+          <t>DM-7</t>
         </is>
       </c>
       <c r="C129" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D129" s="4" t="inlineStr">
         <is>
-          <t>maa://39146</t>
+          <t>maa://23020, maa://29023, maa://34319, *maa://39515</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>波登可</t>
+          <t>月禾</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C130" s="1" t="inlineStr">
@@ -3686,19 +3686,19 @@
       </c>
       <c r="D130" s="4" t="inlineStr">
         <is>
-          <t>maa://20856</t>
+          <t>maa://39146</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>苦艾</t>
+          <t>波登可</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C131" s="1" t="inlineStr">
@@ -3708,41 +3708,41 @@
       </c>
       <c r="D131" s="4" t="inlineStr">
         <is>
-          <t>maa://20913</t>
+          <t>maa://20856</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>莱恩哈特</t>
+          <t>苦艾</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C132" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D132" s="4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://20913</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>早露</t>
+          <t>莱恩哈特</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>7-9</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="C133" s="1" t="inlineStr">
@@ -3752,19 +3752,19 @@
       </c>
       <c r="D133" s="4" t="inlineStr">
         <is>
-          <t>*maa://29025</t>
+          <t>maa://41856</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>卡达</t>
+          <t>早露</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>11-7</t>
+          <t>7-9</t>
         </is>
       </c>
       <c r="C134" s="1" t="inlineStr">
@@ -3774,19 +3774,19 @@
       </c>
       <c r="D134" s="4" t="inlineStr">
         <is>
-          <t>*maa://30679</t>
+          <t>*maa://29025</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>亚叶</t>
+          <t>卡达</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>5-2</t>
+          <t>11-7</t>
         </is>
       </c>
       <c r="C135" s="1" t="inlineStr">
@@ -3796,19 +3796,19 @@
       </c>
       <c r="D135" s="4" t="inlineStr">
         <is>
-          <t>maa://20981</t>
+          <t>**maa://30679</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>断崖</t>
+          <t>亚叶</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>5-2</t>
         </is>
       </c>
       <c r="C136" s="1" t="inlineStr">
@@ -3818,29 +3818,29 @@
       </c>
       <c r="D136" s="4" t="inlineStr">
         <is>
-          <t>maa://37689</t>
+          <t>maa://20981</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>铃兰</t>
+          <t>断崖</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>TW-7</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="C137" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D137" s="4" t="inlineStr">
         <is>
-          <t>maa://28484, *maa://31185, maa://30306</t>
+          <t>maa://37689</t>
         </is>
       </c>
     </row>
@@ -3852,51 +3852,51 @@
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>DM-EX-1</t>
+          <t>TW-7</t>
         </is>
       </c>
       <c r="C138" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D138" s="4" t="inlineStr">
         <is>
-          <t>maa://30670, maa://31470</t>
+          <t>maa://28484, *maa://31185, maa://30306</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>稀音</t>
+          <t>铃兰</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>DM-EX-1</t>
         </is>
       </c>
       <c r="C139" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D139" s="4" t="inlineStr">
         <is>
-          <t>maa://20971</t>
+          <t>maa://30670, maa://31470</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>蜜蜡</t>
+          <t>稀音</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>DH-6</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C140" s="1" t="inlineStr">
@@ -3906,19 +3906,19 @@
       </c>
       <c r="D140" s="4" t="inlineStr">
         <is>
-          <t>maa://39147</t>
+          <t>*maa://20971</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>贾维</t>
+          <t>蜜蜡</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>1-1</t>
+          <t>DH-6</t>
         </is>
       </c>
       <c r="C141" s="1" t="inlineStr">
@@ -3928,19 +3928,19 @@
       </c>
       <c r="D141" s="4" t="inlineStr">
         <is>
-          <t>maa://20898</t>
+          <t>maa://39147</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>孑</t>
+          <t>贾维</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>S3-2</t>
+          <t>1-1</t>
         </is>
       </c>
       <c r="C142" s="1" t="inlineStr">
@@ -3950,19 +3950,19 @@
       </c>
       <c r="D142" s="4" t="inlineStr">
         <is>
-          <t>maa://29056</t>
+          <t>maa://20898</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>安哲拉</t>
+          <t>孑</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t>3-2</t>
+          <t>S3-2</t>
         </is>
       </c>
       <c r="C143" s="1" t="inlineStr">
@@ -3972,63 +3972,63 @@
       </c>
       <c r="D143" s="4" t="inlineStr">
         <is>
-          <t>maa://20846</t>
+          <t>maa://29056</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>棘刺</t>
+          <t>安哲拉</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>SV-6</t>
+          <t>3-2</t>
         </is>
       </c>
       <c r="C144" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D144" s="4" t="inlineStr">
         <is>
-          <t>maa://36641, maa://36865, maa://37300</t>
+          <t>maa://20846</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>酸糖</t>
+          <t>棘刺</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
         <is>
-          <t>2-8</t>
+          <t>SV-6</t>
         </is>
       </c>
       <c r="C145" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D145" s="4" t="inlineStr">
         <is>
-          <t>maa://20961</t>
+          <t>maa://36641, maa://36865, maa://37300</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>特米米</t>
+          <t>酸糖</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
         <is>
-          <t>RI-2</t>
+          <t>2-8</t>
         </is>
       </c>
       <c r="C146" s="1" t="inlineStr">
@@ -4038,19 +4038,19 @@
       </c>
       <c r="D146" s="4" t="inlineStr">
         <is>
-          <t>maa://20963</t>
+          <t>maa://20961</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>燧石</t>
+          <t>特米米</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
         <is>
-          <t>RI-9</t>
+          <t>RI-2</t>
         </is>
       </c>
       <c r="C147" s="1" t="inlineStr">
@@ -4060,29 +4060,29 @@
       </c>
       <c r="D147" s="4" t="inlineStr">
         <is>
-          <t>maa://39148</t>
+          <t>maa://20963</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>森蚺</t>
+          <t>燧石</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>RI-EX-4</t>
+          <t>RI-9</t>
         </is>
       </c>
       <c r="C148" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D148" s="4" t="inlineStr">
         <is>
-          <t>maa://20946, maa://20833</t>
+          <t>maa://39148</t>
         </is>
       </c>
     </row>
@@ -4094,29 +4094,29 @@
       </c>
       <c r="B149" s="2" t="inlineStr">
         <is>
-          <t>RI-7</t>
+          <t>RI-EX-4</t>
         </is>
       </c>
       <c r="C149" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D149" s="4" t="inlineStr">
         <is>
-          <t>maa://20945</t>
+          <t>maa://20946, maa://20833</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>芳汀</t>
+          <t>森蚺</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>2-8</t>
+          <t>RI-7</t>
         </is>
       </c>
       <c r="C150" s="1" t="inlineStr">
@@ -4126,19 +4126,19 @@
       </c>
       <c r="D150" s="4" t="inlineStr">
         <is>
-          <t>maa://37694</t>
+          <t>maa://20945</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>薄绿</t>
+          <t>芳汀</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
         <is>
-          <t>BI-2</t>
+          <t>2-8</t>
         </is>
       </c>
       <c r="C151" s="1" t="inlineStr">
@@ -4148,19 +4148,19 @@
       </c>
       <c r="D151" s="4" t="inlineStr">
         <is>
-          <t>**maa://39149</t>
+          <t>maa://37694</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>四月</t>
+          <t>薄绿</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
         <is>
-          <t>5-3</t>
+          <t>BI-2</t>
         </is>
       </c>
       <c r="C152" s="1" t="inlineStr">
@@ -4170,19 +4170,19 @@
       </c>
       <c r="D152" s="4" t="inlineStr">
         <is>
-          <t>maa://20959</t>
+          <t>**maa://39149</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>泡泡</t>
+          <t>四月</t>
         </is>
       </c>
       <c r="B153" s="2" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>5-3</t>
         </is>
       </c>
       <c r="C153" s="1" t="inlineStr">
@@ -4192,19 +4192,19 @@
       </c>
       <c r="D153" s="4" t="inlineStr">
         <is>
-          <t>maa://20936</t>
+          <t>maa://20959</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>鞭刃</t>
+          <t>泡泡</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
         <is>
-          <t>S3-6</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C154" s="1" t="inlineStr">
@@ -4214,19 +4214,19 @@
       </c>
       <c r="D154" s="4" t="inlineStr">
         <is>
-          <t>maa://20855</t>
+          <t>maa://20936</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="inlineStr">
         <is>
-          <t>奥斯塔</t>
+          <t>鞭刃</t>
         </is>
       </c>
       <c r="B155" s="2" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C155" s="1" t="inlineStr">
@@ -4236,29 +4236,29 @@
       </c>
       <c r="D155" s="4" t="inlineStr">
         <is>
-          <t>maa://40158</t>
+          <t>maa://20855</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>瑕光</t>
+          <t>奥斯塔</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
         <is>
-          <t>MN-4</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="C156" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D156" s="4" t="inlineStr">
         <is>
-          <t>maa://29054, maa://32845</t>
+          <t>maa://40158</t>
         </is>
       </c>
     </row>
@@ -4270,29 +4270,29 @@
       </c>
       <c r="B157" s="2" t="inlineStr">
         <is>
-          <t>MN-2</t>
+          <t>MN-4</t>
         </is>
       </c>
       <c r="C157" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D157" s="4" t="inlineStr">
         <is>
-          <t>maa://20973</t>
+          <t>maa://29054, maa://32845</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="inlineStr">
         <is>
-          <t>杰克</t>
+          <t>瑕光</t>
         </is>
       </c>
       <c r="B158" s="2" t="inlineStr">
         <is>
-          <t>CB-4</t>
+          <t>MN-2</t>
         </is>
       </c>
       <c r="C158" s="1" t="inlineStr">
@@ -4302,85 +4302,85 @@
       </c>
       <c r="D158" s="4" t="inlineStr">
         <is>
-          <t>maa://39150</t>
+          <t>maa://20973</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="inlineStr">
         <is>
-          <t>絮雨</t>
+          <t>杰克</t>
         </is>
       </c>
       <c r="B159" s="2" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>CB-4</t>
         </is>
       </c>
       <c r="C159" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D159" s="4" t="inlineStr">
         <is>
-          <t>maa://20975, maa://30806</t>
+          <t>maa://39150</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>泥岩</t>
+          <t>絮雨</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
-          <t>11-7</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C160" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D160" s="4" t="inlineStr">
         <is>
-          <t>maa://29627, maa://29633, maa://29659, maa://29861</t>
+          <t>maa://20975, maa://30806</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>迷迭香</t>
+          <t>泥岩</t>
         </is>
       </c>
       <c r="B161" s="2" t="inlineStr">
         <is>
-          <t>4-1</t>
+          <t>11-7</t>
         </is>
       </c>
       <c r="C161" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D161" s="4" t="inlineStr">
         <is>
-          <t>maa://29059</t>
+          <t>maa://29627, maa://29633, maa://29659, maa://29861</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>松果</t>
+          <t>迷迭香</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>4-1</t>
         </is>
       </c>
       <c r="C162" s="1" t="inlineStr">
@@ -4390,19 +4390,19 @@
       </c>
       <c r="D162" s="4" t="inlineStr">
         <is>
-          <t>maa://40159</t>
+          <t>maa://29059</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="inlineStr">
         <is>
-          <t>罗宾</t>
+          <t>松果</t>
         </is>
       </c>
       <c r="B163" s="2" t="inlineStr">
         <is>
-          <t>BI-EX-2</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="C163" s="1" t="inlineStr">
@@ -4412,19 +4412,19 @@
       </c>
       <c r="D163" s="4" t="inlineStr">
         <is>
-          <t>maa://39152</t>
+          <t>maa://40159</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>卡夫卡</t>
+          <t>罗宾</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>2-7</t>
+          <t>BI-EX-2</t>
         </is>
       </c>
       <c r="C164" s="1" t="inlineStr">
@@ -4434,19 +4434,19 @@
       </c>
       <c r="D164" s="4" t="inlineStr">
         <is>
-          <t>*maa://20905</t>
+          <t>maa://39152</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t>山</t>
+          <t>卡夫卡</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
         <is>
-          <t>MB-EX-3</t>
+          <t>2-7</t>
         </is>
       </c>
       <c r="C165" s="1" t="inlineStr">
@@ -4456,19 +4456,19 @@
       </c>
       <c r="D165" s="4" t="inlineStr">
         <is>
-          <t>maa://32418</t>
+          <t>*maa://20905</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>豆苗</t>
+          <t>山</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>S3-7</t>
+          <t>MB-EX-3</t>
         </is>
       </c>
       <c r="C166" s="1" t="inlineStr">
@@ -4478,19 +4478,19 @@
       </c>
       <c r="D166" s="4" t="inlineStr">
         <is>
-          <t>*maa://37690</t>
+          <t>maa://32418</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="inlineStr">
         <is>
-          <t>爱丽丝</t>
+          <t>豆苗</t>
         </is>
       </c>
       <c r="B167" s="2" t="inlineStr">
         <is>
-          <t>2-2</t>
+          <t>S3-7</t>
         </is>
       </c>
       <c r="C167" s="1" t="inlineStr">
@@ -4500,19 +4500,19 @@
       </c>
       <c r="D167" s="4" t="inlineStr">
         <is>
-          <t>maa://20842</t>
+          <t>*maa://37690</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>空弦</t>
+          <t>爱丽丝</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>SV-4</t>
+          <t>2-2</t>
         </is>
       </c>
       <c r="C168" s="1" t="inlineStr">
@@ -4522,7 +4522,7 @@
       </c>
       <c r="D168" s="4" t="inlineStr">
         <is>
-          <t>maa://20912</t>
+          <t>maa://20842</t>
         </is>
       </c>
     </row>
@@ -4534,51 +4534,51 @@
       </c>
       <c r="B169" s="2" t="inlineStr">
         <is>
-          <t>2-9</t>
+          <t>SV-4</t>
         </is>
       </c>
       <c r="C169" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D169" s="4" t="inlineStr">
         <is>
-          <t>maa://20911, *maa://29012</t>
+          <t>maa://20912</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>图耶</t>
+          <t>空弦</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>2-9</t>
         </is>
       </c>
       <c r="C170" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D170" s="4" t="inlineStr">
         <is>
-          <t>maa://20964</t>
+          <t>maa://20911, *maa://29012</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="inlineStr">
         <is>
-          <t>炎狱炎熔</t>
+          <t>图耶</t>
         </is>
       </c>
       <c r="B171" s="2" t="inlineStr">
         <is>
-          <t>WR-4</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C171" s="1" t="inlineStr">
@@ -4588,51 +4588,51 @@
       </c>
       <c r="D171" s="4" t="inlineStr">
         <is>
-          <t>maa://20983</t>
+          <t>maa://20964</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="inlineStr">
         <is>
-          <t>乌有</t>
+          <t>炎狱炎熔</t>
         </is>
       </c>
       <c r="B172" s="2" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>WR-4</t>
         </is>
       </c>
       <c r="C172" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D172" s="4" t="inlineStr">
         <is>
-          <t>maa://31560, **maa://20968</t>
+          <t>maa://20983</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="inlineStr">
         <is>
-          <t>嵯峨</t>
+          <t>乌有</t>
         </is>
       </c>
       <c r="B173" s="2" t="inlineStr">
         <is>
-          <t>WR-3</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C173" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D173" s="4" t="inlineStr">
         <is>
-          <t>maa://28104</t>
+          <t>maa://31560, **maa://20968</t>
         </is>
       </c>
     </row>
@@ -4644,7 +4644,7 @@
       </c>
       <c r="B174" s="2" t="inlineStr">
         <is>
-          <t>WR-1</t>
+          <t>WR-3</t>
         </is>
       </c>
       <c r="C174" s="1" t="inlineStr">
@@ -4654,19 +4654,19 @@
       </c>
       <c r="D174" s="4" t="inlineStr">
         <is>
-          <t>maa://20861</t>
+          <t>maa://28104</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="inlineStr">
         <is>
-          <t>夕</t>
+          <t>嵯峨</t>
         </is>
       </c>
       <c r="B175" s="2" t="inlineStr">
         <is>
-          <t>1-6</t>
+          <t>WR-1</t>
         </is>
       </c>
       <c r="C175" s="1" t="inlineStr">
@@ -4676,7 +4676,7 @@
       </c>
       <c r="D175" s="4" t="inlineStr">
         <is>
-          <t>maa://20970</t>
+          <t>maa://20861</t>
         </is>
       </c>
     </row>
@@ -4688,51 +4688,51 @@
       </c>
       <c r="B176" s="2" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>1-6</t>
         </is>
       </c>
       <c r="C176" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D176" s="4" t="inlineStr">
         <is>
-          <t>maa://20969, maa://41303</t>
+          <t>maa://20970</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="inlineStr">
         <is>
-          <t>战车</t>
+          <t>夕</t>
         </is>
       </c>
       <c r="B177" s="2" t="inlineStr">
         <is>
-          <t>S2-3</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C177" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D177" s="4" t="inlineStr">
         <is>
-          <t>maa://20999</t>
+          <t>maa://20969, maa://41303</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="inlineStr">
         <is>
-          <t>闪击</t>
+          <t>战车</t>
         </is>
       </c>
       <c r="B178" s="2" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>S2-3</t>
         </is>
       </c>
       <c r="C178" s="1" t="inlineStr">
@@ -4742,19 +4742,19 @@
       </c>
       <c r="D178" s="4" t="inlineStr">
         <is>
-          <t>maa://35198</t>
+          <t>maa://20999</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="inlineStr">
         <is>
-          <t>霜华</t>
+          <t>闪击</t>
         </is>
       </c>
       <c r="B179" s="2" t="inlineStr">
         <is>
-          <t>4-4</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C179" s="1" t="inlineStr">
@@ -4764,29 +4764,29 @@
       </c>
       <c r="D179" s="4" t="inlineStr">
         <is>
-          <t>maa://39153</t>
+          <t>maa://35198</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="inlineStr">
         <is>
-          <t>灰烬</t>
+          <t>霜华</t>
         </is>
       </c>
       <c r="B180" s="2" t="inlineStr">
         <is>
-          <t>SV-8</t>
+          <t>4-4</t>
         </is>
       </c>
       <c r="C180" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D180" s="4" t="inlineStr">
         <is>
-          <t>maa://34866, maa://34714</t>
+          <t>maa://39153</t>
         </is>
       </c>
     </row>
@@ -4798,7 +4798,7 @@
       </c>
       <c r="B181" s="2" t="inlineStr">
         <is>
-          <t>1-12</t>
+          <t>SV-8</t>
         </is>
       </c>
       <c r="C181" s="1" t="inlineStr">
@@ -4808,41 +4808,41 @@
       </c>
       <c r="D181" s="4" t="inlineStr">
         <is>
-          <t>maa://20895, maa://34883</t>
+          <t>maa://34866, maa://34714</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="inlineStr">
         <is>
-          <t>暴雨</t>
+          <t>灰烬</t>
         </is>
       </c>
       <c r="B182" s="2" t="inlineStr">
         <is>
-          <t>2-7</t>
+          <t>1-12</t>
         </is>
       </c>
       <c r="C182" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D182" s="4" t="inlineStr">
         <is>
-          <t>maa://20853</t>
+          <t>maa://20895, maa://34883</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="inlineStr">
         <is>
-          <t>熔泉</t>
+          <t>暴雨</t>
         </is>
       </c>
       <c r="B183" s="2" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>2-7</t>
         </is>
       </c>
       <c r="C183" s="1" t="inlineStr">
@@ -4852,19 +4852,19 @@
       </c>
       <c r="D183" s="4" t="inlineStr">
         <is>
-          <t>maa://20942</t>
+          <t>maa://20853</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="inlineStr">
         <is>
-          <t>异客</t>
+          <t>熔泉</t>
         </is>
       </c>
       <c r="B184" s="2" t="inlineStr">
         <is>
-          <t>2-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C184" s="1" t="inlineStr">
@@ -4874,7 +4874,7 @@
       </c>
       <c r="D184" s="4" t="inlineStr">
         <is>
-          <t>maa://20992</t>
+          <t>maa://20942</t>
         </is>
       </c>
     </row>
@@ -4886,61 +4886,61 @@
       </c>
       <c r="B185" s="2" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>2-2</t>
         </is>
       </c>
       <c r="C185" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D185" s="4" t="inlineStr">
         <is>
-          <t>*maa://28190, maa://20994</t>
+          <t>maa://20992</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="inlineStr">
         <is>
-          <t>赤冬</t>
+          <t>异客</t>
         </is>
       </c>
       <c r="B186" s="2" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C186" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D186" s="4" t="inlineStr">
         <is>
-          <t>maa://20860</t>
+          <t>*maa://28190, maa://20994</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="inlineStr">
         <is>
-          <t>歌蕾蒂娅</t>
+          <t>赤冬</t>
         </is>
       </c>
       <c r="B187" s="2" t="inlineStr">
         <is>
-          <t>SV-EX-5</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C187" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D187" s="4" t="inlineStr">
         <is>
-          <t>maa://25760, *maa://35854, **maa://20872</t>
+          <t>maa://20860</t>
         </is>
       </c>
     </row>
@@ -4952,39 +4952,39 @@
       </c>
       <c r="B188" s="2" t="inlineStr">
         <is>
-          <t>SN-EX-3</t>
+          <t>SV-EX-5</t>
         </is>
       </c>
       <c r="C188" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D188" s="4" t="inlineStr">
         <is>
-          <t>maa://39156, maa://39550</t>
+          <t>maa://25760, *maa://35854, **maa://20872</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="inlineStr">
         <is>
-          <t>凯尔希</t>
+          <t>歌蕾蒂娅</t>
         </is>
       </c>
       <c r="B189" s="2" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>SN-EX-3</t>
         </is>
       </c>
       <c r="C189" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D189" s="4" t="inlineStr">
         <is>
-          <t>maa://27823, *maa://28190, maa://22894, *maa://20906</t>
+          <t>maa://39156, maa://39550</t>
         </is>
       </c>
     </row>
@@ -5013,56 +5013,56 @@
     <row r="191">
       <c r="A191" s="2" t="inlineStr">
         <is>
-          <t>深靛</t>
+          <t>凯尔希</t>
         </is>
       </c>
       <c r="B191" s="2" t="inlineStr">
         <is>
-          <t>SV-5</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C191" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D191" s="4" t="inlineStr">
         <is>
-          <t>maa://39154</t>
+          <t>maa://27823, *maa://28190, maa://22894, *maa://20906</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="inlineStr">
         <is>
-          <t>贝娜</t>
+          <t>浊心斯卡蒂</t>
         </is>
       </c>
       <c r="B192" s="2" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>SV-5</t>
         </is>
       </c>
       <c r="C192" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D192" s="4" t="inlineStr">
         <is>
-          <t>maa://20854</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="inlineStr">
         <is>
-          <t>绮良</t>
+          <t>深靛</t>
         </is>
       </c>
       <c r="B193" s="2" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>SV-5</t>
         </is>
       </c>
       <c r="C193" s="1" t="inlineStr">
@@ -5072,19 +5072,19 @@
       </c>
       <c r="D193" s="4" t="inlineStr">
         <is>
-          <t>maa://20937</t>
+          <t>maa://39154</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="inlineStr">
         <is>
-          <t>卡涅利安</t>
+          <t>贝娜</t>
         </is>
       </c>
       <c r="B194" s="2" t="inlineStr">
         <is>
-          <t>7-3</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="C194" s="1" t="inlineStr">
@@ -5094,102 +5094,102 @@
       </c>
       <c r="D194" s="4" t="inlineStr">
         <is>
-          <t>maa://22468</t>
+          <t>maa://20854</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="inlineStr">
         <is>
-          <t>卡涅利安</t>
+          <t>绮良</t>
         </is>
       </c>
       <c r="B195" s="2" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C195" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D195" s="4" t="inlineStr">
         <is>
-          <t>maa://30673, maa://30672</t>
+          <t>maa://20937</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="inlineStr">
         <is>
-          <t>帕拉斯</t>
+          <t>卡涅利安</t>
         </is>
       </c>
       <c r="B196" s="2" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>7-3</t>
         </is>
       </c>
       <c r="C196" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D196" s="4" t="inlineStr">
         <is>
-          <t>maa://20934, maa://20827, maa://20828</t>
+          <t>maa://22468</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="inlineStr">
         <is>
-          <t>帕拉斯</t>
+          <t>卡涅利安</t>
         </is>
       </c>
       <c r="B197" s="2" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C197" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D197" s="4" t="inlineStr">
         <is>
-          <t>maa://20935</t>
+          <t>maa://30673, maa://30672</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="inlineStr">
         <is>
-          <t>羽毛笔</t>
+          <t>帕拉斯</t>
         </is>
       </c>
       <c r="B198" s="2" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="C198" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D198" s="4" t="inlineStr">
         <is>
-          <t>maa://28133, *maa://28277, maa://25369, *maa://33132</t>
+          <t>maa://20934, maa://20827, maa://20828</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="inlineStr">
         <is>
-          <t>水月</t>
+          <t>帕拉斯</t>
         </is>
       </c>
       <c r="B199" s="2" t="inlineStr">
@@ -5199,68 +5199,68 @@
       </c>
       <c r="C199" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D199" s="4" t="inlineStr">
         <is>
-          <t>maa://20956, *maa://20830</t>
+          <t>maa://20935</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="inlineStr">
         <is>
-          <t>水月</t>
+          <t>羽毛笔</t>
         </is>
       </c>
       <c r="B200" s="2" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C200" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D200" s="4" t="inlineStr">
         <is>
-          <t>*maa://20955</t>
+          <t>maa://28133, *maa://28277, maa://25369, *maa://33132</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="inlineStr">
         <is>
-          <t>假日威龙陈</t>
+          <t>水月</t>
         </is>
       </c>
       <c r="B201" s="2" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C201" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D201" s="4" t="inlineStr">
         <is>
-          <t>maa://39238</t>
+          <t>maa://20956, *maa://20830</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="inlineStr">
         <is>
-          <t>罗比菈塔</t>
+          <t>水月</t>
         </is>
       </c>
       <c r="B202" s="2" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="C202" s="1" t="inlineStr">
@@ -5270,19 +5270,19 @@
       </c>
       <c r="D202" s="4" t="inlineStr">
         <is>
-          <t>**maa://24556</t>
+          <t>*maa://20955</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="inlineStr">
         <is>
-          <t>桑葚</t>
+          <t>假日威龙陈</t>
         </is>
       </c>
       <c r="B203" s="2" t="inlineStr">
         <is>
-          <t>SV-5</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="C203" s="1" t="inlineStr">
@@ -5292,41 +5292,41 @@
       </c>
       <c r="D203" s="4" t="inlineStr">
         <is>
-          <t>maa://39694</t>
+          <t>maa://39238</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="inlineStr">
         <is>
-          <t>琴柳</t>
+          <t>罗比菈塔</t>
         </is>
       </c>
       <c r="B204" s="2" t="inlineStr">
         <is>
-          <t>9-2</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C204" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D204" s="4" t="inlineStr">
         <is>
-          <t>maa://24636, maa://25778</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="inlineStr">
         <is>
-          <t>灰毫</t>
+          <t>桑葚</t>
         </is>
       </c>
       <c r="B205" s="2" t="inlineStr">
         <is>
-          <t>7-9</t>
+          <t>SV-5</t>
         </is>
       </c>
       <c r="C205" s="1" t="inlineStr">
@@ -5336,41 +5336,41 @@
       </c>
       <c r="D205" s="4" t="inlineStr">
         <is>
-          <t>maa://39157</t>
+          <t>maa://39694</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="inlineStr">
         <is>
-          <t>远牙</t>
+          <t>琴柳</t>
         </is>
       </c>
       <c r="B206" s="2" t="inlineStr">
         <is>
-          <t>S2-2</t>
+          <t>9-2</t>
         </is>
       </c>
       <c r="C206" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://24636, maa://25778</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="inlineStr">
         <is>
-          <t>远牙</t>
+          <t>灰毫</t>
         </is>
       </c>
       <c r="B207" s="2" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>7-9</t>
         </is>
       </c>
       <c r="C207" s="1" t="inlineStr">
@@ -5380,41 +5380,41 @@
       </c>
       <c r="D207" s="4" t="inlineStr">
         <is>
-          <t>maa://26499</t>
+          <t>maa://39157</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="inlineStr">
         <is>
-          <t>布丁</t>
+          <t>远牙</t>
         </is>
       </c>
       <c r="B208" s="2" t="inlineStr">
         <is>
-          <t>2-10</t>
+          <t>S2-2</t>
         </is>
       </c>
       <c r="C208" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D208" s="4" t="inlineStr">
         <is>
-          <t>maa://20858</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="inlineStr">
         <is>
-          <t>蜜莓</t>
+          <t>远牙</t>
         </is>
       </c>
       <c r="B209" s="2" t="inlineStr">
         <is>
-          <t>GA-2</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C209" s="1" t="inlineStr">
@@ -5424,19 +5424,19 @@
       </c>
       <c r="D209" s="4" t="inlineStr">
         <is>
-          <t>maa://39695</t>
+          <t>maa://26499</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="inlineStr">
         <is>
-          <t>野鬃</t>
+          <t>布丁</t>
         </is>
       </c>
       <c r="B210" s="2" t="inlineStr">
         <is>
-          <t>MN-2</t>
+          <t>2-10</t>
         </is>
       </c>
       <c r="C210" s="1" t="inlineStr">
@@ -5446,19 +5446,19 @@
       </c>
       <c r="D210" s="4" t="inlineStr">
         <is>
-          <t>maa://20988</t>
+          <t>maa://20858</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="inlineStr">
         <is>
-          <t>蚀清</t>
+          <t>蜜莓</t>
         </is>
       </c>
       <c r="B211" s="2" t="inlineStr">
         <is>
-          <t>BI-6</t>
+          <t>GA-2</t>
         </is>
       </c>
       <c r="C211" s="1" t="inlineStr">
@@ -5468,41 +5468,41 @@
       </c>
       <c r="D211" s="4" t="inlineStr">
         <is>
-          <t>maa://39158</t>
+          <t>maa://39695</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="inlineStr">
         <is>
-          <t>焰尾</t>
+          <t>野鬃</t>
         </is>
       </c>
       <c r="B212" s="2" t="inlineStr">
         <is>
-          <t>NL-5</t>
+          <t>MN-2</t>
         </is>
       </c>
       <c r="C212" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D212" s="4" t="inlineStr">
         <is>
-          <t>maa://28187, maa://39520</t>
+          <t>maa://20988</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="inlineStr">
         <is>
-          <t>焰尾</t>
+          <t>蚀清</t>
         </is>
       </c>
       <c r="B213" s="2" t="inlineStr">
         <is>
-          <t>NL-3</t>
+          <t>BI-6</t>
         </is>
       </c>
       <c r="C213" s="1" t="inlineStr">
@@ -5512,19 +5512,19 @@
       </c>
       <c r="D213" s="4" t="inlineStr">
         <is>
-          <t>maa://20985</t>
+          <t>maa://39158</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="inlineStr">
         <is>
-          <t>耀骑士临光</t>
+          <t>焰尾</t>
         </is>
       </c>
       <c r="B214" s="2" t="inlineStr">
         <is>
-          <t>MN-8</t>
+          <t>NL-5</t>
         </is>
       </c>
       <c r="C214" s="1" t="inlineStr">
@@ -5534,19 +5534,19 @@
       </c>
       <c r="D214" s="4" t="inlineStr">
         <is>
-          <t>maa://20987, *maa://35801</t>
+          <t>maa://28187, maa://39520</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="inlineStr">
         <is>
-          <t>耀骑士临光</t>
+          <t>焰尾</t>
         </is>
       </c>
       <c r="B215" s="2" t="inlineStr">
         <is>
-          <t>NL-10</t>
+          <t>NL-3</t>
         </is>
       </c>
       <c r="C215" s="1" t="inlineStr">
@@ -5556,19 +5556,19 @@
       </c>
       <c r="D215" s="4" t="inlineStr">
         <is>
-          <t>maa://39159</t>
+          <t>maa://20985</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="inlineStr">
         <is>
-          <t>耶拉</t>
+          <t>耀骑士临光</t>
         </is>
       </c>
       <c r="B216" s="2" t="inlineStr">
         <is>
-          <t>BI-7</t>
+          <t>MN-8</t>
         </is>
       </c>
       <c r="C216" s="1" t="inlineStr">
@@ -5578,19 +5578,19 @@
       </c>
       <c r="D216" s="4" t="inlineStr">
         <is>
-          <t>maa://39140, maa://30677</t>
+          <t>maa://20987, *maa://35801</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="inlineStr">
         <is>
-          <t>极光</t>
+          <t>耀骑士临光</t>
         </is>
       </c>
       <c r="B217" s="2" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>NL-10</t>
         </is>
       </c>
       <c r="C217" s="1" t="inlineStr">
@@ -5600,14 +5600,14 @@
       </c>
       <c r="D217" s="4" t="inlineStr">
         <is>
-          <t>maa://20896</t>
+          <t>maa://39159</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="inlineStr">
         <is>
-          <t>灵知</t>
+          <t>耶拉</t>
         </is>
       </c>
       <c r="B218" s="2" t="inlineStr">
@@ -5617,24 +5617,24 @@
       </c>
       <c r="C218" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D218" s="4" t="inlineStr">
         <is>
-          <t>maa://29058, maa://39140, maa://38723</t>
+          <t>maa://39140, maa://30677</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="inlineStr">
         <is>
-          <t>九色鹿</t>
+          <t>极光</t>
         </is>
       </c>
       <c r="B219" s="2" t="inlineStr">
         <is>
-          <t>IW-3</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C219" s="1" t="inlineStr">
@@ -5644,41 +5644,41 @@
       </c>
       <c r="D219" s="4" t="inlineStr">
         <is>
-          <t>maa://39160</t>
+          <t>maa://20896</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="inlineStr">
         <is>
-          <t>寒芒克洛丝</t>
+          <t>灵知</t>
         </is>
       </c>
       <c r="B220" s="2" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>BI-7</t>
         </is>
       </c>
       <c r="C220" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D220" s="4" t="inlineStr">
         <is>
-          <t>maa://20878</t>
+          <t>maa://29058, maa://39140, maa://38723</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="inlineStr">
         <is>
-          <t>夜半</t>
+          <t>九色鹿</t>
         </is>
       </c>
       <c r="B221" s="2" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>IW-3</t>
         </is>
       </c>
       <c r="C221" s="1" t="inlineStr">
@@ -5688,19 +5688,19 @@
       </c>
       <c r="D221" s="4" t="inlineStr">
         <is>
-          <t>maa://35952</t>
+          <t>maa://39160</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="inlineStr">
         <is>
-          <t>老鲤</t>
+          <t>寒芒克洛丝</t>
         </is>
       </c>
       <c r="B222" s="2" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C222" s="1" t="inlineStr">
@@ -5710,107 +5710,107 @@
       </c>
       <c r="D222" s="4" t="inlineStr">
         <is>
-          <t>maa://20917</t>
+          <t>maa://20878</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="inlineStr">
         <is>
-          <t>老鲤</t>
+          <t>夜半</t>
         </is>
       </c>
       <c r="B223" s="2" t="inlineStr">
         <is>
-          <t>IW-EX-1</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C223" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D223" s="4" t="inlineStr">
         <is>
-          <t>maa://30714, maa://30675</t>
+          <t>maa://35952</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="inlineStr">
         <is>
-          <t>令</t>
+          <t>老鲤</t>
         </is>
       </c>
       <c r="B224" s="2" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C224" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D224" s="4" t="inlineStr">
         <is>
-          <t>maa://20922, *maa://32623, *maa://34242, maa://34900</t>
+          <t>maa://20917</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="inlineStr">
         <is>
-          <t>夏栎</t>
+          <t>老鲤</t>
         </is>
       </c>
       <c r="B225" s="2" t="inlineStr">
         <is>
-          <t>9-2</t>
+          <t>IW-EX-1</t>
         </is>
       </c>
       <c r="C225" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D225" s="4" t="inlineStr">
         <is>
-          <t>maa://32999</t>
+          <t>maa://30714, maa://30675</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="inlineStr">
         <is>
-          <t>澄闪</t>
+          <t>令</t>
         </is>
       </c>
       <c r="B226" s="2" t="inlineStr">
         <is>
-          <t>R8-8</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C226" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D226" s="4" t="inlineStr">
         <is>
-          <t>*maa://30667, maa://30666, *maa://26836, maa://37607, *maa://34428, *maa://30723, maa://39588, *maa://37850</t>
+          <t>maa://20922, *maa://32623, *maa://34242, maa://34900</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="inlineStr">
         <is>
-          <t>见行者</t>
+          <t>夏栎</t>
         </is>
       </c>
       <c r="B227" s="2" t="inlineStr">
         <is>
-          <t>GA-EX-1</t>
+          <t>9-2</t>
         </is>
       </c>
       <c r="C227" s="1" t="inlineStr">
@@ -5820,41 +5820,41 @@
       </c>
       <c r="D227" s="4" t="inlineStr">
         <is>
-          <t>maa://30512</t>
+          <t>maa://32999</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="inlineStr">
         <is>
-          <t>风丸</t>
+          <t>澄闪</t>
         </is>
       </c>
       <c r="B228" s="2" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>R8-8</t>
         </is>
       </c>
       <c r="C228" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D228" s="4" t="inlineStr">
         <is>
-          <t>maa://20870</t>
+          <t>*maa://30667, maa://30666, *maa://26836, maa://37607, *maa://34428, *maa://30723, maa://39588, *maa://37850</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="inlineStr">
         <is>
-          <t>菲亚梅塔</t>
+          <t>见行者</t>
         </is>
       </c>
       <c r="B229" s="2" t="inlineStr">
         <is>
-          <t>GA-4</t>
+          <t>GA-EX-1</t>
         </is>
       </c>
       <c r="C229" s="1" t="inlineStr">
@@ -5864,41 +5864,41 @@
       </c>
       <c r="D229" s="4" t="inlineStr">
         <is>
-          <t>maa://29024</t>
+          <t>maa://30512</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="inlineStr">
         <is>
-          <t>菲亚梅塔</t>
+          <t>风丸</t>
         </is>
       </c>
       <c r="B230" s="2" t="inlineStr">
         <is>
-          <t>S5-9</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C230" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D230" s="4" t="inlineStr">
         <is>
-          <t>maa://20867, *maa://32202, *maa://38485</t>
+          <t>maa://20870</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="inlineStr">
         <is>
-          <t>褐果</t>
+          <t>菲亚梅塔</t>
         </is>
       </c>
       <c r="B231" s="2" t="inlineStr">
         <is>
-          <t>SV-3</t>
+          <t>GA-4</t>
         </is>
       </c>
       <c r="C231" s="1" t="inlineStr">
@@ -5908,85 +5908,85 @@
       </c>
       <c r="D231" s="4" t="inlineStr">
         <is>
-          <t>maa://40160</t>
+          <t>maa://29024</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="inlineStr">
         <is>
-          <t>洛洛</t>
+          <t>菲亚梅塔</t>
         </is>
       </c>
       <c r="B232" s="2" t="inlineStr">
         <is>
-          <t>RI-EX-4</t>
+          <t>S5-9</t>
         </is>
       </c>
       <c r="C232" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D232" s="4" t="inlineStr">
         <is>
-          <t>maa://30674</t>
+          <t>maa://20867, *maa://32202, *maa://38485</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="inlineStr">
         <is>
-          <t>号角</t>
+          <t>褐果</t>
         </is>
       </c>
       <c r="B233" s="2" t="inlineStr">
         <is>
-          <t>7-15</t>
+          <t>SV-3</t>
         </is>
       </c>
       <c r="C233" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D233" s="4" t="inlineStr">
         <is>
-          <t>maa://28923, maa://28906</t>
+          <t>maa://40160</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="inlineStr">
         <is>
-          <t>掠风</t>
+          <t>海蒂</t>
         </is>
       </c>
       <c r="B234" s="2" t="inlineStr">
         <is>
-          <t>11-9</t>
+          <t>9-7</t>
         </is>
       </c>
       <c r="C234" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D234" s="4" t="inlineStr">
         <is>
-          <t>maa://39161</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="inlineStr">
         <is>
-          <t>流明</t>
+          <t>洛洛</t>
         </is>
       </c>
       <c r="B235" s="2" t="inlineStr">
         <is>
-          <t>6-9</t>
+          <t>RI-EX-4</t>
         </is>
       </c>
       <c r="C235" s="1" t="inlineStr">
@@ -5996,41 +5996,41 @@
       </c>
       <c r="D235" s="4" t="inlineStr">
         <is>
-          <t>maa://20923</t>
+          <t>maa://30674</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="inlineStr">
         <is>
-          <t>流明</t>
+          <t>号角</t>
         </is>
       </c>
       <c r="B236" s="2" t="inlineStr">
         <is>
-          <t>OF-5</t>
+          <t>7-15</t>
         </is>
       </c>
       <c r="C236" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D236" s="4" t="inlineStr">
         <is>
-          <t>maa://24093, maa://31559, maa://20924</t>
+          <t>maa://28923, maa://28906</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="inlineStr">
         <is>
-          <t>艾丽妮</t>
+          <t>号角</t>
         </is>
       </c>
       <c r="B237" s="2" t="inlineStr">
         <is>
-          <t>SV-EX-1</t>
+          <t>9-5</t>
         </is>
       </c>
       <c r="C237" s="1" t="inlineStr">
@@ -6047,12 +6047,12 @@
     <row r="238">
       <c r="A238" s="2" t="inlineStr">
         <is>
-          <t>艾丽妮</t>
+          <t>掠风</t>
         </is>
       </c>
       <c r="B238" s="2" t="inlineStr">
         <is>
-          <t>SV-4</t>
+          <t>11-9</t>
         </is>
       </c>
       <c r="C238" s="1" t="inlineStr">
@@ -6062,85 +6062,85 @@
       </c>
       <c r="D238" s="4" t="inlineStr">
         <is>
-          <t>maa://20840</t>
+          <t>maa://39161</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="inlineStr">
         <is>
-          <t>归溟幽灵鲨</t>
+          <t>流明</t>
         </is>
       </c>
       <c r="B239" s="2" t="inlineStr">
         <is>
-          <t>SV-EX-1</t>
+          <t>6-9</t>
         </is>
       </c>
       <c r="C239" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D239" s="4" t="inlineStr">
         <is>
-          <t>maa://20877, maa://20836</t>
+          <t>maa://20923</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="inlineStr">
         <is>
-          <t>归溟幽灵鲨</t>
+          <t>流明</t>
         </is>
       </c>
       <c r="B240" s="2" t="inlineStr">
         <is>
-          <t>S4-1</t>
+          <t>OF-5</t>
         </is>
       </c>
       <c r="C240" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D240" s="4" t="inlineStr">
         <is>
-          <t>maa://20879, maa://20834</t>
+          <t>maa://24093, maa://31559, maa://20924</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="inlineStr">
         <is>
-          <t>埃拉托</t>
+          <t>艾丽妮</t>
         </is>
       </c>
       <c r="B241" s="2" t="inlineStr">
         <is>
-          <t>S5-9</t>
+          <t>SV-EX-1</t>
         </is>
       </c>
       <c r="C241" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D241" s="4" t="inlineStr">
         <is>
-          <t>maa://20839</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="inlineStr">
         <is>
-          <t>濯尘芙蓉</t>
+          <t>艾丽妮</t>
         </is>
       </c>
       <c r="B242" s="2" t="inlineStr">
         <is>
-          <t>LE-4</t>
+          <t>SV-4</t>
         </is>
       </c>
       <c r="C242" s="1" t="inlineStr">
@@ -6150,19 +6150,19 @@
       </c>
       <c r="D242" s="4" t="inlineStr">
         <is>
-          <t>maa://30676</t>
+          <t>maa://20840</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="inlineStr">
         <is>
-          <t>黑键</t>
+          <t>归溟幽灵鲨</t>
         </is>
       </c>
       <c r="B243" s="2" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>SV-EX-1</t>
         </is>
       </c>
       <c r="C243" s="1" t="inlineStr">
@@ -6172,41 +6172,41 @@
       </c>
       <c r="D243" s="4" t="inlineStr">
         <is>
-          <t>maa://31560, maa://20884</t>
+          <t>maa://20877, maa://20836</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="inlineStr">
         <is>
-          <t>黑键</t>
+          <t>归溟幽灵鲨</t>
         </is>
       </c>
       <c r="B244" s="2" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>S4-1</t>
         </is>
       </c>
       <c r="C244" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://20879, maa://20834</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="inlineStr">
         <is>
-          <t>黑键</t>
+          <t>埃拉托</t>
         </is>
       </c>
       <c r="B245" s="2" t="inlineStr">
         <is>
-          <t>11-12</t>
+          <t>S5-9</t>
         </is>
       </c>
       <c r="C245" s="1" t="inlineStr">
@@ -6216,19 +6216,19 @@
       </c>
       <c r="D245" s="4" t="inlineStr">
         <is>
-          <t>maa://29027</t>
+          <t>maa://20839</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="inlineStr">
         <is>
-          <t>星源</t>
+          <t>濯尘芙蓉</t>
         </is>
       </c>
       <c r="B246" s="2" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>LE-4</t>
         </is>
       </c>
       <c r="C246" s="1" t="inlineStr">
@@ -6238,107 +6238,107 @@
       </c>
       <c r="D246" s="4" t="inlineStr">
         <is>
-          <t>maa://20977</t>
+          <t>maa://30676</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="inlineStr">
         <is>
-          <t>承曦格雷伊</t>
+          <t>黑键</t>
         </is>
       </c>
       <c r="B247" s="2" t="inlineStr">
         <is>
-          <t>1-3</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C247" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D247" s="4" t="inlineStr">
         <is>
-          <t>maa://39162</t>
+          <t>maa://31560, maa://20884</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="inlineStr">
         <is>
-          <t>多萝西</t>
+          <t>黑键</t>
         </is>
       </c>
       <c r="B248" s="2" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="C248" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D248" s="4" t="inlineStr">
         <is>
-          <t>maa://22467</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="inlineStr">
         <is>
-          <t>至简</t>
+          <t>黑键</t>
         </is>
       </c>
       <c r="B249" s="2" t="inlineStr">
         <is>
-          <t>IC-8</t>
+          <t>11-12</t>
         </is>
       </c>
       <c r="C249" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://29027</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="inlineStr">
         <is>
-          <t>鸿雪</t>
+          <t>星源</t>
         </is>
       </c>
       <c r="B250" s="2" t="inlineStr">
         <is>
-          <t>2-10</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C250" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D250" s="4" t="inlineStr">
         <is>
-          <t>*maa://20825, *maa://21445, *maa://35726</t>
+          <t>maa://20977</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="inlineStr">
         <is>
-          <t>百炼嘉维尔</t>
+          <t>承曦格雷伊</t>
         </is>
       </c>
       <c r="B251" s="2" t="inlineStr">
         <is>
-          <t>9-2</t>
+          <t>1-3</t>
         </is>
       </c>
       <c r="C251" s="1" t="inlineStr">
@@ -6348,85 +6348,85 @@
       </c>
       <c r="D251" s="4" t="inlineStr">
         <is>
-          <t>maa://25769</t>
+          <t>maa://39162</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="inlineStr">
         <is>
-          <t>但书</t>
+          <t>多萝西</t>
         </is>
       </c>
       <c r="B252" s="2" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="C252" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D252" s="4" t="inlineStr">
         <is>
-          <t>maa://27794, *maa://20862</t>
+          <t>maa://22467</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="inlineStr">
         <is>
-          <t>罗小黑</t>
+          <t>至简</t>
         </is>
       </c>
       <c r="B253" s="2" t="inlineStr">
         <is>
-          <t>IW-4</t>
+          <t>IC-8</t>
         </is>
       </c>
       <c r="C253" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D253" s="4" t="inlineStr">
         <is>
-          <t>maa://39163</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="inlineStr">
         <is>
-          <t>海沫</t>
+          <t>鸿雪</t>
         </is>
       </c>
       <c r="B254" s="2" t="inlineStr">
         <is>
-          <t>SN-2</t>
+          <t>2-10</t>
         </is>
       </c>
       <c r="C254" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D254" s="4" t="inlineStr">
         <is>
-          <t>maa://29061</t>
+          <t>*maa://20825, *maa://21445, *maa://35726</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="inlineStr">
         <is>
-          <t>铅踝</t>
+          <t>百炼嘉维尔</t>
         </is>
       </c>
       <c r="B255" s="2" t="inlineStr">
         <is>
-          <t>S3-5</t>
+          <t>9-2</t>
         </is>
       </c>
       <c r="C255" s="1" t="inlineStr">
@@ -6436,63 +6436,63 @@
       </c>
       <c r="D255" s="4" t="inlineStr">
         <is>
-          <t>*maa://20939</t>
+          <t>maa://25769</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="inlineStr">
         <is>
-          <t>达格达</t>
+          <t>但书</t>
         </is>
       </c>
       <c r="B256" s="2" t="inlineStr">
         <is>
-          <t>11-5</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="C256" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D256" s="4" t="inlineStr">
         <is>
-          <t>maa://39164</t>
+          <t>maa://27794, *maa://20862</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="inlineStr">
         <is>
-          <t>白铁</t>
+          <t>罗小黑</t>
         </is>
       </c>
       <c r="B257" s="2" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>IW-4</t>
         </is>
       </c>
       <c r="C257" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D257" s="4" t="inlineStr">
         <is>
-          <t>maa://28133, maa://33394</t>
+          <t>maa://39163</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="inlineStr">
         <is>
-          <t>石英</t>
+          <t>海沫</t>
         </is>
       </c>
       <c r="B258" s="2" t="inlineStr">
         <is>
-          <t>DH-4</t>
+          <t>SN-2</t>
         </is>
       </c>
       <c r="C258" s="1" t="inlineStr">
@@ -6502,19 +6502,19 @@
       </c>
       <c r="D258" s="4" t="inlineStr">
         <is>
-          <t>maa://41362</t>
+          <t>maa://29061</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="inlineStr">
         <is>
-          <t>雪绒</t>
+          <t>铅踝</t>
         </is>
       </c>
       <c r="B259" s="2" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>S3-5</t>
         </is>
       </c>
       <c r="C259" s="1" t="inlineStr">
@@ -6524,19 +6524,19 @@
       </c>
       <c r="D259" s="4" t="inlineStr">
         <is>
-          <t>maa://20978</t>
+          <t>*maa://20939</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="inlineStr">
         <is>
-          <t>子月</t>
+          <t>达格达</t>
         </is>
       </c>
       <c r="B260" s="2" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>11-5</t>
         </is>
       </c>
       <c r="C260" s="1" t="inlineStr">
@@ -6546,63 +6546,63 @@
       </c>
       <c r="D260" s="4" t="inlineStr">
         <is>
-          <t>maa://21002</t>
+          <t>maa://39164</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="inlineStr">
         <is>
-          <t>伺夜</t>
+          <t>白铁</t>
         </is>
       </c>
       <c r="B261" s="2" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C261" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D261" s="4" t="inlineStr">
         <is>
-          <t>**maa://39165</t>
+          <t>maa://28133, maa://33394</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="inlineStr">
         <is>
-          <t>斥罪</t>
+          <t>白铁</t>
         </is>
       </c>
       <c r="B262" s="2" t="inlineStr">
         <is>
-          <t>CB-4</t>
+          <t>9-6</t>
         </is>
       </c>
       <c r="C262" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D262" s="4" t="inlineStr">
         <is>
-          <t>maa://29635</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="inlineStr">
         <is>
-          <t>斥罪</t>
+          <t>石英</t>
         </is>
       </c>
       <c r="B263" s="2" t="inlineStr">
         <is>
-          <t>IS-7</t>
+          <t>DH-4</t>
         </is>
       </c>
       <c r="C263" s="1" t="inlineStr">
@@ -6612,19 +6612,19 @@
       </c>
       <c r="D263" s="4" t="inlineStr">
         <is>
-          <t>maa://38296</t>
+          <t>maa://41362</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="inlineStr">
         <is>
-          <t>缄默德克萨斯</t>
+          <t>雪绒</t>
         </is>
       </c>
       <c r="B264" s="2" t="inlineStr">
         <is>
-          <t>CB-8</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="C264" s="1" t="inlineStr">
@@ -6634,19 +6634,19 @@
       </c>
       <c r="D264" s="4" t="inlineStr">
         <is>
-          <t>maa://20899</t>
+          <t>maa://20978</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="inlineStr">
         <is>
-          <t>和弦</t>
+          <t>子月</t>
         </is>
       </c>
       <c r="B265" s="2" t="inlineStr">
         <is>
-          <t>6-5</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C265" s="1" t="inlineStr">
@@ -6656,41 +6656,41 @@
       </c>
       <c r="D265" s="4" t="inlineStr">
         <is>
-          <t>maa://20881</t>
+          <t>maa://21002</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="inlineStr">
         <is>
-          <t>焰影苇草</t>
+          <t>伺夜</t>
         </is>
       </c>
       <c r="B266" s="2" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C266" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D266" s="4" t="inlineStr">
         <is>
-          <t>maa://30710, maa://36845, maa://31558, maa://30668</t>
+          <t>**maa://39165</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="inlineStr">
         <is>
-          <t>截云</t>
+          <t>斥罪</t>
         </is>
       </c>
       <c r="B267" s="2" t="inlineStr">
         <is>
-          <t>S2-2</t>
+          <t>CB-4</t>
         </is>
       </c>
       <c r="C267" s="1" t="inlineStr">
@@ -6700,19 +6700,19 @@
       </c>
       <c r="D267" s="4" t="inlineStr">
         <is>
-          <t>maa://20902</t>
+          <t>maa://29635</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="inlineStr">
         <is>
-          <t>火哨</t>
+          <t>斥罪</t>
         </is>
       </c>
       <c r="B268" s="2" t="inlineStr">
         <is>
-          <t>S4-6</t>
+          <t>IS-7</t>
         </is>
       </c>
       <c r="C268" s="1" t="inlineStr">
@@ -6722,261 +6722,261 @@
       </c>
       <c r="D268" s="4" t="inlineStr">
         <is>
-          <t>maa://29159</t>
+          <t>maa://38296</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="inlineStr">
         <is>
-          <t>林</t>
+          <t>缄默德克萨斯</t>
         </is>
       </c>
       <c r="B269" s="2" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>CB-8</t>
         </is>
       </c>
       <c r="C269" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D269" s="4" t="inlineStr">
         <is>
-          <t>maa://25774, maa://28133, maa://22469, **maa://31349</t>
+          <t>maa://20899</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="inlineStr">
         <is>
-          <t>重岳</t>
+          <t>和弦</t>
         </is>
       </c>
       <c r="B270" s="2" t="inlineStr">
         <is>
-          <t>WB-7</t>
+          <t>6-5</t>
         </is>
       </c>
       <c r="C270" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D270" s="4" t="inlineStr">
         <is>
-          <t>maa://32414, maa://32505, maa://39155</t>
+          <t>maa://20881</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="inlineStr">
         <is>
-          <t>铎铃</t>
+          <t>焰影苇草</t>
         </is>
       </c>
       <c r="B271" s="2" t="inlineStr">
         <is>
-          <t>2-1</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C271" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D271" s="4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://30710, maa://36845, maa://31558, maa://30668</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="inlineStr">
         <is>
-          <t>仇白</t>
+          <t>截云</t>
         </is>
       </c>
       <c r="B272" s="2" t="inlineStr">
         <is>
-          <t>WB-7</t>
+          <t>S2-2</t>
         </is>
       </c>
       <c r="C272" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D272" s="4" t="inlineStr">
         <is>
-          <t>maa://36642, maa://36867, maa://39155</t>
+          <t>maa://20902</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="inlineStr">
         <is>
-          <t>火龙S黑角</t>
+          <t>火哨</t>
         </is>
       </c>
       <c r="B273" s="2" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>S4-6</t>
         </is>
       </c>
       <c r="C273" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D273" s="4" t="inlineStr">
         <is>
-          <t>maa://39166, maa://39167</t>
+          <t>maa://29159</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="inlineStr">
         <is>
-          <t>麒麟R夜刀</t>
+          <t>林</t>
         </is>
       </c>
       <c r="B274" s="2" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C274" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D274" s="4" t="inlineStr">
         <is>
-          <t>maa://29005, maa://31560</t>
+          <t>maa://25774, maa://28133, maa://22469, **maa://31349</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="inlineStr">
         <is>
-          <t>休谟斯</t>
+          <t>重岳</t>
         </is>
       </c>
       <c r="B275" s="2" t="inlineStr">
         <is>
-          <t>7-8</t>
+          <t>WB-7</t>
         </is>
       </c>
       <c r="C275" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D275" s="4" t="inlineStr">
         <is>
-          <t>maa://39168</t>
+          <t>maa://32414, maa://32505, maa://39155</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="inlineStr">
         <is>
-          <t>摩根</t>
+          <t>铎铃</t>
         </is>
       </c>
       <c r="B276" s="2" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>2-1</t>
         </is>
       </c>
       <c r="C276" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D276" s="4" t="inlineStr">
         <is>
-          <t>maa://39169</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="inlineStr">
         <is>
-          <t>洋灰</t>
+          <t>仇白</t>
         </is>
       </c>
       <c r="B277" s="2" t="inlineStr">
         <is>
-          <t>IW-EX-6</t>
+          <t>WB-7</t>
         </is>
       </c>
       <c r="C277" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D277" s="4" t="inlineStr">
         <is>
-          <t>maa://39170</t>
+          <t>maa://36642, maa://36867, maa://39155</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="inlineStr">
         <is>
-          <t>玫拉</t>
+          <t>火龙S黑角</t>
         </is>
       </c>
       <c r="B278" s="2" t="inlineStr">
         <is>
-          <t>S3-5</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C278" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D278" s="4" t="inlineStr">
         <is>
-          <t>maa://39171</t>
+          <t>maa://39166, maa://39167</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="inlineStr">
         <is>
-          <t>淬羽赫默</t>
+          <t>麒麟R夜刀</t>
         </is>
       </c>
       <c r="B279" s="2" t="inlineStr">
         <is>
-          <t>6-3</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C279" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D279" s="4" t="inlineStr">
         <is>
-          <t>maa://27939</t>
+          <t>maa://29005, maa://31560</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="inlineStr">
         <is>
-          <t>霍尔海雅</t>
+          <t>休谟斯</t>
         </is>
       </c>
       <c r="B280" s="2" t="inlineStr">
         <is>
-          <t>OF-7</t>
+          <t>7-8</t>
         </is>
       </c>
       <c r="C280" s="1" t="inlineStr">
@@ -6986,19 +6986,19 @@
       </c>
       <c r="D280" s="4" t="inlineStr">
         <is>
-          <t>maa://29129</t>
+          <t>maa://39168</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="inlineStr">
         <is>
-          <t>霍尔海雅</t>
+          <t>摩根</t>
         </is>
       </c>
       <c r="B281" s="2" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="C281" s="1" t="inlineStr">
@@ -7008,19 +7008,19 @@
       </c>
       <c r="D281" s="4" t="inlineStr">
         <is>
-          <t>maa://36005</t>
+          <t>maa://39169</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="inlineStr">
         <is>
-          <t>缪尔赛思</t>
+          <t>洋灰</t>
         </is>
       </c>
       <c r="B282" s="2" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>IW-EX-6</t>
         </is>
       </c>
       <c r="C282" s="1" t="inlineStr">
@@ -7030,19 +7030,19 @@
       </c>
       <c r="D282" s="4" t="inlineStr">
         <is>
-          <t>maa://35859</t>
+          <t>maa://39170</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="inlineStr">
         <is>
-          <t>隐现</t>
+          <t>玫拉</t>
         </is>
       </c>
       <c r="B283" s="2" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>S3-5</t>
         </is>
       </c>
       <c r="C283" s="1" t="inlineStr">
@@ -7052,19 +7052,19 @@
       </c>
       <c r="D283" s="4" t="inlineStr">
         <is>
-          <t>**maa://39172</t>
+          <t>maa://39171</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="inlineStr">
         <is>
-          <t>空构</t>
+          <t>淬羽赫默</t>
         </is>
       </c>
       <c r="B284" s="2" t="inlineStr">
         <is>
-          <t>DM-2</t>
+          <t>6-3</t>
         </is>
       </c>
       <c r="C284" s="1" t="inlineStr">
@@ -7074,41 +7074,41 @@
       </c>
       <c r="D284" s="4" t="inlineStr">
         <is>
-          <t>maa://39173</t>
+          <t>maa://27939</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="inlineStr">
         <is>
-          <t>圣约送葬人</t>
+          <t>霍尔海雅</t>
         </is>
       </c>
       <c r="B285" s="2" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>OF-7</t>
         </is>
       </c>
       <c r="C285" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D285" s="4" t="inlineStr">
         <is>
-          <t>maa://25775, *maa://25393</t>
+          <t>maa://29129</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="inlineStr">
         <is>
-          <t>寒檀</t>
+          <t>霍尔海雅</t>
         </is>
       </c>
       <c r="B286" s="2" t="inlineStr">
         <is>
-          <t>BI-2</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C286" s="1" t="inlineStr">
@@ -7118,19 +7118,19 @@
       </c>
       <c r="D286" s="4" t="inlineStr">
         <is>
-          <t>maa://40161</t>
+          <t>maa://36005</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="inlineStr">
         <is>
-          <t>提丰</t>
+          <t>缪尔赛思</t>
         </is>
       </c>
       <c r="B287" s="2" t="inlineStr">
         <is>
-          <t>S2-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C287" s="1" t="inlineStr">
@@ -7140,19 +7140,19 @@
       </c>
       <c r="D287" s="4" t="inlineStr">
         <is>
-          <t>maa://25367</t>
+          <t>maa://35859</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="inlineStr">
         <is>
-          <t>苍苔</t>
+          <t>隐现</t>
         </is>
       </c>
       <c r="B288" s="2" t="inlineStr">
         <is>
-          <t>9-3</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C288" s="1" t="inlineStr">
@@ -7162,41 +7162,41 @@
       </c>
       <c r="D288" s="4" t="inlineStr">
         <is>
-          <t>maa://28070</t>
+          <t>**maa://39172</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="inlineStr">
         <is>
-          <t>青枳</t>
+          <t>空构</t>
         </is>
       </c>
       <c r="B289" s="2" t="inlineStr">
         <is>
-          <t>OF-5</t>
+          <t>DM-2</t>
         </is>
       </c>
       <c r="C289" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D289" s="4" t="inlineStr">
         <is>
-          <t>maa://31559, maa://28241</t>
+          <t>maa://39173</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="inlineStr">
         <is>
-          <t>琳琅诗怀雅</t>
+          <t>圣约送葬人</t>
         </is>
       </c>
       <c r="B290" s="2" t="inlineStr">
         <is>
-          <t>5-2</t>
+          <t>7-14</t>
         </is>
       </c>
       <c r="C290" s="1" t="inlineStr">
@@ -7206,19 +7206,19 @@
       </c>
       <c r="D290" s="4" t="inlineStr">
         <is>
-          <t>maa://25773, *maa://26088</t>
+          <t>maa://25775, *maa://25393</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="inlineStr">
         <is>
-          <t>琳琅诗怀雅</t>
+          <t>寒檀</t>
         </is>
       </c>
       <c r="B291" s="2" t="inlineStr">
         <is>
-          <t>11-16</t>
+          <t>BI-2</t>
         </is>
       </c>
       <c r="C291" s="1" t="inlineStr">
@@ -7228,41 +7228,41 @@
       </c>
       <c r="D291" s="4" t="inlineStr">
         <is>
-          <t>maa://39239</t>
+          <t>maa://40161</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="inlineStr">
         <is>
-          <t>纯烬艾雅法拉</t>
+          <t>提丰</t>
         </is>
       </c>
       <c r="B292" s="2" t="inlineStr">
         <is>
-          <t>FC-5</t>
+          <t>S2-1</t>
         </is>
       </c>
       <c r="C292" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D292" s="4" t="inlineStr">
         <is>
-          <t>maa://39692, *maa://39810</t>
+          <t>maa://25367</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="inlineStr">
         <is>
-          <t>冰酿</t>
+          <t>苍苔</t>
         </is>
       </c>
       <c r="B293" s="2" t="inlineStr">
         <is>
-          <t>S3-3</t>
+          <t>9-3</t>
         </is>
       </c>
       <c r="C293" s="1" t="inlineStr">
@@ -7272,41 +7272,41 @@
       </c>
       <c r="D293" s="4" t="inlineStr">
         <is>
-          <t>maa://39174</t>
+          <t>maa://28070</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="inlineStr">
         <is>
-          <t>杏仁</t>
+          <t>青枳</t>
         </is>
       </c>
       <c r="B294" s="2" t="inlineStr">
         <is>
-          <t>BI-2</t>
+          <t>OF-5</t>
         </is>
       </c>
       <c r="C294" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D294" s="4" t="inlineStr">
         <is>
-          <t>maa://39175</t>
+          <t>maa://31559, maa://28241</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="inlineStr">
         <is>
-          <t>涤火杰西卡</t>
+          <t>琳琅诗怀雅</t>
         </is>
       </c>
       <c r="B295" s="2" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>5-2</t>
         </is>
       </c>
       <c r="C295" s="1" t="inlineStr">
@@ -7316,19 +7316,19 @@
       </c>
       <c r="D295" s="4" t="inlineStr">
         <is>
-          <t>maa://34867, maa://34715</t>
+          <t>maa://25773, *maa://26088</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="inlineStr">
         <is>
-          <t>维荻</t>
+          <t>琳琅诗怀雅</t>
         </is>
       </c>
       <c r="B296" s="2" t="inlineStr">
         <is>
-          <t>9-3</t>
+          <t>11-16</t>
         </is>
       </c>
       <c r="C296" s="1" t="inlineStr">
@@ -7338,41 +7338,41 @@
       </c>
       <c r="D296" s="4" t="inlineStr">
         <is>
-          <t>maa://39176</t>
+          <t>maa://39239</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="inlineStr">
         <is>
-          <t>戴菲恩</t>
+          <t>纯烬艾雅法拉</t>
         </is>
       </c>
       <c r="B297" s="2" t="inlineStr">
         <is>
-          <t>WD-6</t>
+          <t>FC-5</t>
         </is>
       </c>
       <c r="C297" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D297" s="4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://39692, *maa://39810</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="inlineStr">
         <is>
-          <t>刺玫</t>
+          <t>冰酿</t>
         </is>
       </c>
       <c r="B298" s="2" t="inlineStr">
         <is>
-          <t>IC-2</t>
+          <t>S3-3</t>
         </is>
       </c>
       <c r="C298" s="1" t="inlineStr">
@@ -7382,19 +7382,19 @@
       </c>
       <c r="D298" s="4" t="inlineStr">
         <is>
-          <t>maa://30680</t>
+          <t>maa://39174</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="inlineStr">
         <is>
-          <t>赫德雷</t>
+          <t>杏仁</t>
         </is>
       </c>
       <c r="B299" s="2" t="inlineStr">
         <is>
-          <t>IW-7</t>
+          <t>BI-2</t>
         </is>
       </c>
       <c r="C299" s="1" t="inlineStr">
@@ -7404,41 +7404,41 @@
       </c>
       <c r="D299" s="4" t="inlineStr">
         <is>
-          <t>maa://40956</t>
+          <t>maa://39175</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="inlineStr">
         <is>
-          <t>深律</t>
+          <t>涤火杰西卡</t>
         </is>
       </c>
       <c r="B300" s="2" t="inlineStr">
         <is>
-          <t>LE-4</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C300" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D300" s="4" t="inlineStr">
         <is>
-          <t>**maa://39178</t>
+          <t>maa://34867, maa://34715</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="inlineStr">
         <is>
-          <t>止颂</t>
+          <t>维荻</t>
         </is>
       </c>
       <c r="B301" s="2" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>9-3</t>
         </is>
       </c>
       <c r="C301" s="1" t="inlineStr">
@@ -7448,41 +7448,41 @@
       </c>
       <c r="D301" s="4" t="inlineStr">
         <is>
-          <t>maa://34205</t>
+          <t>maa://39176</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="inlineStr">
         <is>
-          <t>哈洛德</t>
+          <t>戴菲恩</t>
         </is>
       </c>
       <c r="B302" s="2" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>WD-6</t>
         </is>
       </c>
       <c r="C302" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D302" s="4" t="inlineStr">
         <is>
-          <t>*maa://40162</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="inlineStr">
         <is>
-          <t>烈夏</t>
+          <t>刺玫</t>
         </is>
       </c>
       <c r="B303" s="2" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>IC-2</t>
         </is>
       </c>
       <c r="C303" s="1" t="inlineStr">
@@ -7492,41 +7492,41 @@
       </c>
       <c r="D303" s="4" t="inlineStr">
         <is>
-          <t>maa://37692</t>
+          <t>maa://30680</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="inlineStr">
         <is>
-          <t>锏</t>
+          <t>赫德雷</t>
         </is>
       </c>
       <c r="B304" s="2" t="inlineStr">
         <is>
-          <t>BI-6</t>
+          <t>IW-7</t>
         </is>
       </c>
       <c r="C304" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D304" s="4" t="inlineStr">
         <is>
-          <t>maa://30671, maa://30669, maa://37275, *maa://32410, maa://33671, maa://41605</t>
+          <t>maa://40956</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="inlineStr">
         <is>
-          <t>莱伊</t>
+          <t>深律</t>
         </is>
       </c>
       <c r="B305" s="2" t="inlineStr">
         <is>
-          <t>S9-1</t>
+          <t>LE-4</t>
         </is>
       </c>
       <c r="C305" s="1" t="inlineStr">
@@ -7536,19 +7536,19 @@
       </c>
       <c r="D305" s="4" t="inlineStr">
         <is>
-          <t>maa://38295</t>
+          <t>**maa://39178</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="inlineStr">
         <is>
-          <t>万顷</t>
+          <t>止颂</t>
         </is>
       </c>
       <c r="B306" s="2" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="C306" s="1" t="inlineStr">
@@ -7558,19 +7558,19 @@
       </c>
       <c r="D306" s="4" t="inlineStr">
         <is>
-          <t>maa://32417</t>
+          <t>maa://34205</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="inlineStr">
         <is>
-          <t>小满</t>
+          <t>哈洛德</t>
         </is>
       </c>
       <c r="B307" s="2" t="inlineStr">
         <is>
-          <t>9-11</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="C307" s="1" t="inlineStr">
@@ -7580,19 +7580,19 @@
       </c>
       <c r="D307" s="4" t="inlineStr">
         <is>
-          <t>maa://32419</t>
+          <t>*maa://40162</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="inlineStr">
         <is>
-          <t>左乐</t>
+          <t>烈夏</t>
         </is>
       </c>
       <c r="B308" s="2" t="inlineStr">
         <is>
-          <t>WB-5</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C308" s="1" t="inlineStr">
@@ -7602,41 +7602,41 @@
       </c>
       <c r="D308" s="4" t="inlineStr">
         <is>
-          <t>maa://32416</t>
+          <t>maa://37692</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="inlineStr">
         <is>
-          <t>黍</t>
+          <t>锏</t>
         </is>
       </c>
       <c r="B309" s="2" t="inlineStr">
         <is>
-          <t>11-11</t>
+          <t>BI-6</t>
         </is>
       </c>
       <c r="C309" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D309" s="4" t="inlineStr">
         <is>
-          <t>maa://32647, maa://32415, maa://34677, maa://32892</t>
+          <t>maa://30671, maa://30669, maa://37275, *maa://32410, maa://41605, maa://33671</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="inlineStr">
         <is>
-          <t>红隼</t>
+          <t>莱伊</t>
         </is>
       </c>
       <c r="B310" s="2" t="inlineStr">
         <is>
-          <t>11-18</t>
+          <t>S9-1</t>
         </is>
       </c>
       <c r="C310" s="1" t="inlineStr">
@@ -7646,19 +7646,19 @@
       </c>
       <c r="D310" s="4" t="inlineStr">
         <is>
-          <t>maa://32420</t>
+          <t>maa://38295</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="inlineStr">
         <is>
-          <t>导火索</t>
+          <t>万顷</t>
         </is>
       </c>
       <c r="B311" s="2" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="C311" s="1" t="inlineStr">
@@ -7668,19 +7668,19 @@
       </c>
       <c r="D311" s="4" t="inlineStr">
         <is>
-          <t>maa://35606</t>
+          <t>maa://32417</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="inlineStr">
         <is>
-          <t>双月</t>
+          <t>小满</t>
         </is>
       </c>
       <c r="B312" s="2" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>9-11</t>
         </is>
       </c>
       <c r="C312" s="1" t="inlineStr">
@@ -7690,19 +7690,19 @@
       </c>
       <c r="D312" s="4" t="inlineStr">
         <is>
-          <t>maa://34716</t>
+          <t>maa://32419</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="inlineStr">
         <is>
-          <t>医生</t>
+          <t>左乐</t>
         </is>
       </c>
       <c r="B313" s="2" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>WB-5</t>
         </is>
       </c>
       <c r="C313" s="1" t="inlineStr">
@@ -7712,41 +7712,41 @@
       </c>
       <c r="D313" s="4" t="inlineStr">
         <is>
-          <t>maa://39179</t>
+          <t>maa://32416</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="inlineStr">
         <is>
-          <t>艾拉</t>
+          <t>黍</t>
         </is>
       </c>
       <c r="B314" s="2" t="inlineStr">
         <is>
-          <t>DM-EX-1</t>
+          <t>11-11</t>
         </is>
       </c>
       <c r="C314" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D314" s="4" t="inlineStr">
         <is>
-          <t>maa://34865, maa://34717</t>
+          <t>maa://32647, maa://32415, maa://34677, maa://32892</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="inlineStr">
         <is>
-          <t>露托</t>
+          <t>红隼</t>
         </is>
       </c>
       <c r="B315" s="2" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>11-18</t>
         </is>
       </c>
       <c r="C315" s="1" t="inlineStr">
@@ -7756,19 +7756,19 @@
       </c>
       <c r="D315" s="4" t="inlineStr">
         <is>
-          <t>maa://39180</t>
+          <t>maa://32420</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="inlineStr">
         <is>
-          <t>阿罗玛</t>
+          <t>导火索</t>
         </is>
       </c>
       <c r="B316" s="2" t="inlineStr">
         <is>
-          <t>GT-HX-3</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C316" s="1" t="inlineStr">
@@ -7778,41 +7778,41 @@
       </c>
       <c r="D316" s="4" t="inlineStr">
         <is>
-          <t>*maa://39181</t>
+          <t>maa://35606</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="inlineStr">
         <is>
-          <t>阿斯卡纶</t>
+          <t>双月</t>
         </is>
       </c>
       <c r="B317" s="2" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C317" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D317" s="4" t="inlineStr">
         <is>
-          <t>maa://36868, maa://35996</t>
+          <t>maa://34716</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="inlineStr">
         <is>
-          <t>历阵锐枪芬</t>
+          <t>医生</t>
         </is>
       </c>
       <c r="B318" s="2" t="inlineStr">
         <is>
-          <t>4-2</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C318" s="1" t="inlineStr">
@@ -7822,19 +7822,19 @@
       </c>
       <c r="D318" s="4" t="inlineStr">
         <is>
-          <t>maa://36647</t>
+          <t>maa://39179</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="inlineStr">
         <is>
-          <t>逻各斯</t>
+          <t>艾拉</t>
         </is>
       </c>
       <c r="B319" s="2" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>DM-EX-1</t>
         </is>
       </c>
       <c r="C319" s="1" t="inlineStr">
@@ -7844,85 +7844,85 @@
       </c>
       <c r="D319" s="4" t="inlineStr">
         <is>
-          <t>maa://36646, maa://36845</t>
+          <t>maa://34865, maa://34717</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="inlineStr">
         <is>
-          <t>维什戴尔</t>
+          <t>露托</t>
         </is>
       </c>
       <c r="B320" s="2" t="inlineStr">
         <is>
-          <t>DM-5</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C320" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D320" s="4" t="inlineStr">
         <is>
-          <t>maa://36645, maa://36841, maa://37484, maa://37858</t>
+          <t>maa://39180</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="inlineStr">
         <is>
-          <t>阿米娅(医疗)</t>
+          <t>阿罗玛</t>
         </is>
       </c>
       <c r="B321" s="2" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>GT-HX-3</t>
         </is>
       </c>
       <c r="C321" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D321" s="4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>*maa://39181</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="inlineStr">
         <is>
-          <t>深巡</t>
+          <t>阿斯卡纶</t>
         </is>
       </c>
       <c r="B322" s="2" t="inlineStr">
         <is>
-          <t>SN-5</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C322" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D322" s="4" t="inlineStr">
         <is>
-          <t>maa://39183</t>
+          <t>maa://36868, maa://35996</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="inlineStr">
         <is>
-          <t>海霓</t>
+          <t>历阵锐枪芬</t>
         </is>
       </c>
       <c r="B323" s="2" t="inlineStr">
         <is>
-          <t>SV-4</t>
+          <t>4-2</t>
         </is>
       </c>
       <c r="C323" s="1" t="inlineStr">
@@ -7932,85 +7932,85 @@
       </c>
       <c r="D323" s="4" t="inlineStr">
         <is>
-          <t>maa://39184</t>
+          <t>maa://36647</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="inlineStr">
         <is>
-          <t>乌尔比安</t>
+          <t>魔王</t>
         </is>
       </c>
       <c r="B324" s="2" t="inlineStr">
         <is>
-          <t>SV-6</t>
+          <t>14-5</t>
         </is>
       </c>
       <c r="C324" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D324" s="4" t="inlineStr">
         <is>
-          <t>*maa://40957, *maa://41128, *maa://41035</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="inlineStr">
         <is>
-          <t>渡桥</t>
+          <t>逻各斯</t>
         </is>
       </c>
       <c r="B325" s="2" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C325" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D325" s="4" t="inlineStr">
         <is>
-          <t>maa://40164</t>
+          <t>maa://36646, maa://36845</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="inlineStr">
         <is>
-          <t>衡沙</t>
+          <t>维什戴尔</t>
         </is>
       </c>
       <c r="B326" s="2" t="inlineStr">
         <is>
-          <t>DV-2</t>
+          <t>DM-5</t>
         </is>
       </c>
       <c r="C326" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D326" s="4" t="inlineStr">
         <is>
-          <t>maa://40165</t>
+          <t>maa://36645, maa://36841, maa://37484, maa://37858</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="inlineStr">
         <is>
-          <t>森西</t>
+          <t>阿米娅(医疗)</t>
         </is>
       </c>
       <c r="B327" s="2" t="inlineStr">
         <is>
-          <t>1-12</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C327" s="1" t="inlineStr">
@@ -8027,66 +8027,220 @@
     <row r="328">
       <c r="A328" s="2" t="inlineStr">
         <is>
-          <t>齐尔查克</t>
+          <t>深巡</t>
         </is>
       </c>
       <c r="B328" s="2" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>SN-5</t>
         </is>
       </c>
       <c r="C328" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D328" s="4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://39183</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="inlineStr">
         <is>
-          <t>莱欧斯</t>
+          <t>海霓</t>
         </is>
       </c>
       <c r="B329" s="2" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>SV-4</t>
         </is>
       </c>
       <c r="C329" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D329" s="4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://39184</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="inlineStr">
         <is>
+          <t>乌尔比安</t>
+        </is>
+      </c>
+      <c r="B330" s="2" t="inlineStr">
+        <is>
+          <t>SV-6</t>
+        </is>
+      </c>
+      <c r="C330" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D330" s="4" t="inlineStr">
+        <is>
+          <t>*maa://40957, *maa://41128, *maa://41035</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>渡桥</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>3-1</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>maa://40164</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>衡沙</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>DV-2</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>maa://40165</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>森西</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>1-12</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>齐尔查克</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>4-3</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>莱欧斯</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>2-4</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
           <t>玛露西尔</t>
         </is>
       </c>
-      <c r="B330" s="2" t="inlineStr">
+      <c r="B336" t="inlineStr">
         <is>
           <t>5-10</t>
         </is>
       </c>
-      <c r="C330" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D330" s="4" t="inlineStr">
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
         <is>
           <t>maa://41110</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>凯瑟琳</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>11-7</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -504,7 +504,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="7" t="inlineStr">
         <is>
-          <t>更新日期：2024.10.10 07:31:09</t>
+          <t>更新日期：2024.10.11 13:17:47</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -3675,12 +3675,12 @@
       </c>
       <c r="C129" s="9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D129" s="10" t="inlineStr">
         <is>
-          <t>maa://23020, maa://29023, maa://34319, *maa://39515</t>
+          <t>maa://23020, maa://29023, maa://34319, *maa://39515, maa://41690</t>
         </is>
       </c>
     </row>
@@ -5061,12 +5061,12 @@
       </c>
       <c r="C192" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D192" s="10" t="inlineStr">
         <is>
-          <t>maa://42223, maa://42292</t>
+          <t>maa://42223, maa://42292, maa://42402</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -504,7 +504,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="7" t="inlineStr">
         <is>
-          <t>更新日期：2024.10.11 13:17:47</t>
+          <t>更新日期：2024.10.14 13:18:38</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -2025,12 +2025,12 @@
       </c>
       <c r="C54" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D54" s="10" t="inlineStr">
         <is>
-          <t>maa://20932, maa://40838</t>
+          <t>maa://20932, maa://40838, maa://42415</t>
         </is>
       </c>
     </row>
@@ -6689,12 +6689,12 @@
       </c>
       <c r="C266" s="9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D266" s="10" t="inlineStr">
         <is>
-          <t>**maa://39165</t>
+          <t>None</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -504,7 +504,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="7" t="inlineStr">
         <is>
-          <t>更新日期：2024.10.14 13:18:38</t>
+          <t>更新日期：2024.10.15 13:18:52</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -8102,7 +8102,7 @@
       </c>
       <c r="D330" s="10" t="inlineStr">
         <is>
-          <t>*maa://40957, *maa://41128, *maa://41035</t>
+          <t>maa://40957, *maa://41128, *maa://41035</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -504,7 +504,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="7" t="inlineStr">
         <is>
-          <t>更新日期：2024.10.15 13:18:52</t>
+          <t>更新日期：2024.10.17 12:52:30</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -504,7 +504,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="7" t="inlineStr">
         <is>
-          <t>更新日期：2024.10.17 12:52:30</t>
+          <t>更新日期：2024.10.18 13:18:38</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -8102,7 +8102,7 @@
       </c>
       <c r="D330" s="10" t="inlineStr">
         <is>
-          <t>maa://40957, *maa://41128, *maa://41035</t>
+          <t>*maa://40957, *maa://41128, *maa://41035</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -504,7 +504,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="7" t="inlineStr">
         <is>
-          <t>更新日期：2024.10.18 13:18:38</t>
+          <t>更新日期：2024.10.19 13:16:59</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -504,7 +504,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="7" t="inlineStr">
         <is>
-          <t>更新日期：2024.10.19 13:16:59</t>
+          <t>更新日期：2024.10.20 13:17:20</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -1541,12 +1541,12 @@
       </c>
       <c r="C32" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D32" s="10" t="inlineStr">
         <is>
-          <t>maa://30500, *maa://27290</t>
+          <t>maa://30500, *maa://27290, maa://42154</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -504,7 +504,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="7" t="inlineStr">
         <is>
-          <t>更新日期：2024.10.20 13:17:20</t>
+          <t>更新日期：2024.10.23 13:18:28</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -6051,12 +6051,12 @@
       </c>
       <c r="C237" s="9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D237" s="13" t="inlineStr">
         <is>
-          <t>maa://42287</t>
+          <t>maa://42287, maa://42225</t>
         </is>
       </c>
     </row>
@@ -7970,7 +7970,7 @@
       </c>
       <c r="D324" s="10" t="inlineStr">
         <is>
-          <t>*maa://42224, maa://42299</t>
+          <t>**maa://42224, maa://42299</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -504,7 +504,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="7" t="inlineStr">
         <is>
-          <t>更新日期：2024.10.23 13:18:28</t>
+          <t>更新日期：2024.10.26 13:17:09</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -7970,7 +7970,7 @@
       </c>
       <c r="D324" s="10" t="inlineStr">
         <is>
-          <t>**maa://42224, maa://42299</t>
+          <t>maa://42299, **maa://42224</t>
         </is>
       </c>
     </row>
@@ -8102,7 +8102,7 @@
       </c>
       <c r="D330" s="10" t="inlineStr">
         <is>
-          <t>*maa://40957, *maa://41128, *maa://41035</t>
+          <t>maa://40957, *maa://41128, maa://41035</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -504,7 +504,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="7" t="inlineStr">
         <is>
-          <t>更新日期：2024.10.26 13:17:09</t>
+          <t>更新日期：2024.10.27 09:37:37</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -1629,12 +1629,12 @@
       </c>
       <c r="C36" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D36" s="10" t="inlineStr">
         <is>
-          <t>maa://27376, **maa://20838</t>
+          <t>maa://27376, **maa://20838, maa://42635</t>
         </is>
       </c>
     </row>
@@ -3812,7 +3812,7 @@
       </c>
       <c r="D135" s="10" t="inlineStr">
         <is>
-          <t>**maa://30679</t>
+          <t>*maa://30679</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -504,7 +504,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="7" t="inlineStr">
         <is>
-          <t>更新日期：2024.10.27 09:37:37</t>
+          <t>更新日期：2024.10.27 13:17:45</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -7398,7 +7398,7 @@
       </c>
       <c r="D298" s="10" t="inlineStr">
         <is>
-          <t>maa://39174</t>
+          <t>*maa://39174</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -457,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB337"/>
+  <dimension ref="A1:AB345"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
@@ -504,7 +504,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="7" t="inlineStr">
         <is>
-          <t>更新日期：2024.10.27 13:17:45</t>
+          <t>更新日期：2024.11.02 13:17:28</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -2316,7 +2316,7 @@
       </c>
       <c r="D67" s="10" t="inlineStr">
         <is>
-          <t>maa://28784, maa://29088, maa://20974, maa://31124, maa://28950, *maa://33612, maa://29087, *maa://20823, *maa://41832</t>
+          <t>maa://28784, maa://29088, maa://20974, maa://31124, maa://28950, *maa://33612, maa://29087, *maa://20823, maa://41832</t>
         </is>
       </c>
     </row>
@@ -4027,12 +4027,12 @@
       </c>
       <c r="C145" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D145" s="10" t="inlineStr">
         <is>
-          <t>maa://36641, maa://36865, maa://37300</t>
+          <t>maa://36641, maa://36865, maa://37300, maa://42918</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4384,7 @@
       </c>
       <c r="D161" s="10" t="inlineStr">
         <is>
-          <t>maa://29627, maa://29633, maa://29659, maa://29861</t>
+          <t>maa://29633, maa://29627, maa://29659, maa://29861</t>
         </is>
       </c>
     </row>
@@ -4516,7 +4516,7 @@
       </c>
       <c r="D167" s="10" t="inlineStr">
         <is>
-          <t>*maa://37690</t>
+          <t>maa://37690</t>
         </is>
       </c>
     </row>
@@ -5946,7 +5946,7 @@
       </c>
       <c r="D232" s="10" t="inlineStr">
         <is>
-          <t>maa://20867, *maa://32202, *maa://38485</t>
+          <t>maa://20867, *maa://32202, maa://38485</t>
         </is>
       </c>
     </row>
@@ -6738,7 +6738,7 @@
       </c>
       <c r="D268" s="10" t="inlineStr">
         <is>
-          <t>maa://38296</t>
+          <t>*maa://38296</t>
         </is>
       </c>
     </row>
@@ -7273,56 +7273,56 @@
     <row r="293">
       <c r="A293" s="8" t="inlineStr">
         <is>
-          <t>苍苔</t>
+          <t>凛视</t>
         </is>
       </c>
       <c r="B293" s="8" t="inlineStr">
         <is>
-          <t>9-3</t>
+          <t>7-13</t>
         </is>
       </c>
       <c r="C293" s="9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D293" s="10" t="inlineStr">
         <is>
-          <t>maa://28070</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="8" t="inlineStr">
         <is>
-          <t>青枳</t>
+          <t>苍苔</t>
         </is>
       </c>
       <c r="B294" s="8" t="inlineStr">
         <is>
-          <t>OF-5</t>
+          <t>9-3</t>
         </is>
       </c>
       <c r="C294" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D294" s="10" t="inlineStr">
         <is>
-          <t>maa://31559, maa://28241</t>
+          <t>maa://28070</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="8" t="inlineStr">
         <is>
-          <t>琳琅诗怀雅</t>
+          <t>青枳</t>
         </is>
       </c>
       <c r="B295" s="8" t="inlineStr">
         <is>
-          <t>5-2</t>
+          <t>OF-5</t>
         </is>
       </c>
       <c r="C295" s="9" t="inlineStr">
@@ -7332,7 +7332,7 @@
       </c>
       <c r="D295" s="10" t="inlineStr">
         <is>
-          <t>maa://25773, *maa://26088</t>
+          <t>maa://31559, maa://28241</t>
         </is>
       </c>
     </row>
@@ -7344,73 +7344,73 @@
       </c>
       <c r="B296" s="8" t="inlineStr">
         <is>
-          <t>11-16</t>
+          <t>5-2</t>
         </is>
       </c>
       <c r="C296" s="9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D296" s="10" t="inlineStr">
         <is>
-          <t>maa://39239</t>
+          <t>maa://25773, *maa://26088</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="8" t="inlineStr">
         <is>
-          <t>纯烬艾雅法拉</t>
+          <t>琳琅诗怀雅</t>
         </is>
       </c>
       <c r="B297" s="8" t="inlineStr">
         <is>
-          <t>FC-5</t>
+          <t>11-16</t>
         </is>
       </c>
       <c r="C297" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D297" s="10" t="inlineStr">
         <is>
-          <t>maa://39692, *maa://39810</t>
+          <t>maa://39239</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="8" t="inlineStr">
         <is>
-          <t>冰酿</t>
+          <t>纯烬艾雅法拉</t>
         </is>
       </c>
       <c r="B298" s="8" t="inlineStr">
         <is>
-          <t>S3-3</t>
+          <t>FC-5</t>
         </is>
       </c>
       <c r="C298" s="9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D298" s="10" t="inlineStr">
         <is>
-          <t>*maa://39174</t>
+          <t>maa://39692, *maa://39810</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="8" t="inlineStr">
         <is>
-          <t>杏仁</t>
+          <t>冰酿</t>
         </is>
       </c>
       <c r="B299" s="8" t="inlineStr">
         <is>
-          <t>BI-2</t>
+          <t>S3-3</t>
         </is>
       </c>
       <c r="C299" s="9" t="inlineStr">
@@ -7420,63 +7420,63 @@
       </c>
       <c r="D299" s="10" t="inlineStr">
         <is>
-          <t>maa://39175</t>
+          <t>*maa://39174</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="8" t="inlineStr">
         <is>
-          <t>涤火杰西卡</t>
+          <t>杏仁</t>
         </is>
       </c>
       <c r="B300" s="8" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>BI-2</t>
         </is>
       </c>
       <c r="C300" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D300" s="10" t="inlineStr">
         <is>
-          <t>maa://34867, maa://34715</t>
+          <t>maa://39175</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="8" t="inlineStr">
         <is>
-          <t>维荻</t>
+          <t>涤火杰西卡</t>
         </is>
       </c>
       <c r="B301" s="8" t="inlineStr">
         <is>
-          <t>9-3</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C301" s="9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D301" s="10" t="inlineStr">
         <is>
-          <t>maa://39176</t>
+          <t>maa://34867, maa://34715</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="8" t="inlineStr">
         <is>
-          <t>戴菲恩</t>
+          <t>维荻</t>
         </is>
       </c>
       <c r="B302" s="8" t="inlineStr">
         <is>
-          <t>WD-6</t>
+          <t>9-3</t>
         </is>
       </c>
       <c r="C302" s="9" t="inlineStr">
@@ -7486,19 +7486,19 @@
       </c>
       <c r="D302" s="10" t="inlineStr">
         <is>
-          <t>maa://42316</t>
+          <t>maa://39176</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="8" t="inlineStr">
         <is>
-          <t>刺玫</t>
+          <t>戴菲恩</t>
         </is>
       </c>
       <c r="B303" s="8" t="inlineStr">
         <is>
-          <t>IC-2</t>
+          <t>WD-6</t>
         </is>
       </c>
       <c r="C303" s="9" t="inlineStr">
@@ -7508,19 +7508,19 @@
       </c>
       <c r="D303" s="10" t="inlineStr">
         <is>
-          <t>maa://30680</t>
+          <t>maa://42316</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="8" t="inlineStr">
         <is>
-          <t>赫德雷</t>
+          <t>刺玫</t>
         </is>
       </c>
       <c r="B304" s="8" t="inlineStr">
         <is>
-          <t>IW-7</t>
+          <t>IC-2</t>
         </is>
       </c>
       <c r="C304" s="9" t="inlineStr">
@@ -7530,19 +7530,19 @@
       </c>
       <c r="D304" s="10" t="inlineStr">
         <is>
-          <t>maa://40956</t>
+          <t>maa://30680</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="8" t="inlineStr">
         <is>
-          <t>深律</t>
+          <t>赫德雷</t>
         </is>
       </c>
       <c r="B305" s="8" t="inlineStr">
         <is>
-          <t>LE-4</t>
+          <t>IW-7</t>
         </is>
       </c>
       <c r="C305" s="9" t="inlineStr">
@@ -7552,19 +7552,19 @@
       </c>
       <c r="D305" s="10" t="inlineStr">
         <is>
-          <t>**maa://39178</t>
+          <t>maa://40956</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="8" t="inlineStr">
         <is>
-          <t>止颂</t>
+          <t>深律</t>
         </is>
       </c>
       <c r="B306" s="8" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>LE-4</t>
         </is>
       </c>
       <c r="C306" s="9" t="inlineStr">
@@ -7574,19 +7574,19 @@
       </c>
       <c r="D306" s="10" t="inlineStr">
         <is>
-          <t>maa://34205</t>
+          <t>**maa://39178</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="8" t="inlineStr">
         <is>
-          <t>哈洛德</t>
+          <t>止颂</t>
         </is>
       </c>
       <c r="B307" s="8" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="C307" s="9" t="inlineStr">
@@ -7596,63 +7596,63 @@
       </c>
       <c r="D307" s="10" t="inlineStr">
         <is>
-          <t>*maa://40162</t>
+          <t>maa://34205</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="8" t="inlineStr">
         <is>
-          <t>烈夏</t>
+          <t>止颂</t>
         </is>
       </c>
       <c r="B308" s="8" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>TW-5</t>
         </is>
       </c>
       <c r="C308" s="9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D308" s="10" t="inlineStr">
         <is>
-          <t>maa://37692</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="8" t="inlineStr">
         <is>
-          <t>锏</t>
+          <t>塑心</t>
         </is>
       </c>
       <c r="B309" s="8" t="inlineStr">
         <is>
-          <t>BI-6</t>
+          <t>GA-7</t>
         </is>
       </c>
       <c r="C309" s="9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D309" s="10" t="inlineStr">
         <is>
-          <t>maa://30671, maa://30669, maa://37275, *maa://32410, maa://41605, maa://33671</t>
+          <t>maa://42968</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="8" t="inlineStr">
         <is>
-          <t>莱伊</t>
+          <t>哈洛德</t>
         </is>
       </c>
       <c r="B310" s="8" t="inlineStr">
         <is>
-          <t>S9-1</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="C310" s="9" t="inlineStr">
@@ -7662,19 +7662,19 @@
       </c>
       <c r="D310" s="10" t="inlineStr">
         <is>
-          <t>maa://38295</t>
+          <t>*maa://40162</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="8" t="inlineStr">
         <is>
-          <t>万顷</t>
+          <t>烈夏</t>
         </is>
       </c>
       <c r="B311" s="8" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C311" s="9" t="inlineStr">
@@ -7684,41 +7684,41 @@
       </c>
       <c r="D311" s="10" t="inlineStr">
         <is>
-          <t>maa://32417</t>
+          <t>maa://37692</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="8" t="inlineStr">
         <is>
-          <t>小满</t>
+          <t>锏</t>
         </is>
       </c>
       <c r="B312" s="8" t="inlineStr">
         <is>
-          <t>9-11</t>
+          <t>BI-6</t>
         </is>
       </c>
       <c r="C312" s="9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D312" s="10" t="inlineStr">
         <is>
-          <t>maa://32419</t>
+          <t>maa://30671, maa://30669, maa://37275, *maa://32410, maa://41605, maa://33671</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="8" t="inlineStr">
         <is>
-          <t>左乐</t>
+          <t>莱伊</t>
         </is>
       </c>
       <c r="B313" s="8" t="inlineStr">
         <is>
-          <t>WB-5</t>
+          <t>S9-1</t>
         </is>
       </c>
       <c r="C313" s="9" t="inlineStr">
@@ -7728,41 +7728,41 @@
       </c>
       <c r="D313" s="10" t="inlineStr">
         <is>
-          <t>maa://32416</t>
+          <t>maa://38295</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="8" t="inlineStr">
         <is>
-          <t>黍</t>
+          <t>万顷</t>
         </is>
       </c>
       <c r="B314" s="8" t="inlineStr">
         <is>
-          <t>11-11</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="C314" s="9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D314" s="10" t="inlineStr">
         <is>
-          <t>maa://32647, maa://32415, maa://34677, maa://32892</t>
+          <t>maa://32417</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="8" t="inlineStr">
         <is>
-          <t>红隼</t>
+          <t>小满</t>
         </is>
       </c>
       <c r="B315" s="8" t="inlineStr">
         <is>
-          <t>11-18</t>
+          <t>9-11</t>
         </is>
       </c>
       <c r="C315" s="9" t="inlineStr">
@@ -7772,19 +7772,19 @@
       </c>
       <c r="D315" s="10" t="inlineStr">
         <is>
-          <t>maa://32420</t>
+          <t>maa://32419</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="8" t="inlineStr">
         <is>
-          <t>导火索</t>
+          <t>左乐</t>
         </is>
       </c>
       <c r="B316" s="8" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>WB-5</t>
         </is>
       </c>
       <c r="C316" s="9" t="inlineStr">
@@ -7794,41 +7794,41 @@
       </c>
       <c r="D316" s="10" t="inlineStr">
         <is>
-          <t>maa://35606</t>
+          <t>maa://32416</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="8" t="inlineStr">
         <is>
-          <t>双月</t>
+          <t>黍</t>
         </is>
       </c>
       <c r="B317" s="8" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>11-11</t>
         </is>
       </c>
       <c r="C317" s="9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D317" s="10" t="inlineStr">
         <is>
-          <t>maa://34716</t>
+          <t>maa://32647, maa://32415, maa://34677, maa://32892</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="8" t="inlineStr">
         <is>
-          <t>医生</t>
+          <t>红隼</t>
         </is>
       </c>
       <c r="B318" s="8" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>11-18</t>
         </is>
       </c>
       <c r="C318" s="9" t="inlineStr">
@@ -7838,41 +7838,41 @@
       </c>
       <c r="D318" s="10" t="inlineStr">
         <is>
-          <t>maa://39179</t>
+          <t>maa://32420</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="8" t="inlineStr">
         <is>
-          <t>艾拉</t>
+          <t>导火索</t>
         </is>
       </c>
       <c r="B319" s="8" t="inlineStr">
         <is>
-          <t>DM-EX-1</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C319" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D319" s="10" t="inlineStr">
         <is>
-          <t>maa://34865, maa://34717</t>
+          <t>maa://35606</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="8" t="inlineStr">
         <is>
-          <t>露托</t>
+          <t>双月</t>
         </is>
       </c>
       <c r="B320" s="8" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C320" s="9" t="inlineStr">
@@ -7882,19 +7882,19 @@
       </c>
       <c r="D320" s="10" t="inlineStr">
         <is>
-          <t>maa://39180</t>
+          <t>maa://34716</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="8" t="inlineStr">
         <is>
-          <t>阿罗玛</t>
+          <t>医生</t>
         </is>
       </c>
       <c r="B321" s="8" t="inlineStr">
         <is>
-          <t>GT-HX-3</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C321" s="9" t="inlineStr">
@@ -7904,19 +7904,19 @@
       </c>
       <c r="D321" s="10" t="inlineStr">
         <is>
-          <t>*maa://39181</t>
+          <t>maa://39179</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="8" t="inlineStr">
         <is>
-          <t>阿斯卡纶</t>
+          <t>艾拉</t>
         </is>
       </c>
       <c r="B322" s="8" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>DM-EX-1</t>
         </is>
       </c>
       <c r="C322" s="9" t="inlineStr">
@@ -7926,19 +7926,19 @@
       </c>
       <c r="D322" s="10" t="inlineStr">
         <is>
-          <t>maa://36868, maa://35996</t>
+          <t>maa://34865, maa://34717</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="8" t="inlineStr">
         <is>
-          <t>历阵锐枪芬</t>
+          <t>露托</t>
         </is>
       </c>
       <c r="B323" s="8" t="inlineStr">
         <is>
-          <t>4-2</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C323" s="9" t="inlineStr">
@@ -7948,36 +7948,36 @@
       </c>
       <c r="D323" s="10" t="inlineStr">
         <is>
-          <t>maa://36647</t>
+          <t>maa://39180</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="8" t="inlineStr">
         <is>
-          <t>魔王</t>
+          <t>阿罗玛</t>
         </is>
       </c>
       <c r="B324" s="8" t="inlineStr">
         <is>
-          <t>14-5</t>
+          <t>GT-HX-3</t>
         </is>
       </c>
       <c r="C324" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D324" s="10" t="inlineStr">
         <is>
-          <t>maa://42299, **maa://42224</t>
+          <t>*maa://39181</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="8" t="inlineStr">
         <is>
-          <t>逻各斯</t>
+          <t>阿斯卡纶</t>
         </is>
       </c>
       <c r="B325" s="8" t="inlineStr">
@@ -7992,129 +7992,129 @@
       </c>
       <c r="D325" s="10" t="inlineStr">
         <is>
-          <t>maa://36646, maa://36845</t>
+          <t>maa://36868, maa://35996</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="8" t="inlineStr">
         <is>
-          <t>维什戴尔</t>
+          <t>历阵锐枪芬</t>
         </is>
       </c>
       <c r="B326" s="8" t="inlineStr">
         <is>
-          <t>DM-5</t>
+          <t>4-2</t>
         </is>
       </c>
       <c r="C326" s="9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D326" s="10" t="inlineStr">
         <is>
-          <t>maa://36645, maa://36841, maa://37484, maa://37858</t>
+          <t>maa://36647</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="8" t="inlineStr">
         <is>
-          <t>阿米娅(医疗)</t>
+          <t>魔王</t>
         </is>
       </c>
       <c r="B327" s="8" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>14-5</t>
         </is>
       </c>
       <c r="C327" s="9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D327" s="10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://42299, **maa://42224</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="8" t="inlineStr">
         <is>
-          <t>深巡</t>
+          <t>逻各斯</t>
         </is>
       </c>
       <c r="B328" s="8" t="inlineStr">
         <is>
-          <t>SN-5</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C328" s="9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D328" s="10" t="inlineStr">
         <is>
-          <t>maa://39183</t>
+          <t>maa://36646, maa://36845</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="8" t="inlineStr">
         <is>
-          <t>海霓</t>
+          <t>维什戴尔</t>
         </is>
       </c>
       <c r="B329" s="8" t="inlineStr">
         <is>
-          <t>SV-4</t>
+          <t>DM-5</t>
         </is>
       </c>
       <c r="C329" s="9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D329" s="10" t="inlineStr">
         <is>
-          <t>maa://39184</t>
+          <t>maa://36645, maa://36841, maa://37484, maa://37858</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="8" t="inlineStr">
         <is>
-          <t>乌尔比安</t>
+          <t>阿米娅(医疗)</t>
         </is>
       </c>
       <c r="B330" s="8" t="inlineStr">
         <is>
-          <t>SV-6</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C330" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D330" s="10" t="inlineStr">
         <is>
-          <t>maa://40957, *maa://41128, maa://41035</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="12" t="inlineStr">
         <is>
-          <t>渡桥</t>
+          <t>深巡</t>
         </is>
       </c>
       <c r="B331" s="12" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>SN-5</t>
         </is>
       </c>
       <c r="C331" s="12" t="inlineStr">
@@ -8124,19 +8124,19 @@
       </c>
       <c r="D331" s="13" t="inlineStr">
         <is>
-          <t>maa://40164</t>
+          <t>maa://39183</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="12" t="inlineStr">
         <is>
-          <t>衡沙</t>
+          <t>海霓</t>
         </is>
       </c>
       <c r="B332" s="12" t="inlineStr">
         <is>
-          <t>DV-2</t>
+          <t>SV-4</t>
         </is>
       </c>
       <c r="C332" s="12" t="inlineStr">
@@ -8146,85 +8146,85 @@
       </c>
       <c r="D332" s="13" t="inlineStr">
         <is>
-          <t>maa://40165</t>
+          <t>maa://39184</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="12" t="inlineStr">
         <is>
-          <t>森西</t>
+          <t>乌尔比安</t>
         </is>
       </c>
       <c r="B333" s="12" t="inlineStr">
         <is>
-          <t>1-12</t>
+          <t>SV-6</t>
         </is>
       </c>
       <c r="C333" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D333" s="13" t="inlineStr">
         <is>
-          <t>maa://42331</t>
+          <t>*maa://40957, *maa://41128, maa://41035</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="12" t="inlineStr">
         <is>
-          <t>齐尔查克</t>
+          <t>渡桥</t>
         </is>
       </c>
       <c r="B334" s="12" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C334" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D334" s="13" t="inlineStr">
         <is>
-          <t>maa://41977, maa://42333</t>
+          <t>maa://40164</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="12" t="inlineStr">
         <is>
-          <t>莱欧斯</t>
+          <t>衡沙</t>
         </is>
       </c>
       <c r="B335" s="12" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>DV-2</t>
         </is>
       </c>
       <c r="C335" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D335" s="13" t="inlineStr">
         <is>
-          <t>maa://41976, maa://42338</t>
+          <t>maa://40165</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="12" t="inlineStr">
         <is>
-          <t>玛露西尔</t>
+          <t>森西</t>
         </is>
       </c>
       <c r="B336" s="12" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>1-12</t>
         </is>
       </c>
       <c r="C336" s="12" t="inlineStr">
@@ -8234,29 +8234,205 @@
       </c>
       <c r="D336" s="13" t="inlineStr">
         <is>
-          <t>maa://41110</t>
+          <t>maa://42331</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="12" t="inlineStr">
         <is>
+          <t>齐尔查克</t>
+        </is>
+      </c>
+      <c r="B337" s="12" t="inlineStr">
+        <is>
+          <t>4-3</t>
+        </is>
+      </c>
+      <c r="C337" s="12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D337" s="13" t="inlineStr">
+        <is>
+          <t>maa://42333, maa://41977</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>莱欧斯</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>2-4</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>maa://41976, maa://42338</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>玛露西尔</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>maa://41110</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
           <t>凯瑟琳</t>
         </is>
       </c>
-      <c r="B337" s="12" t="inlineStr">
+      <c r="B340" t="inlineStr">
         <is>
           <t>11-7</t>
         </is>
       </c>
-      <c r="C337" s="12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D337" s="13" t="inlineStr">
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
         <is>
           <t>maa://42343</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>波卜</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>4-8</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>裁度</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>5-8</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>弑君者</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>4-4</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>maa://39153</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>忍冬</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>S2-3</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>荒芜拉普兰德</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>IS-8</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>maa://42970</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.02 22:47:19</t>
+          <t>更新日期：2024.11.03 01:13:15</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -5991,12 +5991,12 @@
       </c>
       <c r="C234" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D234" s="10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://43089</t>
         </is>
       </c>
     </row>
@@ -7289,12 +7289,12 @@
       </c>
       <c r="C293" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D293" s="10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://43090</t>
         </is>
       </c>
     </row>
@@ -7619,12 +7619,12 @@
       </c>
       <c r="C308" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D308" s="10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://43092, maa://43093</t>
         </is>
       </c>
     </row>
@@ -8345,12 +8345,12 @@
       </c>
       <c r="C341" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://43095</t>
         </is>
       </c>
     </row>
@@ -8367,12 +8367,12 @@
       </c>
       <c r="C342" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://43097</t>
         </is>
       </c>
     </row>
@@ -8411,12 +8411,12 @@
       </c>
       <c r="C344" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://43096</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.03 01:13:15</t>
+          <t>更新日期：2024.11.03 14:53:27</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -8416,7 +8416,7 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>maa://43096</t>
+          <t>**maa://43096</t>
         </is>
       </c>
     </row>
@@ -8433,12 +8433,12 @@
       </c>
       <c r="C345" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>*maa://42970</t>
+          <t>None</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.03 14:53:27</t>
+          <t>更新日期：2024.11.09 17:55:06</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="D10" s="10" t="inlineStr">
         <is>
-          <t>maa://20888</t>
+          <t>*maa://20888</t>
         </is>
       </c>
       <c r="F10" s="8" t="n"/>
@@ -8174,7 +8174,7 @@
       </c>
       <c r="D333" s="13" t="inlineStr">
         <is>
-          <t>*maa://40957, *maa://41128, maa://41035</t>
+          <t>maa://40957, *maa://41128, maa://41035</t>
         </is>
       </c>
     </row>
@@ -8433,12 +8433,12 @@
       </c>
       <c r="C345" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>*maa://42970</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.09 17:55:06</t>
+          <t>更新日期：2024.11.10 13:16:41</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -5006,7 +5006,7 @@
       </c>
       <c r="D189" s="10" t="inlineStr">
         <is>
-          <t>maa://39156, maa://39550</t>
+          <t>*maa://39156, maa://39550</t>
         </is>
       </c>
     </row>
@@ -7294,7 +7294,7 @@
       </c>
       <c r="D293" s="10" t="inlineStr">
         <is>
-          <t>maa://43090</t>
+          <t>**maa://43090</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.10 13:16:41</t>
+          <t>更新日期：2024.11.13 13:18:25</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -8174,7 +8174,7 @@
       </c>
       <c r="D333" s="13" t="inlineStr">
         <is>
-          <t>maa://40957, *maa://41128, maa://41035</t>
+          <t>maa://40957, maa://41128, maa://41035</t>
         </is>
       </c>
     </row>
@@ -8411,12 +8411,12 @@
       </c>
       <c r="C344" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>**maa://43096</t>
+          <t>None</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.13 13:18:25</t>
+          <t>更新日期：2024.11.14 13:18:07</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.14 13:18:07</t>
+          <t>更新日期：2024.11.15 13:19:01</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.15 13:19:01</t>
+          <t>更新日期：2024.11.16 13:18:21</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.16 13:18:21</t>
+          <t>更新日期：2024.11.17 00:06:00</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="D188" s="10" t="inlineStr">
         <is>
-          <t>maa://25760, *maa://35854, **maa://20872</t>
+          <t>*maa://35854, maa://25760, **maa://20872</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.17 00:06:00</t>
+          <t>更新日期：2024.11.17 13:18:12</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -4038,7 +4038,7 @@
       </c>
       <c r="D145" s="10" t="inlineStr">
         <is>
-          <t>maa://36641, maa://36865, maa://37300, maa://42918, maa://42917</t>
+          <t>maa://36641, maa://36865, maa://42918, maa://37300, maa://42917</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.17 13:18:12</t>
+          <t>更新日期：2024.11.19 13:18:32</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="D23" s="10" t="inlineStr">
         <is>
-          <t>maa://20951</t>
+          <t>*maa://20951</t>
         </is>
       </c>
       <c r="F23" s="8" t="n"/>
@@ -1355,12 +1355,12 @@
       </c>
       <c r="C26" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D26" s="10" t="inlineStr">
         <is>
-          <t>*maa://20849, *maa://28758, maa://29036, maa://30285</t>
+          <t>*maa://20849, *maa://28758, maa://29036, maa://30285, maa://42172</t>
         </is>
       </c>
       <c r="F26" s="8" t="n"/>
@@ -1552,7 +1552,7 @@
       </c>
       <c r="D32" s="10" t="inlineStr">
         <is>
-          <t>maa://30500, *maa://27290, maa://42154</t>
+          <t>maa://30500, *maa://27290, **maa://42154</t>
         </is>
       </c>
     </row>
@@ -7404,7 +7404,7 @@
       </c>
       <c r="D298" s="10" t="inlineStr">
         <is>
-          <t>maa://39692, *maa://39810</t>
+          <t>maa://39692, maa://39810</t>
         </is>
       </c>
     </row>
@@ -8174,7 +8174,7 @@
       </c>
       <c r="D333" s="13" t="inlineStr">
         <is>
-          <t>maa://40957, maa://41128, maa://41035</t>
+          <t>maa://40957, maa://41035, *maa://41128</t>
         </is>
       </c>
     </row>
@@ -8411,12 +8411,12 @@
       </c>
       <c r="C344" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>**maa://43096</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.19 13:18:32</t>
+          <t>更新日期：2024.11.20 13:18:41</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -5006,7 +5006,7 @@
       </c>
       <c r="D189" s="10" t="inlineStr">
         <is>
-          <t>*maa://39156, maa://39550</t>
+          <t>maa://39156, maa://39550</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.20 13:18:41</t>
+          <t>更新日期：2024.11.21 13:18:54</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -6145,12 +6145,12 @@
       </c>
       <c r="C241" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D241" s="10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>**maa://40958</t>
         </is>
       </c>
     </row>
@@ -6695,12 +6695,12 @@
       </c>
       <c r="C266" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D266" s="10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>**maa://39165</t>
         </is>
       </c>
     </row>
@@ -6744,7 +6744,7 @@
       </c>
       <c r="D268" s="10" t="inlineStr">
         <is>
-          <t>*maa://38296</t>
+          <t>maa://38296</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.21 13:18:54</t>
+          <t>更新日期：2024.11.22 13:18:20</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="D26" s="10" t="inlineStr">
         <is>
-          <t>*maa://20849, *maa://28758, maa://29036, maa://30285, maa://42172</t>
+          <t>*maa://20849, *maa://28758, maa://29036, maa://30285, **maa://42172</t>
         </is>
       </c>
       <c r="F26" s="8" t="n"/>
@@ -3664,7 +3664,7 @@
       </c>
       <c r="D128" s="10" t="inlineStr">
         <is>
-          <t>maa://23019, maa://20837, maa://37113, maa://40517, *maa://37666, maa://41686</t>
+          <t>maa://23019, maa://20837, maa://40517, maa://37113, *maa://37666, maa://41686</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.22 13:18:20</t>
+          <t>更新日期：2024.11.23 13:18:17</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -1640,7 +1640,7 @@
       </c>
       <c r="D36" s="10" t="inlineStr">
         <is>
-          <t>maa://27376, **maa://20838, maa://42635</t>
+          <t>maa://27376, **maa://20838, *maa://42635</t>
         </is>
       </c>
     </row>
@@ -6150,7 +6150,7 @@
       </c>
       <c r="D241" s="10" t="inlineStr">
         <is>
-          <t>**maa://40958</t>
+          <t>*maa://40958</t>
         </is>
       </c>
     </row>
@@ -6744,7 +6744,7 @@
       </c>
       <c r="D268" s="10" t="inlineStr">
         <is>
-          <t>maa://38296</t>
+          <t>*maa://38296</t>
         </is>
       </c>
     </row>
@@ -8174,7 +8174,7 @@
       </c>
       <c r="D333" s="13" t="inlineStr">
         <is>
-          <t>maa://40957, maa://41035, *maa://41128</t>
+          <t>maa://40957, maa://41035, maa://41128</t>
         </is>
       </c>
     </row>
@@ -8389,12 +8389,12 @@
       </c>
       <c r="C343" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>maa://39153</t>
+          <t>maa://39153, maa://43872</t>
         </is>
       </c>
     </row>
@@ -8416,7 +8416,7 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>**maa://43096</t>
+          <t>maa://43875</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.23 13:18:17</t>
+          <t>更新日期：2024.11.23 17:16:53</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.23 13:18:17</t>
+          <t>更新日期：2024.11.24 12:07:34</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="D30" s="10" t="inlineStr">
         <is>
-          <t>*maa://39024</t>
+          <t>**maa://39024</t>
         </is>
       </c>
       <c r="F30" s="8" t="n"/>
@@ -1547,12 +1547,12 @@
       </c>
       <c r="C32" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D32" s="10" t="inlineStr">
         <is>
-          <t>maa://30500, *maa://27290, **maa://42154</t>
+          <t>maa://30500, *maa://27290</t>
         </is>
       </c>
     </row>
@@ -1838,7 +1838,7 @@
       </c>
       <c r="D45" s="10" t="inlineStr">
         <is>
-          <t>maa://39025</t>
+          <t>*maa://39025</t>
         </is>
       </c>
     </row>
@@ -2850,7 +2850,7 @@
       </c>
       <c r="D91" s="10" t="inlineStr">
         <is>
-          <t>maa://40157</t>
+          <t>*maa://40157</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.24 12:07:34</t>
+          <t>更新日期：2024.11.24 13:17:50</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.24 12:07:34</t>
+          <t>更新日期：2024.11.24 15:31:26</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.24 15:31:26</t>
+          <t>更新日期：2024.11.30 13:17:44</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="D23" s="10" t="inlineStr">
         <is>
-          <t>*maa://20951</t>
+          <t>**maa://20951</t>
         </is>
       </c>
       <c r="F23" s="8" t="n"/>
@@ -2036,7 +2036,7 @@
       </c>
       <c r="D54" s="10" t="inlineStr">
         <is>
-          <t>maa://20932, maa://40838, maa://42415</t>
+          <t>maa://20932, maa://42415, maa://40838</t>
         </is>
       </c>
     </row>
@@ -4033,12 +4033,12 @@
       </c>
       <c r="C145" s="12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D145" s="10" t="inlineStr">
         <is>
-          <t>maa://36641, maa://36865, maa://42918, maa://37300, maa://42917</t>
+          <t>maa://36641, maa://36865, maa://42918, maa://37300, maa://42917, maa://44119</t>
         </is>
       </c>
     </row>
@@ -6189,12 +6189,12 @@
       </c>
       <c r="C243" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D243" s="10" t="inlineStr">
         <is>
-          <t>maa://20877, maa://20836</t>
+          <t>maa://20877, maa://20836, maa://20632</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.30 13:17:44</t>
+          <t>更新日期：2024.11.30 17:56:43</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.30 17:56:43</t>
+          <t>更新日期：2024.11.30 23:36:59</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2024.11.30 23:36:59</t>
+          <t>更新日期：2024.12.01 15:12:11</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -1253,12 +1253,12 @@
       </c>
       <c r="C23" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D23" s="10" t="inlineStr">
         <is>
-          <t>**maa://20951</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F23" s="8" t="n"/>
@@ -8394,7 +8394,7 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>maa://39153, maa://43872</t>
+          <t>maa://43872, maa://39153</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.01 15:12:11</t>
+          <t>更新日期：2024.12.01 15:16:43</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -463,7 +463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB345"/>
+  <dimension ref="A1:AB354"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.01 15:16:43</t>
+          <t>更新日期：2024.12.07 13:18:04</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="D6" s="10" t="inlineStr">
         <is>
-          <t>maa://20925</t>
+          <t>*maa://20925</t>
         </is>
       </c>
       <c r="F6" s="6" t="n"/>
@@ -971,22 +971,22 @@
     <row r="15">
       <c r="A15" s="15" t="inlineStr">
         <is>
-          <t>砾</t>
+          <t>慕斯</t>
         </is>
       </c>
       <c r="B15" s="15" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>2-2</t>
         </is>
       </c>
       <c r="C15" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D15" s="10" t="inlineStr">
         <is>
-          <t>maa://20919</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F15" s="8" t="n"/>
@@ -1005,12 +1005,12 @@
     <row r="16">
       <c r="A16" s="15" t="inlineStr">
         <is>
-          <t>暗索</t>
+          <t>砾</t>
         </is>
       </c>
       <c r="B16" s="15" t="inlineStr">
         <is>
-          <t>3-3</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="C16" s="12" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="D16" s="10" t="inlineStr">
         <is>
-          <t>*maa://20848</t>
+          <t>maa://20919</t>
         </is>
       </c>
       <c r="F16" s="8" t="n"/>
@@ -1039,12 +1039,12 @@
     <row r="17">
       <c r="A17" s="15" t="inlineStr">
         <is>
-          <t>末药</t>
+          <t>暗索</t>
         </is>
       </c>
       <c r="B17" s="15" t="inlineStr">
         <is>
-          <t>6-11</t>
+          <t>3-3</t>
         </is>
       </c>
       <c r="C17" s="12" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="D17" s="10" t="inlineStr">
         <is>
-          <t>maa://20930</t>
+          <t>*maa://20848</t>
         </is>
       </c>
       <c r="F17" s="8" t="n"/>
@@ -1073,12 +1073,12 @@
     <row r="18">
       <c r="A18" s="15" t="inlineStr">
         <is>
-          <t>嘉维尔</t>
+          <t>末药</t>
         </is>
       </c>
       <c r="B18" s="15" t="inlineStr">
         <is>
-          <t>S4-5</t>
+          <t>6-11</t>
         </is>
       </c>
       <c r="C18" s="12" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="D18" s="10" t="inlineStr">
         <is>
-          <t>maa://20897</t>
+          <t>maa://20930</t>
         </is>
       </c>
       <c r="F18" s="8" t="n"/>
@@ -1107,22 +1107,22 @@
     <row r="19">
       <c r="A19" s="15" t="inlineStr">
         <is>
-          <t>调香师</t>
+          <t>嘉维尔</t>
         </is>
       </c>
       <c r="B19" s="15" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>S4-5</t>
         </is>
       </c>
       <c r="C19" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D19" s="10" t="inlineStr">
         <is>
-          <t>maa://20865, maa://20826</t>
+          <t>maa://20897</t>
         </is>
       </c>
       <c r="F19" s="8" t="n"/>
@@ -1141,22 +1141,22 @@
     <row r="20">
       <c r="A20" s="15" t="inlineStr">
         <is>
-          <t>角峰</t>
+          <t>调香师</t>
         </is>
       </c>
       <c r="B20" s="15" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C20" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D20" s="10" t="inlineStr">
         <is>
-          <t>maa://20900</t>
+          <t>maa://20865, maa://20826</t>
         </is>
       </c>
       <c r="F20" s="8" t="n"/>
@@ -1175,22 +1175,22 @@
     <row r="21">
       <c r="A21" s="15" t="inlineStr">
         <is>
-          <t>蛇屠箱</t>
+          <t>角峰</t>
         </is>
       </c>
       <c r="B21" s="15" t="inlineStr">
         <is>
-          <t>2-10</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="C21" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D21" s="10" t="inlineStr">
         <is>
-          <t>maa://20948, maa://30844</t>
+          <t>maa://20900</t>
         </is>
       </c>
       <c r="F21" s="8" t="n"/>
@@ -1209,22 +1209,22 @@
     <row r="22">
       <c r="A22" s="15" t="inlineStr">
         <is>
-          <t>古米</t>
+          <t>蛇屠箱</t>
         </is>
       </c>
       <c r="B22" s="15" t="inlineStr">
         <is>
-          <t>4-2</t>
+          <t>2-10</t>
         </is>
       </c>
       <c r="C22" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D22" s="10" t="inlineStr">
         <is>
-          <t>maa://20876</t>
+          <t>maa://20948, maa://30844</t>
         </is>
       </c>
       <c r="F22" s="8" t="n"/>
@@ -1243,22 +1243,22 @@
     <row r="23">
       <c r="A23" s="15" t="inlineStr">
         <is>
-          <t>深海色</t>
+          <t>古米</t>
         </is>
       </c>
       <c r="B23" s="15" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>4-2</t>
         </is>
       </c>
       <c r="C23" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D23" s="10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://20876</t>
         </is>
       </c>
       <c r="F23" s="8" t="n"/>
@@ -1277,22 +1277,22 @@
     <row r="24">
       <c r="A24" s="15" t="inlineStr">
         <is>
-          <t>地灵</t>
+          <t>深海色</t>
         </is>
       </c>
       <c r="B24" s="15" t="inlineStr">
         <is>
-          <t>DM-2</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="C24" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D24" s="10" t="inlineStr">
         <is>
-          <t>maa://20864</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F24" s="8" t="n"/>
@@ -1311,22 +1311,22 @@
     <row r="25">
       <c r="A25" s="15" t="inlineStr">
         <is>
-          <t>阿消</t>
+          <t>地灵</t>
         </is>
       </c>
       <c r="B25" s="15" t="inlineStr">
         <is>
-          <t>2-8</t>
+          <t>DM-2</t>
         </is>
       </c>
       <c r="C25" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D25" s="10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://20864</t>
         </is>
       </c>
       <c r="F25" s="8" t="n"/>
@@ -1345,22 +1345,22 @@
     <row r="26">
       <c r="A26" s="15" t="inlineStr">
         <is>
-          <t>白面鸮</t>
+          <t>阿消</t>
         </is>
       </c>
       <c r="B26" s="15" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>2-8</t>
         </is>
       </c>
       <c r="C26" s="12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D26" s="10" t="inlineStr">
         <is>
-          <t>*maa://20849, *maa://28758, maa://29036, maa://30285, **maa://42172</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F26" s="8" t="n"/>
@@ -1379,22 +1379,22 @@
     <row r="27">
       <c r="A27" s="15" t="inlineStr">
         <is>
-          <t>凛冬</t>
+          <t>白面鸮</t>
         </is>
       </c>
       <c r="B27" s="15" t="inlineStr">
         <is>
-          <t>1-5</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="C27" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D27" s="10" t="inlineStr">
         <is>
-          <t>maa://20920</t>
+          <t>*maa://20849, *maa://28758, maa://29036, maa://30285, **maa://42172</t>
         </is>
       </c>
       <c r="F27" s="8" t="n"/>
@@ -1413,22 +1413,22 @@
     <row r="28">
       <c r="A28" s="15" t="inlineStr">
         <is>
-          <t>德克萨斯</t>
+          <t>凛冬</t>
         </is>
       </c>
       <c r="B28" s="15" t="inlineStr">
         <is>
-          <t>CB-3</t>
+          <t>1-5</t>
         </is>
       </c>
       <c r="C28" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D28" s="10" t="inlineStr">
         <is>
-          <t>maa://20863, maa://20832, maa://20727</t>
+          <t>maa://20920</t>
         </is>
       </c>
       <c r="F28" s="8" t="n"/>
@@ -1447,22 +1447,22 @@
     <row r="29">
       <c r="A29" s="15" t="inlineStr">
         <is>
-          <t>芙兰卡</t>
+          <t>德克萨斯</t>
         </is>
       </c>
       <c r="B29" s="15" t="inlineStr">
         <is>
-          <t>9-3</t>
+          <t>CB-3</t>
         </is>
       </c>
       <c r="C29" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D29" s="10" t="inlineStr">
         <is>
-          <t>*maa://20871</t>
+          <t>maa://20863, maa://20832, maa://20727</t>
         </is>
       </c>
       <c r="F29" s="8" t="n"/>
@@ -1481,12 +1481,12 @@
     <row r="30">
       <c r="A30" s="15" t="inlineStr">
         <is>
-          <t>因陀罗</t>
+          <t>芙兰卡</t>
         </is>
       </c>
       <c r="B30" s="15" t="inlineStr">
         <is>
-          <t>11-5</t>
+          <t>9-3</t>
         </is>
       </c>
       <c r="C30" s="12" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="D30" s="10" t="inlineStr">
         <is>
-          <t>**maa://39024</t>
+          <t>*maa://20871</t>
         </is>
       </c>
       <c r="F30" s="8" t="n"/>
@@ -1515,78 +1515,78 @@
     <row r="31">
       <c r="A31" s="15" t="inlineStr">
         <is>
-          <t>拉普兰德</t>
+          <t>因陀罗</t>
         </is>
       </c>
       <c r="B31" s="15" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>11-5</t>
         </is>
       </c>
       <c r="C31" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D31" s="10" t="inlineStr">
         <is>
-          <t>maa://36644, maa://36866, maa://27794</t>
+          <t>**maa://39024</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="15" t="inlineStr">
         <is>
-          <t>幽灵鲨</t>
+          <t>拉普兰德</t>
         </is>
       </c>
       <c r="B32" s="15" t="inlineStr">
         <is>
-          <t>SN-EX-1</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="C32" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D32" s="10" t="inlineStr">
         <is>
-          <t>maa://30500, *maa://27290</t>
+          <t>maa://36644, maa://36866, maa://27794</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="15" t="inlineStr">
         <is>
-          <t>蓝毒</t>
+          <t>幽灵鲨</t>
         </is>
       </c>
       <c r="B33" s="15" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>SN-EX-1</t>
         </is>
       </c>
       <c r="C33" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D33" s="10" t="inlineStr">
         <is>
-          <t>*maa://20916</t>
+          <t>maa://30500, *maa://27290</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="15" t="inlineStr">
         <is>
-          <t>白金</t>
+          <t>蓝毒</t>
         </is>
       </c>
       <c r="B34" s="15" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C34" s="12" t="inlineStr">
@@ -1596,19 +1596,19 @@
       </c>
       <c r="D34" s="10" t="inlineStr">
         <is>
-          <t>maa://20847</t>
+          <t>*maa://20916</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="15" t="inlineStr">
         <is>
-          <t>陨星</t>
+          <t>白金</t>
         </is>
       </c>
       <c r="B35" s="15" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="C35" s="12" t="inlineStr">
@@ -1618,107 +1618,107 @@
       </c>
       <c r="D35" s="10" t="inlineStr">
         <is>
-          <t>maa://20997</t>
+          <t>maa://20847</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="15" t="inlineStr">
         <is>
-          <t>阿米娅</t>
+          <t>陨星</t>
         </is>
       </c>
       <c r="B36" s="15" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="C36" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D36" s="10" t="inlineStr">
         <is>
-          <t>maa://27376, **maa://20838, *maa://42635</t>
+          <t>maa://20997</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="15" t="inlineStr">
         <is>
-          <t>天火</t>
+          <t>阿米娅</t>
         </is>
       </c>
       <c r="B37" s="15" t="inlineStr">
         <is>
-          <t>S3-5</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C37" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D37" s="10" t="inlineStr">
         <is>
-          <t>maa://20962</t>
+          <t>maa://27376, **maa://20838, *maa://42635</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="15" t="inlineStr">
         <is>
-          <t>梅尔</t>
+          <t>天火</t>
         </is>
       </c>
       <c r="B38" s="15" t="inlineStr">
         <is>
-          <t>2-9</t>
+          <t>S3-5</t>
         </is>
       </c>
       <c r="C38" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D38" s="10" t="inlineStr">
         <is>
-          <t>*maa://29012, maa://20928</t>
+          <t>maa://20962</t>
         </is>
       </c>
     </row>
     <row r="39" ht="14.25" customHeight="1" s="3">
       <c r="A39" s="15" t="inlineStr">
         <is>
-          <t>赫默</t>
+          <t>梅尔</t>
         </is>
       </c>
       <c r="B39" s="15" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>2-9</t>
         </is>
       </c>
       <c r="C39" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D39" s="10" t="inlineStr">
         <is>
-          <t>maa://20882</t>
+          <t>*maa://29012, maa://20928</t>
         </is>
       </c>
     </row>
     <row r="40" ht="14.25" customHeight="1" s="3">
       <c r="A40" s="15" t="inlineStr">
         <is>
-          <t>华法琳</t>
+          <t>赫默</t>
         </is>
       </c>
       <c r="B40" s="15" t="inlineStr">
         <is>
-          <t>2-10</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="C40" s="12" t="inlineStr">
@@ -1728,63 +1728,63 @@
       </c>
       <c r="D40" s="10" t="inlineStr">
         <is>
-          <t>*maa://20892</t>
+          <t>maa://20882</t>
         </is>
       </c>
     </row>
     <row r="41" ht="14.25" customHeight="1" s="3">
       <c r="A41" s="15" t="inlineStr">
         <is>
-          <t>临光</t>
+          <t>华法琳</t>
         </is>
       </c>
       <c r="B41" s="15" t="inlineStr">
         <is>
-          <t>1-12</t>
+          <t>2-10</t>
         </is>
       </c>
       <c r="C41" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D41" s="10" t="inlineStr">
         <is>
-          <t>*maa://22339, maa://20918, maa://34883, maa://20824</t>
+          <t>*maa://20892</t>
         </is>
       </c>
     </row>
     <row r="42" ht="14.25" customHeight="1" s="3">
       <c r="A42" s="15" t="inlineStr">
         <is>
-          <t>红</t>
+          <t>临光</t>
         </is>
       </c>
       <c r="B42" s="15" t="inlineStr">
         <is>
-          <t>S4-5</t>
+          <t>1-12</t>
         </is>
       </c>
       <c r="C42" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D42" s="10" t="inlineStr">
         <is>
-          <t>maa://20889</t>
+          <t>*maa://22339, maa://20918, maa://34883, maa://20824</t>
         </is>
       </c>
     </row>
     <row r="43" ht="14.25" customHeight="1" s="3">
       <c r="A43" s="15" t="inlineStr">
         <is>
-          <t>雷蛇</t>
+          <t>红</t>
         </is>
       </c>
       <c r="B43" s="15" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>S4-5</t>
         </is>
       </c>
       <c r="C43" s="12" t="inlineStr">
@@ -1794,19 +1794,19 @@
       </c>
       <c r="D43" s="10" t="inlineStr">
         <is>
-          <t>maa://34718</t>
+          <t>maa://20889</t>
         </is>
       </c>
     </row>
     <row r="44" ht="14.25" customHeight="1" s="3">
       <c r="A44" s="15" t="inlineStr">
         <is>
-          <t>可颂</t>
+          <t>雷蛇</t>
         </is>
       </c>
       <c r="B44" s="15" t="inlineStr">
         <is>
-          <t>2-8</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C44" s="12" t="inlineStr">
@@ -1816,19 +1816,19 @@
       </c>
       <c r="D44" s="10" t="inlineStr">
         <is>
-          <t>maa://20910</t>
+          <t>maa://34718</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="15" t="inlineStr">
         <is>
-          <t>火神</t>
+          <t>可颂</t>
         </is>
       </c>
       <c r="B45" s="15" t="inlineStr">
         <is>
-          <t>S4-4</t>
+          <t>2-8</t>
         </is>
       </c>
       <c r="C45" s="12" t="inlineStr">
@@ -1838,19 +1838,19 @@
       </c>
       <c r="D45" s="10" t="inlineStr">
         <is>
-          <t>*maa://39025</t>
+          <t>maa://20910</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="15" t="inlineStr">
         <is>
-          <t>普罗旺斯</t>
+          <t>火神</t>
         </is>
       </c>
       <c r="B46" s="15" t="inlineStr">
         <is>
-          <t>S5-1</t>
+          <t>S4-4</t>
         </is>
       </c>
       <c r="C46" s="12" t="inlineStr">
@@ -1860,19 +1860,19 @@
       </c>
       <c r="D46" s="10" t="inlineStr">
         <is>
-          <t>maa://20938</t>
+          <t>*maa://39025</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="15" t="inlineStr">
         <is>
-          <t>守林人</t>
+          <t>普罗旺斯</t>
         </is>
       </c>
       <c r="B47" s="15" t="inlineStr">
         <is>
-          <t>2-10</t>
+          <t>S5-1</t>
         </is>
       </c>
       <c r="C47" s="12" t="inlineStr">
@@ -1882,58 +1882,58 @@
       </c>
       <c r="D47" s="10" t="inlineStr">
         <is>
-          <t>maa://20954</t>
+          <t>maa://20938</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="15" t="inlineStr">
         <is>
-          <t>崖心</t>
+          <t>守林人</t>
         </is>
       </c>
       <c r="B48" s="15" t="inlineStr">
         <is>
-          <t>MN-4</t>
+          <t>2-10</t>
         </is>
       </c>
       <c r="C48" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D48" s="10" t="inlineStr">
         <is>
-          <t>maa://32845, *maa://20982</t>
+          <t>maa://20954</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="15" t="inlineStr">
         <is>
-          <t>初雪</t>
+          <t>崖心</t>
         </is>
       </c>
       <c r="B49" s="15" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>MN-4</t>
         </is>
       </c>
       <c r="C49" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D49" s="10" t="inlineStr">
         <is>
-          <t>maa://30503</t>
+          <t>maa://32845, *maa://20982</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="15" t="inlineStr">
         <is>
-          <t>真理</t>
+          <t>初雪</t>
         </is>
       </c>
       <c r="B50" s="15" t="inlineStr">
@@ -1948,19 +1948,19 @@
       </c>
       <c r="D50" s="10" t="inlineStr">
         <is>
-          <t>maa://21001</t>
+          <t>maa://30503</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="15" t="inlineStr">
         <is>
-          <t>空</t>
+          <t>真理</t>
         </is>
       </c>
       <c r="B51" s="15" t="inlineStr">
         <is>
-          <t>CB-7</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="C51" s="12" t="inlineStr">
@@ -1970,195 +1970,195 @@
       </c>
       <c r="D51" s="10" t="inlineStr">
         <is>
-          <t>maa://42295</t>
+          <t>maa://21001</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="15" t="inlineStr">
         <is>
-          <t>狮蝎</t>
+          <t>空</t>
         </is>
       </c>
       <c r="B52" s="15" t="inlineStr">
         <is>
-          <t>1-9</t>
+          <t>CB-7</t>
         </is>
       </c>
       <c r="C52" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D52" s="10" t="inlineStr">
         <is>
-          <t>maa://20953, maa://31173</t>
+          <t>maa://42295</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="15" t="inlineStr">
         <is>
-          <t>食铁兽</t>
+          <t>狮蝎</t>
         </is>
       </c>
       <c r="B53" s="15" t="inlineStr">
         <is>
-          <t>WR-7</t>
+          <t>1-9</t>
         </is>
       </c>
       <c r="C53" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D53" s="10" t="inlineStr">
         <is>
-          <t>maa://30502</t>
+          <t>maa://20953, maa://31173</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="15" t="inlineStr">
         <is>
-          <t>能天使</t>
+          <t>食铁兽</t>
         </is>
       </c>
       <c r="B54" s="15" t="inlineStr">
         <is>
-          <t>4-10</t>
+          <t>WR-7</t>
         </is>
       </c>
       <c r="C54" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D54" s="10" t="inlineStr">
         <is>
-          <t>maa://20932, maa://42415, maa://40838</t>
+          <t>maa://30502</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="15" t="inlineStr">
         <is>
-          <t>推进之王</t>
+          <t>能天使</t>
         </is>
       </c>
       <c r="B55" s="15" t="inlineStr">
         <is>
-          <t>1-7</t>
+          <t>4-10</t>
         </is>
       </c>
       <c r="C55" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D55" s="10" t="inlineStr">
         <is>
-          <t>*maa://20965</t>
+          <t>maa://20932, maa://42415, maa://40838</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="15" t="inlineStr">
         <is>
-          <t>推进之王</t>
+          <t>能天使</t>
         </is>
       </c>
       <c r="B56" s="15" t="inlineStr">
         <is>
-          <t>11-2</t>
+          <t>2-8</t>
         </is>
       </c>
       <c r="C56" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D56" s="10" t="inlineStr">
         <is>
-          <t>maa://28900, maa://30126</t>
+          <t>maa://44235</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="15" t="inlineStr">
         <is>
-          <t>伊芙利特</t>
+          <t>推进之王</t>
         </is>
       </c>
       <c r="B57" s="15" t="inlineStr">
         <is>
-          <t>1-5</t>
+          <t>1-7</t>
         </is>
       </c>
       <c r="C57" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D57" s="10" t="inlineStr">
         <is>
-          <t>maa://27970, maa://41118</t>
+          <t>*maa://20965</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="15" t="inlineStr">
         <is>
-          <t>伊芙利特</t>
+          <t>推进之王</t>
         </is>
       </c>
       <c r="B58" s="15" t="inlineStr">
         <is>
-          <t>CW-3</t>
+          <t>11-2</t>
         </is>
       </c>
       <c r="C58" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D58" s="10" t="inlineStr">
         <is>
-          <t>maa://38298</t>
+          <t>maa://28900, maa://30126</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="15" t="inlineStr">
         <is>
-          <t>艾雅法拉</t>
+          <t>伊芙利特</t>
         </is>
       </c>
       <c r="B59" s="15" t="inlineStr">
         <is>
-          <t>OF-5</t>
+          <t>1-5</t>
         </is>
       </c>
       <c r="C59" s="12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D59" s="10" t="inlineStr">
         <is>
-          <t>maa://20841, maa://24093, maa://31559, maa://25777, maa://20631</t>
+          <t>maa://27970, maa://41118</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="15" t="inlineStr">
         <is>
-          <t>安洁莉娜</t>
+          <t>伊芙利特</t>
         </is>
       </c>
       <c r="B60" s="15" t="inlineStr">
         <is>
-          <t>2-7</t>
+          <t>CW-3</t>
         </is>
       </c>
       <c r="C60" s="12" t="inlineStr">
@@ -2168,129 +2168,129 @@
       </c>
       <c r="D60" s="10" t="inlineStr">
         <is>
-          <t>maa://20844</t>
+          <t>maa://38298</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="15" t="inlineStr">
         <is>
-          <t>安洁莉娜</t>
+          <t>艾雅法拉</t>
         </is>
       </c>
       <c r="B61" s="15" t="inlineStr">
         <is>
-          <t>4-4</t>
+          <t>OF-5</t>
         </is>
       </c>
       <c r="C61" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D61" s="10" t="inlineStr">
         <is>
-          <t>*maa://20845, **maa://38727</t>
+          <t>maa://20841, maa://24093, maa://31559, maa://25777, maa://20631</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="15" t="inlineStr">
         <is>
-          <t>闪灵</t>
+          <t>安洁莉娜</t>
         </is>
       </c>
       <c r="B62" s="15" t="inlineStr">
         <is>
-          <t>NL-5</t>
+          <t>2-7</t>
         </is>
       </c>
       <c r="C62" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D62" s="10" t="inlineStr">
         <is>
-          <t>maa://28187, maa://33504, maa://39520</t>
+          <t>maa://20844</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="15" t="inlineStr">
         <is>
-          <t>闪灵</t>
+          <t>安洁莉娜</t>
         </is>
       </c>
       <c r="B63" s="15" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>4-4</t>
         </is>
       </c>
       <c r="C63" s="12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D63" s="10" t="inlineStr">
         <is>
-          <t>maa://28567, maa://30525, *maa://28188, maa://38735, maa://30524</t>
+          <t>*maa://20845, **maa://38727</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="15" t="inlineStr">
         <is>
-          <t>夜莺</t>
+          <t>闪灵</t>
         </is>
       </c>
       <c r="B64" s="15" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>NL-5</t>
         </is>
       </c>
       <c r="C64" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D64" s="10" t="inlineStr">
         <is>
-          <t>maa://20993, maa://20829</t>
+          <t>maa://28187, maa://33504, maa://39520, maa://43531</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="15" t="inlineStr">
         <is>
-          <t>夜莺</t>
+          <t>闪灵</t>
         </is>
       </c>
       <c r="B65" s="15" t="inlineStr">
         <is>
-          <t>TW-3</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="C65" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D65" s="10" t="inlineStr">
         <is>
-          <t>maa://39693</t>
+          <t>maa://28567, maa://30525, *maa://28188, maa://38735, maa://30524</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="15" t="inlineStr">
         <is>
-          <t>星熊</t>
+          <t>夜莺</t>
         </is>
       </c>
       <c r="B66" s="15" t="inlineStr">
         <is>
-          <t>6-4</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="C66" s="12" t="inlineStr">
@@ -2300,41 +2300,41 @@
       </c>
       <c r="D66" s="10" t="inlineStr">
         <is>
-          <t>maa://20976, maa://20815</t>
+          <t>maa://20993, maa://20829</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="15" t="inlineStr">
         <is>
-          <t>星熊</t>
+          <t>夜莺</t>
         </is>
       </c>
       <c r="B67" s="15" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>TW-3</t>
         </is>
       </c>
       <c r="C67" s="12" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D67" s="10" t="inlineStr">
         <is>
-          <t>maa://28784, maa://29088, maa://20974, maa://31124, maa://28950, *maa://33612, maa://29087, *maa://20823, maa://41832</t>
+          <t>maa://39693</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="15" t="inlineStr">
         <is>
-          <t>塞雷娅</t>
+          <t>星熊</t>
         </is>
       </c>
       <c r="B68" s="15" t="inlineStr">
         <is>
-          <t>MB-3</t>
+          <t>6-4</t>
         </is>
       </c>
       <c r="C68" s="12" t="inlineStr">
@@ -2344,63 +2344,63 @@
       </c>
       <c r="D68" s="10" t="inlineStr">
         <is>
-          <t>maa://20944, maa://35393</t>
+          <t>maa://20976, maa://20815</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="15" t="inlineStr">
         <is>
-          <t>塞雷娅</t>
+          <t>星熊</t>
         </is>
       </c>
       <c r="B69" s="15" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C69" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D69" s="10" t="inlineStr">
         <is>
-          <t>maa://20943</t>
+          <t>maa://28784, maa://29088, maa://20974, maa://31124, maa://28950, *maa://33612, maa://29087, *maa://20823, maa://41832</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="15" t="inlineStr">
         <is>
-          <t>银灰</t>
+          <t>塞雷娅</t>
         </is>
       </c>
       <c r="B70" s="15" t="inlineStr">
         <is>
-          <t>BI-7</t>
+          <t>MB-3</t>
         </is>
       </c>
       <c r="C70" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D70" s="10" t="inlineStr">
         <is>
-          <t>maa://36643, maa://36864, maa://39140</t>
+          <t>maa://20944, maa://35393</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="15" t="inlineStr">
         <is>
-          <t>暴行</t>
+          <t>塞雷娅</t>
         </is>
       </c>
       <c r="B71" s="15" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C71" s="12" t="inlineStr">
@@ -2410,41 +2410,41 @@
       </c>
       <c r="D71" s="10" t="inlineStr">
         <is>
-          <t>maa://39139</t>
+          <t>maa://20943</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="15" t="inlineStr">
         <is>
-          <t>猎蜂</t>
+          <t>银灰</t>
         </is>
       </c>
       <c r="B72" s="15" t="inlineStr">
         <is>
-          <t>7-4</t>
+          <t>BI-7</t>
         </is>
       </c>
       <c r="C72" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D72" s="10" t="inlineStr">
         <is>
-          <t>maa://39142</t>
+          <t>maa://36643, maa://36864, maa://39140</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="15" t="inlineStr">
         <is>
-          <t>夜魔</t>
+          <t>暴行</t>
         </is>
       </c>
       <c r="B73" s="15" t="inlineStr">
         <is>
-          <t>S4-1</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="C73" s="12" t="inlineStr">
@@ -2454,19 +2454,19 @@
       </c>
       <c r="D73" s="10" t="inlineStr">
         <is>
-          <t>maa://20989</t>
+          <t>maa://39139</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="15" t="inlineStr">
         <is>
-          <t>格拉尼</t>
+          <t>猎蜂</t>
         </is>
       </c>
       <c r="B74" s="15" t="inlineStr">
         <is>
-          <t>GT-6</t>
+          <t>7-4</t>
         </is>
       </c>
       <c r="C74" s="12" t="inlineStr">
@@ -2476,19 +2476,19 @@
       </c>
       <c r="D74" s="10" t="inlineStr">
         <is>
-          <t>maa://20873</t>
+          <t>maa://39142</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="15" t="inlineStr">
         <is>
-          <t>斯卡蒂</t>
+          <t>夜魔</t>
         </is>
       </c>
       <c r="B75" s="15" t="inlineStr">
         <is>
-          <t>GT-4</t>
+          <t>S4-1</t>
         </is>
       </c>
       <c r="C75" s="12" t="inlineStr">
@@ -2498,14 +2498,14 @@
       </c>
       <c r="D75" s="10" t="inlineStr">
         <is>
-          <t>maa://20958</t>
+          <t>maa://20989</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="15" t="inlineStr">
         <is>
-          <t>斯卡蒂</t>
+          <t>格拉尼</t>
         </is>
       </c>
       <c r="B76" s="15" t="inlineStr">
@@ -2520,19 +2520,19 @@
       </c>
       <c r="D76" s="10" t="inlineStr">
         <is>
-          <t>maa://20957</t>
+          <t>maa://20873</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="15" t="inlineStr">
         <is>
-          <t>格雷伊</t>
+          <t>斯卡蒂</t>
         </is>
       </c>
       <c r="B77" s="15" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>GT-4</t>
         </is>
       </c>
       <c r="C77" s="12" t="inlineStr">
@@ -2542,19 +2542,19 @@
       </c>
       <c r="D77" s="10" t="inlineStr">
         <is>
-          <t>maa://20875</t>
+          <t>maa://20958</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="15" t="inlineStr">
         <is>
-          <t>诗怀雅</t>
+          <t>斯卡蒂</t>
         </is>
       </c>
       <c r="B78" s="15" t="inlineStr">
         <is>
-          <t>S2-3</t>
+          <t>GT-6</t>
         </is>
       </c>
       <c r="C78" s="12" t="inlineStr">
@@ -2564,41 +2564,41 @@
       </c>
       <c r="D78" s="10" t="inlineStr">
         <is>
-          <t>maa://20952</t>
+          <t>maa://20957</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="15" t="inlineStr">
         <is>
-          <t>陈</t>
+          <t>格雷伊</t>
         </is>
       </c>
       <c r="B79" s="15" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="C79" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D79" s="10" t="inlineStr">
         <is>
-          <t>maa://30525, maa://20859, *maa://28188, maa://30524</t>
+          <t>maa://20875</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="15" t="inlineStr">
         <is>
-          <t>陈</t>
+          <t>诗怀雅</t>
         </is>
       </c>
       <c r="B80" s="15" t="inlineStr">
         <is>
-          <t>5-9</t>
+          <t>S2-3</t>
         </is>
       </c>
       <c r="C80" s="12" t="inlineStr">
@@ -2608,41 +2608,41 @@
       </c>
       <c r="D80" s="10" t="inlineStr">
         <is>
-          <t>maa://28072</t>
+          <t>maa://20952</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="15" t="inlineStr">
         <is>
-          <t>苏苏洛</t>
+          <t>陈</t>
         </is>
       </c>
       <c r="B81" s="15" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="C81" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D81" s="10" t="inlineStr">
         <is>
-          <t>maa://27794, maa://20960</t>
+          <t>maa://30525, maa://20859, *maa://28188, maa://30524</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="15" t="inlineStr">
         <is>
-          <t>锡兰</t>
+          <t>陈</t>
         </is>
       </c>
       <c r="B82" s="15" t="inlineStr">
         <is>
-          <t>OF-3</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="C82" s="12" t="inlineStr">
@@ -2652,41 +2652,41 @@
       </c>
       <c r="D82" s="10" t="inlineStr">
         <is>
-          <t>maa://20972</t>
+          <t>maa://28072</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="15" t="inlineStr">
         <is>
-          <t>格劳克斯</t>
+          <t>苏苏洛</t>
         </is>
       </c>
       <c r="B83" s="15" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="C83" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D83" s="10" t="inlineStr">
         <is>
-          <t>maa://20874</t>
+          <t>maa://27794, maa://20960</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="15" t="inlineStr">
         <is>
-          <t>黑</t>
+          <t>锡兰</t>
         </is>
       </c>
       <c r="B84" s="15" t="inlineStr">
         <is>
-          <t>OF-7</t>
+          <t>OF-3</t>
         </is>
       </c>
       <c r="C84" s="12" t="inlineStr">
@@ -2696,63 +2696,63 @@
       </c>
       <c r="D84" s="10" t="inlineStr">
         <is>
-          <t>maa://20885</t>
+          <t>maa://20972</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="15" t="inlineStr">
         <is>
-          <t>黑</t>
+          <t>格劳克斯</t>
         </is>
       </c>
       <c r="B85" s="15" t="inlineStr">
         <is>
-          <t>2-1</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="C85" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D85" s="10" t="inlineStr">
         <is>
-          <t>maa://20886, maa://25136</t>
+          <t>maa://20874</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="15" t="inlineStr">
         <is>
-          <t>桃金娘</t>
+          <t>黑</t>
         </is>
       </c>
       <c r="B86" s="15" t="inlineStr">
         <is>
-          <t>6-3</t>
+          <t>OF-7</t>
         </is>
       </c>
       <c r="C86" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D86" s="10" t="inlineStr">
         <is>
-          <t>maa://24472, *maa://35841</t>
+          <t>maa://20885</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="15" t="inlineStr">
         <is>
-          <t>赫拉格</t>
+          <t>黑</t>
         </is>
       </c>
       <c r="B87" s="15" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>2-1</t>
         </is>
       </c>
       <c r="C87" s="12" t="inlineStr">
@@ -2762,85 +2762,85 @@
       </c>
       <c r="D87" s="10" t="inlineStr">
         <is>
-          <t>*maa://28190, maa://20880</t>
+          <t>maa://20886, maa://25136</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="15" t="inlineStr">
         <is>
-          <t>赫拉格</t>
+          <t>桃金娘</t>
         </is>
       </c>
       <c r="B88" s="15" t="inlineStr">
         <is>
-          <t>7-10</t>
+          <t>6-3</t>
         </is>
       </c>
       <c r="C88" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D88" s="10" t="inlineStr">
         <is>
-          <t>maa://24609</t>
+          <t>maa://24472, *maa://35841</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="15" t="inlineStr">
         <is>
-          <t>红云</t>
+          <t>星极</t>
         </is>
       </c>
       <c r="B89" s="15" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>DV-2</t>
         </is>
       </c>
       <c r="C89" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D89" s="10" t="inlineStr">
         <is>
-          <t>maa://20890</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="15" t="inlineStr">
         <is>
-          <t>炎客</t>
+          <t>赫拉格</t>
         </is>
       </c>
       <c r="B90" s="15" t="inlineStr">
         <is>
-          <t>S4-3</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C90" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D90" s="10" t="inlineStr">
         <is>
-          <t>maa://20984</t>
+          <t>*maa://28190, maa://20880</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="15" t="inlineStr">
         <is>
-          <t>送葬人</t>
+          <t>赫拉格</t>
         </is>
       </c>
       <c r="B91" s="15" t="inlineStr">
         <is>
-          <t>IW-8</t>
+          <t>7-10</t>
         </is>
       </c>
       <c r="C91" s="12" t="inlineStr">
@@ -2850,19 +2850,19 @@
       </c>
       <c r="D91" s="10" t="inlineStr">
         <is>
-          <t>*maa://40157</t>
+          <t>maa://24609</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="15" t="inlineStr">
         <is>
-          <t>麦哲伦</t>
+          <t>红云</t>
         </is>
       </c>
       <c r="B92" s="15" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C92" s="12" t="inlineStr">
@@ -2872,19 +2872,19 @@
       </c>
       <c r="D92" s="10" t="inlineStr">
         <is>
-          <t>maa://20927</t>
+          <t>maa://20890</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="15" t="inlineStr">
         <is>
-          <t>麦哲伦</t>
+          <t>炎客</t>
         </is>
       </c>
       <c r="B93" s="15" t="inlineStr">
         <is>
-          <t>2-2</t>
+          <t>S4-3</t>
         </is>
       </c>
       <c r="C93" s="12" t="inlineStr">
@@ -2894,19 +2894,19 @@
       </c>
       <c r="D93" s="10" t="inlineStr">
         <is>
-          <t>*maa://20926</t>
+          <t>maa://20984</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="15" t="inlineStr">
         <is>
-          <t>伊桑</t>
+          <t>送葬人</t>
         </is>
       </c>
       <c r="B94" s="15" t="inlineStr">
         <is>
-          <t>TW-3</t>
+          <t>IW-8</t>
         </is>
       </c>
       <c r="C94" s="12" t="inlineStr">
@@ -2916,19 +2916,19 @@
       </c>
       <c r="D94" s="10" t="inlineStr">
         <is>
-          <t>maa://20991</t>
+          <t>*maa://40157</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="15" t="inlineStr">
         <is>
-          <t>微风</t>
+          <t>麦哲伦</t>
         </is>
       </c>
       <c r="B95" s="15" t="inlineStr">
         <is>
-          <t>4-1</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C95" s="12" t="inlineStr">
@@ -2938,19 +2938,19 @@
       </c>
       <c r="D95" s="10" t="inlineStr">
         <is>
-          <t>maa://20967</t>
+          <t>maa://20927</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="15" t="inlineStr">
         <is>
-          <t>梅</t>
+          <t>麦哲伦</t>
         </is>
       </c>
       <c r="B96" s="15" t="inlineStr">
         <is>
-          <t>4-4</t>
+          <t>2-2</t>
         </is>
       </c>
       <c r="C96" s="12" t="inlineStr">
@@ -2960,85 +2960,85 @@
       </c>
       <c r="D96" s="10" t="inlineStr">
         <is>
-          <t>maa://20929</t>
+          <t>*maa://20926</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="15" t="inlineStr">
         <is>
-          <t>拜松</t>
+          <t>伊桑</t>
         </is>
       </c>
       <c r="B97" s="15" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>TW-3</t>
         </is>
       </c>
       <c r="C97" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D97" s="10" t="inlineStr">
         <is>
-          <t>maa://31560, maa://20852</t>
+          <t>maa://20991</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="15" t="inlineStr">
         <is>
-          <t>槐琥</t>
+          <t>微风</t>
         </is>
       </c>
       <c r="B98" s="15" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>4-1</t>
         </is>
       </c>
       <c r="C98" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D98" s="10" t="inlineStr">
         <is>
-          <t>maa://27794, *maa://20893</t>
+          <t>maa://20967</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="15" t="inlineStr">
         <is>
-          <t>莫斯提马</t>
+          <t>梅</t>
         </is>
       </c>
       <c r="B99" s="15" t="inlineStr">
         <is>
-          <t>DM-3</t>
+          <t>4-4</t>
         </is>
       </c>
       <c r="C99" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D99" s="10" t="inlineStr">
         <is>
-          <t>*maa://39240, maa://40517</t>
+          <t>maa://20929</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="15" t="inlineStr">
         <is>
-          <t>莫斯提马</t>
+          <t>拜松</t>
         </is>
       </c>
       <c r="B100" s="15" t="inlineStr">
         <is>
-          <t>CB-5</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C100" s="12" t="inlineStr">
@@ -3048,85 +3048,85 @@
       </c>
       <c r="D100" s="10" t="inlineStr">
         <is>
-          <t>*maa://29094, maa://28904</t>
+          <t>maa://31560, maa://20852</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="15" t="inlineStr">
         <is>
-          <t>苇草</t>
+          <t>槐琥</t>
         </is>
       </c>
       <c r="B101" s="15" t="inlineStr">
         <is>
-          <t>9-5</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="C101" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D101" s="10" t="inlineStr">
         <is>
-          <t>maa://20966</t>
+          <t>maa://27794, *maa://20893</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="15" t="inlineStr">
         <is>
-          <t>布洛卡</t>
+          <t>莫斯提马</t>
         </is>
       </c>
       <c r="B102" s="15" t="inlineStr">
         <is>
-          <t>7-8</t>
+          <t>DM-3</t>
         </is>
       </c>
       <c r="C102" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D102" s="10" t="inlineStr">
         <is>
-          <t>maa://39143</t>
+          <t>*maa://39240, maa://40517</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="15" t="inlineStr">
         <is>
-          <t>安比尔</t>
+          <t>莫斯提马</t>
         </is>
       </c>
       <c r="B103" s="15" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>CB-5</t>
         </is>
       </c>
       <c r="C103" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D103" s="10" t="inlineStr">
         <is>
-          <t>maa://27794, maa://20843, **maa://24483</t>
+          <t>*maa://29094, maa://28904</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="15" t="inlineStr">
         <is>
-          <t>灰喉</t>
+          <t>苇草</t>
         </is>
       </c>
       <c r="B104" s="15" t="inlineStr">
         <is>
-          <t>2-10</t>
+          <t>9-5</t>
         </is>
       </c>
       <c r="C104" s="12" t="inlineStr">
@@ -3136,63 +3136,63 @@
       </c>
       <c r="D104" s="10" t="inlineStr">
         <is>
-          <t>maa://20894</t>
+          <t>maa://20966</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="15" t="inlineStr">
         <is>
-          <t>煌</t>
+          <t>布洛卡</t>
         </is>
       </c>
       <c r="B105" s="15" t="inlineStr">
         <is>
-          <t>11-13</t>
+          <t>7-8</t>
         </is>
       </c>
       <c r="C105" s="12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D105" s="10" t="inlineStr">
         <is>
-          <t>maa://25018, maa://25776, maa://28361, maa://25772, *maa://25161, maa://32653</t>
+          <t>maa://39143</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="15" t="inlineStr">
         <is>
-          <t>雪雉</t>
+          <t>安比尔</t>
         </is>
       </c>
       <c r="B106" s="15" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="C106" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D106" s="10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://27794, maa://20843, **maa://24483</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="15" t="inlineStr">
         <is>
-          <t>吽</t>
+          <t>灰喉</t>
         </is>
       </c>
       <c r="B107" s="15" t="inlineStr">
         <is>
-          <t>S2-4</t>
+          <t>2-10</t>
         </is>
       </c>
       <c r="C107" s="12" t="inlineStr">
@@ -3202,63 +3202,63 @@
       </c>
       <c r="D107" s="10" t="inlineStr">
         <is>
-          <t>maa://20887</t>
+          <t>maa://20894</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="15" t="inlineStr">
         <is>
-          <t>阿</t>
+          <t>煌</t>
         </is>
       </c>
       <c r="B108" s="15" t="inlineStr">
         <is>
-          <t>2-8</t>
+          <t>11-13</t>
         </is>
       </c>
       <c r="C108" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D108" s="10" t="inlineStr">
         <is>
-          <t>*maa://28554</t>
+          <t>maa://25018, maa://25776, maa://28361, maa://25772, *maa://25161, maa://32653</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="15" t="inlineStr">
         <is>
-          <t>年</t>
+          <t>雪雉</t>
         </is>
       </c>
       <c r="B109" s="15" t="inlineStr">
         <is>
-          <t>WR-9</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C109" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D109" s="10" t="inlineStr">
         <is>
-          <t>*maa://20933, maa://20822</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="15" t="inlineStr">
         <is>
-          <t>年</t>
+          <t>吽</t>
         </is>
       </c>
       <c r="B110" s="15" t="inlineStr">
         <is>
-          <t>S6-2</t>
+          <t>S2-4</t>
         </is>
       </c>
       <c r="C110" s="12" t="inlineStr">
@@ -3268,19 +3268,19 @@
       </c>
       <c r="D110" s="10" t="inlineStr">
         <is>
-          <t>maa://29037</t>
+          <t>maa://20887</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="15" t="inlineStr">
         <is>
-          <t>惊蛰</t>
+          <t>阿</t>
         </is>
       </c>
       <c r="B111" s="15" t="inlineStr">
         <is>
-          <t>S3-6</t>
+          <t>2-8</t>
         </is>
       </c>
       <c r="C111" s="12" t="inlineStr">
@@ -3290,107 +3290,107 @@
       </c>
       <c r="D111" s="10" t="inlineStr">
         <is>
-          <t>maa://20904</t>
+          <t>*maa://28554</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="15" t="inlineStr">
         <is>
-          <t>刻俄柏</t>
+          <t>年</t>
         </is>
       </c>
       <c r="B112" s="15" t="inlineStr">
         <is>
-          <t>RI-6</t>
+          <t>WR-9</t>
         </is>
       </c>
       <c r="C112" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D112" s="10" t="inlineStr">
         <is>
-          <t>maa://20908, *maa://23346, maa://35723, maa://38822</t>
+          <t>*maa://20933, maa://20822</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="15" t="inlineStr">
         <is>
-          <t>刻俄柏</t>
+          <t>年</t>
         </is>
       </c>
       <c r="B113" s="15" t="inlineStr">
         <is>
-          <t>11-7</t>
+          <t>S6-2</t>
         </is>
       </c>
       <c r="C113" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D113" s="10" t="inlineStr">
         <is>
-          <t>maa://29659, maa://29031</t>
+          <t>maa://29037</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="15" t="inlineStr">
         <is>
-          <t>清流</t>
+          <t>惊蛰</t>
         </is>
       </c>
       <c r="B114" s="15" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C114" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D114" s="10" t="inlineStr">
         <is>
-          <t>maa://31560, maa://20940</t>
+          <t>maa://20904</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="15" t="inlineStr">
         <is>
-          <t>宴</t>
+          <t>刻俄柏</t>
         </is>
       </c>
       <c r="B115" s="15" t="inlineStr">
         <is>
-          <t>1-12</t>
+          <t>RI-6</t>
         </is>
       </c>
       <c r="C115" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D115" s="10" t="inlineStr">
         <is>
-          <t>maa://20986</t>
+          <t>maa://20908, *maa://23346, maa://35723, maa://38822</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="15" t="inlineStr">
         <is>
-          <t>柏喙</t>
+          <t>刻俄柏</t>
         </is>
       </c>
       <c r="B116" s="15" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>11-7</t>
         </is>
       </c>
       <c r="C116" s="12" t="inlineStr">
@@ -3400,41 +3400,41 @@
       </c>
       <c r="D116" s="10" t="inlineStr">
         <is>
-          <t>maa://31560, maa://20851</t>
+          <t>maa://29659, maa://29031</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="15" t="inlineStr">
         <is>
-          <t>慑砂</t>
+          <t>清流</t>
         </is>
       </c>
       <c r="B117" s="15" t="inlineStr">
         <is>
-          <t>S3-6</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C117" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D117" s="10" t="inlineStr">
         <is>
-          <t>maa://20949</t>
+          <t>maa://31560, maa://20940</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="15" t="inlineStr">
         <is>
-          <t>风笛</t>
+          <t>宴</t>
         </is>
       </c>
       <c r="B118" s="15" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>1-12</t>
         </is>
       </c>
       <c r="C118" s="12" t="inlineStr">
@@ -3444,41 +3444,41 @@
       </c>
       <c r="D118" s="10" t="inlineStr">
         <is>
-          <t>maa://20869</t>
+          <t>maa://20986</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="15" t="inlineStr">
         <is>
-          <t>风笛</t>
+          <t>柏喙</t>
         </is>
       </c>
       <c r="B119" s="15" t="inlineStr">
         <is>
-          <t>9-5</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C119" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D119" s="10" t="inlineStr">
         <is>
-          <t>maa://29650</t>
+          <t>maa://31560, maa://20851</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="15" t="inlineStr">
         <is>
-          <t>断罪者</t>
+          <t>慑砂</t>
         </is>
       </c>
       <c r="B120" s="15" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C120" s="12" t="inlineStr">
@@ -3488,19 +3488,19 @@
       </c>
       <c r="D120" s="10" t="inlineStr">
         <is>
-          <t>maa://20868</t>
+          <t>maa://20949</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="15" t="inlineStr">
         <is>
-          <t>刻刀</t>
+          <t>风笛</t>
         </is>
       </c>
       <c r="B121" s="15" t="inlineStr">
         <is>
-          <t>2-7</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="C121" s="12" t="inlineStr">
@@ -3510,19 +3510,19 @@
       </c>
       <c r="D121" s="10" t="inlineStr">
         <is>
-          <t>*maa://20909</t>
+          <t>maa://20869</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="15" t="inlineStr">
         <is>
-          <t>巫恋</t>
+          <t>风笛</t>
         </is>
       </c>
       <c r="B122" s="15" t="inlineStr">
         <is>
-          <t>6-5</t>
+          <t>9-5</t>
         </is>
       </c>
       <c r="C122" s="12" t="inlineStr">
@@ -3532,85 +3532,85 @@
       </c>
       <c r="D122" s="10" t="inlineStr">
         <is>
-          <t>maa://30501</t>
+          <t>maa://29650</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="15" t="inlineStr">
         <is>
-          <t>傀影</t>
+          <t>断罪者</t>
         </is>
       </c>
       <c r="B123" s="15" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="C123" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D123" s="10" t="inlineStr">
         <is>
-          <t>maa://20914, maa://20829, maa://31937</t>
+          <t>maa://20868</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="15" t="inlineStr">
         <is>
-          <t>傀影</t>
+          <t>刻刀</t>
         </is>
       </c>
       <c r="B124" s="15" t="inlineStr">
         <is>
-          <t>DM-5</t>
+          <t>2-7</t>
         </is>
       </c>
       <c r="C124" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D124" s="10" t="inlineStr">
         <is>
-          <t>maa://37484, maa://24611</t>
+          <t>*maa://20909</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="15" t="inlineStr">
         <is>
-          <t>极境</t>
+          <t>铸铁</t>
         </is>
       </c>
       <c r="B125" s="15" t="inlineStr">
         <is>
-          <t>S3-6</t>
+          <t>DH-3</t>
         </is>
       </c>
       <c r="C125" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D125" s="10" t="inlineStr">
         <is>
-          <t>maa://24491, maa://24493</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="15" t="inlineStr">
         <is>
-          <t>温蒂</t>
+          <t>巫恋</t>
         </is>
       </c>
       <c r="B126" s="15" t="inlineStr">
         <is>
-          <t>BI-5</t>
+          <t>6-5</t>
         </is>
       </c>
       <c r="C126" s="12" t="inlineStr">
@@ -3620,85 +3620,85 @@
       </c>
       <c r="D126" s="10" t="inlineStr">
         <is>
-          <t>maa://21422</t>
+          <t>maa://30501</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="15" t="inlineStr">
         <is>
-          <t>温蒂</t>
+          <t>傀影</t>
         </is>
       </c>
       <c r="B127" s="15" t="inlineStr">
         <is>
-          <t>IC-6</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="C127" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D127" s="10" t="inlineStr">
         <is>
-          <t>maa://30719</t>
+          <t>maa://20914, maa://20829, maa://31937</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="15" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>傀影</t>
         </is>
       </c>
       <c r="B128" s="15" t="inlineStr">
         <is>
-          <t>DM-3</t>
+          <t>DM-5</t>
         </is>
       </c>
       <c r="C128" s="12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D128" s="10" t="inlineStr">
         <is>
-          <t>maa://23019, maa://20837, maa://40517, maa://37113, *maa://37666, maa://41686</t>
+          <t>maa://37484, maa://24611</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="15" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>极境</t>
         </is>
       </c>
       <c r="B129" s="15" t="inlineStr">
         <is>
-          <t>DM-7</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C129" s="12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D129" s="10" t="inlineStr">
         <is>
-          <t>maa://23020, maa://29023, maa://34319, *maa://39515, maa://41690</t>
+          <t>maa://24491, maa://24493</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="15" t="inlineStr">
         <is>
-          <t>月禾</t>
+          <t>温蒂</t>
         </is>
       </c>
       <c r="B130" s="15" t="inlineStr">
         <is>
-          <t>S3-6</t>
+          <t>BI-5</t>
         </is>
       </c>
       <c r="C130" s="12" t="inlineStr">
@@ -3708,19 +3708,19 @@
       </c>
       <c r="D130" s="10" t="inlineStr">
         <is>
-          <t>maa://39146</t>
+          <t>maa://21422</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="15" t="inlineStr">
         <is>
-          <t>波登可</t>
+          <t>温蒂</t>
         </is>
       </c>
       <c r="B131" s="15" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>IC-6</t>
         </is>
       </c>
       <c r="C131" s="12" t="inlineStr">
@@ -3730,63 +3730,63 @@
       </c>
       <c r="D131" s="10" t="inlineStr">
         <is>
-          <t>maa://20856</t>
+          <t>maa://30719</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="15" t="inlineStr">
         <is>
-          <t>苦艾</t>
+          <t>W</t>
         </is>
       </c>
       <c r="B132" s="15" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>DM-3</t>
         </is>
       </c>
       <c r="C132" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D132" s="10" t="inlineStr">
         <is>
-          <t>maa://20913</t>
+          <t>maa://23019, maa://20837, maa://40517, maa://37113, *maa://37666, maa://41686</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="15" t="inlineStr">
         <is>
-          <t>莱恩哈特</t>
+          <t>W</t>
         </is>
       </c>
       <c r="B133" s="15" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>DM-7</t>
         </is>
       </c>
       <c r="C133" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D133" s="10" t="inlineStr">
         <is>
-          <t>maa://41856</t>
+          <t>maa://23020, maa://29023, maa://34319, *maa://39515, maa://41690</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="15" t="inlineStr">
         <is>
-          <t>早露</t>
+          <t>月禾</t>
         </is>
       </c>
       <c r="B134" s="15" t="inlineStr">
         <is>
-          <t>7-9</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C134" s="12" t="inlineStr">
@@ -3796,19 +3796,19 @@
       </c>
       <c r="D134" s="10" t="inlineStr">
         <is>
-          <t>*maa://29025</t>
+          <t>maa://39146</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="15" t="inlineStr">
         <is>
-          <t>卡达</t>
+          <t>波登可</t>
         </is>
       </c>
       <c r="B135" s="15" t="inlineStr">
         <is>
-          <t>11-7</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C135" s="12" t="inlineStr">
@@ -3818,19 +3818,19 @@
       </c>
       <c r="D135" s="10" t="inlineStr">
         <is>
-          <t>*maa://30679</t>
+          <t>maa://20856</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="15" t="inlineStr">
         <is>
-          <t>亚叶</t>
+          <t>苦艾</t>
         </is>
       </c>
       <c r="B136" s="15" t="inlineStr">
         <is>
-          <t>5-2</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C136" s="12" t="inlineStr">
@@ -3840,19 +3840,19 @@
       </c>
       <c r="D136" s="10" t="inlineStr">
         <is>
-          <t>maa://20981</t>
+          <t>maa://20913</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="15" t="inlineStr">
         <is>
-          <t>断崖</t>
+          <t>莱恩哈特</t>
         </is>
       </c>
       <c r="B137" s="15" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="C137" s="12" t="inlineStr">
@@ -3862,63 +3862,63 @@
       </c>
       <c r="D137" s="10" t="inlineStr">
         <is>
-          <t>maa://37689</t>
+          <t>maa://41856</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="15" t="inlineStr">
         <is>
-          <t>铃兰</t>
+          <t>早露</t>
         </is>
       </c>
       <c r="B138" s="15" t="inlineStr">
         <is>
-          <t>TW-7</t>
+          <t>7-9</t>
         </is>
       </c>
       <c r="C138" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D138" s="10" t="inlineStr">
         <is>
-          <t>maa://28484, *maa://31185, maa://30306</t>
+          <t>*maa://29025</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="15" t="inlineStr">
         <is>
-          <t>铃兰</t>
+          <t>卡达</t>
         </is>
       </c>
       <c r="B139" s="15" t="inlineStr">
         <is>
-          <t>DM-EX-1</t>
+          <t>11-7</t>
         </is>
       </c>
       <c r="C139" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D139" s="10" t="inlineStr">
         <is>
-          <t>maa://30670, maa://31470</t>
+          <t>*maa://30679</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="15" t="inlineStr">
         <is>
-          <t>稀音</t>
+          <t>亚叶</t>
         </is>
       </c>
       <c r="B140" s="15" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>5-2</t>
         </is>
       </c>
       <c r="C140" s="12" t="inlineStr">
@@ -3928,19 +3928,19 @@
       </c>
       <c r="D140" s="10" t="inlineStr">
         <is>
-          <t>*maa://20971</t>
+          <t>maa://20981</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="15" t="inlineStr">
         <is>
-          <t>蜜蜡</t>
+          <t>断崖</t>
         </is>
       </c>
       <c r="B141" s="15" t="inlineStr">
         <is>
-          <t>DH-6</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="C141" s="12" t="inlineStr">
@@ -3950,63 +3950,63 @@
       </c>
       <c r="D141" s="10" t="inlineStr">
         <is>
-          <t>maa://39147</t>
+          <t>maa://37689</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="15" t="inlineStr">
         <is>
-          <t>贾维</t>
+          <t>铃兰</t>
         </is>
       </c>
       <c r="B142" s="15" t="inlineStr">
         <is>
-          <t>1-1</t>
+          <t>TW-7</t>
         </is>
       </c>
       <c r="C142" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D142" s="10" t="inlineStr">
         <is>
-          <t>maa://20898</t>
+          <t>maa://28484, *maa://31185, maa://30306</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="15" t="inlineStr">
         <is>
-          <t>孑</t>
+          <t>铃兰</t>
         </is>
       </c>
       <c r="B143" s="15" t="inlineStr">
         <is>
-          <t>S3-2</t>
+          <t>DM-EX-1</t>
         </is>
       </c>
       <c r="C143" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D143" s="10" t="inlineStr">
         <is>
-          <t>maa://29056</t>
+          <t>maa://30670, maa://31470</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="15" t="inlineStr">
         <is>
-          <t>安哲拉</t>
+          <t>稀音</t>
         </is>
       </c>
       <c r="B144" s="15" t="inlineStr">
         <is>
-          <t>3-2</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C144" s="12" t="inlineStr">
@@ -4016,41 +4016,41 @@
       </c>
       <c r="D144" s="10" t="inlineStr">
         <is>
-          <t>maa://20846</t>
+          <t>*maa://20971</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="15" t="inlineStr">
         <is>
-          <t>棘刺</t>
+          <t>蜜蜡</t>
         </is>
       </c>
       <c r="B145" s="15" t="inlineStr">
         <is>
-          <t>SV-6</t>
+          <t>DH-6</t>
         </is>
       </c>
       <c r="C145" s="12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D145" s="10" t="inlineStr">
         <is>
-          <t>maa://36641, maa://36865, maa://42918, maa://37300, maa://42917, maa://44119</t>
+          <t>maa://39147</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="15" t="inlineStr">
         <is>
-          <t>酸糖</t>
+          <t>贾维</t>
         </is>
       </c>
       <c r="B146" s="15" t="inlineStr">
         <is>
-          <t>2-8</t>
+          <t>1-1</t>
         </is>
       </c>
       <c r="C146" s="12" t="inlineStr">
@@ -4060,19 +4060,19 @@
       </c>
       <c r="D146" s="10" t="inlineStr">
         <is>
-          <t>maa://20961</t>
+          <t>maa://20898</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="15" t="inlineStr">
         <is>
-          <t>特米米</t>
+          <t>孑</t>
         </is>
       </c>
       <c r="B147" s="15" t="inlineStr">
         <is>
-          <t>RI-2</t>
+          <t>S3-2</t>
         </is>
       </c>
       <c r="C147" s="12" t="inlineStr">
@@ -4082,19 +4082,19 @@
       </c>
       <c r="D147" s="10" t="inlineStr">
         <is>
-          <t>maa://20963</t>
+          <t>maa://29056</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="15" t="inlineStr">
         <is>
-          <t>燧石</t>
+          <t>安哲拉</t>
         </is>
       </c>
       <c r="B148" s="15" t="inlineStr">
         <is>
-          <t>RI-9</t>
+          <t>3-2</t>
         </is>
       </c>
       <c r="C148" s="12" t="inlineStr">
@@ -4104,41 +4104,41 @@
       </c>
       <c r="D148" s="10" t="inlineStr">
         <is>
-          <t>maa://39148</t>
+          <t>maa://20846</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="15" t="inlineStr">
         <is>
-          <t>森蚺</t>
+          <t>棘刺</t>
         </is>
       </c>
       <c r="B149" s="15" t="inlineStr">
         <is>
-          <t>RI-EX-4</t>
+          <t>SV-6</t>
         </is>
       </c>
       <c r="C149" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D149" s="10" t="inlineStr">
         <is>
-          <t>maa://20946, maa://20833</t>
+          <t>maa://36641, maa://36865, maa://42918, maa://37300, maa://42917, maa://44119</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="15" t="inlineStr">
         <is>
-          <t>森蚺</t>
+          <t>酸糖</t>
         </is>
       </c>
       <c r="B150" s="15" t="inlineStr">
         <is>
-          <t>RI-7</t>
+          <t>2-8</t>
         </is>
       </c>
       <c r="C150" s="12" t="inlineStr">
@@ -4148,19 +4148,19 @@
       </c>
       <c r="D150" s="10" t="inlineStr">
         <is>
-          <t>maa://20945</t>
+          <t>maa://20961</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="15" t="inlineStr">
         <is>
-          <t>芳汀</t>
+          <t>特米米</t>
         </is>
       </c>
       <c r="B151" s="15" t="inlineStr">
         <is>
-          <t>2-8</t>
+          <t>RI-2</t>
         </is>
       </c>
       <c r="C151" s="12" t="inlineStr">
@@ -4170,19 +4170,19 @@
       </c>
       <c r="D151" s="10" t="inlineStr">
         <is>
-          <t>maa://37694</t>
+          <t>maa://20963</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="15" t="inlineStr">
         <is>
-          <t>薄绿</t>
+          <t>燧石</t>
         </is>
       </c>
       <c r="B152" s="15" t="inlineStr">
         <is>
-          <t>BI-2</t>
+          <t>RI-9</t>
         </is>
       </c>
       <c r="C152" s="12" t="inlineStr">
@@ -4192,41 +4192,41 @@
       </c>
       <c r="D152" s="10" t="inlineStr">
         <is>
-          <t>**maa://39149</t>
+          <t>maa://39148</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="15" t="inlineStr">
         <is>
-          <t>四月</t>
+          <t>森蚺</t>
         </is>
       </c>
       <c r="B153" s="15" t="inlineStr">
         <is>
-          <t>5-3</t>
+          <t>RI-EX-4</t>
         </is>
       </c>
       <c r="C153" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D153" s="10" t="inlineStr">
         <is>
-          <t>maa://20959</t>
+          <t>maa://20946, maa://20833</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="15" t="inlineStr">
         <is>
-          <t>泡泡</t>
+          <t>森蚺</t>
         </is>
       </c>
       <c r="B154" s="15" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>RI-7</t>
         </is>
       </c>
       <c r="C154" s="12" t="inlineStr">
@@ -4236,19 +4236,19 @@
       </c>
       <c r="D154" s="10" t="inlineStr">
         <is>
-          <t>maa://20936</t>
+          <t>maa://20945</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="15" t="inlineStr">
         <is>
-          <t>鞭刃</t>
+          <t>芳汀</t>
         </is>
       </c>
       <c r="B155" s="15" t="inlineStr">
         <is>
-          <t>S3-6</t>
+          <t>2-8</t>
         </is>
       </c>
       <c r="C155" s="12" t="inlineStr">
@@ -4258,19 +4258,19 @@
       </c>
       <c r="D155" s="10" t="inlineStr">
         <is>
-          <t>maa://20855</t>
+          <t>maa://37694</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="15" t="inlineStr">
         <is>
-          <t>奥斯塔</t>
+          <t>薄绿</t>
         </is>
       </c>
       <c r="B156" s="15" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>BI-2</t>
         </is>
       </c>
       <c r="C156" s="12" t="inlineStr">
@@ -4280,63 +4280,63 @@
       </c>
       <c r="D156" s="10" t="inlineStr">
         <is>
-          <t>maa://40158</t>
+          <t>**maa://39149</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="15" t="inlineStr">
         <is>
-          <t>瑕光</t>
+          <t>四月</t>
         </is>
       </c>
       <c r="B157" s="15" t="inlineStr">
         <is>
-          <t>MN-4</t>
+          <t>5-3</t>
         </is>
       </c>
       <c r="C157" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D157" s="10" t="inlineStr">
         <is>
-          <t>maa://29054, maa://32845</t>
+          <t>maa://20959</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="15" t="inlineStr">
         <is>
-          <t>瑕光</t>
+          <t>史尔特尔</t>
         </is>
       </c>
       <c r="B158" s="15" t="inlineStr">
         <is>
-          <t>MN-2</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C158" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D158" s="10" t="inlineStr">
         <is>
-          <t>maa://20973</t>
+          <t>maa://44232, maa://44305</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="15" t="inlineStr">
         <is>
-          <t>杰克</t>
+          <t>泡泡</t>
         </is>
       </c>
       <c r="B159" s="15" t="inlineStr">
         <is>
-          <t>CB-4</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C159" s="12" t="inlineStr">
@@ -4346,85 +4346,85 @@
       </c>
       <c r="D159" s="10" t="inlineStr">
         <is>
-          <t>maa://39150</t>
+          <t>maa://20936</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="15" t="inlineStr">
         <is>
-          <t>絮雨</t>
+          <t>鞭刃</t>
         </is>
       </c>
       <c r="B160" s="15" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C160" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D160" s="10" t="inlineStr">
         <is>
-          <t>maa://20975, maa://30806</t>
+          <t>maa://20855</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="15" t="inlineStr">
         <is>
-          <t>泥岩</t>
+          <t>奥斯塔</t>
         </is>
       </c>
       <c r="B161" s="15" t="inlineStr">
         <is>
-          <t>11-7</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="C161" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D161" s="10" t="inlineStr">
         <is>
-          <t>maa://29633, maa://29627, maa://29659, maa://29861</t>
+          <t>maa://40158</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="15" t="inlineStr">
         <is>
-          <t>迷迭香</t>
+          <t>瑕光</t>
         </is>
       </c>
       <c r="B162" s="15" t="inlineStr">
         <is>
-          <t>4-1</t>
+          <t>MN-4</t>
         </is>
       </c>
       <c r="C162" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D162" s="10" t="inlineStr">
         <is>
-          <t>maa://29059</t>
+          <t>maa://29054, maa://32845</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="15" t="inlineStr">
         <is>
-          <t>松果</t>
+          <t>瑕光</t>
         </is>
       </c>
       <c r="B163" s="15" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>MN-2</t>
         </is>
       </c>
       <c r="C163" s="12" t="inlineStr">
@@ -4434,19 +4434,19 @@
       </c>
       <c r="D163" s="10" t="inlineStr">
         <is>
-          <t>maa://40159</t>
+          <t>maa://20973</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="15" t="inlineStr">
         <is>
-          <t>罗宾</t>
+          <t>杰克</t>
         </is>
       </c>
       <c r="B164" s="15" t="inlineStr">
         <is>
-          <t>BI-EX-2</t>
+          <t>CB-4</t>
         </is>
       </c>
       <c r="C164" s="12" t="inlineStr">
@@ -4456,63 +4456,63 @@
       </c>
       <c r="D164" s="10" t="inlineStr">
         <is>
-          <t>maa://39152</t>
+          <t>maa://39150</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="15" t="inlineStr">
         <is>
-          <t>卡夫卡</t>
+          <t>絮雨</t>
         </is>
       </c>
       <c r="B165" s="15" t="inlineStr">
         <is>
-          <t>2-7</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C165" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D165" s="10" t="inlineStr">
         <is>
-          <t>*maa://20905</t>
+          <t>maa://20975, maa://30806</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="15" t="inlineStr">
         <is>
-          <t>山</t>
+          <t>泥岩</t>
         </is>
       </c>
       <c r="B166" s="15" t="inlineStr">
         <is>
-          <t>MB-EX-3</t>
+          <t>11-7</t>
         </is>
       </c>
       <c r="C166" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D166" s="10" t="inlineStr">
         <is>
-          <t>maa://32418</t>
+          <t>maa://29633, maa://29627, maa://29659, maa://29861</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="15" t="inlineStr">
         <is>
-          <t>豆苗</t>
+          <t>迷迭香</t>
         </is>
       </c>
       <c r="B167" s="15" t="inlineStr">
         <is>
-          <t>S3-7</t>
+          <t>4-1</t>
         </is>
       </c>
       <c r="C167" s="12" t="inlineStr">
@@ -4522,41 +4522,41 @@
       </c>
       <c r="D167" s="10" t="inlineStr">
         <is>
-          <t>maa://37690</t>
+          <t>maa://29059</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="15" t="inlineStr">
         <is>
-          <t>爱丽丝</t>
+          <t>阿米娅(近卫)</t>
         </is>
       </c>
       <c r="B168" s="15" t="inlineStr">
         <is>
-          <t>2-2</t>
+          <t>2-10</t>
         </is>
       </c>
       <c r="C168" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D168" s="10" t="inlineStr">
         <is>
-          <t>maa://20842</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="15" t="inlineStr">
         <is>
-          <t>空弦</t>
+          <t>松果</t>
         </is>
       </c>
       <c r="B169" s="15" t="inlineStr">
         <is>
-          <t>SV-4</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="C169" s="12" t="inlineStr">
@@ -4566,41 +4566,41 @@
       </c>
       <c r="D169" s="10" t="inlineStr">
         <is>
-          <t>maa://20912</t>
+          <t>maa://40159</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="15" t="inlineStr">
         <is>
-          <t>空弦</t>
+          <t>罗宾</t>
         </is>
       </c>
       <c r="B170" s="15" t="inlineStr">
         <is>
-          <t>2-9</t>
+          <t>BI-EX-2</t>
         </is>
       </c>
       <c r="C170" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D170" s="10" t="inlineStr">
         <is>
-          <t>maa://20911, *maa://29012</t>
+          <t>maa://39152</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="15" t="inlineStr">
         <is>
-          <t>图耶</t>
+          <t>卡夫卡</t>
         </is>
       </c>
       <c r="B171" s="15" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>2-7</t>
         </is>
       </c>
       <c r="C171" s="12" t="inlineStr">
@@ -4610,19 +4610,19 @@
       </c>
       <c r="D171" s="10" t="inlineStr">
         <is>
-          <t>maa://20964</t>
+          <t>*maa://20905</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="15" t="inlineStr">
         <is>
-          <t>炎狱炎熔</t>
+          <t>山</t>
         </is>
       </c>
       <c r="B172" s="15" t="inlineStr">
         <is>
-          <t>WR-4</t>
+          <t>MB-EX-3</t>
         </is>
       </c>
       <c r="C172" s="12" t="inlineStr">
@@ -4632,41 +4632,41 @@
       </c>
       <c r="D172" s="10" t="inlineStr">
         <is>
-          <t>maa://20983</t>
+          <t>maa://32418</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="15" t="inlineStr">
         <is>
-          <t>乌有</t>
+          <t>豆苗</t>
         </is>
       </c>
       <c r="B173" s="15" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>S3-7</t>
         </is>
       </c>
       <c r="C173" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D173" s="10" t="inlineStr">
         <is>
-          <t>maa://31560, **maa://20968</t>
+          <t>maa://37690</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="15" t="inlineStr">
         <is>
-          <t>嵯峨</t>
+          <t>爱丽丝</t>
         </is>
       </c>
       <c r="B174" s="15" t="inlineStr">
         <is>
-          <t>WR-3</t>
+          <t>2-2</t>
         </is>
       </c>
       <c r="C174" s="12" t="inlineStr">
@@ -4676,19 +4676,19 @@
       </c>
       <c r="D174" s="10" t="inlineStr">
         <is>
-          <t>maa://28104</t>
+          <t>maa://20842</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="15" t="inlineStr">
         <is>
-          <t>嵯峨</t>
+          <t>空弦</t>
         </is>
       </c>
       <c r="B175" s="15" t="inlineStr">
         <is>
-          <t>WR-1</t>
+          <t>SV-4</t>
         </is>
       </c>
       <c r="C175" s="12" t="inlineStr">
@@ -4698,63 +4698,63 @@
       </c>
       <c r="D175" s="10" t="inlineStr">
         <is>
-          <t>maa://20861</t>
+          <t>maa://20912</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="15" t="inlineStr">
         <is>
-          <t>夕</t>
+          <t>空弦</t>
         </is>
       </c>
       <c r="B176" s="15" t="inlineStr">
         <is>
-          <t>1-6</t>
+          <t>2-9</t>
         </is>
       </c>
       <c r="C176" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D176" s="10" t="inlineStr">
         <is>
-          <t>maa://20970</t>
+          <t>maa://20911, *maa://29012</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="15" t="inlineStr">
         <is>
-          <t>夕</t>
+          <t>图耶</t>
         </is>
       </c>
       <c r="B177" s="15" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C177" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D177" s="10" t="inlineStr">
         <is>
-          <t>maa://20969, maa://41303</t>
+          <t>maa://20964</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="15" t="inlineStr">
         <is>
-          <t>战车</t>
+          <t>炎狱炎熔</t>
         </is>
       </c>
       <c r="B178" s="15" t="inlineStr">
         <is>
-          <t>S2-3</t>
+          <t>WR-4</t>
         </is>
       </c>
       <c r="C178" s="12" t="inlineStr">
@@ -4764,41 +4764,41 @@
       </c>
       <c r="D178" s="10" t="inlineStr">
         <is>
-          <t>maa://20999</t>
+          <t>maa://20983</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="15" t="inlineStr">
         <is>
-          <t>闪击</t>
+          <t>乌有</t>
         </is>
       </c>
       <c r="B179" s="15" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C179" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D179" s="10" t="inlineStr">
         <is>
-          <t>maa://35198</t>
+          <t>maa://31560, **maa://20968</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="15" t="inlineStr">
         <is>
-          <t>霜华</t>
+          <t>嵯峨</t>
         </is>
       </c>
       <c r="B180" s="15" t="inlineStr">
         <is>
-          <t>4-4</t>
+          <t>WR-3</t>
         </is>
       </c>
       <c r="C180" s="12" t="inlineStr">
@@ -4808,85 +4808,85 @@
       </c>
       <c r="D180" s="10" t="inlineStr">
         <is>
-          <t>maa://39153</t>
+          <t>maa://28104</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="15" t="inlineStr">
         <is>
-          <t>灰烬</t>
+          <t>嵯峨</t>
         </is>
       </c>
       <c r="B181" s="15" t="inlineStr">
         <is>
-          <t>SV-8</t>
+          <t>WR-1</t>
         </is>
       </c>
       <c r="C181" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D181" s="10" t="inlineStr">
         <is>
-          <t>maa://34866, maa://34714</t>
+          <t>maa://20861</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="15" t="inlineStr">
         <is>
-          <t>灰烬</t>
+          <t>夕</t>
         </is>
       </c>
       <c r="B182" s="15" t="inlineStr">
         <is>
-          <t>1-12</t>
+          <t>1-6</t>
         </is>
       </c>
       <c r="C182" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D182" s="10" t="inlineStr">
         <is>
-          <t>maa://34883, maa://20895</t>
+          <t>maa://20970</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="15" t="inlineStr">
         <is>
-          <t>暴雨</t>
+          <t>夕</t>
         </is>
       </c>
       <c r="B183" s="15" t="inlineStr">
         <is>
-          <t>2-7</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C183" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D183" s="10" t="inlineStr">
         <is>
-          <t>maa://20853</t>
+          <t>maa://20969, maa://41303</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="15" t="inlineStr">
         <is>
-          <t>熔泉</t>
+          <t>战车</t>
         </is>
       </c>
       <c r="B184" s="15" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>S2-3</t>
         </is>
       </c>
       <c r="C184" s="12" t="inlineStr">
@@ -4896,19 +4896,19 @@
       </c>
       <c r="D184" s="10" t="inlineStr">
         <is>
-          <t>maa://20942</t>
+          <t>maa://20999</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="15" t="inlineStr">
         <is>
-          <t>异客</t>
+          <t>闪击</t>
         </is>
       </c>
       <c r="B185" s="15" t="inlineStr">
         <is>
-          <t>2-2</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C185" s="12" t="inlineStr">
@@ -4918,173 +4918,173 @@
       </c>
       <c r="D185" s="10" t="inlineStr">
         <is>
-          <t>maa://20992</t>
+          <t>maa://35198</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="15" t="inlineStr">
         <is>
-          <t>异客</t>
+          <t>霜华</t>
         </is>
       </c>
       <c r="B186" s="15" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>4-4</t>
         </is>
       </c>
       <c r="C186" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D186" s="10" t="inlineStr">
         <is>
-          <t>*maa://28190, maa://20994</t>
+          <t>maa://39153</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="15" t="inlineStr">
         <is>
-          <t>赤冬</t>
+          <t>灰烬</t>
         </is>
       </c>
       <c r="B187" s="15" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>SV-8</t>
         </is>
       </c>
       <c r="C187" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D187" s="10" t="inlineStr">
         <is>
-          <t>maa://20860</t>
+          <t>maa://34866, maa://34714</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="15" t="inlineStr">
         <is>
-          <t>歌蕾蒂娅</t>
+          <t>灰烬</t>
         </is>
       </c>
       <c r="B188" s="15" t="inlineStr">
         <is>
-          <t>SV-EX-5</t>
+          <t>1-12</t>
         </is>
       </c>
       <c r="C188" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D188" s="10" t="inlineStr">
         <is>
-          <t>*maa://35854, maa://25760, **maa://20872</t>
+          <t>maa://34883, maa://20895</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="15" t="inlineStr">
         <is>
-          <t>歌蕾蒂娅</t>
+          <t>暴雨</t>
         </is>
       </c>
       <c r="B189" s="15" t="inlineStr">
         <is>
-          <t>SN-EX-3</t>
+          <t>2-7</t>
         </is>
       </c>
       <c r="C189" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D189" s="10" t="inlineStr">
         <is>
-          <t>maa://39156, maa://39550</t>
+          <t>maa://20853</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="15" t="inlineStr">
         <is>
-          <t>凯尔希</t>
+          <t>熔泉</t>
         </is>
       </c>
       <c r="B190" s="15" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C190" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D190" s="10" t="inlineStr">
         <is>
-          <t>maa://27823, *maa://28190, maa://22894, *maa://20906</t>
+          <t>maa://20942</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="15" t="inlineStr">
         <is>
-          <t>凯尔希</t>
+          <t>异客</t>
         </is>
       </c>
       <c r="B191" s="15" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>2-2</t>
         </is>
       </c>
       <c r="C191" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D191" s="10" t="inlineStr">
         <is>
-          <t>maa://27823, *maa://28190, maa://22894, *maa://20906</t>
+          <t>maa://20992</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="15" t="inlineStr">
         <is>
-          <t>浊心斯卡蒂</t>
+          <t>异客</t>
         </is>
       </c>
       <c r="B192" s="15" t="inlineStr">
         <is>
-          <t>SV-5</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C192" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D192" s="10" t="inlineStr">
         <is>
-          <t>maa://42223, maa://42292, maa://42402</t>
+          <t>*maa://28190, maa://20994</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="15" t="inlineStr">
         <is>
-          <t>深靛</t>
+          <t>赤冬</t>
         </is>
       </c>
       <c r="B193" s="15" t="inlineStr">
         <is>
-          <t>SV-5</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C193" s="12" t="inlineStr">
@@ -5094,107 +5094,107 @@
       </c>
       <c r="D193" s="10" t="inlineStr">
         <is>
-          <t>maa://39154</t>
+          <t>maa://20860</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="15" t="inlineStr">
         <is>
-          <t>贝娜</t>
+          <t>歌蕾蒂娅</t>
         </is>
       </c>
       <c r="B194" s="15" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>SV-EX-5</t>
         </is>
       </c>
       <c r="C194" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D194" s="10" t="inlineStr">
         <is>
-          <t>maa://20854</t>
+          <t>*maa://35854, maa://25760, **maa://20872, maa://44224</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="15" t="inlineStr">
         <is>
-          <t>绮良</t>
+          <t>歌蕾蒂娅</t>
         </is>
       </c>
       <c r="B195" s="15" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>SN-EX-3</t>
         </is>
       </c>
       <c r="C195" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D195" s="10" t="inlineStr">
         <is>
-          <t>maa://20937</t>
+          <t>maa://39156, maa://39550</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="15" t="inlineStr">
         <is>
-          <t>卡涅利安</t>
+          <t>凯尔希</t>
         </is>
       </c>
       <c r="B196" s="15" t="inlineStr">
         <is>
-          <t>7-3</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C196" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D196" s="10" t="inlineStr">
         <is>
-          <t>maa://22468</t>
+          <t>maa://27823, *maa://28190, maa://22894, *maa://20906</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="15" t="inlineStr">
         <is>
-          <t>卡涅利安</t>
+          <t>凯尔希</t>
         </is>
       </c>
       <c r="B197" s="15" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C197" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D197" s="10" t="inlineStr">
         <is>
-          <t>maa://30673, maa://30672</t>
+          <t>maa://27823, *maa://28190, maa://22894, *maa://20906</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="15" t="inlineStr">
         <is>
-          <t>帕拉斯</t>
+          <t>浊心斯卡蒂</t>
         </is>
       </c>
       <c r="B198" s="15" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>SV-5</t>
         </is>
       </c>
       <c r="C198" s="12" t="inlineStr">
@@ -5204,19 +5204,19 @@
       </c>
       <c r="D198" s="10" t="inlineStr">
         <is>
-          <t>maa://20934, maa://20827, maa://20828</t>
+          <t>maa://42223, maa://42292, maa://42402</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="15" t="inlineStr">
         <is>
-          <t>帕拉斯</t>
+          <t>深靛</t>
         </is>
       </c>
       <c r="B199" s="15" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>SV-5</t>
         </is>
       </c>
       <c r="C199" s="12" t="inlineStr">
@@ -5226,63 +5226,63 @@
       </c>
       <c r="D199" s="10" t="inlineStr">
         <is>
-          <t>maa://20935</t>
+          <t>maa://39154</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="15" t="inlineStr">
         <is>
-          <t>羽毛笔</t>
+          <t>贝娜</t>
         </is>
       </c>
       <c r="B200" s="15" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="C200" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D200" s="10" t="inlineStr">
         <is>
-          <t>maa://28133, *maa://28277, maa://25369, *maa://33132</t>
+          <t>maa://20854</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="15" t="inlineStr">
         <is>
-          <t>水月</t>
+          <t>绮良</t>
         </is>
       </c>
       <c r="B201" s="15" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C201" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D201" s="10" t="inlineStr">
         <is>
-          <t>maa://20956, *maa://20830</t>
+          <t>maa://20937</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="15" t="inlineStr">
         <is>
-          <t>水月</t>
+          <t>卡涅利安</t>
         </is>
       </c>
       <c r="B202" s="15" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>7-3</t>
         </is>
       </c>
       <c r="C202" s="12" t="inlineStr">
@@ -5292,63 +5292,63 @@
       </c>
       <c r="D202" s="10" t="inlineStr">
         <is>
-          <t>*maa://20955</t>
+          <t>maa://22468</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="15" t="inlineStr">
         <is>
-          <t>假日威龙陈</t>
+          <t>卡涅利安</t>
         </is>
       </c>
       <c r="B203" s="15" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C203" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D203" s="10" t="inlineStr">
         <is>
-          <t>maa://39238</t>
+          <t>maa://30673, maa://30672</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="15" t="inlineStr">
         <is>
-          <t>罗比菈塔</t>
+          <t>帕拉斯</t>
         </is>
       </c>
       <c r="B204" s="15" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="C204" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D204" s="10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://20934, maa://20827, maa://20828</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="15" t="inlineStr">
         <is>
-          <t>桑葚</t>
+          <t>帕拉斯</t>
         </is>
       </c>
       <c r="B205" s="15" t="inlineStr">
         <is>
-          <t>SV-5</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C205" s="12" t="inlineStr">
@@ -5358,85 +5358,85 @@
       </c>
       <c r="D205" s="10" t="inlineStr">
         <is>
-          <t>maa://39694</t>
+          <t>maa://20935</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="15" t="inlineStr">
         <is>
-          <t>琴柳</t>
+          <t>羽毛笔</t>
         </is>
       </c>
       <c r="B206" s="15" t="inlineStr">
         <is>
-          <t>9-2</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C206" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D206" s="13" t="inlineStr">
         <is>
-          <t>maa://24636, maa://25778</t>
+          <t>maa://28133, *maa://28277, maa://25369, *maa://33132</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="15" t="inlineStr">
         <is>
-          <t>灰毫</t>
+          <t>水月</t>
         </is>
       </c>
       <c r="B207" s="15" t="inlineStr">
         <is>
-          <t>7-9</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C207" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D207" s="10" t="inlineStr">
         <is>
-          <t>maa://39157</t>
+          <t>maa://20956, *maa://20830</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="15" t="inlineStr">
         <is>
-          <t>远牙</t>
+          <t>水月</t>
         </is>
       </c>
       <c r="B208" s="15" t="inlineStr">
         <is>
-          <t>S2-2</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="C208" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D208" s="10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>*maa://20955</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="15" t="inlineStr">
         <is>
-          <t>远牙</t>
+          <t>假日威龙陈</t>
         </is>
       </c>
       <c r="B209" s="15" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="C209" s="12" t="inlineStr">
@@ -5446,41 +5446,41 @@
       </c>
       <c r="D209" s="10" t="inlineStr">
         <is>
-          <t>maa://26499</t>
+          <t>maa://39238</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="15" t="inlineStr">
         <is>
-          <t>布丁</t>
+          <t>罗比菈塔</t>
         </is>
       </c>
       <c r="B210" s="15" t="inlineStr">
         <is>
-          <t>2-10</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C210" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D210" s="10" t="inlineStr">
         <is>
-          <t>maa://20858</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="15" t="inlineStr">
         <is>
-          <t>蜜莓</t>
+          <t>桑葚</t>
         </is>
       </c>
       <c r="B211" s="15" t="inlineStr">
         <is>
-          <t>GA-2</t>
+          <t>SV-5</t>
         </is>
       </c>
       <c r="C211" s="12" t="inlineStr">
@@ -5490,41 +5490,41 @@
       </c>
       <c r="D211" s="10" t="inlineStr">
         <is>
-          <t>maa://39695</t>
+          <t>maa://39694</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="15" t="inlineStr">
         <is>
-          <t>野鬃</t>
+          <t>琴柳</t>
         </is>
       </c>
       <c r="B212" s="15" t="inlineStr">
         <is>
-          <t>MN-2</t>
+          <t>9-2</t>
         </is>
       </c>
       <c r="C212" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D212" s="10" t="inlineStr">
         <is>
-          <t>maa://20988</t>
+          <t>maa://24636, maa://25778</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="15" t="inlineStr">
         <is>
-          <t>蚀清</t>
+          <t>灰毫</t>
         </is>
       </c>
       <c r="B213" s="15" t="inlineStr">
         <is>
-          <t>BI-6</t>
+          <t>7-9</t>
         </is>
       </c>
       <c r="C213" s="12" t="inlineStr">
@@ -5534,41 +5534,41 @@
       </c>
       <c r="D213" s="10" t="inlineStr">
         <is>
-          <t>maa://39158</t>
+          <t>maa://39157</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="15" t="inlineStr">
         <is>
-          <t>焰尾</t>
+          <t>远牙</t>
         </is>
       </c>
       <c r="B214" s="15" t="inlineStr">
         <is>
-          <t>NL-5</t>
+          <t>S2-2</t>
         </is>
       </c>
       <c r="C214" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D214" s="10" t="inlineStr">
         <is>
-          <t>maa://28187, maa://39520</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="15" t="inlineStr">
         <is>
-          <t>焰尾</t>
+          <t>远牙</t>
         </is>
       </c>
       <c r="B215" s="15" t="inlineStr">
         <is>
-          <t>NL-3</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C215" s="12" t="inlineStr">
@@ -5578,41 +5578,41 @@
       </c>
       <c r="D215" s="10" t="inlineStr">
         <is>
-          <t>maa://20985</t>
+          <t>maa://26499</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="15" t="inlineStr">
         <is>
-          <t>耀骑士临光</t>
+          <t>布丁</t>
         </is>
       </c>
       <c r="B216" s="15" t="inlineStr">
         <is>
-          <t>MN-8</t>
+          <t>2-10</t>
         </is>
       </c>
       <c r="C216" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D216" s="10" t="inlineStr">
         <is>
-          <t>maa://20987, *maa://35801</t>
+          <t>maa://20858</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="15" t="inlineStr">
         <is>
-          <t>耀骑士临光</t>
+          <t>蜜莓</t>
         </is>
       </c>
       <c r="B217" s="15" t="inlineStr">
         <is>
-          <t>NL-10</t>
+          <t>GA-2</t>
         </is>
       </c>
       <c r="C217" s="12" t="inlineStr">
@@ -5622,41 +5622,41 @@
       </c>
       <c r="D217" s="10" t="inlineStr">
         <is>
-          <t>maa://39159</t>
+          <t>maa://39695</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="15" t="inlineStr">
         <is>
-          <t>耶拉</t>
+          <t>野鬃</t>
         </is>
       </c>
       <c r="B218" s="15" t="inlineStr">
         <is>
-          <t>BI-7</t>
+          <t>MN-2</t>
         </is>
       </c>
       <c r="C218" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D218" s="10" t="inlineStr">
         <is>
-          <t>maa://39140, maa://30677</t>
+          <t>maa://20988</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="15" t="inlineStr">
         <is>
-          <t>极光</t>
+          <t>蚀清</t>
         </is>
       </c>
       <c r="B219" s="15" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>BI-6</t>
         </is>
       </c>
       <c r="C219" s="12" t="inlineStr">
@@ -5666,19 +5666,19 @@
       </c>
       <c r="D219" s="10" t="inlineStr">
         <is>
-          <t>maa://20896</t>
+          <t>maa://39158</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="15" t="inlineStr">
         <is>
-          <t>灵知</t>
+          <t>焰尾</t>
         </is>
       </c>
       <c r="B220" s="15" t="inlineStr">
         <is>
-          <t>BI-7</t>
+          <t>NL-5</t>
         </is>
       </c>
       <c r="C220" s="12" t="inlineStr">
@@ -5688,19 +5688,19 @@
       </c>
       <c r="D220" s="10" t="inlineStr">
         <is>
-          <t>maa://29058, maa://39140, maa://38723</t>
+          <t>maa://28187, maa://39520, maa://43531</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="15" t="inlineStr">
         <is>
-          <t>九色鹿</t>
+          <t>焰尾</t>
         </is>
       </c>
       <c r="B221" s="15" t="inlineStr">
         <is>
-          <t>IW-3</t>
+          <t>NL-3</t>
         </is>
       </c>
       <c r="C221" s="12" t="inlineStr">
@@ -5710,41 +5710,41 @@
       </c>
       <c r="D221" s="10" t="inlineStr">
         <is>
-          <t>maa://39160</t>
+          <t>maa://20985</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="15" t="inlineStr">
         <is>
-          <t>寒芒克洛丝</t>
+          <t>耀骑士临光</t>
         </is>
       </c>
       <c r="B222" s="15" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>MN-8</t>
         </is>
       </c>
       <c r="C222" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D222" s="10" t="inlineStr">
         <is>
-          <t>maa://20878</t>
+          <t>maa://20987, *maa://35801</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="15" t="inlineStr">
         <is>
-          <t>夜半</t>
+          <t>耀骑士临光</t>
         </is>
       </c>
       <c r="B223" s="15" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>NL-10</t>
         </is>
       </c>
       <c r="C223" s="12" t="inlineStr">
@@ -5754,85 +5754,85 @@
       </c>
       <c r="D223" s="10" t="inlineStr">
         <is>
-          <t>maa://35952</t>
+          <t>maa://39159</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="15" t="inlineStr">
         <is>
-          <t>老鲤</t>
+          <t>耶拉</t>
         </is>
       </c>
       <c r="B224" s="15" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>BI-7</t>
         </is>
       </c>
       <c r="C224" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D224" s="10" t="inlineStr">
         <is>
-          <t>maa://20917</t>
+          <t>maa://39140, maa://30677</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="15" t="inlineStr">
         <is>
-          <t>老鲤</t>
+          <t>极光</t>
         </is>
       </c>
       <c r="B225" s="15" t="inlineStr">
         <is>
-          <t>IW-EX-1</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C225" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D225" s="10" t="inlineStr">
         <is>
-          <t>maa://30714, maa://30675</t>
+          <t>maa://20896</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="15" t="inlineStr">
         <is>
-          <t>令</t>
+          <t>灵知</t>
         </is>
       </c>
       <c r="B226" s="15" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>BI-7</t>
         </is>
       </c>
       <c r="C226" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D226" s="10" t="inlineStr">
         <is>
-          <t>maa://20922, *maa://32623, *maa://34242, maa://34900</t>
+          <t>maa://29058, maa://39140, maa://38723</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="15" t="inlineStr">
         <is>
-          <t>夏栎</t>
+          <t>九色鹿</t>
         </is>
       </c>
       <c r="B227" s="15" t="inlineStr">
         <is>
-          <t>9-2</t>
+          <t>IW-3</t>
         </is>
       </c>
       <c r="C227" s="12" t="inlineStr">
@@ -5842,41 +5842,41 @@
       </c>
       <c r="D227" s="10" t="inlineStr">
         <is>
-          <t>maa://32999</t>
+          <t>maa://39160</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="15" t="inlineStr">
         <is>
-          <t>澄闪</t>
+          <t>寒芒克洛丝</t>
         </is>
       </c>
       <c r="B228" s="15" t="inlineStr">
         <is>
-          <t>R8-8</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C228" s="12" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D228" s="10" t="inlineStr">
         <is>
-          <t>*maa://30667, maa://30666, *maa://26836, maa://37607, *maa://34428, *maa://30723, maa://39588, *maa://37850</t>
+          <t>maa://20878</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="15" t="inlineStr">
         <is>
-          <t>见行者</t>
+          <t>夜半</t>
         </is>
       </c>
       <c r="B229" s="15" t="inlineStr">
         <is>
-          <t>GA-EX-1</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C229" s="12" t="inlineStr">
@@ -5886,14 +5886,14 @@
       </c>
       <c r="D229" s="10" t="inlineStr">
         <is>
-          <t>maa://30512</t>
+          <t>maa://35952</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="15" t="inlineStr">
         <is>
-          <t>风丸</t>
+          <t>老鲤</t>
         </is>
       </c>
       <c r="B230" s="15" t="inlineStr">
@@ -5908,63 +5908,63 @@
       </c>
       <c r="D230" s="10" t="inlineStr">
         <is>
-          <t>maa://20870</t>
+          <t>maa://20917</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="15" t="inlineStr">
         <is>
-          <t>菲亚梅塔</t>
+          <t>老鲤</t>
         </is>
       </c>
       <c r="B231" s="15" t="inlineStr">
         <is>
-          <t>GA-4</t>
+          <t>IW-EX-1</t>
         </is>
       </c>
       <c r="C231" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D231" s="10" t="inlineStr">
         <is>
-          <t>maa://29024</t>
+          <t>maa://30714, maa://30675</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="15" t="inlineStr">
         <is>
-          <t>菲亚梅塔</t>
+          <t>令</t>
         </is>
       </c>
       <c r="B232" s="15" t="inlineStr">
         <is>
-          <t>S5-9</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C232" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D232" s="10" t="inlineStr">
         <is>
-          <t>maa://20867, *maa://32202, maa://38485</t>
+          <t>maa://20922, *maa://32623, *maa://34242, maa://34900</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="15" t="inlineStr">
         <is>
-          <t>褐果</t>
+          <t>夏栎</t>
         </is>
       </c>
       <c r="B233" s="15" t="inlineStr">
         <is>
-          <t>SV-3</t>
+          <t>9-2</t>
         </is>
       </c>
       <c r="C233" s="12" t="inlineStr">
@@ -5974,41 +5974,41 @@
       </c>
       <c r="D233" s="10" t="inlineStr">
         <is>
-          <t>maa://40160</t>
+          <t>maa://32999</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="15" t="inlineStr">
         <is>
-          <t>海蒂</t>
+          <t>澄闪</t>
         </is>
       </c>
       <c r="B234" s="15" t="inlineStr">
         <is>
-          <t>9-7</t>
+          <t>R8-8</t>
         </is>
       </c>
       <c r="C234" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D234" s="10" t="inlineStr">
         <is>
-          <t>maa://43089</t>
+          <t>*maa://30667, maa://30666, *maa://26836, maa://37607, *maa://34428, *maa://30723, maa://39588, *maa://37850</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="15" t="inlineStr">
         <is>
-          <t>洛洛</t>
+          <t>见行者</t>
         </is>
       </c>
       <c r="B235" s="15" t="inlineStr">
         <is>
-          <t>RI-EX-4</t>
+          <t>GA-EX-1</t>
         </is>
       </c>
       <c r="C235" s="12" t="inlineStr">
@@ -6018,85 +6018,85 @@
       </c>
       <c r="D235" s="10" t="inlineStr">
         <is>
-          <t>maa://30674</t>
+          <t>maa://30512</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="15" t="inlineStr">
         <is>
-          <t>号角</t>
+          <t>风丸</t>
         </is>
       </c>
       <c r="B236" s="15" t="inlineStr">
         <is>
-          <t>7-15</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C236" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D236" s="10" t="inlineStr">
         <is>
-          <t>maa://28923, maa://28906</t>
+          <t>maa://20870</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="15" t="inlineStr">
         <is>
-          <t>号角</t>
+          <t>菲亚梅塔</t>
         </is>
       </c>
       <c r="B237" s="15" t="inlineStr">
         <is>
-          <t>9-5</t>
+          <t>GA-4</t>
         </is>
       </c>
       <c r="C237" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D237" s="13" t="inlineStr">
         <is>
-          <t>maa://42287, maa://42225</t>
+          <t>maa://29024</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="15" t="inlineStr">
         <is>
-          <t>掠风</t>
+          <t>菲亚梅塔</t>
         </is>
       </c>
       <c r="B238" s="15" t="inlineStr">
         <is>
-          <t>11-9</t>
+          <t>S5-9</t>
         </is>
       </c>
       <c r="C238" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D238" s="10" t="inlineStr">
         <is>
-          <t>maa://39161</t>
+          <t>maa://20867, *maa://32202, maa://38485</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="15" t="inlineStr">
         <is>
-          <t>流明</t>
+          <t>褐果</t>
         </is>
       </c>
       <c r="B239" s="15" t="inlineStr">
         <is>
-          <t>6-9</t>
+          <t>SV-3</t>
         </is>
       </c>
       <c r="C239" s="12" t="inlineStr">
@@ -6106,41 +6106,41 @@
       </c>
       <c r="D239" s="10" t="inlineStr">
         <is>
-          <t>maa://20923</t>
+          <t>maa://40160</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="15" t="inlineStr">
         <is>
-          <t>流明</t>
+          <t>海蒂</t>
         </is>
       </c>
       <c r="B240" s="15" t="inlineStr">
         <is>
-          <t>OF-5</t>
+          <t>9-7</t>
         </is>
       </c>
       <c r="C240" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D240" s="10" t="inlineStr">
         <is>
-          <t>maa://24093, maa://31559, maa://20924</t>
+          <t>maa://43089</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="15" t="inlineStr">
         <is>
-          <t>艾丽妮</t>
+          <t>洛洛</t>
         </is>
       </c>
       <c r="B241" s="15" t="inlineStr">
         <is>
-          <t>SV-EX-1</t>
+          <t>RI-EX-4</t>
         </is>
       </c>
       <c r="C241" s="12" t="inlineStr">
@@ -6150,85 +6150,85 @@
       </c>
       <c r="D241" s="10" t="inlineStr">
         <is>
-          <t>*maa://40958</t>
+          <t>maa://30674</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="15" t="inlineStr">
         <is>
-          <t>艾丽妮</t>
+          <t>号角</t>
         </is>
       </c>
       <c r="B242" s="15" t="inlineStr">
         <is>
-          <t>SV-4</t>
+          <t>7-15</t>
         </is>
       </c>
       <c r="C242" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D242" s="10" t="inlineStr">
         <is>
-          <t>maa://20840</t>
+          <t>maa://28923, maa://28906</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="15" t="inlineStr">
         <is>
-          <t>归溟幽灵鲨</t>
+          <t>号角</t>
         </is>
       </c>
       <c r="B243" s="15" t="inlineStr">
         <is>
-          <t>SV-EX-1</t>
+          <t>9-5</t>
         </is>
       </c>
       <c r="C243" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D243" s="10" t="inlineStr">
         <is>
-          <t>maa://20877, maa://20836, maa://20632</t>
+          <t>maa://42287, maa://42225</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="15" t="inlineStr">
         <is>
-          <t>归溟幽灵鲨</t>
+          <t>掠风</t>
         </is>
       </c>
       <c r="B244" s="15" t="inlineStr">
         <is>
-          <t>S4-1</t>
+          <t>11-9</t>
         </is>
       </c>
       <c r="C244" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D244" s="13" t="inlineStr">
         <is>
-          <t>maa://20879, maa://20834</t>
+          <t>maa://39161</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="15" t="inlineStr">
         <is>
-          <t>埃拉托</t>
+          <t>流明</t>
         </is>
       </c>
       <c r="B245" s="15" t="inlineStr">
         <is>
-          <t>S5-9</t>
+          <t>6-9</t>
         </is>
       </c>
       <c r="C245" s="12" t="inlineStr">
@@ -6238,129 +6238,129 @@
       </c>
       <c r="D245" s="10" t="inlineStr">
         <is>
-          <t>maa://20839</t>
+          <t>maa://20923</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="15" t="inlineStr">
         <is>
-          <t>濯尘芙蓉</t>
+          <t>流明</t>
         </is>
       </c>
       <c r="B246" s="15" t="inlineStr">
         <is>
-          <t>LE-4</t>
+          <t>OF-5</t>
         </is>
       </c>
       <c r="C246" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D246" s="10" t="inlineStr">
         <is>
-          <t>maa://30676</t>
+          <t>maa://24093, maa://31559, maa://20924</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="15" t="inlineStr">
         <is>
-          <t>黑键</t>
+          <t>艾丽妮</t>
         </is>
       </c>
       <c r="B247" s="15" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>SV-EX-1</t>
         </is>
       </c>
       <c r="C247" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D247" s="10" t="inlineStr">
         <is>
-          <t>maa://31560, maa://20884</t>
+          <t>*maa://40958</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="15" t="inlineStr">
         <is>
-          <t>黑键</t>
+          <t>艾丽妮</t>
         </is>
       </c>
       <c r="B248" s="15" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>SV-4</t>
         </is>
       </c>
       <c r="C248" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D248" s="10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://20840</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="15" t="inlineStr">
         <is>
-          <t>黑键</t>
+          <t>归溟幽灵鲨</t>
         </is>
       </c>
       <c r="B249" s="15" t="inlineStr">
         <is>
-          <t>11-12</t>
+          <t>SV-EX-1</t>
         </is>
       </c>
       <c r="C249" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D249" s="13" t="inlineStr">
         <is>
-          <t>maa://29027</t>
+          <t>maa://20877, maa://20836, maa://20632</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="15" t="inlineStr">
         <is>
-          <t>星源</t>
+          <t>归溟幽灵鲨</t>
         </is>
       </c>
       <c r="B250" s="15" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>S4-1</t>
         </is>
       </c>
       <c r="C250" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D250" s="10" t="inlineStr">
         <is>
-          <t>maa://20977</t>
+          <t>maa://20879, maa://20834</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="15" t="inlineStr">
         <is>
-          <t>承曦格雷伊</t>
+          <t>埃拉托</t>
         </is>
       </c>
       <c r="B251" s="15" t="inlineStr">
         <is>
-          <t>1-3</t>
+          <t>S5-9</t>
         </is>
       </c>
       <c r="C251" s="12" t="inlineStr">
@@ -6370,19 +6370,19 @@
       </c>
       <c r="D251" s="10" t="inlineStr">
         <is>
-          <t>maa://39162</t>
+          <t>maa://20839</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="15" t="inlineStr">
         <is>
-          <t>多萝西</t>
+          <t>濯尘芙蓉</t>
         </is>
       </c>
       <c r="B252" s="15" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>LE-4</t>
         </is>
       </c>
       <c r="C252" s="12" t="inlineStr">
@@ -6392,63 +6392,63 @@
       </c>
       <c r="D252" s="10" t="inlineStr">
         <is>
-          <t>maa://22467</t>
+          <t>maa://30676</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="15" t="inlineStr">
         <is>
-          <t>至简</t>
+          <t>黑键</t>
         </is>
       </c>
       <c r="B253" s="15" t="inlineStr">
         <is>
-          <t>IC-8</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C253" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D253" s="10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://31560, maa://20884</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="15" t="inlineStr">
         <is>
-          <t>鸿雪</t>
+          <t>黑键</t>
         </is>
       </c>
       <c r="B254" s="15" t="inlineStr">
         <is>
-          <t>2-10</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="C254" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D254" s="10" t="inlineStr">
         <is>
-          <t>*maa://20825, *maa://21445, *maa://35726</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="15" t="inlineStr">
         <is>
-          <t>百炼嘉维尔</t>
+          <t>黑键</t>
         </is>
       </c>
       <c r="B255" s="15" t="inlineStr">
         <is>
-          <t>9-2</t>
+          <t>11-12</t>
         </is>
       </c>
       <c r="C255" s="12" t="inlineStr">
@@ -6458,41 +6458,41 @@
       </c>
       <c r="D255" s="10" t="inlineStr">
         <is>
-          <t>maa://25769</t>
+          <t>maa://29027</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="15" t="inlineStr">
         <is>
-          <t>但书</t>
+          <t>星源</t>
         </is>
       </c>
       <c r="B256" s="15" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C256" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D256" s="10" t="inlineStr">
         <is>
-          <t>maa://27794, *maa://20862</t>
+          <t>maa://20977</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="15" t="inlineStr">
         <is>
-          <t>罗小黑</t>
+          <t>承曦格雷伊</t>
         </is>
       </c>
       <c r="B257" s="15" t="inlineStr">
         <is>
-          <t>IW-4</t>
+          <t>1-3</t>
         </is>
       </c>
       <c r="C257" s="12" t="inlineStr">
@@ -6502,19 +6502,19 @@
       </c>
       <c r="D257" s="10" t="inlineStr">
         <is>
-          <t>maa://39163</t>
+          <t>maa://39162</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="15" t="inlineStr">
         <is>
-          <t>海沫</t>
+          <t>多萝西</t>
         </is>
       </c>
       <c r="B258" s="15" t="inlineStr">
         <is>
-          <t>SN-2</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="C258" s="12" t="inlineStr">
@@ -6524,107 +6524,107 @@
       </c>
       <c r="D258" s="10" t="inlineStr">
         <is>
-          <t>maa://29061</t>
+          <t>maa://22467</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="15" t="inlineStr">
         <is>
-          <t>铅踝</t>
+          <t>至简</t>
         </is>
       </c>
       <c r="B259" s="15" t="inlineStr">
         <is>
-          <t>S3-5</t>
+          <t>IC-8</t>
         </is>
       </c>
       <c r="C259" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D259" s="10" t="inlineStr">
         <is>
-          <t>*maa://20939</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="15" t="inlineStr">
         <is>
-          <t>达格达</t>
+          <t>鸿雪</t>
         </is>
       </c>
       <c r="B260" s="15" t="inlineStr">
         <is>
-          <t>11-5</t>
+          <t>2-10</t>
         </is>
       </c>
       <c r="C260" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D260" s="10" t="inlineStr">
         <is>
-          <t>maa://39164</t>
+          <t>*maa://20825, *maa://21445, *maa://35726</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="15" t="inlineStr">
         <is>
-          <t>白铁</t>
+          <t>百炼嘉维尔</t>
         </is>
       </c>
       <c r="B261" s="15" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>9-2</t>
         </is>
       </c>
       <c r="C261" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D261" s="10" t="inlineStr">
         <is>
-          <t>maa://28133, maa://33394</t>
+          <t>maa://25769</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="15" t="inlineStr">
         <is>
-          <t>白铁</t>
+          <t>但书</t>
         </is>
       </c>
       <c r="B262" s="15" t="inlineStr">
         <is>
-          <t>9-6</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="C262" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D262" s="10" t="inlineStr">
         <is>
-          <t>maa://42311</t>
+          <t>maa://27794, *maa://20862</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="15" t="inlineStr">
         <is>
-          <t>石英</t>
+          <t>罗小黑</t>
         </is>
       </c>
       <c r="B263" s="15" t="inlineStr">
         <is>
-          <t>DH-4</t>
+          <t>IW-4</t>
         </is>
       </c>
       <c r="C263" s="12" t="inlineStr">
@@ -6634,19 +6634,19 @@
       </c>
       <c r="D263" s="10" t="inlineStr">
         <is>
-          <t>maa://41362</t>
+          <t>maa://39163</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="15" t="inlineStr">
         <is>
-          <t>雪绒</t>
+          <t>海沫</t>
         </is>
       </c>
       <c r="B264" s="15" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>SN-2</t>
         </is>
       </c>
       <c r="C264" s="12" t="inlineStr">
@@ -6656,19 +6656,19 @@
       </c>
       <c r="D264" s="10" t="inlineStr">
         <is>
-          <t>maa://20978</t>
+          <t>maa://29061</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="15" t="inlineStr">
         <is>
-          <t>子月</t>
+          <t>铅踝</t>
         </is>
       </c>
       <c r="B265" s="15" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>S3-5</t>
         </is>
       </c>
       <c r="C265" s="12" t="inlineStr">
@@ -6678,19 +6678,19 @@
       </c>
       <c r="D265" s="10" t="inlineStr">
         <is>
-          <t>maa://21002</t>
+          <t>*maa://20939</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="15" t="inlineStr">
         <is>
-          <t>伺夜</t>
+          <t>达格达</t>
         </is>
       </c>
       <c r="B266" s="15" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>11-5</t>
         </is>
       </c>
       <c r="C266" s="12" t="inlineStr">
@@ -6700,41 +6700,41 @@
       </c>
       <c r="D266" s="10" t="inlineStr">
         <is>
-          <t>**maa://39165</t>
+          <t>maa://39164</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="15" t="inlineStr">
         <is>
-          <t>斥罪</t>
+          <t>白铁</t>
         </is>
       </c>
       <c r="B267" s="15" t="inlineStr">
         <is>
-          <t>CB-4</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C267" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D267" s="10" t="inlineStr">
         <is>
-          <t>maa://29635</t>
+          <t>maa://28133, maa://33394</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="15" t="inlineStr">
         <is>
-          <t>斥罪</t>
+          <t>白铁</t>
         </is>
       </c>
       <c r="B268" s="15" t="inlineStr">
         <is>
-          <t>IS-7</t>
+          <t>9-6</t>
         </is>
       </c>
       <c r="C268" s="12" t="inlineStr">
@@ -6744,19 +6744,19 @@
       </c>
       <c r="D268" s="10" t="inlineStr">
         <is>
-          <t>*maa://38296</t>
+          <t>maa://42311</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="15" t="inlineStr">
         <is>
-          <t>缄默德克萨斯</t>
+          <t>石英</t>
         </is>
       </c>
       <c r="B269" s="15" t="inlineStr">
         <is>
-          <t>CB-8</t>
+          <t>DH-4</t>
         </is>
       </c>
       <c r="C269" s="12" t="inlineStr">
@@ -6766,19 +6766,19 @@
       </c>
       <c r="D269" s="10" t="inlineStr">
         <is>
-          <t>maa://20899</t>
+          <t>maa://41362</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="15" t="inlineStr">
         <is>
-          <t>和弦</t>
+          <t>雪绒</t>
         </is>
       </c>
       <c r="B270" s="15" t="inlineStr">
         <is>
-          <t>6-5</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="C270" s="12" t="inlineStr">
@@ -6788,41 +6788,41 @@
       </c>
       <c r="D270" s="10" t="inlineStr">
         <is>
-          <t>maa://20881</t>
+          <t>maa://20978</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="15" t="inlineStr">
         <is>
-          <t>焰影苇草</t>
+          <t>子月</t>
         </is>
       </c>
       <c r="B271" s="15" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C271" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D271" s="10" t="inlineStr">
         <is>
-          <t>maa://30710, maa://36845, maa://31558, maa://30668</t>
+          <t>maa://21002</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="15" t="inlineStr">
         <is>
-          <t>截云</t>
+          <t>伺夜</t>
         </is>
       </c>
       <c r="B272" s="15" t="inlineStr">
         <is>
-          <t>S2-2</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C272" s="12" t="inlineStr">
@@ -6832,19 +6832,19 @@
       </c>
       <c r="D272" s="10" t="inlineStr">
         <is>
-          <t>maa://20902</t>
+          <t>**maa://39165</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="15" t="inlineStr">
         <is>
-          <t>火哨</t>
+          <t>斥罪</t>
         </is>
       </c>
       <c r="B273" s="15" t="inlineStr">
         <is>
-          <t>S4-6</t>
+          <t>CB-4</t>
         </is>
       </c>
       <c r="C273" s="12" t="inlineStr">
@@ -6854,63 +6854,63 @@
       </c>
       <c r="D273" s="10" t="inlineStr">
         <is>
-          <t>maa://29159</t>
+          <t>maa://29635</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="15" t="inlineStr">
         <is>
-          <t>林</t>
+          <t>斥罪</t>
         </is>
       </c>
       <c r="B274" s="15" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>IS-7</t>
         </is>
       </c>
       <c r="C274" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D274" s="10" t="inlineStr">
         <is>
-          <t>maa://25774, maa://28133, maa://22469, **maa://31349</t>
+          <t>*maa://38296</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="15" t="inlineStr">
         <is>
-          <t>重岳</t>
+          <t>缄默德克萨斯</t>
         </is>
       </c>
       <c r="B275" s="15" t="inlineStr">
         <is>
-          <t>WB-7</t>
+          <t>CB-8</t>
         </is>
       </c>
       <c r="C275" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D275" s="10" t="inlineStr">
         <is>
-          <t>maa://32414, maa://32505, maa://39155</t>
+          <t>maa://20899</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="15" t="inlineStr">
         <is>
-          <t>铎铃</t>
+          <t>和弦</t>
         </is>
       </c>
       <c r="B276" s="15" t="inlineStr">
         <is>
-          <t>2-1</t>
+          <t>6-5</t>
         </is>
       </c>
       <c r="C276" s="12" t="inlineStr">
@@ -6920,129 +6920,129 @@
       </c>
       <c r="D276" s="10" t="inlineStr">
         <is>
-          <t>maa://42312</t>
+          <t>maa://20881</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="15" t="inlineStr">
         <is>
-          <t>仇白</t>
+          <t>焰影苇草</t>
         </is>
       </c>
       <c r="B277" s="15" t="inlineStr">
         <is>
-          <t>WB-7</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C277" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D277" s="10" t="inlineStr">
         <is>
-          <t>maa://36642, maa://36867, maa://39155</t>
+          <t>maa://30710, maa://36845, maa://31558, maa://30668</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="15" t="inlineStr">
         <is>
-          <t>火龙S黑角</t>
+          <t>截云</t>
         </is>
       </c>
       <c r="B278" s="15" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>S2-2</t>
         </is>
       </c>
       <c r="C278" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D278" s="10" t="inlineStr">
         <is>
-          <t>maa://39166, maa://39167</t>
+          <t>maa://20902</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="15" t="inlineStr">
         <is>
-          <t>麒麟R夜刀</t>
+          <t>火哨</t>
         </is>
       </c>
       <c r="B279" s="15" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>S4-6</t>
         </is>
       </c>
       <c r="C279" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D279" s="10" t="inlineStr">
         <is>
-          <t>maa://29005, maa://31560</t>
+          <t>maa://29159</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="15" t="inlineStr">
         <is>
-          <t>休谟斯</t>
+          <t>林</t>
         </is>
       </c>
       <c r="B280" s="15" t="inlineStr">
         <is>
-          <t>7-8</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C280" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D280" s="10" t="inlineStr">
         <is>
-          <t>maa://39168</t>
+          <t>maa://25774, maa://28133, maa://22469, **maa://31349</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="15" t="inlineStr">
         <is>
-          <t>摩根</t>
+          <t>重岳</t>
         </is>
       </c>
       <c r="B281" s="15" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>WB-7</t>
         </is>
       </c>
       <c r="C281" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D281" s="10" t="inlineStr">
         <is>
-          <t>maa://39169</t>
+          <t>maa://32414, maa://32505, maa://39155</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="15" t="inlineStr">
         <is>
-          <t>洋灰</t>
+          <t>铎铃</t>
         </is>
       </c>
       <c r="B282" s="15" t="inlineStr">
         <is>
-          <t>IW-EX-6</t>
+          <t>2-1</t>
         </is>
       </c>
       <c r="C282" s="12" t="inlineStr">
@@ -7052,85 +7052,85 @@
       </c>
       <c r="D282" s="10" t="inlineStr">
         <is>
-          <t>maa://39170</t>
+          <t>maa://42312</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="15" t="inlineStr">
         <is>
-          <t>玫拉</t>
+          <t>仇白</t>
         </is>
       </c>
       <c r="B283" s="15" t="inlineStr">
         <is>
-          <t>S3-5</t>
+          <t>WB-7</t>
         </is>
       </c>
       <c r="C283" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D283" s="10" t="inlineStr">
         <is>
-          <t>maa://39171</t>
+          <t>maa://36642, maa://36867, maa://39155</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="15" t="inlineStr">
         <is>
-          <t>淬羽赫默</t>
+          <t>火龙S黑角</t>
         </is>
       </c>
       <c r="B284" s="15" t="inlineStr">
         <is>
-          <t>6-3</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C284" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D284" s="10" t="inlineStr">
         <is>
-          <t>maa://27939</t>
+          <t>maa://39166, maa://39167</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="15" t="inlineStr">
         <is>
-          <t>霍尔海雅</t>
+          <t>麒麟R夜刀</t>
         </is>
       </c>
       <c r="B285" s="15" t="inlineStr">
         <is>
-          <t>OF-7</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C285" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D285" s="10" t="inlineStr">
         <is>
-          <t>maa://29129</t>
+          <t>maa://29005, maa://31560</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="15" t="inlineStr">
         <is>
-          <t>霍尔海雅</t>
+          <t>休谟斯</t>
         </is>
       </c>
       <c r="B286" s="15" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>7-8</t>
         </is>
       </c>
       <c r="C286" s="12" t="inlineStr">
@@ -7140,19 +7140,19 @@
       </c>
       <c r="D286" s="10" t="inlineStr">
         <is>
-          <t>maa://36005</t>
+          <t>maa://39168</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="15" t="inlineStr">
         <is>
-          <t>缪尔赛思</t>
+          <t>摩根</t>
         </is>
       </c>
       <c r="B287" s="15" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="C287" s="12" t="inlineStr">
@@ -7162,19 +7162,19 @@
       </c>
       <c r="D287" s="10" t="inlineStr">
         <is>
-          <t>maa://35859</t>
+          <t>maa://39169</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="15" t="inlineStr">
         <is>
-          <t>隐现</t>
+          <t>洋灰</t>
         </is>
       </c>
       <c r="B288" s="15" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>IW-EX-6</t>
         </is>
       </c>
       <c r="C288" s="12" t="inlineStr">
@@ -7184,19 +7184,19 @@
       </c>
       <c r="D288" s="10" t="inlineStr">
         <is>
-          <t>**maa://39172</t>
+          <t>maa://39170</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="15" t="inlineStr">
         <is>
-          <t>空构</t>
+          <t>玫拉</t>
         </is>
       </c>
       <c r="B289" s="15" t="inlineStr">
         <is>
-          <t>DM-2</t>
+          <t>S3-5</t>
         </is>
       </c>
       <c r="C289" s="12" t="inlineStr">
@@ -7206,41 +7206,41 @@
       </c>
       <c r="D289" s="10" t="inlineStr">
         <is>
-          <t>maa://39173</t>
+          <t>maa://39171</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="15" t="inlineStr">
         <is>
-          <t>圣约送葬人</t>
+          <t>淬羽赫默</t>
         </is>
       </c>
       <c r="B290" s="15" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>6-3</t>
         </is>
       </c>
       <c r="C290" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D290" s="10" t="inlineStr">
         <is>
-          <t>maa://25775, *maa://25393</t>
+          <t>maa://27939</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="15" t="inlineStr">
         <is>
-          <t>寒檀</t>
+          <t>霍尔海雅</t>
         </is>
       </c>
       <c r="B291" s="15" t="inlineStr">
         <is>
-          <t>BI-2</t>
+          <t>OF-7</t>
         </is>
       </c>
       <c r="C291" s="12" t="inlineStr">
@@ -7250,19 +7250,19 @@
       </c>
       <c r="D291" s="10" t="inlineStr">
         <is>
-          <t>maa://40161</t>
+          <t>maa://29129</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="15" t="inlineStr">
         <is>
-          <t>提丰</t>
+          <t>霍尔海雅</t>
         </is>
       </c>
       <c r="B292" s="15" t="inlineStr">
         <is>
-          <t>S2-1</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C292" s="12" t="inlineStr">
@@ -7272,19 +7272,19 @@
       </c>
       <c r="D292" s="10" t="inlineStr">
         <is>
-          <t>maa://25367</t>
+          <t>maa://36005</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="15" t="inlineStr">
         <is>
-          <t>凛视</t>
+          <t>缪尔赛思</t>
         </is>
       </c>
       <c r="B293" s="15" t="inlineStr">
         <is>
-          <t>7-13</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C293" s="12" t="inlineStr">
@@ -7294,19 +7294,19 @@
       </c>
       <c r="D293" s="10" t="inlineStr">
         <is>
-          <t>**maa://43090</t>
+          <t>maa://35859</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="15" t="inlineStr">
         <is>
-          <t>苍苔</t>
+          <t>隐现</t>
         </is>
       </c>
       <c r="B294" s="15" t="inlineStr">
         <is>
-          <t>9-3</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C294" s="12" t="inlineStr">
@@ -7316,41 +7316,41 @@
       </c>
       <c r="D294" s="10" t="inlineStr">
         <is>
-          <t>maa://28070</t>
+          <t>**maa://39172</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="15" t="inlineStr">
         <is>
-          <t>青枳</t>
+          <t>空构</t>
         </is>
       </c>
       <c r="B295" s="15" t="inlineStr">
         <is>
-          <t>OF-5</t>
+          <t>DM-2</t>
         </is>
       </c>
       <c r="C295" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D295" s="10" t="inlineStr">
         <is>
-          <t>maa://31559, maa://28241</t>
+          <t>maa://39173</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="15" t="inlineStr">
         <is>
-          <t>琳琅诗怀雅</t>
+          <t>圣约送葬人</t>
         </is>
       </c>
       <c r="B296" s="15" t="inlineStr">
         <is>
-          <t>5-2</t>
+          <t>7-14</t>
         </is>
       </c>
       <c r="C296" s="12" t="inlineStr">
@@ -7360,19 +7360,19 @@
       </c>
       <c r="D296" s="10" t="inlineStr">
         <is>
-          <t>maa://25773, *maa://26088</t>
+          <t>maa://25775, *maa://25393</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="15" t="inlineStr">
         <is>
-          <t>琳琅诗怀雅</t>
+          <t>寒檀</t>
         </is>
       </c>
       <c r="B297" s="15" t="inlineStr">
         <is>
-          <t>11-16</t>
+          <t>BI-2</t>
         </is>
       </c>
       <c r="C297" s="12" t="inlineStr">
@@ -7382,41 +7382,41 @@
       </c>
       <c r="D297" s="10" t="inlineStr">
         <is>
-          <t>maa://39239</t>
+          <t>maa://40161</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="15" t="inlineStr">
         <is>
-          <t>纯烬艾雅法拉</t>
+          <t>提丰</t>
         </is>
       </c>
       <c r="B298" s="15" t="inlineStr">
         <is>
-          <t>FC-5</t>
+          <t>S2-1</t>
         </is>
       </c>
       <c r="C298" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D298" s="10" t="inlineStr">
         <is>
-          <t>maa://39692, maa://39810</t>
+          <t>maa://25367</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="15" t="inlineStr">
         <is>
-          <t>冰酿</t>
+          <t>凛视</t>
         </is>
       </c>
       <c r="B299" s="15" t="inlineStr">
         <is>
-          <t>S3-3</t>
+          <t>7-13</t>
         </is>
       </c>
       <c r="C299" s="12" t="inlineStr">
@@ -7426,19 +7426,19 @@
       </c>
       <c r="D299" s="10" t="inlineStr">
         <is>
-          <t>*maa://39174</t>
+          <t>**maa://43090</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="15" t="inlineStr">
         <is>
-          <t>杏仁</t>
+          <t>苍苔</t>
         </is>
       </c>
       <c r="B300" s="15" t="inlineStr">
         <is>
-          <t>BI-2</t>
+          <t>9-3</t>
         </is>
       </c>
       <c r="C300" s="12" t="inlineStr">
@@ -7448,19 +7448,19 @@
       </c>
       <c r="D300" s="10" t="inlineStr">
         <is>
-          <t>maa://39175</t>
+          <t>maa://28070</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="15" t="inlineStr">
         <is>
-          <t>涤火杰西卡</t>
+          <t>青枳</t>
         </is>
       </c>
       <c r="B301" s="15" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>OF-5</t>
         </is>
       </c>
       <c r="C301" s="12" t="inlineStr">
@@ -7470,41 +7470,41 @@
       </c>
       <c r="D301" s="10" t="inlineStr">
         <is>
-          <t>maa://34867, maa://34715</t>
+          <t>maa://31559, maa://28241</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="15" t="inlineStr">
         <is>
-          <t>维荻</t>
+          <t>琳琅诗怀雅</t>
         </is>
       </c>
       <c r="B302" s="15" t="inlineStr">
         <is>
-          <t>9-3</t>
+          <t>5-2</t>
         </is>
       </c>
       <c r="C302" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D302" s="10" t="inlineStr">
         <is>
-          <t>maa://39176</t>
+          <t>maa://25773, *maa://26088</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="15" t="inlineStr">
         <is>
-          <t>戴菲恩</t>
+          <t>琳琅诗怀雅</t>
         </is>
       </c>
       <c r="B303" s="15" t="inlineStr">
         <is>
-          <t>WD-6</t>
+          <t>11-16</t>
         </is>
       </c>
       <c r="C303" s="12" t="inlineStr">
@@ -7514,41 +7514,41 @@
       </c>
       <c r="D303" s="10" t="inlineStr">
         <is>
-          <t>maa://42316</t>
+          <t>maa://39239</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="15" t="inlineStr">
         <is>
-          <t>刺玫</t>
+          <t>纯烬艾雅法拉</t>
         </is>
       </c>
       <c r="B304" s="15" t="inlineStr">
         <is>
-          <t>IC-2</t>
+          <t>FC-5</t>
         </is>
       </c>
       <c r="C304" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D304" s="10" t="inlineStr">
         <is>
-          <t>maa://30680</t>
+          <t>maa://39692, maa://39810</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="15" t="inlineStr">
         <is>
-          <t>赫德雷</t>
+          <t>冰酿</t>
         </is>
       </c>
       <c r="B305" s="15" t="inlineStr">
         <is>
-          <t>IW-7</t>
+          <t>S3-3</t>
         </is>
       </c>
       <c r="C305" s="12" t="inlineStr">
@@ -7558,19 +7558,19 @@
       </c>
       <c r="D305" s="10" t="inlineStr">
         <is>
-          <t>maa://40956</t>
+          <t>*maa://39174</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="15" t="inlineStr">
         <is>
-          <t>深律</t>
+          <t>杏仁</t>
         </is>
       </c>
       <c r="B306" s="15" t="inlineStr">
         <is>
-          <t>LE-4</t>
+          <t>BI-2</t>
         </is>
       </c>
       <c r="C306" s="12" t="inlineStr">
@@ -7580,63 +7580,63 @@
       </c>
       <c r="D306" s="10" t="inlineStr">
         <is>
-          <t>**maa://39178</t>
+          <t>maa://39175</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="15" t="inlineStr">
         <is>
-          <t>止颂</t>
+          <t>涤火杰西卡</t>
         </is>
       </c>
       <c r="B307" s="15" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C307" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D307" s="10" t="inlineStr">
         <is>
-          <t>maa://34205</t>
+          <t>maa://34867, maa://34715</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="15" t="inlineStr">
         <is>
-          <t>止颂</t>
+          <t>维荻</t>
         </is>
       </c>
       <c r="B308" s="15" t="inlineStr">
         <is>
-          <t>TW-5</t>
+          <t>9-3</t>
         </is>
       </c>
       <c r="C308" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D308" s="10" t="inlineStr">
         <is>
-          <t>maa://43092, maa://43093</t>
+          <t>maa://39176</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="15" t="inlineStr">
         <is>
-          <t>塑心</t>
+          <t>戴菲恩</t>
         </is>
       </c>
       <c r="B309" s="15" t="inlineStr">
         <is>
-          <t>GA-7</t>
+          <t>WD-6</t>
         </is>
       </c>
       <c r="C309" s="12" t="inlineStr">
@@ -7646,19 +7646,19 @@
       </c>
       <c r="D309" s="10" t="inlineStr">
         <is>
-          <t>maa://42968</t>
+          <t>maa://42316</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="15" t="inlineStr">
         <is>
-          <t>哈洛德</t>
+          <t>刺玫</t>
         </is>
       </c>
       <c r="B310" s="15" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>IC-2</t>
         </is>
       </c>
       <c r="C310" s="12" t="inlineStr">
@@ -7668,19 +7668,19 @@
       </c>
       <c r="D310" s="10" t="inlineStr">
         <is>
-          <t>*maa://40162</t>
+          <t>maa://30680</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="15" t="inlineStr">
         <is>
-          <t>烈夏</t>
+          <t>赫德雷</t>
         </is>
       </c>
       <c r="B311" s="15" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>IW-7</t>
         </is>
       </c>
       <c r="C311" s="12" t="inlineStr">
@@ -7690,41 +7690,41 @@
       </c>
       <c r="D311" s="10" t="inlineStr">
         <is>
-          <t>maa://37692</t>
+          <t>maa://40956</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="15" t="inlineStr">
         <is>
-          <t>锏</t>
+          <t>深律</t>
         </is>
       </c>
       <c r="B312" s="15" t="inlineStr">
         <is>
-          <t>BI-6</t>
+          <t>LE-4</t>
         </is>
       </c>
       <c r="C312" s="12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D312" s="10" t="inlineStr">
         <is>
-          <t>maa://30671, maa://30669, maa://37275, *maa://32410, maa://41605, maa://33671</t>
+          <t>**maa://39178</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="15" t="inlineStr">
         <is>
-          <t>莱伊</t>
+          <t>止颂</t>
         </is>
       </c>
       <c r="B313" s="15" t="inlineStr">
         <is>
-          <t>S9-1</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="C313" s="12" t="inlineStr">
@@ -7734,41 +7734,41 @@
       </c>
       <c r="D313" s="10" t="inlineStr">
         <is>
-          <t>maa://38295</t>
+          <t>maa://34205</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="15" t="inlineStr">
         <is>
-          <t>万顷</t>
+          <t>止颂</t>
         </is>
       </c>
       <c r="B314" s="15" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>TW-5</t>
         </is>
       </c>
       <c r="C314" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D314" s="10" t="inlineStr">
         <is>
-          <t>maa://32417</t>
+          <t>maa://43092, maa://43093</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="15" t="inlineStr">
         <is>
-          <t>小满</t>
+          <t>薇薇安娜</t>
         </is>
       </c>
       <c r="B315" s="15" t="inlineStr">
         <is>
-          <t>9-11</t>
+          <t>MN-3</t>
         </is>
       </c>
       <c r="C315" s="12" t="inlineStr">
@@ -7778,19 +7778,19 @@
       </c>
       <c r="D315" s="10" t="inlineStr">
         <is>
-          <t>maa://32419</t>
+          <t>maa://44234</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="15" t="inlineStr">
         <is>
-          <t>左乐</t>
+          <t>塑心</t>
         </is>
       </c>
       <c r="B316" s="15" t="inlineStr">
         <is>
-          <t>WB-5</t>
+          <t>GA-7</t>
         </is>
       </c>
       <c r="C316" s="12" t="inlineStr">
@@ -7800,41 +7800,41 @@
       </c>
       <c r="D316" s="10" t="inlineStr">
         <is>
-          <t>maa://32416</t>
+          <t>maa://42968</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="15" t="inlineStr">
         <is>
-          <t>黍</t>
+          <t>哈洛德</t>
         </is>
       </c>
       <c r="B317" s="15" t="inlineStr">
         <is>
-          <t>11-11</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="C317" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D317" s="10" t="inlineStr">
         <is>
-          <t>maa://32647, maa://32415, maa://34677, maa://32892</t>
+          <t>*maa://40162</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="15" t="inlineStr">
         <is>
-          <t>红隼</t>
+          <t>烈夏</t>
         </is>
       </c>
       <c r="B318" s="15" t="inlineStr">
         <is>
-          <t>11-18</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C318" s="12" t="inlineStr">
@@ -7844,41 +7844,41 @@
       </c>
       <c r="D318" s="10" t="inlineStr">
         <is>
-          <t>maa://32420</t>
+          <t>maa://37692</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="15" t="inlineStr">
         <is>
-          <t>导火索</t>
+          <t>锏</t>
         </is>
       </c>
       <c r="B319" s="15" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>BI-6</t>
         </is>
       </c>
       <c r="C319" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D319" s="10" t="inlineStr">
         <is>
-          <t>maa://35606</t>
+          <t>maa://30671, maa://30669, maa://37275, *maa://32410, maa://41605, maa://33671</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="15" t="inlineStr">
         <is>
-          <t>双月</t>
+          <t>莱伊</t>
         </is>
       </c>
       <c r="B320" s="15" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>S9-1</t>
         </is>
       </c>
       <c r="C320" s="12" t="inlineStr">
@@ -7888,19 +7888,19 @@
       </c>
       <c r="D320" s="10" t="inlineStr">
         <is>
-          <t>maa://34716</t>
+          <t>maa://38295</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="15" t="inlineStr">
         <is>
-          <t>医生</t>
+          <t>万顷</t>
         </is>
       </c>
       <c r="B321" s="15" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="C321" s="12" t="inlineStr">
@@ -7910,41 +7910,41 @@
       </c>
       <c r="D321" s="10" t="inlineStr">
         <is>
-          <t>maa://39179</t>
+          <t>maa://32417</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="15" t="inlineStr">
         <is>
-          <t>艾拉</t>
+          <t>小满</t>
         </is>
       </c>
       <c r="B322" s="15" t="inlineStr">
         <is>
-          <t>DM-EX-1</t>
+          <t>9-11</t>
         </is>
       </c>
       <c r="C322" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D322" s="10" t="inlineStr">
         <is>
-          <t>maa://34865, maa://34717</t>
+          <t>maa://32419</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="15" t="inlineStr">
         <is>
-          <t>露托</t>
+          <t>左乐</t>
         </is>
       </c>
       <c r="B323" s="15" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>WB-5</t>
         </is>
       </c>
       <c r="C323" s="12" t="inlineStr">
@@ -7954,63 +7954,63 @@
       </c>
       <c r="D323" s="10" t="inlineStr">
         <is>
-          <t>maa://39180</t>
+          <t>maa://32416</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="15" t="inlineStr">
         <is>
-          <t>阿罗玛</t>
+          <t>黍</t>
         </is>
       </c>
       <c r="B324" s="15" t="inlineStr">
         <is>
-          <t>GT-HX-3</t>
+          <t>11-11</t>
         </is>
       </c>
       <c r="C324" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D324" s="10" t="inlineStr">
         <is>
-          <t>*maa://39181</t>
+          <t>maa://32647, maa://32415, maa://34677, maa://32892</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="15" t="inlineStr">
         <is>
-          <t>阿斯卡纶</t>
+          <t>红隼</t>
         </is>
       </c>
       <c r="B325" s="15" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>11-18</t>
         </is>
       </c>
       <c r="C325" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D325" s="10" t="inlineStr">
         <is>
-          <t>maa://36868, maa://35996</t>
+          <t>maa://32420</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="15" t="inlineStr">
         <is>
-          <t>历阵锐枪芬</t>
+          <t>导火索</t>
         </is>
       </c>
       <c r="B326" s="15" t="inlineStr">
         <is>
-          <t>4-2</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C326" s="12" t="inlineStr">
@@ -8020,107 +8020,107 @@
       </c>
       <c r="D326" s="10" t="inlineStr">
         <is>
-          <t>maa://36647</t>
+          <t>maa://35606</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="15" t="inlineStr">
         <is>
-          <t>魔王</t>
+          <t>双月</t>
         </is>
       </c>
       <c r="B327" s="15" t="inlineStr">
         <is>
-          <t>14-5</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C327" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D327" s="10" t="inlineStr">
         <is>
-          <t>maa://42299, **maa://42224</t>
+          <t>maa://34716</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="15" t="inlineStr">
         <is>
-          <t>逻各斯</t>
+          <t>医生</t>
         </is>
       </c>
       <c r="B328" s="15" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C328" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D328" s="10" t="inlineStr">
         <is>
-          <t>maa://36646, maa://36845</t>
+          <t>maa://39179</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="15" t="inlineStr">
         <is>
-          <t>维什戴尔</t>
+          <t>艾拉</t>
         </is>
       </c>
       <c r="B329" s="15" t="inlineStr">
         <is>
-          <t>DM-5</t>
+          <t>DM-EX-1</t>
         </is>
       </c>
       <c r="C329" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D329" s="10" t="inlineStr">
         <is>
-          <t>maa://36645, maa://36841, maa://37484, maa://37858</t>
+          <t>maa://34865, maa://34717</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="15" t="inlineStr">
         <is>
-          <t>阿米娅(医疗)</t>
+          <t>露托</t>
         </is>
       </c>
       <c r="B330" s="15" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C330" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D330" s="10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://39180</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="12" t="inlineStr">
         <is>
-          <t>深巡</t>
+          <t>阿罗玛</t>
         </is>
       </c>
       <c r="B331" s="12" t="inlineStr">
         <is>
-          <t>SN-5</t>
+          <t>GT-HX-3</t>
         </is>
       </c>
       <c r="C331" s="12" t="inlineStr">
@@ -8130,173 +8130,173 @@
       </c>
       <c r="D331" s="13" t="inlineStr">
         <is>
-          <t>maa://39183</t>
+          <t>*maa://39181</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="12" t="inlineStr">
         <is>
-          <t>海霓</t>
+          <t>阿斯卡纶</t>
         </is>
       </c>
       <c r="B332" s="12" t="inlineStr">
         <is>
-          <t>SV-4</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C332" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D332" s="13" t="inlineStr">
         <is>
-          <t>maa://39184</t>
+          <t>maa://36868, maa://35996</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="12" t="inlineStr">
         <is>
-          <t>乌尔比安</t>
+          <t>历阵锐枪芬</t>
         </is>
       </c>
       <c r="B333" s="12" t="inlineStr">
         <is>
-          <t>SV-6</t>
+          <t>4-2</t>
         </is>
       </c>
       <c r="C333" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D333" s="13" t="inlineStr">
         <is>
-          <t>maa://40957, maa://41035, maa://41128</t>
+          <t>maa://36647</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="12" t="inlineStr">
         <is>
-          <t>渡桥</t>
+          <t>魔王</t>
         </is>
       </c>
       <c r="B334" s="12" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>14-5</t>
         </is>
       </c>
       <c r="C334" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D334" s="13" t="inlineStr">
         <is>
-          <t>maa://40164</t>
+          <t>maa://42299, **maa://42224</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="12" t="inlineStr">
         <is>
-          <t>衡沙</t>
+          <t>逻各斯</t>
         </is>
       </c>
       <c r="B335" s="12" t="inlineStr">
         <is>
-          <t>DV-2</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C335" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D335" s="13" t="inlineStr">
         <is>
-          <t>maa://40165</t>
+          <t>maa://36646, maa://36845</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="12" t="inlineStr">
         <is>
-          <t>森西</t>
+          <t>维什戴尔</t>
         </is>
       </c>
       <c r="B336" s="12" t="inlineStr">
         <is>
-          <t>1-12</t>
+          <t>DM-5</t>
         </is>
       </c>
       <c r="C336" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D336" s="13" t="inlineStr">
         <is>
-          <t>maa://42331</t>
+          <t>maa://36645, maa://36841, maa://37484, maa://37858</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="12" t="inlineStr">
         <is>
-          <t>齐尔查克</t>
+          <t>阿米娅(医疗)</t>
         </is>
       </c>
       <c r="B337" s="12" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C337" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D337" s="13" t="inlineStr">
         <is>
-          <t>maa://42333, maa://41977</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="12" t="inlineStr">
         <is>
-          <t>莱欧斯</t>
+          <t>深巡</t>
         </is>
       </c>
       <c r="B338" s="12" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>SN-5</t>
         </is>
       </c>
       <c r="C338" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>maa://41976, maa://42338</t>
+          <t>maa://39183</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="12" t="inlineStr">
         <is>
-          <t>玛露西尔</t>
+          <t>海霓</t>
         </is>
       </c>
       <c r="B339" s="12" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>SV-4</t>
         </is>
       </c>
       <c r="C339" s="12" t="inlineStr">
@@ -8306,41 +8306,41 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>maa://41110</t>
+          <t>maa://39184</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="12" t="inlineStr">
         <is>
-          <t>凯瑟琳</t>
+          <t>乌尔比安</t>
         </is>
       </c>
       <c r="B340" s="12" t="inlineStr">
         <is>
-          <t>11-7</t>
+          <t>SV-6</t>
         </is>
       </c>
       <c r="C340" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>maa://42343</t>
+          <t>maa://40957, maa://41035, maa://41128</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="12" t="inlineStr">
         <is>
-          <t>波卜</t>
+          <t>渡桥</t>
         </is>
       </c>
       <c r="B341" s="12" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C341" s="12" t="inlineStr">
@@ -8350,19 +8350,19 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>maa://43095</t>
+          <t>maa://40164</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="12" t="inlineStr">
         <is>
-          <t>裁度</t>
+          <t>衡沙</t>
         </is>
       </c>
       <c r="B342" s="12" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>DV-2</t>
         </is>
       </c>
       <c r="C342" s="12" t="inlineStr">
@@ -8372,73 +8372,271 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>maa://43097</t>
+          <t>maa://40165</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="12" t="inlineStr">
         <is>
-          <t>弑君者</t>
+          <t>森西</t>
         </is>
       </c>
       <c r="B343" s="12" t="inlineStr">
         <is>
-          <t>4-4</t>
+          <t>1-12</t>
         </is>
       </c>
       <c r="C343" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>maa://43872, maa://39153</t>
+          <t>maa://42331</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="12" t="inlineStr">
         <is>
-          <t>忍冬</t>
+          <t>齐尔查克</t>
         </is>
       </c>
       <c r="B344" s="12" t="inlineStr">
         <is>
-          <t>S2-3</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C344" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>maa://43875</t>
+          <t>maa://42333, maa://41977</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="12" t="inlineStr">
         <is>
+          <t>莱欧斯</t>
+        </is>
+      </c>
+      <c r="B345" s="12" t="inlineStr">
+        <is>
+          <t>2-4</t>
+        </is>
+      </c>
+      <c r="C345" s="12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>maa://41976, maa://42338</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="12" t="inlineStr">
+        <is>
+          <t>玛露西尔</t>
+        </is>
+      </c>
+      <c r="B346" s="12" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="C346" s="12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>maa://41110</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="12" t="inlineStr">
+        <is>
+          <t>凯瑟琳</t>
+        </is>
+      </c>
+      <c r="B347" s="12" t="inlineStr">
+        <is>
+          <t>11-7</t>
+        </is>
+      </c>
+      <c r="C347" s="12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>maa://42343</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="12" t="inlineStr">
+        <is>
+          <t>波卜</t>
+        </is>
+      </c>
+      <c r="B348" s="12" t="inlineStr">
+        <is>
+          <t>4-8</t>
+        </is>
+      </c>
+      <c r="C348" s="12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>maa://43095</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="12" t="inlineStr">
+        <is>
+          <t>维娜·维多利亚</t>
+        </is>
+      </c>
+      <c r="B349" s="12" t="inlineStr">
+        <is>
+          <t>9-5</t>
+        </is>
+      </c>
+      <c r="C349" s="12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>maa://44233</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="12" t="inlineStr">
+        <is>
+          <t>裁度</t>
+        </is>
+      </c>
+      <c r="B350" s="12" t="inlineStr">
+        <is>
+          <t>5-8</t>
+        </is>
+      </c>
+      <c r="C350" s="12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>maa://43097</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="12" t="inlineStr">
+        <is>
+          <t>弑君者</t>
+        </is>
+      </c>
+      <c r="B351" s="12" t="inlineStr">
+        <is>
+          <t>4-4</t>
+        </is>
+      </c>
+      <c r="C351" s="12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>maa://43872, maa://39153</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="12" t="inlineStr">
+        <is>
+          <t>忍冬</t>
+        </is>
+      </c>
+      <c r="B352" s="12" t="inlineStr">
+        <is>
+          <t>S2-3</t>
+        </is>
+      </c>
+      <c r="C352" s="12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>maa://43875</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="12" t="inlineStr">
+        <is>
           <t>荒芜拉普兰德</t>
         </is>
       </c>
-      <c r="B345" s="12" t="inlineStr">
+      <c r="B353" s="12" t="inlineStr">
         <is>
           <t>IS-8</t>
         </is>
       </c>
-      <c r="C345" s="12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D345" t="inlineStr">
+      <c r="C353" s="12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
         <is>
           <t>*maa://42970</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="12" t="inlineStr">
+        <is>
+          <t>瑰盐</t>
+        </is>
+      </c>
+      <c r="B354" s="12" t="inlineStr">
+        <is>
+          <t>4-6</t>
+        </is>
+      </c>
+      <c r="C354" s="12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.07 13:18:04</t>
+          <t>更新日期：2024.12.07 23:48:34</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -570,7 +570,7 @@
       </c>
       <c r="D3" s="10" t="inlineStr">
         <is>
-          <t>*maa://20990</t>
+          <t>maa://20990</t>
         </is>
       </c>
       <c r="F3" s="5" t="n"/>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.07 23:48:34</t>
+          <t>更新日期：2024.12.08 13:18:47</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -4126,7 +4126,7 @@
       </c>
       <c r="D149" s="10" t="inlineStr">
         <is>
-          <t>maa://36641, maa://36865, maa://42918, maa://37300, maa://42917, maa://44119</t>
+          <t>maa://36641, maa://36865, maa://42918, maa://37300, maa://44119, maa://42917</t>
         </is>
       </c>
     </row>
@@ -8631,12 +8631,12 @@
       </c>
       <c r="C354" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://44389</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.08 13:18:47</t>
+          <t>更新日期：2024.12.08 15:46:46</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -2801,12 +2801,12 @@
       </c>
       <c r="C89" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D89" s="10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://44402</t>
         </is>
       </c>
     </row>
@@ -3593,12 +3593,12 @@
       </c>
       <c r="C125" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D125" s="10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://44403</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.08 15:46:46</t>
+          <t>更新日期：2024.12.12 13:20:00</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -981,12 +981,12 @@
       </c>
       <c r="C15" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D15" s="10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://44401</t>
         </is>
       </c>
       <c r="F15" s="8" t="n"/>
@@ -6876,7 +6876,7 @@
       </c>
       <c r="D274" s="10" t="inlineStr">
         <is>
-          <t>*maa://38296</t>
+          <t>maa://38296</t>
         </is>
       </c>
     </row>
@@ -8614,7 +8614,7 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>*maa://42970</t>
+          <t>maa://42970</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.12 13:20:00</t>
+          <t>更新日期：2024.12.13 13:19:35</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -8147,12 +8147,12 @@
       </c>
       <c r="C332" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D332" s="13" t="inlineStr">
         <is>
-          <t>maa://36868, maa://35996</t>
+          <t>maa://36868, maa://35996, maa://44463</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.13 13:19:35</t>
+          <t>更新日期：2024.12.14 13:22:12</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -8328,7 +8328,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>maa://40957, maa://41035, maa://41128</t>
+          <t>maa://40957, maa://41035, *maa://41128</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.14 13:22:12</t>
+          <t>更新日期：2024.12.15 13:19:36</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -3774,7 +3774,7 @@
       </c>
       <c r="D133" s="10" t="inlineStr">
         <is>
-          <t>maa://23020, maa://29023, maa://34319, *maa://39515, maa://41690</t>
+          <t>maa://23020, maa://29023, *maa://39515, maa://34319, maa://41690</t>
         </is>
       </c>
     </row>
@@ -8323,12 +8323,12 @@
       </c>
       <c r="C340" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>maa://40957, maa://41035, *maa://41128</t>
+          <t>maa://40957, maa://41035, *maa://41128, maa://44635, maa://44660</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.15 13:19:36</t>
+          <t>更新日期：2024.12.18 13:18:43</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -2361,12 +2361,12 @@
       </c>
       <c r="C69" s="12" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D69" s="10" t="inlineStr">
         <is>
-          <t>maa://28784, maa://29088, maa://20974, maa://31124, maa://28950, *maa://33612, maa://29087, *maa://20823, maa://41832</t>
+          <t>maa://28784, maa://29088, maa://20974, maa://31124, maa://28950, *maa://33612, maa://29087, *maa://20823, maa://41832, **maa://42200</t>
         </is>
       </c>
     </row>
@@ -4126,7 +4126,7 @@
       </c>
       <c r="D149" s="10" t="inlineStr">
         <is>
-          <t>maa://36641, maa://36865, maa://42918, maa://37300, maa://44119, maa://42917</t>
+          <t>maa://36641, maa://36865, maa://42918, maa://44119, maa://37300, maa://42917</t>
         </is>
       </c>
     </row>
@@ -5116,7 +5116,7 @@
       </c>
       <c r="D194" s="10" t="inlineStr">
         <is>
-          <t>*maa://35854, maa://25760, **maa://20872, maa://44224</t>
+          <t>*maa://35854, maa://25760, maa://44224, **maa://20872</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.18 13:18:43</t>
+          <t>更新日期：2024.12.19 13:19:06</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -2146,7 +2146,7 @@
       </c>
       <c r="D59" s="10" t="inlineStr">
         <is>
-          <t>maa://27970, maa://41118</t>
+          <t>maa://27970, *maa://41118</t>
         </is>
       </c>
     </row>
@@ -7707,12 +7707,12 @@
       </c>
       <c r="C312" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D312" s="10" t="inlineStr">
         <is>
-          <t>**maa://39178</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -8328,7 +8328,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>maa://40957, maa://41035, *maa://41128, maa://44635, maa://44660</t>
+          <t>maa://40957, maa://41035, maa://41128, maa://44635, maa://44660</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.19 13:19:06</t>
+          <t>更新日期：2024.12.20 08:28:42</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -3774,7 +3774,7 @@
       </c>
       <c r="D133" s="10" t="inlineStr">
         <is>
-          <t>maa://23020, maa://29023, *maa://39515, maa://34319, maa://41690</t>
+          <t>maa://23020, maa://29023, *maa://39515, maa://41690, maa://34319</t>
         </is>
       </c>
     </row>
@@ -8609,12 +8609,12 @@
       </c>
       <c r="C353" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>maa://42970</t>
+          <t>maa://42970, **maa://44745</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.19 13:19:06</t>
+          <t>更新日期：2024.12.20 08:32:28</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -3774,7 +3774,7 @@
       </c>
       <c r="D133" s="10" t="inlineStr">
         <is>
-          <t>maa://23020, maa://29023, *maa://39515, maa://34319, maa://41690</t>
+          <t>maa://23020, maa://29023, *maa://39515, maa://41690, maa://34319</t>
         </is>
       </c>
     </row>
@@ -8609,12 +8609,12 @@
       </c>
       <c r="C353" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>maa://42970</t>
+          <t>maa://42970, **maa://44745</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.20 08:32:28</t>
+          <t>更新日期：2024.12.21 13:17:14</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -1662,7 +1662,7 @@
       </c>
       <c r="D37" s="10" t="inlineStr">
         <is>
-          <t>maa://27376, **maa://20838, *maa://42635</t>
+          <t>maa://27376, **maa://20838, maa://42635</t>
         </is>
       </c>
     </row>
@@ -3505,12 +3505,12 @@
       </c>
       <c r="C121" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D121" s="10" t="inlineStr">
         <is>
-          <t>maa://20869</t>
+          <t>maa://20869, maa://44690</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.21 13:17:14</t>
+          <t>更新日期：2024.12.22 13:16:54</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -3906,7 +3906,7 @@
       </c>
       <c r="D139" s="10" t="inlineStr">
         <is>
-          <t>*maa://30679</t>
+          <t>**maa://30679</t>
         </is>
       </c>
     </row>
@@ -8614,7 +8614,7 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>maa://42970, **maa://44745</t>
+          <t>maa://42970, *maa://44745</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.22 13:16:54</t>
+          <t>更新日期：2024.12.23 13:18:33</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -3774,7 +3774,7 @@
       </c>
       <c r="D133" s="10" t="inlineStr">
         <is>
-          <t>maa://23020, maa://29023, *maa://39515, maa://41690, maa://34319</t>
+          <t>maa://23020, maa://29023, maa://41690, *maa://39515, maa://34319</t>
         </is>
       </c>
     </row>
@@ -5397,12 +5397,12 @@
       </c>
       <c r="C207" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D207" s="10" t="inlineStr">
         <is>
-          <t>maa://20956, *maa://20830</t>
+          <t>maa://20956, *maa://20830, maa://44703</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.23 13:18:33</t>
+          <t>更新日期：2024.12.24 13:17:51</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="D69" s="10" t="inlineStr">
         <is>
-          <t>maa://28784, maa://29088, maa://20974, maa://31124, maa://28950, *maa://33612, maa://29087, *maa://20823, maa://41832, **maa://42200</t>
+          <t>maa://28784, maa://29088, maa://20974, maa://31124, maa://28950, *maa://33612, maa://29087, *maa://20823, **maa://42200, maa://41832</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.24 13:17:51</t>
+          <t>更新日期：2024.12.29 14:56:16</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -1926,7 +1926,7 @@
       </c>
       <c r="D49" s="10" t="inlineStr">
         <is>
-          <t>maa://32845, *maa://20982</t>
+          <t>*maa://32845, *maa://20982</t>
         </is>
       </c>
     </row>
@@ -4412,7 +4412,7 @@
       </c>
       <c r="D162" s="10" t="inlineStr">
         <is>
-          <t>maa://29054, maa://32845</t>
+          <t>maa://29054, *maa://32845</t>
         </is>
       </c>
     </row>
@@ -6893,12 +6893,12 @@
       </c>
       <c r="C275" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D275" s="10" t="inlineStr">
         <is>
-          <t>maa://20899</t>
+          <t>maa://20899, maa://44744</t>
         </is>
       </c>
     </row>
@@ -8609,12 +8609,12 @@
       </c>
       <c r="C353" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>maa://42970, *maa://44745</t>
+          <t>maa://42970, maa://44745, maa://44896</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.29 14:56:16</t>
+          <t>更新日期：2024.12.31 13:17:57</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -1662,7 +1662,7 @@
       </c>
       <c r="D37" s="10" t="inlineStr">
         <is>
-          <t>maa://27376, **maa://20838, maa://42635</t>
+          <t>maa://27376, *maa://20838, maa://42635</t>
         </is>
       </c>
     </row>
@@ -6277,12 +6277,12 @@
       </c>
       <c r="C247" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D247" s="10" t="inlineStr">
         <is>
-          <t>*maa://40958</t>
+          <t>*maa://40958, maa://45067</t>
         </is>
       </c>
     </row>
@@ -6321,12 +6321,12 @@
       </c>
       <c r="C249" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D249" s="13" t="inlineStr">
         <is>
-          <t>maa://20877, maa://20836, maa://20632</t>
+          <t>maa://20877, maa://20836, maa://20632, maa://45067</t>
         </is>
       </c>
     </row>
@@ -7426,7 +7426,7 @@
       </c>
       <c r="D299" s="10" t="inlineStr">
         <is>
-          <t>**maa://43090</t>
+          <t>*maa://43090</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2024.12.31 13:17:57</t>
+          <t>更新日期：2025.01.01 13:19:57</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -2251,12 +2251,12 @@
       </c>
       <c r="C64" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D64" s="10" t="inlineStr">
         <is>
-          <t>maa://28187, maa://33504, maa://39520, maa://43531</t>
+          <t>maa://28187, maa://33504, maa://39520, maa://43531, maa://45144</t>
         </is>
       </c>
     </row>
@@ -3092,7 +3092,7 @@
       </c>
       <c r="D102" s="10" t="inlineStr">
         <is>
-          <t>*maa://39240, maa://40517</t>
+          <t>maa://40517, *maa://39240</t>
         </is>
       </c>
     </row>
@@ -7426,7 +7426,7 @@
       </c>
       <c r="D299" s="10" t="inlineStr">
         <is>
-          <t>*maa://43090</t>
+          <t>**maa://43090</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.01.01 13:19:57</t>
+          <t>更新日期：2025.01.03 13:17:45</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -3752,7 +3752,7 @@
       </c>
       <c r="D132" s="10" t="inlineStr">
         <is>
-          <t>maa://23019, maa://20837, maa://40517, maa://37113, *maa://37666, maa://41686</t>
+          <t>maa://23019, maa://20837, maa://40517, maa://37113, maa://37666, maa://41686</t>
         </is>
       </c>
     </row>
@@ -3901,12 +3901,12 @@
       </c>
       <c r="C139" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D139" s="10" t="inlineStr">
         <is>
-          <t>**maa://30679</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -4412,7 +4412,7 @@
       </c>
       <c r="D162" s="10" t="inlineStr">
         <is>
-          <t>maa://29054, *maa://32845</t>
+          <t>*maa://32845, maa://29054</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.01.03 13:17:45</t>
+          <t>更新日期：2025.01.04 13:16:59</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -1287,12 +1287,12 @@
       </c>
       <c r="C24" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D24" s="10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://45260</t>
         </is>
       </c>
       <c r="F24" s="8" t="n"/>
@@ -3241,12 +3241,12 @@
       </c>
       <c r="C109" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D109" s="10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://45259</t>
         </is>
       </c>
     </row>
@@ -3901,12 +3901,12 @@
       </c>
       <c r="C139" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D139" s="10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://45258</t>
         </is>
       </c>
     </row>
@@ -5463,12 +5463,12 @@
       </c>
       <c r="C210" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D210" s="10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://45261</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.01.04 13:16:59</t>
+          <t>更新日期：2025.01.05 13:20:09</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -6898,7 +6898,7 @@
       </c>
       <c r="D275" s="10" t="inlineStr">
         <is>
-          <t>maa://20899, maa://44744</t>
+          <t>maa://20899, **maa://44744</t>
         </is>
       </c>
     </row>
@@ -8570,7 +8570,7 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>maa://43872, maa://39153</t>
+          <t>*maa://43872, maa://39153</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.01.05 13:20:09</t>
+          <t>更新日期：2025.01.06 13:18:43</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -3219,12 +3219,12 @@
       </c>
       <c r="C108" s="12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D108" s="10" t="inlineStr">
         <is>
-          <t>maa://25018, maa://25776, maa://28361, maa://25772, *maa://25161, maa://32653</t>
+          <t>maa://25018, maa://25776, maa://28361, maa://25772, *maa://25161, maa://32653, maa://45194</t>
         </is>
       </c>
     </row>
@@ -3989,12 +3989,12 @@
       </c>
       <c r="C143" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D143" s="10" t="inlineStr">
         <is>
-          <t>maa://30670, maa://31470</t>
+          <t>maa://30670, maa://31470, maa://45066</t>
         </is>
       </c>
     </row>
@@ -8081,12 +8081,12 @@
       </c>
       <c r="C329" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D329" s="10" t="inlineStr">
         <is>
-          <t>maa://34865, maa://34717</t>
+          <t>maa://34865, maa://34717, maa://45066</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.01.06 13:18:43</t>
+          <t>更新日期：2025.01.07 13:17:31</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.01.07 13:17:31</t>
+          <t>更新日期：2025.01.09 13:18:22</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -2234,7 +2234,7 @@
       </c>
       <c r="D63" s="10" t="inlineStr">
         <is>
-          <t>*maa://20845, **maa://38727</t>
+          <t>*maa://20845, *maa://38727</t>
         </is>
       </c>
     </row>
@@ -3224,7 +3224,7 @@
       </c>
       <c r="D108" s="10" t="inlineStr">
         <is>
-          <t>maa://25018, maa://25776, maa://28361, maa://25772, *maa://25161, maa://32653, maa://45194</t>
+          <t>maa://25018, maa://25776, maa://28361, maa://25772, *maa://25161, maa://32653, *maa://45194</t>
         </is>
       </c>
     </row>
@@ -3774,7 +3774,7 @@
       </c>
       <c r="D133" s="10" t="inlineStr">
         <is>
-          <t>maa://23020, maa://29023, maa://41690, *maa://39515, maa://34319</t>
+          <t>maa://23020, maa://29023, maa://41690, maa://39515, maa://34319</t>
         </is>
       </c>
     </row>
@@ -4016,7 +4016,7 @@
       </c>
       <c r="D144" s="10" t="inlineStr">
         <is>
-          <t>*maa://20971</t>
+          <t>maa://20971</t>
         </is>
       </c>
     </row>
@@ -5138,7 +5138,7 @@
       </c>
       <c r="D195" s="10" t="inlineStr">
         <is>
-          <t>maa://39156, maa://39550</t>
+          <t>maa://39156, *maa://39550</t>
         </is>
       </c>
     </row>
@@ -8548,7 +8548,7 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>maa://43097</t>
+          <t>**maa://43097</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.01.09 13:18:22</t>
+          <t>更新日期：2025.01.11 13:17:38</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -1772,7 +1772,7 @@
       </c>
       <c r="D42" s="10" t="inlineStr">
         <is>
-          <t>*maa://22339, maa://20918, maa://34883, maa://20824</t>
+          <t>maa://20918, *maa://22339, maa://34883, maa://20824</t>
         </is>
       </c>
     </row>
@@ -5534,7 +5534,7 @@
       </c>
       <c r="D213" s="10" t="inlineStr">
         <is>
-          <t>maa://39157</t>
+          <t>*maa://39157</t>
         </is>
       </c>
     </row>
@@ -6084,7 +6084,7 @@
       </c>
       <c r="D238" s="10" t="inlineStr">
         <is>
-          <t>maa://20867, *maa://32202, maa://38485</t>
+          <t>maa://20867, maa://38485, *maa://32202</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.01.11 13:17:38</t>
+          <t>更新日期：2025.01.12 13:18:28</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.01.12 13:18:28</t>
+          <t>更新日期：2025.01.17 13:17:18</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -6893,12 +6893,12 @@
       </c>
       <c r="C275" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D275" s="10" t="inlineStr">
         <is>
-          <t>maa://20899, **maa://44744</t>
+          <t>maa://20899</t>
         </is>
       </c>
     </row>
@@ -8438,7 +8438,7 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>maa://41976, maa://42338</t>
+          <t>maa://42338, maa://41976</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.01.17 13:17:18</t>
+          <t>更新日期：2025.01.18 13:16:09</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -5138,7 +5138,7 @@
       </c>
       <c r="D195" s="10" t="inlineStr">
         <is>
-          <t>maa://39156, *maa://39550</t>
+          <t>maa://39156, maa://39550</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.01.18 13:16:09</t>
+          <t>更新日期：2025.01.18 14:49:21</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -4539,12 +4539,12 @@
       </c>
       <c r="C168" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D168" s="10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://45556</t>
         </is>
       </c>
     </row>
@@ -8257,12 +8257,12 @@
       </c>
       <c r="C337" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D337" s="13" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://42635</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -463,7 +463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB354"/>
+  <dimension ref="A1:AB361"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.01.18 14:49:21</t>
+          <t>更新日期：2025.01.25 08:45:24</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -2075,12 +2075,12 @@
       </c>
       <c r="C56" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D56" s="10" t="inlineStr">
         <is>
-          <t>maa://44235</t>
+          <t>maa://44235, maa://45604</t>
         </is>
       </c>
     </row>
@@ -3527,12 +3527,12 @@
       </c>
       <c r="C122" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D122" s="10" t="inlineStr">
         <is>
-          <t>maa://29650</t>
+          <t>maa://29650, maa://45570</t>
         </is>
       </c>
     </row>
@@ -3752,7 +3752,7 @@
       </c>
       <c r="D132" s="10" t="inlineStr">
         <is>
-          <t>maa://23019, maa://20837, maa://40517, maa://37113, maa://37666, maa://41686</t>
+          <t>maa://23019, maa://40517, maa://20837, maa://37113, maa://37666, maa://41686</t>
         </is>
       </c>
     </row>
@@ -4319,12 +4319,12 @@
       </c>
       <c r="C158" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D158" s="10" t="inlineStr">
         <is>
-          <t>maa://44232, maa://44305</t>
+          <t>maa://44232, maa://44305, maa://45603</t>
         </is>
       </c>
     </row>
@@ -5380,7 +5380,7 @@
       </c>
       <c r="D206" s="13" t="inlineStr">
         <is>
-          <t>maa://28133, *maa://28277, maa://25369, *maa://33132</t>
+          <t>maa://28133, maa://28277, maa://25369, *maa://33132</t>
         </is>
       </c>
     </row>
@@ -6189,12 +6189,12 @@
       </c>
       <c r="C243" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D243" s="10" t="inlineStr">
         <is>
-          <t>maa://42287, maa://42225</t>
+          <t>maa://42287, maa://42225, maa://45570</t>
         </is>
       </c>
     </row>
@@ -7015,166 +7015,166 @@
     <row r="281">
       <c r="A281" s="15" t="inlineStr">
         <is>
-          <t>重岳</t>
+          <t>林</t>
         </is>
       </c>
       <c r="B281" s="15" t="inlineStr">
         <is>
-          <t>WB-7</t>
+          <t>6-5</t>
         </is>
       </c>
       <c r="C281" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D281" s="10" t="inlineStr">
         <is>
-          <t>maa://32414, maa://32505, maa://39155</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="15" t="inlineStr">
         <is>
-          <t>铎铃</t>
+          <t>重岳</t>
         </is>
       </c>
       <c r="B282" s="15" t="inlineStr">
         <is>
-          <t>2-1</t>
+          <t>WB-7</t>
         </is>
       </c>
       <c r="C282" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D282" s="10" t="inlineStr">
         <is>
-          <t>maa://42312</t>
+          <t>maa://32414, maa://32505, maa://39155</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="15" t="inlineStr">
         <is>
-          <t>仇白</t>
+          <t>重岳</t>
         </is>
       </c>
       <c r="B283" s="15" t="inlineStr">
         <is>
-          <t>WB-7</t>
+          <t>GA-5</t>
         </is>
       </c>
       <c r="C283" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D283" s="10" t="inlineStr">
         <is>
-          <t>maa://36642, maa://36867, maa://39155</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="15" t="inlineStr">
         <is>
-          <t>火龙S黑角</t>
+          <t>铎铃</t>
         </is>
       </c>
       <c r="B284" s="15" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>2-1</t>
         </is>
       </c>
       <c r="C284" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D284" s="10" t="inlineStr">
         <is>
-          <t>maa://39166, maa://39167</t>
+          <t>maa://42312</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="15" t="inlineStr">
         <is>
-          <t>麒麟R夜刀</t>
+          <t>仇白</t>
         </is>
       </c>
       <c r="B285" s="15" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>WB-7</t>
         </is>
       </c>
       <c r="C285" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D285" s="10" t="inlineStr">
         <is>
-          <t>maa://29005, maa://31560</t>
+          <t>maa://36642, maa://36867, maa://39155</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="15" t="inlineStr">
         <is>
-          <t>休谟斯</t>
+          <t>火龙S黑角</t>
         </is>
       </c>
       <c r="B286" s="15" t="inlineStr">
         <is>
-          <t>7-8</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C286" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D286" s="10" t="inlineStr">
         <is>
-          <t>maa://39168</t>
+          <t>maa://39166, maa://39167</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="15" t="inlineStr">
         <is>
-          <t>摩根</t>
+          <t>麒麟R夜刀</t>
         </is>
       </c>
       <c r="B287" s="15" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C287" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D287" s="10" t="inlineStr">
         <is>
-          <t>maa://39169</t>
+          <t>maa://29005, maa://31560</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="15" t="inlineStr">
         <is>
-          <t>洋灰</t>
+          <t>休谟斯</t>
         </is>
       </c>
       <c r="B288" s="15" t="inlineStr">
         <is>
-          <t>IW-EX-6</t>
+          <t>7-8</t>
         </is>
       </c>
       <c r="C288" s="12" t="inlineStr">
@@ -7184,19 +7184,19 @@
       </c>
       <c r="D288" s="10" t="inlineStr">
         <is>
-          <t>maa://39170</t>
+          <t>maa://39168</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="15" t="inlineStr">
         <is>
-          <t>玫拉</t>
+          <t>摩根</t>
         </is>
       </c>
       <c r="B289" s="15" t="inlineStr">
         <is>
-          <t>S3-5</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="C289" s="12" t="inlineStr">
@@ -7206,19 +7206,19 @@
       </c>
       <c r="D289" s="10" t="inlineStr">
         <is>
-          <t>maa://39171</t>
+          <t>maa://39169</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="15" t="inlineStr">
         <is>
-          <t>淬羽赫默</t>
+          <t>洋灰</t>
         </is>
       </c>
       <c r="B290" s="15" t="inlineStr">
         <is>
-          <t>6-3</t>
+          <t>IW-EX-6</t>
         </is>
       </c>
       <c r="C290" s="12" t="inlineStr">
@@ -7228,19 +7228,19 @@
       </c>
       <c r="D290" s="10" t="inlineStr">
         <is>
-          <t>maa://27939</t>
+          <t>maa://39170</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="15" t="inlineStr">
         <is>
-          <t>霍尔海雅</t>
+          <t>玫拉</t>
         </is>
       </c>
       <c r="B291" s="15" t="inlineStr">
         <is>
-          <t>OF-7</t>
+          <t>S3-5</t>
         </is>
       </c>
       <c r="C291" s="12" t="inlineStr">
@@ -7250,19 +7250,19 @@
       </c>
       <c r="D291" s="10" t="inlineStr">
         <is>
-          <t>maa://29129</t>
+          <t>maa://39171</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="15" t="inlineStr">
         <is>
-          <t>霍尔海雅</t>
+          <t>淬羽赫默</t>
         </is>
       </c>
       <c r="B292" s="15" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>6-3</t>
         </is>
       </c>
       <c r="C292" s="12" t="inlineStr">
@@ -7272,19 +7272,19 @@
       </c>
       <c r="D292" s="10" t="inlineStr">
         <is>
-          <t>maa://36005</t>
+          <t>maa://27939</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="15" t="inlineStr">
         <is>
-          <t>缪尔赛思</t>
+          <t>霍尔海雅</t>
         </is>
       </c>
       <c r="B293" s="15" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>OF-7</t>
         </is>
       </c>
       <c r="C293" s="12" t="inlineStr">
@@ -7294,19 +7294,19 @@
       </c>
       <c r="D293" s="10" t="inlineStr">
         <is>
-          <t>maa://35859</t>
+          <t>maa://29129</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="15" t="inlineStr">
         <is>
-          <t>隐现</t>
+          <t>霍尔海雅</t>
         </is>
       </c>
       <c r="B294" s="15" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C294" s="12" t="inlineStr">
@@ -7316,19 +7316,19 @@
       </c>
       <c r="D294" s="10" t="inlineStr">
         <is>
-          <t>**maa://39172</t>
+          <t>maa://36005</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="15" t="inlineStr">
         <is>
-          <t>空构</t>
+          <t>缪尔赛思</t>
         </is>
       </c>
       <c r="B295" s="15" t="inlineStr">
         <is>
-          <t>DM-2</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C295" s="12" t="inlineStr">
@@ -7338,41 +7338,41 @@
       </c>
       <c r="D295" s="10" t="inlineStr">
         <is>
-          <t>maa://39173</t>
+          <t>maa://35859</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="15" t="inlineStr">
         <is>
-          <t>圣约送葬人</t>
+          <t>隐现</t>
         </is>
       </c>
       <c r="B296" s="15" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C296" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D296" s="10" t="inlineStr">
         <is>
-          <t>maa://25775, *maa://25393</t>
+          <t>**maa://39172</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="15" t="inlineStr">
         <is>
-          <t>寒檀</t>
+          <t>空构</t>
         </is>
       </c>
       <c r="B297" s="15" t="inlineStr">
         <is>
-          <t>BI-2</t>
+          <t>DM-2</t>
         </is>
       </c>
       <c r="C297" s="12" t="inlineStr">
@@ -7382,41 +7382,41 @@
       </c>
       <c r="D297" s="10" t="inlineStr">
         <is>
-          <t>maa://40161</t>
+          <t>maa://39173</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="15" t="inlineStr">
         <is>
-          <t>提丰</t>
+          <t>圣约送葬人</t>
         </is>
       </c>
       <c r="B298" s="15" t="inlineStr">
         <is>
-          <t>S2-1</t>
+          <t>7-14</t>
         </is>
       </c>
       <c r="C298" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D298" s="10" t="inlineStr">
         <is>
-          <t>maa://25367</t>
+          <t>maa://25775, *maa://25393</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="15" t="inlineStr">
         <is>
-          <t>凛视</t>
+          <t>寒檀</t>
         </is>
       </c>
       <c r="B299" s="15" t="inlineStr">
         <is>
-          <t>7-13</t>
+          <t>BI-2</t>
         </is>
       </c>
       <c r="C299" s="12" t="inlineStr">
@@ -7426,19 +7426,19 @@
       </c>
       <c r="D299" s="10" t="inlineStr">
         <is>
-          <t>**maa://43090</t>
+          <t>maa://40161</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="15" t="inlineStr">
         <is>
-          <t>苍苔</t>
+          <t>提丰</t>
         </is>
       </c>
       <c r="B300" s="15" t="inlineStr">
         <is>
-          <t>9-3</t>
+          <t>S2-1</t>
         </is>
       </c>
       <c r="C300" s="12" t="inlineStr">
@@ -7448,85 +7448,85 @@
       </c>
       <c r="D300" s="10" t="inlineStr">
         <is>
-          <t>maa://28070</t>
+          <t>maa://25367</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="15" t="inlineStr">
         <is>
-          <t>青枳</t>
+          <t>凛视</t>
         </is>
       </c>
       <c r="B301" s="15" t="inlineStr">
         <is>
-          <t>OF-5</t>
+          <t>7-13</t>
         </is>
       </c>
       <c r="C301" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D301" s="10" t="inlineStr">
         <is>
-          <t>maa://31559, maa://28241</t>
+          <t>*maa://43090</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="15" t="inlineStr">
         <is>
-          <t>琳琅诗怀雅</t>
+          <t>苍苔</t>
         </is>
       </c>
       <c r="B302" s="15" t="inlineStr">
         <is>
-          <t>5-2</t>
+          <t>9-3</t>
         </is>
       </c>
       <c r="C302" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D302" s="10" t="inlineStr">
         <is>
-          <t>maa://25773, *maa://26088</t>
+          <t>maa://28070</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="15" t="inlineStr">
         <is>
-          <t>琳琅诗怀雅</t>
+          <t>青枳</t>
         </is>
       </c>
       <c r="B303" s="15" t="inlineStr">
         <is>
-          <t>11-16</t>
+          <t>OF-5</t>
         </is>
       </c>
       <c r="C303" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D303" s="10" t="inlineStr">
         <is>
-          <t>maa://39239</t>
+          <t>maa://31559, maa://28241</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="15" t="inlineStr">
         <is>
-          <t>纯烬艾雅法拉</t>
+          <t>琳琅诗怀雅</t>
         </is>
       </c>
       <c r="B304" s="15" t="inlineStr">
         <is>
-          <t>FC-5</t>
+          <t>5-2</t>
         </is>
       </c>
       <c r="C304" s="12" t="inlineStr">
@@ -7536,19 +7536,19 @@
       </c>
       <c r="D304" s="10" t="inlineStr">
         <is>
-          <t>maa://39692, maa://39810</t>
+          <t>maa://25773, *maa://26088</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="15" t="inlineStr">
         <is>
-          <t>冰酿</t>
+          <t>琳琅诗怀雅</t>
         </is>
       </c>
       <c r="B305" s="15" t="inlineStr">
         <is>
-          <t>S3-3</t>
+          <t>11-16</t>
         </is>
       </c>
       <c r="C305" s="12" t="inlineStr">
@@ -7558,63 +7558,63 @@
       </c>
       <c r="D305" s="10" t="inlineStr">
         <is>
-          <t>*maa://39174</t>
+          <t>maa://39239</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="15" t="inlineStr">
         <is>
-          <t>杏仁</t>
+          <t>纯烬艾雅法拉</t>
         </is>
       </c>
       <c r="B306" s="15" t="inlineStr">
         <is>
-          <t>BI-2</t>
+          <t>FC-5</t>
         </is>
       </c>
       <c r="C306" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D306" s="10" t="inlineStr">
         <is>
-          <t>maa://39175</t>
+          <t>maa://39692, maa://39810</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="15" t="inlineStr">
         <is>
-          <t>涤火杰西卡</t>
+          <t>冰酿</t>
         </is>
       </c>
       <c r="B307" s="15" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>S3-3</t>
         </is>
       </c>
       <c r="C307" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D307" s="10" t="inlineStr">
         <is>
-          <t>maa://34867, maa://34715</t>
+          <t>*maa://39174</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="15" t="inlineStr">
         <is>
-          <t>维荻</t>
+          <t>杏仁</t>
         </is>
       </c>
       <c r="B308" s="15" t="inlineStr">
         <is>
-          <t>9-3</t>
+          <t>BI-2</t>
         </is>
       </c>
       <c r="C308" s="12" t="inlineStr">
@@ -7624,63 +7624,63 @@
       </c>
       <c r="D308" s="10" t="inlineStr">
         <is>
-          <t>maa://39176</t>
+          <t>maa://39175</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="15" t="inlineStr">
         <is>
-          <t>戴菲恩</t>
+          <t>涤火杰西卡</t>
         </is>
       </c>
       <c r="B309" s="15" t="inlineStr">
         <is>
-          <t>WD-6</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C309" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D309" s="10" t="inlineStr">
         <is>
-          <t>maa://42316</t>
+          <t>maa://34867, maa://34715</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="15" t="inlineStr">
         <is>
-          <t>刺玫</t>
+          <t>涤火杰西卡</t>
         </is>
       </c>
       <c r="B310" s="15" t="inlineStr">
         <is>
-          <t>IC-2</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C310" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D310" s="10" t="inlineStr">
         <is>
-          <t>maa://30680</t>
+          <t>maa://34867, maa://34715</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="15" t="inlineStr">
         <is>
-          <t>赫德雷</t>
+          <t>维荻</t>
         </is>
       </c>
       <c r="B311" s="15" t="inlineStr">
         <is>
-          <t>IW-7</t>
+          <t>9-3</t>
         </is>
       </c>
       <c r="C311" s="12" t="inlineStr">
@@ -7690,41 +7690,41 @@
       </c>
       <c r="D311" s="10" t="inlineStr">
         <is>
-          <t>maa://40956</t>
+          <t>maa://39176</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="15" t="inlineStr">
         <is>
-          <t>深律</t>
+          <t>戴菲恩</t>
         </is>
       </c>
       <c r="B312" s="15" t="inlineStr">
         <is>
-          <t>LE-4</t>
+          <t>WD-6</t>
         </is>
       </c>
       <c r="C312" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D312" s="10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://42316</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="15" t="inlineStr">
         <is>
-          <t>止颂</t>
+          <t>刺玫</t>
         </is>
       </c>
       <c r="B313" s="15" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>IC-2</t>
         </is>
       </c>
       <c r="C313" s="12" t="inlineStr">
@@ -7734,63 +7734,63 @@
       </c>
       <c r="D313" s="10" t="inlineStr">
         <is>
-          <t>maa://34205</t>
+          <t>maa://30680</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="15" t="inlineStr">
         <is>
-          <t>止颂</t>
+          <t>赫德雷</t>
         </is>
       </c>
       <c r="B314" s="15" t="inlineStr">
         <is>
-          <t>TW-5</t>
+          <t>IW-7</t>
         </is>
       </c>
       <c r="C314" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D314" s="10" t="inlineStr">
         <is>
-          <t>maa://43092, maa://43093</t>
+          <t>maa://40956</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="15" t="inlineStr">
         <is>
-          <t>薇薇安娜</t>
+          <t>深律</t>
         </is>
       </c>
       <c r="B315" s="15" t="inlineStr">
         <is>
-          <t>MN-3</t>
+          <t>LE-4</t>
         </is>
       </c>
       <c r="C315" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D315" s="10" t="inlineStr">
         <is>
-          <t>maa://44234</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="15" t="inlineStr">
         <is>
-          <t>塑心</t>
+          <t>止颂</t>
         </is>
       </c>
       <c r="B316" s="15" t="inlineStr">
         <is>
-          <t>GA-7</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="C316" s="12" t="inlineStr">
@@ -7800,41 +7800,41 @@
       </c>
       <c r="D316" s="10" t="inlineStr">
         <is>
-          <t>maa://42968</t>
+          <t>maa://34205</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="15" t="inlineStr">
         <is>
-          <t>哈洛德</t>
+          <t>止颂</t>
         </is>
       </c>
       <c r="B317" s="15" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>TW-5</t>
         </is>
       </c>
       <c r="C317" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D317" s="10" t="inlineStr">
         <is>
-          <t>*maa://40162</t>
+          <t>maa://43092, maa://43093</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="15" t="inlineStr">
         <is>
-          <t>烈夏</t>
+          <t>薇薇安娜</t>
         </is>
       </c>
       <c r="B318" s="15" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>MN-3</t>
         </is>
       </c>
       <c r="C318" s="12" t="inlineStr">
@@ -7844,41 +7844,41 @@
       </c>
       <c r="D318" s="10" t="inlineStr">
         <is>
-          <t>maa://37692</t>
+          <t>maa://44234</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="15" t="inlineStr">
         <is>
-          <t>锏</t>
+          <t>塑心</t>
         </is>
       </c>
       <c r="B319" s="15" t="inlineStr">
         <is>
-          <t>BI-6</t>
+          <t>GA-7</t>
         </is>
       </c>
       <c r="C319" s="12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D319" s="10" t="inlineStr">
         <is>
-          <t>maa://30671, maa://30669, maa://37275, *maa://32410, maa://41605, maa://33671</t>
+          <t>maa://42968</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="15" t="inlineStr">
         <is>
-          <t>莱伊</t>
+          <t>哈洛德</t>
         </is>
       </c>
       <c r="B320" s="15" t="inlineStr">
         <is>
-          <t>S9-1</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="C320" s="12" t="inlineStr">
@@ -7888,19 +7888,19 @@
       </c>
       <c r="D320" s="10" t="inlineStr">
         <is>
-          <t>maa://38295</t>
+          <t>*maa://40162</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="15" t="inlineStr">
         <is>
-          <t>万顷</t>
+          <t>烈夏</t>
         </is>
       </c>
       <c r="B321" s="15" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C321" s="12" t="inlineStr">
@@ -7910,41 +7910,41 @@
       </c>
       <c r="D321" s="10" t="inlineStr">
         <is>
-          <t>maa://32417</t>
+          <t>maa://37692</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="15" t="inlineStr">
         <is>
-          <t>小满</t>
+          <t>锏</t>
         </is>
       </c>
       <c r="B322" s="15" t="inlineStr">
         <is>
-          <t>9-11</t>
+          <t>BI-6</t>
         </is>
       </c>
       <c r="C322" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D322" s="10" t="inlineStr">
         <is>
-          <t>maa://32419</t>
+          <t>maa://30671, maa://30669, maa://37275, *maa://32410, maa://41605, maa://33671</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="15" t="inlineStr">
         <is>
-          <t>左乐</t>
+          <t>莱伊</t>
         </is>
       </c>
       <c r="B323" s="15" t="inlineStr">
         <is>
-          <t>WB-5</t>
+          <t>S9-1</t>
         </is>
       </c>
       <c r="C323" s="12" t="inlineStr">
@@ -7954,41 +7954,41 @@
       </c>
       <c r="D323" s="10" t="inlineStr">
         <is>
-          <t>maa://32416</t>
+          <t>maa://38295</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="15" t="inlineStr">
         <is>
-          <t>黍</t>
+          <t>万顷</t>
         </is>
       </c>
       <c r="B324" s="15" t="inlineStr">
         <is>
-          <t>11-11</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="C324" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D324" s="10" t="inlineStr">
         <is>
-          <t>maa://32647, maa://32415, maa://34677, maa://32892</t>
+          <t>maa://32417</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="15" t="inlineStr">
         <is>
-          <t>红隼</t>
+          <t>小满</t>
         </is>
       </c>
       <c r="B325" s="15" t="inlineStr">
         <is>
-          <t>11-18</t>
+          <t>9-11</t>
         </is>
       </c>
       <c r="C325" s="12" t="inlineStr">
@@ -7998,19 +7998,19 @@
       </c>
       <c r="D325" s="10" t="inlineStr">
         <is>
-          <t>maa://32420</t>
+          <t>maa://32419</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="15" t="inlineStr">
         <is>
-          <t>导火索</t>
+          <t>左乐</t>
         </is>
       </c>
       <c r="B326" s="15" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>WB-5</t>
         </is>
       </c>
       <c r="C326" s="12" t="inlineStr">
@@ -8020,80 +8020,80 @@
       </c>
       <c r="D326" s="10" t="inlineStr">
         <is>
-          <t>maa://35606</t>
+          <t>maa://32416</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="15" t="inlineStr">
         <is>
-          <t>双月</t>
+          <t>左乐</t>
         </is>
       </c>
       <c r="B327" s="15" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>RI-7</t>
         </is>
       </c>
       <c r="C327" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D327" s="10" t="inlineStr">
         <is>
-          <t>maa://34716</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="15" t="inlineStr">
         <is>
-          <t>医生</t>
+          <t>黍</t>
         </is>
       </c>
       <c r="B328" s="15" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>11-11</t>
         </is>
       </c>
       <c r="C328" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D328" s="10" t="inlineStr">
         <is>
-          <t>maa://39179</t>
+          <t>maa://32647, maa://32415, maa://34677, maa://32892</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="15" t="inlineStr">
         <is>
-          <t>艾拉</t>
+          <t>红隼</t>
         </is>
       </c>
       <c r="B329" s="15" t="inlineStr">
         <is>
-          <t>DM-EX-1</t>
+          <t>11-18</t>
         </is>
       </c>
       <c r="C329" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D329" s="10" t="inlineStr">
         <is>
-          <t>maa://34865, maa://34717, maa://45066</t>
+          <t>maa://32420</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="15" t="inlineStr">
         <is>
-          <t>露托</t>
+          <t>导火索</t>
         </is>
       </c>
       <c r="B330" s="15" t="inlineStr">
@@ -8108,19 +8108,19 @@
       </c>
       <c r="D330" s="10" t="inlineStr">
         <is>
-          <t>maa://39180</t>
+          <t>maa://35606</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="12" t="inlineStr">
         <is>
-          <t>阿罗玛</t>
+          <t>双月</t>
         </is>
       </c>
       <c r="B331" s="12" t="inlineStr">
         <is>
-          <t>GT-HX-3</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C331" s="12" t="inlineStr">
@@ -8130,151 +8130,151 @@
       </c>
       <c r="D331" s="13" t="inlineStr">
         <is>
-          <t>*maa://39181</t>
+          <t>maa://34716</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="12" t="inlineStr">
         <is>
-          <t>阿斯卡纶</t>
+          <t>医生</t>
         </is>
       </c>
       <c r="B332" s="12" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C332" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D332" s="13" t="inlineStr">
         <is>
-          <t>maa://36868, maa://35996, maa://44463</t>
+          <t>maa://39179</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="12" t="inlineStr">
         <is>
-          <t>历阵锐枪芬</t>
+          <t>艾拉</t>
         </is>
       </c>
       <c r="B333" s="12" t="inlineStr">
         <is>
-          <t>4-2</t>
+          <t>DM-EX-1</t>
         </is>
       </c>
       <c r="C333" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D333" s="13" t="inlineStr">
         <is>
-          <t>maa://36647</t>
+          <t>maa://34865, maa://34717, maa://45066</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="12" t="inlineStr">
         <is>
-          <t>魔王</t>
+          <t>露托</t>
         </is>
       </c>
       <c r="B334" s="12" t="inlineStr">
         <is>
-          <t>14-5</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C334" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D334" s="13" t="inlineStr">
         <is>
-          <t>maa://42299, **maa://42224</t>
+          <t>maa://39180</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="12" t="inlineStr">
         <is>
-          <t>逻各斯</t>
+          <t>奥达</t>
         </is>
       </c>
       <c r="B335" s="12" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C335" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D335" s="13" t="inlineStr">
         <is>
-          <t>maa://36646, maa://36845</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="12" t="inlineStr">
         <is>
-          <t>维什戴尔</t>
+          <t>阿罗玛</t>
         </is>
       </c>
       <c r="B336" s="12" t="inlineStr">
         <is>
-          <t>DM-5</t>
+          <t>GT-HX-3</t>
         </is>
       </c>
       <c r="C336" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D336" s="13" t="inlineStr">
         <is>
-          <t>maa://36645, maa://36841, maa://37484, maa://37858</t>
+          <t>*maa://39181</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="12" t="inlineStr">
         <is>
-          <t>阿米娅(医疗)</t>
+          <t>阿斯卡纶</t>
         </is>
       </c>
       <c r="B337" s="12" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C337" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D337" s="13" t="inlineStr">
         <is>
-          <t>maa://42635</t>
+          <t>maa://36868, maa://35996, maa://44463</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="12" t="inlineStr">
         <is>
-          <t>深巡</t>
+          <t>历阵锐枪芬</t>
         </is>
       </c>
       <c r="B338" s="12" t="inlineStr">
         <is>
-          <t>SN-5</t>
+          <t>4-2</t>
         </is>
       </c>
       <c r="C338" s="12" t="inlineStr">
@@ -8284,85 +8284,85 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>maa://39183</t>
+          <t>maa://36647</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="12" t="inlineStr">
         <is>
-          <t>海霓</t>
+          <t>魔王</t>
         </is>
       </c>
       <c r="B339" s="12" t="inlineStr">
         <is>
-          <t>SV-4</t>
+          <t>14-5</t>
         </is>
       </c>
       <c r="C339" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>maa://39184</t>
+          <t>maa://42299, **maa://42224</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="12" t="inlineStr">
         <is>
-          <t>乌尔比安</t>
+          <t>逻各斯</t>
         </is>
       </c>
       <c r="B340" s="12" t="inlineStr">
         <is>
-          <t>SV-6</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C340" s="12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>maa://40957, maa://41035, maa://41128, maa://44635, maa://44660</t>
+          <t>maa://36646, maa://36845</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="12" t="inlineStr">
         <is>
-          <t>渡桥</t>
+          <t>维什戴尔</t>
         </is>
       </c>
       <c r="B341" s="12" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>DM-5</t>
         </is>
       </c>
       <c r="C341" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>maa://40164</t>
+          <t>maa://36645, maa://36841, maa://37484, maa://37858</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="12" t="inlineStr">
         <is>
-          <t>衡沙</t>
+          <t>阿米娅(医疗)</t>
         </is>
       </c>
       <c r="B342" s="12" t="inlineStr">
         <is>
-          <t>DV-2</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C342" s="12" t="inlineStr">
@@ -8372,19 +8372,19 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>maa://40165</t>
+          <t>maa://42635</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="12" t="inlineStr">
         <is>
-          <t>森西</t>
+          <t>深巡</t>
         </is>
       </c>
       <c r="B343" s="12" t="inlineStr">
         <is>
-          <t>1-12</t>
+          <t>SN-5</t>
         </is>
       </c>
       <c r="C343" s="12" t="inlineStr">
@@ -8394,63 +8394,63 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>maa://42331</t>
+          <t>maa://39183</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="12" t="inlineStr">
         <is>
-          <t>齐尔查克</t>
+          <t>海霓</t>
         </is>
       </c>
       <c r="B344" s="12" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>SV-4</t>
         </is>
       </c>
       <c r="C344" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>maa://42333, maa://41977</t>
+          <t>maa://39184</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="12" t="inlineStr">
         <is>
-          <t>莱欧斯</t>
+          <t>乌尔比安</t>
         </is>
       </c>
       <c r="B345" s="12" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>SV-6</t>
         </is>
       </c>
       <c r="C345" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>maa://42338, maa://41976</t>
+          <t>maa://40957, maa://41035, maa://41128, maa://44635, maa://44660</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="12" t="inlineStr">
         <is>
-          <t>玛露西尔</t>
+          <t>渡桥</t>
         </is>
       </c>
       <c r="B346" s="12" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C346" s="12" t="inlineStr">
@@ -8460,19 +8460,19 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>maa://41110</t>
+          <t>maa://40164</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="12" t="inlineStr">
         <is>
-          <t>凯瑟琳</t>
+          <t>衡沙</t>
         </is>
       </c>
       <c r="B347" s="12" t="inlineStr">
         <is>
-          <t>11-7</t>
+          <t>DV-2</t>
         </is>
       </c>
       <c r="C347" s="12" t="inlineStr">
@@ -8482,41 +8482,41 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>maa://42343</t>
+          <t>maa://40165</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="12" t="inlineStr">
         <is>
-          <t>波卜</t>
+          <t>佩佩</t>
         </is>
       </c>
       <c r="B348" s="12" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C348" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>maa://43095</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="12" t="inlineStr">
         <is>
-          <t>维娜·维多利亚</t>
+          <t>森西</t>
         </is>
       </c>
       <c r="B349" s="12" t="inlineStr">
         <is>
-          <t>9-5</t>
+          <t>1-12</t>
         </is>
       </c>
       <c r="C349" s="12" t="inlineStr">
@@ -8526,41 +8526,41 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>maa://44233</t>
+          <t>maa://42331</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="12" t="inlineStr">
         <is>
-          <t>裁度</t>
+          <t>齐尔查克</t>
         </is>
       </c>
       <c r="B350" s="12" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C350" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>**maa://43097</t>
+          <t>maa://42333, maa://41977</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="12" t="inlineStr">
         <is>
-          <t>弑君者</t>
+          <t>莱欧斯</t>
         </is>
       </c>
       <c r="B351" s="12" t="inlineStr">
         <is>
-          <t>4-4</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="C351" s="12" t="inlineStr">
@@ -8570,19 +8570,19 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>*maa://43872, maa://39153</t>
+          <t>maa://42338, maa://41976</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="12" t="inlineStr">
         <is>
-          <t>忍冬</t>
+          <t>玛露西尔</t>
         </is>
       </c>
       <c r="B352" s="12" t="inlineStr">
         <is>
-          <t>S2-3</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C352" s="12" t="inlineStr">
@@ -8592,51 +8592,205 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>maa://43875</t>
+          <t>maa://41110</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="12" t="inlineStr">
         <is>
-          <t>荒芜拉普兰德</t>
+          <t>凯瑟琳</t>
         </is>
       </c>
       <c r="B353" s="12" t="inlineStr">
         <is>
-          <t>IS-8</t>
+          <t>11-7</t>
         </is>
       </c>
       <c r="C353" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>maa://42970, maa://44745, maa://44896</t>
+          <t>maa://42343</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="12" t="inlineStr">
         <is>
+          <t>波卜</t>
+        </is>
+      </c>
+      <c r="B354" s="12" t="inlineStr">
+        <is>
+          <t>4-8</t>
+        </is>
+      </c>
+      <c r="C354" s="12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>maa://43095</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="12" t="inlineStr">
+        <is>
+          <t>维娜·维多利亚</t>
+        </is>
+      </c>
+      <c r="B355" s="12" t="inlineStr">
+        <is>
+          <t>9-5</t>
+        </is>
+      </c>
+      <c r="C355" s="12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>maa://44233</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="12" t="inlineStr">
+        <is>
+          <t>裁度</t>
+        </is>
+      </c>
+      <c r="B356" s="12" t="inlineStr">
+        <is>
+          <t>5-8</t>
+        </is>
+      </c>
+      <c r="C356" s="12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>*maa://43097</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="12" t="inlineStr">
+        <is>
+          <t>弑君者</t>
+        </is>
+      </c>
+      <c r="B357" s="12" t="inlineStr">
+        <is>
+          <t>4-4</t>
+        </is>
+      </c>
+      <c r="C357" s="12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>*maa://43872, maa://39153</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="12" t="inlineStr">
+        <is>
+          <t>忍冬</t>
+        </is>
+      </c>
+      <c r="B358" s="12" t="inlineStr">
+        <is>
+          <t>S2-3</t>
+        </is>
+      </c>
+      <c r="C358" s="12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>maa://43875</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="12" t="inlineStr">
+        <is>
+          <t>荒芜拉普兰德</t>
+        </is>
+      </c>
+      <c r="B359" s="12" t="inlineStr">
+        <is>
+          <t>IS-8</t>
+        </is>
+      </c>
+      <c r="C359" s="12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>maa://42970, maa://44745, maa://44896</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="12" t="inlineStr">
+        <is>
           <t>瑰盐</t>
         </is>
       </c>
-      <c r="B354" s="12" t="inlineStr">
+      <c r="B360" s="12" t="inlineStr">
         <is>
           <t>4-6</t>
         </is>
       </c>
-      <c r="C354" s="12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D354" t="inlineStr">
+      <c r="C360" s="12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
         <is>
           <t>maa://44389</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="12" t="inlineStr">
+        <is>
+          <t>行箸</t>
+        </is>
+      </c>
+      <c r="B361" s="12" t="inlineStr">
+        <is>
+          <t>3-2</t>
+        </is>
+      </c>
+      <c r="C361" s="12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.01.25 08:45:24</t>
+          <t>更新日期：2025.01.26 08:43:45</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -1662,7 +1662,7 @@
       </c>
       <c r="D37" s="10" t="inlineStr">
         <is>
-          <t>maa://27376, *maa://20838, maa://42635</t>
+          <t>maa://27376, maa://42635, *maa://20838</t>
         </is>
       </c>
     </row>
@@ -7025,12 +7025,12 @@
       </c>
       <c r="C281" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D281" s="10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://45842</t>
         </is>
       </c>
     </row>
@@ -7069,12 +7069,12 @@
       </c>
       <c r="C283" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D283" s="10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://45799</t>
         </is>
       </c>
     </row>
@@ -8037,12 +8037,12 @@
       </c>
       <c r="C327" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D327" s="10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://45800</t>
         </is>
       </c>
     </row>
@@ -8213,12 +8213,12 @@
       </c>
       <c r="C335" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D335" s="13" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://45834, maa://45833</t>
         </is>
       </c>
     </row>
@@ -8499,12 +8499,12 @@
       </c>
       <c r="C348" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://45798</t>
         </is>
       </c>
     </row>
@@ -8680,7 +8680,7 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>*maa://43097</t>
+          <t>maa://43097</t>
         </is>
       </c>
     </row>
@@ -8785,12 +8785,12 @@
       </c>
       <c r="C361" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://45807</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.01.26 08:43:45</t>
+          <t>更新日期：2025.01.27 13:17:55</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -2256,7 +2256,7 @@
       </c>
       <c r="D64" s="10" t="inlineStr">
         <is>
-          <t>maa://28187, maa://33504, maa://39520, maa://43531, maa://45144</t>
+          <t>maa://28187, maa://33504, maa://39520, maa://45144, maa://43531</t>
         </is>
       </c>
     </row>
@@ -7030,7 +7030,7 @@
       </c>
       <c r="D281" s="10" t="inlineStr">
         <is>
-          <t>maa://45842</t>
+          <t>**maa://45842</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.01.27 13:17:55</t>
+          <t>更新日期：2025.01.28 13:17:19</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -1657,12 +1657,12 @@
       </c>
       <c r="C37" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D37" s="10" t="inlineStr">
         <is>
-          <t>maa://27376, maa://42635, *maa://20838</t>
+          <t>maa://27376, *maa://20838</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.01.28 13:17:19</t>
+          <t>更新日期：2025.01.30 13:18:46</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -1547,12 +1547,12 @@
       </c>
       <c r="C32" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D32" s="10" t="inlineStr">
         <is>
-          <t>maa://36644, maa://36866, maa://27794</t>
+          <t>maa://36644, maa://36866, maa://27794, maa://45572</t>
         </is>
       </c>
     </row>
@@ -2295,12 +2295,12 @@
       </c>
       <c r="C66" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D66" s="10" t="inlineStr">
         <is>
-          <t>maa://20993, maa://20829</t>
+          <t>maa://20993, maa://20829, maa://45606</t>
         </is>
       </c>
     </row>
@@ -2669,12 +2669,12 @@
       </c>
       <c r="C83" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D83" s="10" t="inlineStr">
         <is>
-          <t>maa://27794, maa://20960</t>
+          <t>maa://27794, maa://20960, maa://45572</t>
         </is>
       </c>
     </row>
@@ -3065,12 +3065,12 @@
       </c>
       <c r="C101" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D101" s="10" t="inlineStr">
         <is>
-          <t>maa://27794, *maa://20893</t>
+          <t>maa://27794, *maa://20893, maa://45572</t>
         </is>
       </c>
     </row>
@@ -3175,12 +3175,12 @@
       </c>
       <c r="C106" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D106" s="10" t="inlineStr">
         <is>
-          <t>maa://27794, maa://20843, **maa://24483</t>
+          <t>maa://27794, maa://20843, **maa://24483, maa://45572</t>
         </is>
       </c>
     </row>
@@ -6607,12 +6607,12 @@
       </c>
       <c r="C262" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D262" s="10" t="inlineStr">
         <is>
-          <t>maa://27794, *maa://20862</t>
+          <t>maa://27794, *maa://20862, maa://45572</t>
         </is>
       </c>
     </row>
@@ -8741,12 +8741,12 @@
       </c>
       <c r="C359" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>maa://42970, maa://44745, maa://44896</t>
+          <t>maa://42970, maa://44745, maa://44896, maa://45952</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.01.30 13:18:46</t>
+          <t>更新日期：2025.01.31 13:17:43</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -7030,7 +7030,7 @@
       </c>
       <c r="D281" s="10" t="inlineStr">
         <is>
-          <t>**maa://45842</t>
+          <t>*maa://45842</t>
         </is>
       </c>
     </row>
@@ -7653,34 +7653,34 @@
     <row r="310">
       <c r="A310" s="15" t="inlineStr">
         <is>
-          <t>涤火杰西卡</t>
+          <t>维荻</t>
         </is>
       </c>
       <c r="B310" s="15" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>9-3</t>
         </is>
       </c>
       <c r="C310" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D310" s="10" t="inlineStr">
         <is>
-          <t>maa://34867, maa://34715</t>
+          <t>maa://39176</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="15" t="inlineStr">
         <is>
-          <t>维荻</t>
+          <t>戴菲恩</t>
         </is>
       </c>
       <c r="B311" s="15" t="inlineStr">
         <is>
-          <t>9-3</t>
+          <t>WD-6</t>
         </is>
       </c>
       <c r="C311" s="12" t="inlineStr">
@@ -7690,19 +7690,19 @@
       </c>
       <c r="D311" s="10" t="inlineStr">
         <is>
-          <t>maa://39176</t>
+          <t>maa://42316</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="15" t="inlineStr">
         <is>
-          <t>戴菲恩</t>
+          <t>刺玫</t>
         </is>
       </c>
       <c r="B312" s="15" t="inlineStr">
         <is>
-          <t>WD-6</t>
+          <t>IC-2</t>
         </is>
       </c>
       <c r="C312" s="12" t="inlineStr">
@@ -7712,19 +7712,19 @@
       </c>
       <c r="D312" s="10" t="inlineStr">
         <is>
-          <t>maa://42316</t>
+          <t>maa://30680</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="15" t="inlineStr">
         <is>
-          <t>刺玫</t>
+          <t>赫德雷</t>
         </is>
       </c>
       <c r="B313" s="15" t="inlineStr">
         <is>
-          <t>IC-2</t>
+          <t>IW-7</t>
         </is>
       </c>
       <c r="C313" s="12" t="inlineStr">
@@ -7734,51 +7734,51 @@
       </c>
       <c r="D313" s="10" t="inlineStr">
         <is>
-          <t>maa://30680</t>
+          <t>maa://40956</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="15" t="inlineStr">
         <is>
-          <t>赫德雷</t>
+          <t>深律</t>
         </is>
       </c>
       <c r="B314" s="15" t="inlineStr">
         <is>
-          <t>IW-7</t>
+          <t>LE-4</t>
         </is>
       </c>
       <c r="C314" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D314" s="10" t="inlineStr">
         <is>
-          <t>maa://40956</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="15" t="inlineStr">
         <is>
-          <t>深律</t>
+          <t>止颂</t>
         </is>
       </c>
       <c r="B315" s="15" t="inlineStr">
         <is>
-          <t>LE-4</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="C315" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D315" s="10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://34205</t>
         </is>
       </c>
     </row>
@@ -7790,51 +7790,51 @@
       </c>
       <c r="B316" s="15" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>TW-5</t>
         </is>
       </c>
       <c r="C316" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D316" s="10" t="inlineStr">
         <is>
-          <t>maa://34205</t>
+          <t>maa://43092, maa://43093</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="15" t="inlineStr">
         <is>
-          <t>止颂</t>
+          <t>薇薇安娜</t>
         </is>
       </c>
       <c r="B317" s="15" t="inlineStr">
         <is>
-          <t>TW-5</t>
+          <t>MN-3</t>
         </is>
       </c>
       <c r="C317" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D317" s="10" t="inlineStr">
         <is>
-          <t>maa://43092, maa://43093</t>
+          <t>maa://44234</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="15" t="inlineStr">
         <is>
-          <t>薇薇安娜</t>
+          <t>塑心</t>
         </is>
       </c>
       <c r="B318" s="15" t="inlineStr">
         <is>
-          <t>MN-3</t>
+          <t>GA-7</t>
         </is>
       </c>
       <c r="C318" s="12" t="inlineStr">
@@ -7844,19 +7844,19 @@
       </c>
       <c r="D318" s="10" t="inlineStr">
         <is>
-          <t>maa://44234</t>
+          <t>maa://42968</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="15" t="inlineStr">
         <is>
-          <t>塑心</t>
+          <t>哈洛德</t>
         </is>
       </c>
       <c r="B319" s="15" t="inlineStr">
         <is>
-          <t>GA-7</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="C319" s="12" t="inlineStr">
@@ -7866,19 +7866,19 @@
       </c>
       <c r="D319" s="10" t="inlineStr">
         <is>
-          <t>maa://42968</t>
+          <t>*maa://40162</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="15" t="inlineStr">
         <is>
-          <t>哈洛德</t>
+          <t>烈夏</t>
         </is>
       </c>
       <c r="B320" s="15" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C320" s="12" t="inlineStr">
@@ -7888,63 +7888,63 @@
       </c>
       <c r="D320" s="10" t="inlineStr">
         <is>
-          <t>*maa://40162</t>
+          <t>maa://37692</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="15" t="inlineStr">
         <is>
-          <t>烈夏</t>
+          <t>锏</t>
         </is>
       </c>
       <c r="B321" s="15" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>BI-6</t>
         </is>
       </c>
       <c r="C321" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D321" s="10" t="inlineStr">
         <is>
-          <t>maa://37692</t>
+          <t>maa://30671, maa://30669, maa://37275, *maa://32410, maa://41605, maa://33671</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="15" t="inlineStr">
         <is>
-          <t>锏</t>
+          <t>莱伊</t>
         </is>
       </c>
       <c r="B322" s="15" t="inlineStr">
         <is>
-          <t>BI-6</t>
+          <t>S9-1</t>
         </is>
       </c>
       <c r="C322" s="12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D322" s="10" t="inlineStr">
         <is>
-          <t>maa://30671, maa://30669, maa://37275, *maa://32410, maa://41605, maa://33671</t>
+          <t>maa://38295</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="15" t="inlineStr">
         <is>
-          <t>莱伊</t>
+          <t>万顷</t>
         </is>
       </c>
       <c r="B323" s="15" t="inlineStr">
         <is>
-          <t>S9-1</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="C323" s="12" t="inlineStr">
@@ -7954,19 +7954,19 @@
       </c>
       <c r="D323" s="10" t="inlineStr">
         <is>
-          <t>maa://38295</t>
+          <t>maa://32417</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="15" t="inlineStr">
         <is>
-          <t>万顷</t>
+          <t>小满</t>
         </is>
       </c>
       <c r="B324" s="15" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>9-11</t>
         </is>
       </c>
       <c r="C324" s="12" t="inlineStr">
@@ -7976,19 +7976,19 @@
       </c>
       <c r="D324" s="10" t="inlineStr">
         <is>
-          <t>maa://32417</t>
+          <t>maa://32419</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="15" t="inlineStr">
         <is>
-          <t>小满</t>
+          <t>左乐</t>
         </is>
       </c>
       <c r="B325" s="15" t="inlineStr">
         <is>
-          <t>9-11</t>
+          <t>WB-5</t>
         </is>
       </c>
       <c r="C325" s="12" t="inlineStr">
@@ -7998,7 +7998,7 @@
       </c>
       <c r="D325" s="10" t="inlineStr">
         <is>
-          <t>maa://32419</t>
+          <t>maa://32416</t>
         </is>
       </c>
     </row>
@@ -8010,7 +8010,7 @@
       </c>
       <c r="B326" s="15" t="inlineStr">
         <is>
-          <t>WB-5</t>
+          <t>RI-7</t>
         </is>
       </c>
       <c r="C326" s="12" t="inlineStr">
@@ -8020,63 +8020,63 @@
       </c>
       <c r="D326" s="10" t="inlineStr">
         <is>
-          <t>maa://32416</t>
+          <t>maa://45800</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="15" t="inlineStr">
         <is>
-          <t>左乐</t>
+          <t>黍</t>
         </is>
       </c>
       <c r="B327" s="15" t="inlineStr">
         <is>
-          <t>RI-7</t>
+          <t>11-11</t>
         </is>
       </c>
       <c r="C327" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D327" s="10" t="inlineStr">
         <is>
-          <t>maa://45800</t>
+          <t>maa://32647, maa://32415, maa://34677, maa://32892</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="15" t="inlineStr">
         <is>
-          <t>黍</t>
+          <t>红隼</t>
         </is>
       </c>
       <c r="B328" s="15" t="inlineStr">
         <is>
-          <t>11-11</t>
+          <t>11-18</t>
         </is>
       </c>
       <c r="C328" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D328" s="10" t="inlineStr">
         <is>
-          <t>maa://32647, maa://32415, maa://34677, maa://32892</t>
+          <t>maa://32420</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="15" t="inlineStr">
         <is>
-          <t>红隼</t>
+          <t>导火索</t>
         </is>
       </c>
       <c r="B329" s="15" t="inlineStr">
         <is>
-          <t>11-18</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C329" s="12" t="inlineStr">
@@ -8086,19 +8086,19 @@
       </c>
       <c r="D329" s="10" t="inlineStr">
         <is>
-          <t>maa://32420</t>
+          <t>maa://35606</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="15" t="inlineStr">
         <is>
-          <t>导火索</t>
+          <t>双月</t>
         </is>
       </c>
       <c r="B330" s="15" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C330" s="12" t="inlineStr">
@@ -8108,19 +8108,19 @@
       </c>
       <c r="D330" s="10" t="inlineStr">
         <is>
-          <t>maa://35606</t>
+          <t>maa://34716</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="12" t="inlineStr">
         <is>
-          <t>双月</t>
+          <t>医生</t>
         </is>
       </c>
       <c r="B331" s="12" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C331" s="12" t="inlineStr">
@@ -8130,173 +8130,173 @@
       </c>
       <c r="D331" s="13" t="inlineStr">
         <is>
-          <t>maa://34716</t>
+          <t>maa://39179</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="12" t="inlineStr">
         <is>
-          <t>医生</t>
+          <t>艾拉</t>
         </is>
       </c>
       <c r="B332" s="12" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>DM-EX-1</t>
         </is>
       </c>
       <c r="C332" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D332" s="13" t="inlineStr">
         <is>
-          <t>maa://39179</t>
+          <t>maa://34865, maa://34717, maa://45066</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="12" t="inlineStr">
         <is>
-          <t>艾拉</t>
+          <t>露托</t>
         </is>
       </c>
       <c r="B333" s="12" t="inlineStr">
         <is>
-          <t>DM-EX-1</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C333" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D333" s="13" t="inlineStr">
         <is>
-          <t>maa://34865, maa://34717, maa://45066</t>
+          <t>maa://39180</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="12" t="inlineStr">
         <is>
-          <t>露托</t>
+          <t>奥达</t>
         </is>
       </c>
       <c r="B334" s="12" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C334" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D334" s="13" t="inlineStr">
         <is>
-          <t>maa://39180</t>
+          <t>maa://45834, maa://45833</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="12" t="inlineStr">
         <is>
-          <t>奥达</t>
+          <t>阿罗玛</t>
         </is>
       </c>
       <c r="B335" s="12" t="inlineStr">
         <is>
-          <t>S3-6</t>
+          <t>GT-HX-3</t>
         </is>
       </c>
       <c r="C335" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D335" s="13" t="inlineStr">
         <is>
-          <t>maa://45834, maa://45833</t>
+          <t>*maa://39181</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="12" t="inlineStr">
         <is>
-          <t>阿罗玛</t>
+          <t>阿斯卡纶</t>
         </is>
       </c>
       <c r="B336" s="12" t="inlineStr">
         <is>
-          <t>GT-HX-3</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C336" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D336" s="13" t="inlineStr">
         <is>
-          <t>*maa://39181</t>
+          <t>maa://36868, maa://35996, maa://44463</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="12" t="inlineStr">
         <is>
-          <t>阿斯卡纶</t>
+          <t>历阵锐枪芬</t>
         </is>
       </c>
       <c r="B337" s="12" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>4-2</t>
         </is>
       </c>
       <c r="C337" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D337" s="13" t="inlineStr">
         <is>
-          <t>maa://36868, maa://35996, maa://44463</t>
+          <t>maa://36647</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="12" t="inlineStr">
         <is>
-          <t>历阵锐枪芬</t>
+          <t>魔王</t>
         </is>
       </c>
       <c r="B338" s="12" t="inlineStr">
         <is>
-          <t>4-2</t>
+          <t>14-5</t>
         </is>
       </c>
       <c r="C338" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>maa://36647</t>
+          <t>maa://42299, **maa://42224</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="12" t="inlineStr">
         <is>
-          <t>魔王</t>
+          <t>逻各斯</t>
         </is>
       </c>
       <c r="B339" s="12" t="inlineStr">
         <is>
-          <t>14-5</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C339" s="12" t="inlineStr">
@@ -8306,63 +8306,63 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>maa://42299, **maa://42224</t>
+          <t>maa://36646, maa://36845</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="12" t="inlineStr">
         <is>
-          <t>逻各斯</t>
+          <t>维什戴尔</t>
         </is>
       </c>
       <c r="B340" s="12" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>DM-5</t>
         </is>
       </c>
       <c r="C340" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>maa://36646, maa://36845</t>
+          <t>maa://36645, maa://36841, maa://37484, maa://37858</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="12" t="inlineStr">
         <is>
-          <t>维什戴尔</t>
+          <t>阿米娅(医疗)</t>
         </is>
       </c>
       <c r="B341" s="12" t="inlineStr">
         <is>
-          <t>DM-5</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C341" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>maa://36645, maa://36841, maa://37484, maa://37858</t>
+          <t>maa://42635</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="12" t="inlineStr">
         <is>
-          <t>阿米娅(医疗)</t>
+          <t>深巡</t>
         </is>
       </c>
       <c r="B342" s="12" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>SN-5</t>
         </is>
       </c>
       <c r="C342" s="12" t="inlineStr">
@@ -8372,19 +8372,19 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>maa://42635</t>
+          <t>maa://39183</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="12" t="inlineStr">
         <is>
-          <t>深巡</t>
+          <t>海霓</t>
         </is>
       </c>
       <c r="B343" s="12" t="inlineStr">
         <is>
-          <t>SN-5</t>
+          <t>SV-4</t>
         </is>
       </c>
       <c r="C343" s="12" t="inlineStr">
@@ -8394,63 +8394,63 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>maa://39183</t>
+          <t>maa://39184</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="12" t="inlineStr">
         <is>
-          <t>海霓</t>
+          <t>乌尔比安</t>
         </is>
       </c>
       <c r="B344" s="12" t="inlineStr">
         <is>
-          <t>SV-4</t>
+          <t>SV-6</t>
         </is>
       </c>
       <c r="C344" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>maa://39184</t>
+          <t>maa://40957, maa://41035, maa://41128, maa://44635, maa://44660</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="12" t="inlineStr">
         <is>
-          <t>乌尔比安</t>
+          <t>渡桥</t>
         </is>
       </c>
       <c r="B345" s="12" t="inlineStr">
         <is>
-          <t>SV-6</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C345" s="12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>maa://40957, maa://41035, maa://41128, maa://44635, maa://44660</t>
+          <t>maa://40164</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="12" t="inlineStr">
         <is>
-          <t>渡桥</t>
+          <t>衡沙</t>
         </is>
       </c>
       <c r="B346" s="12" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>DV-2</t>
         </is>
       </c>
       <c r="C346" s="12" t="inlineStr">
@@ -8460,19 +8460,19 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>maa://40164</t>
+          <t>maa://40165</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="12" t="inlineStr">
         <is>
-          <t>衡沙</t>
+          <t>佩佩</t>
         </is>
       </c>
       <c r="B347" s="12" t="inlineStr">
         <is>
-          <t>DV-2</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C347" s="12" t="inlineStr">
@@ -8482,19 +8482,19 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>maa://40165</t>
+          <t>maa://45798</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="12" t="inlineStr">
         <is>
-          <t>佩佩</t>
+          <t>森西</t>
         </is>
       </c>
       <c r="B348" s="12" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>1-12</t>
         </is>
       </c>
       <c r="C348" s="12" t="inlineStr">
@@ -8504,41 +8504,41 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>maa://45798</t>
+          <t>maa://42331</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="12" t="inlineStr">
         <is>
-          <t>森西</t>
+          <t>齐尔查克</t>
         </is>
       </c>
       <c r="B349" s="12" t="inlineStr">
         <is>
-          <t>1-12</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C349" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>maa://42331</t>
+          <t>maa://42333, maa://41977</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="12" t="inlineStr">
         <is>
-          <t>齐尔查克</t>
+          <t>莱欧斯</t>
         </is>
       </c>
       <c r="B350" s="12" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="C350" s="12" t="inlineStr">
@@ -8548,19 +8548,19 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>maa://42333, maa://41977</t>
+          <t>maa://42338, maa://41976</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="12" t="inlineStr">
         <is>
-          <t>莱欧斯</t>
+          <t>玛露西尔</t>
         </is>
       </c>
       <c r="B351" s="12" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C351" s="12" t="inlineStr">
@@ -8570,19 +8570,19 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>maa://42338, maa://41976</t>
+          <t>maa://41110, maa://45605</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="12" t="inlineStr">
         <is>
-          <t>玛露西尔</t>
+          <t>凯瑟琳</t>
         </is>
       </c>
       <c r="B352" s="12" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>11-7</t>
         </is>
       </c>
       <c r="C352" s="12" t="inlineStr">
@@ -8592,19 +8592,19 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>maa://41110</t>
+          <t>maa://42343</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="12" t="inlineStr">
         <is>
-          <t>凯瑟琳</t>
+          <t>波卜</t>
         </is>
       </c>
       <c r="B353" s="12" t="inlineStr">
         <is>
-          <t>11-7</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="C353" s="12" t="inlineStr">
@@ -8614,19 +8614,19 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>maa://42343</t>
+          <t>maa://43095</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="12" t="inlineStr">
         <is>
-          <t>波卜</t>
+          <t>维娜·维多利亚</t>
         </is>
       </c>
       <c r="B354" s="12" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>9-5</t>
         </is>
       </c>
       <c r="C354" s="12" t="inlineStr">
@@ -8636,19 +8636,19 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>maa://43095</t>
+          <t>maa://44233</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="12" t="inlineStr">
         <is>
-          <t>维娜·维多利亚</t>
+          <t>裁度</t>
         </is>
       </c>
       <c r="B355" s="12" t="inlineStr">
         <is>
-          <t>9-5</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="C355" s="12" t="inlineStr">
@@ -8658,107 +8658,107 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>maa://44233</t>
+          <t>maa://43097</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="12" t="inlineStr">
         <is>
-          <t>裁度</t>
+          <t>弑君者</t>
         </is>
       </c>
       <c r="B356" s="12" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>4-4</t>
         </is>
       </c>
       <c r="C356" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>maa://43097</t>
+          <t>*maa://43872, maa://39153</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="12" t="inlineStr">
         <is>
-          <t>弑君者</t>
+          <t>忍冬</t>
         </is>
       </c>
       <c r="B357" s="12" t="inlineStr">
         <is>
-          <t>4-4</t>
+          <t>S2-3</t>
         </is>
       </c>
       <c r="C357" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>*maa://43872, maa://39153</t>
+          <t>maa://43875</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="12" t="inlineStr">
         <is>
-          <t>忍冬</t>
+          <t>荒芜拉普兰德</t>
         </is>
       </c>
       <c r="B358" s="12" t="inlineStr">
         <is>
-          <t>S2-3</t>
+          <t>IS-8</t>
         </is>
       </c>
       <c r="C358" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>maa://43875</t>
+          <t>maa://42970, maa://44745, maa://44896, maa://45952</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="12" t="inlineStr">
         <is>
-          <t>荒芜拉普兰德</t>
+          <t>瑰盐</t>
         </is>
       </c>
       <c r="B359" s="12" t="inlineStr">
         <is>
-          <t>IS-8</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C359" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>maa://42970, maa://44745, maa://44896, maa://45952</t>
+          <t>maa://44389</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="12" t="inlineStr">
         <is>
-          <t>瑰盐</t>
+          <t>行箸</t>
         </is>
       </c>
       <c r="B360" s="12" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>3-2</t>
         </is>
       </c>
       <c r="C360" s="12" t="inlineStr">
@@ -8768,7 +8768,7 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>maa://44389</t>
+          <t>maa://45807</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.01.31 13:17:43</t>
+          <t>更新日期：2025.02.01 13:16:44</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -5116,7 +5116,7 @@
       </c>
       <c r="D194" s="10" t="inlineStr">
         <is>
-          <t>*maa://35854, maa://25760, maa://44224, **maa://20872</t>
+          <t>*maa://35854, maa://44224, maa://25760, **maa://20872</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.02.01 13:16:44</t>
+          <t>更新日期：2025.02.02 13:17:29</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -1596,7 +1596,7 @@
       </c>
       <c r="D34" s="10" t="inlineStr">
         <is>
-          <t>*maa://20916</t>
+          <t>maa://20916</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="D64" s="10" t="inlineStr">
         <is>
-          <t>maa://28187, maa://33504, maa://39520, maa://45144, maa://43531</t>
+          <t>maa://28187, maa://33504, maa://45144, maa://39520, maa://43531</t>
         </is>
       </c>
     </row>
@@ -4121,12 +4121,12 @@
       </c>
       <c r="C149" s="12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D149" s="10" t="inlineStr">
         <is>
-          <t>maa://36641, maa://36865, maa://42918, maa://44119, maa://37300, maa://42917</t>
+          <t>maa://36641, maa://36865, maa://42918, maa://44119, maa://37300, maa://42917, maa://46108</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.02.02 13:17:29</t>
+          <t>更新日期：2025.02.08 13:16:19</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -3378,7 +3378,7 @@
       </c>
       <c r="D115" s="10" t="inlineStr">
         <is>
-          <t>maa://20908, *maa://23346, maa://35723, maa://38822</t>
+          <t>maa://20908, maa://35723, *maa://23346, maa://38822</t>
         </is>
       </c>
     </row>
@@ -4126,7 +4126,7 @@
       </c>
       <c r="D149" s="10" t="inlineStr">
         <is>
-          <t>maa://36641, maa://36865, maa://42918, maa://44119, maa://37300, maa://42917, maa://46108</t>
+          <t>maa://36641, maa://36865, maa://42918, maa://44119, maa://37300, maa://46108, maa://42917</t>
         </is>
       </c>
     </row>
@@ -5116,7 +5116,7 @@
       </c>
       <c r="D194" s="10" t="inlineStr">
         <is>
-          <t>*maa://35854, maa://44224, maa://25760, **maa://20872</t>
+          <t>maa://44224, *maa://35854, maa://25760, **maa://20872</t>
         </is>
       </c>
     </row>
@@ -5138,7 +5138,7 @@
       </c>
       <c r="D195" s="10" t="inlineStr">
         <is>
-          <t>maa://39156, maa://39550</t>
+          <t>maa://39156, *maa://39550</t>
         </is>
       </c>
     </row>
@@ -6282,7 +6282,7 @@
       </c>
       <c r="D247" s="10" t="inlineStr">
         <is>
-          <t>*maa://40958, maa://45067</t>
+          <t>*maa://40958, *maa://45067</t>
         </is>
       </c>
     </row>
@@ -6326,7 +6326,7 @@
       </c>
       <c r="D249" s="13" t="inlineStr">
         <is>
-          <t>maa://20877, maa://20836, maa://20632, maa://45067</t>
+          <t>maa://20877, maa://20836, *maa://45067, maa://20632</t>
         </is>
       </c>
     </row>
@@ -6893,12 +6893,12 @@
       </c>
       <c r="C275" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D275" s="10" t="inlineStr">
         <is>
-          <t>maa://20899</t>
+          <t>maa://20899, maa://46332</t>
         </is>
       </c>
     </row>
@@ -8416,7 +8416,7 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>maa://40957, maa://41035, maa://41128, maa://44635, maa://44660</t>
+          <t>maa://40957, maa://41035, maa://44635, maa://41128, maa://44660</t>
         </is>
       </c>
     </row>
@@ -8680,7 +8680,7 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>*maa://43872, maa://39153</t>
+          <t>maa://43872, maa://39153</t>
         </is>
       </c>
     </row>
@@ -8724,7 +8724,7 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>maa://42970, maa://44745, maa://44896, maa://45952</t>
+          <t>maa://42970, maa://44745, maa://45952, maa://44896</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.02.08 13:16:19</t>
+          <t>更新日期：2025.02.09 13:17:45</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -1389,12 +1389,12 @@
       </c>
       <c r="C27" s="12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D27" s="10" t="inlineStr">
         <is>
-          <t>*maa://20849, *maa://28758, maa://29036, maa://30285, **maa://42172</t>
+          <t>*maa://20849, *maa://28758, maa://29036, maa://30285</t>
         </is>
       </c>
       <c r="F27" s="8" t="n"/>
@@ -2278,7 +2278,7 @@
       </c>
       <c r="D65" s="10" t="inlineStr">
         <is>
-          <t>maa://28567, maa://30525, *maa://28188, maa://38735, maa://30524</t>
+          <t>maa://28567, maa://30525, maa://38735, *maa://28188, maa://30524</t>
         </is>
       </c>
     </row>
@@ -3994,7 +3994,7 @@
       </c>
       <c r="D143" s="10" t="inlineStr">
         <is>
-          <t>maa://30670, maa://31470, maa://45066</t>
+          <t>maa://30670, maa://31470, **maa://45066</t>
         </is>
       </c>
     </row>
@@ -6194,7 +6194,7 @@
       </c>
       <c r="D243" s="10" t="inlineStr">
         <is>
-          <t>maa://42287, maa://42225, maa://45570</t>
+          <t>maa://42287, maa://45570, maa://42225</t>
         </is>
       </c>
     </row>
@@ -7030,7 +7030,7 @@
       </c>
       <c r="D281" s="10" t="inlineStr">
         <is>
-          <t>*maa://45842</t>
+          <t>**maa://45842</t>
         </is>
       </c>
     </row>
@@ -8152,7 +8152,7 @@
       </c>
       <c r="D332" s="13" t="inlineStr">
         <is>
-          <t>maa://34865, maa://34717, maa://45066</t>
+          <t>maa://34865, maa://34717, **maa://45066</t>
         </is>
       </c>
     </row>
@@ -8416,7 +8416,7 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>maa://40957, maa://41035, maa://44635, maa://41128, maa://44660</t>
+          <t>maa://40957, maa://44635, maa://41035, maa://41128, maa://44660</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.02.09 13:17:45</t>
+          <t>更新日期：2025.02.12 13:18:17</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -1389,12 +1389,12 @@
       </c>
       <c r="C27" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D27" s="10" t="inlineStr">
         <is>
-          <t>*maa://20849, *maa://28758, maa://29036, maa://30285</t>
+          <t>*maa://20849, *maa://28758, maa://29036, *maa://42172, maa://30285</t>
         </is>
       </c>
       <c r="F27" s="8" t="n"/>
@@ -2278,7 +2278,7 @@
       </c>
       <c r="D65" s="10" t="inlineStr">
         <is>
-          <t>maa://28567, maa://30525, maa://38735, *maa://28188, maa://30524</t>
+          <t>maa://28567, maa://30525, *maa://28188, maa://38735, maa://30524</t>
         </is>
       </c>
     </row>
@@ -3070,7 +3070,7 @@
       </c>
       <c r="D101" s="10" t="inlineStr">
         <is>
-          <t>maa://27794, *maa://20893, maa://45572</t>
+          <t>maa://27794, maa://45572, *maa://20893</t>
         </is>
       </c>
     </row>
@@ -3994,7 +3994,7 @@
       </c>
       <c r="D143" s="10" t="inlineStr">
         <is>
-          <t>maa://30670, maa://31470, **maa://45066</t>
+          <t>maa://30670, maa://31470, *maa://45066</t>
         </is>
       </c>
     </row>
@@ -7025,12 +7025,12 @@
       </c>
       <c r="C281" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D281" s="10" t="inlineStr">
         <is>
-          <t>**maa://45842</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -8152,7 +8152,7 @@
       </c>
       <c r="D332" s="13" t="inlineStr">
         <is>
-          <t>maa://34865, maa://34717, **maa://45066</t>
+          <t>maa://34865, maa://34717, *maa://45066</t>
         </is>
       </c>
     </row>
@@ -8235,12 +8235,12 @@
       </c>
       <c r="C336" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D336" s="13" t="inlineStr">
         <is>
-          <t>maa://36868, maa://35996, maa://44463</t>
+          <t>maa://36868, maa://35996</t>
         </is>
       </c>
     </row>
@@ -8284,7 +8284,7 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>maa://42299, **maa://42224</t>
+          <t>maa://42299, *maa://42224</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.02.12 13:18:17</t>
+          <t>更新日期：2025.02.14 13:17:46</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -3180,7 +3180,7 @@
       </c>
       <c r="D106" s="10" t="inlineStr">
         <is>
-          <t>maa://27794, maa://20843, **maa://24483, maa://45572</t>
+          <t>maa://27794, maa://20843, maa://45572, **maa://24483</t>
         </is>
       </c>
     </row>
@@ -6612,7 +6612,7 @@
       </c>
       <c r="D262" s="10" t="inlineStr">
         <is>
-          <t>maa://27794, *maa://20862, maa://45572</t>
+          <t>maa://27794, maa://45572, *maa://20862</t>
         </is>
       </c>
     </row>
@@ -8719,12 +8719,12 @@
       </c>
       <c r="C358" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>maa://42970, maa://44745, maa://45952, maa://44896</t>
+          <t>maa://42970, maa://44745, maa://45952, maa://44896, maa://46851</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -463,7 +463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB361"/>
+  <dimension ref="A1:AB362"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.02.14 13:17:46</t>
+          <t>更新日期：2025.02.15 13:17:50</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>maa://42970, maa://44745, maa://45952, maa://44896, maa://46851</t>
+          <t>maa://42970, maa://44745, maa://45952, maa://44896, **maa://46851</t>
         </is>
       </c>
     </row>
@@ -8775,22 +8775,44 @@
     <row r="361">
       <c r="A361" s="12" t="inlineStr">
         <is>
-          <t>行箸</t>
+          <t>诺威尔</t>
         </is>
       </c>
       <c r="B361" s="12" t="inlineStr">
         <is>
-          <t>3-2</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="C361" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>maa://45807</t>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="12" t="inlineStr">
+        <is>
+          <t>隐德来希</t>
+        </is>
+      </c>
+      <c r="B362" s="12" t="inlineStr">
+        <is>
+          <t>10-12</t>
+        </is>
+      </c>
+      <c r="C362" s="12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>maa://47023</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.02.15 13:17:50</t>
+          <t>更新日期：2025.02.15 19:34:59</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -1355,12 +1355,12 @@
       </c>
       <c r="C26" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D26" s="10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>**maa://45081</t>
         </is>
       </c>
       <c r="F26" s="8" t="n"/>
@@ -3285,12 +3285,12 @@
       </c>
       <c r="C111" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D111" s="10" t="inlineStr">
         <is>
-          <t>*maa://28554</t>
+          <t>*maa://28554, **maa://45081</t>
         </is>
       </c>
     </row>
@@ -8785,12 +8785,12 @@
       </c>
       <c r="C361" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://47175, maa://47174</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.02.15 19:34:59</t>
+          <t>更新日期：2025.02.16 13:17:39</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -6431,12 +6431,12 @@
       </c>
       <c r="C254" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D254" s="10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://47204</t>
         </is>
       </c>
     </row>
@@ -8719,12 +8719,12 @@
       </c>
       <c r="C358" s="12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>maa://42970, maa://44745, maa://45952, maa://44896, **maa://46851</t>
+          <t>maa://42970, maa://44745, maa://45952, maa://44896</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.02.16 13:17:39</t>
+          <t>更新日期：2025.02.22 13:17:25</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="D26" s="10" t="inlineStr">
         <is>
-          <t>**maa://45081</t>
+          <t>*maa://45081</t>
         </is>
       </c>
       <c r="F26" s="8" t="n"/>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="D59" s="10" t="inlineStr">
         <is>
-          <t>maa://27970, *maa://41118</t>
+          <t>maa://27970, maa://41118</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="D64" s="10" t="inlineStr">
         <is>
-          <t>maa://28187, maa://33504, maa://45144, maa://39520, maa://43531</t>
+          <t>maa://28187, maa://33504, maa://45144, maa://43531, maa://39520</t>
         </is>
       </c>
     </row>
@@ -2278,7 +2278,7 @@
       </c>
       <c r="D65" s="10" t="inlineStr">
         <is>
-          <t>maa://28567, maa://30525, *maa://28188, maa://38735, maa://30524</t>
+          <t>maa://28567, maa://30525, maa://38735, *maa://28188, maa://30524</t>
         </is>
       </c>
     </row>
@@ -2674,7 +2674,7 @@
       </c>
       <c r="D83" s="10" t="inlineStr">
         <is>
-          <t>maa://27794, maa://20960, maa://45572</t>
+          <t>maa://27794, maa://45572, maa://20960</t>
         </is>
       </c>
     </row>
@@ -3180,7 +3180,7 @@
       </c>
       <c r="D106" s="10" t="inlineStr">
         <is>
-          <t>maa://27794, maa://20843, maa://45572, **maa://24483</t>
+          <t>maa://27794, maa://45572, maa://20843, **maa://24483</t>
         </is>
       </c>
     </row>
@@ -3290,7 +3290,7 @@
       </c>
       <c r="D111" s="10" t="inlineStr">
         <is>
-          <t>*maa://28554, **maa://45081</t>
+          <t>*maa://28554, *maa://45081</t>
         </is>
       </c>
     </row>
@@ -3994,7 +3994,7 @@
       </c>
       <c r="D143" s="10" t="inlineStr">
         <is>
-          <t>maa://30670, maa://31470, *maa://45066</t>
+          <t>maa://30670, maa://31470, **maa://45066</t>
         </is>
       </c>
     </row>
@@ -5688,7 +5688,7 @@
       </c>
       <c r="D220" s="10" t="inlineStr">
         <is>
-          <t>maa://28187, maa://39520, maa://43531</t>
+          <t>maa://28187, maa://43531, maa://39520</t>
         </is>
       </c>
     </row>
@@ -8152,7 +8152,7 @@
       </c>
       <c r="D332" s="13" t="inlineStr">
         <is>
-          <t>maa://34865, maa://34717, *maa://45066</t>
+          <t>maa://34865, maa://34717, **maa://45066</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.02.22 13:17:25</t>
+          <t>更新日期：2025.02.27 13:19:23</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -3136,7 +3136,7 @@
       </c>
       <c r="D104" s="10" t="inlineStr">
         <is>
-          <t>maa://20966</t>
+          <t>*maa://20966</t>
         </is>
       </c>
     </row>
@@ -3224,7 +3224,7 @@
       </c>
       <c r="D108" s="10" t="inlineStr">
         <is>
-          <t>maa://25018, maa://25776, maa://28361, maa://25772, *maa://25161, maa://32653, *maa://45194</t>
+          <t>maa://25018, maa://25776, maa://28361, maa://25772, *maa://25161, maa://32653, maa://45194</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.02.27 13:19:23</t>
+          <t>更新日期：2025.03.01 13:17:29</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -3224,7 +3224,7 @@
       </c>
       <c r="D108" s="10" t="inlineStr">
         <is>
-          <t>maa://25018, maa://25776, maa://28361, maa://25772, *maa://25161, maa://32653, maa://45194</t>
+          <t>maa://25018, maa://25776, maa://28361, maa://25772, maa://25161, maa://32653, maa://45194</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.03.01 13:17:29</t>
+          <t>更新日期：2025.03.02 13:19:18</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -7025,12 +7025,12 @@
       </c>
       <c r="C281" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D281" s="10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://47882</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.03.02 13:19:18</t>
+          <t>更新日期：2025.03.06 13:18:49</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="D94" s="10" t="inlineStr">
         <is>
-          <t>*maa://40157</t>
+          <t>maa://40157</t>
         </is>
       </c>
     </row>
@@ -4473,12 +4473,12 @@
       </c>
       <c r="C165" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D165" s="10" t="inlineStr">
         <is>
-          <t>maa://20975, maa://30806</t>
+          <t>maa://20975, maa://30806, **maa://47950</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -463,7 +463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB362"/>
+  <dimension ref="A1:AB368"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.03.06 13:18:49</t>
+          <t>更新日期：2025.03.07 13:21:00</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -5519,44 +5519,44 @@
     <row r="213">
       <c r="A213" s="15" t="inlineStr">
         <is>
-          <t>灰毫</t>
+          <t>琴柳</t>
         </is>
       </c>
       <c r="B213" s="15" t="inlineStr">
         <is>
-          <t>7-9</t>
+          <t>5-3</t>
         </is>
       </c>
       <c r="C213" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D213" s="10" t="inlineStr">
         <is>
-          <t>*maa://39157</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="15" t="inlineStr">
         <is>
-          <t>远牙</t>
+          <t>灰毫</t>
         </is>
       </c>
       <c r="B214" s="15" t="inlineStr">
         <is>
-          <t>S2-2</t>
+          <t>7-9</t>
         </is>
       </c>
       <c r="C214" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D214" s="10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>*maa://39157</t>
         </is>
       </c>
     </row>
@@ -5568,29 +5568,29 @@
       </c>
       <c r="B215" s="15" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>S2-2</t>
         </is>
       </c>
       <c r="C215" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D215" s="10" t="inlineStr">
         <is>
-          <t>maa://26499</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="15" t="inlineStr">
         <is>
-          <t>布丁</t>
+          <t>远牙</t>
         </is>
       </c>
       <c r="B216" s="15" t="inlineStr">
         <is>
-          <t>2-10</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C216" s="12" t="inlineStr">
@@ -5600,19 +5600,19 @@
       </c>
       <c r="D216" s="10" t="inlineStr">
         <is>
-          <t>maa://20858</t>
+          <t>maa://26499</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="15" t="inlineStr">
         <is>
-          <t>蜜莓</t>
+          <t>布丁</t>
         </is>
       </c>
       <c r="B217" s="15" t="inlineStr">
         <is>
-          <t>GA-2</t>
+          <t>2-10</t>
         </is>
       </c>
       <c r="C217" s="12" t="inlineStr">
@@ -5622,19 +5622,19 @@
       </c>
       <c r="D217" s="10" t="inlineStr">
         <is>
-          <t>maa://39695</t>
+          <t>maa://20858</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="15" t="inlineStr">
         <is>
-          <t>野鬃</t>
+          <t>蜜莓</t>
         </is>
       </c>
       <c r="B218" s="15" t="inlineStr">
         <is>
-          <t>MN-2</t>
+          <t>GA-2</t>
         </is>
       </c>
       <c r="C218" s="12" t="inlineStr">
@@ -5644,19 +5644,19 @@
       </c>
       <c r="D218" s="10" t="inlineStr">
         <is>
-          <t>maa://20988</t>
+          <t>maa://39695</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="15" t="inlineStr">
         <is>
-          <t>蚀清</t>
+          <t>野鬃</t>
         </is>
       </c>
       <c r="B219" s="15" t="inlineStr">
         <is>
-          <t>BI-6</t>
+          <t>MN-2</t>
         </is>
       </c>
       <c r="C219" s="12" t="inlineStr">
@@ -5666,29 +5666,29 @@
       </c>
       <c r="D219" s="10" t="inlineStr">
         <is>
-          <t>maa://39158</t>
+          <t>maa://20988</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="15" t="inlineStr">
         <is>
-          <t>焰尾</t>
+          <t>蚀清</t>
         </is>
       </c>
       <c r="B220" s="15" t="inlineStr">
         <is>
-          <t>NL-5</t>
+          <t>BI-6</t>
         </is>
       </c>
       <c r="C220" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D220" s="10" t="inlineStr">
         <is>
-          <t>maa://28187, maa://43531, maa://39520</t>
+          <t>maa://39158</t>
         </is>
       </c>
     </row>
@@ -5700,39 +5700,39 @@
       </c>
       <c r="B221" s="15" t="inlineStr">
         <is>
-          <t>NL-3</t>
+          <t>NL-5</t>
         </is>
       </c>
       <c r="C221" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D221" s="10" t="inlineStr">
         <is>
-          <t>maa://20985</t>
+          <t>maa://28187, maa://43531, maa://39520</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="15" t="inlineStr">
         <is>
-          <t>耀骑士临光</t>
+          <t>焰尾</t>
         </is>
       </c>
       <c r="B222" s="15" t="inlineStr">
         <is>
-          <t>MN-8</t>
+          <t>NL-3</t>
         </is>
       </c>
       <c r="C222" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D222" s="10" t="inlineStr">
         <is>
-          <t>maa://20987, *maa://35801</t>
+          <t>maa://20985</t>
         </is>
       </c>
     </row>
@@ -5744,139 +5744,139 @@
       </c>
       <c r="B223" s="15" t="inlineStr">
         <is>
-          <t>NL-10</t>
+          <t>MN-8</t>
         </is>
       </c>
       <c r="C223" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D223" s="10" t="inlineStr">
         <is>
-          <t>maa://39159</t>
+          <t>maa://20987, *maa://35801</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="15" t="inlineStr">
         <is>
-          <t>耶拉</t>
+          <t>耀骑士临光</t>
         </is>
       </c>
       <c r="B224" s="15" t="inlineStr">
         <is>
-          <t>BI-7</t>
+          <t>NL-10</t>
         </is>
       </c>
       <c r="C224" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D224" s="10" t="inlineStr">
         <is>
-          <t>maa://39140, maa://30677</t>
+          <t>maa://39159</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="15" t="inlineStr">
         <is>
-          <t>极光</t>
+          <t>耶拉</t>
         </is>
       </c>
       <c r="B225" s="15" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>BI-7</t>
         </is>
       </c>
       <c r="C225" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D225" s="10" t="inlineStr">
         <is>
-          <t>maa://20896</t>
+          <t>maa://39140, maa://30677</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="15" t="inlineStr">
         <is>
-          <t>灵知</t>
+          <t>极光</t>
         </is>
       </c>
       <c r="B226" s="15" t="inlineStr">
         <is>
-          <t>BI-7</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C226" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D226" s="10" t="inlineStr">
         <is>
-          <t>maa://29058, maa://39140, maa://38723</t>
+          <t>maa://20896</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="15" t="inlineStr">
         <is>
-          <t>九色鹿</t>
+          <t>灵知</t>
         </is>
       </c>
       <c r="B227" s="15" t="inlineStr">
         <is>
-          <t>IW-3</t>
+          <t>BI-7</t>
         </is>
       </c>
       <c r="C227" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D227" s="10" t="inlineStr">
         <is>
-          <t>maa://39160</t>
+          <t>maa://29058, maa://39140, maa://38723</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="15" t="inlineStr">
         <is>
-          <t>寒芒克洛丝</t>
+          <t>灵知</t>
         </is>
       </c>
       <c r="B228" s="15" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>5-6</t>
         </is>
       </c>
       <c r="C228" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D228" s="10" t="inlineStr">
         <is>
-          <t>maa://20878</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="15" t="inlineStr">
         <is>
-          <t>夜半</t>
+          <t>九色鹿</t>
         </is>
       </c>
       <c r="B229" s="15" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>IW-3</t>
         </is>
       </c>
       <c r="C229" s="12" t="inlineStr">
@@ -5886,19 +5886,19 @@
       </c>
       <c r="D229" s="10" t="inlineStr">
         <is>
-          <t>maa://35952</t>
+          <t>maa://39160</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="15" t="inlineStr">
         <is>
-          <t>老鲤</t>
+          <t>寒芒克洛丝</t>
         </is>
       </c>
       <c r="B230" s="15" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C230" s="12" t="inlineStr">
@@ -5908,107 +5908,107 @@
       </c>
       <c r="D230" s="10" t="inlineStr">
         <is>
-          <t>maa://20917</t>
+          <t>maa://20878</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="15" t="inlineStr">
         <is>
-          <t>老鲤</t>
+          <t>夜半</t>
         </is>
       </c>
       <c r="B231" s="15" t="inlineStr">
         <is>
-          <t>IW-EX-1</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C231" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D231" s="10" t="inlineStr">
         <is>
-          <t>maa://30714, maa://30675</t>
+          <t>maa://35952</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="15" t="inlineStr">
         <is>
-          <t>令</t>
+          <t>老鲤</t>
         </is>
       </c>
       <c r="B232" s="15" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C232" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D232" s="10" t="inlineStr">
         <is>
-          <t>maa://20922, *maa://32623, *maa://34242, maa://34900</t>
+          <t>maa://20917</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="15" t="inlineStr">
         <is>
-          <t>夏栎</t>
+          <t>老鲤</t>
         </is>
       </c>
       <c r="B233" s="15" t="inlineStr">
         <is>
-          <t>9-2</t>
+          <t>IW-EX-1</t>
         </is>
       </c>
       <c r="C233" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D233" s="10" t="inlineStr">
         <is>
-          <t>maa://32999</t>
+          <t>maa://30714, maa://30675</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="15" t="inlineStr">
         <is>
-          <t>澄闪</t>
+          <t>令</t>
         </is>
       </c>
       <c r="B234" s="15" t="inlineStr">
         <is>
-          <t>R8-8</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C234" s="12" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D234" s="10" t="inlineStr">
         <is>
-          <t>*maa://30667, maa://30666, *maa://26836, maa://37607, *maa://34428, *maa://30723, maa://39588, *maa://37850</t>
+          <t>maa://20922, *maa://32623, *maa://34242, maa://34900</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="15" t="inlineStr">
         <is>
-          <t>见行者</t>
+          <t>夏栎</t>
         </is>
       </c>
       <c r="B235" s="15" t="inlineStr">
         <is>
-          <t>GA-EX-1</t>
+          <t>9-2</t>
         </is>
       </c>
       <c r="C235" s="12" t="inlineStr">
@@ -6018,41 +6018,41 @@
       </c>
       <c r="D235" s="10" t="inlineStr">
         <is>
-          <t>maa://30512</t>
+          <t>maa://32999</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="15" t="inlineStr">
         <is>
-          <t>风丸</t>
+          <t>澄闪</t>
         </is>
       </c>
       <c r="B236" s="15" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>R8-8</t>
         </is>
       </c>
       <c r="C236" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D236" s="10" t="inlineStr">
         <is>
-          <t>maa://20870</t>
+          <t>*maa://30667, maa://30666, *maa://26836, maa://37607, *maa://34428, *maa://30723, maa://39588, *maa://37850</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="15" t="inlineStr">
         <is>
-          <t>菲亚梅塔</t>
+          <t>见行者</t>
         </is>
       </c>
       <c r="B237" s="15" t="inlineStr">
         <is>
-          <t>GA-4</t>
+          <t>GA-EX-1</t>
         </is>
       </c>
       <c r="C237" s="12" t="inlineStr">
@@ -6062,41 +6062,41 @@
       </c>
       <c r="D237" s="13" t="inlineStr">
         <is>
-          <t>maa://29024</t>
+          <t>maa://30512</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="15" t="inlineStr">
         <is>
-          <t>菲亚梅塔</t>
+          <t>风丸</t>
         </is>
       </c>
       <c r="B238" s="15" t="inlineStr">
         <is>
-          <t>S5-9</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C238" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D238" s="10" t="inlineStr">
         <is>
-          <t>maa://20867, maa://38485, *maa://32202</t>
+          <t>maa://20870</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="15" t="inlineStr">
         <is>
-          <t>褐果</t>
+          <t>菲亚梅塔</t>
         </is>
       </c>
       <c r="B239" s="15" t="inlineStr">
         <is>
-          <t>SV-3</t>
+          <t>GA-4</t>
         </is>
       </c>
       <c r="C239" s="12" t="inlineStr">
@@ -6106,41 +6106,41 @@
       </c>
       <c r="D239" s="10" t="inlineStr">
         <is>
-          <t>maa://40160</t>
+          <t>maa://29024</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="15" t="inlineStr">
         <is>
-          <t>海蒂</t>
+          <t>菲亚梅塔</t>
         </is>
       </c>
       <c r="B240" s="15" t="inlineStr">
         <is>
-          <t>9-7</t>
+          <t>S5-9</t>
         </is>
       </c>
       <c r="C240" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D240" s="10" t="inlineStr">
         <is>
-          <t>maa://43089</t>
+          <t>maa://20867, maa://38485, *maa://32202</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="15" t="inlineStr">
         <is>
-          <t>洛洛</t>
+          <t>褐果</t>
         </is>
       </c>
       <c r="B241" s="15" t="inlineStr">
         <is>
-          <t>RI-EX-4</t>
+          <t>SV-3</t>
         </is>
       </c>
       <c r="C241" s="12" t="inlineStr">
@@ -6150,168 +6150,168 @@
       </c>
       <c r="D241" s="10" t="inlineStr">
         <is>
-          <t>maa://30674</t>
+          <t>maa://40160</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="15" t="inlineStr">
         <is>
-          <t>号角</t>
+          <t>海蒂</t>
         </is>
       </c>
       <c r="B242" s="15" t="inlineStr">
         <is>
-          <t>7-15</t>
+          <t>9-7</t>
         </is>
       </c>
       <c r="C242" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D242" s="10" t="inlineStr">
         <is>
-          <t>maa://28923, maa://28906</t>
+          <t>maa://43089</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="15" t="inlineStr">
         <is>
-          <t>号角</t>
+          <t>洛洛</t>
         </is>
       </c>
       <c r="B243" s="15" t="inlineStr">
         <is>
-          <t>9-5</t>
+          <t>RI-EX-4</t>
         </is>
       </c>
       <c r="C243" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D243" s="10" t="inlineStr">
         <is>
-          <t>maa://42287, maa://45570, maa://42225</t>
+          <t>maa://30674</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="15" t="inlineStr">
         <is>
-          <t>掠风</t>
+          <t>号角</t>
         </is>
       </c>
       <c r="B244" s="15" t="inlineStr">
         <is>
-          <t>11-9</t>
+          <t>7-15</t>
         </is>
       </c>
       <c r="C244" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D244" s="13" t="inlineStr">
         <is>
-          <t>maa://39161</t>
+          <t>maa://28923, maa://28906</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="15" t="inlineStr">
         <is>
-          <t>流明</t>
+          <t>号角</t>
         </is>
       </c>
       <c r="B245" s="15" t="inlineStr">
         <is>
-          <t>6-9</t>
+          <t>9-5</t>
         </is>
       </c>
       <c r="C245" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D245" s="10" t="inlineStr">
         <is>
-          <t>maa://20923</t>
+          <t>maa://42287, maa://45570, maa://42225</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="15" t="inlineStr">
         <is>
-          <t>流明</t>
+          <t>掠风</t>
         </is>
       </c>
       <c r="B246" s="15" t="inlineStr">
         <is>
-          <t>OF-5</t>
+          <t>11-9</t>
         </is>
       </c>
       <c r="C246" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D246" s="10" t="inlineStr">
         <is>
-          <t>maa://24093, maa://31559, maa://20924</t>
+          <t>maa://39161</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="15" t="inlineStr">
         <is>
-          <t>艾丽妮</t>
+          <t>流明</t>
         </is>
       </c>
       <c r="B247" s="15" t="inlineStr">
         <is>
-          <t>SV-EX-1</t>
+          <t>6-9</t>
         </is>
       </c>
       <c r="C247" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D247" s="10" t="inlineStr">
         <is>
-          <t>*maa://40958, *maa://45067</t>
+          <t>maa://20923</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="15" t="inlineStr">
         <is>
-          <t>艾丽妮</t>
+          <t>流明</t>
         </is>
       </c>
       <c r="B248" s="15" t="inlineStr">
         <is>
-          <t>SV-4</t>
+          <t>OF-5</t>
         </is>
       </c>
       <c r="C248" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D248" s="10" t="inlineStr">
         <is>
-          <t>maa://20840</t>
+          <t>maa://24093, maa://31559, maa://20924</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="15" t="inlineStr">
         <is>
-          <t>归溟幽灵鲨</t>
+          <t>艾丽妮</t>
         </is>
       </c>
       <c r="B249" s="15" t="inlineStr">
@@ -6321,112 +6321,112 @@
       </c>
       <c r="C249" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D249" s="13" t="inlineStr">
         <is>
-          <t>maa://20877, maa://20836, *maa://45067, maa://20632</t>
+          <t>*maa://40958, *maa://45067</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="15" t="inlineStr">
         <is>
-          <t>归溟幽灵鲨</t>
+          <t>艾丽妮</t>
         </is>
       </c>
       <c r="B250" s="15" t="inlineStr">
         <is>
-          <t>S4-1</t>
+          <t>SV-4</t>
         </is>
       </c>
       <c r="C250" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D250" s="10" t="inlineStr">
         <is>
-          <t>maa://20879, maa://20834</t>
+          <t>maa://20840</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="15" t="inlineStr">
         <is>
-          <t>埃拉托</t>
+          <t>归溟幽灵鲨</t>
         </is>
       </c>
       <c r="B251" s="15" t="inlineStr">
         <is>
-          <t>S5-9</t>
+          <t>SV-EX-1</t>
         </is>
       </c>
       <c r="C251" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D251" s="10" t="inlineStr">
         <is>
-          <t>maa://20839</t>
+          <t>maa://20877, maa://20836, *maa://45067, maa://20632</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="15" t="inlineStr">
         <is>
-          <t>濯尘芙蓉</t>
+          <t>归溟幽灵鲨</t>
         </is>
       </c>
       <c r="B252" s="15" t="inlineStr">
         <is>
-          <t>LE-4</t>
+          <t>S4-1</t>
         </is>
       </c>
       <c r="C252" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D252" s="10" t="inlineStr">
         <is>
-          <t>maa://30676</t>
+          <t>maa://20879, maa://20834</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="15" t="inlineStr">
         <is>
-          <t>黑键</t>
+          <t>埃拉托</t>
         </is>
       </c>
       <c r="B253" s="15" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>S5-9</t>
         </is>
       </c>
       <c r="C253" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D253" s="10" t="inlineStr">
         <is>
-          <t>maa://31560, maa://20884</t>
+          <t>maa://20839</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="15" t="inlineStr">
         <is>
-          <t>黑键</t>
+          <t>濯尘芙蓉</t>
         </is>
       </c>
       <c r="B254" s="15" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>LE-4</t>
         </is>
       </c>
       <c r="C254" s="12" t="inlineStr">
@@ -6436,7 +6436,7 @@
       </c>
       <c r="D254" s="10" t="inlineStr">
         <is>
-          <t>maa://47204</t>
+          <t>maa://30676</t>
         </is>
       </c>
     </row>
@@ -6448,29 +6448,29 @@
       </c>
       <c r="B255" s="15" t="inlineStr">
         <is>
-          <t>11-12</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C255" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D255" s="10" t="inlineStr">
         <is>
-          <t>maa://29027</t>
+          <t>maa://31560, maa://20884</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="15" t="inlineStr">
         <is>
-          <t>星源</t>
+          <t>黑键</t>
         </is>
       </c>
       <c r="B256" s="15" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="C256" s="12" t="inlineStr">
@@ -6480,19 +6480,19 @@
       </c>
       <c r="D256" s="10" t="inlineStr">
         <is>
-          <t>maa://20977</t>
+          <t>maa://47204</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="15" t="inlineStr">
         <is>
-          <t>承曦格雷伊</t>
+          <t>黑键</t>
         </is>
       </c>
       <c r="B257" s="15" t="inlineStr">
         <is>
-          <t>1-3</t>
+          <t>11-12</t>
         </is>
       </c>
       <c r="C257" s="12" t="inlineStr">
@@ -6502,19 +6502,19 @@
       </c>
       <c r="D257" s="10" t="inlineStr">
         <is>
-          <t>maa://39162</t>
+          <t>maa://29027</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="15" t="inlineStr">
         <is>
-          <t>多萝西</t>
+          <t>星源</t>
         </is>
       </c>
       <c r="B258" s="15" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C258" s="12" t="inlineStr">
@@ -6524,85 +6524,85 @@
       </c>
       <c r="D258" s="10" t="inlineStr">
         <is>
-          <t>maa://22467</t>
+          <t>maa://20977</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="15" t="inlineStr">
         <is>
-          <t>至简</t>
+          <t>承曦格雷伊</t>
         </is>
       </c>
       <c r="B259" s="15" t="inlineStr">
         <is>
-          <t>IC-8</t>
+          <t>1-3</t>
         </is>
       </c>
       <c r="C259" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D259" s="10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://39162</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="15" t="inlineStr">
         <is>
-          <t>鸿雪</t>
+          <t>多萝西</t>
         </is>
       </c>
       <c r="B260" s="15" t="inlineStr">
         <is>
-          <t>2-10</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="C260" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D260" s="10" t="inlineStr">
         <is>
-          <t>*maa://20825, *maa://21445, *maa://35726</t>
+          <t>maa://22467</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="15" t="inlineStr">
         <is>
-          <t>百炼嘉维尔</t>
+          <t>至简</t>
         </is>
       </c>
       <c r="B261" s="15" t="inlineStr">
         <is>
-          <t>9-2</t>
+          <t>IC-8</t>
         </is>
       </c>
       <c r="C261" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D261" s="10" t="inlineStr">
         <is>
-          <t>maa://25769</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="15" t="inlineStr">
         <is>
-          <t>但书</t>
+          <t>鸿雪</t>
         </is>
       </c>
       <c r="B262" s="15" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>2-10</t>
         </is>
       </c>
       <c r="C262" s="12" t="inlineStr">
@@ -6612,41 +6612,41 @@
       </c>
       <c r="D262" s="10" t="inlineStr">
         <is>
-          <t>maa://27794, maa://45572, *maa://20862</t>
+          <t>*maa://20825, *maa://21445, *maa://35726</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="15" t="inlineStr">
         <is>
-          <t>罗小黑</t>
+          <t>鸿雪</t>
         </is>
       </c>
       <c r="B263" s="15" t="inlineStr">
         <is>
-          <t>IW-4</t>
+          <t>9-7</t>
         </is>
       </c>
       <c r="C263" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D263" s="10" t="inlineStr">
         <is>
-          <t>maa://39163</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="15" t="inlineStr">
         <is>
-          <t>海沫</t>
+          <t>百炼嘉维尔</t>
         </is>
       </c>
       <c r="B264" s="15" t="inlineStr">
         <is>
-          <t>SN-2</t>
+          <t>9-2</t>
         </is>
       </c>
       <c r="C264" s="12" t="inlineStr">
@@ -6656,41 +6656,41 @@
       </c>
       <c r="D264" s="10" t="inlineStr">
         <is>
-          <t>maa://29061</t>
+          <t>maa://25769</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="15" t="inlineStr">
         <is>
-          <t>铅踝</t>
+          <t>但书</t>
         </is>
       </c>
       <c r="B265" s="15" t="inlineStr">
         <is>
-          <t>S3-5</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="C265" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D265" s="10" t="inlineStr">
         <is>
-          <t>*maa://20939</t>
+          <t>maa://27794, maa://45572, *maa://20862</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="15" t="inlineStr">
         <is>
-          <t>达格达</t>
+          <t>罗小黑</t>
         </is>
       </c>
       <c r="B266" s="15" t="inlineStr">
         <is>
-          <t>11-5</t>
+          <t>IW-4</t>
         </is>
       </c>
       <c r="C266" s="12" t="inlineStr">
@@ -6700,41 +6700,41 @@
       </c>
       <c r="D266" s="10" t="inlineStr">
         <is>
-          <t>maa://39164</t>
+          <t>maa://39163</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="15" t="inlineStr">
         <is>
-          <t>白铁</t>
+          <t>海沫</t>
         </is>
       </c>
       <c r="B267" s="15" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>SN-2</t>
         </is>
       </c>
       <c r="C267" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D267" s="10" t="inlineStr">
         <is>
-          <t>maa://28133, maa://33394</t>
+          <t>maa://29061</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="15" t="inlineStr">
         <is>
-          <t>白铁</t>
+          <t>铅踝</t>
         </is>
       </c>
       <c r="B268" s="15" t="inlineStr">
         <is>
-          <t>9-6</t>
+          <t>S3-5</t>
         </is>
       </c>
       <c r="C268" s="12" t="inlineStr">
@@ -6744,19 +6744,19 @@
       </c>
       <c r="D268" s="10" t="inlineStr">
         <is>
-          <t>maa://42311</t>
+          <t>*maa://20939</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="15" t="inlineStr">
         <is>
-          <t>石英</t>
+          <t>达格达</t>
         </is>
       </c>
       <c r="B269" s="15" t="inlineStr">
         <is>
-          <t>DH-4</t>
+          <t>11-5</t>
         </is>
       </c>
       <c r="C269" s="12" t="inlineStr">
@@ -6766,41 +6766,41 @@
       </c>
       <c r="D269" s="10" t="inlineStr">
         <is>
-          <t>maa://41362</t>
+          <t>maa://39164</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="15" t="inlineStr">
         <is>
-          <t>雪绒</t>
+          <t>白铁</t>
         </is>
       </c>
       <c r="B270" s="15" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C270" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D270" s="10" t="inlineStr">
         <is>
-          <t>maa://20978</t>
+          <t>maa://28133, maa://33394</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="15" t="inlineStr">
         <is>
-          <t>子月</t>
+          <t>白铁</t>
         </is>
       </c>
       <c r="B271" s="15" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>9-6</t>
         </is>
       </c>
       <c r="C271" s="12" t="inlineStr">
@@ -6810,19 +6810,19 @@
       </c>
       <c r="D271" s="10" t="inlineStr">
         <is>
-          <t>maa://21002</t>
+          <t>maa://42311</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="15" t="inlineStr">
         <is>
-          <t>伺夜</t>
+          <t>石英</t>
         </is>
       </c>
       <c r="B272" s="15" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>DH-4</t>
         </is>
       </c>
       <c r="C272" s="12" t="inlineStr">
@@ -6832,19 +6832,19 @@
       </c>
       <c r="D272" s="10" t="inlineStr">
         <is>
-          <t>**maa://39165</t>
+          <t>maa://41362</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="15" t="inlineStr">
         <is>
-          <t>斥罪</t>
+          <t>雪绒</t>
         </is>
       </c>
       <c r="B273" s="15" t="inlineStr">
         <is>
-          <t>CB-4</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="C273" s="12" t="inlineStr">
@@ -6854,19 +6854,19 @@
       </c>
       <c r="D273" s="10" t="inlineStr">
         <is>
-          <t>maa://29635</t>
+          <t>maa://20978</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="15" t="inlineStr">
         <is>
-          <t>斥罪</t>
+          <t>子月</t>
         </is>
       </c>
       <c r="B274" s="15" t="inlineStr">
         <is>
-          <t>IS-7</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C274" s="12" t="inlineStr">
@@ -6876,85 +6876,85 @@
       </c>
       <c r="D274" s="10" t="inlineStr">
         <is>
-          <t>maa://38296</t>
+          <t>maa://21002</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="15" t="inlineStr">
         <is>
-          <t>缄默德克萨斯</t>
+          <t>伺夜</t>
         </is>
       </c>
       <c r="B275" s="15" t="inlineStr">
         <is>
-          <t>CB-8</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C275" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D275" s="10" t="inlineStr">
         <is>
-          <t>maa://20899, maa://46332</t>
+          <t>**maa://39165</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="15" t="inlineStr">
         <is>
-          <t>和弦</t>
+          <t>伺夜</t>
         </is>
       </c>
       <c r="B276" s="15" t="inlineStr">
         <is>
-          <t>6-5</t>
+          <t>IS-6</t>
         </is>
       </c>
       <c r="C276" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D276" s="10" t="inlineStr">
         <is>
-          <t>maa://20881</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="15" t="inlineStr">
         <is>
-          <t>焰影苇草</t>
+          <t>斥罪</t>
         </is>
       </c>
       <c r="B277" s="15" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>CB-4</t>
         </is>
       </c>
       <c r="C277" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D277" s="10" t="inlineStr">
         <is>
-          <t>maa://30710, maa://36845, maa://31558, maa://30668</t>
+          <t>maa://29635</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="15" t="inlineStr">
         <is>
-          <t>截云</t>
+          <t>斥罪</t>
         </is>
       </c>
       <c r="B278" s="15" t="inlineStr">
         <is>
-          <t>S2-2</t>
+          <t>IS-7</t>
         </is>
       </c>
       <c r="C278" s="12" t="inlineStr">
@@ -6964,107 +6964,107 @@
       </c>
       <c r="D278" s="10" t="inlineStr">
         <is>
-          <t>maa://20902</t>
+          <t>maa://38296</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="15" t="inlineStr">
         <is>
-          <t>火哨</t>
+          <t>缄默德克萨斯</t>
         </is>
       </c>
       <c r="B279" s="15" t="inlineStr">
         <is>
-          <t>S4-6</t>
+          <t>CB-8</t>
         </is>
       </c>
       <c r="C279" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D279" s="10" t="inlineStr">
         <is>
-          <t>maa://29159</t>
+          <t>maa://20899, maa://46332</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="15" t="inlineStr">
         <is>
-          <t>林</t>
+          <t>和弦</t>
         </is>
       </c>
       <c r="B280" s="15" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>6-5</t>
         </is>
       </c>
       <c r="C280" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D280" s="10" t="inlineStr">
         <is>
-          <t>maa://25774, maa://28133, maa://22469, **maa://31349</t>
+          <t>maa://20881</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="15" t="inlineStr">
         <is>
-          <t>林</t>
+          <t>焰影苇草</t>
         </is>
       </c>
       <c r="B281" s="15" t="inlineStr">
         <is>
-          <t>6-5</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C281" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D281" s="10" t="inlineStr">
         <is>
-          <t>maa://47882</t>
+          <t>maa://30710, maa://36845, maa://31558, maa://30668</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="15" t="inlineStr">
         <is>
-          <t>重岳</t>
+          <t>截云</t>
         </is>
       </c>
       <c r="B282" s="15" t="inlineStr">
         <is>
-          <t>WB-7</t>
+          <t>S2-2</t>
         </is>
       </c>
       <c r="C282" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D282" s="10" t="inlineStr">
         <is>
-          <t>maa://32414, maa://32505, maa://39155</t>
+          <t>maa://20902</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="15" t="inlineStr">
         <is>
-          <t>重岳</t>
+          <t>火哨</t>
         </is>
       </c>
       <c r="B283" s="15" t="inlineStr">
         <is>
-          <t>GA-5</t>
+          <t>S4-6</t>
         </is>
       </c>
       <c r="C283" s="12" t="inlineStr">
@@ -7074,107 +7074,107 @@
       </c>
       <c r="D283" s="10" t="inlineStr">
         <is>
-          <t>maa://45799</t>
+          <t>maa://29159</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="15" t="inlineStr">
         <is>
-          <t>铎铃</t>
+          <t>林</t>
         </is>
       </c>
       <c r="B284" s="15" t="inlineStr">
         <is>
-          <t>2-1</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C284" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D284" s="10" t="inlineStr">
         <is>
-          <t>maa://42312</t>
+          <t>maa://25774, maa://28133, maa://22469, **maa://31349</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="15" t="inlineStr">
         <is>
-          <t>仇白</t>
+          <t>林</t>
         </is>
       </c>
       <c r="B285" s="15" t="inlineStr">
         <is>
-          <t>WB-7</t>
+          <t>6-5</t>
         </is>
       </c>
       <c r="C285" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D285" s="10" t="inlineStr">
         <is>
-          <t>maa://36642, maa://36867, maa://39155</t>
+          <t>maa://47882</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="15" t="inlineStr">
         <is>
-          <t>火龙S黑角</t>
+          <t>重岳</t>
         </is>
       </c>
       <c r="B286" s="15" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>WB-7</t>
         </is>
       </c>
       <c r="C286" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D286" s="10" t="inlineStr">
         <is>
-          <t>maa://39166, maa://39167</t>
+          <t>maa://32414, maa://32505, maa://39155</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="15" t="inlineStr">
         <is>
-          <t>麒麟R夜刀</t>
+          <t>重岳</t>
         </is>
       </c>
       <c r="B287" s="15" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>GA-5</t>
         </is>
       </c>
       <c r="C287" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D287" s="10" t="inlineStr">
         <is>
-          <t>maa://29005, maa://31560</t>
+          <t>maa://45799</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="15" t="inlineStr">
         <is>
-          <t>休谟斯</t>
+          <t>铎铃</t>
         </is>
       </c>
       <c r="B288" s="15" t="inlineStr">
         <is>
-          <t>7-8</t>
+          <t>2-1</t>
         </is>
       </c>
       <c r="C288" s="12" t="inlineStr">
@@ -7184,85 +7184,85 @@
       </c>
       <c r="D288" s="10" t="inlineStr">
         <is>
-          <t>maa://39168</t>
+          <t>maa://42312</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="15" t="inlineStr">
         <is>
-          <t>摩根</t>
+          <t>仇白</t>
         </is>
       </c>
       <c r="B289" s="15" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>WB-7</t>
         </is>
       </c>
       <c r="C289" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D289" s="10" t="inlineStr">
         <is>
-          <t>maa://39169</t>
+          <t>maa://36642, maa://36867, maa://39155</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="15" t="inlineStr">
         <is>
-          <t>洋灰</t>
+          <t>火龙S黑角</t>
         </is>
       </c>
       <c r="B290" s="15" t="inlineStr">
         <is>
-          <t>IW-EX-6</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C290" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D290" s="10" t="inlineStr">
         <is>
-          <t>maa://39170</t>
+          <t>maa://39166, maa://39167</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="15" t="inlineStr">
         <is>
-          <t>玫拉</t>
+          <t>麒麟R夜刀</t>
         </is>
       </c>
       <c r="B291" s="15" t="inlineStr">
         <is>
-          <t>S3-5</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C291" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D291" s="10" t="inlineStr">
         <is>
-          <t>maa://39171</t>
+          <t>maa://29005, maa://31560</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="15" t="inlineStr">
         <is>
-          <t>淬羽赫默</t>
+          <t>休谟斯</t>
         </is>
       </c>
       <c r="B292" s="15" t="inlineStr">
         <is>
-          <t>6-3</t>
+          <t>7-8</t>
         </is>
       </c>
       <c r="C292" s="12" t="inlineStr">
@@ -7272,19 +7272,19 @@
       </c>
       <c r="D292" s="10" t="inlineStr">
         <is>
-          <t>maa://27939</t>
+          <t>maa://39168</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="15" t="inlineStr">
         <is>
-          <t>霍尔海雅</t>
+          <t>摩根</t>
         </is>
       </c>
       <c r="B293" s="15" t="inlineStr">
         <is>
-          <t>OF-7</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="C293" s="12" t="inlineStr">
@@ -7294,19 +7294,19 @@
       </c>
       <c r="D293" s="10" t="inlineStr">
         <is>
-          <t>maa://29129</t>
+          <t>maa://39169</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="15" t="inlineStr">
         <is>
-          <t>霍尔海雅</t>
+          <t>洋灰</t>
         </is>
       </c>
       <c r="B294" s="15" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>IW-EX-6</t>
         </is>
       </c>
       <c r="C294" s="12" t="inlineStr">
@@ -7316,19 +7316,19 @@
       </c>
       <c r="D294" s="10" t="inlineStr">
         <is>
-          <t>maa://36005</t>
+          <t>maa://39170</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="15" t="inlineStr">
         <is>
-          <t>缪尔赛思</t>
+          <t>玫拉</t>
         </is>
       </c>
       <c r="B295" s="15" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>S3-5</t>
         </is>
       </c>
       <c r="C295" s="12" t="inlineStr">
@@ -7338,19 +7338,19 @@
       </c>
       <c r="D295" s="10" t="inlineStr">
         <is>
-          <t>maa://35859</t>
+          <t>maa://39171</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="15" t="inlineStr">
         <is>
-          <t>隐现</t>
+          <t>淬羽赫默</t>
         </is>
       </c>
       <c r="B296" s="15" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>6-3</t>
         </is>
       </c>
       <c r="C296" s="12" t="inlineStr">
@@ -7360,19 +7360,19 @@
       </c>
       <c r="D296" s="10" t="inlineStr">
         <is>
-          <t>**maa://39172</t>
+          <t>maa://27939</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="15" t="inlineStr">
         <is>
-          <t>空构</t>
+          <t>霍尔海雅</t>
         </is>
       </c>
       <c r="B297" s="15" t="inlineStr">
         <is>
-          <t>DM-2</t>
+          <t>OF-7</t>
         </is>
       </c>
       <c r="C297" s="12" t="inlineStr">
@@ -7382,41 +7382,41 @@
       </c>
       <c r="D297" s="10" t="inlineStr">
         <is>
-          <t>maa://39173</t>
+          <t>maa://29129</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="15" t="inlineStr">
         <is>
-          <t>圣约送葬人</t>
+          <t>霍尔海雅</t>
         </is>
       </c>
       <c r="B298" s="15" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C298" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D298" s="10" t="inlineStr">
         <is>
-          <t>maa://25775, *maa://25393</t>
+          <t>maa://36005</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="15" t="inlineStr">
         <is>
-          <t>寒檀</t>
+          <t>缪尔赛思</t>
         </is>
       </c>
       <c r="B299" s="15" t="inlineStr">
         <is>
-          <t>BI-2</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C299" s="12" t="inlineStr">
@@ -7426,19 +7426,19 @@
       </c>
       <c r="D299" s="10" t="inlineStr">
         <is>
-          <t>maa://40161</t>
+          <t>maa://35859</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="15" t="inlineStr">
         <is>
-          <t>提丰</t>
+          <t>隐现</t>
         </is>
       </c>
       <c r="B300" s="15" t="inlineStr">
         <is>
-          <t>S2-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C300" s="12" t="inlineStr">
@@ -7448,19 +7448,19 @@
       </c>
       <c r="D300" s="10" t="inlineStr">
         <is>
-          <t>maa://25367</t>
+          <t>**maa://39172</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="15" t="inlineStr">
         <is>
-          <t>凛视</t>
+          <t>空构</t>
         </is>
       </c>
       <c r="B301" s="15" t="inlineStr">
         <is>
-          <t>7-13</t>
+          <t>DM-2</t>
         </is>
       </c>
       <c r="C301" s="12" t="inlineStr">
@@ -7470,85 +7470,85 @@
       </c>
       <c r="D301" s="10" t="inlineStr">
         <is>
-          <t>*maa://43090</t>
+          <t>maa://39173</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="15" t="inlineStr">
         <is>
-          <t>苍苔</t>
+          <t>圣约送葬人</t>
         </is>
       </c>
       <c r="B302" s="15" t="inlineStr">
         <is>
-          <t>9-3</t>
+          <t>7-14</t>
         </is>
       </c>
       <c r="C302" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D302" s="10" t="inlineStr">
         <is>
-          <t>maa://28070</t>
+          <t>maa://25775, *maa://25393</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="15" t="inlineStr">
         <is>
-          <t>青枳</t>
+          <t>寒檀</t>
         </is>
       </c>
       <c r="B303" s="15" t="inlineStr">
         <is>
-          <t>OF-5</t>
+          <t>BI-2</t>
         </is>
       </c>
       <c r="C303" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D303" s="10" t="inlineStr">
         <is>
-          <t>maa://31559, maa://28241</t>
+          <t>maa://40161</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="15" t="inlineStr">
         <is>
-          <t>琳琅诗怀雅</t>
+          <t>提丰</t>
         </is>
       </c>
       <c r="B304" s="15" t="inlineStr">
         <is>
-          <t>5-2</t>
+          <t>S2-1</t>
         </is>
       </c>
       <c r="C304" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D304" s="10" t="inlineStr">
         <is>
-          <t>maa://25773, *maa://26088</t>
+          <t>maa://25367</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="15" t="inlineStr">
         <is>
-          <t>琳琅诗怀雅</t>
+          <t>凛视</t>
         </is>
       </c>
       <c r="B305" s="15" t="inlineStr">
         <is>
-          <t>11-16</t>
+          <t>7-13</t>
         </is>
       </c>
       <c r="C305" s="12" t="inlineStr">
@@ -7558,129 +7558,129 @@
       </c>
       <c r="D305" s="10" t="inlineStr">
         <is>
-          <t>maa://39239</t>
+          <t>*maa://43090</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="15" t="inlineStr">
         <is>
-          <t>纯烬艾雅法拉</t>
+          <t>苍苔</t>
         </is>
       </c>
       <c r="B306" s="15" t="inlineStr">
         <is>
-          <t>FC-5</t>
+          <t>9-3</t>
         </is>
       </c>
       <c r="C306" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D306" s="10" t="inlineStr">
         <is>
-          <t>maa://39692, maa://39810</t>
+          <t>maa://28070</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="15" t="inlineStr">
         <is>
-          <t>冰酿</t>
+          <t>青枳</t>
         </is>
       </c>
       <c r="B307" s="15" t="inlineStr">
         <is>
-          <t>S3-3</t>
+          <t>OF-5</t>
         </is>
       </c>
       <c r="C307" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D307" s="10" t="inlineStr">
         <is>
-          <t>*maa://39174</t>
+          <t>maa://31559, maa://28241</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="15" t="inlineStr">
         <is>
-          <t>杏仁</t>
+          <t>琳琅诗怀雅</t>
         </is>
       </c>
       <c r="B308" s="15" t="inlineStr">
         <is>
-          <t>BI-2</t>
+          <t>5-2</t>
         </is>
       </c>
       <c r="C308" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D308" s="10" t="inlineStr">
         <is>
-          <t>maa://39175</t>
+          <t>maa://25773, *maa://26088</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="15" t="inlineStr">
         <is>
-          <t>涤火杰西卡</t>
+          <t>琳琅诗怀雅</t>
         </is>
       </c>
       <c r="B309" s="15" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>11-16</t>
         </is>
       </c>
       <c r="C309" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D309" s="10" t="inlineStr">
         <is>
-          <t>maa://34867, maa://34715</t>
+          <t>maa://39239</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="15" t="inlineStr">
         <is>
-          <t>维荻</t>
+          <t>纯烬艾雅法拉</t>
         </is>
       </c>
       <c r="B310" s="15" t="inlineStr">
         <is>
-          <t>9-3</t>
+          <t>FC-5</t>
         </is>
       </c>
       <c r="C310" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D310" s="10" t="inlineStr">
         <is>
-          <t>maa://39176</t>
+          <t>maa://39692, maa://39810</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="15" t="inlineStr">
         <is>
-          <t>戴菲恩</t>
+          <t>冰酿</t>
         </is>
       </c>
       <c r="B311" s="15" t="inlineStr">
         <is>
-          <t>WD-6</t>
+          <t>S3-3</t>
         </is>
       </c>
       <c r="C311" s="12" t="inlineStr">
@@ -7690,19 +7690,19 @@
       </c>
       <c r="D311" s="10" t="inlineStr">
         <is>
-          <t>maa://42316</t>
+          <t>*maa://39174</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="15" t="inlineStr">
         <is>
-          <t>刺玫</t>
+          <t>杏仁</t>
         </is>
       </c>
       <c r="B312" s="15" t="inlineStr">
         <is>
-          <t>IC-2</t>
+          <t>BI-2</t>
         </is>
       </c>
       <c r="C312" s="12" t="inlineStr">
@@ -7712,63 +7712,63 @@
       </c>
       <c r="D312" s="10" t="inlineStr">
         <is>
-          <t>maa://30680</t>
+          <t>maa://39175</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="15" t="inlineStr">
         <is>
-          <t>赫德雷</t>
+          <t>涤火杰西卡</t>
         </is>
       </c>
       <c r="B313" s="15" t="inlineStr">
         <is>
-          <t>IW-7</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C313" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D313" s="10" t="inlineStr">
         <is>
-          <t>maa://40956</t>
+          <t>maa://34867, maa://34715</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="15" t="inlineStr">
         <is>
-          <t>深律</t>
+          <t>维荻</t>
         </is>
       </c>
       <c r="B314" s="15" t="inlineStr">
         <is>
-          <t>LE-4</t>
+          <t>9-3</t>
         </is>
       </c>
       <c r="C314" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D314" s="10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://39176</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="15" t="inlineStr">
         <is>
-          <t>止颂</t>
+          <t>戴菲恩</t>
         </is>
       </c>
       <c r="B315" s="15" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>WD-6</t>
         </is>
       </c>
       <c r="C315" s="12" t="inlineStr">
@@ -7778,41 +7778,41 @@
       </c>
       <c r="D315" s="10" t="inlineStr">
         <is>
-          <t>maa://34205</t>
+          <t>maa://42316</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="15" t="inlineStr">
         <is>
-          <t>止颂</t>
+          <t>刺玫</t>
         </is>
       </c>
       <c r="B316" s="15" t="inlineStr">
         <is>
-          <t>TW-5</t>
+          <t>IC-2</t>
         </is>
       </c>
       <c r="C316" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D316" s="10" t="inlineStr">
         <is>
-          <t>maa://43092, maa://43093</t>
+          <t>maa://30680</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="15" t="inlineStr">
         <is>
-          <t>薇薇安娜</t>
+          <t>赫德雷</t>
         </is>
       </c>
       <c r="B317" s="15" t="inlineStr">
         <is>
-          <t>MN-3</t>
+          <t>IW-7</t>
         </is>
       </c>
       <c r="C317" s="12" t="inlineStr">
@@ -7822,41 +7822,41 @@
       </c>
       <c r="D317" s="10" t="inlineStr">
         <is>
-          <t>maa://44234</t>
+          <t>maa://40956</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="15" t="inlineStr">
         <is>
-          <t>塑心</t>
+          <t>深律</t>
         </is>
       </c>
       <c r="B318" s="15" t="inlineStr">
         <is>
-          <t>GA-7</t>
+          <t>LE-4</t>
         </is>
       </c>
       <c r="C318" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D318" s="10" t="inlineStr">
         <is>
-          <t>maa://42968</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="15" t="inlineStr">
         <is>
-          <t>哈洛德</t>
+          <t>止颂</t>
         </is>
       </c>
       <c r="B319" s="15" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="C319" s="12" t="inlineStr">
@@ -7866,63 +7866,63 @@
       </c>
       <c r="D319" s="10" t="inlineStr">
         <is>
-          <t>*maa://40162</t>
+          <t>maa://34205</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="15" t="inlineStr">
         <is>
-          <t>烈夏</t>
+          <t>止颂</t>
         </is>
       </c>
       <c r="B320" s="15" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>TW-5</t>
         </is>
       </c>
       <c r="C320" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D320" s="10" t="inlineStr">
         <is>
-          <t>maa://37692</t>
+          <t>maa://43092, maa://43093</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="15" t="inlineStr">
         <is>
-          <t>锏</t>
+          <t>薇薇安娜</t>
         </is>
       </c>
       <c r="B321" s="15" t="inlineStr">
         <is>
-          <t>BI-6</t>
+          <t>MN-3</t>
         </is>
       </c>
       <c r="C321" s="12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D321" s="10" t="inlineStr">
         <is>
-          <t>maa://30671, maa://30669, maa://37275, *maa://32410, maa://41605, maa://33671</t>
+          <t>maa://44234</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="15" t="inlineStr">
         <is>
-          <t>莱伊</t>
+          <t>塑心</t>
         </is>
       </c>
       <c r="B322" s="15" t="inlineStr">
         <is>
-          <t>S9-1</t>
+          <t>GA-7</t>
         </is>
       </c>
       <c r="C322" s="12" t="inlineStr">
@@ -7932,14 +7932,14 @@
       </c>
       <c r="D322" s="10" t="inlineStr">
         <is>
-          <t>maa://38295</t>
+          <t>maa://42968</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="15" t="inlineStr">
         <is>
-          <t>万顷</t>
+          <t>哈洛德</t>
         </is>
       </c>
       <c r="B323" s="15" t="inlineStr">
@@ -7954,19 +7954,19 @@
       </c>
       <c r="D323" s="10" t="inlineStr">
         <is>
-          <t>maa://32417</t>
+          <t>*maa://40162</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="15" t="inlineStr">
         <is>
-          <t>小满</t>
+          <t>烈夏</t>
         </is>
       </c>
       <c r="B324" s="15" t="inlineStr">
         <is>
-          <t>9-11</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C324" s="12" t="inlineStr">
@@ -7976,41 +7976,41 @@
       </c>
       <c r="D324" s="10" t="inlineStr">
         <is>
-          <t>maa://32419</t>
+          <t>maa://37692</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="15" t="inlineStr">
         <is>
-          <t>左乐</t>
+          <t>锏</t>
         </is>
       </c>
       <c r="B325" s="15" t="inlineStr">
         <is>
-          <t>WB-5</t>
+          <t>BI-6</t>
         </is>
       </c>
       <c r="C325" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D325" s="10" t="inlineStr">
         <is>
-          <t>maa://32416</t>
+          <t>maa://30671, maa://30669, maa://37275, *maa://32410, maa://41605, maa://33671</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="15" t="inlineStr">
         <is>
-          <t>左乐</t>
+          <t>莱伊</t>
         </is>
       </c>
       <c r="B326" s="15" t="inlineStr">
         <is>
-          <t>RI-7</t>
+          <t>S9-1</t>
         </is>
       </c>
       <c r="C326" s="12" t="inlineStr">
@@ -8020,41 +8020,41 @@
       </c>
       <c r="D326" s="10" t="inlineStr">
         <is>
-          <t>maa://45800</t>
+          <t>maa://38295</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="15" t="inlineStr">
         <is>
-          <t>黍</t>
+          <t>万顷</t>
         </is>
       </c>
       <c r="B327" s="15" t="inlineStr">
         <is>
-          <t>11-11</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="C327" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D327" s="10" t="inlineStr">
         <is>
-          <t>maa://32647, maa://32415, maa://34677, maa://32892</t>
+          <t>maa://32417</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="15" t="inlineStr">
         <is>
-          <t>红隼</t>
+          <t>小满</t>
         </is>
       </c>
       <c r="B328" s="15" t="inlineStr">
         <is>
-          <t>11-18</t>
+          <t>9-11</t>
         </is>
       </c>
       <c r="C328" s="12" t="inlineStr">
@@ -8064,19 +8064,19 @@
       </c>
       <c r="D328" s="10" t="inlineStr">
         <is>
-          <t>maa://32420</t>
+          <t>maa://32419</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="15" t="inlineStr">
         <is>
-          <t>导火索</t>
+          <t>左乐</t>
         </is>
       </c>
       <c r="B329" s="15" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>WB-5</t>
         </is>
       </c>
       <c r="C329" s="12" t="inlineStr">
@@ -8086,19 +8086,19 @@
       </c>
       <c r="D329" s="10" t="inlineStr">
         <is>
-          <t>maa://35606</t>
+          <t>maa://32416</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="15" t="inlineStr">
         <is>
-          <t>双月</t>
+          <t>左乐</t>
         </is>
       </c>
       <c r="B330" s="15" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>RI-7</t>
         </is>
       </c>
       <c r="C330" s="12" t="inlineStr">
@@ -8108,58 +8108,58 @@
       </c>
       <c r="D330" s="10" t="inlineStr">
         <is>
-          <t>maa://34716</t>
+          <t>maa://45800</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="12" t="inlineStr">
         <is>
-          <t>医生</t>
+          <t>黍</t>
         </is>
       </c>
       <c r="B331" s="12" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>11-11</t>
         </is>
       </c>
       <c r="C331" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D331" s="13" t="inlineStr">
         <is>
-          <t>maa://39179</t>
+          <t>maa://32647, maa://32415, maa://34677, maa://32892</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="12" t="inlineStr">
         <is>
-          <t>艾拉</t>
+          <t>红隼</t>
         </is>
       </c>
       <c r="B332" s="12" t="inlineStr">
         <is>
-          <t>DM-EX-1</t>
+          <t>11-18</t>
         </is>
       </c>
       <c r="C332" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D332" s="13" t="inlineStr">
         <is>
-          <t>maa://34865, maa://34717, **maa://45066</t>
+          <t>maa://32420</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="12" t="inlineStr">
         <is>
-          <t>露托</t>
+          <t>导火索</t>
         </is>
       </c>
       <c r="B333" s="12" t="inlineStr">
@@ -8174,41 +8174,41 @@
       </c>
       <c r="D333" s="13" t="inlineStr">
         <is>
-          <t>maa://39180</t>
+          <t>maa://35606</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="12" t="inlineStr">
         <is>
-          <t>奥达</t>
+          <t>双月</t>
         </is>
       </c>
       <c r="B334" s="12" t="inlineStr">
         <is>
-          <t>S3-6</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C334" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D334" s="13" t="inlineStr">
         <is>
-          <t>maa://45834, maa://45833</t>
+          <t>maa://34716</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="12" t="inlineStr">
         <is>
-          <t>阿罗玛</t>
+          <t>医生</t>
         </is>
       </c>
       <c r="B335" s="12" t="inlineStr">
         <is>
-          <t>GT-HX-3</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C335" s="12" t="inlineStr">
@@ -8218,41 +8218,41 @@
       </c>
       <c r="D335" s="13" t="inlineStr">
         <is>
-          <t>*maa://39181</t>
+          <t>maa://39179</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="12" t="inlineStr">
         <is>
-          <t>阿斯卡纶</t>
+          <t>艾拉</t>
         </is>
       </c>
       <c r="B336" s="12" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>DM-EX-1</t>
         </is>
       </c>
       <c r="C336" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D336" s="13" t="inlineStr">
         <is>
-          <t>maa://36868, maa://35996</t>
+          <t>maa://34865, maa://34717, **maa://45066</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="12" t="inlineStr">
         <is>
-          <t>历阵锐枪芬</t>
+          <t>露托</t>
         </is>
       </c>
       <c r="B337" s="12" t="inlineStr">
         <is>
-          <t>4-2</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C337" s="12" t="inlineStr">
@@ -8262,19 +8262,19 @@
       </c>
       <c r="D337" s="13" t="inlineStr">
         <is>
-          <t>maa://36647</t>
+          <t>maa://39180</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="12" t="inlineStr">
         <is>
-          <t>魔王</t>
+          <t>奥达</t>
         </is>
       </c>
       <c r="B338" s="12" t="inlineStr">
         <is>
-          <t>14-5</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C338" s="12" t="inlineStr">
@@ -8284,63 +8284,63 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>maa://42299, *maa://42224</t>
+          <t>maa://45834, maa://45833</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="12" t="inlineStr">
         <is>
-          <t>逻各斯</t>
+          <t>阿罗玛</t>
         </is>
       </c>
       <c r="B339" s="12" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>GT-HX-3</t>
         </is>
       </c>
       <c r="C339" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>maa://36646, maa://36845</t>
+          <t>*maa://39181</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="12" t="inlineStr">
         <is>
-          <t>维什戴尔</t>
+          <t>阿斯卡纶</t>
         </is>
       </c>
       <c r="B340" s="12" t="inlineStr">
         <is>
-          <t>DM-5</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C340" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>maa://36645, maa://36841, maa://37484, maa://37858</t>
+          <t>maa://36868, maa://35996</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="12" t="inlineStr">
         <is>
-          <t>阿米娅(医疗)</t>
+          <t>历阵锐枪芬</t>
         </is>
       </c>
       <c r="B341" s="12" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>4-2</t>
         </is>
       </c>
       <c r="C341" s="12" t="inlineStr">
@@ -8350,85 +8350,85 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>maa://42635</t>
+          <t>maa://36647</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="12" t="inlineStr">
         <is>
-          <t>深巡</t>
+          <t>魔王</t>
         </is>
       </c>
       <c r="B342" s="12" t="inlineStr">
         <is>
-          <t>SN-5</t>
+          <t>14-5</t>
         </is>
       </c>
       <c r="C342" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>maa://39183</t>
+          <t>maa://42299, *maa://42224</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="12" t="inlineStr">
         <is>
-          <t>海霓</t>
+          <t>逻各斯</t>
         </is>
       </c>
       <c r="B343" s="12" t="inlineStr">
         <is>
-          <t>SV-4</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C343" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>maa://39184</t>
+          <t>maa://36646, maa://36845</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="12" t="inlineStr">
         <is>
-          <t>乌尔比安</t>
+          <t>维什戴尔</t>
         </is>
       </c>
       <c r="B344" s="12" t="inlineStr">
         <is>
-          <t>SV-6</t>
+          <t>DM-5</t>
         </is>
       </c>
       <c r="C344" s="12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>maa://40957, maa://44635, maa://41035, maa://41128, maa://44660</t>
+          <t>maa://36645, maa://36841, maa://37484, maa://37858</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="12" t="inlineStr">
         <is>
-          <t>渡桥</t>
+          <t>阿米娅(医疗)</t>
         </is>
       </c>
       <c r="B345" s="12" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C345" s="12" t="inlineStr">
@@ -8438,19 +8438,19 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>maa://40164</t>
+          <t>maa://42635</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="12" t="inlineStr">
         <is>
-          <t>衡沙</t>
+          <t>深巡</t>
         </is>
       </c>
       <c r="B346" s="12" t="inlineStr">
         <is>
-          <t>DV-2</t>
+          <t>SN-5</t>
         </is>
       </c>
       <c r="C346" s="12" t="inlineStr">
@@ -8460,19 +8460,19 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>maa://40165</t>
+          <t>maa://39183</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="12" t="inlineStr">
         <is>
-          <t>佩佩</t>
+          <t>海霓</t>
         </is>
       </c>
       <c r="B347" s="12" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>SV-4</t>
         </is>
       </c>
       <c r="C347" s="12" t="inlineStr">
@@ -8482,107 +8482,107 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>maa://45798</t>
+          <t>maa://39184</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="12" t="inlineStr">
         <is>
-          <t>森西</t>
+          <t>乌尔比安</t>
         </is>
       </c>
       <c r="B348" s="12" t="inlineStr">
         <is>
-          <t>1-12</t>
+          <t>SV-6</t>
         </is>
       </c>
       <c r="C348" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>maa://42331</t>
+          <t>maa://40957, maa://44635, maa://41035, maa://41128, maa://44660</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="12" t="inlineStr">
         <is>
-          <t>齐尔查克</t>
+          <t>渡桥</t>
         </is>
       </c>
       <c r="B349" s="12" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C349" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>maa://42333, maa://41977</t>
+          <t>maa://40164</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="12" t="inlineStr">
         <is>
-          <t>莱欧斯</t>
+          <t>锡人</t>
         </is>
       </c>
       <c r="B350" s="12" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C350" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>maa://42338, maa://41976</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="12" t="inlineStr">
         <is>
-          <t>玛露西尔</t>
+          <t>衡沙</t>
         </is>
       </c>
       <c r="B351" s="12" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>DV-2</t>
         </is>
       </c>
       <c r="C351" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>maa://41110, maa://45605</t>
+          <t>maa://40165</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="12" t="inlineStr">
         <is>
-          <t>凯瑟琳</t>
+          <t>佩佩</t>
         </is>
       </c>
       <c r="B352" s="12" t="inlineStr">
         <is>
-          <t>11-7</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C352" s="12" t="inlineStr">
@@ -8592,19 +8592,19 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>maa://42343</t>
+          <t>maa://45798</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="12" t="inlineStr">
         <is>
-          <t>波卜</t>
+          <t>森西</t>
         </is>
       </c>
       <c r="B353" s="12" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>1-12</t>
         </is>
       </c>
       <c r="C353" s="12" t="inlineStr">
@@ -8614,63 +8614,63 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>maa://43095</t>
+          <t>maa://42331</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="12" t="inlineStr">
         <is>
-          <t>维娜·维多利亚</t>
+          <t>齐尔查克</t>
         </is>
       </c>
       <c r="B354" s="12" t="inlineStr">
         <is>
-          <t>9-5</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C354" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>maa://44233</t>
+          <t>maa://42333, maa://41977</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="12" t="inlineStr">
         <is>
-          <t>裁度</t>
+          <t>莱欧斯</t>
         </is>
       </c>
       <c r="B355" s="12" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="C355" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>maa://43097</t>
+          <t>maa://42338, maa://41976</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="12" t="inlineStr">
         <is>
-          <t>弑君者</t>
+          <t>玛露西尔</t>
         </is>
       </c>
       <c r="B356" s="12" t="inlineStr">
         <is>
-          <t>4-4</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C356" s="12" t="inlineStr">
@@ -8680,19 +8680,19 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>maa://43872, maa://39153</t>
+          <t>maa://41110, maa://45605</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="12" t="inlineStr">
         <is>
-          <t>忍冬</t>
+          <t>凯瑟琳</t>
         </is>
       </c>
       <c r="B357" s="12" t="inlineStr">
         <is>
-          <t>S2-3</t>
+          <t>11-7</t>
         </is>
       </c>
       <c r="C357" s="12" t="inlineStr">
@@ -8702,41 +8702,41 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>maa://43875</t>
+          <t>maa://42343</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="12" t="inlineStr">
         <is>
-          <t>荒芜拉普兰德</t>
+          <t>波卜</t>
         </is>
       </c>
       <c r="B358" s="12" t="inlineStr">
         <is>
-          <t>IS-8</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="C358" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>maa://42970, maa://44745, maa://45952, maa://44896</t>
+          <t>maa://43095</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="12" t="inlineStr">
         <is>
-          <t>瑰盐</t>
+          <t>维娜·维多利亚</t>
         </is>
       </c>
       <c r="B359" s="12" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>9-5</t>
         </is>
       </c>
       <c r="C359" s="12" t="inlineStr">
@@ -8746,19 +8746,19 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>maa://44389</t>
+          <t>maa://44233</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="12" t="inlineStr">
         <is>
-          <t>行箸</t>
+          <t>裁度</t>
         </is>
       </c>
       <c r="B360" s="12" t="inlineStr">
         <is>
-          <t>3-2</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="C360" s="12" t="inlineStr">
@@ -8768,19 +8768,19 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>maa://45807</t>
+          <t>maa://43097</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="12" t="inlineStr">
         <is>
-          <t>诺威尔</t>
+          <t>弑君者</t>
         </is>
       </c>
       <c r="B361" s="12" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>4-4</t>
         </is>
       </c>
       <c r="C361" s="12" t="inlineStr">
@@ -8790,27 +8790,159 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>maa://47175, maa://47174</t>
+          <t>maa://43872, maa://39153</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="12" t="inlineStr">
         <is>
+          <t>忍冬</t>
+        </is>
+      </c>
+      <c r="B362" s="12" t="inlineStr">
+        <is>
+          <t>S2-3</t>
+        </is>
+      </c>
+      <c r="C362" s="12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>maa://43875</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="12" t="inlineStr">
+        <is>
+          <t>荒芜拉普兰德</t>
+        </is>
+      </c>
+      <c r="B363" s="12" t="inlineStr">
+        <is>
+          <t>IS-8</t>
+        </is>
+      </c>
+      <c r="C363" s="12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>maa://42970, maa://44745, maa://45952, maa://44896</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="12" t="inlineStr">
+        <is>
+          <t>瑰盐</t>
+        </is>
+      </c>
+      <c r="B364" s="12" t="inlineStr">
+        <is>
+          <t>4-6</t>
+        </is>
+      </c>
+      <c r="C364" s="12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>maa://44389</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="12" t="inlineStr">
+        <is>
+          <t>引星棘刺</t>
+        </is>
+      </c>
+      <c r="B365" s="12" t="inlineStr">
+        <is>
+          <t>OF-7</t>
+        </is>
+      </c>
+      <c r="C365" s="12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="12" t="inlineStr">
+        <is>
+          <t>行箸</t>
+        </is>
+      </c>
+      <c r="B366" s="12" t="inlineStr">
+        <is>
+          <t>3-2</t>
+        </is>
+      </c>
+      <c r="C366" s="12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>maa://45807</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="12" t="inlineStr">
+        <is>
+          <t>诺威尔</t>
+        </is>
+      </c>
+      <c r="B367" s="12" t="inlineStr">
+        <is>
+          <t>5-7</t>
+        </is>
+      </c>
+      <c r="C367" s="12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>maa://47175, maa://47174</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="12" t="inlineStr">
+        <is>
           <t>隐德来希</t>
         </is>
       </c>
-      <c r="B362" s="12" t="inlineStr">
+      <c r="B368" s="12" t="inlineStr">
         <is>
           <t>10-12</t>
         </is>
       </c>
-      <c r="C362" s="12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D362" t="inlineStr">
+      <c r="C368" s="12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
         <is>
           <t>maa://47023</t>
         </is>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.03.07 13:21:00</t>
+          <t>更新日期：2025.03.08 13:15:15</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -3901,12 +3901,12 @@
       </c>
       <c r="C139" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D139" s="10" t="inlineStr">
         <is>
-          <t>maa://45258</t>
+          <t>**maa://30679, maa://45258</t>
         </is>
       </c>
     </row>
@@ -8873,12 +8873,12 @@
       </c>
       <c r="C365" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://48113</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.03.08 13:15:15</t>
+          <t>更新日期：2025.03.08 16:37:02</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -5529,12 +5529,12 @@
       </c>
       <c r="C213" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D213" s="10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://48261</t>
         </is>
       </c>
     </row>
@@ -5859,12 +5859,12 @@
       </c>
       <c r="C228" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D228" s="10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://48263</t>
         </is>
       </c>
     </row>
@@ -6629,12 +6629,12 @@
       </c>
       <c r="C263" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D263" s="10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://48265</t>
         </is>
       </c>
     </row>
@@ -6915,12 +6915,12 @@
       </c>
       <c r="C276" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D276" s="10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://48266, maa://48267</t>
         </is>
       </c>
     </row>
@@ -8543,12 +8543,12 @@
       </c>
       <c r="C350" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://48268</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -463,7 +463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB368"/>
+  <dimension ref="A1:AB369"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.03.08 16:37:02</t>
+          <t>更新日期：2025.03.15 13:17:29</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -6602,17 +6602,17 @@
       </c>
       <c r="B262" s="15" t="inlineStr">
         <is>
-          <t>2-10</t>
+          <t>9-7</t>
         </is>
       </c>
       <c r="C262" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D262" s="10" t="inlineStr">
         <is>
-          <t>*maa://20825, *maa://21445, *maa://35726</t>
+          <t>maa://48265</t>
         </is>
       </c>
     </row>
@@ -6624,17 +6624,17 @@
       </c>
       <c r="B263" s="15" t="inlineStr">
         <is>
-          <t>9-7</t>
+          <t>2-10</t>
         </is>
       </c>
       <c r="C263" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D263" s="10" t="inlineStr">
         <is>
-          <t>maa://48265</t>
+          <t>*maa://20825, *maa://21445, *maa://35726</t>
         </is>
       </c>
     </row>
@@ -6920,7 +6920,7 @@
       </c>
       <c r="D276" s="10" t="inlineStr">
         <is>
-          <t>maa://48266, maa://48267</t>
+          <t>maa://48267, maa://48266</t>
         </is>
       </c>
     </row>
@@ -7228,7 +7228,7 @@
       </c>
       <c r="D290" s="10" t="inlineStr">
         <is>
-          <t>maa://39166, maa://39167</t>
+          <t>**maa://39166, maa://39167</t>
         </is>
       </c>
     </row>
@@ -8125,12 +8125,12 @@
       </c>
       <c r="C331" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D331" s="13" t="inlineStr">
         <is>
-          <t>maa://32647, maa://32415, maa://34677, maa://32892</t>
+          <t>maa://32647, maa://32415, maa://34677, maa://32892, maa://47851</t>
         </is>
       </c>
     </row>
@@ -8499,12 +8499,12 @@
       </c>
       <c r="C348" s="12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>maa://40957, maa://44635, maa://41035, maa://41128, maa://44660</t>
+          <t>maa://40957, maa://44635, maa://41035, maa://41128, maa://44660, maa://48026</t>
         </is>
       </c>
     </row>
@@ -8945,6 +8945,28 @@
       <c r="D368" t="inlineStr">
         <is>
           <t>maa://47023</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="12" t="inlineStr">
+        <is>
+          <t>钼铅</t>
+        </is>
+      </c>
+      <c r="B369" s="12" t="inlineStr">
+        <is>
+          <t>9-6</t>
+        </is>
+      </c>
+      <c r="C369" s="12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.03.15 13:17:29</t>
+          <t>更新日期：2025.03.16 13:17:23</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -8961,12 +8961,12 @@
       </c>
       <c r="C369" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://48618</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.03.16 13:17:23</t>
+          <t>更新日期：2025.03.19 13:19:27</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.03.19 13:19:27</t>
+          <t>更新日期：2025.03.20 13:18:45</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -5864,7 +5864,7 @@
       </c>
       <c r="D228" s="10" t="inlineStr">
         <is>
-          <t>maa://48263</t>
+          <t>*maa://48263</t>
         </is>
       </c>
     </row>
@@ -8130,7 +8130,7 @@
       </c>
       <c r="D331" s="13" t="inlineStr">
         <is>
-          <t>maa://32647, maa://32415, maa://34677, maa://32892, maa://47851</t>
+          <t>maa://32647, maa://32415, maa://34677, maa://32892, **maa://47851</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.03.20 13:18:45</t>
+          <t>更新日期：2025.03.23 13:17:41</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="D26" s="10" t="inlineStr">
         <is>
-          <t>*maa://45081</t>
+          <t>maa://45081</t>
         </is>
       </c>
       <c r="F26" s="8" t="n"/>
@@ -3290,7 +3290,7 @@
       </c>
       <c r="D111" s="10" t="inlineStr">
         <is>
-          <t>*maa://28554, *maa://45081</t>
+          <t>*maa://28554, maa://45081</t>
         </is>
       </c>
     </row>
@@ -8367,12 +8367,12 @@
       </c>
       <c r="C342" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>maa://42299, *maa://42224</t>
+          <t>maa://42299, *maa://42224, maa://48876</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.03.23 13:17:41</t>
+          <t>更新日期：2025.03.28 13:20:26</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -3285,12 +3285,12 @@
       </c>
       <c r="C111" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D111" s="10" t="inlineStr">
         <is>
-          <t>*maa://28554, maa://45081</t>
+          <t>*maa://28554, maa://45081, maa://48826</t>
         </is>
       </c>
     </row>
@@ -3642,7 +3642,7 @@
       </c>
       <c r="D127" s="10" t="inlineStr">
         <is>
-          <t>maa://20914, maa://20829, maa://31937</t>
+          <t>maa://20914, maa://31937, maa://20829</t>
         </is>
       </c>
     </row>
@@ -3752,7 +3752,7 @@
       </c>
       <c r="D132" s="10" t="inlineStr">
         <is>
-          <t>maa://23019, maa://40517, maa://20837, maa://37113, maa://37666, maa://41686</t>
+          <t>maa://40517, maa://23019, maa://20837, maa://37113, maa://37666, maa://41686</t>
         </is>
       </c>
     </row>
@@ -3994,7 +3994,7 @@
       </c>
       <c r="D143" s="10" t="inlineStr">
         <is>
-          <t>maa://30670, maa://31470, **maa://45066</t>
+          <t>maa://30670, maa://31470, *maa://45066</t>
         </is>
       </c>
     </row>
@@ -4324,7 +4324,7 @@
       </c>
       <c r="D158" s="10" t="inlineStr">
         <is>
-          <t>maa://44232, maa://44305, maa://45603</t>
+          <t>maa://44232, maa://45603, maa://44305</t>
         </is>
       </c>
     </row>
@@ -4495,12 +4495,12 @@
       </c>
       <c r="C166" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D166" s="10" t="inlineStr">
         <is>
-          <t>maa://29633, maa://29627, maa://29659, maa://29861</t>
+          <t>maa://29633, maa://29627, maa://29659, maa://29861, maa://49074</t>
         </is>
       </c>
     </row>
@@ -6326,7 +6326,7 @@
       </c>
       <c r="D249" s="13" t="inlineStr">
         <is>
-          <t>*maa://40958, *maa://45067</t>
+          <t>maa://40958, *maa://45067</t>
         </is>
       </c>
     </row>
@@ -8240,7 +8240,7 @@
       </c>
       <c r="D336" s="13" t="inlineStr">
         <is>
-          <t>maa://34865, maa://34717, **maa://45066</t>
+          <t>maa://34865, maa://34717, *maa://45066</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.03.28 13:20:26</t>
+          <t>更新日期：2025.03.30 13:18:18</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -6035,12 +6035,12 @@
       </c>
       <c r="C236" s="12" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D236" s="10" t="inlineStr">
         <is>
-          <t>*maa://30667, maa://30666, *maa://26836, maa://37607, *maa://34428, *maa://30723, maa://39588, *maa://37850</t>
+          <t>*maa://30667, maa://30666, *maa://26836, maa://37607, *maa://34428, *maa://30723, maa://39588, *maa://37850, maa://49172</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.03.30 13:18:18</t>
+          <t>更新日期：2025.04.03 13:19:19</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -7927,12 +7927,12 @@
       </c>
       <c r="C322" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D322" s="10" t="inlineStr">
         <is>
-          <t>maa://42968</t>
+          <t>maa://42968, maa://49245</t>
         </is>
       </c>
     </row>
@@ -7954,7 +7954,7 @@
       </c>
       <c r="D323" s="10" t="inlineStr">
         <is>
-          <t>*maa://40162</t>
+          <t>**maa://40162</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.04.03 13:19:19</t>
+          <t>更新日期：2025.04.04 13:19:56</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -6678,7 +6678,7 @@
       </c>
       <c r="D265" s="10" t="inlineStr">
         <is>
-          <t>maa://27794, maa://45572, *maa://20862</t>
+          <t>maa://27794, maa://45572, maa://20862</t>
         </is>
       </c>
     </row>
@@ -6898,7 +6898,7 @@
       </c>
       <c r="D275" s="10" t="inlineStr">
         <is>
-          <t>**maa://39165</t>
+          <t>*maa://39165</t>
         </is>
       </c>
     </row>
@@ -8306,7 +8306,7 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>*maa://39181</t>
+          <t>maa://39181</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.04.04 13:19:56</t>
+          <t>更新日期：2025.04.05 17:12:18</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -1015,12 +1015,12 @@
       </c>
       <c r="C16" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D16" s="10" t="inlineStr">
         <is>
-          <t>maa://20919</t>
+          <t>maa://20919, *maa://31611</t>
         </is>
       </c>
       <c r="F16" s="8" t="n"/>
@@ -1355,12 +1355,12 @@
       </c>
       <c r="C26" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D26" s="10" t="inlineStr">
         <is>
-          <t>maa://45081</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F26" s="8" t="n"/>
@@ -1547,12 +1547,12 @@
       </c>
       <c r="C32" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D32" s="10" t="inlineStr">
         <is>
-          <t>maa://36644, maa://36866, maa://27794, maa://45572</t>
+          <t>maa://36644, maa://36866, maa://27794, maa://45572, maa://20960, maa://20843, **maa://24483, maa://20862, *maa://20893</t>
         </is>
       </c>
     </row>
@@ -1657,12 +1657,12 @@
       </c>
       <c r="C37" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D37" s="10" t="inlineStr">
         <is>
-          <t>maa://27376, *maa://20838</t>
+          <t>maa://27376, maa://42635, *maa://20838</t>
         </is>
       </c>
     </row>
@@ -1767,12 +1767,12 @@
       </c>
       <c r="C42" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D42" s="10" t="inlineStr">
         <is>
-          <t>maa://20918, *maa://22339, maa://34883, maa://20824</t>
+          <t>maa://20918, maa://34883, maa://20824</t>
         </is>
       </c>
     </row>
@@ -2075,12 +2075,12 @@
       </c>
       <c r="C56" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D56" s="10" t="inlineStr">
         <is>
-          <t>maa://44235, maa://45604</t>
+          <t>maa://44235, maa://45604, maa://20961, maa://20910</t>
         </is>
       </c>
     </row>
@@ -2185,12 +2185,12 @@
       </c>
       <c r="C61" s="12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D61" s="10" t="inlineStr">
         <is>
-          <t>maa://20841, maa://24093, maa://31559, maa://25777, maa://20631</t>
+          <t>maa://20841, maa://24093, maa://31559, maa://20924, maa://25777, maa://20631, maa://28241</t>
         </is>
       </c>
     </row>
@@ -2251,12 +2251,12 @@
       </c>
       <c r="C64" s="12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D64" s="10" t="inlineStr">
         <is>
-          <t>maa://28187, maa://33504, maa://45144, maa://43531, maa://39520</t>
+          <t>maa://28187, maa://33504, maa://45144, maa://43531</t>
         </is>
       </c>
     </row>
@@ -2295,12 +2295,12 @@
       </c>
       <c r="C66" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D66" s="10" t="inlineStr">
         <is>
-          <t>maa://20993, maa://20829, maa://45606</t>
+          <t>maa://20993, maa://20914, maa://20829, maa://45606, maa://20900, maa://40159</t>
         </is>
       </c>
     </row>
@@ -2361,12 +2361,12 @@
       </c>
       <c r="C69" s="12" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D69" s="10" t="inlineStr">
         <is>
-          <t>maa://28784, maa://29088, maa://20974, maa://31124, maa://28950, *maa://33612, maa://29087, *maa://20823, **maa://42200, maa://41832</t>
+          <t>maa://20974, maa://29079, maa://29096, maa://29087, *maa://20823, maa://20855, maa://20904</t>
         </is>
       </c>
     </row>
@@ -2405,12 +2405,12 @@
       </c>
       <c r="C71" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D71" s="10" t="inlineStr">
         <is>
-          <t>maa://20943</t>
+          <t>maa://20943, maa://30673, maa://30672, maa://20856</t>
         </is>
       </c>
     </row>
@@ -2757,12 +2757,12 @@
       </c>
       <c r="C87" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D87" s="10" t="inlineStr">
         <is>
-          <t>maa://20886, maa://25136</t>
+          <t>maa://20886</t>
         </is>
       </c>
     </row>
@@ -3043,12 +3043,12 @@
       </c>
       <c r="C100" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D100" s="10" t="inlineStr">
         <is>
-          <t>maa://31560, maa://20852</t>
+          <t>maa://20852</t>
         </is>
       </c>
     </row>
@@ -3285,12 +3285,12 @@
       </c>
       <c r="C111" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D111" s="10" t="inlineStr">
         <is>
-          <t>*maa://28554, maa://45081, maa://48826</t>
+          <t>*maa://28554</t>
         </is>
       </c>
     </row>
@@ -3747,12 +3747,12 @@
       </c>
       <c r="C132" s="12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D132" s="10" t="inlineStr">
         <is>
-          <t>maa://40517, maa://23019, maa://20837, maa://37113, maa://37666, maa://41686</t>
+          <t>maa://20837, maa://37666</t>
         </is>
       </c>
     </row>
@@ -3769,12 +3769,12 @@
       </c>
       <c r="C133" s="12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D133" s="10" t="inlineStr">
         <is>
-          <t>maa://23020, maa://29023, maa://41690, maa://39515, maa://34319</t>
+          <t>maa://29023, maa://39515</t>
         </is>
       </c>
     </row>
@@ -4099,12 +4099,12 @@
       </c>
       <c r="C148" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D148" s="10" t="inlineStr">
         <is>
-          <t>maa://20846</t>
+          <t>maa://28828, maa://20846</t>
         </is>
       </c>
     </row>
@@ -4121,12 +4121,12 @@
       </c>
       <c r="C149" s="12" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D149" s="10" t="inlineStr">
         <is>
-          <t>maa://36641, maa://36865, maa://42918, maa://44119, maa://37300, maa://46108, maa://42917</t>
+          <t>maa://36641, maa://40957, maa://36865, maa://44635, maa://41128, maa://44660, maa://42918, maa://44119, maa://37300, maa://46108, maa://42917</t>
         </is>
       </c>
     </row>
@@ -4495,12 +4495,12 @@
       </c>
       <c r="C166" s="12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D166" s="10" t="inlineStr">
         <is>
-          <t>maa://29633, maa://29627, maa://29659, maa://29861, maa://49074</t>
+          <t>maa://29633, maa://29627, maa://29659, **maa://30679, maa://29861, maa://42343, maa://49074</t>
         </is>
       </c>
     </row>
@@ -4539,12 +4539,12 @@
       </c>
       <c r="C168" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D168" s="10" t="inlineStr">
         <is>
-          <t>maa://45556</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5255,12 +5255,12 @@
     <row r="201">
       <c r="A201" s="15" t="inlineStr">
         <is>
-          <t>绮良</t>
+          <t>卡涅利安</t>
         </is>
       </c>
       <c r="B201" s="15" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>7-3</t>
         </is>
       </c>
       <c r="C201" s="12" t="inlineStr">
@@ -5270,7 +5270,7 @@
       </c>
       <c r="D201" s="10" t="inlineStr">
         <is>
-          <t>maa://20937</t>
+          <t>maa://22468</t>
         </is>
       </c>
     </row>
@@ -5282,39 +5282,39 @@
       </c>
       <c r="B202" s="15" t="inlineStr">
         <is>
-          <t>7-3</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C202" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D202" s="10" t="inlineStr">
         <is>
-          <t>maa://22468</t>
+          <t>maa://30673, maa://30672</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="15" t="inlineStr">
         <is>
-          <t>卡涅利安</t>
+          <t>帕拉斯</t>
         </is>
       </c>
       <c r="B203" s="15" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="C203" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D203" s="10" t="inlineStr">
         <is>
-          <t>maa://30673, maa://30672</t>
+          <t>maa://20934, maa://20827, maa://20828</t>
         </is>
       </c>
     </row>
@@ -5326,61 +5326,61 @@
       </c>
       <c r="B204" s="15" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C204" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D204" s="10" t="inlineStr">
         <is>
-          <t>maa://20934, maa://20827, maa://20828</t>
+          <t>maa://20935</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="15" t="inlineStr">
         <is>
-          <t>帕拉斯</t>
+          <t>羽毛笔</t>
         </is>
       </c>
       <c r="B205" s="15" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C205" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D205" s="10" t="inlineStr">
         <is>
-          <t>maa://20935</t>
+          <t>maa://28133, maa://25369</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="15" t="inlineStr">
         <is>
-          <t>羽毛笔</t>
+          <t>水月</t>
         </is>
       </c>
       <c r="B206" s="15" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C206" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D206" s="13" t="inlineStr">
         <is>
-          <t>maa://28133, maa://28277, maa://25369, *maa://33132</t>
+          <t>maa://20956, *maa://20830, maa://44703</t>
         </is>
       </c>
     </row>
@@ -5392,29 +5392,29 @@
       </c>
       <c r="B207" s="15" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="C207" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D207" s="10" t="inlineStr">
         <is>
-          <t>maa://20956, *maa://20830, maa://44703</t>
+          <t>*maa://20955</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="15" t="inlineStr">
         <is>
-          <t>水月</t>
+          <t>假日威龙陈</t>
         </is>
       </c>
       <c r="B208" s="15" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="C208" s="12" t="inlineStr">
@@ -5424,19 +5424,19 @@
       </c>
       <c r="D208" s="10" t="inlineStr">
         <is>
-          <t>*maa://20955</t>
+          <t>maa://39238</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="15" t="inlineStr">
         <is>
-          <t>假日威龙陈</t>
+          <t>罗比菈塔</t>
         </is>
       </c>
       <c r="B209" s="15" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C209" s="12" t="inlineStr">
@@ -5446,19 +5446,19 @@
       </c>
       <c r="D209" s="10" t="inlineStr">
         <is>
-          <t>maa://39238</t>
+          <t>maa://45261</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="15" t="inlineStr">
         <is>
-          <t>罗比菈塔</t>
+          <t>桑葚</t>
         </is>
       </c>
       <c r="B210" s="15" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>SV-5</t>
         </is>
       </c>
       <c r="C210" s="12" t="inlineStr">
@@ -5468,29 +5468,29 @@
       </c>
       <c r="D210" s="10" t="inlineStr">
         <is>
-          <t>maa://45261</t>
+          <t>maa://39694</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="15" t="inlineStr">
         <is>
-          <t>桑葚</t>
+          <t>琴柳</t>
         </is>
       </c>
       <c r="B211" s="15" t="inlineStr">
         <is>
-          <t>SV-5</t>
+          <t>9-2</t>
         </is>
       </c>
       <c r="C211" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D211" s="10" t="inlineStr">
         <is>
-          <t>maa://39694</t>
+          <t>maa://24636, maa://25778</t>
         </is>
       </c>
     </row>
@@ -5502,29 +5502,29 @@
       </c>
       <c r="B212" s="15" t="inlineStr">
         <is>
-          <t>9-2</t>
+          <t>5-3</t>
         </is>
       </c>
       <c r="C212" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D212" s="10" t="inlineStr">
         <is>
-          <t>maa://24636, maa://25778</t>
+          <t>maa://48261</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="15" t="inlineStr">
         <is>
-          <t>琴柳</t>
+          <t>灰毫</t>
         </is>
       </c>
       <c r="B213" s="15" t="inlineStr">
         <is>
-          <t>5-3</t>
+          <t>7-9</t>
         </is>
       </c>
       <c r="C213" s="12" t="inlineStr">
@@ -5534,29 +5534,29 @@
       </c>
       <c r="D213" s="10" t="inlineStr">
         <is>
-          <t>maa://48261</t>
+          <t>*maa://39157</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="15" t="inlineStr">
         <is>
-          <t>灰毫</t>
+          <t>远牙</t>
         </is>
       </c>
       <c r="B214" s="15" t="inlineStr">
         <is>
-          <t>7-9</t>
+          <t>S2-2</t>
         </is>
       </c>
       <c r="C214" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D214" s="10" t="inlineStr">
         <is>
-          <t>*maa://39157</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5568,29 +5568,29 @@
       </c>
       <c r="B215" s="15" t="inlineStr">
         <is>
-          <t>S2-2</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C215" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D215" s="10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://26499</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="15" t="inlineStr">
         <is>
-          <t>远牙</t>
+          <t>布丁</t>
         </is>
       </c>
       <c r="B216" s="15" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>2-10</t>
         </is>
       </c>
       <c r="C216" s="12" t="inlineStr">
@@ -5600,19 +5600,19 @@
       </c>
       <c r="D216" s="10" t="inlineStr">
         <is>
-          <t>maa://26499</t>
+          <t>maa://20858</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="15" t="inlineStr">
         <is>
-          <t>布丁</t>
+          <t>蜜莓</t>
         </is>
       </c>
       <c r="B217" s="15" t="inlineStr">
         <is>
-          <t>2-10</t>
+          <t>GA-2</t>
         </is>
       </c>
       <c r="C217" s="12" t="inlineStr">
@@ -5622,19 +5622,19 @@
       </c>
       <c r="D217" s="10" t="inlineStr">
         <is>
-          <t>maa://20858</t>
+          <t>maa://39695</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="15" t="inlineStr">
         <is>
-          <t>蜜莓</t>
+          <t>野鬃</t>
         </is>
       </c>
       <c r="B218" s="15" t="inlineStr">
         <is>
-          <t>GA-2</t>
+          <t>MN-2</t>
         </is>
       </c>
       <c r="C218" s="12" t="inlineStr">
@@ -5644,19 +5644,19 @@
       </c>
       <c r="D218" s="10" t="inlineStr">
         <is>
-          <t>maa://39695</t>
+          <t>maa://20988</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="15" t="inlineStr">
         <is>
-          <t>野鬃</t>
+          <t>蚀清</t>
         </is>
       </c>
       <c r="B219" s="15" t="inlineStr">
         <is>
-          <t>MN-2</t>
+          <t>BI-6</t>
         </is>
       </c>
       <c r="C219" s="12" t="inlineStr">
@@ -5666,63 +5666,63 @@
       </c>
       <c r="D219" s="10" t="inlineStr">
         <is>
-          <t>maa://20988</t>
+          <t>maa://39158</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="15" t="inlineStr">
         <is>
-          <t>蚀清</t>
+          <t>耀骑士临光</t>
         </is>
       </c>
       <c r="B220" s="15" t="inlineStr">
         <is>
-          <t>BI-6</t>
+          <t>MN-8</t>
         </is>
       </c>
       <c r="C220" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D220" s="10" t="inlineStr">
         <is>
-          <t>maa://39158</t>
+          <t>maa://20987, *maa://35801</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="15" t="inlineStr">
         <is>
-          <t>焰尾</t>
+          <t>耀骑士临光</t>
         </is>
       </c>
       <c r="B221" s="15" t="inlineStr">
         <is>
-          <t>NL-5</t>
+          <t>NL-10</t>
         </is>
       </c>
       <c r="C221" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D221" s="10" t="inlineStr">
         <is>
-          <t>maa://28187, maa://43531, maa://39520</t>
+          <t>*maa://29644, maa://39159</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="15" t="inlineStr">
         <is>
-          <t>焰尾</t>
+          <t>耶拉</t>
         </is>
       </c>
       <c r="B222" s="15" t="inlineStr">
         <is>
-          <t>NL-3</t>
+          <t>BI-7</t>
         </is>
       </c>
       <c r="C222" s="12" t="inlineStr">
@@ -5732,85 +5732,85 @@
       </c>
       <c r="D222" s="10" t="inlineStr">
         <is>
-          <t>maa://20985</t>
+          <t>maa://30677</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="15" t="inlineStr">
         <is>
-          <t>耀骑士临光</t>
+          <t>极光</t>
         </is>
       </c>
       <c r="B223" s="15" t="inlineStr">
         <is>
-          <t>MN-8</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C223" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D223" s="10" t="inlineStr">
         <is>
-          <t>maa://20987, *maa://35801</t>
+          <t>maa://20896</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="15" t="inlineStr">
         <is>
-          <t>耀骑士临光</t>
+          <t>灵知</t>
         </is>
       </c>
       <c r="B224" s="15" t="inlineStr">
         <is>
-          <t>NL-10</t>
+          <t>BI-7</t>
         </is>
       </c>
       <c r="C224" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D224" s="10" t="inlineStr">
         <is>
-          <t>maa://39159</t>
+          <t>maa://29058, maa://39140, maa://38723</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="15" t="inlineStr">
         <is>
-          <t>耶拉</t>
+          <t>灵知</t>
         </is>
       </c>
       <c r="B225" s="15" t="inlineStr">
         <is>
-          <t>BI-7</t>
+          <t>5-6</t>
         </is>
       </c>
       <c r="C225" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D225" s="10" t="inlineStr">
         <is>
-          <t>maa://39140, maa://30677</t>
+          <t>*maa://48263</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="15" t="inlineStr">
         <is>
-          <t>极光</t>
+          <t>九色鹿</t>
         </is>
       </c>
       <c r="B226" s="15" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>IW-3</t>
         </is>
       </c>
       <c r="C226" s="12" t="inlineStr">
@@ -5820,41 +5820,41 @@
       </c>
       <c r="D226" s="10" t="inlineStr">
         <is>
-          <t>maa://20896</t>
+          <t>maa://39160</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="15" t="inlineStr">
         <is>
-          <t>灵知</t>
+          <t>寒芒克洛丝</t>
         </is>
       </c>
       <c r="B227" s="15" t="inlineStr">
         <is>
-          <t>BI-7</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C227" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D227" s="10" t="inlineStr">
         <is>
-          <t>maa://29058, maa://39140, maa://38723</t>
+          <t>maa://49491</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="15" t="inlineStr">
         <is>
-          <t>灵知</t>
+          <t>夜半</t>
         </is>
       </c>
       <c r="B228" s="15" t="inlineStr">
         <is>
-          <t>5-6</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C228" s="12" t="inlineStr">
@@ -5864,19 +5864,19 @@
       </c>
       <c r="D228" s="10" t="inlineStr">
         <is>
-          <t>*maa://48263</t>
+          <t>maa://35952</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="15" t="inlineStr">
         <is>
-          <t>九色鹿</t>
+          <t>老鲤</t>
         </is>
       </c>
       <c r="B229" s="15" t="inlineStr">
         <is>
-          <t>IW-3</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C229" s="12" t="inlineStr">
@@ -5886,63 +5886,63 @@
       </c>
       <c r="D229" s="10" t="inlineStr">
         <is>
-          <t>maa://39160</t>
+          <t>maa://20917</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="15" t="inlineStr">
         <is>
-          <t>寒芒克洛丝</t>
+          <t>老鲤</t>
         </is>
       </c>
       <c r="B230" s="15" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>IW-EX-1</t>
         </is>
       </c>
       <c r="C230" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D230" s="10" t="inlineStr">
         <is>
-          <t>maa://20878</t>
+          <t>maa://30714, maa://30675</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="15" t="inlineStr">
         <is>
-          <t>夜半</t>
+          <t>令</t>
         </is>
       </c>
       <c r="B231" s="15" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C231" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D231" s="10" t="inlineStr">
         <is>
-          <t>maa://35952</t>
+          <t>maa://20922, *maa://32623, *maa://34242</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="15" t="inlineStr">
         <is>
-          <t>老鲤</t>
+          <t>夏栎</t>
         </is>
       </c>
       <c r="B232" s="15" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>9-2</t>
         </is>
       </c>
       <c r="C232" s="12" t="inlineStr">
@@ -5952,63 +5952,63 @@
       </c>
       <c r="D232" s="10" t="inlineStr">
         <is>
-          <t>maa://20917</t>
+          <t>maa://32999</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="15" t="inlineStr">
         <is>
-          <t>老鲤</t>
+          <t>澄闪</t>
         </is>
       </c>
       <c r="B233" s="15" t="inlineStr">
         <is>
-          <t>IW-EX-1</t>
+          <t>R8-8</t>
         </is>
       </c>
       <c r="C233" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D233" s="10" t="inlineStr">
         <is>
-          <t>maa://30714, maa://30675</t>
+          <t>*maa://30667, maa://30666, *maa://30723, maa://39588</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="15" t="inlineStr">
         <is>
-          <t>令</t>
+          <t>见行者</t>
         </is>
       </c>
       <c r="B234" s="15" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>GA-EX-1</t>
         </is>
       </c>
       <c r="C234" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D234" s="10" t="inlineStr">
         <is>
-          <t>maa://20922, *maa://32623, *maa://34242, maa://34900</t>
+          <t>maa://30512</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="15" t="inlineStr">
         <is>
-          <t>夏栎</t>
+          <t>风丸</t>
         </is>
       </c>
       <c r="B235" s="15" t="inlineStr">
         <is>
-          <t>9-2</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C235" s="12" t="inlineStr">
@@ -6018,63 +6018,63 @@
       </c>
       <c r="D235" s="10" t="inlineStr">
         <is>
-          <t>maa://32999</t>
+          <t>maa://20870</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="15" t="inlineStr">
         <is>
-          <t>澄闪</t>
+          <t>菲亚梅塔</t>
         </is>
       </c>
       <c r="B236" s="15" t="inlineStr">
         <is>
-          <t>R8-8</t>
+          <t>GA-4</t>
         </is>
       </c>
       <c r="C236" s="12" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D236" s="10" t="inlineStr">
         <is>
-          <t>*maa://30667, maa://30666, *maa://26836, maa://37607, *maa://34428, *maa://30723, maa://39588, *maa://37850, maa://49172</t>
+          <t>maa://29024</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="15" t="inlineStr">
         <is>
-          <t>见行者</t>
+          <t>菲亚梅塔</t>
         </is>
       </c>
       <c r="B237" s="15" t="inlineStr">
         <is>
-          <t>GA-EX-1</t>
+          <t>S5-9</t>
         </is>
       </c>
       <c r="C237" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D237" s="13" t="inlineStr">
         <is>
-          <t>maa://30512</t>
+          <t>maa://20867, maa://38485, *maa://32202</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="15" t="inlineStr">
         <is>
-          <t>风丸</t>
+          <t>褐果</t>
         </is>
       </c>
       <c r="B238" s="15" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>SV-3</t>
         </is>
       </c>
       <c r="C238" s="12" t="inlineStr">
@@ -6084,19 +6084,19 @@
       </c>
       <c r="D238" s="10" t="inlineStr">
         <is>
-          <t>maa://20870</t>
+          <t>maa://40160</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="15" t="inlineStr">
         <is>
-          <t>菲亚梅塔</t>
+          <t>海蒂</t>
         </is>
       </c>
       <c r="B239" s="15" t="inlineStr">
         <is>
-          <t>GA-4</t>
+          <t>9-7</t>
         </is>
       </c>
       <c r="C239" s="12" t="inlineStr">
@@ -6106,85 +6106,85 @@
       </c>
       <c r="D239" s="10" t="inlineStr">
         <is>
-          <t>maa://29024</t>
+          <t>maa://43089</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="15" t="inlineStr">
         <is>
-          <t>菲亚梅塔</t>
+          <t>洛洛</t>
         </is>
       </c>
       <c r="B240" s="15" t="inlineStr">
         <is>
-          <t>S5-9</t>
+          <t>RI-EX-4</t>
         </is>
       </c>
       <c r="C240" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D240" s="10" t="inlineStr">
         <is>
-          <t>maa://20867, maa://38485, *maa://32202</t>
+          <t>maa://30674</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="15" t="inlineStr">
         <is>
-          <t>褐果</t>
+          <t>号角</t>
         </is>
       </c>
       <c r="B241" s="15" t="inlineStr">
         <is>
-          <t>SV-3</t>
+          <t>7-15</t>
         </is>
       </c>
       <c r="C241" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D241" s="10" t="inlineStr">
         <is>
-          <t>maa://40160</t>
+          <t>maa://28923, maa://28906</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="15" t="inlineStr">
         <is>
-          <t>海蒂</t>
+          <t>号角</t>
         </is>
       </c>
       <c r="B242" s="15" t="inlineStr">
         <is>
-          <t>9-7</t>
+          <t>9-5</t>
         </is>
       </c>
       <c r="C242" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D242" s="10" t="inlineStr">
         <is>
-          <t>maa://43089</t>
+          <t>maa://42287, maa://45570, maa://42225</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="15" t="inlineStr">
         <is>
-          <t>洛洛</t>
+          <t>掠风</t>
         </is>
       </c>
       <c r="B243" s="15" t="inlineStr">
         <is>
-          <t>RI-EX-4</t>
+          <t>11-9</t>
         </is>
       </c>
       <c r="C243" s="12" t="inlineStr">
@@ -6194,41 +6194,41 @@
       </c>
       <c r="D243" s="10" t="inlineStr">
         <is>
-          <t>maa://30674</t>
+          <t>maa://39161</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="15" t="inlineStr">
         <is>
-          <t>号角</t>
+          <t>流明</t>
         </is>
       </c>
       <c r="B244" s="15" t="inlineStr">
         <is>
-          <t>7-15</t>
+          <t>6-9</t>
         </is>
       </c>
       <c r="C244" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D244" s="13" t="inlineStr">
         <is>
-          <t>maa://28923, maa://28906</t>
+          <t>maa://20923</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="15" t="inlineStr">
         <is>
-          <t>号角</t>
+          <t>流明</t>
         </is>
       </c>
       <c r="B245" s="15" t="inlineStr">
         <is>
-          <t>9-5</t>
+          <t>OF-5</t>
         </is>
       </c>
       <c r="C245" s="12" t="inlineStr">
@@ -6238,41 +6238,41 @@
       </c>
       <c r="D245" s="10" t="inlineStr">
         <is>
-          <t>maa://42287, maa://45570, maa://42225</t>
+          <t>maa://24093, maa://31559, maa://20924</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="15" t="inlineStr">
         <is>
-          <t>掠风</t>
+          <t>艾丽妮</t>
         </is>
       </c>
       <c r="B246" s="15" t="inlineStr">
         <is>
-          <t>11-9</t>
+          <t>SV-EX-1</t>
         </is>
       </c>
       <c r="C246" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D246" s="10" t="inlineStr">
         <is>
-          <t>maa://39161</t>
+          <t>maa://40958, maa://45067</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="15" t="inlineStr">
         <is>
-          <t>流明</t>
+          <t>艾丽妮</t>
         </is>
       </c>
       <c r="B247" s="15" t="inlineStr">
         <is>
-          <t>6-9</t>
+          <t>SV-4</t>
         </is>
       </c>
       <c r="C247" s="12" t="inlineStr">
@@ -6282,41 +6282,41 @@
       </c>
       <c r="D247" s="10" t="inlineStr">
         <is>
-          <t>maa://20923</t>
+          <t>maa://20840</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="15" t="inlineStr">
         <is>
-          <t>流明</t>
+          <t>归溟幽灵鲨</t>
         </is>
       </c>
       <c r="B248" s="15" t="inlineStr">
         <is>
-          <t>OF-5</t>
+          <t>SV-EX-1</t>
         </is>
       </c>
       <c r="C248" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D248" s="10" t="inlineStr">
         <is>
-          <t>maa://24093, maa://31559, maa://20924</t>
+          <t>maa://20877, maa://20836, maa://45067, maa://20632</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="15" t="inlineStr">
         <is>
-          <t>艾丽妮</t>
+          <t>归溟幽灵鲨</t>
         </is>
       </c>
       <c r="B249" s="15" t="inlineStr">
         <is>
-          <t>SV-EX-1</t>
+          <t>S4-1</t>
         </is>
       </c>
       <c r="C249" s="12" t="inlineStr">
@@ -6326,19 +6326,19 @@
       </c>
       <c r="D249" s="13" t="inlineStr">
         <is>
-          <t>maa://40958, *maa://45067</t>
+          <t>maa://20879, maa://20834</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="15" t="inlineStr">
         <is>
-          <t>艾丽妮</t>
+          <t>埃拉托</t>
         </is>
       </c>
       <c r="B250" s="15" t="inlineStr">
         <is>
-          <t>SV-4</t>
+          <t>S5-9</t>
         </is>
       </c>
       <c r="C250" s="12" t="inlineStr">
@@ -6348,41 +6348,41 @@
       </c>
       <c r="D250" s="10" t="inlineStr">
         <is>
-          <t>maa://20840</t>
+          <t>maa://20839</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="15" t="inlineStr">
         <is>
-          <t>归溟幽灵鲨</t>
+          <t>濯尘芙蓉</t>
         </is>
       </c>
       <c r="B251" s="15" t="inlineStr">
         <is>
-          <t>SV-EX-1</t>
+          <t>LE-4</t>
         </is>
       </c>
       <c r="C251" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D251" s="10" t="inlineStr">
         <is>
-          <t>maa://20877, maa://20836, *maa://45067, maa://20632</t>
+          <t>maa://30676</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="15" t="inlineStr">
         <is>
-          <t>归溟幽灵鲨</t>
+          <t>黑键</t>
         </is>
       </c>
       <c r="B252" s="15" t="inlineStr">
         <is>
-          <t>S4-1</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C252" s="12" t="inlineStr">
@@ -6392,19 +6392,19 @@
       </c>
       <c r="D252" s="10" t="inlineStr">
         <is>
-          <t>maa://20879, maa://20834</t>
+          <t>maa://31560, maa://20884</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="15" t="inlineStr">
         <is>
-          <t>埃拉托</t>
+          <t>黑键</t>
         </is>
       </c>
       <c r="B253" s="15" t="inlineStr">
         <is>
-          <t>S5-9</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="C253" s="12" t="inlineStr">
@@ -6414,19 +6414,19 @@
       </c>
       <c r="D253" s="10" t="inlineStr">
         <is>
-          <t>maa://20839</t>
+          <t>maa://47204</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="15" t="inlineStr">
         <is>
-          <t>濯尘芙蓉</t>
+          <t>黑键</t>
         </is>
       </c>
       <c r="B254" s="15" t="inlineStr">
         <is>
-          <t>LE-4</t>
+          <t>11-12</t>
         </is>
       </c>
       <c r="C254" s="12" t="inlineStr">
@@ -6436,41 +6436,41 @@
       </c>
       <c r="D254" s="10" t="inlineStr">
         <is>
-          <t>maa://30676</t>
+          <t>maa://29027</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="15" t="inlineStr">
         <is>
-          <t>黑键</t>
+          <t>星源</t>
         </is>
       </c>
       <c r="B255" s="15" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C255" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D255" s="10" t="inlineStr">
         <is>
-          <t>maa://31560, maa://20884</t>
+          <t>maa://20977</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="15" t="inlineStr">
         <is>
-          <t>黑键</t>
+          <t>承曦格雷伊</t>
         </is>
       </c>
       <c r="B256" s="15" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>1-3</t>
         </is>
       </c>
       <c r="C256" s="12" t="inlineStr">
@@ -6480,19 +6480,19 @@
       </c>
       <c r="D256" s="10" t="inlineStr">
         <is>
-          <t>maa://47204</t>
+          <t>maa://39162</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="15" t="inlineStr">
         <is>
-          <t>黑键</t>
+          <t>多萝西</t>
         </is>
       </c>
       <c r="B257" s="15" t="inlineStr">
         <is>
-          <t>11-12</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="C257" s="12" t="inlineStr">
@@ -6502,41 +6502,41 @@
       </c>
       <c r="D257" s="10" t="inlineStr">
         <is>
-          <t>maa://29027</t>
+          <t>maa://22467</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="15" t="inlineStr">
         <is>
-          <t>星源</t>
+          <t>至简</t>
         </is>
       </c>
       <c r="B258" s="15" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>IC-8</t>
         </is>
       </c>
       <c r="C258" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D258" s="10" t="inlineStr">
         <is>
-          <t>maa://20977</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="15" t="inlineStr">
         <is>
-          <t>承曦格雷伊</t>
+          <t>鸿雪</t>
         </is>
       </c>
       <c r="B259" s="15" t="inlineStr">
         <is>
-          <t>1-3</t>
+          <t>9-7</t>
         </is>
       </c>
       <c r="C259" s="12" t="inlineStr">
@@ -6546,63 +6546,63 @@
       </c>
       <c r="D259" s="10" t="inlineStr">
         <is>
-          <t>maa://39162</t>
+          <t>maa://48265</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="15" t="inlineStr">
         <is>
-          <t>多萝西</t>
+          <t>鸿雪</t>
         </is>
       </c>
       <c r="B260" s="15" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>2-10</t>
         </is>
       </c>
       <c r="C260" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D260" s="10" t="inlineStr">
         <is>
-          <t>maa://22467</t>
+          <t>*maa://20825, *maa://21445, *maa://35726</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="15" t="inlineStr">
         <is>
-          <t>至简</t>
+          <t>百炼嘉维尔</t>
         </is>
       </c>
       <c r="B261" s="15" t="inlineStr">
         <is>
-          <t>IC-8</t>
+          <t>9-2</t>
         </is>
       </c>
       <c r="C261" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D261" s="10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://25769</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="15" t="inlineStr">
         <is>
-          <t>鸿雪</t>
+          <t>但书</t>
         </is>
       </c>
       <c r="B262" s="15" t="inlineStr">
         <is>
-          <t>9-7</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="C262" s="12" t="inlineStr">
@@ -6612,41 +6612,41 @@
       </c>
       <c r="D262" s="10" t="inlineStr">
         <is>
-          <t>maa://48265</t>
+          <t>maa://20862</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="15" t="inlineStr">
         <is>
-          <t>鸿雪</t>
+          <t>罗小黑</t>
         </is>
       </c>
       <c r="B263" s="15" t="inlineStr">
         <is>
-          <t>2-10</t>
+          <t>IW-4</t>
         </is>
       </c>
       <c r="C263" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D263" s="10" t="inlineStr">
         <is>
-          <t>*maa://20825, *maa://21445, *maa://35726</t>
+          <t>maa://39163</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="15" t="inlineStr">
         <is>
-          <t>百炼嘉维尔</t>
+          <t>海沫</t>
         </is>
       </c>
       <c r="B264" s="15" t="inlineStr">
         <is>
-          <t>9-2</t>
+          <t>SN-2</t>
         </is>
       </c>
       <c r="C264" s="12" t="inlineStr">
@@ -6656,41 +6656,41 @@
       </c>
       <c r="D264" s="10" t="inlineStr">
         <is>
-          <t>maa://25769</t>
+          <t>maa://29061</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="15" t="inlineStr">
         <is>
-          <t>但书</t>
+          <t>铅踝</t>
         </is>
       </c>
       <c r="B265" s="15" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>S3-5</t>
         </is>
       </c>
       <c r="C265" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D265" s="10" t="inlineStr">
         <is>
-          <t>maa://27794, maa://45572, maa://20862</t>
+          <t>*maa://20939</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="15" t="inlineStr">
         <is>
-          <t>罗小黑</t>
+          <t>达格达</t>
         </is>
       </c>
       <c r="B266" s="15" t="inlineStr">
         <is>
-          <t>IW-4</t>
+          <t>11-5</t>
         </is>
       </c>
       <c r="C266" s="12" t="inlineStr">
@@ -6700,41 +6700,41 @@
       </c>
       <c r="D266" s="10" t="inlineStr">
         <is>
-          <t>maa://39163</t>
+          <t>maa://39164</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="15" t="inlineStr">
         <is>
-          <t>海沫</t>
+          <t>白铁</t>
         </is>
       </c>
       <c r="B267" s="15" t="inlineStr">
         <is>
-          <t>SN-2</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C267" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D267" s="10" t="inlineStr">
         <is>
-          <t>maa://29061</t>
+          <t>maa://28133, maa://33394</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="15" t="inlineStr">
         <is>
-          <t>铅踝</t>
+          <t>白铁</t>
         </is>
       </c>
       <c r="B268" s="15" t="inlineStr">
         <is>
-          <t>S3-5</t>
+          <t>9-6</t>
         </is>
       </c>
       <c r="C268" s="12" t="inlineStr">
@@ -6744,19 +6744,19 @@
       </c>
       <c r="D268" s="10" t="inlineStr">
         <is>
-          <t>*maa://20939</t>
+          <t>maa://42311</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="15" t="inlineStr">
         <is>
-          <t>达格达</t>
+          <t>石英</t>
         </is>
       </c>
       <c r="B269" s="15" t="inlineStr">
         <is>
-          <t>11-5</t>
+          <t>DH-4</t>
         </is>
       </c>
       <c r="C269" s="12" t="inlineStr">
@@ -6766,41 +6766,41 @@
       </c>
       <c r="D269" s="10" t="inlineStr">
         <is>
-          <t>maa://39164</t>
+          <t>maa://41362</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="15" t="inlineStr">
         <is>
-          <t>白铁</t>
+          <t>雪绒</t>
         </is>
       </c>
       <c r="B270" s="15" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="C270" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D270" s="10" t="inlineStr">
         <is>
-          <t>maa://28133, maa://33394</t>
+          <t>maa://20978</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="15" t="inlineStr">
         <is>
-          <t>白铁</t>
+          <t>子月</t>
         </is>
       </c>
       <c r="B271" s="15" t="inlineStr">
         <is>
-          <t>9-6</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C271" s="12" t="inlineStr">
@@ -6810,19 +6810,19 @@
       </c>
       <c r="D271" s="10" t="inlineStr">
         <is>
-          <t>maa://42311</t>
+          <t>maa://21002</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="15" t="inlineStr">
         <is>
-          <t>石英</t>
+          <t>伺夜</t>
         </is>
       </c>
       <c r="B272" s="15" t="inlineStr">
         <is>
-          <t>DH-4</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C272" s="12" t="inlineStr">
@@ -6832,41 +6832,41 @@
       </c>
       <c r="D272" s="10" t="inlineStr">
         <is>
-          <t>maa://41362</t>
+          <t>*maa://39165</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="15" t="inlineStr">
         <is>
-          <t>雪绒</t>
+          <t>伺夜</t>
         </is>
       </c>
       <c r="B273" s="15" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>IS-6</t>
         </is>
       </c>
       <c r="C273" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D273" s="10" t="inlineStr">
         <is>
-          <t>maa://20978</t>
+          <t>maa://48267, maa://48266</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="15" t="inlineStr">
         <is>
-          <t>子月</t>
+          <t>斥罪</t>
         </is>
       </c>
       <c r="B274" s="15" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>CB-4</t>
         </is>
       </c>
       <c r="C274" s="12" t="inlineStr">
@@ -6876,19 +6876,19 @@
       </c>
       <c r="D274" s="10" t="inlineStr">
         <is>
-          <t>maa://21002</t>
+          <t>maa://29635</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="15" t="inlineStr">
         <is>
-          <t>伺夜</t>
+          <t>斥罪</t>
         </is>
       </c>
       <c r="B275" s="15" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>IS-7</t>
         </is>
       </c>
       <c r="C275" s="12" t="inlineStr">
@@ -6898,19 +6898,19 @@
       </c>
       <c r="D275" s="10" t="inlineStr">
         <is>
-          <t>*maa://39165</t>
+          <t>maa://38296</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="15" t="inlineStr">
         <is>
-          <t>伺夜</t>
+          <t>缄默德克萨斯</t>
         </is>
       </c>
       <c r="B276" s="15" t="inlineStr">
         <is>
-          <t>IS-6</t>
+          <t>CB-8</t>
         </is>
       </c>
       <c r="C276" s="12" t="inlineStr">
@@ -6920,19 +6920,19 @@
       </c>
       <c r="D276" s="10" t="inlineStr">
         <is>
-          <t>maa://48267, maa://48266</t>
+          <t>maa://20899, maa://46332</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="15" t="inlineStr">
         <is>
-          <t>斥罪</t>
+          <t>和弦</t>
         </is>
       </c>
       <c r="B277" s="15" t="inlineStr">
         <is>
-          <t>CB-4</t>
+          <t>6-5</t>
         </is>
       </c>
       <c r="C277" s="12" t="inlineStr">
@@ -6942,63 +6942,63 @@
       </c>
       <c r="D277" s="10" t="inlineStr">
         <is>
-          <t>maa://29635</t>
+          <t>maa://20881</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="15" t="inlineStr">
         <is>
-          <t>斥罪</t>
+          <t>焰影苇草</t>
         </is>
       </c>
       <c r="B278" s="15" t="inlineStr">
         <is>
-          <t>IS-7</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C278" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D278" s="10" t="inlineStr">
         <is>
-          <t>maa://38296</t>
+          <t>maa://30710, maa://36845, maa://31558, maa://30668</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="15" t="inlineStr">
         <is>
-          <t>缄默德克萨斯</t>
+          <t>截云</t>
         </is>
       </c>
       <c r="B279" s="15" t="inlineStr">
         <is>
-          <t>CB-8</t>
+          <t>S2-2</t>
         </is>
       </c>
       <c r="C279" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D279" s="10" t="inlineStr">
         <is>
-          <t>maa://20899, maa://46332</t>
+          <t>maa://20902</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="15" t="inlineStr">
         <is>
-          <t>和弦</t>
+          <t>火哨</t>
         </is>
       </c>
       <c r="B280" s="15" t="inlineStr">
         <is>
-          <t>6-5</t>
+          <t>S4-6</t>
         </is>
       </c>
       <c r="C280" s="12" t="inlineStr">
@@ -7008,14 +7008,14 @@
       </c>
       <c r="D280" s="10" t="inlineStr">
         <is>
-          <t>maa://20881</t>
+          <t>maa://29159</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="15" t="inlineStr">
         <is>
-          <t>焰影苇草</t>
+          <t>林</t>
         </is>
       </c>
       <c r="B281" s="15" t="inlineStr">
@@ -7030,19 +7030,19 @@
       </c>
       <c r="D281" s="10" t="inlineStr">
         <is>
-          <t>maa://30710, maa://36845, maa://31558, maa://30668</t>
+          <t>maa://25774, maa://28133, maa://22469, **maa://31349</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="15" t="inlineStr">
         <is>
-          <t>截云</t>
+          <t>林</t>
         </is>
       </c>
       <c r="B282" s="15" t="inlineStr">
         <is>
-          <t>S2-2</t>
+          <t>6-5</t>
         </is>
       </c>
       <c r="C282" s="12" t="inlineStr">
@@ -7052,63 +7052,63 @@
       </c>
       <c r="D282" s="10" t="inlineStr">
         <is>
-          <t>maa://20902</t>
+          <t>maa://47882</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="15" t="inlineStr">
         <is>
-          <t>火哨</t>
+          <t>重岳</t>
         </is>
       </c>
       <c r="B283" s="15" t="inlineStr">
         <is>
-          <t>S4-6</t>
+          <t>WB-7</t>
         </is>
       </c>
       <c r="C283" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D283" s="10" t="inlineStr">
         <is>
-          <t>maa://29159</t>
+          <t>maa://32414, maa://32505, maa://39155</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="15" t="inlineStr">
         <is>
-          <t>林</t>
+          <t>重岳</t>
         </is>
       </c>
       <c r="B284" s="15" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>GA-5</t>
         </is>
       </c>
       <c r="C284" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D284" s="10" t="inlineStr">
         <is>
-          <t>maa://25774, maa://28133, maa://22469, **maa://31349</t>
+          <t>maa://45799</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="15" t="inlineStr">
         <is>
-          <t>林</t>
+          <t>铎铃</t>
         </is>
       </c>
       <c r="B285" s="15" t="inlineStr">
         <is>
-          <t>6-5</t>
+          <t>2-1</t>
         </is>
       </c>
       <c r="C285" s="12" t="inlineStr">
@@ -7118,14 +7118,14 @@
       </c>
       <c r="D285" s="10" t="inlineStr">
         <is>
-          <t>maa://47882</t>
+          <t>maa://42312</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="15" t="inlineStr">
         <is>
-          <t>重岳</t>
+          <t>仇白</t>
         </is>
       </c>
       <c r="B286" s="15" t="inlineStr">
@@ -7140,129 +7140,129 @@
       </c>
       <c r="D286" s="10" t="inlineStr">
         <is>
-          <t>maa://32414, maa://32505, maa://39155</t>
+          <t>maa://36642, maa://36867, maa://39155</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="15" t="inlineStr">
         <is>
-          <t>重岳</t>
+          <t>火龙S黑角</t>
         </is>
       </c>
       <c r="B287" s="15" t="inlineStr">
         <is>
-          <t>GA-5</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C287" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D287" s="10" t="inlineStr">
         <is>
-          <t>maa://45799</t>
+          <t>**maa://39166, maa://39167</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="15" t="inlineStr">
         <is>
-          <t>铎铃</t>
+          <t>麒麟R夜刀</t>
         </is>
       </c>
       <c r="B288" s="15" t="inlineStr">
         <is>
-          <t>2-1</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C288" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D288" s="10" t="inlineStr">
         <is>
-          <t>maa://42312</t>
+          <t>maa://29005, maa://31560</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="15" t="inlineStr">
         <is>
-          <t>仇白</t>
+          <t>休谟斯</t>
         </is>
       </c>
       <c r="B289" s="15" t="inlineStr">
         <is>
-          <t>WB-7</t>
+          <t>7-8</t>
         </is>
       </c>
       <c r="C289" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D289" s="10" t="inlineStr">
         <is>
-          <t>maa://36642, maa://36867, maa://39155</t>
+          <t>maa://39168</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="15" t="inlineStr">
         <is>
-          <t>火龙S黑角</t>
+          <t>摩根</t>
         </is>
       </c>
       <c r="B290" s="15" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="C290" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D290" s="10" t="inlineStr">
         <is>
-          <t>**maa://39166, maa://39167</t>
+          <t>maa://39169</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="15" t="inlineStr">
         <is>
-          <t>麒麟R夜刀</t>
+          <t>洋灰</t>
         </is>
       </c>
       <c r="B291" s="15" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>IW-EX-6</t>
         </is>
       </c>
       <c r="C291" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D291" s="10" t="inlineStr">
         <is>
-          <t>maa://29005, maa://31560</t>
+          <t>maa://39170</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="15" t="inlineStr">
         <is>
-          <t>休谟斯</t>
+          <t>玫拉</t>
         </is>
       </c>
       <c r="B292" s="15" t="inlineStr">
         <is>
-          <t>7-8</t>
+          <t>S3-5</t>
         </is>
       </c>
       <c r="C292" s="12" t="inlineStr">
@@ -7272,19 +7272,19 @@
       </c>
       <c r="D292" s="10" t="inlineStr">
         <is>
-          <t>maa://39168</t>
+          <t>maa://39171</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="15" t="inlineStr">
         <is>
-          <t>摩根</t>
+          <t>淬羽赫默</t>
         </is>
       </c>
       <c r="B293" s="15" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>6-3</t>
         </is>
       </c>
       <c r="C293" s="12" t="inlineStr">
@@ -7294,19 +7294,19 @@
       </c>
       <c r="D293" s="10" t="inlineStr">
         <is>
-          <t>maa://39169</t>
+          <t>maa://27939</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="15" t="inlineStr">
         <is>
-          <t>洋灰</t>
+          <t>霍尔海雅</t>
         </is>
       </c>
       <c r="B294" s="15" t="inlineStr">
         <is>
-          <t>IW-EX-6</t>
+          <t>OF-7</t>
         </is>
       </c>
       <c r="C294" s="12" t="inlineStr">
@@ -7316,19 +7316,19 @@
       </c>
       <c r="D294" s="10" t="inlineStr">
         <is>
-          <t>maa://39170</t>
+          <t>maa://29129</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="15" t="inlineStr">
         <is>
-          <t>玫拉</t>
+          <t>霍尔海雅</t>
         </is>
       </c>
       <c r="B295" s="15" t="inlineStr">
         <is>
-          <t>S3-5</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C295" s="12" t="inlineStr">
@@ -7338,19 +7338,19 @@
       </c>
       <c r="D295" s="10" t="inlineStr">
         <is>
-          <t>maa://39171</t>
+          <t>maa://36005</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="15" t="inlineStr">
         <is>
-          <t>淬羽赫默</t>
+          <t>缪尔赛思</t>
         </is>
       </c>
       <c r="B296" s="15" t="inlineStr">
         <is>
-          <t>6-3</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C296" s="12" t="inlineStr">
@@ -7360,19 +7360,19 @@
       </c>
       <c r="D296" s="10" t="inlineStr">
         <is>
-          <t>maa://27939</t>
+          <t>maa://35859</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="15" t="inlineStr">
         <is>
-          <t>霍尔海雅</t>
+          <t>隐现</t>
         </is>
       </c>
       <c r="B297" s="15" t="inlineStr">
         <is>
-          <t>OF-7</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C297" s="12" t="inlineStr">
@@ -7382,19 +7382,19 @@
       </c>
       <c r="D297" s="10" t="inlineStr">
         <is>
-          <t>maa://29129</t>
+          <t>**maa://39172</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="15" t="inlineStr">
         <is>
-          <t>霍尔海雅</t>
+          <t>空构</t>
         </is>
       </c>
       <c r="B298" s="15" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>DM-2</t>
         </is>
       </c>
       <c r="C298" s="12" t="inlineStr">
@@ -7404,41 +7404,41 @@
       </c>
       <c r="D298" s="10" t="inlineStr">
         <is>
-          <t>maa://36005</t>
+          <t>maa://39173</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="15" t="inlineStr">
         <is>
-          <t>缪尔赛思</t>
+          <t>圣约送葬人</t>
         </is>
       </c>
       <c r="B299" s="15" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>7-14</t>
         </is>
       </c>
       <c r="C299" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D299" s="10" t="inlineStr">
         <is>
-          <t>maa://35859</t>
+          <t>maa://25775, *maa://25393</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="15" t="inlineStr">
         <is>
-          <t>隐现</t>
+          <t>寒檀</t>
         </is>
       </c>
       <c r="B300" s="15" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>BI-2</t>
         </is>
       </c>
       <c r="C300" s="12" t="inlineStr">
@@ -7448,19 +7448,19 @@
       </c>
       <c r="D300" s="10" t="inlineStr">
         <is>
-          <t>**maa://39172</t>
+          <t>maa://40161</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="15" t="inlineStr">
         <is>
-          <t>空构</t>
+          <t>提丰</t>
         </is>
       </c>
       <c r="B301" s="15" t="inlineStr">
         <is>
-          <t>DM-2</t>
+          <t>S2-1</t>
         </is>
       </c>
       <c r="C301" s="12" t="inlineStr">
@@ -7470,41 +7470,41 @@
       </c>
       <c r="D301" s="10" t="inlineStr">
         <is>
-          <t>maa://39173</t>
+          <t>maa://25367</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="15" t="inlineStr">
         <is>
-          <t>圣约送葬人</t>
+          <t>凛视</t>
         </is>
       </c>
       <c r="B302" s="15" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>7-13</t>
         </is>
       </c>
       <c r="C302" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D302" s="10" t="inlineStr">
         <is>
-          <t>maa://25775, *maa://25393</t>
+          <t>*maa://43090</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="15" t="inlineStr">
         <is>
-          <t>寒檀</t>
+          <t>苍苔</t>
         </is>
       </c>
       <c r="B303" s="15" t="inlineStr">
         <is>
-          <t>BI-2</t>
+          <t>9-3</t>
         </is>
       </c>
       <c r="C303" s="12" t="inlineStr">
@@ -7514,19 +7514,19 @@
       </c>
       <c r="D303" s="10" t="inlineStr">
         <is>
-          <t>maa://40161</t>
+          <t>maa://28070</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="15" t="inlineStr">
         <is>
-          <t>提丰</t>
+          <t>青枳</t>
         </is>
       </c>
       <c r="B304" s="15" t="inlineStr">
         <is>
-          <t>S2-1</t>
+          <t>OF-5</t>
         </is>
       </c>
       <c r="C304" s="12" t="inlineStr">
@@ -7536,41 +7536,41 @@
       </c>
       <c r="D304" s="10" t="inlineStr">
         <is>
-          <t>maa://25367</t>
+          <t>maa://28241</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="15" t="inlineStr">
         <is>
-          <t>凛视</t>
+          <t>琳琅诗怀雅</t>
         </is>
       </c>
       <c r="B305" s="15" t="inlineStr">
         <is>
-          <t>7-13</t>
+          <t>5-2</t>
         </is>
       </c>
       <c r="C305" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D305" s="10" t="inlineStr">
         <is>
-          <t>*maa://43090</t>
+          <t>maa://25773, *maa://26088</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="15" t="inlineStr">
         <is>
-          <t>苍苔</t>
+          <t>琳琅诗怀雅</t>
         </is>
       </c>
       <c r="B306" s="15" t="inlineStr">
         <is>
-          <t>9-3</t>
+          <t>11-16</t>
         </is>
       </c>
       <c r="C306" s="12" t="inlineStr">
@@ -7580,19 +7580,19 @@
       </c>
       <c r="D306" s="10" t="inlineStr">
         <is>
-          <t>maa://28070</t>
+          <t>maa://39239</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="15" t="inlineStr">
         <is>
-          <t>青枳</t>
+          <t>纯烬艾雅法拉</t>
         </is>
       </c>
       <c r="B307" s="15" t="inlineStr">
         <is>
-          <t>OF-5</t>
+          <t>FC-5</t>
         </is>
       </c>
       <c r="C307" s="12" t="inlineStr">
@@ -7602,41 +7602,41 @@
       </c>
       <c r="D307" s="10" t="inlineStr">
         <is>
-          <t>maa://31559, maa://28241</t>
+          <t>maa://39692, maa://39810</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="15" t="inlineStr">
         <is>
-          <t>琳琅诗怀雅</t>
+          <t>冰酿</t>
         </is>
       </c>
       <c r="B308" s="15" t="inlineStr">
         <is>
-          <t>5-2</t>
+          <t>S3-3</t>
         </is>
       </c>
       <c r="C308" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D308" s="10" t="inlineStr">
         <is>
-          <t>maa://25773, *maa://26088</t>
+          <t>*maa://39174</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="15" t="inlineStr">
         <is>
-          <t>琳琅诗怀雅</t>
+          <t>杏仁</t>
         </is>
       </c>
       <c r="B309" s="15" t="inlineStr">
         <is>
-          <t>11-16</t>
+          <t>BI-2</t>
         </is>
       </c>
       <c r="C309" s="12" t="inlineStr">
@@ -7646,19 +7646,19 @@
       </c>
       <c r="D309" s="10" t="inlineStr">
         <is>
-          <t>maa://39239</t>
+          <t>maa://39175</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="15" t="inlineStr">
         <is>
-          <t>纯烬艾雅法拉</t>
+          <t>涤火杰西卡</t>
         </is>
       </c>
       <c r="B310" s="15" t="inlineStr">
         <is>
-          <t>FC-5</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C310" s="12" t="inlineStr">
@@ -7668,19 +7668,19 @@
       </c>
       <c r="D310" s="10" t="inlineStr">
         <is>
-          <t>maa://39692, maa://39810</t>
+          <t>maa://34867, maa://34715</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="15" t="inlineStr">
         <is>
-          <t>冰酿</t>
+          <t>维荻</t>
         </is>
       </c>
       <c r="B311" s="15" t="inlineStr">
         <is>
-          <t>S3-3</t>
+          <t>9-3</t>
         </is>
       </c>
       <c r="C311" s="12" t="inlineStr">
@@ -7690,19 +7690,19 @@
       </c>
       <c r="D311" s="10" t="inlineStr">
         <is>
-          <t>*maa://39174</t>
+          <t>maa://39176</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="15" t="inlineStr">
         <is>
-          <t>杏仁</t>
+          <t>戴菲恩</t>
         </is>
       </c>
       <c r="B312" s="15" t="inlineStr">
         <is>
-          <t>BI-2</t>
+          <t>WD-6</t>
         </is>
       </c>
       <c r="C312" s="12" t="inlineStr">
@@ -7712,41 +7712,41 @@
       </c>
       <c r="D312" s="10" t="inlineStr">
         <is>
-          <t>maa://39175</t>
+          <t>maa://42316</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="15" t="inlineStr">
         <is>
-          <t>涤火杰西卡</t>
+          <t>刺玫</t>
         </is>
       </c>
       <c r="B313" s="15" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>IC-2</t>
         </is>
       </c>
       <c r="C313" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D313" s="10" t="inlineStr">
         <is>
-          <t>maa://34867, maa://34715</t>
+          <t>maa://30680</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="15" t="inlineStr">
         <is>
-          <t>维荻</t>
+          <t>赫德雷</t>
         </is>
       </c>
       <c r="B314" s="15" t="inlineStr">
         <is>
-          <t>9-3</t>
+          <t>IW-7</t>
         </is>
       </c>
       <c r="C314" s="12" t="inlineStr">
@@ -7756,41 +7756,41 @@
       </c>
       <c r="D314" s="10" t="inlineStr">
         <is>
-          <t>maa://39176</t>
+          <t>maa://40956</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="15" t="inlineStr">
         <is>
-          <t>戴菲恩</t>
+          <t>深律</t>
         </is>
       </c>
       <c r="B315" s="15" t="inlineStr">
         <is>
-          <t>WD-6</t>
+          <t>LE-4</t>
         </is>
       </c>
       <c r="C315" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D315" s="10" t="inlineStr">
         <is>
-          <t>maa://42316</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="15" t="inlineStr">
         <is>
-          <t>刺玫</t>
+          <t>止颂</t>
         </is>
       </c>
       <c r="B316" s="15" t="inlineStr">
         <is>
-          <t>IC-2</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="C316" s="12" t="inlineStr">
@@ -7800,107 +7800,107 @@
       </c>
       <c r="D316" s="10" t="inlineStr">
         <is>
-          <t>maa://30680</t>
+          <t>maa://34205</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="15" t="inlineStr">
         <is>
-          <t>赫德雷</t>
+          <t>止颂</t>
         </is>
       </c>
       <c r="B317" s="15" t="inlineStr">
         <is>
-          <t>IW-7</t>
+          <t>TW-5</t>
         </is>
       </c>
       <c r="C317" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D317" s="10" t="inlineStr">
         <is>
-          <t>maa://40956</t>
+          <t>maa://43092, maa://43093</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="15" t="inlineStr">
         <is>
-          <t>深律</t>
+          <t>薇薇安娜</t>
         </is>
       </c>
       <c r="B318" s="15" t="inlineStr">
         <is>
-          <t>LE-4</t>
+          <t>MN-3</t>
         </is>
       </c>
       <c r="C318" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D318" s="10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://44234</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="15" t="inlineStr">
         <is>
-          <t>止颂</t>
+          <t>塑心</t>
         </is>
       </c>
       <c r="B319" s="15" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>GA-7</t>
         </is>
       </c>
       <c r="C319" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D319" s="10" t="inlineStr">
         <is>
-          <t>maa://34205</t>
+          <t>maa://42968, maa://49245</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="15" t="inlineStr">
         <is>
-          <t>止颂</t>
+          <t>哈洛德</t>
         </is>
       </c>
       <c r="B320" s="15" t="inlineStr">
         <is>
-          <t>TW-5</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="C320" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D320" s="10" t="inlineStr">
         <is>
-          <t>maa://43092, maa://43093</t>
+          <t>**maa://40162</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="15" t="inlineStr">
         <is>
-          <t>薇薇安娜</t>
+          <t>烈夏</t>
         </is>
       </c>
       <c r="B321" s="15" t="inlineStr">
         <is>
-          <t>MN-3</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C321" s="12" t="inlineStr">
@@ -7910,41 +7910,41 @@
       </c>
       <c r="D321" s="10" t="inlineStr">
         <is>
-          <t>maa://44234</t>
+          <t>maa://37692</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="15" t="inlineStr">
         <is>
-          <t>塑心</t>
+          <t>锏</t>
         </is>
       </c>
       <c r="B322" s="15" t="inlineStr">
         <is>
-          <t>GA-7</t>
+          <t>BI-6</t>
         </is>
       </c>
       <c r="C322" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D322" s="10" t="inlineStr">
         <is>
-          <t>maa://42968, maa://49245</t>
+          <t>maa://30671, maa://30669, maa://37275, *maa://32410, maa://41605</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="15" t="inlineStr">
         <is>
-          <t>哈洛德</t>
+          <t>莱伊</t>
         </is>
       </c>
       <c r="B323" s="15" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>S9-1</t>
         </is>
       </c>
       <c r="C323" s="12" t="inlineStr">
@@ -7954,19 +7954,19 @@
       </c>
       <c r="D323" s="10" t="inlineStr">
         <is>
-          <t>**maa://40162</t>
+          <t>maa://38295</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="15" t="inlineStr">
         <is>
-          <t>烈夏</t>
+          <t>万顷</t>
         </is>
       </c>
       <c r="B324" s="15" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="C324" s="12" t="inlineStr">
@@ -7976,41 +7976,41 @@
       </c>
       <c r="D324" s="10" t="inlineStr">
         <is>
-          <t>maa://37692</t>
+          <t>maa://32417</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="15" t="inlineStr">
         <is>
-          <t>锏</t>
+          <t>小满</t>
         </is>
       </c>
       <c r="B325" s="15" t="inlineStr">
         <is>
-          <t>BI-6</t>
+          <t>9-11</t>
         </is>
       </c>
       <c r="C325" s="12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D325" s="10" t="inlineStr">
         <is>
-          <t>maa://30671, maa://30669, maa://37275, *maa://32410, maa://41605, maa://33671</t>
+          <t>maa://32419</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="15" t="inlineStr">
         <is>
-          <t>莱伊</t>
+          <t>左乐</t>
         </is>
       </c>
       <c r="B326" s="15" t="inlineStr">
         <is>
-          <t>S9-1</t>
+          <t>WB-5</t>
         </is>
       </c>
       <c r="C326" s="12" t="inlineStr">
@@ -8020,19 +8020,19 @@
       </c>
       <c r="D326" s="10" t="inlineStr">
         <is>
-          <t>maa://38295</t>
+          <t>maa://32416</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="15" t="inlineStr">
         <is>
-          <t>万顷</t>
+          <t>左乐</t>
         </is>
       </c>
       <c r="B327" s="15" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>RI-7</t>
         </is>
       </c>
       <c r="C327" s="12" t="inlineStr">
@@ -8042,41 +8042,41 @@
       </c>
       <c r="D327" s="10" t="inlineStr">
         <is>
-          <t>maa://32417</t>
+          <t>maa://45800</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="15" t="inlineStr">
         <is>
-          <t>小满</t>
+          <t>黍</t>
         </is>
       </c>
       <c r="B328" s="15" t="inlineStr">
         <is>
-          <t>9-11</t>
+          <t>11-11</t>
         </is>
       </c>
       <c r="C328" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D328" s="10" t="inlineStr">
         <is>
-          <t>maa://32419</t>
+          <t>maa://32647, maa://32415, maa://34677, maa://32892, maa://32653, **maa://47851</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="15" t="inlineStr">
         <is>
-          <t>左乐</t>
+          <t>红隼</t>
         </is>
       </c>
       <c r="B329" s="15" t="inlineStr">
         <is>
-          <t>WB-5</t>
+          <t>11-18</t>
         </is>
       </c>
       <c r="C329" s="12" t="inlineStr">
@@ -8086,19 +8086,19 @@
       </c>
       <c r="D329" s="10" t="inlineStr">
         <is>
-          <t>maa://32416</t>
+          <t>maa://32420</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="15" t="inlineStr">
         <is>
-          <t>左乐</t>
+          <t>导火索</t>
         </is>
       </c>
       <c r="B330" s="15" t="inlineStr">
         <is>
-          <t>RI-7</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C330" s="12" t="inlineStr">
@@ -8108,41 +8108,41 @@
       </c>
       <c r="D330" s="10" t="inlineStr">
         <is>
-          <t>maa://45800</t>
+          <t>maa://35606</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="12" t="inlineStr">
         <is>
-          <t>黍</t>
+          <t>双月</t>
         </is>
       </c>
       <c r="B331" s="12" t="inlineStr">
         <is>
-          <t>11-11</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C331" s="12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D331" s="13" t="inlineStr">
         <is>
-          <t>maa://32647, maa://32415, maa://34677, maa://32892, **maa://47851</t>
+          <t>maa://34716</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="12" t="inlineStr">
         <is>
-          <t>红隼</t>
+          <t>医生</t>
         </is>
       </c>
       <c r="B332" s="12" t="inlineStr">
         <is>
-          <t>11-18</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C332" s="12" t="inlineStr">
@@ -8152,41 +8152,41 @@
       </c>
       <c r="D332" s="13" t="inlineStr">
         <is>
-          <t>maa://32420</t>
+          <t>maa://39179</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="12" t="inlineStr">
         <is>
-          <t>导火索</t>
+          <t>艾拉</t>
         </is>
       </c>
       <c r="B333" s="12" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>DM-EX-1</t>
         </is>
       </c>
       <c r="C333" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D333" s="13" t="inlineStr">
         <is>
-          <t>maa://35606</t>
+          <t>maa://34865, maa://34717, *maa://45066</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="12" t="inlineStr">
         <is>
-          <t>双月</t>
+          <t>露托</t>
         </is>
       </c>
       <c r="B334" s="12" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C334" s="12" t="inlineStr">
@@ -8196,124 +8196,124 @@
       </c>
       <c r="D334" s="13" t="inlineStr">
         <is>
-          <t>maa://34716</t>
+          <t>maa://39180</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="12" t="inlineStr">
         <is>
-          <t>医生</t>
+          <t>奥达</t>
         </is>
       </c>
       <c r="B335" s="12" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C335" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D335" s="13" t="inlineStr">
         <is>
-          <t>maa://39179</t>
+          <t>maa://45834, maa://45833</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="12" t="inlineStr">
         <is>
-          <t>艾拉</t>
+          <t>阿罗玛</t>
         </is>
       </c>
       <c r="B336" s="12" t="inlineStr">
         <is>
-          <t>DM-EX-1</t>
+          <t>GT-HX-3</t>
         </is>
       </c>
       <c r="C336" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D336" s="13" t="inlineStr">
         <is>
-          <t>maa://34865, maa://34717, *maa://45066</t>
+          <t>maa://39181</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="12" t="inlineStr">
         <is>
-          <t>露托</t>
+          <t>阿斯卡纶</t>
         </is>
       </c>
       <c r="B337" s="12" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C337" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D337" s="13" t="inlineStr">
         <is>
-          <t>maa://39180</t>
+          <t>maa://36868, maa://35996, maa://47349</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="12" t="inlineStr">
         <is>
-          <t>奥达</t>
+          <t>历阵锐枪芬</t>
         </is>
       </c>
       <c r="B338" s="12" t="inlineStr">
         <is>
-          <t>S3-6</t>
+          <t>4-2</t>
         </is>
       </c>
       <c r="C338" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>maa://45834, maa://45833</t>
+          <t>maa://36647</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="12" t="inlineStr">
         <is>
-          <t>阿罗玛</t>
+          <t>魔王</t>
         </is>
       </c>
       <c r="B339" s="12" t="inlineStr">
         <is>
-          <t>GT-HX-3</t>
+          <t>14-5</t>
         </is>
       </c>
       <c r="C339" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>maa://39181</t>
+          <t>maa://42299, *maa://42224</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="12" t="inlineStr">
         <is>
-          <t>阿斯卡纶</t>
+          <t>逻各斯</t>
         </is>
       </c>
       <c r="B340" s="12" t="inlineStr">
@@ -8328,129 +8328,129 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>maa://36868, maa://35996</t>
+          <t>maa://36646, maa://36845</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="12" t="inlineStr">
         <is>
-          <t>历阵锐枪芬</t>
+          <t>维什戴尔</t>
         </is>
       </c>
       <c r="B341" s="12" t="inlineStr">
         <is>
-          <t>4-2</t>
+          <t>DM-5</t>
         </is>
       </c>
       <c r="C341" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>maa://36647</t>
+          <t>maa://36645, maa://36841, maa://37484, maa://37858, maa://40489</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="12" t="inlineStr">
         <is>
-          <t>魔王</t>
+          <t>阿米娅(医疗)</t>
         </is>
       </c>
       <c r="B342" s="12" t="inlineStr">
         <is>
-          <t>14-5</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C342" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>maa://42299, *maa://42224, maa://48876</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="12" t="inlineStr">
         <is>
-          <t>逻各斯</t>
+          <t>深巡</t>
         </is>
       </c>
       <c r="B343" s="12" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>SN-5</t>
         </is>
       </c>
       <c r="C343" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>maa://36646, maa://36845</t>
+          <t>maa://39183</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="12" t="inlineStr">
         <is>
-          <t>维什戴尔</t>
+          <t>海霓</t>
         </is>
       </c>
       <c r="B344" s="12" t="inlineStr">
         <is>
-          <t>DM-5</t>
+          <t>SV-4</t>
         </is>
       </c>
       <c r="C344" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>maa://36645, maa://36841, maa://37484, maa://37858</t>
+          <t>maa://39184</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="12" t="inlineStr">
         <is>
-          <t>阿米娅(医疗)</t>
+          <t>乌尔比安</t>
         </is>
       </c>
       <c r="B345" s="12" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>SV-6</t>
         </is>
       </c>
       <c r="C345" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>maa://42635</t>
+          <t>maa://40957, maa://44635, maa://41035, maa://41128, maa://44660, maa://48026</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="12" t="inlineStr">
         <is>
-          <t>深巡</t>
+          <t>渡桥</t>
         </is>
       </c>
       <c r="B346" s="12" t="inlineStr">
         <is>
-          <t>SN-5</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C346" s="12" t="inlineStr">
@@ -8460,19 +8460,19 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>maa://39183</t>
+          <t>maa://40164</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="12" t="inlineStr">
         <is>
-          <t>海霓</t>
+          <t>锡人</t>
         </is>
       </c>
       <c r="B347" s="12" t="inlineStr">
         <is>
-          <t>SV-4</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C347" s="12" t="inlineStr">
@@ -8482,41 +8482,41 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>maa://39184</t>
+          <t>maa://48268</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="12" t="inlineStr">
         <is>
-          <t>乌尔比安</t>
+          <t>衡沙</t>
         </is>
       </c>
       <c r="B348" s="12" t="inlineStr">
         <is>
-          <t>SV-6</t>
+          <t>DV-2</t>
         </is>
       </c>
       <c r="C348" s="12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>maa://40957, maa://44635, maa://41035, maa://41128, maa://44660, maa://48026</t>
+          <t>maa://40165</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="12" t="inlineStr">
         <is>
-          <t>渡桥</t>
+          <t>佩佩</t>
         </is>
       </c>
       <c r="B349" s="12" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C349" s="12" t="inlineStr">
@@ -8526,19 +8526,19 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>maa://40164</t>
+          <t>maa://45798</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="12" t="inlineStr">
         <is>
-          <t>锡人</t>
+          <t>森西</t>
         </is>
       </c>
       <c r="B350" s="12" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>1-12</t>
         </is>
       </c>
       <c r="C350" s="12" t="inlineStr">
@@ -8548,129 +8548,129 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>maa://48268</t>
+          <t>maa://42331</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="12" t="inlineStr">
         <is>
-          <t>衡沙</t>
+          <t>齐尔查克</t>
         </is>
       </c>
       <c r="B351" s="12" t="inlineStr">
         <is>
-          <t>DV-2</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C351" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>maa://40165</t>
+          <t>maa://42333, maa://41977</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="12" t="inlineStr">
         <is>
-          <t>佩佩</t>
+          <t>莱欧斯</t>
         </is>
       </c>
       <c r="B352" s="12" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="C352" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>maa://45798</t>
+          <t>maa://42338, maa://41976</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="12" t="inlineStr">
         <is>
-          <t>森西</t>
+          <t>玛露西尔</t>
         </is>
       </c>
       <c r="B353" s="12" t="inlineStr">
         <is>
-          <t>1-12</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C353" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>maa://42331</t>
+          <t>maa://41110, maa://45605</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="12" t="inlineStr">
         <is>
-          <t>齐尔查克</t>
+          <t>凯瑟琳</t>
         </is>
       </c>
       <c r="B354" s="12" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>11-7</t>
         </is>
       </c>
       <c r="C354" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>maa://42333, maa://41977</t>
+          <t>maa://42343</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="12" t="inlineStr">
         <is>
-          <t>莱欧斯</t>
+          <t>波卜</t>
         </is>
       </c>
       <c r="B355" s="12" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="C355" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>maa://42338, maa://41976</t>
+          <t>maa://43095</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="12" t="inlineStr">
         <is>
-          <t>玛露西尔</t>
+          <t>维娜·维多利亚</t>
         </is>
       </c>
       <c r="B356" s="12" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>9-5</t>
         </is>
       </c>
       <c r="C356" s="12" t="inlineStr">
@@ -8680,19 +8680,19 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>maa://41110, maa://45605</t>
+          <t>maa://44233, maa://45570</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="12" t="inlineStr">
         <is>
-          <t>凯瑟琳</t>
+          <t>裁度</t>
         </is>
       </c>
       <c r="B357" s="12" t="inlineStr">
         <is>
-          <t>11-7</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="C357" s="12" t="inlineStr">
@@ -8702,19 +8702,19 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>maa://42343</t>
+          <t>maa://43097</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="12" t="inlineStr">
         <is>
-          <t>波卜</t>
+          <t>弑君者</t>
         </is>
       </c>
       <c r="B358" s="12" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>4-4</t>
         </is>
       </c>
       <c r="C358" s="12" t="inlineStr">
@@ -8724,19 +8724,19 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>maa://43095</t>
+          <t>maa://43872</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="12" t="inlineStr">
         <is>
-          <t>维娜·维多利亚</t>
+          <t>忍冬</t>
         </is>
       </c>
       <c r="B359" s="12" t="inlineStr">
         <is>
-          <t>9-5</t>
+          <t>S2-3</t>
         </is>
       </c>
       <c r="C359" s="12" t="inlineStr">
@@ -8746,63 +8746,63 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>maa://44233</t>
+          <t>maa://43875</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="12" t="inlineStr">
         <is>
-          <t>裁度</t>
+          <t>荒芜拉普兰德</t>
         </is>
       </c>
       <c r="B360" s="12" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>IS-8</t>
         </is>
       </c>
       <c r="C360" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>maa://43097</t>
+          <t>maa://42970, maa://44745, maa://45952, maa://44896</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="12" t="inlineStr">
         <is>
-          <t>弑君者</t>
+          <t>瑰盐</t>
         </is>
       </c>
       <c r="B361" s="12" t="inlineStr">
         <is>
-          <t>4-4</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C361" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>maa://43872, maa://39153</t>
+          <t>maa://44389</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="12" t="inlineStr">
         <is>
-          <t>忍冬</t>
+          <t>引星棘刺</t>
         </is>
       </c>
       <c r="B362" s="12" t="inlineStr">
         <is>
-          <t>S2-3</t>
+          <t>OF-7</t>
         </is>
       </c>
       <c r="C362" s="12" t="inlineStr">
@@ -8812,63 +8812,63 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>maa://43875</t>
+          <t>maa://48113</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="12" t="inlineStr">
         <is>
-          <t>荒芜拉普兰德</t>
+          <t>行箸</t>
         </is>
       </c>
       <c r="B363" s="12" t="inlineStr">
         <is>
-          <t>IS-8</t>
+          <t>3-2</t>
         </is>
       </c>
       <c r="C363" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>maa://42970, maa://44745, maa://45952, maa://44896</t>
+          <t>maa://45807</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="12" t="inlineStr">
         <is>
-          <t>瑰盐</t>
+          <t>诺威尔</t>
         </is>
       </c>
       <c r="B364" s="12" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="C364" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>maa://44389</t>
+          <t>maa://47175, maa://47174</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="12" t="inlineStr">
         <is>
-          <t>引星棘刺</t>
+          <t>隐德来希</t>
         </is>
       </c>
       <c r="B365" s="12" t="inlineStr">
         <is>
-          <t>OF-7</t>
+          <t>10-12</t>
         </is>
       </c>
       <c r="C365" s="12" t="inlineStr">
@@ -8878,19 +8878,19 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>maa://48113</t>
+          <t>maa://47023</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="12" t="inlineStr">
         <is>
-          <t>行箸</t>
+          <t>钼铅</t>
         </is>
       </c>
       <c r="B366" s="12" t="inlineStr">
         <is>
-          <t>3-2</t>
+          <t>9-6</t>
         </is>
       </c>
       <c r="C366" s="12" t="inlineStr">
@@ -8900,7 +8900,7 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>maa://45807</t>
+          <t>maa://48618</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.04.05 17:12:18</t>
+          <t>更新日期：2025.04.05 17:33:18</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -4529,7 +4529,7 @@
     <row r="168">
       <c r="A168" s="15" t="inlineStr">
         <is>
-          <t>阿米娅(近卫)</t>
+          <t>阿米娅</t>
         </is>
       </c>
       <c r="B168" s="15" t="inlineStr">
@@ -4539,12 +4539,12 @@
       </c>
       <c r="C168" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D168" s="10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://45556</t>
         </is>
       </c>
     </row>
@@ -8357,7 +8357,7 @@
     <row r="342">
       <c r="A342" s="12" t="inlineStr">
         <is>
-          <t>阿米娅(医疗)</t>
+          <t>阿米娅</t>
         </is>
       </c>
       <c r="B342" s="12" t="inlineStr">
@@ -8367,12 +8367,12 @@
       </c>
       <c r="C342" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://42635</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -463,7 +463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB369"/>
+  <dimension ref="A1:AB376"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.04.05 17:33:18</t>
+          <t>更新日期：2025.04.12 13:18:33</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -4507,34 +4507,34 @@
     <row r="167">
       <c r="A167" s="15" t="inlineStr">
         <is>
-          <t>迷迭香</t>
+          <t>泥岩</t>
         </is>
       </c>
       <c r="B167" s="15" t="inlineStr">
         <is>
-          <t>4-1</t>
+          <t>10-16</t>
         </is>
       </c>
       <c r="C167" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D167" s="10" t="inlineStr">
         <is>
-          <t>maa://29059</t>
+          <t>maa://49655, maa://49867</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="15" t="inlineStr">
         <is>
-          <t>阿米娅</t>
+          <t>迷迭香</t>
         </is>
       </c>
       <c r="B168" s="15" t="inlineStr">
         <is>
-          <t>2-10</t>
+          <t>4-1</t>
         </is>
       </c>
       <c r="C168" s="12" t="inlineStr">
@@ -4544,19 +4544,19 @@
       </c>
       <c r="D168" s="10" t="inlineStr">
         <is>
-          <t>maa://45556</t>
+          <t>maa://29059</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="15" t="inlineStr">
         <is>
-          <t>松果</t>
+          <t>阿米娅</t>
         </is>
       </c>
       <c r="B169" s="15" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>2-10</t>
         </is>
       </c>
       <c r="C169" s="12" t="inlineStr">
@@ -4566,19 +4566,19 @@
       </c>
       <c r="D169" s="10" t="inlineStr">
         <is>
-          <t>maa://40159</t>
+          <t>maa://45556</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="15" t="inlineStr">
         <is>
-          <t>罗宾</t>
+          <t>松果</t>
         </is>
       </c>
       <c r="B170" s="15" t="inlineStr">
         <is>
-          <t>BI-EX-2</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="C170" s="12" t="inlineStr">
@@ -4588,19 +4588,19 @@
       </c>
       <c r="D170" s="10" t="inlineStr">
         <is>
-          <t>maa://39152</t>
+          <t>maa://40159</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="15" t="inlineStr">
         <is>
-          <t>卡夫卡</t>
+          <t>罗宾</t>
         </is>
       </c>
       <c r="B171" s="15" t="inlineStr">
         <is>
-          <t>2-7</t>
+          <t>BI-EX-2</t>
         </is>
       </c>
       <c r="C171" s="12" t="inlineStr">
@@ -4610,19 +4610,19 @@
       </c>
       <c r="D171" s="10" t="inlineStr">
         <is>
-          <t>*maa://20905</t>
+          <t>maa://39152</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="15" t="inlineStr">
         <is>
-          <t>山</t>
+          <t>卡夫卡</t>
         </is>
       </c>
       <c r="B172" s="15" t="inlineStr">
         <is>
-          <t>MB-EX-3</t>
+          <t>2-7</t>
         </is>
       </c>
       <c r="C172" s="12" t="inlineStr">
@@ -4632,19 +4632,19 @@
       </c>
       <c r="D172" s="10" t="inlineStr">
         <is>
-          <t>maa://32418</t>
+          <t>*maa://20905</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="15" t="inlineStr">
         <is>
-          <t>豆苗</t>
+          <t>山</t>
         </is>
       </c>
       <c r="B173" s="15" t="inlineStr">
         <is>
-          <t>S3-7</t>
+          <t>MB-EX-3</t>
         </is>
       </c>
       <c r="C173" s="12" t="inlineStr">
@@ -4654,19 +4654,19 @@
       </c>
       <c r="D173" s="10" t="inlineStr">
         <is>
-          <t>maa://37690</t>
+          <t>maa://32418</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="15" t="inlineStr">
         <is>
-          <t>爱丽丝</t>
+          <t>豆苗</t>
         </is>
       </c>
       <c r="B174" s="15" t="inlineStr">
         <is>
-          <t>2-2</t>
+          <t>S3-7</t>
         </is>
       </c>
       <c r="C174" s="12" t="inlineStr">
@@ -4676,19 +4676,19 @@
       </c>
       <c r="D174" s="10" t="inlineStr">
         <is>
-          <t>maa://20842</t>
+          <t>maa://37690</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="15" t="inlineStr">
         <is>
-          <t>空弦</t>
+          <t>爱丽丝</t>
         </is>
       </c>
       <c r="B175" s="15" t="inlineStr">
         <is>
-          <t>SV-4</t>
+          <t>2-2</t>
         </is>
       </c>
       <c r="C175" s="12" t="inlineStr">
@@ -4698,7 +4698,7 @@
       </c>
       <c r="D175" s="10" t="inlineStr">
         <is>
-          <t>maa://20912</t>
+          <t>maa://20842</t>
         </is>
       </c>
     </row>
@@ -4710,51 +4710,51 @@
       </c>
       <c r="B176" s="15" t="inlineStr">
         <is>
-          <t>2-9</t>
+          <t>SV-4</t>
         </is>
       </c>
       <c r="C176" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D176" s="10" t="inlineStr">
         <is>
-          <t>maa://20911, *maa://29012</t>
+          <t>maa://20912</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="15" t="inlineStr">
         <is>
-          <t>图耶</t>
+          <t>空弦</t>
         </is>
       </c>
       <c r="B177" s="15" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>2-9</t>
         </is>
       </c>
       <c r="C177" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D177" s="10" t="inlineStr">
         <is>
-          <t>maa://20964</t>
+          <t>maa://20911, *maa://29012</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="15" t="inlineStr">
         <is>
-          <t>炎狱炎熔</t>
+          <t>图耶</t>
         </is>
       </c>
       <c r="B178" s="15" t="inlineStr">
         <is>
-          <t>WR-4</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C178" s="12" t="inlineStr">
@@ -4764,51 +4764,51 @@
       </c>
       <c r="D178" s="10" t="inlineStr">
         <is>
-          <t>maa://20983</t>
+          <t>maa://20964</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="15" t="inlineStr">
         <is>
-          <t>乌有</t>
+          <t>炎狱炎熔</t>
         </is>
       </c>
       <c r="B179" s="15" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>WR-4</t>
         </is>
       </c>
       <c r="C179" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D179" s="10" t="inlineStr">
         <is>
-          <t>maa://31560, **maa://20968</t>
+          <t>maa://20983</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="15" t="inlineStr">
         <is>
-          <t>嵯峨</t>
+          <t>乌有</t>
         </is>
       </c>
       <c r="B180" s="15" t="inlineStr">
         <is>
-          <t>WR-3</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C180" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D180" s="10" t="inlineStr">
         <is>
-          <t>maa://28104</t>
+          <t>maa://31560, **maa://20968</t>
         </is>
       </c>
     </row>
@@ -4820,7 +4820,7 @@
       </c>
       <c r="B181" s="15" t="inlineStr">
         <is>
-          <t>WR-1</t>
+          <t>WR-3</t>
         </is>
       </c>
       <c r="C181" s="12" t="inlineStr">
@@ -4830,19 +4830,19 @@
       </c>
       <c r="D181" s="10" t="inlineStr">
         <is>
-          <t>maa://20861</t>
+          <t>maa://28104</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="15" t="inlineStr">
         <is>
-          <t>夕</t>
+          <t>嵯峨</t>
         </is>
       </c>
       <c r="B182" s="15" t="inlineStr">
         <is>
-          <t>1-6</t>
+          <t>WR-1</t>
         </is>
       </c>
       <c r="C182" s="12" t="inlineStr">
@@ -4852,7 +4852,7 @@
       </c>
       <c r="D182" s="10" t="inlineStr">
         <is>
-          <t>maa://20970</t>
+          <t>maa://20861</t>
         </is>
       </c>
     </row>
@@ -4864,51 +4864,51 @@
       </c>
       <c r="B183" s="15" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>1-6</t>
         </is>
       </c>
       <c r="C183" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D183" s="10" t="inlineStr">
         <is>
-          <t>maa://20969, maa://41303</t>
+          <t>maa://20970</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="15" t="inlineStr">
         <is>
-          <t>战车</t>
+          <t>夕</t>
         </is>
       </c>
       <c r="B184" s="15" t="inlineStr">
         <is>
-          <t>S2-3</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C184" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D184" s="10" t="inlineStr">
         <is>
-          <t>maa://20999</t>
+          <t>maa://20969, maa://41303</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="15" t="inlineStr">
         <is>
-          <t>闪击</t>
+          <t>战车</t>
         </is>
       </c>
       <c r="B185" s="15" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>S2-3</t>
         </is>
       </c>
       <c r="C185" s="12" t="inlineStr">
@@ -4918,19 +4918,19 @@
       </c>
       <c r="D185" s="10" t="inlineStr">
         <is>
-          <t>maa://35198</t>
+          <t>maa://20999</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="15" t="inlineStr">
         <is>
-          <t>霜华</t>
+          <t>闪击</t>
         </is>
       </c>
       <c r="B186" s="15" t="inlineStr">
         <is>
-          <t>4-4</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C186" s="12" t="inlineStr">
@@ -4940,29 +4940,29 @@
       </c>
       <c r="D186" s="10" t="inlineStr">
         <is>
-          <t>maa://39153</t>
+          <t>maa://35198</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="15" t="inlineStr">
         <is>
-          <t>灰烬</t>
+          <t>霜华</t>
         </is>
       </c>
       <c r="B187" s="15" t="inlineStr">
         <is>
-          <t>SV-8</t>
+          <t>4-4</t>
         </is>
       </c>
       <c r="C187" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D187" s="10" t="inlineStr">
         <is>
-          <t>maa://34866, maa://34714</t>
+          <t>maa://39153</t>
         </is>
       </c>
     </row>
@@ -4974,7 +4974,7 @@
       </c>
       <c r="B188" s="15" t="inlineStr">
         <is>
-          <t>1-12</t>
+          <t>SV-8</t>
         </is>
       </c>
       <c r="C188" s="12" t="inlineStr">
@@ -4984,41 +4984,41 @@
       </c>
       <c r="D188" s="10" t="inlineStr">
         <is>
-          <t>maa://34883, maa://20895</t>
+          <t>maa://34866, maa://34714</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="15" t="inlineStr">
         <is>
-          <t>暴雨</t>
+          <t>灰烬</t>
         </is>
       </c>
       <c r="B189" s="15" t="inlineStr">
         <is>
-          <t>2-7</t>
+          <t>1-12</t>
         </is>
       </c>
       <c r="C189" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D189" s="10" t="inlineStr">
         <is>
-          <t>maa://20853</t>
+          <t>maa://34883, maa://20895</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="15" t="inlineStr">
         <is>
-          <t>熔泉</t>
+          <t>暴雨</t>
         </is>
       </c>
       <c r="B190" s="15" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>2-7</t>
         </is>
       </c>
       <c r="C190" s="12" t="inlineStr">
@@ -5028,19 +5028,19 @@
       </c>
       <c r="D190" s="10" t="inlineStr">
         <is>
-          <t>maa://20942</t>
+          <t>maa://20853</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="15" t="inlineStr">
         <is>
-          <t>异客</t>
+          <t>熔泉</t>
         </is>
       </c>
       <c r="B191" s="15" t="inlineStr">
         <is>
-          <t>2-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C191" s="12" t="inlineStr">
@@ -5050,7 +5050,7 @@
       </c>
       <c r="D191" s="10" t="inlineStr">
         <is>
-          <t>maa://20992</t>
+          <t>maa://20942</t>
         </is>
       </c>
     </row>
@@ -5062,61 +5062,61 @@
       </c>
       <c r="B192" s="15" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>2-2</t>
         </is>
       </c>
       <c r="C192" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D192" s="10" t="inlineStr">
         <is>
-          <t>*maa://28190, maa://20994</t>
+          <t>maa://20992</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="15" t="inlineStr">
         <is>
-          <t>赤冬</t>
+          <t>异客</t>
         </is>
       </c>
       <c r="B193" s="15" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C193" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D193" s="10" t="inlineStr">
         <is>
-          <t>maa://20860</t>
+          <t>*maa://28190, maa://20994</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="15" t="inlineStr">
         <is>
-          <t>歌蕾蒂娅</t>
+          <t>赤冬</t>
         </is>
       </c>
       <c r="B194" s="15" t="inlineStr">
         <is>
-          <t>SV-EX-5</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C194" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D194" s="10" t="inlineStr">
         <is>
-          <t>maa://44224, *maa://35854, maa://25760, **maa://20872</t>
+          <t>maa://20860</t>
         </is>
       </c>
     </row>
@@ -5128,39 +5128,39 @@
       </c>
       <c r="B195" s="15" t="inlineStr">
         <is>
-          <t>SN-EX-3</t>
+          <t>SV-EX-5</t>
         </is>
       </c>
       <c r="C195" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D195" s="10" t="inlineStr">
         <is>
-          <t>maa://39156, *maa://39550</t>
+          <t>maa://44224, *maa://35854, maa://25760, **maa://20872</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="15" t="inlineStr">
         <is>
-          <t>凯尔希</t>
+          <t>歌蕾蒂娅</t>
         </is>
       </c>
       <c r="B196" s="15" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>SN-EX-3</t>
         </is>
       </c>
       <c r="C196" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D196" s="10" t="inlineStr">
         <is>
-          <t>maa://27823, *maa://28190, maa://22894, *maa://20906</t>
+          <t>maa://39156, *maa://39550</t>
         </is>
       </c>
     </row>
@@ -5189,29 +5189,29 @@
     <row r="198">
       <c r="A198" s="15" t="inlineStr">
         <is>
-          <t>浊心斯卡蒂</t>
+          <t>凯尔希</t>
         </is>
       </c>
       <c r="B198" s="15" t="inlineStr">
         <is>
-          <t>SV-5</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C198" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D198" s="10" t="inlineStr">
         <is>
-          <t>maa://42223, maa://42292, maa://42402</t>
+          <t>maa://27823, *maa://28190, maa://22894, *maa://20906</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="15" t="inlineStr">
         <is>
-          <t>深靛</t>
+          <t>浊心斯卡蒂</t>
         </is>
       </c>
       <c r="B199" s="15" t="inlineStr">
@@ -5221,24 +5221,24 @@
       </c>
       <c r="C199" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D199" s="10" t="inlineStr">
         <is>
-          <t>maa://39154</t>
+          <t>maa://42223, maa://42292, maa://42402, maa://49077</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="15" t="inlineStr">
         <is>
-          <t>贝娜</t>
+          <t>深靛</t>
         </is>
       </c>
       <c r="B200" s="15" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>SV-5</t>
         </is>
       </c>
       <c r="C200" s="12" t="inlineStr">
@@ -5248,19 +5248,19 @@
       </c>
       <c r="D200" s="10" t="inlineStr">
         <is>
-          <t>maa://20854</t>
+          <t>maa://39154</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="15" t="inlineStr">
         <is>
-          <t>卡涅利安</t>
+          <t>贝娜</t>
         </is>
       </c>
       <c r="B201" s="15" t="inlineStr">
         <is>
-          <t>7-3</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="C201" s="12" t="inlineStr">
@@ -5270,102 +5270,102 @@
       </c>
       <c r="D201" s="10" t="inlineStr">
         <is>
-          <t>maa://22468</t>
+          <t>maa://20854</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="15" t="inlineStr">
         <is>
-          <t>卡涅利安</t>
+          <t>绮良</t>
         </is>
       </c>
       <c r="B202" s="15" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C202" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D202" s="10" t="inlineStr">
         <is>
-          <t>maa://30673, maa://30672</t>
+          <t>maa://20937</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="15" t="inlineStr">
         <is>
-          <t>帕拉斯</t>
+          <t>卡涅利安</t>
         </is>
       </c>
       <c r="B203" s="15" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>7-3</t>
         </is>
       </c>
       <c r="C203" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D203" s="10" t="inlineStr">
         <is>
-          <t>maa://20934, maa://20827, maa://20828</t>
+          <t>maa://22468</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="15" t="inlineStr">
         <is>
-          <t>帕拉斯</t>
+          <t>卡涅利安</t>
         </is>
       </c>
       <c r="B204" s="15" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C204" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D204" s="10" t="inlineStr">
         <is>
-          <t>maa://20935</t>
+          <t>maa://30673, maa://30672</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="15" t="inlineStr">
         <is>
-          <t>羽毛笔</t>
+          <t>帕拉斯</t>
         </is>
       </c>
       <c r="B205" s="15" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="C205" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D205" s="10" t="inlineStr">
         <is>
-          <t>maa://28133, maa://25369</t>
+          <t>maa://20934, maa://20827, maa://20828</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="15" t="inlineStr">
         <is>
-          <t>水月</t>
+          <t>帕拉斯</t>
         </is>
       </c>
       <c r="B206" s="15" t="inlineStr">
@@ -5375,68 +5375,68 @@
       </c>
       <c r="C206" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D206" s="13" t="inlineStr">
         <is>
-          <t>maa://20956, *maa://20830, maa://44703</t>
+          <t>maa://20935</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="15" t="inlineStr">
         <is>
-          <t>水月</t>
+          <t>羽毛笔</t>
         </is>
       </c>
       <c r="B207" s="15" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C207" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D207" s="10" t="inlineStr">
         <is>
-          <t>*maa://20955</t>
+          <t>maa://28133, maa://25369</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="15" t="inlineStr">
         <is>
-          <t>假日威龙陈</t>
+          <t>水月</t>
         </is>
       </c>
       <c r="B208" s="15" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C208" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D208" s="10" t="inlineStr">
         <is>
-          <t>maa://39238</t>
+          <t>maa://20956, *maa://20830, maa://44703</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="15" t="inlineStr">
         <is>
-          <t>罗比菈塔</t>
+          <t>水月</t>
         </is>
       </c>
       <c r="B209" s="15" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="C209" s="12" t="inlineStr">
@@ -5446,19 +5446,19 @@
       </c>
       <c r="D209" s="10" t="inlineStr">
         <is>
-          <t>maa://45261</t>
+          <t>*maa://20955</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="15" t="inlineStr">
         <is>
-          <t>桑葚</t>
+          <t>假日威龙陈</t>
         </is>
       </c>
       <c r="B210" s="15" t="inlineStr">
         <is>
-          <t>SV-5</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="C210" s="12" t="inlineStr">
@@ -5468,41 +5468,41 @@
       </c>
       <c r="D210" s="10" t="inlineStr">
         <is>
-          <t>maa://39694</t>
+          <t>maa://39238</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="15" t="inlineStr">
         <is>
-          <t>琴柳</t>
+          <t>罗比菈塔</t>
         </is>
       </c>
       <c r="B211" s="15" t="inlineStr">
         <is>
-          <t>9-2</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C211" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D211" s="10" t="inlineStr">
         <is>
-          <t>maa://24636, maa://25778</t>
+          <t>maa://45261</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="15" t="inlineStr">
         <is>
-          <t>琴柳</t>
+          <t>桑葚</t>
         </is>
       </c>
       <c r="B212" s="15" t="inlineStr">
         <is>
-          <t>5-3</t>
+          <t>SV-5</t>
         </is>
       </c>
       <c r="C212" s="12" t="inlineStr">
@@ -5512,63 +5512,63 @@
       </c>
       <c r="D212" s="10" t="inlineStr">
         <is>
-          <t>maa://48261</t>
+          <t>maa://39694</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="15" t="inlineStr">
         <is>
-          <t>灰毫</t>
+          <t>琴柳</t>
         </is>
       </c>
       <c r="B213" s="15" t="inlineStr">
         <is>
-          <t>7-9</t>
+          <t>9-2</t>
         </is>
       </c>
       <c r="C213" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D213" s="10" t="inlineStr">
         <is>
-          <t>*maa://39157</t>
+          <t>maa://24636, maa://25778</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="15" t="inlineStr">
         <is>
-          <t>远牙</t>
+          <t>琴柳</t>
         </is>
       </c>
       <c r="B214" s="15" t="inlineStr">
         <is>
-          <t>S2-2</t>
+          <t>5-3</t>
         </is>
       </c>
       <c r="C214" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D214" s="10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://48261</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="15" t="inlineStr">
         <is>
-          <t>远牙</t>
+          <t>灰毫</t>
         </is>
       </c>
       <c r="B215" s="15" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>7-9</t>
         </is>
       </c>
       <c r="C215" s="12" t="inlineStr">
@@ -5578,41 +5578,41 @@
       </c>
       <c r="D215" s="10" t="inlineStr">
         <is>
-          <t>maa://26499</t>
+          <t>*maa://39157</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="15" t="inlineStr">
         <is>
-          <t>布丁</t>
+          <t>远牙</t>
         </is>
       </c>
       <c r="B216" s="15" t="inlineStr">
         <is>
-          <t>2-10</t>
+          <t>S2-2</t>
         </is>
       </c>
       <c r="C216" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D216" s="10" t="inlineStr">
         <is>
-          <t>maa://20858</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="15" t="inlineStr">
         <is>
-          <t>蜜莓</t>
+          <t>远牙</t>
         </is>
       </c>
       <c r="B217" s="15" t="inlineStr">
         <is>
-          <t>GA-2</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C217" s="12" t="inlineStr">
@@ -5622,19 +5622,19 @@
       </c>
       <c r="D217" s="10" t="inlineStr">
         <is>
-          <t>maa://39695</t>
+          <t>maa://26499</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="15" t="inlineStr">
         <is>
-          <t>野鬃</t>
+          <t>布丁</t>
         </is>
       </c>
       <c r="B218" s="15" t="inlineStr">
         <is>
-          <t>MN-2</t>
+          <t>2-10</t>
         </is>
       </c>
       <c r="C218" s="12" t="inlineStr">
@@ -5644,19 +5644,19 @@
       </c>
       <c r="D218" s="10" t="inlineStr">
         <is>
-          <t>maa://20988</t>
+          <t>maa://20858</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="15" t="inlineStr">
         <is>
-          <t>蚀清</t>
+          <t>蜜莓</t>
         </is>
       </c>
       <c r="B219" s="15" t="inlineStr">
         <is>
-          <t>BI-6</t>
+          <t>GA-2</t>
         </is>
       </c>
       <c r="C219" s="12" t="inlineStr">
@@ -5666,85 +5666,85 @@
       </c>
       <c r="D219" s="10" t="inlineStr">
         <is>
-          <t>maa://39158</t>
+          <t>maa://39695</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="15" t="inlineStr">
         <is>
-          <t>耀骑士临光</t>
+          <t>野鬃</t>
         </is>
       </c>
       <c r="B220" s="15" t="inlineStr">
         <is>
-          <t>MN-8</t>
+          <t>MN-2</t>
         </is>
       </c>
       <c r="C220" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D220" s="10" t="inlineStr">
         <is>
-          <t>maa://20987, *maa://35801</t>
+          <t>maa://20988</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="15" t="inlineStr">
         <is>
-          <t>耀骑士临光</t>
+          <t>蚀清</t>
         </is>
       </c>
       <c r="B221" s="15" t="inlineStr">
         <is>
-          <t>NL-10</t>
+          <t>BI-6</t>
         </is>
       </c>
       <c r="C221" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D221" s="10" t="inlineStr">
         <is>
-          <t>*maa://29644, maa://39159</t>
+          <t>maa://39158</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="15" t="inlineStr">
         <is>
-          <t>耶拉</t>
+          <t>焰尾</t>
         </is>
       </c>
       <c r="B222" s="15" t="inlineStr">
         <is>
-          <t>BI-7</t>
+          <t>NL-5</t>
         </is>
       </c>
       <c r="C222" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D222" s="10" t="inlineStr">
         <is>
-          <t>maa://30677</t>
+          <t>maa://28187, maa://43531, maa://39520</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="15" t="inlineStr">
         <is>
-          <t>极光</t>
+          <t>焰尾</t>
         </is>
       </c>
       <c r="B223" s="15" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>NL-3</t>
         </is>
       </c>
       <c r="C223" s="12" t="inlineStr">
@@ -5754,63 +5754,63 @@
       </c>
       <c r="D223" s="10" t="inlineStr">
         <is>
-          <t>maa://20896</t>
+          <t>maa://20985</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="15" t="inlineStr">
         <is>
-          <t>灵知</t>
+          <t>耀骑士临光</t>
         </is>
       </c>
       <c r="B224" s="15" t="inlineStr">
         <is>
-          <t>BI-7</t>
+          <t>MN-8</t>
         </is>
       </c>
       <c r="C224" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D224" s="10" t="inlineStr">
         <is>
-          <t>maa://29058, maa://39140, maa://38723</t>
+          <t>maa://20987, *maa://35801</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="15" t="inlineStr">
         <is>
-          <t>灵知</t>
+          <t>耀骑士临光</t>
         </is>
       </c>
       <c r="B225" s="15" t="inlineStr">
         <is>
-          <t>5-6</t>
+          <t>NL-10</t>
         </is>
       </c>
       <c r="C225" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D225" s="10" t="inlineStr">
         <is>
-          <t>*maa://48263</t>
+          <t>*maa://29644, maa://39159</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="15" t="inlineStr">
         <is>
-          <t>九色鹿</t>
+          <t>耶拉</t>
         </is>
       </c>
       <c r="B226" s="15" t="inlineStr">
         <is>
-          <t>IW-3</t>
+          <t>BI-7</t>
         </is>
       </c>
       <c r="C226" s="12" t="inlineStr">
@@ -5820,14 +5820,14 @@
       </c>
       <c r="D226" s="10" t="inlineStr">
         <is>
-          <t>maa://39160</t>
+          <t>maa://30677</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="15" t="inlineStr">
         <is>
-          <t>寒芒克洛丝</t>
+          <t>极光</t>
         </is>
       </c>
       <c r="B227" s="15" t="inlineStr">
@@ -5842,41 +5842,41 @@
       </c>
       <c r="D227" s="10" t="inlineStr">
         <is>
-          <t>maa://49491</t>
+          <t>maa://20896</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="15" t="inlineStr">
         <is>
-          <t>夜半</t>
+          <t>灵知</t>
         </is>
       </c>
       <c r="B228" s="15" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>BI-7</t>
         </is>
       </c>
       <c r="C228" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D228" s="10" t="inlineStr">
         <is>
-          <t>maa://35952</t>
+          <t>maa://29058, maa://39140, maa://38723</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="15" t="inlineStr">
         <is>
-          <t>老鲤</t>
+          <t>灵知</t>
         </is>
       </c>
       <c r="B229" s="15" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>5-6</t>
         </is>
       </c>
       <c r="C229" s="12" t="inlineStr">
@@ -5886,63 +5886,63 @@
       </c>
       <c r="D229" s="10" t="inlineStr">
         <is>
-          <t>maa://20917</t>
+          <t>*maa://48263</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="15" t="inlineStr">
         <is>
-          <t>老鲤</t>
+          <t>九色鹿</t>
         </is>
       </c>
       <c r="B230" s="15" t="inlineStr">
         <is>
-          <t>IW-EX-1</t>
+          <t>IW-3</t>
         </is>
       </c>
       <c r="C230" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D230" s="10" t="inlineStr">
         <is>
-          <t>maa://30714, maa://30675</t>
+          <t>maa://39160</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="15" t="inlineStr">
         <is>
-          <t>令</t>
+          <t>寒芒克洛丝</t>
         </is>
       </c>
       <c r="B231" s="15" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C231" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D231" s="10" t="inlineStr">
         <is>
-          <t>maa://20922, *maa://32623, *maa://34242</t>
+          <t>maa://49491</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="15" t="inlineStr">
         <is>
-          <t>夏栎</t>
+          <t>夜半</t>
         </is>
       </c>
       <c r="B232" s="15" t="inlineStr">
         <is>
-          <t>9-2</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C232" s="12" t="inlineStr">
@@ -5952,85 +5952,85 @@
       </c>
       <c r="D232" s="10" t="inlineStr">
         <is>
-          <t>maa://32999</t>
+          <t>maa://35952</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="15" t="inlineStr">
         <is>
-          <t>澄闪</t>
+          <t>老鲤</t>
         </is>
       </c>
       <c r="B233" s="15" t="inlineStr">
         <is>
-          <t>R8-8</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C233" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D233" s="10" t="inlineStr">
         <is>
-          <t>*maa://30667, maa://30666, *maa://30723, maa://39588</t>
+          <t>maa://20917</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="15" t="inlineStr">
         <is>
-          <t>见行者</t>
+          <t>老鲤</t>
         </is>
       </c>
       <c r="B234" s="15" t="inlineStr">
         <is>
-          <t>GA-EX-1</t>
+          <t>IW-EX-1</t>
         </is>
       </c>
       <c r="C234" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D234" s="10" t="inlineStr">
         <is>
-          <t>maa://30512</t>
+          <t>maa://30714, maa://30675</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="15" t="inlineStr">
         <is>
-          <t>风丸</t>
+          <t>令</t>
         </is>
       </c>
       <c r="B235" s="15" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C235" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D235" s="10" t="inlineStr">
         <is>
-          <t>maa://20870</t>
+          <t>maa://20922, *maa://32623, *maa://34242</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="15" t="inlineStr">
         <is>
-          <t>菲亚梅塔</t>
+          <t>夏栎</t>
         </is>
       </c>
       <c r="B236" s="15" t="inlineStr">
         <is>
-          <t>GA-4</t>
+          <t>9-2</t>
         </is>
       </c>
       <c r="C236" s="12" t="inlineStr">
@@ -6040,41 +6040,41 @@
       </c>
       <c r="D236" s="10" t="inlineStr">
         <is>
-          <t>maa://29024</t>
+          <t>maa://32999</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="15" t="inlineStr">
         <is>
-          <t>菲亚梅塔</t>
+          <t>澄闪</t>
         </is>
       </c>
       <c r="B237" s="15" t="inlineStr">
         <is>
-          <t>S5-9</t>
+          <t>R8-8</t>
         </is>
       </c>
       <c r="C237" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D237" s="13" t="inlineStr">
         <is>
-          <t>maa://20867, maa://38485, *maa://32202</t>
+          <t>*maa://30667, maa://30666, *maa://30723, maa://39588</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="15" t="inlineStr">
         <is>
-          <t>褐果</t>
+          <t>见行者</t>
         </is>
       </c>
       <c r="B238" s="15" t="inlineStr">
         <is>
-          <t>SV-3</t>
+          <t>GA-EX-1</t>
         </is>
       </c>
       <c r="C238" s="12" t="inlineStr">
@@ -6084,19 +6084,19 @@
       </c>
       <c r="D238" s="10" t="inlineStr">
         <is>
-          <t>maa://40160</t>
+          <t>maa://30512</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="15" t="inlineStr">
         <is>
-          <t>海蒂</t>
+          <t>风丸</t>
         </is>
       </c>
       <c r="B239" s="15" t="inlineStr">
         <is>
-          <t>9-7</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C239" s="12" t="inlineStr">
@@ -6106,19 +6106,19 @@
       </c>
       <c r="D239" s="10" t="inlineStr">
         <is>
-          <t>maa://43089</t>
+          <t>maa://20870</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="15" t="inlineStr">
         <is>
-          <t>洛洛</t>
+          <t>菲亚梅塔</t>
         </is>
       </c>
       <c r="B240" s="15" t="inlineStr">
         <is>
-          <t>RI-EX-4</t>
+          <t>GA-4</t>
         </is>
       </c>
       <c r="C240" s="12" t="inlineStr">
@@ -6128,63 +6128,63 @@
       </c>
       <c r="D240" s="10" t="inlineStr">
         <is>
-          <t>maa://30674</t>
+          <t>maa://29024</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="15" t="inlineStr">
         <is>
-          <t>号角</t>
+          <t>菲亚梅塔</t>
         </is>
       </c>
       <c r="B241" s="15" t="inlineStr">
         <is>
-          <t>7-15</t>
+          <t>S5-9</t>
         </is>
       </c>
       <c r="C241" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D241" s="10" t="inlineStr">
         <is>
-          <t>maa://28923, maa://28906</t>
+          <t>maa://20867, maa://38485, *maa://32202</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="15" t="inlineStr">
         <is>
-          <t>号角</t>
+          <t>褐果</t>
         </is>
       </c>
       <c r="B242" s="15" t="inlineStr">
         <is>
-          <t>9-5</t>
+          <t>SV-3</t>
         </is>
       </c>
       <c r="C242" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D242" s="10" t="inlineStr">
         <is>
-          <t>maa://42287, maa://45570, maa://42225</t>
+          <t>maa://40160</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="15" t="inlineStr">
         <is>
-          <t>掠风</t>
+          <t>海蒂</t>
         </is>
       </c>
       <c r="B243" s="15" t="inlineStr">
         <is>
-          <t>11-9</t>
+          <t>9-7</t>
         </is>
       </c>
       <c r="C243" s="12" t="inlineStr">
@@ -6194,19 +6194,19 @@
       </c>
       <c r="D243" s="10" t="inlineStr">
         <is>
-          <t>maa://39161</t>
+          <t>maa://43089</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="15" t="inlineStr">
         <is>
-          <t>流明</t>
+          <t>洛洛</t>
         </is>
       </c>
       <c r="B244" s="15" t="inlineStr">
         <is>
-          <t>6-9</t>
+          <t>RI-EX-4</t>
         </is>
       </c>
       <c r="C244" s="12" t="inlineStr">
@@ -6216,63 +6216,63 @@
       </c>
       <c r="D244" s="13" t="inlineStr">
         <is>
-          <t>maa://20923</t>
+          <t>maa://30674</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="15" t="inlineStr">
         <is>
-          <t>流明</t>
+          <t>号角</t>
         </is>
       </c>
       <c r="B245" s="15" t="inlineStr">
         <is>
-          <t>OF-5</t>
+          <t>7-15</t>
         </is>
       </c>
       <c r="C245" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D245" s="10" t="inlineStr">
         <is>
-          <t>maa://24093, maa://31559, maa://20924</t>
+          <t>maa://28923, maa://28906</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="15" t="inlineStr">
         <is>
-          <t>艾丽妮</t>
+          <t>号角</t>
         </is>
       </c>
       <c r="B246" s="15" t="inlineStr">
         <is>
-          <t>SV-EX-1</t>
+          <t>9-5</t>
         </is>
       </c>
       <c r="C246" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D246" s="10" t="inlineStr">
         <is>
-          <t>maa://40958, maa://45067</t>
+          <t>maa://42287, maa://45570, maa://42225</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="15" t="inlineStr">
         <is>
-          <t>艾丽妮</t>
+          <t>掠风</t>
         </is>
       </c>
       <c r="B247" s="15" t="inlineStr">
         <is>
-          <t>SV-4</t>
+          <t>11-9</t>
         </is>
       </c>
       <c r="C247" s="12" t="inlineStr">
@@ -6282,85 +6282,85 @@
       </c>
       <c r="D247" s="10" t="inlineStr">
         <is>
-          <t>maa://20840</t>
+          <t>maa://39161</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="15" t="inlineStr">
         <is>
-          <t>归溟幽灵鲨</t>
+          <t>流明</t>
         </is>
       </c>
       <c r="B248" s="15" t="inlineStr">
         <is>
-          <t>SV-EX-1</t>
+          <t>6-9</t>
         </is>
       </c>
       <c r="C248" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D248" s="10" t="inlineStr">
         <is>
-          <t>maa://20877, maa://20836, maa://45067, maa://20632</t>
+          <t>maa://20923</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="15" t="inlineStr">
         <is>
-          <t>归溟幽灵鲨</t>
+          <t>流明</t>
         </is>
       </c>
       <c r="B249" s="15" t="inlineStr">
         <is>
-          <t>S4-1</t>
+          <t>OF-5</t>
         </is>
       </c>
       <c r="C249" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D249" s="13" t="inlineStr">
         <is>
-          <t>maa://20879, maa://20834</t>
+          <t>maa://24093, maa://31559, maa://20924, maa://49440</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="15" t="inlineStr">
         <is>
-          <t>埃拉托</t>
+          <t>艾丽妮</t>
         </is>
       </c>
       <c r="B250" s="15" t="inlineStr">
         <is>
-          <t>S5-9</t>
+          <t>SV-EX-1</t>
         </is>
       </c>
       <c r="C250" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D250" s="10" t="inlineStr">
         <is>
-          <t>maa://20839</t>
+          <t>maa://40958, maa://45067</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="15" t="inlineStr">
         <is>
-          <t>濯尘芙蓉</t>
+          <t>艾丽妮</t>
         </is>
       </c>
       <c r="B251" s="15" t="inlineStr">
         <is>
-          <t>LE-4</t>
+          <t>SV-4</t>
         </is>
       </c>
       <c r="C251" s="12" t="inlineStr">
@@ -6370,63 +6370,63 @@
       </c>
       <c r="D251" s="10" t="inlineStr">
         <is>
-          <t>maa://30676</t>
+          <t>maa://20840</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="15" t="inlineStr">
         <is>
-          <t>黑键</t>
+          <t>归溟幽灵鲨</t>
         </is>
       </c>
       <c r="B252" s="15" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>SV-EX-1</t>
         </is>
       </c>
       <c r="C252" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D252" s="10" t="inlineStr">
         <is>
-          <t>maa://31560, maa://20884</t>
+          <t>maa://20877, maa://45067, maa://20836, maa://20632</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="15" t="inlineStr">
         <is>
-          <t>黑键</t>
+          <t>归溟幽灵鲨</t>
         </is>
       </c>
       <c r="B253" s="15" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>S4-1</t>
         </is>
       </c>
       <c r="C253" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D253" s="10" t="inlineStr">
         <is>
-          <t>maa://47204</t>
+          <t>maa://20879, maa://20834</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="15" t="inlineStr">
         <is>
-          <t>黑键</t>
+          <t>埃拉托</t>
         </is>
       </c>
       <c r="B254" s="15" t="inlineStr">
         <is>
-          <t>11-12</t>
+          <t>S5-9</t>
         </is>
       </c>
       <c r="C254" s="12" t="inlineStr">
@@ -6436,19 +6436,19 @@
       </c>
       <c r="D254" s="10" t="inlineStr">
         <is>
-          <t>maa://29027</t>
+          <t>maa://20839</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="15" t="inlineStr">
         <is>
-          <t>星源</t>
+          <t>濯尘芙蓉</t>
         </is>
       </c>
       <c r="B255" s="15" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>LE-4</t>
         </is>
       </c>
       <c r="C255" s="12" t="inlineStr">
@@ -6458,41 +6458,41 @@
       </c>
       <c r="D255" s="10" t="inlineStr">
         <is>
-          <t>maa://20977</t>
+          <t>maa://30676</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="15" t="inlineStr">
         <is>
-          <t>承曦格雷伊</t>
+          <t>黑键</t>
         </is>
       </c>
       <c r="B256" s="15" t="inlineStr">
         <is>
-          <t>1-3</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C256" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D256" s="10" t="inlineStr">
         <is>
-          <t>maa://39162</t>
+          <t>maa://31560, maa://20884</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="15" t="inlineStr">
         <is>
-          <t>多萝西</t>
+          <t>黑键</t>
         </is>
       </c>
       <c r="B257" s="15" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="C257" s="12" t="inlineStr">
@@ -6502,41 +6502,41 @@
       </c>
       <c r="D257" s="10" t="inlineStr">
         <is>
-          <t>maa://22467</t>
+          <t>maa://47204</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="15" t="inlineStr">
         <is>
-          <t>至简</t>
+          <t>黑键</t>
         </is>
       </c>
       <c r="B258" s="15" t="inlineStr">
         <is>
-          <t>IC-8</t>
+          <t>11-12</t>
         </is>
       </c>
       <c r="C258" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D258" s="10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://29027</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="15" t="inlineStr">
         <is>
-          <t>鸿雪</t>
+          <t>星源</t>
         </is>
       </c>
       <c r="B259" s="15" t="inlineStr">
         <is>
-          <t>9-7</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C259" s="12" t="inlineStr">
@@ -6546,41 +6546,41 @@
       </c>
       <c r="D259" s="10" t="inlineStr">
         <is>
-          <t>maa://48265</t>
+          <t>maa://20977</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="15" t="inlineStr">
         <is>
-          <t>鸿雪</t>
+          <t>承曦格雷伊</t>
         </is>
       </c>
       <c r="B260" s="15" t="inlineStr">
         <is>
-          <t>2-10</t>
+          <t>1-3</t>
         </is>
       </c>
       <c r="C260" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D260" s="10" t="inlineStr">
         <is>
-          <t>*maa://20825, *maa://21445, *maa://35726</t>
+          <t>maa://39162</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="15" t="inlineStr">
         <is>
-          <t>百炼嘉维尔</t>
+          <t>多萝西</t>
         </is>
       </c>
       <c r="B261" s="15" t="inlineStr">
         <is>
-          <t>9-2</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="C261" s="12" t="inlineStr">
@@ -6590,41 +6590,41 @@
       </c>
       <c r="D261" s="10" t="inlineStr">
         <is>
-          <t>maa://25769</t>
+          <t>maa://22467</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="15" t="inlineStr">
         <is>
-          <t>但书</t>
+          <t>至简</t>
         </is>
       </c>
       <c r="B262" s="15" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>IC-8</t>
         </is>
       </c>
       <c r="C262" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D262" s="10" t="inlineStr">
         <is>
-          <t>maa://20862</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="15" t="inlineStr">
         <is>
-          <t>罗小黑</t>
+          <t>晓歌</t>
         </is>
       </c>
       <c r="B263" s="15" t="inlineStr">
         <is>
-          <t>IW-4</t>
+          <t>5-3</t>
         </is>
       </c>
       <c r="C263" s="12" t="inlineStr">
@@ -6634,19 +6634,19 @@
       </c>
       <c r="D263" s="10" t="inlineStr">
         <is>
-          <t>maa://39163</t>
+          <t>maa://49643</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="15" t="inlineStr">
         <is>
-          <t>海沫</t>
+          <t>鸿雪</t>
         </is>
       </c>
       <c r="B264" s="15" t="inlineStr">
         <is>
-          <t>SN-2</t>
+          <t>9-7</t>
         </is>
       </c>
       <c r="C264" s="12" t="inlineStr">
@@ -6656,41 +6656,41 @@
       </c>
       <c r="D264" s="10" t="inlineStr">
         <is>
-          <t>maa://29061</t>
+          <t>maa://48265</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="15" t="inlineStr">
         <is>
-          <t>铅踝</t>
+          <t>鸿雪</t>
         </is>
       </c>
       <c r="B265" s="15" t="inlineStr">
         <is>
-          <t>S3-5</t>
+          <t>2-10</t>
         </is>
       </c>
       <c r="C265" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D265" s="10" t="inlineStr">
         <is>
-          <t>*maa://20939</t>
+          <t>*maa://20825, *maa://21445, *maa://35726</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="15" t="inlineStr">
         <is>
-          <t>达格达</t>
+          <t>百炼嘉维尔</t>
         </is>
       </c>
       <c r="B266" s="15" t="inlineStr">
         <is>
-          <t>11-5</t>
+          <t>9-2</t>
         </is>
       </c>
       <c r="C266" s="12" t="inlineStr">
@@ -6700,41 +6700,41 @@
       </c>
       <c r="D266" s="10" t="inlineStr">
         <is>
-          <t>maa://39164</t>
+          <t>maa://25769</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="15" t="inlineStr">
         <is>
-          <t>白铁</t>
+          <t>但书</t>
         </is>
       </c>
       <c r="B267" s="15" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="C267" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D267" s="10" t="inlineStr">
         <is>
-          <t>maa://28133, maa://33394</t>
+          <t>maa://20862</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="15" t="inlineStr">
         <is>
-          <t>白铁</t>
+          <t>罗小黑</t>
         </is>
       </c>
       <c r="B268" s="15" t="inlineStr">
         <is>
-          <t>9-6</t>
+          <t>IW-4</t>
         </is>
       </c>
       <c r="C268" s="12" t="inlineStr">
@@ -6744,19 +6744,19 @@
       </c>
       <c r="D268" s="10" t="inlineStr">
         <is>
-          <t>maa://42311</t>
+          <t>maa://39163</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="15" t="inlineStr">
         <is>
-          <t>石英</t>
+          <t>海沫</t>
         </is>
       </c>
       <c r="B269" s="15" t="inlineStr">
         <is>
-          <t>DH-4</t>
+          <t>SN-2</t>
         </is>
       </c>
       <c r="C269" s="12" t="inlineStr">
@@ -6766,19 +6766,19 @@
       </c>
       <c r="D269" s="10" t="inlineStr">
         <is>
-          <t>maa://41362</t>
+          <t>maa://29061</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="15" t="inlineStr">
         <is>
-          <t>雪绒</t>
+          <t>铅踝</t>
         </is>
       </c>
       <c r="B270" s="15" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>S3-5</t>
         </is>
       </c>
       <c r="C270" s="12" t="inlineStr">
@@ -6788,19 +6788,19 @@
       </c>
       <c r="D270" s="10" t="inlineStr">
         <is>
-          <t>maa://20978</t>
+          <t>*maa://20939</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="15" t="inlineStr">
         <is>
-          <t>子月</t>
+          <t>达格达</t>
         </is>
       </c>
       <c r="B271" s="15" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>11-5</t>
         </is>
       </c>
       <c r="C271" s="12" t="inlineStr">
@@ -6810,63 +6810,63 @@
       </c>
       <c r="D271" s="10" t="inlineStr">
         <is>
-          <t>maa://21002</t>
+          <t>maa://39164</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="15" t="inlineStr">
         <is>
-          <t>伺夜</t>
+          <t>白铁</t>
         </is>
       </c>
       <c r="B272" s="15" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C272" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D272" s="10" t="inlineStr">
         <is>
-          <t>*maa://39165</t>
+          <t>maa://28133, maa://33394</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="15" t="inlineStr">
         <is>
-          <t>伺夜</t>
+          <t>白铁</t>
         </is>
       </c>
       <c r="B273" s="15" t="inlineStr">
         <is>
-          <t>IS-6</t>
+          <t>9-6</t>
         </is>
       </c>
       <c r="C273" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D273" s="10" t="inlineStr">
         <is>
-          <t>maa://48267, maa://48266</t>
+          <t>maa://42311</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="15" t="inlineStr">
         <is>
-          <t>斥罪</t>
+          <t>石英</t>
         </is>
       </c>
       <c r="B274" s="15" t="inlineStr">
         <is>
-          <t>CB-4</t>
+          <t>DH-4</t>
         </is>
       </c>
       <c r="C274" s="12" t="inlineStr">
@@ -6876,19 +6876,19 @@
       </c>
       <c r="D274" s="10" t="inlineStr">
         <is>
-          <t>maa://29635</t>
+          <t>maa://41362</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="15" t="inlineStr">
         <is>
-          <t>斥罪</t>
+          <t>雪绒</t>
         </is>
       </c>
       <c r="B275" s="15" t="inlineStr">
         <is>
-          <t>IS-7</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="C275" s="12" t="inlineStr">
@@ -6898,41 +6898,41 @@
       </c>
       <c r="D275" s="10" t="inlineStr">
         <is>
-          <t>maa://38296</t>
+          <t>maa://20978</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="15" t="inlineStr">
         <is>
-          <t>缄默德克萨斯</t>
+          <t>子月</t>
         </is>
       </c>
       <c r="B276" s="15" t="inlineStr">
         <is>
-          <t>CB-8</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C276" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D276" s="10" t="inlineStr">
         <is>
-          <t>maa://20899, maa://46332</t>
+          <t>maa://21002</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="15" t="inlineStr">
         <is>
-          <t>和弦</t>
+          <t>伺夜</t>
         </is>
       </c>
       <c r="B277" s="15" t="inlineStr">
         <is>
-          <t>6-5</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C277" s="12" t="inlineStr">
@@ -6942,41 +6942,41 @@
       </c>
       <c r="D277" s="10" t="inlineStr">
         <is>
-          <t>maa://20881</t>
+          <t>*maa://39165</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="15" t="inlineStr">
         <is>
-          <t>焰影苇草</t>
+          <t>伺夜</t>
         </is>
       </c>
       <c r="B278" s="15" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>IS-6</t>
         </is>
       </c>
       <c r="C278" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D278" s="10" t="inlineStr">
         <is>
-          <t>maa://30710, maa://36845, maa://31558, maa://30668</t>
+          <t>maa://48267, maa://48266</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="15" t="inlineStr">
         <is>
-          <t>截云</t>
+          <t>斥罪</t>
         </is>
       </c>
       <c r="B279" s="15" t="inlineStr">
         <is>
-          <t>S2-2</t>
+          <t>CB-4</t>
         </is>
       </c>
       <c r="C279" s="12" t="inlineStr">
@@ -6986,19 +6986,19 @@
       </c>
       <c r="D279" s="10" t="inlineStr">
         <is>
-          <t>maa://20902</t>
+          <t>maa://29635</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="15" t="inlineStr">
         <is>
-          <t>火哨</t>
+          <t>斥罪</t>
         </is>
       </c>
       <c r="B280" s="15" t="inlineStr">
         <is>
-          <t>S4-6</t>
+          <t>IS-7</t>
         </is>
       </c>
       <c r="C280" s="12" t="inlineStr">
@@ -7008,107 +7008,107 @@
       </c>
       <c r="D280" s="10" t="inlineStr">
         <is>
-          <t>maa://29159</t>
+          <t>maa://38296</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="15" t="inlineStr">
         <is>
-          <t>林</t>
+          <t>缄默德克萨斯</t>
         </is>
       </c>
       <c r="B281" s="15" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>CB-8</t>
         </is>
       </c>
       <c r="C281" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D281" s="10" t="inlineStr">
         <is>
-          <t>maa://25774, maa://28133, maa://22469, **maa://31349</t>
+          <t>maa://20899, maa://46332</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="15" t="inlineStr">
         <is>
-          <t>林</t>
+          <t>谜图</t>
         </is>
       </c>
       <c r="B282" s="15" t="inlineStr">
         <is>
-          <t>6-5</t>
+          <t>9-4</t>
         </is>
       </c>
       <c r="C282" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D282" s="10" t="inlineStr">
         <is>
-          <t>maa://47882</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="15" t="inlineStr">
         <is>
-          <t>重岳</t>
+          <t>和弦</t>
         </is>
       </c>
       <c r="B283" s="15" t="inlineStr">
         <is>
-          <t>WB-7</t>
+          <t>6-5</t>
         </is>
       </c>
       <c r="C283" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D283" s="10" t="inlineStr">
         <is>
-          <t>maa://32414, maa://32505, maa://39155</t>
+          <t>maa://20881</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="15" t="inlineStr">
         <is>
-          <t>重岳</t>
+          <t>焰影苇草</t>
         </is>
       </c>
       <c r="B284" s="15" t="inlineStr">
         <is>
-          <t>GA-5</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C284" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D284" s="10" t="inlineStr">
         <is>
-          <t>maa://45799</t>
+          <t>maa://30710, maa://36845, maa://31558, maa://30668</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="15" t="inlineStr">
         <is>
-          <t>铎铃</t>
+          <t>截云</t>
         </is>
       </c>
       <c r="B285" s="15" t="inlineStr">
         <is>
-          <t>2-1</t>
+          <t>S2-2</t>
         </is>
       </c>
       <c r="C285" s="12" t="inlineStr">
@@ -7118,107 +7118,107 @@
       </c>
       <c r="D285" s="10" t="inlineStr">
         <is>
-          <t>maa://42312</t>
+          <t>maa://20902</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="15" t="inlineStr">
         <is>
-          <t>仇白</t>
+          <t>火哨</t>
         </is>
       </c>
       <c r="B286" s="15" t="inlineStr">
         <is>
-          <t>WB-7</t>
+          <t>S4-6</t>
         </is>
       </c>
       <c r="C286" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D286" s="10" t="inlineStr">
         <is>
-          <t>maa://36642, maa://36867, maa://39155</t>
+          <t>maa://29159</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="15" t="inlineStr">
         <is>
-          <t>火龙S黑角</t>
+          <t>林</t>
         </is>
       </c>
       <c r="B287" s="15" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C287" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D287" s="10" t="inlineStr">
         <is>
-          <t>**maa://39166, maa://39167</t>
+          <t>maa://25774, maa://28133, maa://22469, **maa://31349</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="15" t="inlineStr">
         <is>
-          <t>麒麟R夜刀</t>
+          <t>林</t>
         </is>
       </c>
       <c r="B288" s="15" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>6-5</t>
         </is>
       </c>
       <c r="C288" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D288" s="10" t="inlineStr">
         <is>
-          <t>maa://29005, maa://31560</t>
+          <t>maa://47882</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="15" t="inlineStr">
         <is>
-          <t>休谟斯</t>
+          <t>重岳</t>
         </is>
       </c>
       <c r="B289" s="15" t="inlineStr">
         <is>
-          <t>7-8</t>
+          <t>WB-7</t>
         </is>
       </c>
       <c r="C289" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D289" s="10" t="inlineStr">
         <is>
-          <t>maa://39168</t>
+          <t>maa://32414, maa://32505, maa://39155</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="15" t="inlineStr">
         <is>
-          <t>摩根</t>
+          <t>重岳</t>
         </is>
       </c>
       <c r="B290" s="15" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>GA-5</t>
         </is>
       </c>
       <c r="C290" s="12" t="inlineStr">
@@ -7228,19 +7228,19 @@
       </c>
       <c r="D290" s="10" t="inlineStr">
         <is>
-          <t>maa://39169</t>
+          <t>maa://45799</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="15" t="inlineStr">
         <is>
-          <t>洋灰</t>
+          <t>铎铃</t>
         </is>
       </c>
       <c r="B291" s="15" t="inlineStr">
         <is>
-          <t>IW-EX-6</t>
+          <t>2-1</t>
         </is>
       </c>
       <c r="C291" s="12" t="inlineStr">
@@ -7250,85 +7250,85 @@
       </c>
       <c r="D291" s="10" t="inlineStr">
         <is>
-          <t>maa://39170</t>
+          <t>maa://42312</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="15" t="inlineStr">
         <is>
-          <t>玫拉</t>
+          <t>仇白</t>
         </is>
       </c>
       <c r="B292" s="15" t="inlineStr">
         <is>
-          <t>S3-5</t>
+          <t>WB-7</t>
         </is>
       </c>
       <c r="C292" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D292" s="10" t="inlineStr">
         <is>
-          <t>maa://39171</t>
+          <t>maa://36642, maa://36867, maa://39155</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="15" t="inlineStr">
         <is>
-          <t>淬羽赫默</t>
+          <t>火龙S黑角</t>
         </is>
       </c>
       <c r="B293" s="15" t="inlineStr">
         <is>
-          <t>6-3</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C293" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D293" s="10" t="inlineStr">
         <is>
-          <t>maa://27939</t>
+          <t>**maa://39166, maa://39167</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="15" t="inlineStr">
         <is>
-          <t>霍尔海雅</t>
+          <t>麒麟R夜刀</t>
         </is>
       </c>
       <c r="B294" s="15" t="inlineStr">
         <is>
-          <t>OF-7</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C294" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D294" s="10" t="inlineStr">
         <is>
-          <t>maa://29129</t>
+          <t>maa://29005, maa://31560</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="15" t="inlineStr">
         <is>
-          <t>霍尔海雅</t>
+          <t>休谟斯</t>
         </is>
       </c>
       <c r="B295" s="15" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>7-8</t>
         </is>
       </c>
       <c r="C295" s="12" t="inlineStr">
@@ -7338,19 +7338,19 @@
       </c>
       <c r="D295" s="10" t="inlineStr">
         <is>
-          <t>maa://36005</t>
+          <t>maa://39168</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="15" t="inlineStr">
         <is>
-          <t>缪尔赛思</t>
+          <t>摩根</t>
         </is>
       </c>
       <c r="B296" s="15" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="C296" s="12" t="inlineStr">
@@ -7360,19 +7360,19 @@
       </c>
       <c r="D296" s="10" t="inlineStr">
         <is>
-          <t>maa://35859</t>
+          <t>maa://39169</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="15" t="inlineStr">
         <is>
-          <t>隐现</t>
+          <t>洋灰</t>
         </is>
       </c>
       <c r="B297" s="15" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>IW-EX-6</t>
         </is>
       </c>
       <c r="C297" s="12" t="inlineStr">
@@ -7382,63 +7382,63 @@
       </c>
       <c r="D297" s="10" t="inlineStr">
         <is>
-          <t>**maa://39172</t>
+          <t>maa://39170</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="15" t="inlineStr">
         <is>
-          <t>空构</t>
+          <t>伊内丝</t>
         </is>
       </c>
       <c r="B298" s="15" t="inlineStr">
         <is>
-          <t>DM-2</t>
+          <t>12-12</t>
         </is>
       </c>
       <c r="C298" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D298" s="10" t="inlineStr">
         <is>
-          <t>maa://39173</t>
+          <t>maa://49642, maa://49660</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="15" t="inlineStr">
         <is>
-          <t>圣约送葬人</t>
+          <t>玫拉</t>
         </is>
       </c>
       <c r="B299" s="15" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>S3-5</t>
         </is>
       </c>
       <c r="C299" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D299" s="10" t="inlineStr">
         <is>
-          <t>maa://25775, *maa://25393</t>
+          <t>maa://39171</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="15" t="inlineStr">
         <is>
-          <t>寒檀</t>
+          <t>淬羽赫默</t>
         </is>
       </c>
       <c r="B300" s="15" t="inlineStr">
         <is>
-          <t>BI-2</t>
+          <t>6-3</t>
         </is>
       </c>
       <c r="C300" s="12" t="inlineStr">
@@ -7448,19 +7448,19 @@
       </c>
       <c r="D300" s="10" t="inlineStr">
         <is>
-          <t>maa://40161</t>
+          <t>maa://27939</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="15" t="inlineStr">
         <is>
-          <t>提丰</t>
+          <t>霍尔海雅</t>
         </is>
       </c>
       <c r="B301" s="15" t="inlineStr">
         <is>
-          <t>S2-1</t>
+          <t>OF-7</t>
         </is>
       </c>
       <c r="C301" s="12" t="inlineStr">
@@ -7470,19 +7470,19 @@
       </c>
       <c r="D301" s="10" t="inlineStr">
         <is>
-          <t>maa://25367</t>
+          <t>maa://29129</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="15" t="inlineStr">
         <is>
-          <t>凛视</t>
+          <t>霍尔海雅</t>
         </is>
       </c>
       <c r="B302" s="15" t="inlineStr">
         <is>
-          <t>7-13</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C302" s="12" t="inlineStr">
@@ -7492,19 +7492,19 @@
       </c>
       <c r="D302" s="10" t="inlineStr">
         <is>
-          <t>*maa://43090</t>
+          <t>maa://36005</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="15" t="inlineStr">
         <is>
-          <t>苍苔</t>
+          <t>缪尔赛思</t>
         </is>
       </c>
       <c r="B303" s="15" t="inlineStr">
         <is>
-          <t>9-3</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C303" s="12" t="inlineStr">
@@ -7514,19 +7514,19 @@
       </c>
       <c r="D303" s="10" t="inlineStr">
         <is>
-          <t>maa://28070</t>
+          <t>maa://35859</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="15" t="inlineStr">
         <is>
-          <t>青枳</t>
+          <t>隐现</t>
         </is>
       </c>
       <c r="B304" s="15" t="inlineStr">
         <is>
-          <t>OF-5</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C304" s="12" t="inlineStr">
@@ -7536,85 +7536,85 @@
       </c>
       <c r="D304" s="10" t="inlineStr">
         <is>
-          <t>maa://28241</t>
+          <t>**maa://39172</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="15" t="inlineStr">
         <is>
-          <t>琳琅诗怀雅</t>
+          <t>空构</t>
         </is>
       </c>
       <c r="B305" s="15" t="inlineStr">
         <is>
-          <t>5-2</t>
+          <t>DM-2</t>
         </is>
       </c>
       <c r="C305" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D305" s="10" t="inlineStr">
         <is>
-          <t>maa://25773, *maa://26088</t>
+          <t>maa://39173</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="15" t="inlineStr">
         <is>
-          <t>琳琅诗怀雅</t>
+          <t>圣约送葬人</t>
         </is>
       </c>
       <c r="B306" s="15" t="inlineStr">
         <is>
-          <t>11-16</t>
+          <t>7-14</t>
         </is>
       </c>
       <c r="C306" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D306" s="10" t="inlineStr">
         <is>
-          <t>maa://39239</t>
+          <t>maa://25775, *maa://25393</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="15" t="inlineStr">
         <is>
-          <t>纯烬艾雅法拉</t>
+          <t>寒檀</t>
         </is>
       </c>
       <c r="B307" s="15" t="inlineStr">
         <is>
-          <t>FC-5</t>
+          <t>BI-2</t>
         </is>
       </c>
       <c r="C307" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D307" s="10" t="inlineStr">
         <is>
-          <t>maa://39692, maa://39810</t>
+          <t>maa://40161</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="15" t="inlineStr">
         <is>
-          <t>冰酿</t>
+          <t>提丰</t>
         </is>
       </c>
       <c r="B308" s="15" t="inlineStr">
         <is>
-          <t>S3-3</t>
+          <t>S2-1</t>
         </is>
       </c>
       <c r="C308" s="12" t="inlineStr">
@@ -7624,19 +7624,19 @@
       </c>
       <c r="D308" s="10" t="inlineStr">
         <is>
-          <t>*maa://39174</t>
+          <t>maa://25367</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="15" t="inlineStr">
         <is>
-          <t>杏仁</t>
+          <t>凛视</t>
         </is>
       </c>
       <c r="B309" s="15" t="inlineStr">
         <is>
-          <t>BI-2</t>
+          <t>7-13</t>
         </is>
       </c>
       <c r="C309" s="12" t="inlineStr">
@@ -7646,41 +7646,41 @@
       </c>
       <c r="D309" s="10" t="inlineStr">
         <is>
-          <t>maa://39175</t>
+          <t>*maa://43090</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="15" t="inlineStr">
         <is>
-          <t>涤火杰西卡</t>
+          <t>苍苔</t>
         </is>
       </c>
       <c r="B310" s="15" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>9-3</t>
         </is>
       </c>
       <c r="C310" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D310" s="10" t="inlineStr">
         <is>
-          <t>maa://34867, maa://34715</t>
+          <t>maa://28070</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="15" t="inlineStr">
         <is>
-          <t>维荻</t>
+          <t>青枳</t>
         </is>
       </c>
       <c r="B311" s="15" t="inlineStr">
         <is>
-          <t>9-3</t>
+          <t>OF-5</t>
         </is>
       </c>
       <c r="C311" s="12" t="inlineStr">
@@ -7690,41 +7690,41 @@
       </c>
       <c r="D311" s="10" t="inlineStr">
         <is>
-          <t>maa://39176</t>
+          <t>maa://28241</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="15" t="inlineStr">
         <is>
-          <t>戴菲恩</t>
+          <t>琳琅诗怀雅</t>
         </is>
       </c>
       <c r="B312" s="15" t="inlineStr">
         <is>
-          <t>WD-6</t>
+          <t>5-2</t>
         </is>
       </c>
       <c r="C312" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D312" s="10" t="inlineStr">
         <is>
-          <t>maa://42316</t>
+          <t>maa://25773, *maa://26088</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="15" t="inlineStr">
         <is>
-          <t>刺玫</t>
+          <t>琳琅诗怀雅</t>
         </is>
       </c>
       <c r="B313" s="15" t="inlineStr">
         <is>
-          <t>IC-2</t>
+          <t>11-16</t>
         </is>
       </c>
       <c r="C313" s="12" t="inlineStr">
@@ -7734,63 +7734,63 @@
       </c>
       <c r="D313" s="10" t="inlineStr">
         <is>
-          <t>maa://30680</t>
+          <t>maa://39239</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="15" t="inlineStr">
         <is>
-          <t>赫德雷</t>
+          <t>纯烬艾雅法拉</t>
         </is>
       </c>
       <c r="B314" s="15" t="inlineStr">
         <is>
-          <t>IW-7</t>
+          <t>FC-5</t>
         </is>
       </c>
       <c r="C314" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D314" s="10" t="inlineStr">
         <is>
-          <t>maa://40956</t>
+          <t>maa://39692, maa://39810</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="15" t="inlineStr">
         <is>
-          <t>深律</t>
+          <t>冰酿</t>
         </is>
       </c>
       <c r="B315" s="15" t="inlineStr">
         <is>
-          <t>LE-4</t>
+          <t>S3-3</t>
         </is>
       </c>
       <c r="C315" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D315" s="10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>*maa://39174</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="15" t="inlineStr">
         <is>
-          <t>止颂</t>
+          <t>杏仁</t>
         </is>
       </c>
       <c r="B316" s="15" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>BI-2</t>
         </is>
       </c>
       <c r="C316" s="12" t="inlineStr">
@@ -7800,19 +7800,19 @@
       </c>
       <c r="D316" s="10" t="inlineStr">
         <is>
-          <t>maa://34205</t>
+          <t>maa://39175</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="15" t="inlineStr">
         <is>
-          <t>止颂</t>
+          <t>涤火杰西卡</t>
         </is>
       </c>
       <c r="B317" s="15" t="inlineStr">
         <is>
-          <t>TW-5</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C317" s="12" t="inlineStr">
@@ -7822,19 +7822,19 @@
       </c>
       <c r="D317" s="10" t="inlineStr">
         <is>
-          <t>maa://43092, maa://43093</t>
+          <t>maa://34867, maa://34715</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="15" t="inlineStr">
         <is>
-          <t>薇薇安娜</t>
+          <t>维荻</t>
         </is>
       </c>
       <c r="B318" s="15" t="inlineStr">
         <is>
-          <t>MN-3</t>
+          <t>9-3</t>
         </is>
       </c>
       <c r="C318" s="12" t="inlineStr">
@@ -7844,41 +7844,41 @@
       </c>
       <c r="D318" s="10" t="inlineStr">
         <is>
-          <t>maa://44234</t>
+          <t>maa://39176</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="15" t="inlineStr">
         <is>
-          <t>塑心</t>
+          <t>戴菲恩</t>
         </is>
       </c>
       <c r="B319" s="15" t="inlineStr">
         <is>
-          <t>GA-7</t>
+          <t>WD-6</t>
         </is>
       </c>
       <c r="C319" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D319" s="10" t="inlineStr">
         <is>
-          <t>maa://42968, maa://49245</t>
+          <t>maa://42316</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="15" t="inlineStr">
         <is>
-          <t>哈洛德</t>
+          <t>刺玫</t>
         </is>
       </c>
       <c r="B320" s="15" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>IC-2</t>
         </is>
       </c>
       <c r="C320" s="12" t="inlineStr">
@@ -7888,19 +7888,19 @@
       </c>
       <c r="D320" s="10" t="inlineStr">
         <is>
-          <t>**maa://40162</t>
+          <t>maa://30680</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="15" t="inlineStr">
         <is>
-          <t>烈夏</t>
+          <t>赫德雷</t>
         </is>
       </c>
       <c r="B321" s="15" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>IW-7</t>
         </is>
       </c>
       <c r="C321" s="12" t="inlineStr">
@@ -7910,41 +7910,41 @@
       </c>
       <c r="D321" s="10" t="inlineStr">
         <is>
-          <t>maa://37692</t>
+          <t>maa://40956</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="15" t="inlineStr">
         <is>
-          <t>锏</t>
+          <t>深律</t>
         </is>
       </c>
       <c r="B322" s="15" t="inlineStr">
         <is>
-          <t>BI-6</t>
+          <t>LE-4</t>
         </is>
       </c>
       <c r="C322" s="12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D322" s="10" t="inlineStr">
         <is>
-          <t>maa://30671, maa://30669, maa://37275, *maa://32410, maa://41605</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="15" t="inlineStr">
         <is>
-          <t>莱伊</t>
+          <t>止颂</t>
         </is>
       </c>
       <c r="B323" s="15" t="inlineStr">
         <is>
-          <t>S9-1</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="C323" s="12" t="inlineStr">
@@ -7954,41 +7954,41 @@
       </c>
       <c r="D323" s="10" t="inlineStr">
         <is>
-          <t>maa://38295</t>
+          <t>maa://34205</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="15" t="inlineStr">
         <is>
-          <t>万顷</t>
+          <t>止颂</t>
         </is>
       </c>
       <c r="B324" s="15" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>TW-5</t>
         </is>
       </c>
       <c r="C324" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D324" s="10" t="inlineStr">
         <is>
-          <t>maa://32417</t>
+          <t>maa://43092, maa://43093</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="15" t="inlineStr">
         <is>
-          <t>小满</t>
+          <t>薇薇安娜</t>
         </is>
       </c>
       <c r="B325" s="15" t="inlineStr">
         <is>
-          <t>9-11</t>
+          <t>MN-3</t>
         </is>
       </c>
       <c r="C325" s="12" t="inlineStr">
@@ -7998,41 +7998,41 @@
       </c>
       <c r="D325" s="10" t="inlineStr">
         <is>
-          <t>maa://32419</t>
+          <t>maa://44234</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="15" t="inlineStr">
         <is>
-          <t>左乐</t>
+          <t>塑心</t>
         </is>
       </c>
       <c r="B326" s="15" t="inlineStr">
         <is>
-          <t>WB-5</t>
+          <t>GA-7</t>
         </is>
       </c>
       <c r="C326" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D326" s="10" t="inlineStr">
         <is>
-          <t>maa://32416</t>
+          <t>maa://42968, maa://49245</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="15" t="inlineStr">
         <is>
-          <t>左乐</t>
+          <t>哈洛德</t>
         </is>
       </c>
       <c r="B327" s="15" t="inlineStr">
         <is>
-          <t>RI-7</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="C327" s="12" t="inlineStr">
@@ -8042,85 +8042,85 @@
       </c>
       <c r="D327" s="10" t="inlineStr">
         <is>
-          <t>maa://45800</t>
+          <t>*maa://40162</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="15" t="inlineStr">
         <is>
-          <t>黍</t>
+          <t>烈夏</t>
         </is>
       </c>
       <c r="B328" s="15" t="inlineStr">
         <is>
-          <t>11-11</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C328" s="12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D328" s="10" t="inlineStr">
         <is>
-          <t>maa://32647, maa://32415, maa://34677, maa://32892, maa://32653, **maa://47851</t>
+          <t>maa://37692</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="15" t="inlineStr">
         <is>
-          <t>红隼</t>
+          <t>锏</t>
         </is>
       </c>
       <c r="B329" s="15" t="inlineStr">
         <is>
-          <t>11-18</t>
+          <t>BI-6</t>
         </is>
       </c>
       <c r="C329" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D329" s="10" t="inlineStr">
         <is>
-          <t>maa://32420</t>
+          <t>maa://30671, maa://30669, maa://37275, *maa://32410, maa://41605</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="15" t="inlineStr">
         <is>
-          <t>导火索</t>
+          <t>莱伊</t>
         </is>
       </c>
       <c r="B330" s="15" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>S9-1</t>
         </is>
       </c>
       <c r="C330" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D330" s="10" t="inlineStr">
         <is>
-          <t>maa://35606</t>
+          <t>maa://38295, maa://49332</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="12" t="inlineStr">
         <is>
-          <t>双月</t>
+          <t>万顷</t>
         </is>
       </c>
       <c r="B331" s="12" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="C331" s="12" t="inlineStr">
@@ -8130,19 +8130,19 @@
       </c>
       <c r="D331" s="13" t="inlineStr">
         <is>
-          <t>maa://34716</t>
+          <t>maa://32417</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="12" t="inlineStr">
         <is>
-          <t>医生</t>
+          <t>小满</t>
         </is>
       </c>
       <c r="B332" s="12" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>9-11</t>
         </is>
       </c>
       <c r="C332" s="12" t="inlineStr">
@@ -8152,41 +8152,41 @@
       </c>
       <c r="D332" s="13" t="inlineStr">
         <is>
-          <t>maa://39179</t>
+          <t>maa://32419</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="12" t="inlineStr">
         <is>
-          <t>艾拉</t>
+          <t>左乐</t>
         </is>
       </c>
       <c r="B333" s="12" t="inlineStr">
         <is>
-          <t>DM-EX-1</t>
+          <t>WB-5</t>
         </is>
       </c>
       <c r="C333" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D333" s="13" t="inlineStr">
         <is>
-          <t>maa://34865, maa://34717, *maa://45066</t>
+          <t>maa://32416</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="12" t="inlineStr">
         <is>
-          <t>露托</t>
+          <t>左乐</t>
         </is>
       </c>
       <c r="B334" s="12" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>RI-7</t>
         </is>
       </c>
       <c r="C334" s="12" t="inlineStr">
@@ -8196,41 +8196,41 @@
       </c>
       <c r="D334" s="13" t="inlineStr">
         <is>
-          <t>maa://39180</t>
+          <t>maa://45800</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="12" t="inlineStr">
         <is>
-          <t>奥达</t>
+          <t>黍</t>
         </is>
       </c>
       <c r="B335" s="12" t="inlineStr">
         <is>
-          <t>S3-6</t>
+          <t>11-11</t>
         </is>
       </c>
       <c r="C335" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D335" s="13" t="inlineStr">
         <is>
-          <t>maa://45834, maa://45833</t>
+          <t>maa://32647, maa://32415, maa://34677, maa://32892, maa://32653</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="12" t="inlineStr">
         <is>
-          <t>阿罗玛</t>
+          <t>红隼</t>
         </is>
       </c>
       <c r="B336" s="12" t="inlineStr">
         <is>
-          <t>GT-HX-3</t>
+          <t>11-18</t>
         </is>
       </c>
       <c r="C336" s="12" t="inlineStr">
@@ -8240,41 +8240,41 @@
       </c>
       <c r="D336" s="13" t="inlineStr">
         <is>
-          <t>maa://39181</t>
+          <t>maa://32420</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="12" t="inlineStr">
         <is>
-          <t>阿斯卡纶</t>
+          <t>导火索</t>
         </is>
       </c>
       <c r="B337" s="12" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C337" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D337" s="13" t="inlineStr">
         <is>
-          <t>maa://36868, maa://35996, maa://47349</t>
+          <t>maa://35606</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="12" t="inlineStr">
         <is>
-          <t>历阵锐枪芬</t>
+          <t>双月</t>
         </is>
       </c>
       <c r="B338" s="12" t="inlineStr">
         <is>
-          <t>4-2</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C338" s="12" t="inlineStr">
@@ -8284,107 +8284,107 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>maa://36647</t>
+          <t>maa://34716</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="12" t="inlineStr">
         <is>
-          <t>魔王</t>
+          <t>医生</t>
         </is>
       </c>
       <c r="B339" s="12" t="inlineStr">
         <is>
-          <t>14-5</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C339" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>maa://42299, *maa://42224</t>
+          <t>maa://39179</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="12" t="inlineStr">
         <is>
-          <t>逻各斯</t>
+          <t>艾拉</t>
         </is>
       </c>
       <c r="B340" s="12" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>DM-EX-1</t>
         </is>
       </c>
       <c r="C340" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>maa://36646, maa://36845</t>
+          <t>maa://34865, maa://34717, *maa://45066</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="12" t="inlineStr">
         <is>
-          <t>维什戴尔</t>
+          <t>露托</t>
         </is>
       </c>
       <c r="B341" s="12" t="inlineStr">
         <is>
-          <t>DM-5</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C341" s="12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>maa://36645, maa://36841, maa://37484, maa://37858, maa://40489</t>
+          <t>maa://39180</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="12" t="inlineStr">
         <is>
-          <t>阿米娅</t>
+          <t>奥达</t>
         </is>
       </c>
       <c r="B342" s="12" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C342" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>maa://42635</t>
+          <t>maa://45834, maa://45833</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="12" t="inlineStr">
         <is>
-          <t>深巡</t>
+          <t>阿罗玛</t>
         </is>
       </c>
       <c r="B343" s="12" t="inlineStr">
         <is>
-          <t>SN-5</t>
+          <t>GT-HX-3</t>
         </is>
       </c>
       <c r="C343" s="12" t="inlineStr">
@@ -8394,151 +8394,151 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>maa://39183</t>
+          <t>maa://39181</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="12" t="inlineStr">
         <is>
-          <t>海霓</t>
+          <t>阿斯卡纶</t>
         </is>
       </c>
       <c r="B344" s="12" t="inlineStr">
         <is>
-          <t>SV-4</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C344" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>maa://39184</t>
+          <t>maa://36868, maa://35996, maa://47349</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="12" t="inlineStr">
         <is>
-          <t>乌尔比安</t>
+          <t>历阵锐枪芬</t>
         </is>
       </c>
       <c r="B345" s="12" t="inlineStr">
         <is>
-          <t>SV-6</t>
+          <t>4-2</t>
         </is>
       </c>
       <c r="C345" s="12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>maa://40957, maa://44635, maa://41035, maa://41128, maa://44660, maa://48026</t>
+          <t>maa://36647</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="12" t="inlineStr">
         <is>
-          <t>渡桥</t>
+          <t>魔王</t>
         </is>
       </c>
       <c r="B346" s="12" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>14-5</t>
         </is>
       </c>
       <c r="C346" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>maa://40164</t>
+          <t>maa://42299, *maa://42224</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="12" t="inlineStr">
         <is>
-          <t>锡人</t>
+          <t>逻各斯</t>
         </is>
       </c>
       <c r="B347" s="12" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>14-9</t>
         </is>
       </c>
       <c r="C347" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>maa://48268</t>
+          <t>maa://49648, maa://49662</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="12" t="inlineStr">
         <is>
-          <t>衡沙</t>
+          <t>逻各斯</t>
         </is>
       </c>
       <c r="B348" s="12" t="inlineStr">
         <is>
-          <t>DV-2</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C348" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>maa://40165</t>
+          <t>maa://36646, maa://36845</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="12" t="inlineStr">
         <is>
-          <t>佩佩</t>
+          <t>维什戴尔</t>
         </is>
       </c>
       <c r="B349" s="12" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>DM-5</t>
         </is>
       </c>
       <c r="C349" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>maa://45798</t>
+          <t>maa://36645, maa://36841, maa://37484, maa://37858, maa://40489</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="12" t="inlineStr">
         <is>
-          <t>森西</t>
+          <t>阿米娅</t>
         </is>
       </c>
       <c r="B350" s="12" t="inlineStr">
         <is>
-          <t>1-12</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C350" s="12" t="inlineStr">
@@ -8548,85 +8548,85 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>maa://42331</t>
+          <t>maa://42635</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="12" t="inlineStr">
         <is>
-          <t>齐尔查克</t>
+          <t>深巡</t>
         </is>
       </c>
       <c r="B351" s="12" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>SN-5</t>
         </is>
       </c>
       <c r="C351" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>maa://42333, maa://41977</t>
+          <t>maa://39183</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="12" t="inlineStr">
         <is>
-          <t>莱欧斯</t>
+          <t>海霓</t>
         </is>
       </c>
       <c r="B352" s="12" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>SV-4</t>
         </is>
       </c>
       <c r="C352" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>maa://42338, maa://41976</t>
+          <t>maa://39184</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="12" t="inlineStr">
         <is>
-          <t>玛露西尔</t>
+          <t>乌尔比安</t>
         </is>
       </c>
       <c r="B353" s="12" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>SV-6</t>
         </is>
       </c>
       <c r="C353" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>maa://41110, maa://45605</t>
+          <t>maa://40957, maa://44635, maa://41035, maa://41128, maa://44660, maa://48026</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="12" t="inlineStr">
         <is>
-          <t>凯瑟琳</t>
+          <t>渡桥</t>
         </is>
       </c>
       <c r="B354" s="12" t="inlineStr">
         <is>
-          <t>11-7</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C354" s="12" t="inlineStr">
@@ -8636,19 +8636,19 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>maa://42343</t>
+          <t>maa://40164</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="12" t="inlineStr">
         <is>
-          <t>波卜</t>
+          <t>锡人</t>
         </is>
       </c>
       <c r="B355" s="12" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C355" s="12" t="inlineStr">
@@ -8658,41 +8658,41 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>maa://43095</t>
+          <t>maa://48268</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="12" t="inlineStr">
         <is>
-          <t>维娜·维多利亚</t>
+          <t>衡沙</t>
         </is>
       </c>
       <c r="B356" s="12" t="inlineStr">
         <is>
-          <t>9-5</t>
+          <t>DV-2</t>
         </is>
       </c>
       <c r="C356" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>maa://44233, maa://45570</t>
+          <t>maa://40165</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="12" t="inlineStr">
         <is>
-          <t>裁度</t>
+          <t>佩佩</t>
         </is>
       </c>
       <c r="B357" s="12" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C357" s="12" t="inlineStr">
@@ -8702,19 +8702,19 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>maa://43097</t>
+          <t>maa://45798</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="12" t="inlineStr">
         <is>
-          <t>弑君者</t>
+          <t>森西</t>
         </is>
       </c>
       <c r="B358" s="12" t="inlineStr">
         <is>
-          <t>4-4</t>
+          <t>1-12</t>
         </is>
       </c>
       <c r="C358" s="12" t="inlineStr">
@@ -8724,85 +8724,85 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>maa://43872</t>
+          <t>maa://42331</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="12" t="inlineStr">
         <is>
-          <t>忍冬</t>
+          <t>齐尔查克</t>
         </is>
       </c>
       <c r="B359" s="12" t="inlineStr">
         <is>
-          <t>S2-3</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C359" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>maa://43875</t>
+          <t>maa://42333, maa://41977</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="12" t="inlineStr">
         <is>
-          <t>荒芜拉普兰德</t>
+          <t>莱欧斯</t>
         </is>
       </c>
       <c r="B360" s="12" t="inlineStr">
         <is>
-          <t>IS-8</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="C360" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>maa://42970, maa://44745, maa://45952, maa://44896</t>
+          <t>maa://42338, maa://41976</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="12" t="inlineStr">
         <is>
-          <t>瑰盐</t>
+          <t>玛露西尔</t>
         </is>
       </c>
       <c r="B361" s="12" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C361" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>maa://44389</t>
+          <t>maa://41110, maa://45605</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="12" t="inlineStr">
         <is>
-          <t>引星棘刺</t>
+          <t>凯瑟琳</t>
         </is>
       </c>
       <c r="B362" s="12" t="inlineStr">
         <is>
-          <t>OF-7</t>
+          <t>11-7</t>
         </is>
       </c>
       <c r="C362" s="12" t="inlineStr">
@@ -8812,19 +8812,19 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>maa://48113</t>
+          <t>maa://42343</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="12" t="inlineStr">
         <is>
-          <t>行箸</t>
+          <t>波卜</t>
         </is>
       </c>
       <c r="B363" s="12" t="inlineStr">
         <is>
-          <t>3-2</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="C363" s="12" t="inlineStr">
@@ -8834,19 +8834,19 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>maa://45807</t>
+          <t>maa://43095</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="12" t="inlineStr">
         <is>
-          <t>诺威尔</t>
+          <t>维娜·维多利亚</t>
         </is>
       </c>
       <c r="B364" s="12" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>9-5</t>
         </is>
       </c>
       <c r="C364" s="12" t="inlineStr">
@@ -8856,19 +8856,19 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>maa://47175, maa://47174</t>
+          <t>maa://44233, maa://45570</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="12" t="inlineStr">
         <is>
-          <t>隐德来希</t>
+          <t>裁度</t>
         </is>
       </c>
       <c r="B365" s="12" t="inlineStr">
         <is>
-          <t>10-12</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="C365" s="12" t="inlineStr">
@@ -8878,19 +8878,19 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>maa://47023</t>
+          <t>maa://43097</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="12" t="inlineStr">
         <is>
-          <t>钼铅</t>
+          <t>弑君者</t>
         </is>
       </c>
       <c r="B366" s="12" t="inlineStr">
         <is>
-          <t>9-6</t>
+          <t>4-4</t>
         </is>
       </c>
       <c r="C366" s="12" t="inlineStr">
@@ -8900,73 +8900,227 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>maa://48618</t>
+          <t>maa://43872</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="12" t="inlineStr">
         <is>
-          <t>诺威尔</t>
+          <t>忍冬</t>
         </is>
       </c>
       <c r="B367" s="12" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>S2-3</t>
         </is>
       </c>
       <c r="C367" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>maa://47175, maa://47174</t>
+          <t>maa://43875</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="12" t="inlineStr">
         <is>
-          <t>隐德来希</t>
+          <t>荒芜拉普兰德</t>
         </is>
       </c>
       <c r="B368" s="12" t="inlineStr">
         <is>
-          <t>10-12</t>
+          <t>IS-8</t>
         </is>
       </c>
       <c r="C368" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>maa://47023</t>
+          <t>maa://42970, maa://44745, maa://45952, maa://44896, maa://49516</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="12" t="inlineStr">
         <is>
+          <t>瑰盐</t>
+        </is>
+      </c>
+      <c r="B369" s="12" t="inlineStr">
+        <is>
+          <t>4-6</t>
+        </is>
+      </c>
+      <c r="C369" s="12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>maa://44389</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="12" t="inlineStr">
+        <is>
+          <t>引星棘刺</t>
+        </is>
+      </c>
+      <c r="B370" s="12" t="inlineStr">
+        <is>
+          <t>OF-7</t>
+        </is>
+      </c>
+      <c r="C370" s="12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>maa://48113</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="12" t="inlineStr">
+        <is>
+          <t>行箸</t>
+        </is>
+      </c>
+      <c r="B371" s="12" t="inlineStr">
+        <is>
+          <t>3-2</t>
+        </is>
+      </c>
+      <c r="C371" s="12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>maa://45807</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="12" t="inlineStr">
+        <is>
+          <t>寻澜</t>
+        </is>
+      </c>
+      <c r="B372" s="12" t="inlineStr">
+        <is>
+          <t>3-5</t>
+        </is>
+      </c>
+      <c r="C372" s="12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="12" t="inlineStr">
+        <is>
+          <t>诺威尔</t>
+        </is>
+      </c>
+      <c r="B373" s="12" t="inlineStr">
+        <is>
+          <t>5-7</t>
+        </is>
+      </c>
+      <c r="C373" s="12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>maa://47175, maa://47174</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="12" t="inlineStr">
+        <is>
+          <t>隐德来希</t>
+        </is>
+      </c>
+      <c r="B374" s="12" t="inlineStr">
+        <is>
+          <t>10-12</t>
+        </is>
+      </c>
+      <c r="C374" s="12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>maa://47023</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="12" t="inlineStr">
+        <is>
           <t>钼铅</t>
         </is>
       </c>
-      <c r="B369" s="12" t="inlineStr">
+      <c r="B375" s="12" t="inlineStr">
         <is>
           <t>9-6</t>
         </is>
       </c>
-      <c r="C369" s="12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D369" t="inlineStr">
+      <c r="C375" s="12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
         <is>
           <t>maa://48618</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="12" t="inlineStr">
+        <is>
+          <t>阿兰娜</t>
+        </is>
+      </c>
+      <c r="B376" s="12" t="inlineStr">
+        <is>
+          <t>7-14</t>
+        </is>
+      </c>
+      <c r="C376" s="12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.04.05 17:33:18</t>
+          <t>更新日期：2025.04.04 13:19:56</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -1015,12 +1015,12 @@
       </c>
       <c r="C16" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D16" s="10" t="inlineStr">
         <is>
-          <t>maa://20919, *maa://31611</t>
+          <t>maa://20919</t>
         </is>
       </c>
       <c r="F16" s="8" t="n"/>
@@ -1355,12 +1355,12 @@
       </c>
       <c r="C26" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D26" s="10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://45081</t>
         </is>
       </c>
       <c r="F26" s="8" t="n"/>
@@ -1547,12 +1547,12 @@
       </c>
       <c r="C32" s="12" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D32" s="10" t="inlineStr">
         <is>
-          <t>maa://36644, maa://36866, maa://27794, maa://45572, maa://20960, maa://20843, **maa://24483, maa://20862, *maa://20893</t>
+          <t>maa://36644, maa://36866, maa://27794, maa://45572</t>
         </is>
       </c>
     </row>
@@ -1657,12 +1657,12 @@
       </c>
       <c r="C37" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D37" s="10" t="inlineStr">
         <is>
-          <t>maa://27376, maa://42635, *maa://20838</t>
+          <t>maa://27376, *maa://20838</t>
         </is>
       </c>
     </row>
@@ -1767,12 +1767,12 @@
       </c>
       <c r="C42" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D42" s="10" t="inlineStr">
         <is>
-          <t>maa://20918, maa://34883, maa://20824</t>
+          <t>maa://20918, *maa://22339, maa://34883, maa://20824</t>
         </is>
       </c>
     </row>
@@ -2075,12 +2075,12 @@
       </c>
       <c r="C56" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D56" s="10" t="inlineStr">
         <is>
-          <t>maa://44235, maa://45604, maa://20961, maa://20910</t>
+          <t>maa://44235, maa://45604</t>
         </is>
       </c>
     </row>
@@ -2185,12 +2185,12 @@
       </c>
       <c r="C61" s="12" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D61" s="10" t="inlineStr">
         <is>
-          <t>maa://20841, maa://24093, maa://31559, maa://20924, maa://25777, maa://20631, maa://28241</t>
+          <t>maa://20841, maa://24093, maa://31559, maa://25777, maa://20631</t>
         </is>
       </c>
     </row>
@@ -2251,12 +2251,12 @@
       </c>
       <c r="C64" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D64" s="10" t="inlineStr">
         <is>
-          <t>maa://28187, maa://33504, maa://45144, maa://43531</t>
+          <t>maa://28187, maa://33504, maa://45144, maa://43531, maa://39520</t>
         </is>
       </c>
     </row>
@@ -2295,12 +2295,12 @@
       </c>
       <c r="C66" s="12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D66" s="10" t="inlineStr">
         <is>
-          <t>maa://20993, maa://20914, maa://20829, maa://45606, maa://20900, maa://40159</t>
+          <t>maa://20993, maa://20829, maa://45606</t>
         </is>
       </c>
     </row>
@@ -2361,12 +2361,12 @@
       </c>
       <c r="C69" s="12" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D69" s="10" t="inlineStr">
         <is>
-          <t>maa://20974, maa://29079, maa://29096, maa://29087, *maa://20823, maa://20855, maa://20904</t>
+          <t>maa://28784, maa://29088, maa://20974, maa://31124, maa://28950, *maa://33612, maa://29087, *maa://20823, **maa://42200, maa://41832</t>
         </is>
       </c>
     </row>
@@ -2405,12 +2405,12 @@
       </c>
       <c r="C71" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D71" s="10" t="inlineStr">
         <is>
-          <t>maa://20943, maa://30673, maa://30672, maa://20856</t>
+          <t>maa://20943</t>
         </is>
       </c>
     </row>
@@ -2757,12 +2757,12 @@
       </c>
       <c r="C87" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D87" s="10" t="inlineStr">
         <is>
-          <t>maa://20886</t>
+          <t>maa://20886, maa://25136</t>
         </is>
       </c>
     </row>
@@ -3043,12 +3043,12 @@
       </c>
       <c r="C100" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D100" s="10" t="inlineStr">
         <is>
-          <t>maa://20852</t>
+          <t>maa://31560, maa://20852</t>
         </is>
       </c>
     </row>
@@ -3285,12 +3285,12 @@
       </c>
       <c r="C111" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D111" s="10" t="inlineStr">
         <is>
-          <t>*maa://28554</t>
+          <t>*maa://28554, maa://45081, maa://48826</t>
         </is>
       </c>
     </row>
@@ -3747,12 +3747,12 @@
       </c>
       <c r="C132" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D132" s="10" t="inlineStr">
         <is>
-          <t>maa://20837, maa://37666</t>
+          <t>maa://40517, maa://23019, maa://20837, maa://37113, maa://37666, maa://41686</t>
         </is>
       </c>
     </row>
@@ -3769,12 +3769,12 @@
       </c>
       <c r="C133" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D133" s="10" t="inlineStr">
         <is>
-          <t>maa://29023, maa://39515</t>
+          <t>maa://23020, maa://29023, maa://41690, maa://39515, maa://34319</t>
         </is>
       </c>
     </row>
@@ -4099,12 +4099,12 @@
       </c>
       <c r="C148" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D148" s="10" t="inlineStr">
         <is>
-          <t>maa://28828, maa://20846</t>
+          <t>maa://20846</t>
         </is>
       </c>
     </row>
@@ -4121,12 +4121,12 @@
       </c>
       <c r="C149" s="12" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D149" s="10" t="inlineStr">
         <is>
-          <t>maa://36641, maa://40957, maa://36865, maa://44635, maa://41128, maa://44660, maa://42918, maa://44119, maa://37300, maa://46108, maa://42917</t>
+          <t>maa://36641, maa://36865, maa://42918, maa://44119, maa://37300, maa://46108, maa://42917</t>
         </is>
       </c>
     </row>
@@ -4495,12 +4495,12 @@
       </c>
       <c r="C166" s="12" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D166" s="10" t="inlineStr">
         <is>
-          <t>maa://29633, maa://29627, maa://29659, **maa://30679, maa://29861, maa://42343, maa://49074</t>
+          <t>maa://29633, maa://29627, maa://29659, maa://29861, maa://49074</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
     <row r="168">
       <c r="A168" s="15" t="inlineStr">
         <is>
-          <t>阿米娅</t>
+          <t>阿米娅(近卫)</t>
         </is>
       </c>
       <c r="B168" s="15" t="inlineStr">
@@ -5255,12 +5255,12 @@
     <row r="201">
       <c r="A201" s="15" t="inlineStr">
         <is>
-          <t>卡涅利安</t>
+          <t>绮良</t>
         </is>
       </c>
       <c r="B201" s="15" t="inlineStr">
         <is>
-          <t>7-3</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C201" s="12" t="inlineStr">
@@ -5270,7 +5270,7 @@
       </c>
       <c r="D201" s="10" t="inlineStr">
         <is>
-          <t>maa://22468</t>
+          <t>maa://20937</t>
         </is>
       </c>
     </row>
@@ -5282,39 +5282,39 @@
       </c>
       <c r="B202" s="15" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>7-3</t>
         </is>
       </c>
       <c r="C202" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D202" s="10" t="inlineStr">
         <is>
-          <t>maa://30673, maa://30672</t>
+          <t>maa://22468</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="15" t="inlineStr">
         <is>
-          <t>帕拉斯</t>
+          <t>卡涅利安</t>
         </is>
       </c>
       <c r="B203" s="15" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C203" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D203" s="10" t="inlineStr">
         <is>
-          <t>maa://20934, maa://20827, maa://20828</t>
+          <t>maa://30673, maa://30672</t>
         </is>
       </c>
     </row>
@@ -5326,61 +5326,61 @@
       </c>
       <c r="B204" s="15" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="C204" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D204" s="10" t="inlineStr">
         <is>
-          <t>maa://20935</t>
+          <t>maa://20934, maa://20827, maa://20828</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="15" t="inlineStr">
         <is>
-          <t>羽毛笔</t>
+          <t>帕拉斯</t>
         </is>
       </c>
       <c r="B205" s="15" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C205" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D205" s="10" t="inlineStr">
         <is>
-          <t>maa://28133, maa://25369</t>
+          <t>maa://20935</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="15" t="inlineStr">
         <is>
-          <t>水月</t>
+          <t>羽毛笔</t>
         </is>
       </c>
       <c r="B206" s="15" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C206" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D206" s="13" t="inlineStr">
         <is>
-          <t>maa://20956, *maa://20830, maa://44703</t>
+          <t>maa://28133, maa://28277, maa://25369, *maa://33132</t>
         </is>
       </c>
     </row>
@@ -5392,29 +5392,29 @@
       </c>
       <c r="B207" s="15" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C207" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D207" s="10" t="inlineStr">
         <is>
-          <t>*maa://20955</t>
+          <t>maa://20956, *maa://20830, maa://44703</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="15" t="inlineStr">
         <is>
-          <t>假日威龙陈</t>
+          <t>水月</t>
         </is>
       </c>
       <c r="B208" s="15" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="C208" s="12" t="inlineStr">
@@ -5424,19 +5424,19 @@
       </c>
       <c r="D208" s="10" t="inlineStr">
         <is>
-          <t>maa://39238</t>
+          <t>*maa://20955</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="15" t="inlineStr">
         <is>
-          <t>罗比菈塔</t>
+          <t>假日威龙陈</t>
         </is>
       </c>
       <c r="B209" s="15" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="C209" s="12" t="inlineStr">
@@ -5446,19 +5446,19 @@
       </c>
       <c r="D209" s="10" t="inlineStr">
         <is>
-          <t>maa://45261</t>
+          <t>maa://39238</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="15" t="inlineStr">
         <is>
-          <t>桑葚</t>
+          <t>罗比菈塔</t>
         </is>
       </c>
       <c r="B210" s="15" t="inlineStr">
         <is>
-          <t>SV-5</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C210" s="12" t="inlineStr">
@@ -5468,29 +5468,29 @@
       </c>
       <c r="D210" s="10" t="inlineStr">
         <is>
-          <t>maa://39694</t>
+          <t>maa://45261</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="15" t="inlineStr">
         <is>
-          <t>琴柳</t>
+          <t>桑葚</t>
         </is>
       </c>
       <c r="B211" s="15" t="inlineStr">
         <is>
-          <t>9-2</t>
+          <t>SV-5</t>
         </is>
       </c>
       <c r="C211" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D211" s="10" t="inlineStr">
         <is>
-          <t>maa://24636, maa://25778</t>
+          <t>maa://39694</t>
         </is>
       </c>
     </row>
@@ -5502,29 +5502,29 @@
       </c>
       <c r="B212" s="15" t="inlineStr">
         <is>
-          <t>5-3</t>
+          <t>9-2</t>
         </is>
       </c>
       <c r="C212" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D212" s="10" t="inlineStr">
         <is>
-          <t>maa://48261</t>
+          <t>maa://24636, maa://25778</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="15" t="inlineStr">
         <is>
-          <t>灰毫</t>
+          <t>琴柳</t>
         </is>
       </c>
       <c r="B213" s="15" t="inlineStr">
         <is>
-          <t>7-9</t>
+          <t>5-3</t>
         </is>
       </c>
       <c r="C213" s="12" t="inlineStr">
@@ -5534,29 +5534,29 @@
       </c>
       <c r="D213" s="10" t="inlineStr">
         <is>
-          <t>*maa://39157</t>
+          <t>maa://48261</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="15" t="inlineStr">
         <is>
-          <t>远牙</t>
+          <t>灰毫</t>
         </is>
       </c>
       <c r="B214" s="15" t="inlineStr">
         <is>
-          <t>S2-2</t>
+          <t>7-9</t>
         </is>
       </c>
       <c r="C214" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D214" s="10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>*maa://39157</t>
         </is>
       </c>
     </row>
@@ -5568,29 +5568,29 @@
       </c>
       <c r="B215" s="15" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>S2-2</t>
         </is>
       </c>
       <c r="C215" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D215" s="10" t="inlineStr">
         <is>
-          <t>maa://26499</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="15" t="inlineStr">
         <is>
-          <t>布丁</t>
+          <t>远牙</t>
         </is>
       </c>
       <c r="B216" s="15" t="inlineStr">
         <is>
-          <t>2-10</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C216" s="12" t="inlineStr">
@@ -5600,19 +5600,19 @@
       </c>
       <c r="D216" s="10" t="inlineStr">
         <is>
-          <t>maa://20858</t>
+          <t>maa://26499</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="15" t="inlineStr">
         <is>
-          <t>蜜莓</t>
+          <t>布丁</t>
         </is>
       </c>
       <c r="B217" s="15" t="inlineStr">
         <is>
-          <t>GA-2</t>
+          <t>2-10</t>
         </is>
       </c>
       <c r="C217" s="12" t="inlineStr">
@@ -5622,19 +5622,19 @@
       </c>
       <c r="D217" s="10" t="inlineStr">
         <is>
-          <t>maa://39695</t>
+          <t>maa://20858</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="15" t="inlineStr">
         <is>
-          <t>野鬃</t>
+          <t>蜜莓</t>
         </is>
       </c>
       <c r="B218" s="15" t="inlineStr">
         <is>
-          <t>MN-2</t>
+          <t>GA-2</t>
         </is>
       </c>
       <c r="C218" s="12" t="inlineStr">
@@ -5644,19 +5644,19 @@
       </c>
       <c r="D218" s="10" t="inlineStr">
         <is>
-          <t>maa://20988</t>
+          <t>maa://39695</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="15" t="inlineStr">
         <is>
-          <t>蚀清</t>
+          <t>野鬃</t>
         </is>
       </c>
       <c r="B219" s="15" t="inlineStr">
         <is>
-          <t>BI-6</t>
+          <t>MN-2</t>
         </is>
       </c>
       <c r="C219" s="12" t="inlineStr">
@@ -5666,63 +5666,63 @@
       </c>
       <c r="D219" s="10" t="inlineStr">
         <is>
-          <t>maa://39158</t>
+          <t>maa://20988</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="15" t="inlineStr">
         <is>
-          <t>耀骑士临光</t>
+          <t>蚀清</t>
         </is>
       </c>
       <c r="B220" s="15" t="inlineStr">
         <is>
-          <t>MN-8</t>
+          <t>BI-6</t>
         </is>
       </c>
       <c r="C220" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D220" s="10" t="inlineStr">
         <is>
-          <t>maa://20987, *maa://35801</t>
+          <t>maa://39158</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="15" t="inlineStr">
         <is>
-          <t>耀骑士临光</t>
+          <t>焰尾</t>
         </is>
       </c>
       <c r="B221" s="15" t="inlineStr">
         <is>
-          <t>NL-10</t>
+          <t>NL-5</t>
         </is>
       </c>
       <c r="C221" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D221" s="10" t="inlineStr">
         <is>
-          <t>*maa://29644, maa://39159</t>
+          <t>maa://28187, maa://43531, maa://39520</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="15" t="inlineStr">
         <is>
-          <t>耶拉</t>
+          <t>焰尾</t>
         </is>
       </c>
       <c r="B222" s="15" t="inlineStr">
         <is>
-          <t>BI-7</t>
+          <t>NL-3</t>
         </is>
       </c>
       <c r="C222" s="12" t="inlineStr">
@@ -5732,85 +5732,85 @@
       </c>
       <c r="D222" s="10" t="inlineStr">
         <is>
-          <t>maa://30677</t>
+          <t>maa://20985</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="15" t="inlineStr">
         <is>
-          <t>极光</t>
+          <t>耀骑士临光</t>
         </is>
       </c>
       <c r="B223" s="15" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>MN-8</t>
         </is>
       </c>
       <c r="C223" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D223" s="10" t="inlineStr">
         <is>
-          <t>maa://20896</t>
+          <t>maa://20987, *maa://35801</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="15" t="inlineStr">
         <is>
-          <t>灵知</t>
+          <t>耀骑士临光</t>
         </is>
       </c>
       <c r="B224" s="15" t="inlineStr">
         <is>
-          <t>BI-7</t>
+          <t>NL-10</t>
         </is>
       </c>
       <c r="C224" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D224" s="10" t="inlineStr">
         <is>
-          <t>maa://29058, maa://39140, maa://38723</t>
+          <t>maa://39159</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="15" t="inlineStr">
         <is>
-          <t>灵知</t>
+          <t>耶拉</t>
         </is>
       </c>
       <c r="B225" s="15" t="inlineStr">
         <is>
-          <t>5-6</t>
+          <t>BI-7</t>
         </is>
       </c>
       <c r="C225" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D225" s="10" t="inlineStr">
         <is>
-          <t>*maa://48263</t>
+          <t>maa://39140, maa://30677</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="15" t="inlineStr">
         <is>
-          <t>九色鹿</t>
+          <t>极光</t>
         </is>
       </c>
       <c r="B226" s="15" t="inlineStr">
         <is>
-          <t>IW-3</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C226" s="12" t="inlineStr">
@@ -5820,41 +5820,41 @@
       </c>
       <c r="D226" s="10" t="inlineStr">
         <is>
-          <t>maa://39160</t>
+          <t>maa://20896</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="15" t="inlineStr">
         <is>
-          <t>寒芒克洛丝</t>
+          <t>灵知</t>
         </is>
       </c>
       <c r="B227" s="15" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>BI-7</t>
         </is>
       </c>
       <c r="C227" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D227" s="10" t="inlineStr">
         <is>
-          <t>maa://49491</t>
+          <t>maa://29058, maa://39140, maa://38723</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="15" t="inlineStr">
         <is>
-          <t>夜半</t>
+          <t>灵知</t>
         </is>
       </c>
       <c r="B228" s="15" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>5-6</t>
         </is>
       </c>
       <c r="C228" s="12" t="inlineStr">
@@ -5864,19 +5864,19 @@
       </c>
       <c r="D228" s="10" t="inlineStr">
         <is>
-          <t>maa://35952</t>
+          <t>*maa://48263</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="15" t="inlineStr">
         <is>
-          <t>老鲤</t>
+          <t>九色鹿</t>
         </is>
       </c>
       <c r="B229" s="15" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>IW-3</t>
         </is>
       </c>
       <c r="C229" s="12" t="inlineStr">
@@ -5886,63 +5886,63 @@
       </c>
       <c r="D229" s="10" t="inlineStr">
         <is>
-          <t>maa://20917</t>
+          <t>maa://39160</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="15" t="inlineStr">
         <is>
-          <t>老鲤</t>
+          <t>寒芒克洛丝</t>
         </is>
       </c>
       <c r="B230" s="15" t="inlineStr">
         <is>
-          <t>IW-EX-1</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C230" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D230" s="10" t="inlineStr">
         <is>
-          <t>maa://30714, maa://30675</t>
+          <t>maa://20878</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="15" t="inlineStr">
         <is>
-          <t>令</t>
+          <t>夜半</t>
         </is>
       </c>
       <c r="B231" s="15" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C231" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D231" s="10" t="inlineStr">
         <is>
-          <t>maa://20922, *maa://32623, *maa://34242</t>
+          <t>maa://35952</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="15" t="inlineStr">
         <is>
-          <t>夏栎</t>
+          <t>老鲤</t>
         </is>
       </c>
       <c r="B232" s="15" t="inlineStr">
         <is>
-          <t>9-2</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C232" s="12" t="inlineStr">
@@ -5952,63 +5952,63 @@
       </c>
       <c r="D232" s="10" t="inlineStr">
         <is>
-          <t>maa://32999</t>
+          <t>maa://20917</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="15" t="inlineStr">
         <is>
-          <t>澄闪</t>
+          <t>老鲤</t>
         </is>
       </c>
       <c r="B233" s="15" t="inlineStr">
         <is>
-          <t>R8-8</t>
+          <t>IW-EX-1</t>
         </is>
       </c>
       <c r="C233" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D233" s="10" t="inlineStr">
         <is>
-          <t>*maa://30667, maa://30666, *maa://30723, maa://39588</t>
+          <t>maa://30714, maa://30675</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="15" t="inlineStr">
         <is>
-          <t>见行者</t>
+          <t>令</t>
         </is>
       </c>
       <c r="B234" s="15" t="inlineStr">
         <is>
-          <t>GA-EX-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C234" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D234" s="10" t="inlineStr">
         <is>
-          <t>maa://30512</t>
+          <t>maa://20922, *maa://32623, *maa://34242, maa://34900</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="15" t="inlineStr">
         <is>
-          <t>风丸</t>
+          <t>夏栎</t>
         </is>
       </c>
       <c r="B235" s="15" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>9-2</t>
         </is>
       </c>
       <c r="C235" s="12" t="inlineStr">
@@ -6018,63 +6018,63 @@
       </c>
       <c r="D235" s="10" t="inlineStr">
         <is>
-          <t>maa://20870</t>
+          <t>maa://32999</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="15" t="inlineStr">
         <is>
-          <t>菲亚梅塔</t>
+          <t>澄闪</t>
         </is>
       </c>
       <c r="B236" s="15" t="inlineStr">
         <is>
-          <t>GA-4</t>
+          <t>R8-8</t>
         </is>
       </c>
       <c r="C236" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D236" s="10" t="inlineStr">
         <is>
-          <t>maa://29024</t>
+          <t>*maa://30667, maa://30666, *maa://26836, maa://37607, *maa://34428, *maa://30723, maa://39588, *maa://37850, maa://49172</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="15" t="inlineStr">
         <is>
-          <t>菲亚梅塔</t>
+          <t>见行者</t>
         </is>
       </c>
       <c r="B237" s="15" t="inlineStr">
         <is>
-          <t>S5-9</t>
+          <t>GA-EX-1</t>
         </is>
       </c>
       <c r="C237" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D237" s="13" t="inlineStr">
         <is>
-          <t>maa://20867, maa://38485, *maa://32202</t>
+          <t>maa://30512</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="15" t="inlineStr">
         <is>
-          <t>褐果</t>
+          <t>风丸</t>
         </is>
       </c>
       <c r="B238" s="15" t="inlineStr">
         <is>
-          <t>SV-3</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C238" s="12" t="inlineStr">
@@ -6084,19 +6084,19 @@
       </c>
       <c r="D238" s="10" t="inlineStr">
         <is>
-          <t>maa://40160</t>
+          <t>maa://20870</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="15" t="inlineStr">
         <is>
-          <t>海蒂</t>
+          <t>菲亚梅塔</t>
         </is>
       </c>
       <c r="B239" s="15" t="inlineStr">
         <is>
-          <t>9-7</t>
+          <t>GA-4</t>
         </is>
       </c>
       <c r="C239" s="12" t="inlineStr">
@@ -6106,85 +6106,85 @@
       </c>
       <c r="D239" s="10" t="inlineStr">
         <is>
-          <t>maa://43089</t>
+          <t>maa://29024</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="15" t="inlineStr">
         <is>
-          <t>洛洛</t>
+          <t>菲亚梅塔</t>
         </is>
       </c>
       <c r="B240" s="15" t="inlineStr">
         <is>
-          <t>RI-EX-4</t>
+          <t>S5-9</t>
         </is>
       </c>
       <c r="C240" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D240" s="10" t="inlineStr">
         <is>
-          <t>maa://30674</t>
+          <t>maa://20867, maa://38485, *maa://32202</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="15" t="inlineStr">
         <is>
-          <t>号角</t>
+          <t>褐果</t>
         </is>
       </c>
       <c r="B241" s="15" t="inlineStr">
         <is>
-          <t>7-15</t>
+          <t>SV-3</t>
         </is>
       </c>
       <c r="C241" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D241" s="10" t="inlineStr">
         <is>
-          <t>maa://28923, maa://28906</t>
+          <t>maa://40160</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="15" t="inlineStr">
         <is>
-          <t>号角</t>
+          <t>海蒂</t>
         </is>
       </c>
       <c r="B242" s="15" t="inlineStr">
         <is>
-          <t>9-5</t>
+          <t>9-7</t>
         </is>
       </c>
       <c r="C242" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D242" s="10" t="inlineStr">
         <is>
-          <t>maa://42287, maa://45570, maa://42225</t>
+          <t>maa://43089</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="15" t="inlineStr">
         <is>
-          <t>掠风</t>
+          <t>洛洛</t>
         </is>
       </c>
       <c r="B243" s="15" t="inlineStr">
         <is>
-          <t>11-9</t>
+          <t>RI-EX-4</t>
         </is>
       </c>
       <c r="C243" s="12" t="inlineStr">
@@ -6194,41 +6194,41 @@
       </c>
       <c r="D243" s="10" t="inlineStr">
         <is>
-          <t>maa://39161</t>
+          <t>maa://30674</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="15" t="inlineStr">
         <is>
-          <t>流明</t>
+          <t>号角</t>
         </is>
       </c>
       <c r="B244" s="15" t="inlineStr">
         <is>
-          <t>6-9</t>
+          <t>7-15</t>
         </is>
       </c>
       <c r="C244" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D244" s="13" t="inlineStr">
         <is>
-          <t>maa://20923</t>
+          <t>maa://28923, maa://28906</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="15" t="inlineStr">
         <is>
-          <t>流明</t>
+          <t>号角</t>
         </is>
       </c>
       <c r="B245" s="15" t="inlineStr">
         <is>
-          <t>OF-5</t>
+          <t>9-5</t>
         </is>
       </c>
       <c r="C245" s="12" t="inlineStr">
@@ -6238,41 +6238,41 @@
       </c>
       <c r="D245" s="10" t="inlineStr">
         <is>
-          <t>maa://24093, maa://31559, maa://20924</t>
+          <t>maa://42287, maa://45570, maa://42225</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="15" t="inlineStr">
         <is>
-          <t>艾丽妮</t>
+          <t>掠风</t>
         </is>
       </c>
       <c r="B246" s="15" t="inlineStr">
         <is>
-          <t>SV-EX-1</t>
+          <t>11-9</t>
         </is>
       </c>
       <c r="C246" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D246" s="10" t="inlineStr">
         <is>
-          <t>maa://40958, maa://45067</t>
+          <t>maa://39161</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="15" t="inlineStr">
         <is>
-          <t>艾丽妮</t>
+          <t>流明</t>
         </is>
       </c>
       <c r="B247" s="15" t="inlineStr">
         <is>
-          <t>SV-4</t>
+          <t>6-9</t>
         </is>
       </c>
       <c r="C247" s="12" t="inlineStr">
@@ -6282,41 +6282,41 @@
       </c>
       <c r="D247" s="10" t="inlineStr">
         <is>
-          <t>maa://20840</t>
+          <t>maa://20923</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="15" t="inlineStr">
         <is>
-          <t>归溟幽灵鲨</t>
+          <t>流明</t>
         </is>
       </c>
       <c r="B248" s="15" t="inlineStr">
         <is>
-          <t>SV-EX-1</t>
+          <t>OF-5</t>
         </is>
       </c>
       <c r="C248" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D248" s="10" t="inlineStr">
         <is>
-          <t>maa://20877, maa://20836, maa://45067, maa://20632</t>
+          <t>maa://24093, maa://31559, maa://20924</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="15" t="inlineStr">
         <is>
-          <t>归溟幽灵鲨</t>
+          <t>艾丽妮</t>
         </is>
       </c>
       <c r="B249" s="15" t="inlineStr">
         <is>
-          <t>S4-1</t>
+          <t>SV-EX-1</t>
         </is>
       </c>
       <c r="C249" s="12" t="inlineStr">
@@ -6326,19 +6326,19 @@
       </c>
       <c r="D249" s="13" t="inlineStr">
         <is>
-          <t>maa://20879, maa://20834</t>
+          <t>maa://40958, *maa://45067</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="15" t="inlineStr">
         <is>
-          <t>埃拉托</t>
+          <t>艾丽妮</t>
         </is>
       </c>
       <c r="B250" s="15" t="inlineStr">
         <is>
-          <t>S5-9</t>
+          <t>SV-4</t>
         </is>
       </c>
       <c r="C250" s="12" t="inlineStr">
@@ -6348,41 +6348,41 @@
       </c>
       <c r="D250" s="10" t="inlineStr">
         <is>
-          <t>maa://20839</t>
+          <t>maa://20840</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="15" t="inlineStr">
         <is>
-          <t>濯尘芙蓉</t>
+          <t>归溟幽灵鲨</t>
         </is>
       </c>
       <c r="B251" s="15" t="inlineStr">
         <is>
-          <t>LE-4</t>
+          <t>SV-EX-1</t>
         </is>
       </c>
       <c r="C251" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D251" s="10" t="inlineStr">
         <is>
-          <t>maa://30676</t>
+          <t>maa://20877, maa://20836, *maa://45067, maa://20632</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="15" t="inlineStr">
         <is>
-          <t>黑键</t>
+          <t>归溟幽灵鲨</t>
         </is>
       </c>
       <c r="B252" s="15" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>S4-1</t>
         </is>
       </c>
       <c r="C252" s="12" t="inlineStr">
@@ -6392,19 +6392,19 @@
       </c>
       <c r="D252" s="10" t="inlineStr">
         <is>
-          <t>maa://31560, maa://20884</t>
+          <t>maa://20879, maa://20834</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="15" t="inlineStr">
         <is>
-          <t>黑键</t>
+          <t>埃拉托</t>
         </is>
       </c>
       <c r="B253" s="15" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>S5-9</t>
         </is>
       </c>
       <c r="C253" s="12" t="inlineStr">
@@ -6414,19 +6414,19 @@
       </c>
       <c r="D253" s="10" t="inlineStr">
         <is>
-          <t>maa://47204</t>
+          <t>maa://20839</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="15" t="inlineStr">
         <is>
-          <t>黑键</t>
+          <t>濯尘芙蓉</t>
         </is>
       </c>
       <c r="B254" s="15" t="inlineStr">
         <is>
-          <t>11-12</t>
+          <t>LE-4</t>
         </is>
       </c>
       <c r="C254" s="12" t="inlineStr">
@@ -6436,41 +6436,41 @@
       </c>
       <c r="D254" s="10" t="inlineStr">
         <is>
-          <t>maa://29027</t>
+          <t>maa://30676</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="15" t="inlineStr">
         <is>
-          <t>星源</t>
+          <t>黑键</t>
         </is>
       </c>
       <c r="B255" s="15" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C255" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D255" s="10" t="inlineStr">
         <is>
-          <t>maa://20977</t>
+          <t>maa://31560, maa://20884</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="15" t="inlineStr">
         <is>
-          <t>承曦格雷伊</t>
+          <t>黑键</t>
         </is>
       </c>
       <c r="B256" s="15" t="inlineStr">
         <is>
-          <t>1-3</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="C256" s="12" t="inlineStr">
@@ -6480,19 +6480,19 @@
       </c>
       <c r="D256" s="10" t="inlineStr">
         <is>
-          <t>maa://39162</t>
+          <t>maa://47204</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="15" t="inlineStr">
         <is>
-          <t>多萝西</t>
+          <t>黑键</t>
         </is>
       </c>
       <c r="B257" s="15" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>11-12</t>
         </is>
       </c>
       <c r="C257" s="12" t="inlineStr">
@@ -6502,41 +6502,41 @@
       </c>
       <c r="D257" s="10" t="inlineStr">
         <is>
-          <t>maa://22467</t>
+          <t>maa://29027</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="15" t="inlineStr">
         <is>
-          <t>至简</t>
+          <t>星源</t>
         </is>
       </c>
       <c r="B258" s="15" t="inlineStr">
         <is>
-          <t>IC-8</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C258" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D258" s="10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://20977</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="15" t="inlineStr">
         <is>
-          <t>鸿雪</t>
+          <t>承曦格雷伊</t>
         </is>
       </c>
       <c r="B259" s="15" t="inlineStr">
         <is>
-          <t>9-7</t>
+          <t>1-3</t>
         </is>
       </c>
       <c r="C259" s="12" t="inlineStr">
@@ -6546,63 +6546,63 @@
       </c>
       <c r="D259" s="10" t="inlineStr">
         <is>
-          <t>maa://48265</t>
+          <t>maa://39162</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="15" t="inlineStr">
         <is>
-          <t>鸿雪</t>
+          <t>多萝西</t>
         </is>
       </c>
       <c r="B260" s="15" t="inlineStr">
         <is>
-          <t>2-10</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="C260" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D260" s="10" t="inlineStr">
         <is>
-          <t>*maa://20825, *maa://21445, *maa://35726</t>
+          <t>maa://22467</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="15" t="inlineStr">
         <is>
-          <t>百炼嘉维尔</t>
+          <t>至简</t>
         </is>
       </c>
       <c r="B261" s="15" t="inlineStr">
         <is>
-          <t>9-2</t>
+          <t>IC-8</t>
         </is>
       </c>
       <c r="C261" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D261" s="10" t="inlineStr">
         <is>
-          <t>maa://25769</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="15" t="inlineStr">
         <is>
-          <t>但书</t>
+          <t>鸿雪</t>
         </is>
       </c>
       <c r="B262" s="15" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>9-7</t>
         </is>
       </c>
       <c r="C262" s="12" t="inlineStr">
@@ -6612,41 +6612,41 @@
       </c>
       <c r="D262" s="10" t="inlineStr">
         <is>
-          <t>maa://20862</t>
+          <t>maa://48265</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="15" t="inlineStr">
         <is>
-          <t>罗小黑</t>
+          <t>鸿雪</t>
         </is>
       </c>
       <c r="B263" s="15" t="inlineStr">
         <is>
-          <t>IW-4</t>
+          <t>2-10</t>
         </is>
       </c>
       <c r="C263" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D263" s="10" t="inlineStr">
         <is>
-          <t>maa://39163</t>
+          <t>*maa://20825, *maa://21445, *maa://35726</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="15" t="inlineStr">
         <is>
-          <t>海沫</t>
+          <t>百炼嘉维尔</t>
         </is>
       </c>
       <c r="B264" s="15" t="inlineStr">
         <is>
-          <t>SN-2</t>
+          <t>9-2</t>
         </is>
       </c>
       <c r="C264" s="12" t="inlineStr">
@@ -6656,41 +6656,41 @@
       </c>
       <c r="D264" s="10" t="inlineStr">
         <is>
-          <t>maa://29061</t>
+          <t>maa://25769</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="15" t="inlineStr">
         <is>
-          <t>铅踝</t>
+          <t>但书</t>
         </is>
       </c>
       <c r="B265" s="15" t="inlineStr">
         <is>
-          <t>S3-5</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="C265" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D265" s="10" t="inlineStr">
         <is>
-          <t>*maa://20939</t>
+          <t>maa://27794, maa://45572, maa://20862</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="15" t="inlineStr">
         <is>
-          <t>达格达</t>
+          <t>罗小黑</t>
         </is>
       </c>
       <c r="B266" s="15" t="inlineStr">
         <is>
-          <t>11-5</t>
+          <t>IW-4</t>
         </is>
       </c>
       <c r="C266" s="12" t="inlineStr">
@@ -6700,41 +6700,41 @@
       </c>
       <c r="D266" s="10" t="inlineStr">
         <is>
-          <t>maa://39164</t>
+          <t>maa://39163</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="15" t="inlineStr">
         <is>
-          <t>白铁</t>
+          <t>海沫</t>
         </is>
       </c>
       <c r="B267" s="15" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>SN-2</t>
         </is>
       </c>
       <c r="C267" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D267" s="10" t="inlineStr">
         <is>
-          <t>maa://28133, maa://33394</t>
+          <t>maa://29061</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="15" t="inlineStr">
         <is>
-          <t>白铁</t>
+          <t>铅踝</t>
         </is>
       </c>
       <c r="B268" s="15" t="inlineStr">
         <is>
-          <t>9-6</t>
+          <t>S3-5</t>
         </is>
       </c>
       <c r="C268" s="12" t="inlineStr">
@@ -6744,19 +6744,19 @@
       </c>
       <c r="D268" s="10" t="inlineStr">
         <is>
-          <t>maa://42311</t>
+          <t>*maa://20939</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="15" t="inlineStr">
         <is>
-          <t>石英</t>
+          <t>达格达</t>
         </is>
       </c>
       <c r="B269" s="15" t="inlineStr">
         <is>
-          <t>DH-4</t>
+          <t>11-5</t>
         </is>
       </c>
       <c r="C269" s="12" t="inlineStr">
@@ -6766,41 +6766,41 @@
       </c>
       <c r="D269" s="10" t="inlineStr">
         <is>
-          <t>maa://41362</t>
+          <t>maa://39164</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="15" t="inlineStr">
         <is>
-          <t>雪绒</t>
+          <t>白铁</t>
         </is>
       </c>
       <c r="B270" s="15" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C270" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D270" s="10" t="inlineStr">
         <is>
-          <t>maa://20978</t>
+          <t>maa://28133, maa://33394</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="15" t="inlineStr">
         <is>
-          <t>子月</t>
+          <t>白铁</t>
         </is>
       </c>
       <c r="B271" s="15" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>9-6</t>
         </is>
       </c>
       <c r="C271" s="12" t="inlineStr">
@@ -6810,19 +6810,19 @@
       </c>
       <c r="D271" s="10" t="inlineStr">
         <is>
-          <t>maa://21002</t>
+          <t>maa://42311</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="15" t="inlineStr">
         <is>
-          <t>伺夜</t>
+          <t>石英</t>
         </is>
       </c>
       <c r="B272" s="15" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>DH-4</t>
         </is>
       </c>
       <c r="C272" s="12" t="inlineStr">
@@ -6832,41 +6832,41 @@
       </c>
       <c r="D272" s="10" t="inlineStr">
         <is>
-          <t>*maa://39165</t>
+          <t>maa://41362</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="15" t="inlineStr">
         <is>
-          <t>伺夜</t>
+          <t>雪绒</t>
         </is>
       </c>
       <c r="B273" s="15" t="inlineStr">
         <is>
-          <t>IS-6</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="C273" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D273" s="10" t="inlineStr">
         <is>
-          <t>maa://48267, maa://48266</t>
+          <t>maa://20978</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="15" t="inlineStr">
         <is>
-          <t>斥罪</t>
+          <t>子月</t>
         </is>
       </c>
       <c r="B274" s="15" t="inlineStr">
         <is>
-          <t>CB-4</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C274" s="12" t="inlineStr">
@@ -6876,19 +6876,19 @@
       </c>
       <c r="D274" s="10" t="inlineStr">
         <is>
-          <t>maa://29635</t>
+          <t>maa://21002</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="15" t="inlineStr">
         <is>
-          <t>斥罪</t>
+          <t>伺夜</t>
         </is>
       </c>
       <c r="B275" s="15" t="inlineStr">
         <is>
-          <t>IS-7</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C275" s="12" t="inlineStr">
@@ -6898,19 +6898,19 @@
       </c>
       <c r="D275" s="10" t="inlineStr">
         <is>
-          <t>maa://38296</t>
+          <t>*maa://39165</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="15" t="inlineStr">
         <is>
-          <t>缄默德克萨斯</t>
+          <t>伺夜</t>
         </is>
       </c>
       <c r="B276" s="15" t="inlineStr">
         <is>
-          <t>CB-8</t>
+          <t>IS-6</t>
         </is>
       </c>
       <c r="C276" s="12" t="inlineStr">
@@ -6920,19 +6920,19 @@
       </c>
       <c r="D276" s="10" t="inlineStr">
         <is>
-          <t>maa://20899, maa://46332</t>
+          <t>maa://48267, maa://48266</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="15" t="inlineStr">
         <is>
-          <t>和弦</t>
+          <t>斥罪</t>
         </is>
       </c>
       <c r="B277" s="15" t="inlineStr">
         <is>
-          <t>6-5</t>
+          <t>CB-4</t>
         </is>
       </c>
       <c r="C277" s="12" t="inlineStr">
@@ -6942,63 +6942,63 @@
       </c>
       <c r="D277" s="10" t="inlineStr">
         <is>
-          <t>maa://20881</t>
+          <t>maa://29635</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="15" t="inlineStr">
         <is>
-          <t>焰影苇草</t>
+          <t>斥罪</t>
         </is>
       </c>
       <c r="B278" s="15" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>IS-7</t>
         </is>
       </c>
       <c r="C278" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D278" s="10" t="inlineStr">
         <is>
-          <t>maa://30710, maa://36845, maa://31558, maa://30668</t>
+          <t>maa://38296</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="15" t="inlineStr">
         <is>
-          <t>截云</t>
+          <t>缄默德克萨斯</t>
         </is>
       </c>
       <c r="B279" s="15" t="inlineStr">
         <is>
-          <t>S2-2</t>
+          <t>CB-8</t>
         </is>
       </c>
       <c r="C279" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D279" s="10" t="inlineStr">
         <is>
-          <t>maa://20902</t>
+          <t>maa://20899, maa://46332</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="15" t="inlineStr">
         <is>
-          <t>火哨</t>
+          <t>和弦</t>
         </is>
       </c>
       <c r="B280" s="15" t="inlineStr">
         <is>
-          <t>S4-6</t>
+          <t>6-5</t>
         </is>
       </c>
       <c r="C280" s="12" t="inlineStr">
@@ -7008,14 +7008,14 @@
       </c>
       <c r="D280" s="10" t="inlineStr">
         <is>
-          <t>maa://29159</t>
+          <t>maa://20881</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="15" t="inlineStr">
         <is>
-          <t>林</t>
+          <t>焰影苇草</t>
         </is>
       </c>
       <c r="B281" s="15" t="inlineStr">
@@ -7030,19 +7030,19 @@
       </c>
       <c r="D281" s="10" t="inlineStr">
         <is>
-          <t>maa://25774, maa://28133, maa://22469, **maa://31349</t>
+          <t>maa://30710, maa://36845, maa://31558, maa://30668</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="15" t="inlineStr">
         <is>
-          <t>林</t>
+          <t>截云</t>
         </is>
       </c>
       <c r="B282" s="15" t="inlineStr">
         <is>
-          <t>6-5</t>
+          <t>S2-2</t>
         </is>
       </c>
       <c r="C282" s="12" t="inlineStr">
@@ -7052,63 +7052,63 @@
       </c>
       <c r="D282" s="10" t="inlineStr">
         <is>
-          <t>maa://47882</t>
+          <t>maa://20902</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="15" t="inlineStr">
         <is>
-          <t>重岳</t>
+          <t>火哨</t>
         </is>
       </c>
       <c r="B283" s="15" t="inlineStr">
         <is>
-          <t>WB-7</t>
+          <t>S4-6</t>
         </is>
       </c>
       <c r="C283" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D283" s="10" t="inlineStr">
         <is>
-          <t>maa://32414, maa://32505, maa://39155</t>
+          <t>maa://29159</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="15" t="inlineStr">
         <is>
-          <t>重岳</t>
+          <t>林</t>
         </is>
       </c>
       <c r="B284" s="15" t="inlineStr">
         <is>
-          <t>GA-5</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C284" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D284" s="10" t="inlineStr">
         <is>
-          <t>maa://45799</t>
+          <t>maa://25774, maa://28133, maa://22469, **maa://31349</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="15" t="inlineStr">
         <is>
-          <t>铎铃</t>
+          <t>林</t>
         </is>
       </c>
       <c r="B285" s="15" t="inlineStr">
         <is>
-          <t>2-1</t>
+          <t>6-5</t>
         </is>
       </c>
       <c r="C285" s="12" t="inlineStr">
@@ -7118,14 +7118,14 @@
       </c>
       <c r="D285" s="10" t="inlineStr">
         <is>
-          <t>maa://42312</t>
+          <t>maa://47882</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="15" t="inlineStr">
         <is>
-          <t>仇白</t>
+          <t>重岳</t>
         </is>
       </c>
       <c r="B286" s="15" t="inlineStr">
@@ -7140,129 +7140,129 @@
       </c>
       <c r="D286" s="10" t="inlineStr">
         <is>
-          <t>maa://36642, maa://36867, maa://39155</t>
+          <t>maa://32414, maa://32505, maa://39155</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="15" t="inlineStr">
         <is>
-          <t>火龙S黑角</t>
+          <t>重岳</t>
         </is>
       </c>
       <c r="B287" s="15" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>GA-5</t>
         </is>
       </c>
       <c r="C287" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D287" s="10" t="inlineStr">
         <is>
-          <t>**maa://39166, maa://39167</t>
+          <t>maa://45799</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="15" t="inlineStr">
         <is>
-          <t>麒麟R夜刀</t>
+          <t>铎铃</t>
         </is>
       </c>
       <c r="B288" s="15" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>2-1</t>
         </is>
       </c>
       <c r="C288" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D288" s="10" t="inlineStr">
         <is>
-          <t>maa://29005, maa://31560</t>
+          <t>maa://42312</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="15" t="inlineStr">
         <is>
-          <t>休谟斯</t>
+          <t>仇白</t>
         </is>
       </c>
       <c r="B289" s="15" t="inlineStr">
         <is>
-          <t>7-8</t>
+          <t>WB-7</t>
         </is>
       </c>
       <c r="C289" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D289" s="10" t="inlineStr">
         <is>
-          <t>maa://39168</t>
+          <t>maa://36642, maa://36867, maa://39155</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="15" t="inlineStr">
         <is>
-          <t>摩根</t>
+          <t>火龙S黑角</t>
         </is>
       </c>
       <c r="B290" s="15" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C290" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D290" s="10" t="inlineStr">
         <is>
-          <t>maa://39169</t>
+          <t>**maa://39166, maa://39167</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="15" t="inlineStr">
         <is>
-          <t>洋灰</t>
+          <t>麒麟R夜刀</t>
         </is>
       </c>
       <c r="B291" s="15" t="inlineStr">
         <is>
-          <t>IW-EX-6</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C291" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D291" s="10" t="inlineStr">
         <is>
-          <t>maa://39170</t>
+          <t>maa://29005, maa://31560</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="15" t="inlineStr">
         <is>
-          <t>玫拉</t>
+          <t>休谟斯</t>
         </is>
       </c>
       <c r="B292" s="15" t="inlineStr">
         <is>
-          <t>S3-5</t>
+          <t>7-8</t>
         </is>
       </c>
       <c r="C292" s="12" t="inlineStr">
@@ -7272,19 +7272,19 @@
       </c>
       <c r="D292" s="10" t="inlineStr">
         <is>
-          <t>maa://39171</t>
+          <t>maa://39168</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="15" t="inlineStr">
         <is>
-          <t>淬羽赫默</t>
+          <t>摩根</t>
         </is>
       </c>
       <c r="B293" s="15" t="inlineStr">
         <is>
-          <t>6-3</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="C293" s="12" t="inlineStr">
@@ -7294,19 +7294,19 @@
       </c>
       <c r="D293" s="10" t="inlineStr">
         <is>
-          <t>maa://27939</t>
+          <t>maa://39169</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="15" t="inlineStr">
         <is>
-          <t>霍尔海雅</t>
+          <t>洋灰</t>
         </is>
       </c>
       <c r="B294" s="15" t="inlineStr">
         <is>
-          <t>OF-7</t>
+          <t>IW-EX-6</t>
         </is>
       </c>
       <c r="C294" s="12" t="inlineStr">
@@ -7316,19 +7316,19 @@
       </c>
       <c r="D294" s="10" t="inlineStr">
         <is>
-          <t>maa://29129</t>
+          <t>maa://39170</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="15" t="inlineStr">
         <is>
-          <t>霍尔海雅</t>
+          <t>玫拉</t>
         </is>
       </c>
       <c r="B295" s="15" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>S3-5</t>
         </is>
       </c>
       <c r="C295" s="12" t="inlineStr">
@@ -7338,19 +7338,19 @@
       </c>
       <c r="D295" s="10" t="inlineStr">
         <is>
-          <t>maa://36005</t>
+          <t>maa://39171</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="15" t="inlineStr">
         <is>
-          <t>缪尔赛思</t>
+          <t>淬羽赫默</t>
         </is>
       </c>
       <c r="B296" s="15" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>6-3</t>
         </is>
       </c>
       <c r="C296" s="12" t="inlineStr">
@@ -7360,19 +7360,19 @@
       </c>
       <c r="D296" s="10" t="inlineStr">
         <is>
-          <t>maa://35859</t>
+          <t>maa://27939</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="15" t="inlineStr">
         <is>
-          <t>隐现</t>
+          <t>霍尔海雅</t>
         </is>
       </c>
       <c r="B297" s="15" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>OF-7</t>
         </is>
       </c>
       <c r="C297" s="12" t="inlineStr">
@@ -7382,19 +7382,19 @@
       </c>
       <c r="D297" s="10" t="inlineStr">
         <is>
-          <t>**maa://39172</t>
+          <t>maa://29129</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="15" t="inlineStr">
         <is>
-          <t>空构</t>
+          <t>霍尔海雅</t>
         </is>
       </c>
       <c r="B298" s="15" t="inlineStr">
         <is>
-          <t>DM-2</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C298" s="12" t="inlineStr">
@@ -7404,41 +7404,41 @@
       </c>
       <c r="D298" s="10" t="inlineStr">
         <is>
-          <t>maa://39173</t>
+          <t>maa://36005</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="15" t="inlineStr">
         <is>
-          <t>圣约送葬人</t>
+          <t>缪尔赛思</t>
         </is>
       </c>
       <c r="B299" s="15" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C299" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D299" s="10" t="inlineStr">
         <is>
-          <t>maa://25775, *maa://25393</t>
+          <t>maa://35859</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="15" t="inlineStr">
         <is>
-          <t>寒檀</t>
+          <t>隐现</t>
         </is>
       </c>
       <c r="B300" s="15" t="inlineStr">
         <is>
-          <t>BI-2</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C300" s="12" t="inlineStr">
@@ -7448,19 +7448,19 @@
       </c>
       <c r="D300" s="10" t="inlineStr">
         <is>
-          <t>maa://40161</t>
+          <t>**maa://39172</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="15" t="inlineStr">
         <is>
-          <t>提丰</t>
+          <t>空构</t>
         </is>
       </c>
       <c r="B301" s="15" t="inlineStr">
         <is>
-          <t>S2-1</t>
+          <t>DM-2</t>
         </is>
       </c>
       <c r="C301" s="12" t="inlineStr">
@@ -7470,41 +7470,41 @@
       </c>
       <c r="D301" s="10" t="inlineStr">
         <is>
-          <t>maa://25367</t>
+          <t>maa://39173</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="15" t="inlineStr">
         <is>
-          <t>凛视</t>
+          <t>圣约送葬人</t>
         </is>
       </c>
       <c r="B302" s="15" t="inlineStr">
         <is>
-          <t>7-13</t>
+          <t>7-14</t>
         </is>
       </c>
       <c r="C302" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D302" s="10" t="inlineStr">
         <is>
-          <t>*maa://43090</t>
+          <t>maa://25775, *maa://25393</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="15" t="inlineStr">
         <is>
-          <t>苍苔</t>
+          <t>寒檀</t>
         </is>
       </c>
       <c r="B303" s="15" t="inlineStr">
         <is>
-          <t>9-3</t>
+          <t>BI-2</t>
         </is>
       </c>
       <c r="C303" s="12" t="inlineStr">
@@ -7514,19 +7514,19 @@
       </c>
       <c r="D303" s="10" t="inlineStr">
         <is>
-          <t>maa://28070</t>
+          <t>maa://40161</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="15" t="inlineStr">
         <is>
-          <t>青枳</t>
+          <t>提丰</t>
         </is>
       </c>
       <c r="B304" s="15" t="inlineStr">
         <is>
-          <t>OF-5</t>
+          <t>S2-1</t>
         </is>
       </c>
       <c r="C304" s="12" t="inlineStr">
@@ -7536,41 +7536,41 @@
       </c>
       <c r="D304" s="10" t="inlineStr">
         <is>
-          <t>maa://28241</t>
+          <t>maa://25367</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="15" t="inlineStr">
         <is>
-          <t>琳琅诗怀雅</t>
+          <t>凛视</t>
         </is>
       </c>
       <c r="B305" s="15" t="inlineStr">
         <is>
-          <t>5-2</t>
+          <t>7-13</t>
         </is>
       </c>
       <c r="C305" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D305" s="10" t="inlineStr">
         <is>
-          <t>maa://25773, *maa://26088</t>
+          <t>*maa://43090</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="15" t="inlineStr">
         <is>
-          <t>琳琅诗怀雅</t>
+          <t>苍苔</t>
         </is>
       </c>
       <c r="B306" s="15" t="inlineStr">
         <is>
-          <t>11-16</t>
+          <t>9-3</t>
         </is>
       </c>
       <c r="C306" s="12" t="inlineStr">
@@ -7580,19 +7580,19 @@
       </c>
       <c r="D306" s="10" t="inlineStr">
         <is>
-          <t>maa://39239</t>
+          <t>maa://28070</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="15" t="inlineStr">
         <is>
-          <t>纯烬艾雅法拉</t>
+          <t>青枳</t>
         </is>
       </c>
       <c r="B307" s="15" t="inlineStr">
         <is>
-          <t>FC-5</t>
+          <t>OF-5</t>
         </is>
       </c>
       <c r="C307" s="12" t="inlineStr">
@@ -7602,41 +7602,41 @@
       </c>
       <c r="D307" s="10" t="inlineStr">
         <is>
-          <t>maa://39692, maa://39810</t>
+          <t>maa://31559, maa://28241</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="15" t="inlineStr">
         <is>
-          <t>冰酿</t>
+          <t>琳琅诗怀雅</t>
         </is>
       </c>
       <c r="B308" s="15" t="inlineStr">
         <is>
-          <t>S3-3</t>
+          <t>5-2</t>
         </is>
       </c>
       <c r="C308" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D308" s="10" t="inlineStr">
         <is>
-          <t>*maa://39174</t>
+          <t>maa://25773, *maa://26088</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="15" t="inlineStr">
         <is>
-          <t>杏仁</t>
+          <t>琳琅诗怀雅</t>
         </is>
       </c>
       <c r="B309" s="15" t="inlineStr">
         <is>
-          <t>BI-2</t>
+          <t>11-16</t>
         </is>
       </c>
       <c r="C309" s="12" t="inlineStr">
@@ -7646,19 +7646,19 @@
       </c>
       <c r="D309" s="10" t="inlineStr">
         <is>
-          <t>maa://39175</t>
+          <t>maa://39239</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="15" t="inlineStr">
         <is>
-          <t>涤火杰西卡</t>
+          <t>纯烬艾雅法拉</t>
         </is>
       </c>
       <c r="B310" s="15" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>FC-5</t>
         </is>
       </c>
       <c r="C310" s="12" t="inlineStr">
@@ -7668,19 +7668,19 @@
       </c>
       <c r="D310" s="10" t="inlineStr">
         <is>
-          <t>maa://34867, maa://34715</t>
+          <t>maa://39692, maa://39810</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="15" t="inlineStr">
         <is>
-          <t>维荻</t>
+          <t>冰酿</t>
         </is>
       </c>
       <c r="B311" s="15" t="inlineStr">
         <is>
-          <t>9-3</t>
+          <t>S3-3</t>
         </is>
       </c>
       <c r="C311" s="12" t="inlineStr">
@@ -7690,19 +7690,19 @@
       </c>
       <c r="D311" s="10" t="inlineStr">
         <is>
-          <t>maa://39176</t>
+          <t>*maa://39174</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="15" t="inlineStr">
         <is>
-          <t>戴菲恩</t>
+          <t>杏仁</t>
         </is>
       </c>
       <c r="B312" s="15" t="inlineStr">
         <is>
-          <t>WD-6</t>
+          <t>BI-2</t>
         </is>
       </c>
       <c r="C312" s="12" t="inlineStr">
@@ -7712,41 +7712,41 @@
       </c>
       <c r="D312" s="10" t="inlineStr">
         <is>
-          <t>maa://42316</t>
+          <t>maa://39175</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="15" t="inlineStr">
         <is>
-          <t>刺玫</t>
+          <t>涤火杰西卡</t>
         </is>
       </c>
       <c r="B313" s="15" t="inlineStr">
         <is>
-          <t>IC-2</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C313" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D313" s="10" t="inlineStr">
         <is>
-          <t>maa://30680</t>
+          <t>maa://34867, maa://34715</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="15" t="inlineStr">
         <is>
-          <t>赫德雷</t>
+          <t>维荻</t>
         </is>
       </c>
       <c r="B314" s="15" t="inlineStr">
         <is>
-          <t>IW-7</t>
+          <t>9-3</t>
         </is>
       </c>
       <c r="C314" s="12" t="inlineStr">
@@ -7756,41 +7756,41 @@
       </c>
       <c r="D314" s="10" t="inlineStr">
         <is>
-          <t>maa://40956</t>
+          <t>maa://39176</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="15" t="inlineStr">
         <is>
-          <t>深律</t>
+          <t>戴菲恩</t>
         </is>
       </c>
       <c r="B315" s="15" t="inlineStr">
         <is>
-          <t>LE-4</t>
+          <t>WD-6</t>
         </is>
       </c>
       <c r="C315" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D315" s="10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://42316</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="15" t="inlineStr">
         <is>
-          <t>止颂</t>
+          <t>刺玫</t>
         </is>
       </c>
       <c r="B316" s="15" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>IC-2</t>
         </is>
       </c>
       <c r="C316" s="12" t="inlineStr">
@@ -7800,107 +7800,107 @@
       </c>
       <c r="D316" s="10" t="inlineStr">
         <is>
-          <t>maa://34205</t>
+          <t>maa://30680</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="15" t="inlineStr">
         <is>
-          <t>止颂</t>
+          <t>赫德雷</t>
         </is>
       </c>
       <c r="B317" s="15" t="inlineStr">
         <is>
-          <t>TW-5</t>
+          <t>IW-7</t>
         </is>
       </c>
       <c r="C317" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D317" s="10" t="inlineStr">
         <is>
-          <t>maa://43092, maa://43093</t>
+          <t>maa://40956</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="15" t="inlineStr">
         <is>
-          <t>薇薇安娜</t>
+          <t>深律</t>
         </is>
       </c>
       <c r="B318" s="15" t="inlineStr">
         <is>
-          <t>MN-3</t>
+          <t>LE-4</t>
         </is>
       </c>
       <c r="C318" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D318" s="10" t="inlineStr">
         <is>
-          <t>maa://44234</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="15" t="inlineStr">
         <is>
-          <t>塑心</t>
+          <t>止颂</t>
         </is>
       </c>
       <c r="B319" s="15" t="inlineStr">
         <is>
-          <t>GA-7</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="C319" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D319" s="10" t="inlineStr">
         <is>
-          <t>maa://42968, maa://49245</t>
+          <t>maa://34205</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="15" t="inlineStr">
         <is>
-          <t>哈洛德</t>
+          <t>止颂</t>
         </is>
       </c>
       <c r="B320" s="15" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>TW-5</t>
         </is>
       </c>
       <c r="C320" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D320" s="10" t="inlineStr">
         <is>
-          <t>**maa://40162</t>
+          <t>maa://43092, maa://43093</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="15" t="inlineStr">
         <is>
-          <t>烈夏</t>
+          <t>薇薇安娜</t>
         </is>
       </c>
       <c r="B321" s="15" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>MN-3</t>
         </is>
       </c>
       <c r="C321" s="12" t="inlineStr">
@@ -7910,41 +7910,41 @@
       </c>
       <c r="D321" s="10" t="inlineStr">
         <is>
-          <t>maa://37692</t>
+          <t>maa://44234</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="15" t="inlineStr">
         <is>
-          <t>锏</t>
+          <t>塑心</t>
         </is>
       </c>
       <c r="B322" s="15" t="inlineStr">
         <is>
-          <t>BI-6</t>
+          <t>GA-7</t>
         </is>
       </c>
       <c r="C322" s="12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D322" s="10" t="inlineStr">
         <is>
-          <t>maa://30671, maa://30669, maa://37275, *maa://32410, maa://41605</t>
+          <t>maa://42968, maa://49245</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="15" t="inlineStr">
         <is>
-          <t>莱伊</t>
+          <t>哈洛德</t>
         </is>
       </c>
       <c r="B323" s="15" t="inlineStr">
         <is>
-          <t>S9-1</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="C323" s="12" t="inlineStr">
@@ -7954,19 +7954,19 @@
       </c>
       <c r="D323" s="10" t="inlineStr">
         <is>
-          <t>maa://38295</t>
+          <t>**maa://40162</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="15" t="inlineStr">
         <is>
-          <t>万顷</t>
+          <t>烈夏</t>
         </is>
       </c>
       <c r="B324" s="15" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C324" s="12" t="inlineStr">
@@ -7976,41 +7976,41 @@
       </c>
       <c r="D324" s="10" t="inlineStr">
         <is>
-          <t>maa://32417</t>
+          <t>maa://37692</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="15" t="inlineStr">
         <is>
-          <t>小满</t>
+          <t>锏</t>
         </is>
       </c>
       <c r="B325" s="15" t="inlineStr">
         <is>
-          <t>9-11</t>
+          <t>BI-6</t>
         </is>
       </c>
       <c r="C325" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D325" s="10" t="inlineStr">
         <is>
-          <t>maa://32419</t>
+          <t>maa://30671, maa://30669, maa://37275, *maa://32410, maa://41605, maa://33671</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="15" t="inlineStr">
         <is>
-          <t>左乐</t>
+          <t>莱伊</t>
         </is>
       </c>
       <c r="B326" s="15" t="inlineStr">
         <is>
-          <t>WB-5</t>
+          <t>S9-1</t>
         </is>
       </c>
       <c r="C326" s="12" t="inlineStr">
@@ -8020,19 +8020,19 @@
       </c>
       <c r="D326" s="10" t="inlineStr">
         <is>
-          <t>maa://32416</t>
+          <t>maa://38295</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="15" t="inlineStr">
         <is>
-          <t>左乐</t>
+          <t>万顷</t>
         </is>
       </c>
       <c r="B327" s="15" t="inlineStr">
         <is>
-          <t>RI-7</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="C327" s="12" t="inlineStr">
@@ -8042,41 +8042,41 @@
       </c>
       <c r="D327" s="10" t="inlineStr">
         <is>
-          <t>maa://45800</t>
+          <t>maa://32417</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="15" t="inlineStr">
         <is>
-          <t>黍</t>
+          <t>小满</t>
         </is>
       </c>
       <c r="B328" s="15" t="inlineStr">
         <is>
-          <t>11-11</t>
+          <t>9-11</t>
         </is>
       </c>
       <c r="C328" s="12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D328" s="10" t="inlineStr">
         <is>
-          <t>maa://32647, maa://32415, maa://34677, maa://32892, maa://32653, **maa://47851</t>
+          <t>maa://32419</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="15" t="inlineStr">
         <is>
-          <t>红隼</t>
+          <t>左乐</t>
         </is>
       </c>
       <c r="B329" s="15" t="inlineStr">
         <is>
-          <t>11-18</t>
+          <t>WB-5</t>
         </is>
       </c>
       <c r="C329" s="12" t="inlineStr">
@@ -8086,19 +8086,19 @@
       </c>
       <c r="D329" s="10" t="inlineStr">
         <is>
-          <t>maa://32420</t>
+          <t>maa://32416</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="15" t="inlineStr">
         <is>
-          <t>导火索</t>
+          <t>左乐</t>
         </is>
       </c>
       <c r="B330" s="15" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>RI-7</t>
         </is>
       </c>
       <c r="C330" s="12" t="inlineStr">
@@ -8108,41 +8108,41 @@
       </c>
       <c r="D330" s="10" t="inlineStr">
         <is>
-          <t>maa://35606</t>
+          <t>maa://45800</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="12" t="inlineStr">
         <is>
-          <t>双月</t>
+          <t>黍</t>
         </is>
       </c>
       <c r="B331" s="12" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>11-11</t>
         </is>
       </c>
       <c r="C331" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D331" s="13" t="inlineStr">
         <is>
-          <t>maa://34716</t>
+          <t>maa://32647, maa://32415, maa://34677, maa://32892, **maa://47851</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="12" t="inlineStr">
         <is>
-          <t>医生</t>
+          <t>红隼</t>
         </is>
       </c>
       <c r="B332" s="12" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>11-18</t>
         </is>
       </c>
       <c r="C332" s="12" t="inlineStr">
@@ -8152,41 +8152,41 @@
       </c>
       <c r="D332" s="13" t="inlineStr">
         <is>
-          <t>maa://39179</t>
+          <t>maa://32420</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="12" t="inlineStr">
         <is>
-          <t>艾拉</t>
+          <t>导火索</t>
         </is>
       </c>
       <c r="B333" s="12" t="inlineStr">
         <is>
-          <t>DM-EX-1</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C333" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D333" s="13" t="inlineStr">
         <is>
-          <t>maa://34865, maa://34717, *maa://45066</t>
+          <t>maa://35606</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="12" t="inlineStr">
         <is>
-          <t>露托</t>
+          <t>双月</t>
         </is>
       </c>
       <c r="B334" s="12" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C334" s="12" t="inlineStr">
@@ -8196,124 +8196,124 @@
       </c>
       <c r="D334" s="13" t="inlineStr">
         <is>
-          <t>maa://39180</t>
+          <t>maa://34716</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="12" t="inlineStr">
         <is>
-          <t>奥达</t>
+          <t>医生</t>
         </is>
       </c>
       <c r="B335" s="12" t="inlineStr">
         <is>
-          <t>S3-6</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C335" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D335" s="13" t="inlineStr">
         <is>
-          <t>maa://45834, maa://45833</t>
+          <t>maa://39179</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="12" t="inlineStr">
         <is>
-          <t>阿罗玛</t>
+          <t>艾拉</t>
         </is>
       </c>
       <c r="B336" s="12" t="inlineStr">
         <is>
-          <t>GT-HX-3</t>
+          <t>DM-EX-1</t>
         </is>
       </c>
       <c r="C336" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D336" s="13" t="inlineStr">
         <is>
-          <t>maa://39181</t>
+          <t>maa://34865, maa://34717, *maa://45066</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="12" t="inlineStr">
         <is>
-          <t>阿斯卡纶</t>
+          <t>露托</t>
         </is>
       </c>
       <c r="B337" s="12" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C337" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D337" s="13" t="inlineStr">
         <is>
-          <t>maa://36868, maa://35996, maa://47349</t>
+          <t>maa://39180</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="12" t="inlineStr">
         <is>
-          <t>历阵锐枪芬</t>
+          <t>奥达</t>
         </is>
       </c>
       <c r="B338" s="12" t="inlineStr">
         <is>
-          <t>4-2</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C338" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>maa://36647</t>
+          <t>maa://45834, maa://45833</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="12" t="inlineStr">
         <is>
-          <t>魔王</t>
+          <t>阿罗玛</t>
         </is>
       </c>
       <c r="B339" s="12" t="inlineStr">
         <is>
-          <t>14-5</t>
+          <t>GT-HX-3</t>
         </is>
       </c>
       <c r="C339" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>maa://42299, *maa://42224</t>
+          <t>maa://39181</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="12" t="inlineStr">
         <is>
-          <t>逻各斯</t>
+          <t>阿斯卡纶</t>
         </is>
       </c>
       <c r="B340" s="12" t="inlineStr">
@@ -8328,129 +8328,129 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>maa://36646, maa://36845</t>
+          <t>maa://36868, maa://35996</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="12" t="inlineStr">
         <is>
-          <t>维什戴尔</t>
+          <t>历阵锐枪芬</t>
         </is>
       </c>
       <c r="B341" s="12" t="inlineStr">
         <is>
-          <t>DM-5</t>
+          <t>4-2</t>
         </is>
       </c>
       <c r="C341" s="12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>maa://36645, maa://36841, maa://37484, maa://37858, maa://40489</t>
+          <t>maa://36647</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="12" t="inlineStr">
         <is>
-          <t>阿米娅</t>
+          <t>魔王</t>
         </is>
       </c>
       <c r="B342" s="12" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>14-5</t>
         </is>
       </c>
       <c r="C342" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>maa://42635</t>
+          <t>maa://42299, *maa://42224, maa://48876</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="12" t="inlineStr">
         <is>
-          <t>深巡</t>
+          <t>逻各斯</t>
         </is>
       </c>
       <c r="B343" s="12" t="inlineStr">
         <is>
-          <t>SN-5</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C343" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>maa://39183</t>
+          <t>maa://36646, maa://36845</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="12" t="inlineStr">
         <is>
-          <t>海霓</t>
+          <t>维什戴尔</t>
         </is>
       </c>
       <c r="B344" s="12" t="inlineStr">
         <is>
-          <t>SV-4</t>
+          <t>DM-5</t>
         </is>
       </c>
       <c r="C344" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>maa://39184</t>
+          <t>maa://36645, maa://36841, maa://37484, maa://37858</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="12" t="inlineStr">
         <is>
-          <t>乌尔比安</t>
+          <t>阿米娅(医疗)</t>
         </is>
       </c>
       <c r="B345" s="12" t="inlineStr">
         <is>
-          <t>SV-6</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C345" s="12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>maa://40957, maa://44635, maa://41035, maa://41128, maa://44660, maa://48026</t>
+          <t>maa://42635</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="12" t="inlineStr">
         <is>
-          <t>渡桥</t>
+          <t>深巡</t>
         </is>
       </c>
       <c r="B346" s="12" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>SN-5</t>
         </is>
       </c>
       <c r="C346" s="12" t="inlineStr">
@@ -8460,19 +8460,19 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>maa://40164</t>
+          <t>maa://39183</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="12" t="inlineStr">
         <is>
-          <t>锡人</t>
+          <t>海霓</t>
         </is>
       </c>
       <c r="B347" s="12" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>SV-4</t>
         </is>
       </c>
       <c r="C347" s="12" t="inlineStr">
@@ -8482,41 +8482,41 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>maa://48268</t>
+          <t>maa://39184</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="12" t="inlineStr">
         <is>
-          <t>衡沙</t>
+          <t>乌尔比安</t>
         </is>
       </c>
       <c r="B348" s="12" t="inlineStr">
         <is>
-          <t>DV-2</t>
+          <t>SV-6</t>
         </is>
       </c>
       <c r="C348" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>maa://40165</t>
+          <t>maa://40957, maa://44635, maa://41035, maa://41128, maa://44660, maa://48026</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="12" t="inlineStr">
         <is>
-          <t>佩佩</t>
+          <t>渡桥</t>
         </is>
       </c>
       <c r="B349" s="12" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C349" s="12" t="inlineStr">
@@ -8526,19 +8526,19 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>maa://45798</t>
+          <t>maa://40164</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="12" t="inlineStr">
         <is>
-          <t>森西</t>
+          <t>锡人</t>
         </is>
       </c>
       <c r="B350" s="12" t="inlineStr">
         <is>
-          <t>1-12</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C350" s="12" t="inlineStr">
@@ -8548,129 +8548,129 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>maa://42331</t>
+          <t>maa://48268</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="12" t="inlineStr">
         <is>
-          <t>齐尔查克</t>
+          <t>衡沙</t>
         </is>
       </c>
       <c r="B351" s="12" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>DV-2</t>
         </is>
       </c>
       <c r="C351" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>maa://42333, maa://41977</t>
+          <t>maa://40165</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="12" t="inlineStr">
         <is>
-          <t>莱欧斯</t>
+          <t>佩佩</t>
         </is>
       </c>
       <c r="B352" s="12" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C352" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>maa://42338, maa://41976</t>
+          <t>maa://45798</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="12" t="inlineStr">
         <is>
-          <t>玛露西尔</t>
+          <t>森西</t>
         </is>
       </c>
       <c r="B353" s="12" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>1-12</t>
         </is>
       </c>
       <c r="C353" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>maa://41110, maa://45605</t>
+          <t>maa://42331</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="12" t="inlineStr">
         <is>
-          <t>凯瑟琳</t>
+          <t>齐尔查克</t>
         </is>
       </c>
       <c r="B354" s="12" t="inlineStr">
         <is>
-          <t>11-7</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C354" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>maa://42343</t>
+          <t>maa://42333, maa://41977</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="12" t="inlineStr">
         <is>
-          <t>波卜</t>
+          <t>莱欧斯</t>
         </is>
       </c>
       <c r="B355" s="12" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="C355" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>maa://43095</t>
+          <t>maa://42338, maa://41976</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="12" t="inlineStr">
         <is>
-          <t>维娜·维多利亚</t>
+          <t>玛露西尔</t>
         </is>
       </c>
       <c r="B356" s="12" t="inlineStr">
         <is>
-          <t>9-5</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C356" s="12" t="inlineStr">
@@ -8680,19 +8680,19 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>maa://44233, maa://45570</t>
+          <t>maa://41110, maa://45605</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="12" t="inlineStr">
         <is>
-          <t>裁度</t>
+          <t>凯瑟琳</t>
         </is>
       </c>
       <c r="B357" s="12" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>11-7</t>
         </is>
       </c>
       <c r="C357" s="12" t="inlineStr">
@@ -8702,19 +8702,19 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>maa://43097</t>
+          <t>maa://42343</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="12" t="inlineStr">
         <is>
-          <t>弑君者</t>
+          <t>波卜</t>
         </is>
       </c>
       <c r="B358" s="12" t="inlineStr">
         <is>
-          <t>4-4</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="C358" s="12" t="inlineStr">
@@ -8724,19 +8724,19 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>maa://43872</t>
+          <t>maa://43095</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="12" t="inlineStr">
         <is>
-          <t>忍冬</t>
+          <t>维娜·维多利亚</t>
         </is>
       </c>
       <c r="B359" s="12" t="inlineStr">
         <is>
-          <t>S2-3</t>
+          <t>9-5</t>
         </is>
       </c>
       <c r="C359" s="12" t="inlineStr">
@@ -8746,63 +8746,63 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>maa://43875</t>
+          <t>maa://44233</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="12" t="inlineStr">
         <is>
-          <t>荒芜拉普兰德</t>
+          <t>裁度</t>
         </is>
       </c>
       <c r="B360" s="12" t="inlineStr">
         <is>
-          <t>IS-8</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="C360" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>maa://42970, maa://44745, maa://45952, maa://44896</t>
+          <t>maa://43097</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="12" t="inlineStr">
         <is>
-          <t>瑰盐</t>
+          <t>弑君者</t>
         </is>
       </c>
       <c r="B361" s="12" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>4-4</t>
         </is>
       </c>
       <c r="C361" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>maa://44389</t>
+          <t>maa://43872, maa://39153</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="12" t="inlineStr">
         <is>
-          <t>引星棘刺</t>
+          <t>忍冬</t>
         </is>
       </c>
       <c r="B362" s="12" t="inlineStr">
         <is>
-          <t>OF-7</t>
+          <t>S2-3</t>
         </is>
       </c>
       <c r="C362" s="12" t="inlineStr">
@@ -8812,63 +8812,63 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>maa://48113</t>
+          <t>maa://43875</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="12" t="inlineStr">
         <is>
-          <t>行箸</t>
+          <t>荒芜拉普兰德</t>
         </is>
       </c>
       <c r="B363" s="12" t="inlineStr">
         <is>
-          <t>3-2</t>
+          <t>IS-8</t>
         </is>
       </c>
       <c r="C363" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>maa://45807</t>
+          <t>maa://42970, maa://44745, maa://45952, maa://44896</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="12" t="inlineStr">
         <is>
-          <t>诺威尔</t>
+          <t>瑰盐</t>
         </is>
       </c>
       <c r="B364" s="12" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C364" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>maa://47175, maa://47174</t>
+          <t>maa://44389</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="12" t="inlineStr">
         <is>
-          <t>隐德来希</t>
+          <t>引星棘刺</t>
         </is>
       </c>
       <c r="B365" s="12" t="inlineStr">
         <is>
-          <t>10-12</t>
+          <t>OF-7</t>
         </is>
       </c>
       <c r="C365" s="12" t="inlineStr">
@@ -8878,19 +8878,19 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>maa://47023</t>
+          <t>maa://48113</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="12" t="inlineStr">
         <is>
-          <t>钼铅</t>
+          <t>行箸</t>
         </is>
       </c>
       <c r="B366" s="12" t="inlineStr">
         <is>
-          <t>9-6</t>
+          <t>3-2</t>
         </is>
       </c>
       <c r="C366" s="12" t="inlineStr">
@@ -8900,7 +8900,7 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>maa://48618</t>
+          <t>maa://45807</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="11490" yWindow="4320" windowWidth="23925" windowHeight="16665" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -463,7 +463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB369"/>
+  <dimension ref="A1:AB376"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.04.04 13:19:56</t>
+          <t>更新日期：2025.04.13 00:29:41</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -1015,12 +1015,12 @@
       </c>
       <c r="C16" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D16" s="10" t="inlineStr">
         <is>
-          <t>maa://20919</t>
+          <t>maa://20919, *maa://31611</t>
         </is>
       </c>
       <c r="F16" s="8" t="n"/>
@@ -1355,12 +1355,12 @@
       </c>
       <c r="C26" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D26" s="10" t="inlineStr">
         <is>
-          <t>maa://45081</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F26" s="8" t="n"/>
@@ -1547,12 +1547,12 @@
       </c>
       <c r="C32" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D32" s="10" t="inlineStr">
         <is>
-          <t>maa://36644, maa://36866, maa://27794, maa://45572</t>
+          <t>maa://36644, maa://36866, maa://27794, maa://45572, maa://20960, maa://20843, **maa://24483, maa://20862, *maa://20893</t>
         </is>
       </c>
     </row>
@@ -1657,12 +1657,12 @@
       </c>
       <c r="C37" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D37" s="10" t="inlineStr">
         <is>
-          <t>maa://27376, *maa://20838</t>
+          <t>maa://27376, maa://42635, *maa://20838</t>
         </is>
       </c>
     </row>
@@ -1767,12 +1767,12 @@
       </c>
       <c r="C42" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D42" s="10" t="inlineStr">
         <is>
-          <t>maa://20918, *maa://22339, maa://34883, maa://20824</t>
+          <t>maa://20918, maa://34883, maa://20824</t>
         </is>
       </c>
     </row>
@@ -2075,12 +2075,12 @@
       </c>
       <c r="C56" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D56" s="10" t="inlineStr">
         <is>
-          <t>maa://44235, maa://45604</t>
+          <t>maa://44235, maa://45604, maa://20961, maa://20910</t>
         </is>
       </c>
     </row>
@@ -2185,12 +2185,12 @@
       </c>
       <c r="C61" s="12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D61" s="10" t="inlineStr">
         <is>
-          <t>maa://20841, maa://24093, maa://31559, maa://25777, maa://20631</t>
+          <t>maa://20841, maa://24093, maa://31559, maa://20924, maa://25777, maa://20631, maa://28241</t>
         </is>
       </c>
     </row>
@@ -2234,7 +2234,7 @@
       </c>
       <c r="D63" s="10" t="inlineStr">
         <is>
-          <t>*maa://20845, *maa://38727</t>
+          <t>*maa://20845, maa://38727</t>
         </is>
       </c>
     </row>
@@ -2251,12 +2251,12 @@
       </c>
       <c r="C64" s="12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D64" s="10" t="inlineStr">
         <is>
-          <t>maa://28187, maa://33504, maa://45144, maa://43531, maa://39520</t>
+          <t>maa://28187, maa://33504, maa://45144, maa://43531</t>
         </is>
       </c>
     </row>
@@ -2295,12 +2295,12 @@
       </c>
       <c r="C66" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D66" s="10" t="inlineStr">
         <is>
-          <t>maa://20993, maa://20829, maa://45606</t>
+          <t>maa://20993, maa://20914, maa://20829, maa://45606, maa://20900, maa://40159</t>
         </is>
       </c>
     </row>
@@ -2361,12 +2361,12 @@
       </c>
       <c r="C69" s="12" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D69" s="10" t="inlineStr">
         <is>
-          <t>maa://28784, maa://29088, maa://20974, maa://31124, maa://28950, *maa://33612, maa://29087, *maa://20823, **maa://42200, maa://41832</t>
+          <t>maa://20974, maa://29079, maa://29096, maa://29087, *maa://20823, maa://20855, maa://20904</t>
         </is>
       </c>
     </row>
@@ -2405,12 +2405,12 @@
       </c>
       <c r="C71" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D71" s="10" t="inlineStr">
         <is>
-          <t>maa://20943</t>
+          <t>maa://20943, maa://30673, maa://30672, maa://20856</t>
         </is>
       </c>
     </row>
@@ -2757,12 +2757,12 @@
       </c>
       <c r="C87" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D87" s="10" t="inlineStr">
         <is>
-          <t>maa://20886, maa://25136</t>
+          <t>maa://20886</t>
         </is>
       </c>
     </row>
@@ -3043,12 +3043,12 @@
       </c>
       <c r="C100" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D100" s="10" t="inlineStr">
         <is>
-          <t>maa://31560, maa://20852</t>
+          <t>maa://20852</t>
         </is>
       </c>
     </row>
@@ -3285,12 +3285,12 @@
       </c>
       <c r="C111" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D111" s="10" t="inlineStr">
         <is>
-          <t>*maa://28554, maa://45081, maa://48826</t>
+          <t>*maa://28554</t>
         </is>
       </c>
     </row>
@@ -3747,12 +3747,12 @@
       </c>
       <c r="C132" s="12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D132" s="10" t="inlineStr">
         <is>
-          <t>maa://40517, maa://23019, maa://20837, maa://37113, maa://37666, maa://41686</t>
+          <t>maa://20837, maa://37666</t>
         </is>
       </c>
     </row>
@@ -3769,12 +3769,12 @@
       </c>
       <c r="C133" s="12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D133" s="10" t="inlineStr">
         <is>
-          <t>maa://23020, maa://29023, maa://41690, maa://39515, maa://34319</t>
+          <t>maa://29023, maa://39515</t>
         </is>
       </c>
     </row>
@@ -4099,12 +4099,12 @@
       </c>
       <c r="C148" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D148" s="10" t="inlineStr">
         <is>
-          <t>maa://20846</t>
+          <t>maa://28828, maa://20846</t>
         </is>
       </c>
     </row>
@@ -4121,12 +4121,12 @@
       </c>
       <c r="C149" s="12" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D149" s="10" t="inlineStr">
         <is>
-          <t>maa://36641, maa://36865, maa://42918, maa://44119, maa://37300, maa://46108, maa://42917</t>
+          <t>maa://36641, maa://40957, maa://36865, maa://44635, maa://41128, maa://44660, maa://42918, maa://44119, maa://37300, maa://46108, maa://42917</t>
         </is>
       </c>
     </row>
@@ -4495,46 +4495,46 @@
       </c>
       <c r="C166" s="12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D166" s="10" t="inlineStr">
         <is>
-          <t>maa://29633, maa://29627, maa://29659, maa://29861, maa://49074</t>
+          <t>maa://29633, maa://29627, maa://29659, **maa://30679, maa://29861, maa://42343, maa://49074</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="15" t="inlineStr">
         <is>
-          <t>迷迭香</t>
+          <t>泥岩</t>
         </is>
       </c>
       <c r="B167" s="15" t="inlineStr">
         <is>
-          <t>4-1</t>
+          <t>10-16</t>
         </is>
       </c>
       <c r="C167" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D167" s="10" t="inlineStr">
         <is>
-          <t>maa://29059</t>
+          <t>maa://49655, maa://49867</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="15" t="inlineStr">
         <is>
-          <t>阿米娅(近卫)</t>
+          <t>迷迭香</t>
         </is>
       </c>
       <c r="B168" s="15" t="inlineStr">
         <is>
-          <t>2-10</t>
+          <t>4-1</t>
         </is>
       </c>
       <c r="C168" s="12" t="inlineStr">
@@ -4544,19 +4544,19 @@
       </c>
       <c r="D168" s="10" t="inlineStr">
         <is>
-          <t>maa://45556</t>
+          <t>maa://29059</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="15" t="inlineStr">
         <is>
-          <t>松果</t>
+          <t>阿米娅</t>
         </is>
       </c>
       <c r="B169" s="15" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>2-10</t>
         </is>
       </c>
       <c r="C169" s="12" t="inlineStr">
@@ -4566,19 +4566,19 @@
       </c>
       <c r="D169" s="10" t="inlineStr">
         <is>
-          <t>maa://40159</t>
+          <t>maa://45556</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="15" t="inlineStr">
         <is>
-          <t>罗宾</t>
+          <t>松果</t>
         </is>
       </c>
       <c r="B170" s="15" t="inlineStr">
         <is>
-          <t>BI-EX-2</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="C170" s="12" t="inlineStr">
@@ -4588,19 +4588,19 @@
       </c>
       <c r="D170" s="10" t="inlineStr">
         <is>
-          <t>maa://39152</t>
+          <t>maa://40159</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="15" t="inlineStr">
         <is>
-          <t>卡夫卡</t>
+          <t>罗宾</t>
         </is>
       </c>
       <c r="B171" s="15" t="inlineStr">
         <is>
-          <t>2-7</t>
+          <t>BI-EX-2</t>
         </is>
       </c>
       <c r="C171" s="12" t="inlineStr">
@@ -4610,19 +4610,19 @@
       </c>
       <c r="D171" s="10" t="inlineStr">
         <is>
-          <t>*maa://20905</t>
+          <t>maa://39152</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="15" t="inlineStr">
         <is>
-          <t>山</t>
+          <t>卡夫卡</t>
         </is>
       </c>
       <c r="B172" s="15" t="inlineStr">
         <is>
-          <t>MB-EX-3</t>
+          <t>2-7</t>
         </is>
       </c>
       <c r="C172" s="12" t="inlineStr">
@@ -4632,19 +4632,19 @@
       </c>
       <c r="D172" s="10" t="inlineStr">
         <is>
-          <t>maa://32418</t>
+          <t>*maa://20905</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="15" t="inlineStr">
         <is>
-          <t>豆苗</t>
+          <t>山</t>
         </is>
       </c>
       <c r="B173" s="15" t="inlineStr">
         <is>
-          <t>S3-7</t>
+          <t>MB-EX-3</t>
         </is>
       </c>
       <c r="C173" s="12" t="inlineStr">
@@ -4654,19 +4654,19 @@
       </c>
       <c r="D173" s="10" t="inlineStr">
         <is>
-          <t>maa://37690</t>
+          <t>maa://32418</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="15" t="inlineStr">
         <is>
-          <t>爱丽丝</t>
+          <t>豆苗</t>
         </is>
       </c>
       <c r="B174" s="15" t="inlineStr">
         <is>
-          <t>2-2</t>
+          <t>S3-7</t>
         </is>
       </c>
       <c r="C174" s="12" t="inlineStr">
@@ -4676,19 +4676,19 @@
       </c>
       <c r="D174" s="10" t="inlineStr">
         <is>
-          <t>maa://20842</t>
+          <t>maa://37690</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="15" t="inlineStr">
         <is>
-          <t>空弦</t>
+          <t>爱丽丝</t>
         </is>
       </c>
       <c r="B175" s="15" t="inlineStr">
         <is>
-          <t>SV-4</t>
+          <t>2-2</t>
         </is>
       </c>
       <c r="C175" s="12" t="inlineStr">
@@ -4698,7 +4698,7 @@
       </c>
       <c r="D175" s="10" t="inlineStr">
         <is>
-          <t>maa://20912</t>
+          <t>maa://20842</t>
         </is>
       </c>
     </row>
@@ -4710,51 +4710,51 @@
       </c>
       <c r="B176" s="15" t="inlineStr">
         <is>
-          <t>2-9</t>
+          <t>SV-4</t>
         </is>
       </c>
       <c r="C176" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D176" s="10" t="inlineStr">
         <is>
-          <t>maa://20911, *maa://29012</t>
+          <t>maa://20912</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="15" t="inlineStr">
         <is>
-          <t>图耶</t>
+          <t>空弦</t>
         </is>
       </c>
       <c r="B177" s="15" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>2-9</t>
         </is>
       </c>
       <c r="C177" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D177" s="10" t="inlineStr">
         <is>
-          <t>maa://20964</t>
+          <t>maa://20911, *maa://29012</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="15" t="inlineStr">
         <is>
-          <t>炎狱炎熔</t>
+          <t>图耶</t>
         </is>
       </c>
       <c r="B178" s="15" t="inlineStr">
         <is>
-          <t>WR-4</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C178" s="12" t="inlineStr">
@@ -4764,51 +4764,51 @@
       </c>
       <c r="D178" s="10" t="inlineStr">
         <is>
-          <t>maa://20983</t>
+          <t>maa://20964</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="15" t="inlineStr">
         <is>
-          <t>乌有</t>
+          <t>炎狱炎熔</t>
         </is>
       </c>
       <c r="B179" s="15" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>WR-4</t>
         </is>
       </c>
       <c r="C179" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D179" s="10" t="inlineStr">
         <is>
-          <t>maa://31560, **maa://20968</t>
+          <t>maa://20983</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="15" t="inlineStr">
         <is>
-          <t>嵯峨</t>
+          <t>乌有</t>
         </is>
       </c>
       <c r="B180" s="15" t="inlineStr">
         <is>
-          <t>WR-3</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C180" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D180" s="10" t="inlineStr">
         <is>
-          <t>maa://28104</t>
+          <t>maa://31560, **maa://20968</t>
         </is>
       </c>
     </row>
@@ -4820,7 +4820,7 @@
       </c>
       <c r="B181" s="15" t="inlineStr">
         <is>
-          <t>WR-1</t>
+          <t>WR-3</t>
         </is>
       </c>
       <c r="C181" s="12" t="inlineStr">
@@ -4830,19 +4830,19 @@
       </c>
       <c r="D181" s="10" t="inlineStr">
         <is>
-          <t>maa://20861</t>
+          <t>maa://28104</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="15" t="inlineStr">
         <is>
-          <t>夕</t>
+          <t>嵯峨</t>
         </is>
       </c>
       <c r="B182" s="15" t="inlineStr">
         <is>
-          <t>1-6</t>
+          <t>WR-1</t>
         </is>
       </c>
       <c r="C182" s="12" t="inlineStr">
@@ -4852,7 +4852,7 @@
       </c>
       <c r="D182" s="10" t="inlineStr">
         <is>
-          <t>maa://20970</t>
+          <t>maa://20861</t>
         </is>
       </c>
     </row>
@@ -4864,51 +4864,51 @@
       </c>
       <c r="B183" s="15" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>1-6</t>
         </is>
       </c>
       <c r="C183" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D183" s="10" t="inlineStr">
         <is>
-          <t>maa://20969, maa://41303</t>
+          <t>maa://20970</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="15" t="inlineStr">
         <is>
-          <t>战车</t>
+          <t>夕</t>
         </is>
       </c>
       <c r="B184" s="15" t="inlineStr">
         <is>
-          <t>S2-3</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C184" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D184" s="10" t="inlineStr">
         <is>
-          <t>maa://20999</t>
+          <t>maa://20969, maa://41303</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="15" t="inlineStr">
         <is>
-          <t>闪击</t>
+          <t>战车</t>
         </is>
       </c>
       <c r="B185" s="15" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>S2-3</t>
         </is>
       </c>
       <c r="C185" s="12" t="inlineStr">
@@ -4918,19 +4918,19 @@
       </c>
       <c r="D185" s="10" t="inlineStr">
         <is>
-          <t>maa://35198</t>
+          <t>maa://20999</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="15" t="inlineStr">
         <is>
-          <t>霜华</t>
+          <t>闪击</t>
         </is>
       </c>
       <c r="B186" s="15" t="inlineStr">
         <is>
-          <t>4-4</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C186" s="12" t="inlineStr">
@@ -4940,29 +4940,29 @@
       </c>
       <c r="D186" s="10" t="inlineStr">
         <is>
-          <t>maa://39153</t>
+          <t>maa://35198</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="15" t="inlineStr">
         <is>
-          <t>灰烬</t>
+          <t>霜华</t>
         </is>
       </c>
       <c r="B187" s="15" t="inlineStr">
         <is>
-          <t>SV-8</t>
+          <t>4-4</t>
         </is>
       </c>
       <c r="C187" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D187" s="10" t="inlineStr">
         <is>
-          <t>maa://34866, maa://34714</t>
+          <t>maa://39153</t>
         </is>
       </c>
     </row>
@@ -4974,7 +4974,7 @@
       </c>
       <c r="B188" s="15" t="inlineStr">
         <is>
-          <t>1-12</t>
+          <t>SV-8</t>
         </is>
       </c>
       <c r="C188" s="12" t="inlineStr">
@@ -4984,41 +4984,41 @@
       </c>
       <c r="D188" s="10" t="inlineStr">
         <is>
-          <t>maa://34883, maa://20895</t>
+          <t>maa://34866, maa://34714</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="15" t="inlineStr">
         <is>
-          <t>暴雨</t>
+          <t>灰烬</t>
         </is>
       </c>
       <c r="B189" s="15" t="inlineStr">
         <is>
-          <t>2-7</t>
+          <t>1-12</t>
         </is>
       </c>
       <c r="C189" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D189" s="10" t="inlineStr">
         <is>
-          <t>maa://20853</t>
+          <t>maa://34883, maa://20895</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="15" t="inlineStr">
         <is>
-          <t>熔泉</t>
+          <t>暴雨</t>
         </is>
       </c>
       <c r="B190" s="15" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>2-7</t>
         </is>
       </c>
       <c r="C190" s="12" t="inlineStr">
@@ -5028,19 +5028,19 @@
       </c>
       <c r="D190" s="10" t="inlineStr">
         <is>
-          <t>maa://20942</t>
+          <t>maa://20853</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="15" t="inlineStr">
         <is>
-          <t>异客</t>
+          <t>熔泉</t>
         </is>
       </c>
       <c r="B191" s="15" t="inlineStr">
         <is>
-          <t>2-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C191" s="12" t="inlineStr">
@@ -5050,7 +5050,7 @@
       </c>
       <c r="D191" s="10" t="inlineStr">
         <is>
-          <t>maa://20992</t>
+          <t>maa://20942</t>
         </is>
       </c>
     </row>
@@ -5062,61 +5062,61 @@
       </c>
       <c r="B192" s="15" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>2-2</t>
         </is>
       </c>
       <c r="C192" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D192" s="10" t="inlineStr">
         <is>
-          <t>*maa://28190, maa://20994</t>
+          <t>maa://20992</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="15" t="inlineStr">
         <is>
-          <t>赤冬</t>
+          <t>异客</t>
         </is>
       </c>
       <c r="B193" s="15" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C193" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D193" s="10" t="inlineStr">
         <is>
-          <t>maa://20860</t>
+          <t>*maa://28190, maa://20994</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="15" t="inlineStr">
         <is>
-          <t>歌蕾蒂娅</t>
+          <t>赤冬</t>
         </is>
       </c>
       <c r="B194" s="15" t="inlineStr">
         <is>
-          <t>SV-EX-5</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C194" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D194" s="10" t="inlineStr">
         <is>
-          <t>maa://44224, *maa://35854, maa://25760, **maa://20872</t>
+          <t>maa://20860</t>
         </is>
       </c>
     </row>
@@ -5128,39 +5128,39 @@
       </c>
       <c r="B195" s="15" t="inlineStr">
         <is>
-          <t>SN-EX-3</t>
+          <t>SV-EX-5</t>
         </is>
       </c>
       <c r="C195" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D195" s="10" t="inlineStr">
         <is>
-          <t>maa://39156, *maa://39550</t>
+          <t>maa://44224, *maa://35854, maa://25760, **maa://20872</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="15" t="inlineStr">
         <is>
-          <t>凯尔希</t>
+          <t>歌蕾蒂娅</t>
         </is>
       </c>
       <c r="B196" s="15" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>SN-EX-3</t>
         </is>
       </c>
       <c r="C196" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D196" s="10" t="inlineStr">
         <is>
-          <t>maa://27823, *maa://28190, maa://22894, *maa://20906</t>
+          <t>maa://39156, *maa://39550</t>
         </is>
       </c>
     </row>
@@ -5189,29 +5189,29 @@
     <row r="198">
       <c r="A198" s="15" t="inlineStr">
         <is>
-          <t>浊心斯卡蒂</t>
+          <t>凯尔希</t>
         </is>
       </c>
       <c r="B198" s="15" t="inlineStr">
         <is>
-          <t>SV-5</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C198" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D198" s="10" t="inlineStr">
         <is>
-          <t>maa://42223, maa://42292, maa://42402</t>
+          <t>maa://27823, *maa://28190, maa://22894, *maa://20906</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="15" t="inlineStr">
         <is>
-          <t>深靛</t>
+          <t>浊心斯卡蒂</t>
         </is>
       </c>
       <c r="B199" s="15" t="inlineStr">
@@ -5221,24 +5221,24 @@
       </c>
       <c r="C199" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D199" s="10" t="inlineStr">
         <is>
-          <t>maa://39154</t>
+          <t>maa://42223, maa://42292, maa://42402, maa://49077</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="15" t="inlineStr">
         <is>
-          <t>贝娜</t>
+          <t>深靛</t>
         </is>
       </c>
       <c r="B200" s="15" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>SV-5</t>
         </is>
       </c>
       <c r="C200" s="12" t="inlineStr">
@@ -5248,19 +5248,19 @@
       </c>
       <c r="D200" s="10" t="inlineStr">
         <is>
-          <t>maa://20854</t>
+          <t>maa://39154</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="15" t="inlineStr">
         <is>
-          <t>绮良</t>
+          <t>贝娜</t>
         </is>
       </c>
       <c r="B201" s="15" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="C201" s="12" t="inlineStr">
@@ -5270,19 +5270,19 @@
       </c>
       <c r="D201" s="10" t="inlineStr">
         <is>
-          <t>maa://20937</t>
+          <t>maa://20854</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="15" t="inlineStr">
         <is>
-          <t>卡涅利安</t>
+          <t>绮良</t>
         </is>
       </c>
       <c r="B202" s="15" t="inlineStr">
         <is>
-          <t>7-3</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C202" s="12" t="inlineStr">
@@ -5292,7 +5292,7 @@
       </c>
       <c r="D202" s="10" t="inlineStr">
         <is>
-          <t>maa://22468</t>
+          <t>maa://20937</t>
         </is>
       </c>
     </row>
@@ -5304,39 +5304,39 @@
       </c>
       <c r="B203" s="15" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>7-3</t>
         </is>
       </c>
       <c r="C203" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D203" s="10" t="inlineStr">
         <is>
-          <t>maa://30673, maa://30672</t>
+          <t>maa://22468</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="15" t="inlineStr">
         <is>
-          <t>帕拉斯</t>
+          <t>卡涅利安</t>
         </is>
       </c>
       <c r="B204" s="15" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C204" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D204" s="10" t="inlineStr">
         <is>
-          <t>maa://20934, maa://20827, maa://20828</t>
+          <t>maa://30673, maa://30672</t>
         </is>
       </c>
     </row>
@@ -5348,61 +5348,61 @@
       </c>
       <c r="B205" s="15" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="C205" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D205" s="10" t="inlineStr">
         <is>
-          <t>maa://20935</t>
+          <t>maa://20934, maa://20827, maa://20828</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="15" t="inlineStr">
         <is>
-          <t>羽毛笔</t>
+          <t>帕拉斯</t>
         </is>
       </c>
       <c r="B206" s="15" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C206" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D206" s="13" t="inlineStr">
         <is>
-          <t>maa://28133, maa://28277, maa://25369, *maa://33132</t>
+          <t>maa://20935</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="15" t="inlineStr">
         <is>
-          <t>水月</t>
+          <t>羽毛笔</t>
         </is>
       </c>
       <c r="B207" s="15" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C207" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D207" s="10" t="inlineStr">
         <is>
-          <t>maa://20956, *maa://20830, maa://44703</t>
+          <t>maa://28133, maa://25369</t>
         </is>
       </c>
     </row>
@@ -5414,29 +5414,29 @@
       </c>
       <c r="B208" s="15" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C208" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D208" s="10" t="inlineStr">
         <is>
-          <t>*maa://20955</t>
+          <t>maa://20956, *maa://20830, maa://44703</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="15" t="inlineStr">
         <is>
-          <t>假日威龙陈</t>
+          <t>水月</t>
         </is>
       </c>
       <c r="B209" s="15" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="C209" s="12" t="inlineStr">
@@ -5446,19 +5446,19 @@
       </c>
       <c r="D209" s="10" t="inlineStr">
         <is>
-          <t>maa://39238</t>
+          <t>*maa://20955</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="15" t="inlineStr">
         <is>
-          <t>罗比菈塔</t>
+          <t>假日威龙陈</t>
         </is>
       </c>
       <c r="B210" s="15" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="C210" s="12" t="inlineStr">
@@ -5468,19 +5468,19 @@
       </c>
       <c r="D210" s="10" t="inlineStr">
         <is>
-          <t>maa://45261</t>
+          <t>maa://39238</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="15" t="inlineStr">
         <is>
-          <t>桑葚</t>
+          <t>罗比菈塔</t>
         </is>
       </c>
       <c r="B211" s="15" t="inlineStr">
         <is>
-          <t>SV-5</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C211" s="12" t="inlineStr">
@@ -5490,29 +5490,29 @@
       </c>
       <c r="D211" s="10" t="inlineStr">
         <is>
-          <t>maa://39694</t>
+          <t>maa://45261</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="15" t="inlineStr">
         <is>
-          <t>琴柳</t>
+          <t>桑葚</t>
         </is>
       </c>
       <c r="B212" s="15" t="inlineStr">
         <is>
-          <t>9-2</t>
+          <t>SV-5</t>
         </is>
       </c>
       <c r="C212" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D212" s="10" t="inlineStr">
         <is>
-          <t>maa://24636, maa://25778</t>
+          <t>maa://39694</t>
         </is>
       </c>
     </row>
@@ -5524,29 +5524,29 @@
       </c>
       <c r="B213" s="15" t="inlineStr">
         <is>
-          <t>5-3</t>
+          <t>9-2</t>
         </is>
       </c>
       <c r="C213" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D213" s="10" t="inlineStr">
         <is>
-          <t>maa://48261</t>
+          <t>maa://24636, maa://25778</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="15" t="inlineStr">
         <is>
-          <t>灰毫</t>
+          <t>琴柳</t>
         </is>
       </c>
       <c r="B214" s="15" t="inlineStr">
         <is>
-          <t>7-9</t>
+          <t>5-3</t>
         </is>
       </c>
       <c r="C214" s="12" t="inlineStr">
@@ -5556,29 +5556,29 @@
       </c>
       <c r="D214" s="10" t="inlineStr">
         <is>
-          <t>*maa://39157</t>
+          <t>maa://48261</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="15" t="inlineStr">
         <is>
-          <t>远牙</t>
+          <t>灰毫</t>
         </is>
       </c>
       <c r="B215" s="15" t="inlineStr">
         <is>
-          <t>S2-2</t>
+          <t>7-9</t>
         </is>
       </c>
       <c r="C215" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D215" s="10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>*maa://39157</t>
         </is>
       </c>
     </row>
@@ -5590,29 +5590,29 @@
       </c>
       <c r="B216" s="15" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>S2-2</t>
         </is>
       </c>
       <c r="C216" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D216" s="10" t="inlineStr">
         <is>
-          <t>maa://26499</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="15" t="inlineStr">
         <is>
-          <t>布丁</t>
+          <t>远牙</t>
         </is>
       </c>
       <c r="B217" s="15" t="inlineStr">
         <is>
-          <t>2-10</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C217" s="12" t="inlineStr">
@@ -5622,19 +5622,19 @@
       </c>
       <c r="D217" s="10" t="inlineStr">
         <is>
-          <t>maa://20858</t>
+          <t>maa://26499</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="15" t="inlineStr">
         <is>
-          <t>蜜莓</t>
+          <t>布丁</t>
         </is>
       </c>
       <c r="B218" s="15" t="inlineStr">
         <is>
-          <t>GA-2</t>
+          <t>2-10</t>
         </is>
       </c>
       <c r="C218" s="12" t="inlineStr">
@@ -5644,19 +5644,19 @@
       </c>
       <c r="D218" s="10" t="inlineStr">
         <is>
-          <t>maa://39695</t>
+          <t>maa://20858</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="15" t="inlineStr">
         <is>
-          <t>野鬃</t>
+          <t>蜜莓</t>
         </is>
       </c>
       <c r="B219" s="15" t="inlineStr">
         <is>
-          <t>MN-2</t>
+          <t>GA-2</t>
         </is>
       </c>
       <c r="C219" s="12" t="inlineStr">
@@ -5666,19 +5666,19 @@
       </c>
       <c r="D219" s="10" t="inlineStr">
         <is>
-          <t>maa://20988</t>
+          <t>maa://39695</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="15" t="inlineStr">
         <is>
-          <t>蚀清</t>
+          <t>野鬃</t>
         </is>
       </c>
       <c r="B220" s="15" t="inlineStr">
         <is>
-          <t>BI-6</t>
+          <t>MN-2</t>
         </is>
       </c>
       <c r="C220" s="12" t="inlineStr">
@@ -5688,29 +5688,29 @@
       </c>
       <c r="D220" s="10" t="inlineStr">
         <is>
-          <t>maa://39158</t>
+          <t>maa://20988</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="15" t="inlineStr">
         <is>
-          <t>焰尾</t>
+          <t>蚀清</t>
         </is>
       </c>
       <c r="B221" s="15" t="inlineStr">
         <is>
-          <t>NL-5</t>
+          <t>BI-6</t>
         </is>
       </c>
       <c r="C221" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D221" s="10" t="inlineStr">
         <is>
-          <t>maa://28187, maa://43531, maa://39520</t>
+          <t>maa://39158</t>
         </is>
       </c>
     </row>
@@ -5722,39 +5722,39 @@
       </c>
       <c r="B222" s="15" t="inlineStr">
         <is>
-          <t>NL-3</t>
+          <t>NL-5</t>
         </is>
       </c>
       <c r="C222" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D222" s="10" t="inlineStr">
         <is>
-          <t>maa://20985</t>
+          <t>maa://28187, maa://43531, maa://39520</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="15" t="inlineStr">
         <is>
-          <t>耀骑士临光</t>
+          <t>焰尾</t>
         </is>
       </c>
       <c r="B223" s="15" t="inlineStr">
         <is>
-          <t>MN-8</t>
+          <t>NL-3</t>
         </is>
       </c>
       <c r="C223" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D223" s="10" t="inlineStr">
         <is>
-          <t>maa://20987, *maa://35801</t>
+          <t>maa://20985</t>
         </is>
       </c>
     </row>
@@ -5766,29 +5766,29 @@
       </c>
       <c r="B224" s="15" t="inlineStr">
         <is>
-          <t>NL-10</t>
+          <t>MN-8</t>
         </is>
       </c>
       <c r="C224" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D224" s="10" t="inlineStr">
         <is>
-          <t>maa://39159</t>
+          <t>maa://20987, *maa://35801</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="15" t="inlineStr">
         <is>
-          <t>耶拉</t>
+          <t>耀骑士临光</t>
         </is>
       </c>
       <c r="B225" s="15" t="inlineStr">
         <is>
-          <t>BI-7</t>
+          <t>NL-10</t>
         </is>
       </c>
       <c r="C225" s="12" t="inlineStr">
@@ -5798,19 +5798,19 @@
       </c>
       <c r="D225" s="10" t="inlineStr">
         <is>
-          <t>maa://39140, maa://30677</t>
+          <t>*maa://29644, maa://39159</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="15" t="inlineStr">
         <is>
-          <t>极光</t>
+          <t>耶拉</t>
         </is>
       </c>
       <c r="B226" s="15" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>BI-7</t>
         </is>
       </c>
       <c r="C226" s="12" t="inlineStr">
@@ -5820,29 +5820,29 @@
       </c>
       <c r="D226" s="10" t="inlineStr">
         <is>
-          <t>maa://20896</t>
+          <t>maa://30677</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="15" t="inlineStr">
         <is>
-          <t>灵知</t>
+          <t>极光</t>
         </is>
       </c>
       <c r="B227" s="15" t="inlineStr">
         <is>
-          <t>BI-7</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C227" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D227" s="10" t="inlineStr">
         <is>
-          <t>maa://29058, maa://39140, maa://38723</t>
+          <t>maa://20896</t>
         </is>
       </c>
     </row>
@@ -5854,29 +5854,29 @@
       </c>
       <c r="B228" s="15" t="inlineStr">
         <is>
-          <t>5-6</t>
+          <t>BI-7</t>
         </is>
       </c>
       <c r="C228" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D228" s="10" t="inlineStr">
         <is>
-          <t>*maa://48263</t>
+          <t>maa://29058, maa://39140, maa://38723</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="15" t="inlineStr">
         <is>
-          <t>九色鹿</t>
+          <t>灵知</t>
         </is>
       </c>
       <c r="B229" s="15" t="inlineStr">
         <is>
-          <t>IW-3</t>
+          <t>5-6</t>
         </is>
       </c>
       <c r="C229" s="12" t="inlineStr">
@@ -5886,19 +5886,19 @@
       </c>
       <c r="D229" s="10" t="inlineStr">
         <is>
-          <t>maa://39160</t>
+          <t>*maa://48263</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="15" t="inlineStr">
         <is>
-          <t>寒芒克洛丝</t>
+          <t>九色鹿</t>
         </is>
       </c>
       <c r="B230" s="15" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>IW-3</t>
         </is>
       </c>
       <c r="C230" s="12" t="inlineStr">
@@ -5908,19 +5908,19 @@
       </c>
       <c r="D230" s="10" t="inlineStr">
         <is>
-          <t>maa://20878</t>
+          <t>maa://39160</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="15" t="inlineStr">
         <is>
-          <t>夜半</t>
+          <t>寒芒克洛丝</t>
         </is>
       </c>
       <c r="B231" s="15" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C231" s="12" t="inlineStr">
@@ -5930,14 +5930,14 @@
       </c>
       <c r="D231" s="10" t="inlineStr">
         <is>
-          <t>maa://35952</t>
+          <t>maa://49491</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="15" t="inlineStr">
         <is>
-          <t>老鲤</t>
+          <t>夜半</t>
         </is>
       </c>
       <c r="B232" s="15" t="inlineStr">
@@ -5952,7 +5952,7 @@
       </c>
       <c r="D232" s="10" t="inlineStr">
         <is>
-          <t>maa://20917</t>
+          <t>maa://35952</t>
         </is>
       </c>
     </row>
@@ -5964,117 +5964,117 @@
       </c>
       <c r="B233" s="15" t="inlineStr">
         <is>
-          <t>IW-EX-1</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C233" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D233" s="10" t="inlineStr">
         <is>
-          <t>maa://30714, maa://30675</t>
+          <t>maa://20917</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="15" t="inlineStr">
         <is>
-          <t>令</t>
+          <t>老鲤</t>
         </is>
       </c>
       <c r="B234" s="15" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>IW-EX-1</t>
         </is>
       </c>
       <c r="C234" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D234" s="10" t="inlineStr">
         <is>
-          <t>maa://20922, *maa://32623, *maa://34242, maa://34900</t>
+          <t>maa://30714, maa://30675</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="15" t="inlineStr">
         <is>
-          <t>夏栎</t>
+          <t>令</t>
         </is>
       </c>
       <c r="B235" s="15" t="inlineStr">
         <is>
-          <t>9-2</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C235" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D235" s="10" t="inlineStr">
         <is>
-          <t>maa://32999</t>
+          <t>maa://20922, *maa://32623, *maa://34242</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="15" t="inlineStr">
         <is>
-          <t>澄闪</t>
+          <t>夏栎</t>
         </is>
       </c>
       <c r="B236" s="15" t="inlineStr">
         <is>
-          <t>R8-8</t>
+          <t>9-2</t>
         </is>
       </c>
       <c r="C236" s="12" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D236" s="10" t="inlineStr">
         <is>
-          <t>*maa://30667, maa://30666, *maa://26836, maa://37607, *maa://34428, *maa://30723, maa://39588, *maa://37850, maa://49172</t>
+          <t>maa://32999</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="15" t="inlineStr">
         <is>
-          <t>见行者</t>
+          <t>澄闪</t>
         </is>
       </c>
       <c r="B237" s="15" t="inlineStr">
         <is>
-          <t>GA-EX-1</t>
+          <t>R8-8</t>
         </is>
       </c>
       <c r="C237" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D237" s="13" t="inlineStr">
         <is>
-          <t>maa://30512</t>
+          <t>*maa://30667, maa://30666, *maa://30723, maa://39588</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="15" t="inlineStr">
         <is>
-          <t>风丸</t>
+          <t>见行者</t>
         </is>
       </c>
       <c r="B238" s="15" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>GA-EX-1</t>
         </is>
       </c>
       <c r="C238" s="12" t="inlineStr">
@@ -6084,19 +6084,19 @@
       </c>
       <c r="D238" s="10" t="inlineStr">
         <is>
-          <t>maa://20870</t>
+          <t>maa://30512</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="15" t="inlineStr">
         <is>
-          <t>菲亚梅塔</t>
+          <t>风丸</t>
         </is>
       </c>
       <c r="B239" s="15" t="inlineStr">
         <is>
-          <t>GA-4</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C239" s="12" t="inlineStr">
@@ -6106,7 +6106,7 @@
       </c>
       <c r="D239" s="10" t="inlineStr">
         <is>
-          <t>maa://29024</t>
+          <t>maa://20870</t>
         </is>
       </c>
     </row>
@@ -6118,51 +6118,51 @@
       </c>
       <c r="B240" s="15" t="inlineStr">
         <is>
-          <t>S5-9</t>
+          <t>GA-4</t>
         </is>
       </c>
       <c r="C240" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D240" s="10" t="inlineStr">
         <is>
-          <t>maa://20867, maa://38485, *maa://32202</t>
+          <t>maa://29024</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="15" t="inlineStr">
         <is>
-          <t>褐果</t>
+          <t>菲亚梅塔</t>
         </is>
       </c>
       <c r="B241" s="15" t="inlineStr">
         <is>
-          <t>SV-3</t>
+          <t>S5-9</t>
         </is>
       </c>
       <c r="C241" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D241" s="10" t="inlineStr">
         <is>
-          <t>maa://40160</t>
+          <t>maa://20867, maa://38485, *maa://32202</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="15" t="inlineStr">
         <is>
-          <t>海蒂</t>
+          <t>褐果</t>
         </is>
       </c>
       <c r="B242" s="15" t="inlineStr">
         <is>
-          <t>9-7</t>
+          <t>SV-3</t>
         </is>
       </c>
       <c r="C242" s="12" t="inlineStr">
@@ -6172,19 +6172,19 @@
       </c>
       <c r="D242" s="10" t="inlineStr">
         <is>
-          <t>maa://43089</t>
+          <t>maa://40160</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="15" t="inlineStr">
         <is>
-          <t>洛洛</t>
+          <t>海蒂</t>
         </is>
       </c>
       <c r="B243" s="15" t="inlineStr">
         <is>
-          <t>RI-EX-4</t>
+          <t>9-7</t>
         </is>
       </c>
       <c r="C243" s="12" t="inlineStr">
@@ -6194,29 +6194,29 @@
       </c>
       <c r="D243" s="10" t="inlineStr">
         <is>
-          <t>maa://30674</t>
+          <t>maa://43089</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="15" t="inlineStr">
         <is>
-          <t>号角</t>
+          <t>洛洛</t>
         </is>
       </c>
       <c r="B244" s="15" t="inlineStr">
         <is>
-          <t>7-15</t>
+          <t>RI-EX-4</t>
         </is>
       </c>
       <c r="C244" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D244" s="13" t="inlineStr">
         <is>
-          <t>maa://28923, maa://28906</t>
+          <t>maa://30674</t>
         </is>
       </c>
     </row>
@@ -6228,51 +6228,51 @@
       </c>
       <c r="B245" s="15" t="inlineStr">
         <is>
-          <t>9-5</t>
+          <t>7-15</t>
         </is>
       </c>
       <c r="C245" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D245" s="10" t="inlineStr">
         <is>
-          <t>maa://42287, maa://45570, maa://42225</t>
+          <t>maa://28923, maa://28906</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="15" t="inlineStr">
         <is>
-          <t>掠风</t>
+          <t>号角</t>
         </is>
       </c>
       <c r="B246" s="15" t="inlineStr">
         <is>
-          <t>11-9</t>
+          <t>9-5</t>
         </is>
       </c>
       <c r="C246" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D246" s="10" t="inlineStr">
         <is>
-          <t>maa://39161</t>
+          <t>maa://42287, maa://45570, maa://42225</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="15" t="inlineStr">
         <is>
-          <t>流明</t>
+          <t>掠风</t>
         </is>
       </c>
       <c r="B247" s="15" t="inlineStr">
         <is>
-          <t>6-9</t>
+          <t>11-9</t>
         </is>
       </c>
       <c r="C247" s="12" t="inlineStr">
@@ -6282,7 +6282,7 @@
       </c>
       <c r="D247" s="10" t="inlineStr">
         <is>
-          <t>maa://20923</t>
+          <t>maa://39161</t>
         </is>
       </c>
     </row>
@@ -6294,39 +6294,39 @@
       </c>
       <c r="B248" s="15" t="inlineStr">
         <is>
-          <t>OF-5</t>
+          <t>6-9</t>
         </is>
       </c>
       <c r="C248" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D248" s="10" t="inlineStr">
         <is>
-          <t>maa://24093, maa://31559, maa://20924</t>
+          <t>maa://20923</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="15" t="inlineStr">
         <is>
-          <t>艾丽妮</t>
+          <t>流明</t>
         </is>
       </c>
       <c r="B249" s="15" t="inlineStr">
         <is>
-          <t>SV-EX-1</t>
+          <t>OF-5</t>
         </is>
       </c>
       <c r="C249" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D249" s="13" t="inlineStr">
         <is>
-          <t>maa://40958, *maa://45067</t>
+          <t>maa://24093, maa://31559, maa://20924, maa://49440</t>
         </is>
       </c>
     </row>
@@ -6338,39 +6338,39 @@
       </c>
       <c r="B250" s="15" t="inlineStr">
         <is>
-          <t>SV-4</t>
+          <t>SV-EX-1</t>
         </is>
       </c>
       <c r="C250" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D250" s="10" t="inlineStr">
         <is>
-          <t>maa://20840</t>
+          <t>maa://40958, maa://45067</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="15" t="inlineStr">
         <is>
-          <t>归溟幽灵鲨</t>
+          <t>艾丽妮</t>
         </is>
       </c>
       <c r="B251" s="15" t="inlineStr">
         <is>
-          <t>SV-EX-1</t>
+          <t>SV-4</t>
         </is>
       </c>
       <c r="C251" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D251" s="10" t="inlineStr">
         <is>
-          <t>maa://20877, maa://20836, *maa://45067, maa://20632</t>
+          <t>maa://20840</t>
         </is>
       </c>
     </row>
@@ -6382,51 +6382,51 @@
       </c>
       <c r="B252" s="15" t="inlineStr">
         <is>
-          <t>S4-1</t>
+          <t>SV-EX-1</t>
         </is>
       </c>
       <c r="C252" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D252" s="10" t="inlineStr">
         <is>
-          <t>maa://20879, maa://20834</t>
+          <t>maa://20877, maa://45067, maa://20836, maa://20632</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="15" t="inlineStr">
         <is>
-          <t>埃拉托</t>
+          <t>归溟幽灵鲨</t>
         </is>
       </c>
       <c r="B253" s="15" t="inlineStr">
         <is>
-          <t>S5-9</t>
+          <t>S4-1</t>
         </is>
       </c>
       <c r="C253" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D253" s="10" t="inlineStr">
         <is>
-          <t>maa://20839</t>
+          <t>maa://20879, maa://20834</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="15" t="inlineStr">
         <is>
-          <t>濯尘芙蓉</t>
+          <t>埃拉托</t>
         </is>
       </c>
       <c r="B254" s="15" t="inlineStr">
         <is>
-          <t>LE-4</t>
+          <t>S5-9</t>
         </is>
       </c>
       <c r="C254" s="12" t="inlineStr">
@@ -6436,29 +6436,29 @@
       </c>
       <c r="D254" s="10" t="inlineStr">
         <is>
-          <t>maa://30676</t>
+          <t>maa://20839</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="15" t="inlineStr">
         <is>
-          <t>黑键</t>
+          <t>濯尘芙蓉</t>
         </is>
       </c>
       <c r="B255" s="15" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>LE-4</t>
         </is>
       </c>
       <c r="C255" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D255" s="10" t="inlineStr">
         <is>
-          <t>maa://31560, maa://20884</t>
+          <t>maa://30676</t>
         </is>
       </c>
     </row>
@@ -6470,17 +6470,17 @@
       </c>
       <c r="B256" s="15" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C256" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D256" s="10" t="inlineStr">
         <is>
-          <t>maa://47204</t>
+          <t>maa://31560, maa://20884</t>
         </is>
       </c>
     </row>
@@ -6492,7 +6492,7 @@
       </c>
       <c r="B257" s="15" t="inlineStr">
         <is>
-          <t>11-12</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="C257" s="12" t="inlineStr">
@@ -6502,19 +6502,19 @@
       </c>
       <c r="D257" s="10" t="inlineStr">
         <is>
-          <t>maa://29027</t>
+          <t>maa://47204</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="15" t="inlineStr">
         <is>
-          <t>星源</t>
+          <t>黑键</t>
         </is>
       </c>
       <c r="B258" s="15" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>11-12</t>
         </is>
       </c>
       <c r="C258" s="12" t="inlineStr">
@@ -6524,19 +6524,19 @@
       </c>
       <c r="D258" s="10" t="inlineStr">
         <is>
-          <t>maa://20977</t>
+          <t>maa://29027</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="15" t="inlineStr">
         <is>
-          <t>承曦格雷伊</t>
+          <t>星源</t>
         </is>
       </c>
       <c r="B259" s="15" t="inlineStr">
         <is>
-          <t>1-3</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C259" s="12" t="inlineStr">
@@ -6546,19 +6546,19 @@
       </c>
       <c r="D259" s="10" t="inlineStr">
         <is>
-          <t>maa://39162</t>
+          <t>maa://20977</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="15" t="inlineStr">
         <is>
-          <t>多萝西</t>
+          <t>承曦格雷伊</t>
         </is>
       </c>
       <c r="B260" s="15" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>1-3</t>
         </is>
       </c>
       <c r="C260" s="12" t="inlineStr">
@@ -6568,85 +6568,85 @@
       </c>
       <c r="D260" s="10" t="inlineStr">
         <is>
-          <t>maa://22467</t>
+          <t>maa://39162</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="15" t="inlineStr">
         <is>
-          <t>至简</t>
+          <t>多萝西</t>
         </is>
       </c>
       <c r="B261" s="15" t="inlineStr">
         <is>
-          <t>IC-8</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="C261" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D261" s="10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://22467</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="15" t="inlineStr">
         <is>
-          <t>鸿雪</t>
+          <t>至简</t>
         </is>
       </c>
       <c r="B262" s="15" t="inlineStr">
         <is>
-          <t>9-7</t>
+          <t>IC-8</t>
         </is>
       </c>
       <c r="C262" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D262" s="10" t="inlineStr">
         <is>
-          <t>maa://48265</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="15" t="inlineStr">
         <is>
-          <t>鸿雪</t>
+          <t>晓歌</t>
         </is>
       </c>
       <c r="B263" s="15" t="inlineStr">
         <is>
-          <t>2-10</t>
+          <t>5-3</t>
         </is>
       </c>
       <c r="C263" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D263" s="10" t="inlineStr">
         <is>
-          <t>*maa://20825, *maa://21445, *maa://35726</t>
+          <t>maa://49643</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="15" t="inlineStr">
         <is>
-          <t>百炼嘉维尔</t>
+          <t>鸿雪</t>
         </is>
       </c>
       <c r="B264" s="15" t="inlineStr">
         <is>
-          <t>9-2</t>
+          <t>9-7</t>
         </is>
       </c>
       <c r="C264" s="12" t="inlineStr">
@@ -6656,19 +6656,19 @@
       </c>
       <c r="D264" s="10" t="inlineStr">
         <is>
-          <t>maa://25769</t>
+          <t>maa://48265</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="15" t="inlineStr">
         <is>
-          <t>但书</t>
+          <t>鸿雪</t>
         </is>
       </c>
       <c r="B265" s="15" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>2-10</t>
         </is>
       </c>
       <c r="C265" s="12" t="inlineStr">
@@ -6678,19 +6678,19 @@
       </c>
       <c r="D265" s="10" t="inlineStr">
         <is>
-          <t>maa://27794, maa://45572, maa://20862</t>
+          <t>*maa://20825, *maa://21445, *maa://35726</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="15" t="inlineStr">
         <is>
-          <t>罗小黑</t>
+          <t>百炼嘉维尔</t>
         </is>
       </c>
       <c r="B266" s="15" t="inlineStr">
         <is>
-          <t>IW-4</t>
+          <t>9-2</t>
         </is>
       </c>
       <c r="C266" s="12" t="inlineStr">
@@ -6700,19 +6700,19 @@
       </c>
       <c r="D266" s="10" t="inlineStr">
         <is>
-          <t>maa://39163</t>
+          <t>maa://25769</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="15" t="inlineStr">
         <is>
-          <t>海沫</t>
+          <t>但书</t>
         </is>
       </c>
       <c r="B267" s="15" t="inlineStr">
         <is>
-          <t>SN-2</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="C267" s="12" t="inlineStr">
@@ -6722,19 +6722,19 @@
       </c>
       <c r="D267" s="10" t="inlineStr">
         <is>
-          <t>maa://29061</t>
+          <t>maa://20862</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="15" t="inlineStr">
         <is>
-          <t>铅踝</t>
+          <t>罗小黑</t>
         </is>
       </c>
       <c r="B268" s="15" t="inlineStr">
         <is>
-          <t>S3-5</t>
+          <t>IW-4</t>
         </is>
       </c>
       <c r="C268" s="12" t="inlineStr">
@@ -6744,19 +6744,19 @@
       </c>
       <c r="D268" s="10" t="inlineStr">
         <is>
-          <t>*maa://20939</t>
+          <t>maa://39163</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="15" t="inlineStr">
         <is>
-          <t>达格达</t>
+          <t>海沫</t>
         </is>
       </c>
       <c r="B269" s="15" t="inlineStr">
         <is>
-          <t>11-5</t>
+          <t>SN-2</t>
         </is>
       </c>
       <c r="C269" s="12" t="inlineStr">
@@ -6766,41 +6766,41 @@
       </c>
       <c r="D269" s="10" t="inlineStr">
         <is>
-          <t>maa://39164</t>
+          <t>maa://29061</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="15" t="inlineStr">
         <is>
-          <t>白铁</t>
+          <t>铅踝</t>
         </is>
       </c>
       <c r="B270" s="15" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>S3-5</t>
         </is>
       </c>
       <c r="C270" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D270" s="10" t="inlineStr">
         <is>
-          <t>maa://28133, maa://33394</t>
+          <t>*maa://20939</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="15" t="inlineStr">
         <is>
-          <t>白铁</t>
+          <t>达格达</t>
         </is>
       </c>
       <c r="B271" s="15" t="inlineStr">
         <is>
-          <t>9-6</t>
+          <t>11-5</t>
         </is>
       </c>
       <c r="C271" s="12" t="inlineStr">
@@ -6810,41 +6810,41 @@
       </c>
       <c r="D271" s="10" t="inlineStr">
         <is>
-          <t>maa://42311</t>
+          <t>maa://39164</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="15" t="inlineStr">
         <is>
-          <t>石英</t>
+          <t>白铁</t>
         </is>
       </c>
       <c r="B272" s="15" t="inlineStr">
         <is>
-          <t>DH-4</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C272" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D272" s="10" t="inlineStr">
         <is>
-          <t>maa://41362</t>
+          <t>maa://28133, maa://33394</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="15" t="inlineStr">
         <is>
-          <t>雪绒</t>
+          <t>白铁</t>
         </is>
       </c>
       <c r="B273" s="15" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>9-6</t>
         </is>
       </c>
       <c r="C273" s="12" t="inlineStr">
@@ -6854,19 +6854,19 @@
       </c>
       <c r="D273" s="10" t="inlineStr">
         <is>
-          <t>maa://20978</t>
+          <t>maa://42311</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="15" t="inlineStr">
         <is>
-          <t>子月</t>
+          <t>石英</t>
         </is>
       </c>
       <c r="B274" s="15" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>DH-4</t>
         </is>
       </c>
       <c r="C274" s="12" t="inlineStr">
@@ -6876,19 +6876,19 @@
       </c>
       <c r="D274" s="10" t="inlineStr">
         <is>
-          <t>maa://21002</t>
+          <t>maa://41362</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="15" t="inlineStr">
         <is>
-          <t>伺夜</t>
+          <t>雪绒</t>
         </is>
       </c>
       <c r="B275" s="15" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="C275" s="12" t="inlineStr">
@@ -6898,41 +6898,41 @@
       </c>
       <c r="D275" s="10" t="inlineStr">
         <is>
-          <t>*maa://39165</t>
+          <t>maa://20978</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="15" t="inlineStr">
         <is>
-          <t>伺夜</t>
+          <t>子月</t>
         </is>
       </c>
       <c r="B276" s="15" t="inlineStr">
         <is>
-          <t>IS-6</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C276" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D276" s="10" t="inlineStr">
         <is>
-          <t>maa://48267, maa://48266</t>
+          <t>maa://21002</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="15" t="inlineStr">
         <is>
-          <t>斥罪</t>
+          <t>伺夜</t>
         </is>
       </c>
       <c r="B277" s="15" t="inlineStr">
         <is>
-          <t>CB-4</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C277" s="12" t="inlineStr">
@@ -6942,63 +6942,63 @@
       </c>
       <c r="D277" s="10" t="inlineStr">
         <is>
-          <t>maa://29635</t>
+          <t>*maa://39165</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="15" t="inlineStr">
         <is>
-          <t>斥罪</t>
+          <t>伺夜</t>
         </is>
       </c>
       <c r="B278" s="15" t="inlineStr">
         <is>
-          <t>IS-7</t>
+          <t>IS-6</t>
         </is>
       </c>
       <c r="C278" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D278" s="10" t="inlineStr">
         <is>
-          <t>maa://38296</t>
+          <t>maa://48267, maa://48266</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="15" t="inlineStr">
         <is>
-          <t>缄默德克萨斯</t>
+          <t>斥罪</t>
         </is>
       </c>
       <c r="B279" s="15" t="inlineStr">
         <is>
-          <t>CB-8</t>
+          <t>CB-4</t>
         </is>
       </c>
       <c r="C279" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D279" s="10" t="inlineStr">
         <is>
-          <t>maa://20899, maa://46332</t>
+          <t>maa://29635</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="15" t="inlineStr">
         <is>
-          <t>和弦</t>
+          <t>斥罪</t>
         </is>
       </c>
       <c r="B280" s="15" t="inlineStr">
         <is>
-          <t>6-5</t>
+          <t>IS-7</t>
         </is>
       </c>
       <c r="C280" s="12" t="inlineStr">
@@ -7008,63 +7008,63 @@
       </c>
       <c r="D280" s="10" t="inlineStr">
         <is>
-          <t>maa://20881</t>
+          <t>maa://38296</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="15" t="inlineStr">
         <is>
-          <t>焰影苇草</t>
+          <t>缄默德克萨斯</t>
         </is>
       </c>
       <c r="B281" s="15" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>CB-8</t>
         </is>
       </c>
       <c r="C281" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D281" s="10" t="inlineStr">
         <is>
-          <t>maa://30710, maa://36845, maa://31558, maa://30668</t>
+          <t>maa://20899, maa://46332</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="15" t="inlineStr">
         <is>
-          <t>截云</t>
+          <t>谜图</t>
         </is>
       </c>
       <c r="B282" s="15" t="inlineStr">
         <is>
-          <t>S2-2</t>
+          <t>9-4</t>
         </is>
       </c>
       <c r="C282" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D282" s="10" t="inlineStr">
         <is>
-          <t>maa://20902</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="15" t="inlineStr">
         <is>
-          <t>火哨</t>
+          <t>和弦</t>
         </is>
       </c>
       <c r="B283" s="15" t="inlineStr">
         <is>
-          <t>S4-6</t>
+          <t>6-5</t>
         </is>
       </c>
       <c r="C283" s="12" t="inlineStr">
@@ -7074,14 +7074,14 @@
       </c>
       <c r="D283" s="10" t="inlineStr">
         <is>
-          <t>maa://29159</t>
+          <t>maa://20881</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="15" t="inlineStr">
         <is>
-          <t>林</t>
+          <t>焰影苇草</t>
         </is>
       </c>
       <c r="B284" s="15" t="inlineStr">
@@ -7096,19 +7096,19 @@
       </c>
       <c r="D284" s="10" t="inlineStr">
         <is>
-          <t>maa://25774, maa://28133, maa://22469, **maa://31349</t>
+          <t>maa://30710, maa://36845, maa://31558, maa://30668</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="15" t="inlineStr">
         <is>
-          <t>林</t>
+          <t>截云</t>
         </is>
       </c>
       <c r="B285" s="15" t="inlineStr">
         <is>
-          <t>6-5</t>
+          <t>S2-2</t>
         </is>
       </c>
       <c r="C285" s="12" t="inlineStr">
@@ -7118,63 +7118,63 @@
       </c>
       <c r="D285" s="10" t="inlineStr">
         <is>
-          <t>maa://47882</t>
+          <t>maa://20902</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="15" t="inlineStr">
         <is>
-          <t>重岳</t>
+          <t>火哨</t>
         </is>
       </c>
       <c r="B286" s="15" t="inlineStr">
         <is>
-          <t>WB-7</t>
+          <t>S4-6</t>
         </is>
       </c>
       <c r="C286" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D286" s="10" t="inlineStr">
         <is>
-          <t>maa://32414, maa://32505, maa://39155</t>
+          <t>maa://29159</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="15" t="inlineStr">
         <is>
-          <t>重岳</t>
+          <t>林</t>
         </is>
       </c>
       <c r="B287" s="15" t="inlineStr">
         <is>
-          <t>GA-5</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C287" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D287" s="10" t="inlineStr">
         <is>
-          <t>maa://45799</t>
+          <t>maa://25774, maa://28133, maa://22469, **maa://31349</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="15" t="inlineStr">
         <is>
-          <t>铎铃</t>
+          <t>林</t>
         </is>
       </c>
       <c r="B288" s="15" t="inlineStr">
         <is>
-          <t>2-1</t>
+          <t>6-5</t>
         </is>
       </c>
       <c r="C288" s="12" t="inlineStr">
@@ -7184,14 +7184,14 @@
       </c>
       <c r="D288" s="10" t="inlineStr">
         <is>
-          <t>maa://42312</t>
+          <t>maa://47882</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="15" t="inlineStr">
         <is>
-          <t>仇白</t>
+          <t>重岳</t>
         </is>
       </c>
       <c r="B289" s="15" t="inlineStr">
@@ -7206,129 +7206,129 @@
       </c>
       <c r="D289" s="10" t="inlineStr">
         <is>
-          <t>maa://36642, maa://36867, maa://39155</t>
+          <t>maa://32414, maa://32505, maa://39155</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="15" t="inlineStr">
         <is>
-          <t>火龙S黑角</t>
+          <t>重岳</t>
         </is>
       </c>
       <c r="B290" s="15" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>GA-5</t>
         </is>
       </c>
       <c r="C290" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D290" s="10" t="inlineStr">
         <is>
-          <t>**maa://39166, maa://39167</t>
+          <t>maa://45799</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="15" t="inlineStr">
         <is>
-          <t>麒麟R夜刀</t>
+          <t>铎铃</t>
         </is>
       </c>
       <c r="B291" s="15" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>2-1</t>
         </is>
       </c>
       <c r="C291" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D291" s="10" t="inlineStr">
         <is>
-          <t>maa://29005, maa://31560</t>
+          <t>maa://42312</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="15" t="inlineStr">
         <is>
-          <t>休谟斯</t>
+          <t>仇白</t>
         </is>
       </c>
       <c r="B292" s="15" t="inlineStr">
         <is>
-          <t>7-8</t>
+          <t>WB-7</t>
         </is>
       </c>
       <c r="C292" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D292" s="10" t="inlineStr">
         <is>
-          <t>maa://39168</t>
+          <t>maa://36642, maa://36867, maa://39155</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="15" t="inlineStr">
         <is>
-          <t>摩根</t>
+          <t>火龙S黑角</t>
         </is>
       </c>
       <c r="B293" s="15" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C293" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D293" s="10" t="inlineStr">
         <is>
-          <t>maa://39169</t>
+          <t>**maa://39166, maa://39167</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="15" t="inlineStr">
         <is>
-          <t>洋灰</t>
+          <t>麒麟R夜刀</t>
         </is>
       </c>
       <c r="B294" s="15" t="inlineStr">
         <is>
-          <t>IW-EX-6</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C294" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D294" s="10" t="inlineStr">
         <is>
-          <t>maa://39170</t>
+          <t>maa://29005, maa://31560</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="15" t="inlineStr">
         <is>
-          <t>玫拉</t>
+          <t>休谟斯</t>
         </is>
       </c>
       <c r="B295" s="15" t="inlineStr">
         <is>
-          <t>S3-5</t>
+          <t>7-8</t>
         </is>
       </c>
       <c r="C295" s="12" t="inlineStr">
@@ -7338,19 +7338,19 @@
       </c>
       <c r="D295" s="10" t="inlineStr">
         <is>
-          <t>maa://39171</t>
+          <t>maa://39168</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="15" t="inlineStr">
         <is>
-          <t>淬羽赫默</t>
+          <t>摩根</t>
         </is>
       </c>
       <c r="B296" s="15" t="inlineStr">
         <is>
-          <t>6-3</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="C296" s="12" t="inlineStr">
@@ -7360,19 +7360,19 @@
       </c>
       <c r="D296" s="10" t="inlineStr">
         <is>
-          <t>maa://27939</t>
+          <t>maa://39169</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="15" t="inlineStr">
         <is>
-          <t>霍尔海雅</t>
+          <t>洋灰</t>
         </is>
       </c>
       <c r="B297" s="15" t="inlineStr">
         <is>
-          <t>OF-7</t>
+          <t>IW-EX-6</t>
         </is>
       </c>
       <c r="C297" s="12" t="inlineStr">
@@ -7382,41 +7382,41 @@
       </c>
       <c r="D297" s="10" t="inlineStr">
         <is>
-          <t>maa://29129</t>
+          <t>maa://39170</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="15" t="inlineStr">
         <is>
-          <t>霍尔海雅</t>
+          <t>伊内丝</t>
         </is>
       </c>
       <c r="B298" s="15" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>12-12</t>
         </is>
       </c>
       <c r="C298" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D298" s="10" t="inlineStr">
         <is>
-          <t>maa://36005</t>
+          <t>maa://49642, maa://49660</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="15" t="inlineStr">
         <is>
-          <t>缪尔赛思</t>
+          <t>玫拉</t>
         </is>
       </c>
       <c r="B299" s="15" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>S3-5</t>
         </is>
       </c>
       <c r="C299" s="12" t="inlineStr">
@@ -7426,19 +7426,19 @@
       </c>
       <c r="D299" s="10" t="inlineStr">
         <is>
-          <t>maa://35859</t>
+          <t>maa://39171</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="15" t="inlineStr">
         <is>
-          <t>隐现</t>
+          <t>淬羽赫默</t>
         </is>
       </c>
       <c r="B300" s="15" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>6-3</t>
         </is>
       </c>
       <c r="C300" s="12" t="inlineStr">
@@ -7448,19 +7448,19 @@
       </c>
       <c r="D300" s="10" t="inlineStr">
         <is>
-          <t>**maa://39172</t>
+          <t>maa://27939</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="15" t="inlineStr">
         <is>
-          <t>空构</t>
+          <t>霍尔海雅</t>
         </is>
       </c>
       <c r="B301" s="15" t="inlineStr">
         <is>
-          <t>DM-2</t>
+          <t>OF-7</t>
         </is>
       </c>
       <c r="C301" s="12" t="inlineStr">
@@ -7470,41 +7470,41 @@
       </c>
       <c r="D301" s="10" t="inlineStr">
         <is>
-          <t>maa://39173</t>
+          <t>maa://29129</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="15" t="inlineStr">
         <is>
-          <t>圣约送葬人</t>
+          <t>霍尔海雅</t>
         </is>
       </c>
       <c r="B302" s="15" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C302" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D302" s="10" t="inlineStr">
         <is>
-          <t>maa://25775, *maa://25393</t>
+          <t>maa://36005</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="15" t="inlineStr">
         <is>
-          <t>寒檀</t>
+          <t>缪尔赛思</t>
         </is>
       </c>
       <c r="B303" s="15" t="inlineStr">
         <is>
-          <t>BI-2</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C303" s="12" t="inlineStr">
@@ -7514,19 +7514,19 @@
       </c>
       <c r="D303" s="10" t="inlineStr">
         <is>
-          <t>maa://40161</t>
+          <t>maa://35859</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="15" t="inlineStr">
         <is>
-          <t>提丰</t>
+          <t>隐现</t>
         </is>
       </c>
       <c r="B304" s="15" t="inlineStr">
         <is>
-          <t>S2-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C304" s="12" t="inlineStr">
@@ -7536,19 +7536,19 @@
       </c>
       <c r="D304" s="10" t="inlineStr">
         <is>
-          <t>maa://25367</t>
+          <t>**maa://39172</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="15" t="inlineStr">
         <is>
-          <t>凛视</t>
+          <t>空构</t>
         </is>
       </c>
       <c r="B305" s="15" t="inlineStr">
         <is>
-          <t>7-13</t>
+          <t>DM-2</t>
         </is>
       </c>
       <c r="C305" s="12" t="inlineStr">
@@ -7558,85 +7558,85 @@
       </c>
       <c r="D305" s="10" t="inlineStr">
         <is>
-          <t>*maa://43090</t>
+          <t>maa://39173</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="15" t="inlineStr">
         <is>
-          <t>苍苔</t>
+          <t>圣约送葬人</t>
         </is>
       </c>
       <c r="B306" s="15" t="inlineStr">
         <is>
-          <t>9-3</t>
+          <t>7-14</t>
         </is>
       </c>
       <c r="C306" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D306" s="10" t="inlineStr">
         <is>
-          <t>maa://28070</t>
+          <t>maa://25775, *maa://25393</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="15" t="inlineStr">
         <is>
-          <t>青枳</t>
+          <t>寒檀</t>
         </is>
       </c>
       <c r="B307" s="15" t="inlineStr">
         <is>
-          <t>OF-5</t>
+          <t>BI-2</t>
         </is>
       </c>
       <c r="C307" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D307" s="10" t="inlineStr">
         <is>
-          <t>maa://31559, maa://28241</t>
+          <t>maa://40161</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="15" t="inlineStr">
         <is>
-          <t>琳琅诗怀雅</t>
+          <t>提丰</t>
         </is>
       </c>
       <c r="B308" s="15" t="inlineStr">
         <is>
-          <t>5-2</t>
+          <t>S2-1</t>
         </is>
       </c>
       <c r="C308" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D308" s="10" t="inlineStr">
         <is>
-          <t>maa://25773, *maa://26088</t>
+          <t>maa://25367</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="15" t="inlineStr">
         <is>
-          <t>琳琅诗怀雅</t>
+          <t>凛视</t>
         </is>
       </c>
       <c r="B309" s="15" t="inlineStr">
         <is>
-          <t>11-16</t>
+          <t>7-13</t>
         </is>
       </c>
       <c r="C309" s="12" t="inlineStr">
@@ -7646,41 +7646,41 @@
       </c>
       <c r="D309" s="10" t="inlineStr">
         <is>
-          <t>maa://39239</t>
+          <t>*maa://43090</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="15" t="inlineStr">
         <is>
-          <t>纯烬艾雅法拉</t>
+          <t>苍苔</t>
         </is>
       </c>
       <c r="B310" s="15" t="inlineStr">
         <is>
-          <t>FC-5</t>
+          <t>9-3</t>
         </is>
       </c>
       <c r="C310" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D310" s="10" t="inlineStr">
         <is>
-          <t>maa://39692, maa://39810</t>
+          <t>maa://28070</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="15" t="inlineStr">
         <is>
-          <t>冰酿</t>
+          <t>青枳</t>
         </is>
       </c>
       <c r="B311" s="15" t="inlineStr">
         <is>
-          <t>S3-3</t>
+          <t>OF-5</t>
         </is>
       </c>
       <c r="C311" s="12" t="inlineStr">
@@ -7690,85 +7690,85 @@
       </c>
       <c r="D311" s="10" t="inlineStr">
         <is>
-          <t>*maa://39174</t>
+          <t>maa://28241</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="15" t="inlineStr">
         <is>
-          <t>杏仁</t>
+          <t>琳琅诗怀雅</t>
         </is>
       </c>
       <c r="B312" s="15" t="inlineStr">
         <is>
-          <t>BI-2</t>
+          <t>5-2</t>
         </is>
       </c>
       <c r="C312" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D312" s="10" t="inlineStr">
         <is>
-          <t>maa://39175</t>
+          <t>maa://25773, *maa://26088</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="15" t="inlineStr">
         <is>
-          <t>涤火杰西卡</t>
+          <t>琳琅诗怀雅</t>
         </is>
       </c>
       <c r="B313" s="15" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>11-16</t>
         </is>
       </c>
       <c r="C313" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D313" s="10" t="inlineStr">
         <is>
-          <t>maa://34867, maa://34715</t>
+          <t>maa://39239</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="15" t="inlineStr">
         <is>
-          <t>维荻</t>
+          <t>纯烬艾雅法拉</t>
         </is>
       </c>
       <c r="B314" s="15" t="inlineStr">
         <is>
-          <t>9-3</t>
+          <t>FC-5</t>
         </is>
       </c>
       <c r="C314" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D314" s="10" t="inlineStr">
         <is>
-          <t>maa://39176</t>
+          <t>maa://39692, maa://39810</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="15" t="inlineStr">
         <is>
-          <t>戴菲恩</t>
+          <t>冰酿</t>
         </is>
       </c>
       <c r="B315" s="15" t="inlineStr">
         <is>
-          <t>WD-6</t>
+          <t>S3-3</t>
         </is>
       </c>
       <c r="C315" s="12" t="inlineStr">
@@ -7778,19 +7778,19 @@
       </c>
       <c r="D315" s="10" t="inlineStr">
         <is>
-          <t>maa://42316</t>
+          <t>*maa://39174</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="15" t="inlineStr">
         <is>
-          <t>刺玫</t>
+          <t>杏仁</t>
         </is>
       </c>
       <c r="B316" s="15" t="inlineStr">
         <is>
-          <t>IC-2</t>
+          <t>BI-2</t>
         </is>
       </c>
       <c r="C316" s="12" t="inlineStr">
@@ -7800,63 +7800,63 @@
       </c>
       <c r="D316" s="10" t="inlineStr">
         <is>
-          <t>maa://30680</t>
+          <t>maa://39175</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="15" t="inlineStr">
         <is>
-          <t>赫德雷</t>
+          <t>涤火杰西卡</t>
         </is>
       </c>
       <c r="B317" s="15" t="inlineStr">
         <is>
-          <t>IW-7</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C317" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D317" s="10" t="inlineStr">
         <is>
-          <t>maa://40956</t>
+          <t>maa://34867, maa://34715</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="15" t="inlineStr">
         <is>
-          <t>深律</t>
+          <t>维荻</t>
         </is>
       </c>
       <c r="B318" s="15" t="inlineStr">
         <is>
-          <t>LE-4</t>
+          <t>9-3</t>
         </is>
       </c>
       <c r="C318" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D318" s="10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://39176</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="15" t="inlineStr">
         <is>
-          <t>止颂</t>
+          <t>戴菲恩</t>
         </is>
       </c>
       <c r="B319" s="15" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>WD-6</t>
         </is>
       </c>
       <c r="C319" s="12" t="inlineStr">
@@ -7866,41 +7866,41 @@
       </c>
       <c r="D319" s="10" t="inlineStr">
         <is>
-          <t>maa://34205</t>
+          <t>maa://42316</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="15" t="inlineStr">
         <is>
-          <t>止颂</t>
+          <t>刺玫</t>
         </is>
       </c>
       <c r="B320" s="15" t="inlineStr">
         <is>
-          <t>TW-5</t>
+          <t>IC-2</t>
         </is>
       </c>
       <c r="C320" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D320" s="10" t="inlineStr">
         <is>
-          <t>maa://43092, maa://43093</t>
+          <t>maa://30680</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="15" t="inlineStr">
         <is>
-          <t>薇薇安娜</t>
+          <t>赫德雷</t>
         </is>
       </c>
       <c r="B321" s="15" t="inlineStr">
         <is>
-          <t>MN-3</t>
+          <t>IW-7</t>
         </is>
       </c>
       <c r="C321" s="12" t="inlineStr">
@@ -7910,41 +7910,41 @@
       </c>
       <c r="D321" s="10" t="inlineStr">
         <is>
-          <t>maa://44234</t>
+          <t>maa://40956</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="15" t="inlineStr">
         <is>
-          <t>塑心</t>
+          <t>深律</t>
         </is>
       </c>
       <c r="B322" s="15" t="inlineStr">
         <is>
-          <t>GA-7</t>
+          <t>LE-4</t>
         </is>
       </c>
       <c r="C322" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D322" s="10" t="inlineStr">
         <is>
-          <t>maa://42968, maa://49245</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="15" t="inlineStr">
         <is>
-          <t>哈洛德</t>
+          <t>止颂</t>
         </is>
       </c>
       <c r="B323" s="15" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="C323" s="12" t="inlineStr">
@@ -7954,80 +7954,80 @@
       </c>
       <c r="D323" s="10" t="inlineStr">
         <is>
-          <t>**maa://40162</t>
+          <t>maa://34205</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="15" t="inlineStr">
         <is>
-          <t>烈夏</t>
+          <t>止颂</t>
         </is>
       </c>
       <c r="B324" s="15" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>TW-5</t>
         </is>
       </c>
       <c r="C324" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D324" s="10" t="inlineStr">
         <is>
-          <t>maa://37692</t>
+          <t>maa://43092, maa://43093</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="15" t="inlineStr">
         <is>
-          <t>锏</t>
+          <t>薇薇安娜</t>
         </is>
       </c>
       <c r="B325" s="15" t="inlineStr">
         <is>
-          <t>BI-6</t>
+          <t>MN-3</t>
         </is>
       </c>
       <c r="C325" s="12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D325" s="10" t="inlineStr">
         <is>
-          <t>maa://30671, maa://30669, maa://37275, *maa://32410, maa://41605, maa://33671</t>
+          <t>maa://44234</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="15" t="inlineStr">
         <is>
-          <t>莱伊</t>
+          <t>塑心</t>
         </is>
       </c>
       <c r="B326" s="15" t="inlineStr">
         <is>
-          <t>S9-1</t>
+          <t>GA-7</t>
         </is>
       </c>
       <c r="C326" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D326" s="10" t="inlineStr">
         <is>
-          <t>maa://38295</t>
+          <t>maa://42968, maa://49245</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="15" t="inlineStr">
         <is>
-          <t>万顷</t>
+          <t>哈洛德</t>
         </is>
       </c>
       <c r="B327" s="15" t="inlineStr">
@@ -8042,19 +8042,19 @@
       </c>
       <c r="D327" s="10" t="inlineStr">
         <is>
-          <t>maa://32417</t>
+          <t>*maa://40162</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="15" t="inlineStr">
         <is>
-          <t>小满</t>
+          <t>烈夏</t>
         </is>
       </c>
       <c r="B328" s="15" t="inlineStr">
         <is>
-          <t>9-11</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C328" s="12" t="inlineStr">
@@ -8064,85 +8064,85 @@
       </c>
       <c r="D328" s="10" t="inlineStr">
         <is>
-          <t>maa://32419</t>
+          <t>maa://37692</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="15" t="inlineStr">
         <is>
-          <t>左乐</t>
+          <t>锏</t>
         </is>
       </c>
       <c r="B329" s="15" t="inlineStr">
         <is>
-          <t>WB-5</t>
+          <t>BI-6</t>
         </is>
       </c>
       <c r="C329" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D329" s="10" t="inlineStr">
         <is>
-          <t>maa://32416</t>
+          <t>maa://30671, maa://30669, maa://37275, *maa://32410, maa://41605</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="15" t="inlineStr">
         <is>
-          <t>左乐</t>
+          <t>莱伊</t>
         </is>
       </c>
       <c r="B330" s="15" t="inlineStr">
         <is>
-          <t>RI-7</t>
+          <t>S9-1</t>
         </is>
       </c>
       <c r="C330" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D330" s="10" t="inlineStr">
         <is>
-          <t>maa://45800</t>
+          <t>maa://38295, maa://49332</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="12" t="inlineStr">
         <is>
-          <t>黍</t>
+          <t>万顷</t>
         </is>
       </c>
       <c r="B331" s="12" t="inlineStr">
         <is>
-          <t>11-11</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="C331" s="12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D331" s="13" t="inlineStr">
         <is>
-          <t>maa://32647, maa://32415, maa://34677, maa://32892, **maa://47851</t>
+          <t>maa://32417</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="12" t="inlineStr">
         <is>
-          <t>红隼</t>
+          <t>小满</t>
         </is>
       </c>
       <c r="B332" s="12" t="inlineStr">
         <is>
-          <t>11-18</t>
+          <t>9-11</t>
         </is>
       </c>
       <c r="C332" s="12" t="inlineStr">
@@ -8152,19 +8152,19 @@
       </c>
       <c r="D332" s="13" t="inlineStr">
         <is>
-          <t>maa://32420</t>
+          <t>maa://32419</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="12" t="inlineStr">
         <is>
-          <t>导火索</t>
+          <t>左乐</t>
         </is>
       </c>
       <c r="B333" s="12" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>WB-5</t>
         </is>
       </c>
       <c r="C333" s="12" t="inlineStr">
@@ -8174,19 +8174,19 @@
       </c>
       <c r="D333" s="13" t="inlineStr">
         <is>
-          <t>maa://35606</t>
+          <t>maa://32416</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="12" t="inlineStr">
         <is>
-          <t>双月</t>
+          <t>左乐</t>
         </is>
       </c>
       <c r="B334" s="12" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>RI-7</t>
         </is>
       </c>
       <c r="C334" s="12" t="inlineStr">
@@ -8196,58 +8196,58 @@
       </c>
       <c r="D334" s="13" t="inlineStr">
         <is>
-          <t>maa://34716</t>
+          <t>maa://45800</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="12" t="inlineStr">
         <is>
-          <t>医生</t>
+          <t>黍</t>
         </is>
       </c>
       <c r="B335" s="12" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>11-11</t>
         </is>
       </c>
       <c r="C335" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D335" s="13" t="inlineStr">
         <is>
-          <t>maa://39179</t>
+          <t>maa://32647, maa://32415, maa://34677, maa://32892, maa://32653</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="12" t="inlineStr">
         <is>
-          <t>艾拉</t>
+          <t>红隼</t>
         </is>
       </c>
       <c r="B336" s="12" t="inlineStr">
         <is>
-          <t>DM-EX-1</t>
+          <t>11-18</t>
         </is>
       </c>
       <c r="C336" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D336" s="13" t="inlineStr">
         <is>
-          <t>maa://34865, maa://34717, *maa://45066</t>
+          <t>maa://32420</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="12" t="inlineStr">
         <is>
-          <t>露托</t>
+          <t>导火索</t>
         </is>
       </c>
       <c r="B337" s="12" t="inlineStr">
@@ -8262,41 +8262,41 @@
       </c>
       <c r="D337" s="13" t="inlineStr">
         <is>
-          <t>maa://39180</t>
+          <t>maa://35606</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="12" t="inlineStr">
         <is>
-          <t>奥达</t>
+          <t>双月</t>
         </is>
       </c>
       <c r="B338" s="12" t="inlineStr">
         <is>
-          <t>S3-6</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C338" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>maa://45834, maa://45833</t>
+          <t>maa://34716</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="12" t="inlineStr">
         <is>
-          <t>阿罗玛</t>
+          <t>医生</t>
         </is>
       </c>
       <c r="B339" s="12" t="inlineStr">
         <is>
-          <t>GT-HX-3</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C339" s="12" t="inlineStr">
@@ -8306,41 +8306,41 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>maa://39181</t>
+          <t>maa://39179</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="12" t="inlineStr">
         <is>
-          <t>阿斯卡纶</t>
+          <t>艾拉</t>
         </is>
       </c>
       <c r="B340" s="12" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>DM-EX-1</t>
         </is>
       </c>
       <c r="C340" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>maa://36868, maa://35996</t>
+          <t>maa://34865, maa://34717, *maa://45066</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="12" t="inlineStr">
         <is>
-          <t>历阵锐枪芬</t>
+          <t>露托</t>
         </is>
       </c>
       <c r="B341" s="12" t="inlineStr">
         <is>
-          <t>4-2</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C341" s="12" t="inlineStr">
@@ -8350,85 +8350,85 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>maa://36647</t>
+          <t>maa://39180</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="12" t="inlineStr">
         <is>
-          <t>魔王</t>
+          <t>奥达</t>
         </is>
       </c>
       <c r="B342" s="12" t="inlineStr">
         <is>
-          <t>14-5</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C342" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>maa://42299, *maa://42224, maa://48876</t>
+          <t>maa://45834, maa://45833</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="12" t="inlineStr">
         <is>
-          <t>逻各斯</t>
+          <t>阿罗玛</t>
         </is>
       </c>
       <c r="B343" s="12" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>GT-HX-3</t>
         </is>
       </c>
       <c r="C343" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>maa://36646, maa://36845</t>
+          <t>maa://39181</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="12" t="inlineStr">
         <is>
-          <t>维什戴尔</t>
+          <t>阿斯卡纶</t>
         </is>
       </c>
       <c r="B344" s="12" t="inlineStr">
         <is>
-          <t>DM-5</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C344" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>maa://36645, maa://36841, maa://37484, maa://37858</t>
+          <t>maa://36868, maa://35996, maa://47349</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="12" t="inlineStr">
         <is>
-          <t>阿米娅(医疗)</t>
+          <t>历阵锐枪芬</t>
         </is>
       </c>
       <c r="B345" s="12" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>4-2</t>
         </is>
       </c>
       <c r="C345" s="12" t="inlineStr">
@@ -8438,107 +8438,107 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>maa://42635</t>
+          <t>maa://36647</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="12" t="inlineStr">
         <is>
-          <t>深巡</t>
+          <t>魔王</t>
         </is>
       </c>
       <c r="B346" s="12" t="inlineStr">
         <is>
-          <t>SN-5</t>
+          <t>14-5</t>
         </is>
       </c>
       <c r="C346" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>maa://39183</t>
+          <t>maa://42299, *maa://42224</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="12" t="inlineStr">
         <is>
-          <t>海霓</t>
+          <t>逻各斯</t>
         </is>
       </c>
       <c r="B347" s="12" t="inlineStr">
         <is>
-          <t>SV-4</t>
+          <t>14-9</t>
         </is>
       </c>
       <c r="C347" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>maa://39184</t>
+          <t>maa://49648, maa://49662</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="12" t="inlineStr">
         <is>
-          <t>乌尔比安</t>
+          <t>逻各斯</t>
         </is>
       </c>
       <c r="B348" s="12" t="inlineStr">
         <is>
-          <t>SV-6</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C348" s="12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>maa://40957, maa://44635, maa://41035, maa://41128, maa://44660, maa://48026</t>
+          <t>maa://36646, maa://36845</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="12" t="inlineStr">
         <is>
-          <t>渡桥</t>
+          <t>维什戴尔</t>
         </is>
       </c>
       <c r="B349" s="12" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>DM-5</t>
         </is>
       </c>
       <c r="C349" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>maa://40164</t>
+          <t>maa://36645, maa://36841, maa://37484, maa://37858, maa://40489</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="12" t="inlineStr">
         <is>
-          <t>锡人</t>
+          <t>阿米娅</t>
         </is>
       </c>
       <c r="B350" s="12" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C350" s="12" t="inlineStr">
@@ -8548,19 +8548,19 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>maa://48268</t>
+          <t>maa://42635</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="12" t="inlineStr">
         <is>
-          <t>衡沙</t>
+          <t>深巡</t>
         </is>
       </c>
       <c r="B351" s="12" t="inlineStr">
         <is>
-          <t>DV-2</t>
+          <t>SN-5</t>
         </is>
       </c>
       <c r="C351" s="12" t="inlineStr">
@@ -8570,19 +8570,19 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>maa://40165</t>
+          <t>maa://39183</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="12" t="inlineStr">
         <is>
-          <t>佩佩</t>
+          <t>海霓</t>
         </is>
       </c>
       <c r="B352" s="12" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>SV-4</t>
         </is>
       </c>
       <c r="C352" s="12" t="inlineStr">
@@ -8592,107 +8592,107 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>maa://45798</t>
+          <t>maa://39184</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="12" t="inlineStr">
         <is>
-          <t>森西</t>
+          <t>乌尔比安</t>
         </is>
       </c>
       <c r="B353" s="12" t="inlineStr">
         <is>
-          <t>1-12</t>
+          <t>SV-6</t>
         </is>
       </c>
       <c r="C353" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>maa://42331</t>
+          <t>maa://40957, maa://44635, maa://41035, maa://41128, maa://44660, maa://48026</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="12" t="inlineStr">
         <is>
-          <t>齐尔查克</t>
+          <t>渡桥</t>
         </is>
       </c>
       <c r="B354" s="12" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C354" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>maa://42333, maa://41977</t>
+          <t>maa://40164</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="12" t="inlineStr">
         <is>
-          <t>莱欧斯</t>
+          <t>锡人</t>
         </is>
       </c>
       <c r="B355" s="12" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C355" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>maa://42338, maa://41976</t>
+          <t>maa://48268</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="12" t="inlineStr">
         <is>
-          <t>玛露西尔</t>
+          <t>衡沙</t>
         </is>
       </c>
       <c r="B356" s="12" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>DV-2</t>
         </is>
       </c>
       <c r="C356" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>maa://41110, maa://45605</t>
+          <t>maa://40165</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="12" t="inlineStr">
         <is>
-          <t>凯瑟琳</t>
+          <t>佩佩</t>
         </is>
       </c>
       <c r="B357" s="12" t="inlineStr">
         <is>
-          <t>11-7</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C357" s="12" t="inlineStr">
@@ -8702,19 +8702,19 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>maa://42343</t>
+          <t>maa://45798</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="12" t="inlineStr">
         <is>
-          <t>波卜</t>
+          <t>森西</t>
         </is>
       </c>
       <c r="B358" s="12" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>1-12</t>
         </is>
       </c>
       <c r="C358" s="12" t="inlineStr">
@@ -8724,63 +8724,63 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>maa://43095</t>
+          <t>maa://42331</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="12" t="inlineStr">
         <is>
-          <t>维娜·维多利亚</t>
+          <t>齐尔查克</t>
         </is>
       </c>
       <c r="B359" s="12" t="inlineStr">
         <is>
-          <t>9-5</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C359" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>maa://44233</t>
+          <t>maa://42333, maa://41977</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="12" t="inlineStr">
         <is>
-          <t>裁度</t>
+          <t>莱欧斯</t>
         </is>
       </c>
       <c r="B360" s="12" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="C360" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>maa://43097</t>
+          <t>maa://42338, maa://41976</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="12" t="inlineStr">
         <is>
-          <t>弑君者</t>
+          <t>玛露西尔</t>
         </is>
       </c>
       <c r="B361" s="12" t="inlineStr">
         <is>
-          <t>4-4</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C361" s="12" t="inlineStr">
@@ -8790,19 +8790,19 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>maa://43872, maa://39153</t>
+          <t>maa://41110, maa://45605</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="12" t="inlineStr">
         <is>
-          <t>忍冬</t>
+          <t>凯瑟琳</t>
         </is>
       </c>
       <c r="B362" s="12" t="inlineStr">
         <is>
-          <t>S2-3</t>
+          <t>11-7</t>
         </is>
       </c>
       <c r="C362" s="12" t="inlineStr">
@@ -8812,63 +8812,63 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>maa://43875</t>
+          <t>maa://42343</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="12" t="inlineStr">
         <is>
-          <t>荒芜拉普兰德</t>
+          <t>波卜</t>
         </is>
       </c>
       <c r="B363" s="12" t="inlineStr">
         <is>
-          <t>IS-8</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="C363" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>maa://42970, maa://44745, maa://45952, maa://44896</t>
+          <t>maa://43095</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="12" t="inlineStr">
         <is>
-          <t>瑰盐</t>
+          <t>维娜·维多利亚</t>
         </is>
       </c>
       <c r="B364" s="12" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>9-5</t>
         </is>
       </c>
       <c r="C364" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>maa://44389</t>
+          <t>maa://44233, maa://45570</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="12" t="inlineStr">
         <is>
-          <t>引星棘刺</t>
+          <t>裁度</t>
         </is>
       </c>
       <c r="B365" s="12" t="inlineStr">
         <is>
-          <t>OF-7</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="C365" s="12" t="inlineStr">
@@ -8878,19 +8878,19 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>maa://48113</t>
+          <t>maa://43097</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="12" t="inlineStr">
         <is>
-          <t>行箸</t>
+          <t>弑君者</t>
         </is>
       </c>
       <c r="B366" s="12" t="inlineStr">
         <is>
-          <t>3-2</t>
+          <t>4-4</t>
         </is>
       </c>
       <c r="C366" s="12" t="inlineStr">
@@ -8900,73 +8900,227 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>maa://45807</t>
+          <t>maa://43872</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="12" t="inlineStr">
         <is>
-          <t>诺威尔</t>
+          <t>忍冬</t>
         </is>
       </c>
       <c r="B367" s="12" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>S2-3</t>
         </is>
       </c>
       <c r="C367" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>maa://47175, maa://47174</t>
+          <t>maa://43875</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="12" t="inlineStr">
         <is>
-          <t>隐德来希</t>
+          <t>荒芜拉普兰德</t>
         </is>
       </c>
       <c r="B368" s="12" t="inlineStr">
         <is>
-          <t>10-12</t>
+          <t>IS-8</t>
         </is>
       </c>
       <c r="C368" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>maa://47023</t>
+          <t>maa://42970, maa://44745, maa://45952, maa://44896, maa://49516</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="12" t="inlineStr">
         <is>
+          <t>瑰盐</t>
+        </is>
+      </c>
+      <c r="B369" s="12" t="inlineStr">
+        <is>
+          <t>4-6</t>
+        </is>
+      </c>
+      <c r="C369" s="12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>maa://44389</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="12" t="inlineStr">
+        <is>
+          <t>引星棘刺</t>
+        </is>
+      </c>
+      <c r="B370" s="12" t="inlineStr">
+        <is>
+          <t>OF-7</t>
+        </is>
+      </c>
+      <c r="C370" s="12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>maa://48113</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="12" t="inlineStr">
+        <is>
+          <t>行箸</t>
+        </is>
+      </c>
+      <c r="B371" s="12" t="inlineStr">
+        <is>
+          <t>3-2</t>
+        </is>
+      </c>
+      <c r="C371" s="12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>maa://45807</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="12" t="inlineStr">
+        <is>
+          <t>寻澜</t>
+        </is>
+      </c>
+      <c r="B372" s="12" t="inlineStr">
+        <is>
+          <t>3-5</t>
+        </is>
+      </c>
+      <c r="C372" s="12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="12" t="inlineStr">
+        <is>
+          <t>诺威尔</t>
+        </is>
+      </c>
+      <c r="B373" s="12" t="inlineStr">
+        <is>
+          <t>5-7</t>
+        </is>
+      </c>
+      <c r="C373" s="12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>maa://47175, maa://47174</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="12" t="inlineStr">
+        <is>
+          <t>隐德来希</t>
+        </is>
+      </c>
+      <c r="B374" s="12" t="inlineStr">
+        <is>
+          <t>10-12</t>
+        </is>
+      </c>
+      <c r="C374" s="12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>maa://47023</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="12" t="inlineStr">
+        <is>
           <t>钼铅</t>
         </is>
       </c>
-      <c r="B369" s="12" t="inlineStr">
+      <c r="B375" s="12" t="inlineStr">
         <is>
           <t>9-6</t>
         </is>
       </c>
-      <c r="C369" s="12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D369" t="inlineStr">
+      <c r="C375" s="12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
         <is>
           <t>maa://48618</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="12" t="inlineStr">
+        <is>
+          <t>阿兰娜</t>
+        </is>
+      </c>
+      <c r="B376" s="12" t="inlineStr">
+        <is>
+          <t>7-14</t>
+        </is>
+      </c>
+      <c r="C376" s="12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="11490" yWindow="4320" windowWidth="23925" windowHeight="16665" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.04.13 00:29:41</t>
+          <t>更新日期：2025.04.13 13:23:50</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -8482,7 +8482,7 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>maa://49648, maa://49662</t>
+          <t>maa://49648, **maa://49662</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.04.13 13:23:50</t>
+          <t>更新日期：2025.04.17 13:19:49</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -1750,7 +1750,7 @@
       </c>
       <c r="D41" s="10" t="inlineStr">
         <is>
-          <t>*maa://20892</t>
+          <t>maa://20892</t>
         </is>
       </c>
     </row>
@@ -2300,7 +2300,7 @@
       </c>
       <c r="D66" s="10" t="inlineStr">
         <is>
-          <t>maa://20993, maa://20914, maa://20829, maa://45606, maa://20900, maa://40159</t>
+          <t>maa://20993, maa://20914, maa://20829, maa://45606, maa://40159, maa://20900</t>
         </is>
       </c>
     </row>
@@ -2317,12 +2317,12 @@
       </c>
       <c r="C67" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D67" s="10" t="inlineStr">
         <is>
-          <t>maa://39693</t>
+          <t>maa://39693, maa://49348</t>
         </is>
       </c>
     </row>
@@ -3312,7 +3312,7 @@
       </c>
       <c r="D112" s="10" t="inlineStr">
         <is>
-          <t>*maa://20933, maa://20822</t>
+          <t>maa://20933, maa://20822</t>
         </is>
       </c>
     </row>
@@ -3884,7 +3884,7 @@
       </c>
       <c r="D138" s="10" t="inlineStr">
         <is>
-          <t>*maa://29025</t>
+          <t>maa://29025</t>
         </is>
       </c>
     </row>
@@ -5133,12 +5133,12 @@
       </c>
       <c r="C195" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D195" s="10" t="inlineStr">
         <is>
-          <t>maa://44224, *maa://35854, maa://25760, **maa://20872</t>
+          <t>maa://44224, *maa://35854, maa://25760, **maa://20872, maa://50388</t>
         </is>
       </c>
     </row>
@@ -5226,7 +5226,7 @@
       </c>
       <c r="D199" s="10" t="inlineStr">
         <is>
-          <t>maa://42223, maa://42292, maa://42402, maa://49077</t>
+          <t>maa://42223, maa://42292, maa://49077, maa://42402</t>
         </is>
       </c>
     </row>
@@ -7399,12 +7399,12 @@
       </c>
       <c r="C298" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D298" s="10" t="inlineStr">
         <is>
-          <t>maa://49642, maa://49660</t>
+          <t>maa://49642, maa://49660, maa://50280</t>
         </is>
       </c>
     </row>
@@ -8543,12 +8543,12 @@
       </c>
       <c r="C350" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>maa://42635</t>
+          <t>maa://42635, maa://48859</t>
         </is>
       </c>
     </row>
@@ -8944,7 +8944,7 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>maa://42970, maa://44745, maa://45952, maa://44896, maa://49516</t>
+          <t>maa://42970, maa://44745, maa://45952, maa://49516, maa://44896</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.04.17 13:19:49</t>
+          <t>更新日期：2025.04.24 13:20:31</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -1662,7 +1662,7 @@
       </c>
       <c r="D37" s="10" t="inlineStr">
         <is>
-          <t>maa://27376, maa://42635, *maa://20838</t>
+          <t>maa://27376, maa://42635, **maa://20838</t>
         </is>
       </c>
     </row>
@@ -4099,12 +4099,12 @@
       </c>
       <c r="C148" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D148" s="10" t="inlineStr">
         <is>
-          <t>maa://28828, maa://20846</t>
+          <t>maa://28828, maa://20846, **maa://47286</t>
         </is>
       </c>
     </row>
@@ -4126,7 +4126,7 @@
       </c>
       <c r="D149" s="10" t="inlineStr">
         <is>
-          <t>maa://36641, maa://40957, maa://36865, maa://44635, maa://41128, maa://44660, maa://42918, maa://44119, maa://37300, maa://46108, maa://42917</t>
+          <t>maa://36641, maa://40957, maa://36865, maa://44635, maa://41128, maa://44660, maa://42918, maa://44119, maa://46108, maa://37300, maa://42917</t>
         </is>
       </c>
     </row>
@@ -4500,7 +4500,7 @@
       </c>
       <c r="D166" s="10" t="inlineStr">
         <is>
-          <t>maa://29633, maa://29627, maa://29659, **maa://30679, maa://29861, maa://42343, maa://49074</t>
+          <t>maa://29633, maa://29627, maa://29659, **maa://30679, maa://29861, maa://49074, maa://42343</t>
         </is>
       </c>
     </row>
@@ -7399,12 +7399,12 @@
       </c>
       <c r="C298" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D298" s="10" t="inlineStr">
         <is>
-          <t>maa://49642, maa://49660, maa://50280</t>
+          <t>maa://49642, maa://50280, maa://49660, maa://50517</t>
         </is>
       </c>
     </row>
@@ -8482,7 +8482,7 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>maa://49648, **maa://49662</t>
+          <t>maa://49648, *maa://49662</t>
         </is>
       </c>
     </row>
@@ -8741,12 +8741,12 @@
       </c>
       <c r="C359" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>maa://42333, maa://41977</t>
+          <t>maa://42333, maa://41977, maa://50518</t>
         </is>
       </c>
     </row>
@@ -9027,12 +9027,12 @@
       </c>
       <c r="C372" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://50552</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.04.24 13:20:31</t>
+          <t>更新日期：2025.05.01 13:20:46</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -1355,12 +1355,12 @@
       </c>
       <c r="C26" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D26" s="10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://44220</t>
         </is>
       </c>
       <c r="F26" s="8" t="n"/>
@@ -2075,12 +2075,12 @@
       </c>
       <c r="C56" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D56" s="10" t="inlineStr">
         <is>
-          <t>maa://44235, maa://45604, maa://20961, maa://20910</t>
+          <t>maa://44235, maa://45604, maa://20961, maa://44220, maa://20910</t>
         </is>
       </c>
     </row>
@@ -2300,7 +2300,7 @@
       </c>
       <c r="D66" s="10" t="inlineStr">
         <is>
-          <t>maa://20993, maa://20914, maa://20829, maa://45606, maa://40159, maa://20900</t>
+          <t>maa://20993, maa://20914, maa://45606, maa://20829, maa://40159, maa://20900</t>
         </is>
       </c>
     </row>
@@ -2977,12 +2977,12 @@
       </c>
       <c r="C97" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D97" s="10" t="inlineStr">
         <is>
-          <t>maa://20991</t>
+          <t>maa://20991, maa://51015</t>
         </is>
       </c>
     </row>
@@ -6656,7 +6656,7 @@
       </c>
       <c r="D264" s="10" t="inlineStr">
         <is>
-          <t>maa://48265</t>
+          <t>*maa://48265</t>
         </is>
       </c>
     </row>
@@ -8499,12 +8499,12 @@
       </c>
       <c r="C348" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>maa://36646, maa://36845</t>
+          <t>maa://36646, maa://36845, maa://51007</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -463,7 +463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB376"/>
+  <dimension ref="A1:AB386"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.05.01 13:20:46</t>
+          <t>更新日期：2025.05.02 13:20:57</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -4133,12 +4133,12 @@
     <row r="150">
       <c r="A150" s="15" t="inlineStr">
         <is>
-          <t>酸糖</t>
+          <t>棘刺</t>
         </is>
       </c>
       <c r="B150" s="15" t="inlineStr">
         <is>
-          <t>2-8</t>
+          <t>7-2</t>
         </is>
       </c>
       <c r="C150" s="12" t="inlineStr">
@@ -4148,19 +4148,19 @@
       </c>
       <c r="D150" s="10" t="inlineStr">
         <is>
-          <t>maa://20961</t>
+          <t>maa://51549</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="15" t="inlineStr">
         <is>
-          <t>特米米</t>
+          <t>酸糖</t>
         </is>
       </c>
       <c r="B151" s="15" t="inlineStr">
         <is>
-          <t>RI-2</t>
+          <t>2-8</t>
         </is>
       </c>
       <c r="C151" s="12" t="inlineStr">
@@ -4170,19 +4170,19 @@
       </c>
       <c r="D151" s="10" t="inlineStr">
         <is>
-          <t>maa://20963</t>
+          <t>maa://20961</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="15" t="inlineStr">
         <is>
-          <t>燧石</t>
+          <t>特米米</t>
         </is>
       </c>
       <c r="B152" s="15" t="inlineStr">
         <is>
-          <t>RI-9</t>
+          <t>RI-2</t>
         </is>
       </c>
       <c r="C152" s="12" t="inlineStr">
@@ -4192,29 +4192,29 @@
       </c>
       <c r="D152" s="10" t="inlineStr">
         <is>
-          <t>maa://39148</t>
+          <t>maa://20963</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="15" t="inlineStr">
         <is>
-          <t>森蚺</t>
+          <t>燧石</t>
         </is>
       </c>
       <c r="B153" s="15" t="inlineStr">
         <is>
-          <t>RI-EX-4</t>
+          <t>RI-9</t>
         </is>
       </c>
       <c r="C153" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D153" s="10" t="inlineStr">
         <is>
-          <t>maa://20946, maa://20833</t>
+          <t>maa://39148</t>
         </is>
       </c>
     </row>
@@ -4226,29 +4226,29 @@
       </c>
       <c r="B154" s="15" t="inlineStr">
         <is>
-          <t>RI-7</t>
+          <t>RI-EX-4</t>
         </is>
       </c>
       <c r="C154" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D154" s="10" t="inlineStr">
         <is>
-          <t>maa://20945</t>
+          <t>maa://20946, maa://20833</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="15" t="inlineStr">
         <is>
-          <t>芳汀</t>
+          <t>森蚺</t>
         </is>
       </c>
       <c r="B155" s="15" t="inlineStr">
         <is>
-          <t>2-8</t>
+          <t>RI-7</t>
         </is>
       </c>
       <c r="C155" s="12" t="inlineStr">
@@ -4258,19 +4258,19 @@
       </c>
       <c r="D155" s="10" t="inlineStr">
         <is>
-          <t>maa://37694</t>
+          <t>maa://20945</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="15" t="inlineStr">
         <is>
-          <t>薄绿</t>
+          <t>芳汀</t>
         </is>
       </c>
       <c r="B156" s="15" t="inlineStr">
         <is>
-          <t>BI-2</t>
+          <t>2-8</t>
         </is>
       </c>
       <c r="C156" s="12" t="inlineStr">
@@ -4280,19 +4280,19 @@
       </c>
       <c r="D156" s="10" t="inlineStr">
         <is>
-          <t>**maa://39149</t>
+          <t>maa://37694</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="15" t="inlineStr">
         <is>
-          <t>四月</t>
+          <t>薄绿</t>
         </is>
       </c>
       <c r="B157" s="15" t="inlineStr">
         <is>
-          <t>5-3</t>
+          <t>BI-2</t>
         </is>
       </c>
       <c r="C157" s="12" t="inlineStr">
@@ -4302,63 +4302,63 @@
       </c>
       <c r="D157" s="10" t="inlineStr">
         <is>
-          <t>maa://20959</t>
+          <t>**maa://39149</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="15" t="inlineStr">
         <is>
-          <t>史尔特尔</t>
+          <t>四月</t>
         </is>
       </c>
       <c r="B158" s="15" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>5-3</t>
         </is>
       </c>
       <c r="C158" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D158" s="10" t="inlineStr">
         <is>
-          <t>maa://44232, maa://45603, maa://44305</t>
+          <t>maa://20959</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="15" t="inlineStr">
         <is>
-          <t>泡泡</t>
+          <t>史尔特尔</t>
         </is>
       </c>
       <c r="B159" s="15" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C159" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D159" s="10" t="inlineStr">
         <is>
-          <t>maa://20936</t>
+          <t>maa://44232, maa://45603, maa://44305</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="15" t="inlineStr">
         <is>
-          <t>鞭刃</t>
+          <t>泡泡</t>
         </is>
       </c>
       <c r="B160" s="15" t="inlineStr">
         <is>
-          <t>S3-6</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C160" s="12" t="inlineStr">
@@ -4368,19 +4368,19 @@
       </c>
       <c r="D160" s="10" t="inlineStr">
         <is>
-          <t>maa://20855</t>
+          <t>maa://20936</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="15" t="inlineStr">
         <is>
-          <t>奥斯塔</t>
+          <t>鞭刃</t>
         </is>
       </c>
       <c r="B161" s="15" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C161" s="12" t="inlineStr">
@@ -4390,29 +4390,29 @@
       </c>
       <c r="D161" s="10" t="inlineStr">
         <is>
-          <t>maa://40158</t>
+          <t>maa://20855</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="15" t="inlineStr">
         <is>
-          <t>瑕光</t>
+          <t>奥斯塔</t>
         </is>
       </c>
       <c r="B162" s="15" t="inlineStr">
         <is>
-          <t>MN-4</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="C162" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D162" s="10" t="inlineStr">
         <is>
-          <t>*maa://32845, maa://29054</t>
+          <t>maa://40158</t>
         </is>
       </c>
     </row>
@@ -4424,29 +4424,29 @@
       </c>
       <c r="B163" s="15" t="inlineStr">
         <is>
-          <t>MN-2</t>
+          <t>MN-4</t>
         </is>
       </c>
       <c r="C163" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D163" s="10" t="inlineStr">
         <is>
-          <t>maa://20973</t>
+          <t>*maa://32845, maa://29054</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="15" t="inlineStr">
         <is>
-          <t>杰克</t>
+          <t>瑕光</t>
         </is>
       </c>
       <c r="B164" s="15" t="inlineStr">
         <is>
-          <t>CB-4</t>
+          <t>MN-2</t>
         </is>
       </c>
       <c r="C164" s="12" t="inlineStr">
@@ -4456,51 +4456,51 @@
       </c>
       <c r="D164" s="10" t="inlineStr">
         <is>
-          <t>maa://39150</t>
+          <t>maa://20973</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="15" t="inlineStr">
         <is>
-          <t>絮雨</t>
+          <t>杰克</t>
         </is>
       </c>
       <c r="B165" s="15" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>CB-4</t>
         </is>
       </c>
       <c r="C165" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D165" s="10" t="inlineStr">
         <is>
-          <t>maa://20975, maa://30806, **maa://47950</t>
+          <t>maa://39150</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="15" t="inlineStr">
         <is>
-          <t>泥岩</t>
+          <t>絮雨</t>
         </is>
       </c>
       <c r="B166" s="15" t="inlineStr">
         <is>
-          <t>11-7</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C166" s="12" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D166" s="10" t="inlineStr">
         <is>
-          <t>maa://29633, maa://29627, maa://29659, **maa://30679, maa://29861, maa://49074, maa://42343</t>
+          <t>maa://20975, maa://30806, **maa://47950</t>
         </is>
       </c>
     </row>
@@ -4512,51 +4512,51 @@
       </c>
       <c r="B167" s="15" t="inlineStr">
         <is>
-          <t>10-16</t>
+          <t>11-7</t>
         </is>
       </c>
       <c r="C167" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D167" s="10" t="inlineStr">
         <is>
-          <t>maa://49655, maa://49867</t>
+          <t>maa://29633, maa://29627, maa://29659, **maa://30679, maa://29861, maa://49074, maa://42343</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="15" t="inlineStr">
         <is>
-          <t>迷迭香</t>
+          <t>泥岩</t>
         </is>
       </c>
       <c r="B168" s="15" t="inlineStr">
         <is>
-          <t>4-1</t>
+          <t>10-16</t>
         </is>
       </c>
       <c r="C168" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D168" s="10" t="inlineStr">
         <is>
-          <t>maa://29059</t>
+          <t>maa://49655, maa://49867</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="15" t="inlineStr">
         <is>
-          <t>阿米娅</t>
+          <t>迷迭香</t>
         </is>
       </c>
       <c r="B169" s="15" t="inlineStr">
         <is>
-          <t>2-10</t>
+          <t>4-1</t>
         </is>
       </c>
       <c r="C169" s="12" t="inlineStr">
@@ -4566,19 +4566,19 @@
       </c>
       <c r="D169" s="10" t="inlineStr">
         <is>
-          <t>maa://45556</t>
+          <t>maa://29059</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="15" t="inlineStr">
         <is>
-          <t>松果</t>
+          <t>阿米娅</t>
         </is>
       </c>
       <c r="B170" s="15" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>2-10</t>
         </is>
       </c>
       <c r="C170" s="12" t="inlineStr">
@@ -4588,19 +4588,19 @@
       </c>
       <c r="D170" s="10" t="inlineStr">
         <is>
-          <t>maa://40159</t>
+          <t>maa://45556</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="15" t="inlineStr">
         <is>
-          <t>罗宾</t>
+          <t>松果</t>
         </is>
       </c>
       <c r="B171" s="15" t="inlineStr">
         <is>
-          <t>BI-EX-2</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="C171" s="12" t="inlineStr">
@@ -4610,19 +4610,19 @@
       </c>
       <c r="D171" s="10" t="inlineStr">
         <is>
-          <t>maa://39152</t>
+          <t>maa://40159</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="15" t="inlineStr">
         <is>
-          <t>卡夫卡</t>
+          <t>罗宾</t>
         </is>
       </c>
       <c r="B172" s="15" t="inlineStr">
         <is>
-          <t>2-7</t>
+          <t>BI-EX-2</t>
         </is>
       </c>
       <c r="C172" s="12" t="inlineStr">
@@ -4632,19 +4632,19 @@
       </c>
       <c r="D172" s="10" t="inlineStr">
         <is>
-          <t>*maa://20905</t>
+          <t>maa://39152</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="15" t="inlineStr">
         <is>
-          <t>山</t>
+          <t>卡夫卡</t>
         </is>
       </c>
       <c r="B173" s="15" t="inlineStr">
         <is>
-          <t>MB-EX-3</t>
+          <t>2-7</t>
         </is>
       </c>
       <c r="C173" s="12" t="inlineStr">
@@ -4654,19 +4654,19 @@
       </c>
       <c r="D173" s="10" t="inlineStr">
         <is>
-          <t>maa://32418</t>
+          <t>*maa://20905</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="15" t="inlineStr">
         <is>
-          <t>豆苗</t>
+          <t>山</t>
         </is>
       </c>
       <c r="B174" s="15" t="inlineStr">
         <is>
-          <t>S3-7</t>
+          <t>MB-EX-3</t>
         </is>
       </c>
       <c r="C174" s="12" t="inlineStr">
@@ -4676,19 +4676,19 @@
       </c>
       <c r="D174" s="10" t="inlineStr">
         <is>
-          <t>maa://37690</t>
+          <t>maa://32418</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="15" t="inlineStr">
         <is>
-          <t>爱丽丝</t>
+          <t>豆苗</t>
         </is>
       </c>
       <c r="B175" s="15" t="inlineStr">
         <is>
-          <t>2-2</t>
+          <t>S3-7</t>
         </is>
       </c>
       <c r="C175" s="12" t="inlineStr">
@@ -4698,19 +4698,19 @@
       </c>
       <c r="D175" s="10" t="inlineStr">
         <is>
-          <t>maa://20842</t>
+          <t>maa://37690</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="15" t="inlineStr">
         <is>
-          <t>空弦</t>
+          <t>爱丽丝</t>
         </is>
       </c>
       <c r="B176" s="15" t="inlineStr">
         <is>
-          <t>SV-4</t>
+          <t>2-2</t>
         </is>
       </c>
       <c r="C176" s="12" t="inlineStr">
@@ -4720,7 +4720,7 @@
       </c>
       <c r="D176" s="10" t="inlineStr">
         <is>
-          <t>maa://20912</t>
+          <t>maa://20842</t>
         </is>
       </c>
     </row>
@@ -4732,51 +4732,51 @@
       </c>
       <c r="B177" s="15" t="inlineStr">
         <is>
-          <t>2-9</t>
+          <t>SV-4</t>
         </is>
       </c>
       <c r="C177" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D177" s="10" t="inlineStr">
         <is>
-          <t>maa://20911, *maa://29012</t>
+          <t>maa://20912</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="15" t="inlineStr">
         <is>
-          <t>图耶</t>
+          <t>空弦</t>
         </is>
       </c>
       <c r="B178" s="15" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>2-9</t>
         </is>
       </c>
       <c r="C178" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D178" s="10" t="inlineStr">
         <is>
-          <t>maa://20964</t>
+          <t>maa://20911, *maa://29012</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="15" t="inlineStr">
         <is>
-          <t>炎狱炎熔</t>
+          <t>图耶</t>
         </is>
       </c>
       <c r="B179" s="15" t="inlineStr">
         <is>
-          <t>WR-4</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C179" s="12" t="inlineStr">
@@ -4786,51 +4786,51 @@
       </c>
       <c r="D179" s="10" t="inlineStr">
         <is>
-          <t>maa://20983</t>
+          <t>maa://20964</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="15" t="inlineStr">
         <is>
-          <t>乌有</t>
+          <t>炎狱炎熔</t>
         </is>
       </c>
       <c r="B180" s="15" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>WR-4</t>
         </is>
       </c>
       <c r="C180" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D180" s="10" t="inlineStr">
         <is>
-          <t>maa://31560, **maa://20968</t>
+          <t>maa://20983</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="15" t="inlineStr">
         <is>
-          <t>嵯峨</t>
+          <t>乌有</t>
         </is>
       </c>
       <c r="B181" s="15" t="inlineStr">
         <is>
-          <t>WR-3</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C181" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D181" s="10" t="inlineStr">
         <is>
-          <t>maa://28104</t>
+          <t>maa://31560, **maa://20968</t>
         </is>
       </c>
     </row>
@@ -4842,7 +4842,7 @@
       </c>
       <c r="B182" s="15" t="inlineStr">
         <is>
-          <t>WR-1</t>
+          <t>WR-3</t>
         </is>
       </c>
       <c r="C182" s="12" t="inlineStr">
@@ -4852,19 +4852,19 @@
       </c>
       <c r="D182" s="10" t="inlineStr">
         <is>
-          <t>maa://20861</t>
+          <t>maa://28104</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="15" t="inlineStr">
         <is>
-          <t>夕</t>
+          <t>嵯峨</t>
         </is>
       </c>
       <c r="B183" s="15" t="inlineStr">
         <is>
-          <t>1-6</t>
+          <t>WR-1</t>
         </is>
       </c>
       <c r="C183" s="12" t="inlineStr">
@@ -4874,7 +4874,7 @@
       </c>
       <c r="D183" s="10" t="inlineStr">
         <is>
-          <t>maa://20970</t>
+          <t>maa://20861</t>
         </is>
       </c>
     </row>
@@ -4886,51 +4886,51 @@
       </c>
       <c r="B184" s="15" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>1-6</t>
         </is>
       </c>
       <c r="C184" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D184" s="10" t="inlineStr">
         <is>
-          <t>maa://20969, maa://41303</t>
+          <t>maa://20970</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="15" t="inlineStr">
         <is>
-          <t>战车</t>
+          <t>夕</t>
         </is>
       </c>
       <c r="B185" s="15" t="inlineStr">
         <is>
-          <t>S2-3</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C185" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D185" s="10" t="inlineStr">
         <is>
-          <t>maa://20999</t>
+          <t>maa://20969, maa://41303</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="15" t="inlineStr">
         <is>
-          <t>闪击</t>
+          <t>战车</t>
         </is>
       </c>
       <c r="B186" s="15" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>S2-3</t>
         </is>
       </c>
       <c r="C186" s="12" t="inlineStr">
@@ -4940,19 +4940,19 @@
       </c>
       <c r="D186" s="10" t="inlineStr">
         <is>
-          <t>maa://35198</t>
+          <t>maa://20999</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="15" t="inlineStr">
         <is>
-          <t>霜华</t>
+          <t>闪击</t>
         </is>
       </c>
       <c r="B187" s="15" t="inlineStr">
         <is>
-          <t>4-4</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C187" s="12" t="inlineStr">
@@ -4962,29 +4962,29 @@
       </c>
       <c r="D187" s="10" t="inlineStr">
         <is>
-          <t>maa://39153</t>
+          <t>maa://35198</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="15" t="inlineStr">
         <is>
-          <t>灰烬</t>
+          <t>霜华</t>
         </is>
       </c>
       <c r="B188" s="15" t="inlineStr">
         <is>
-          <t>SV-8</t>
+          <t>4-4</t>
         </is>
       </c>
       <c r="C188" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D188" s="10" t="inlineStr">
         <is>
-          <t>maa://34866, maa://34714</t>
+          <t>maa://39153</t>
         </is>
       </c>
     </row>
@@ -4996,7 +4996,7 @@
       </c>
       <c r="B189" s="15" t="inlineStr">
         <is>
-          <t>1-12</t>
+          <t>SV-8</t>
         </is>
       </c>
       <c r="C189" s="12" t="inlineStr">
@@ -5006,41 +5006,41 @@
       </c>
       <c r="D189" s="10" t="inlineStr">
         <is>
-          <t>maa://34883, maa://20895</t>
+          <t>maa://34866, maa://34714</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="15" t="inlineStr">
         <is>
-          <t>暴雨</t>
+          <t>灰烬</t>
         </is>
       </c>
       <c r="B190" s="15" t="inlineStr">
         <is>
-          <t>2-7</t>
+          <t>1-12</t>
         </is>
       </c>
       <c r="C190" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D190" s="10" t="inlineStr">
         <is>
-          <t>maa://20853</t>
+          <t>maa://34883, maa://20895</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="15" t="inlineStr">
         <is>
-          <t>熔泉</t>
+          <t>暴雨</t>
         </is>
       </c>
       <c r="B191" s="15" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>2-7</t>
         </is>
       </c>
       <c r="C191" s="12" t="inlineStr">
@@ -5050,19 +5050,19 @@
       </c>
       <c r="D191" s="10" t="inlineStr">
         <is>
-          <t>maa://20942</t>
+          <t>maa://20853</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="15" t="inlineStr">
         <is>
-          <t>异客</t>
+          <t>熔泉</t>
         </is>
       </c>
       <c r="B192" s="15" t="inlineStr">
         <is>
-          <t>2-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C192" s="12" t="inlineStr">
@@ -5072,7 +5072,7 @@
       </c>
       <c r="D192" s="10" t="inlineStr">
         <is>
-          <t>maa://20992</t>
+          <t>maa://20942</t>
         </is>
       </c>
     </row>
@@ -5084,61 +5084,61 @@
       </c>
       <c r="B193" s="15" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>2-2</t>
         </is>
       </c>
       <c r="C193" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D193" s="10" t="inlineStr">
         <is>
-          <t>*maa://28190, maa://20994</t>
+          <t>maa://20992</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="15" t="inlineStr">
         <is>
-          <t>赤冬</t>
+          <t>异客</t>
         </is>
       </c>
       <c r="B194" s="15" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C194" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D194" s="10" t="inlineStr">
         <is>
-          <t>maa://20860</t>
+          <t>*maa://28190, maa://20994</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="15" t="inlineStr">
         <is>
-          <t>歌蕾蒂娅</t>
+          <t>赤冬</t>
         </is>
       </c>
       <c r="B195" s="15" t="inlineStr">
         <is>
-          <t>SV-EX-5</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C195" s="12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D195" s="10" t="inlineStr">
         <is>
-          <t>maa://44224, *maa://35854, maa://25760, **maa://20872, maa://50388</t>
+          <t>maa://20860</t>
         </is>
       </c>
     </row>
@@ -5150,39 +5150,39 @@
       </c>
       <c r="B196" s="15" t="inlineStr">
         <is>
-          <t>SN-EX-3</t>
+          <t>SV-EX-5</t>
         </is>
       </c>
       <c r="C196" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D196" s="10" t="inlineStr">
         <is>
-          <t>maa://39156, *maa://39550</t>
+          <t>maa://44224, *maa://35854, maa://25760, **maa://20872, maa://50388</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="15" t="inlineStr">
         <is>
-          <t>凯尔希</t>
+          <t>歌蕾蒂娅</t>
         </is>
       </c>
       <c r="B197" s="15" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>SN-EX-3</t>
         </is>
       </c>
       <c r="C197" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D197" s="10" t="inlineStr">
         <is>
-          <t>maa://27823, *maa://28190, maa://22894, *maa://20906</t>
+          <t>maa://39156, *maa://39550</t>
         </is>
       </c>
     </row>
@@ -5211,12 +5211,12 @@
     <row r="199">
       <c r="A199" s="15" t="inlineStr">
         <is>
-          <t>浊心斯卡蒂</t>
+          <t>凯尔希</t>
         </is>
       </c>
       <c r="B199" s="15" t="inlineStr">
         <is>
-          <t>SV-5</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C199" s="12" t="inlineStr">
@@ -5226,14 +5226,14 @@
       </c>
       <c r="D199" s="10" t="inlineStr">
         <is>
-          <t>maa://42223, maa://42292, maa://49077, maa://42402</t>
+          <t>maa://27823, *maa://28190, maa://22894, *maa://20906</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="15" t="inlineStr">
         <is>
-          <t>深靛</t>
+          <t>浊心斯卡蒂</t>
         </is>
       </c>
       <c r="B200" s="15" t="inlineStr">
@@ -5243,24 +5243,24 @@
       </c>
       <c r="C200" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D200" s="10" t="inlineStr">
         <is>
-          <t>maa://39154</t>
+          <t>maa://42223, maa://42292, maa://49077, maa://42402</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="15" t="inlineStr">
         <is>
-          <t>贝娜</t>
+          <t>深靛</t>
         </is>
       </c>
       <c r="B201" s="15" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>SV-5</t>
         </is>
       </c>
       <c r="C201" s="12" t="inlineStr">
@@ -5270,19 +5270,19 @@
       </c>
       <c r="D201" s="10" t="inlineStr">
         <is>
-          <t>maa://20854</t>
+          <t>maa://39154</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="15" t="inlineStr">
         <is>
-          <t>绮良</t>
+          <t>贝娜</t>
         </is>
       </c>
       <c r="B202" s="15" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="C202" s="12" t="inlineStr">
@@ -5292,19 +5292,19 @@
       </c>
       <c r="D202" s="10" t="inlineStr">
         <is>
-          <t>maa://20937</t>
+          <t>maa://20854</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="15" t="inlineStr">
         <is>
-          <t>卡涅利安</t>
+          <t>绮良</t>
         </is>
       </c>
       <c r="B203" s="15" t="inlineStr">
         <is>
-          <t>7-3</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C203" s="12" t="inlineStr">
@@ -5314,7 +5314,7 @@
       </c>
       <c r="D203" s="10" t="inlineStr">
         <is>
-          <t>maa://22468</t>
+          <t>maa://20937</t>
         </is>
       </c>
     </row>
@@ -5326,39 +5326,39 @@
       </c>
       <c r="B204" s="15" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>7-3</t>
         </is>
       </c>
       <c r="C204" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D204" s="10" t="inlineStr">
         <is>
-          <t>maa://30673, maa://30672</t>
+          <t>maa://22468</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="15" t="inlineStr">
         <is>
-          <t>帕拉斯</t>
+          <t>卡涅利安</t>
         </is>
       </c>
       <c r="B205" s="15" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C205" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D205" s="10" t="inlineStr">
         <is>
-          <t>maa://20934, maa://20827, maa://20828</t>
+          <t>maa://30673, maa://30672</t>
         </is>
       </c>
     </row>
@@ -5370,117 +5370,117 @@
       </c>
       <c r="B206" s="15" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="C206" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D206" s="13" t="inlineStr">
         <is>
-          <t>maa://20935</t>
+          <t>maa://20934, maa://20827, maa://20828</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="15" t="inlineStr">
         <is>
-          <t>羽毛笔</t>
+          <t>帕拉斯</t>
         </is>
       </c>
       <c r="B207" s="15" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C207" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D207" s="10" t="inlineStr">
         <is>
-          <t>maa://28133, maa://25369</t>
+          <t>maa://20935</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="15" t="inlineStr">
         <is>
-          <t>水月</t>
+          <t>龙舌兰</t>
         </is>
       </c>
       <c r="B208" s="15" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="C208" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D208" s="10" t="inlineStr">
         <is>
-          <t>maa://20956, *maa://20830, maa://44703</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="15" t="inlineStr">
         <is>
-          <t>水月</t>
+          <t>羽毛笔</t>
         </is>
       </c>
       <c r="B209" s="15" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C209" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D209" s="10" t="inlineStr">
         <is>
-          <t>*maa://20955</t>
+          <t>maa://28133, maa://25369</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="15" t="inlineStr">
         <is>
-          <t>假日威龙陈</t>
+          <t>水月</t>
         </is>
       </c>
       <c r="B210" s="15" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C210" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D210" s="10" t="inlineStr">
         <is>
-          <t>maa://39238</t>
+          <t>maa://20956, *maa://20830, maa://44703</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="15" t="inlineStr">
         <is>
-          <t>罗比菈塔</t>
+          <t>水月</t>
         </is>
       </c>
       <c r="B211" s="15" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="C211" s="12" t="inlineStr">
@@ -5490,19 +5490,19 @@
       </c>
       <c r="D211" s="10" t="inlineStr">
         <is>
-          <t>maa://45261</t>
+          <t>*maa://20955</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="15" t="inlineStr">
         <is>
-          <t>桑葚</t>
+          <t>假日威龙陈</t>
         </is>
       </c>
       <c r="B212" s="15" t="inlineStr">
         <is>
-          <t>SV-5</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="C212" s="12" t="inlineStr">
@@ -5512,41 +5512,41 @@
       </c>
       <c r="D212" s="10" t="inlineStr">
         <is>
-          <t>maa://39694</t>
+          <t>maa://39238</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="15" t="inlineStr">
         <is>
-          <t>琴柳</t>
+          <t>罗比菈塔</t>
         </is>
       </c>
       <c r="B213" s="15" t="inlineStr">
         <is>
-          <t>9-2</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C213" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D213" s="10" t="inlineStr">
         <is>
-          <t>maa://24636, maa://25778</t>
+          <t>maa://45261</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="15" t="inlineStr">
         <is>
-          <t>琴柳</t>
+          <t>桑葚</t>
         </is>
       </c>
       <c r="B214" s="15" t="inlineStr">
         <is>
-          <t>5-3</t>
+          <t>SV-5</t>
         </is>
       </c>
       <c r="C214" s="12" t="inlineStr">
@@ -5556,63 +5556,63 @@
       </c>
       <c r="D214" s="10" t="inlineStr">
         <is>
-          <t>maa://48261</t>
+          <t>maa://39694</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="15" t="inlineStr">
         <is>
-          <t>灰毫</t>
+          <t>琴柳</t>
         </is>
       </c>
       <c r="B215" s="15" t="inlineStr">
         <is>
-          <t>7-9</t>
+          <t>9-2</t>
         </is>
       </c>
       <c r="C215" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D215" s="10" t="inlineStr">
         <is>
-          <t>*maa://39157</t>
+          <t>maa://24636, maa://25778</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="15" t="inlineStr">
         <is>
-          <t>远牙</t>
+          <t>琴柳</t>
         </is>
       </c>
       <c r="B216" s="15" t="inlineStr">
         <is>
-          <t>S2-2</t>
+          <t>5-3</t>
         </is>
       </c>
       <c r="C216" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D216" s="10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://48261</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="15" t="inlineStr">
         <is>
-          <t>远牙</t>
+          <t>灰毫</t>
         </is>
       </c>
       <c r="B217" s="15" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>7-9</t>
         </is>
       </c>
       <c r="C217" s="12" t="inlineStr">
@@ -5622,41 +5622,41 @@
       </c>
       <c r="D217" s="10" t="inlineStr">
         <is>
-          <t>maa://26499</t>
+          <t>*maa://39157</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="15" t="inlineStr">
         <is>
-          <t>布丁</t>
+          <t>远牙</t>
         </is>
       </c>
       <c r="B218" s="15" t="inlineStr">
         <is>
-          <t>2-10</t>
+          <t>S2-2</t>
         </is>
       </c>
       <c r="C218" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D218" s="10" t="inlineStr">
         <is>
-          <t>maa://20858</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="15" t="inlineStr">
         <is>
-          <t>蜜莓</t>
+          <t>远牙</t>
         </is>
       </c>
       <c r="B219" s="15" t="inlineStr">
         <is>
-          <t>GA-2</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C219" s="12" t="inlineStr">
@@ -5666,19 +5666,19 @@
       </c>
       <c r="D219" s="10" t="inlineStr">
         <is>
-          <t>maa://39695</t>
+          <t>maa://26499</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="15" t="inlineStr">
         <is>
-          <t>野鬃</t>
+          <t>布丁</t>
         </is>
       </c>
       <c r="B220" s="15" t="inlineStr">
         <is>
-          <t>MN-2</t>
+          <t>2-10</t>
         </is>
       </c>
       <c r="C220" s="12" t="inlineStr">
@@ -5688,19 +5688,19 @@
       </c>
       <c r="D220" s="10" t="inlineStr">
         <is>
-          <t>maa://20988</t>
+          <t>maa://20858</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="15" t="inlineStr">
         <is>
-          <t>蚀清</t>
+          <t>蜜莓</t>
         </is>
       </c>
       <c r="B221" s="15" t="inlineStr">
         <is>
-          <t>BI-6</t>
+          <t>GA-2</t>
         </is>
       </c>
       <c r="C221" s="12" t="inlineStr">
@@ -5710,41 +5710,41 @@
       </c>
       <c r="D221" s="10" t="inlineStr">
         <is>
-          <t>maa://39158</t>
+          <t>maa://39695</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="15" t="inlineStr">
         <is>
-          <t>焰尾</t>
+          <t>野鬃</t>
         </is>
       </c>
       <c r="B222" s="15" t="inlineStr">
         <is>
-          <t>NL-5</t>
+          <t>MN-2</t>
         </is>
       </c>
       <c r="C222" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D222" s="10" t="inlineStr">
         <is>
-          <t>maa://28187, maa://43531, maa://39520</t>
+          <t>maa://20988</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="15" t="inlineStr">
         <is>
-          <t>焰尾</t>
+          <t>蚀清</t>
         </is>
       </c>
       <c r="B223" s="15" t="inlineStr">
         <is>
-          <t>NL-3</t>
+          <t>BI-6</t>
         </is>
       </c>
       <c r="C223" s="12" t="inlineStr">
@@ -5754,102 +5754,102 @@
       </c>
       <c r="D223" s="10" t="inlineStr">
         <is>
-          <t>maa://20985</t>
+          <t>maa://39158</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="15" t="inlineStr">
         <is>
-          <t>耀骑士临光</t>
+          <t>焰尾</t>
         </is>
       </c>
       <c r="B224" s="15" t="inlineStr">
         <is>
-          <t>MN-8</t>
+          <t>NL-5</t>
         </is>
       </c>
       <c r="C224" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D224" s="10" t="inlineStr">
         <is>
-          <t>maa://20987, *maa://35801</t>
+          <t>maa://28187, maa://43531, maa://39520</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="15" t="inlineStr">
         <is>
-          <t>耀骑士临光</t>
+          <t>焰尾</t>
         </is>
       </c>
       <c r="B225" s="15" t="inlineStr">
         <is>
-          <t>NL-10</t>
+          <t>NL-3</t>
         </is>
       </c>
       <c r="C225" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D225" s="10" t="inlineStr">
         <is>
-          <t>*maa://29644, maa://39159</t>
+          <t>maa://20985</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="15" t="inlineStr">
         <is>
-          <t>耶拉</t>
+          <t>耀骑士临光</t>
         </is>
       </c>
       <c r="B226" s="15" t="inlineStr">
         <is>
-          <t>BI-7</t>
+          <t>MN-8</t>
         </is>
       </c>
       <c r="C226" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D226" s="10" t="inlineStr">
         <is>
-          <t>maa://30677</t>
+          <t>maa://20987, *maa://35801</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="15" t="inlineStr">
         <is>
-          <t>极光</t>
+          <t>耀骑士临光</t>
         </is>
       </c>
       <c r="B227" s="15" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>NL-10</t>
         </is>
       </c>
       <c r="C227" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D227" s="10" t="inlineStr">
         <is>
-          <t>maa://20896</t>
+          <t>*maa://29644, maa://39159</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="15" t="inlineStr">
         <is>
-          <t>灵知</t>
+          <t>耶拉</t>
         </is>
       </c>
       <c r="B228" s="15" t="inlineStr">
@@ -5859,24 +5859,24 @@
       </c>
       <c r="C228" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D228" s="10" t="inlineStr">
         <is>
-          <t>maa://29058, maa://39140, maa://38723</t>
+          <t>maa://30677</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="15" t="inlineStr">
         <is>
-          <t>灵知</t>
+          <t>极光</t>
         </is>
       </c>
       <c r="B229" s="15" t="inlineStr">
         <is>
-          <t>5-6</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C229" s="12" t="inlineStr">
@@ -5886,41 +5886,41 @@
       </c>
       <c r="D229" s="10" t="inlineStr">
         <is>
-          <t>*maa://48263</t>
+          <t>maa://20896</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="15" t="inlineStr">
         <is>
-          <t>九色鹿</t>
+          <t>灵知</t>
         </is>
       </c>
       <c r="B230" s="15" t="inlineStr">
         <is>
-          <t>IW-3</t>
+          <t>BI-7</t>
         </is>
       </c>
       <c r="C230" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D230" s="10" t="inlineStr">
         <is>
-          <t>maa://39160</t>
+          <t>maa://29058, maa://39140, maa://38723</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="15" t="inlineStr">
         <is>
-          <t>寒芒克洛丝</t>
+          <t>灵知</t>
         </is>
       </c>
       <c r="B231" s="15" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>5-6</t>
         </is>
       </c>
       <c r="C231" s="12" t="inlineStr">
@@ -5930,19 +5930,19 @@
       </c>
       <c r="D231" s="10" t="inlineStr">
         <is>
-          <t>maa://49491</t>
+          <t>*maa://48263</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="15" t="inlineStr">
         <is>
-          <t>夜半</t>
+          <t>九色鹿</t>
         </is>
       </c>
       <c r="B232" s="15" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>IW-3</t>
         </is>
       </c>
       <c r="C232" s="12" t="inlineStr">
@@ -5952,19 +5952,19 @@
       </c>
       <c r="D232" s="10" t="inlineStr">
         <is>
-          <t>maa://35952</t>
+          <t>maa://39160</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="15" t="inlineStr">
         <is>
-          <t>老鲤</t>
+          <t>寒芒克洛丝</t>
         </is>
       </c>
       <c r="B233" s="15" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C233" s="12" t="inlineStr">
@@ -5974,107 +5974,107 @@
       </c>
       <c r="D233" s="10" t="inlineStr">
         <is>
-          <t>maa://20917</t>
+          <t>maa://49491</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="15" t="inlineStr">
         <is>
-          <t>老鲤</t>
+          <t>夜半</t>
         </is>
       </c>
       <c r="B234" s="15" t="inlineStr">
         <is>
-          <t>IW-EX-1</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C234" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D234" s="10" t="inlineStr">
         <is>
-          <t>maa://30714, maa://30675</t>
+          <t>maa://35952</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="15" t="inlineStr">
         <is>
-          <t>令</t>
+          <t>老鲤</t>
         </is>
       </c>
       <c r="B235" s="15" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C235" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D235" s="10" t="inlineStr">
         <is>
-          <t>maa://20922, *maa://32623, *maa://34242</t>
+          <t>maa://20917</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="15" t="inlineStr">
         <is>
-          <t>夏栎</t>
+          <t>老鲤</t>
         </is>
       </c>
       <c r="B236" s="15" t="inlineStr">
         <is>
-          <t>9-2</t>
+          <t>IW-EX-1</t>
         </is>
       </c>
       <c r="C236" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D236" s="10" t="inlineStr">
         <is>
-          <t>maa://32999</t>
+          <t>maa://30714, maa://30675</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="15" t="inlineStr">
         <is>
-          <t>澄闪</t>
+          <t>令</t>
         </is>
       </c>
       <c r="B237" s="15" t="inlineStr">
         <is>
-          <t>R8-8</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C237" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D237" s="13" t="inlineStr">
         <is>
-          <t>*maa://30667, maa://30666, *maa://30723, maa://39588</t>
+          <t>maa://20922, *maa://32623, *maa://34242</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="15" t="inlineStr">
         <is>
-          <t>见行者</t>
+          <t>夏栎</t>
         </is>
       </c>
       <c r="B238" s="15" t="inlineStr">
         <is>
-          <t>GA-EX-1</t>
+          <t>9-2</t>
         </is>
       </c>
       <c r="C238" s="12" t="inlineStr">
@@ -6084,41 +6084,41 @@
       </c>
       <c r="D238" s="10" t="inlineStr">
         <is>
-          <t>maa://30512</t>
+          <t>maa://32999</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="15" t="inlineStr">
         <is>
-          <t>风丸</t>
+          <t>澄闪</t>
         </is>
       </c>
       <c r="B239" s="15" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>R8-8</t>
         </is>
       </c>
       <c r="C239" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D239" s="10" t="inlineStr">
         <is>
-          <t>maa://20870</t>
+          <t>*maa://30667, maa://30666, *maa://30723, maa://39588</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="15" t="inlineStr">
         <is>
-          <t>菲亚梅塔</t>
+          <t>见行者</t>
         </is>
       </c>
       <c r="B240" s="15" t="inlineStr">
         <is>
-          <t>GA-4</t>
+          <t>GA-EX-1</t>
         </is>
       </c>
       <c r="C240" s="12" t="inlineStr">
@@ -6128,41 +6128,41 @@
       </c>
       <c r="D240" s="10" t="inlineStr">
         <is>
-          <t>maa://29024</t>
+          <t>maa://30512</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="15" t="inlineStr">
         <is>
-          <t>菲亚梅塔</t>
+          <t>风丸</t>
         </is>
       </c>
       <c r="B241" s="15" t="inlineStr">
         <is>
-          <t>S5-9</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C241" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D241" s="10" t="inlineStr">
         <is>
-          <t>maa://20867, maa://38485, *maa://32202</t>
+          <t>maa://20870</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="15" t="inlineStr">
         <is>
-          <t>褐果</t>
+          <t>菲亚梅塔</t>
         </is>
       </c>
       <c r="B242" s="15" t="inlineStr">
         <is>
-          <t>SV-3</t>
+          <t>GA-4</t>
         </is>
       </c>
       <c r="C242" s="12" t="inlineStr">
@@ -6172,41 +6172,41 @@
       </c>
       <c r="D242" s="10" t="inlineStr">
         <is>
-          <t>maa://40160</t>
+          <t>maa://29024</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="15" t="inlineStr">
         <is>
-          <t>海蒂</t>
+          <t>菲亚梅塔</t>
         </is>
       </c>
       <c r="B243" s="15" t="inlineStr">
         <is>
-          <t>9-7</t>
+          <t>S5-9</t>
         </is>
       </c>
       <c r="C243" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D243" s="10" t="inlineStr">
         <is>
-          <t>maa://43089</t>
+          <t>maa://20867, maa://38485, *maa://32202</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="15" t="inlineStr">
         <is>
-          <t>洛洛</t>
+          <t>褐果</t>
         </is>
       </c>
       <c r="B244" s="15" t="inlineStr">
         <is>
-          <t>RI-EX-4</t>
+          <t>SV-3</t>
         </is>
       </c>
       <c r="C244" s="12" t="inlineStr">
@@ -6216,168 +6216,168 @@
       </c>
       <c r="D244" s="13" t="inlineStr">
         <is>
-          <t>maa://30674</t>
+          <t>maa://40160</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="15" t="inlineStr">
         <is>
-          <t>号角</t>
+          <t>海蒂</t>
         </is>
       </c>
       <c r="B245" s="15" t="inlineStr">
         <is>
-          <t>7-15</t>
+          <t>9-7</t>
         </is>
       </c>
       <c r="C245" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D245" s="10" t="inlineStr">
         <is>
-          <t>maa://28923, maa://28906</t>
+          <t>maa://43089</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="15" t="inlineStr">
         <is>
-          <t>号角</t>
+          <t>洛洛</t>
         </is>
       </c>
       <c r="B246" s="15" t="inlineStr">
         <is>
-          <t>9-5</t>
+          <t>RI-EX-4</t>
         </is>
       </c>
       <c r="C246" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D246" s="10" t="inlineStr">
         <is>
-          <t>maa://42287, maa://45570, maa://42225</t>
+          <t>maa://30674</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="15" t="inlineStr">
         <is>
-          <t>掠风</t>
+          <t>号角</t>
         </is>
       </c>
       <c r="B247" s="15" t="inlineStr">
         <is>
-          <t>11-9</t>
+          <t>7-15</t>
         </is>
       </c>
       <c r="C247" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D247" s="10" t="inlineStr">
         <is>
-          <t>maa://39161</t>
+          <t>maa://28923, maa://28906</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="15" t="inlineStr">
         <is>
-          <t>流明</t>
+          <t>号角</t>
         </is>
       </c>
       <c r="B248" s="15" t="inlineStr">
         <is>
-          <t>6-9</t>
+          <t>9-5</t>
         </is>
       </c>
       <c r="C248" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D248" s="10" t="inlineStr">
         <is>
-          <t>maa://20923</t>
+          <t>maa://42287, maa://45570, maa://42225</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="15" t="inlineStr">
         <is>
-          <t>流明</t>
+          <t>掠风</t>
         </is>
       </c>
       <c r="B249" s="15" t="inlineStr">
         <is>
-          <t>OF-5</t>
+          <t>11-9</t>
         </is>
       </c>
       <c r="C249" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D249" s="13" t="inlineStr">
         <is>
-          <t>maa://24093, maa://31559, maa://20924, maa://49440</t>
+          <t>maa://39161</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="15" t="inlineStr">
         <is>
-          <t>艾丽妮</t>
+          <t>流明</t>
         </is>
       </c>
       <c r="B250" s="15" t="inlineStr">
         <is>
-          <t>SV-EX-1</t>
+          <t>6-9</t>
         </is>
       </c>
       <c r="C250" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D250" s="10" t="inlineStr">
         <is>
-          <t>maa://40958, maa://45067</t>
+          <t>maa://20923</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="15" t="inlineStr">
         <is>
-          <t>艾丽妮</t>
+          <t>流明</t>
         </is>
       </c>
       <c r="B251" s="15" t="inlineStr">
         <is>
-          <t>SV-4</t>
+          <t>OF-5</t>
         </is>
       </c>
       <c r="C251" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D251" s="10" t="inlineStr">
         <is>
-          <t>maa://20840</t>
+          <t>maa://24093, maa://31559, maa://20924, maa://49440</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="15" t="inlineStr">
         <is>
-          <t>归溟幽灵鲨</t>
+          <t>艾丽妮</t>
         </is>
       </c>
       <c r="B252" s="15" t="inlineStr">
@@ -6387,112 +6387,112 @@
       </c>
       <c r="C252" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D252" s="10" t="inlineStr">
         <is>
-          <t>maa://20877, maa://45067, maa://20836, maa://20632</t>
+          <t>maa://40958, maa://45067</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="15" t="inlineStr">
         <is>
-          <t>归溟幽灵鲨</t>
+          <t>艾丽妮</t>
         </is>
       </c>
       <c r="B253" s="15" t="inlineStr">
         <is>
-          <t>S4-1</t>
+          <t>SV-4</t>
         </is>
       </c>
       <c r="C253" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D253" s="10" t="inlineStr">
         <is>
-          <t>maa://20879, maa://20834</t>
+          <t>maa://20840</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="15" t="inlineStr">
         <is>
-          <t>埃拉托</t>
+          <t>归溟幽灵鲨</t>
         </is>
       </c>
       <c r="B254" s="15" t="inlineStr">
         <is>
-          <t>S5-9</t>
+          <t>SV-EX-1</t>
         </is>
       </c>
       <c r="C254" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D254" s="10" t="inlineStr">
         <is>
-          <t>maa://20839</t>
+          <t>maa://20877, maa://45067, maa://20836, maa://20632</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="15" t="inlineStr">
         <is>
-          <t>濯尘芙蓉</t>
+          <t>归溟幽灵鲨</t>
         </is>
       </c>
       <c r="B255" s="15" t="inlineStr">
         <is>
-          <t>LE-4</t>
+          <t>S4-1</t>
         </is>
       </c>
       <c r="C255" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D255" s="10" t="inlineStr">
         <is>
-          <t>maa://30676</t>
+          <t>maa://20879, maa://20834</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="15" t="inlineStr">
         <is>
-          <t>黑键</t>
+          <t>埃拉托</t>
         </is>
       </c>
       <c r="B256" s="15" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>S5-9</t>
         </is>
       </c>
       <c r="C256" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D256" s="10" t="inlineStr">
         <is>
-          <t>maa://31560, maa://20884</t>
+          <t>maa://20839</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="15" t="inlineStr">
         <is>
-          <t>黑键</t>
+          <t>濯尘芙蓉</t>
         </is>
       </c>
       <c r="B257" s="15" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>LE-4</t>
         </is>
       </c>
       <c r="C257" s="12" t="inlineStr">
@@ -6502,7 +6502,7 @@
       </c>
       <c r="D257" s="10" t="inlineStr">
         <is>
-          <t>maa://47204</t>
+          <t>maa://30676</t>
         </is>
       </c>
     </row>
@@ -6514,29 +6514,29 @@
       </c>
       <c r="B258" s="15" t="inlineStr">
         <is>
-          <t>11-12</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C258" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D258" s="10" t="inlineStr">
         <is>
-          <t>maa://29027</t>
+          <t>maa://31560, maa://20884</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="15" t="inlineStr">
         <is>
-          <t>星源</t>
+          <t>黑键</t>
         </is>
       </c>
       <c r="B259" s="15" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="C259" s="12" t="inlineStr">
@@ -6546,19 +6546,19 @@
       </c>
       <c r="D259" s="10" t="inlineStr">
         <is>
-          <t>maa://20977</t>
+          <t>maa://47204</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="15" t="inlineStr">
         <is>
-          <t>承曦格雷伊</t>
+          <t>黑键</t>
         </is>
       </c>
       <c r="B260" s="15" t="inlineStr">
         <is>
-          <t>1-3</t>
+          <t>11-12</t>
         </is>
       </c>
       <c r="C260" s="12" t="inlineStr">
@@ -6568,19 +6568,19 @@
       </c>
       <c r="D260" s="10" t="inlineStr">
         <is>
-          <t>maa://39162</t>
+          <t>maa://29027</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="15" t="inlineStr">
         <is>
-          <t>多萝西</t>
+          <t>星源</t>
         </is>
       </c>
       <c r="B261" s="15" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C261" s="12" t="inlineStr">
@@ -6590,41 +6590,41 @@
       </c>
       <c r="D261" s="10" t="inlineStr">
         <is>
-          <t>maa://22467</t>
+          <t>maa://20977</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="15" t="inlineStr">
         <is>
-          <t>至简</t>
+          <t>承曦格雷伊</t>
         </is>
       </c>
       <c r="B262" s="15" t="inlineStr">
         <is>
-          <t>IC-8</t>
+          <t>1-3</t>
         </is>
       </c>
       <c r="C262" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D262" s="10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://39162</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="15" t="inlineStr">
         <is>
-          <t>晓歌</t>
+          <t>多萝西</t>
         </is>
       </c>
       <c r="B263" s="15" t="inlineStr">
         <is>
-          <t>5-3</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="C263" s="12" t="inlineStr">
@@ -6634,63 +6634,63 @@
       </c>
       <c r="D263" s="10" t="inlineStr">
         <is>
-          <t>maa://49643</t>
+          <t>maa://22467</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="15" t="inlineStr">
         <is>
-          <t>鸿雪</t>
+          <t>至简</t>
         </is>
       </c>
       <c r="B264" s="15" t="inlineStr">
         <is>
-          <t>9-7</t>
+          <t>IC-8</t>
         </is>
       </c>
       <c r="C264" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D264" s="10" t="inlineStr">
         <is>
-          <t>*maa://48265</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="15" t="inlineStr">
         <is>
-          <t>鸿雪</t>
+          <t>晓歌</t>
         </is>
       </c>
       <c r="B265" s="15" t="inlineStr">
         <is>
-          <t>2-10</t>
+          <t>5-3</t>
         </is>
       </c>
       <c r="C265" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D265" s="10" t="inlineStr">
         <is>
-          <t>*maa://20825, *maa://21445, *maa://35726</t>
+          <t>maa://49643</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="15" t="inlineStr">
         <is>
-          <t>百炼嘉维尔</t>
+          <t>鸿雪</t>
         </is>
       </c>
       <c r="B266" s="15" t="inlineStr">
         <is>
-          <t>9-2</t>
+          <t>9-7</t>
         </is>
       </c>
       <c r="C266" s="12" t="inlineStr">
@@ -6700,41 +6700,41 @@
       </c>
       <c r="D266" s="10" t="inlineStr">
         <is>
-          <t>maa://25769</t>
+          <t>maa://48265</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="15" t="inlineStr">
         <is>
-          <t>但书</t>
+          <t>鸿雪</t>
         </is>
       </c>
       <c r="B267" s="15" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>2-10</t>
         </is>
       </c>
       <c r="C267" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D267" s="10" t="inlineStr">
         <is>
-          <t>maa://20862</t>
+          <t>*maa://20825, *maa://21445, *maa://35726</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="15" t="inlineStr">
         <is>
-          <t>罗小黑</t>
+          <t>百炼嘉维尔</t>
         </is>
       </c>
       <c r="B268" s="15" t="inlineStr">
         <is>
-          <t>IW-4</t>
+          <t>9-2</t>
         </is>
       </c>
       <c r="C268" s="12" t="inlineStr">
@@ -6744,19 +6744,19 @@
       </c>
       <c r="D268" s="10" t="inlineStr">
         <is>
-          <t>maa://39163</t>
+          <t>maa://25769</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="15" t="inlineStr">
         <is>
-          <t>海沫</t>
+          <t>但书</t>
         </is>
       </c>
       <c r="B269" s="15" t="inlineStr">
         <is>
-          <t>SN-2</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="C269" s="12" t="inlineStr">
@@ -6766,19 +6766,19 @@
       </c>
       <c r="D269" s="10" t="inlineStr">
         <is>
-          <t>maa://29061</t>
+          <t>maa://20862</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="15" t="inlineStr">
         <is>
-          <t>铅踝</t>
+          <t>玛恩纳</t>
         </is>
       </c>
       <c r="B270" s="15" t="inlineStr">
         <is>
-          <t>S3-5</t>
+          <t>11-15</t>
         </is>
       </c>
       <c r="C270" s="12" t="inlineStr">
@@ -6788,19 +6788,19 @@
       </c>
       <c r="D270" s="10" t="inlineStr">
         <is>
-          <t>*maa://20939</t>
+          <t>maa://51630</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="15" t="inlineStr">
         <is>
-          <t>达格达</t>
+          <t>罗小黑</t>
         </is>
       </c>
       <c r="B271" s="15" t="inlineStr">
         <is>
-          <t>11-5</t>
+          <t>IW-4</t>
         </is>
       </c>
       <c r="C271" s="12" t="inlineStr">
@@ -6810,41 +6810,41 @@
       </c>
       <c r="D271" s="10" t="inlineStr">
         <is>
-          <t>maa://39164</t>
+          <t>maa://39163</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="15" t="inlineStr">
         <is>
-          <t>白铁</t>
+          <t>海沫</t>
         </is>
       </c>
       <c r="B272" s="15" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>SN-2</t>
         </is>
       </c>
       <c r="C272" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D272" s="10" t="inlineStr">
         <is>
-          <t>maa://28133, maa://33394</t>
+          <t>maa://29061</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="15" t="inlineStr">
         <is>
-          <t>白铁</t>
+          <t>铅踝</t>
         </is>
       </c>
       <c r="B273" s="15" t="inlineStr">
         <is>
-          <t>9-6</t>
+          <t>S3-5</t>
         </is>
       </c>
       <c r="C273" s="12" t="inlineStr">
@@ -6854,19 +6854,19 @@
       </c>
       <c r="D273" s="10" t="inlineStr">
         <is>
-          <t>maa://42311</t>
+          <t>*maa://20939</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="15" t="inlineStr">
         <is>
-          <t>石英</t>
+          <t>达格达</t>
         </is>
       </c>
       <c r="B274" s="15" t="inlineStr">
         <is>
-          <t>DH-4</t>
+          <t>11-5</t>
         </is>
       </c>
       <c r="C274" s="12" t="inlineStr">
@@ -6876,41 +6876,41 @@
       </c>
       <c r="D274" s="10" t="inlineStr">
         <is>
-          <t>maa://41362</t>
+          <t>maa://39164</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="15" t="inlineStr">
         <is>
-          <t>雪绒</t>
+          <t>白铁</t>
         </is>
       </c>
       <c r="B275" s="15" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C275" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D275" s="10" t="inlineStr">
         <is>
-          <t>maa://20978</t>
+          <t>maa://28133, maa://33394</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="15" t="inlineStr">
         <is>
-          <t>子月</t>
+          <t>白铁</t>
         </is>
       </c>
       <c r="B276" s="15" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>9-6</t>
         </is>
       </c>
       <c r="C276" s="12" t="inlineStr">
@@ -6920,19 +6920,19 @@
       </c>
       <c r="D276" s="10" t="inlineStr">
         <is>
-          <t>maa://21002</t>
+          <t>maa://42311</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="15" t="inlineStr">
         <is>
-          <t>伺夜</t>
+          <t>石英</t>
         </is>
       </c>
       <c r="B277" s="15" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>DH-4</t>
         </is>
       </c>
       <c r="C277" s="12" t="inlineStr">
@@ -6942,41 +6942,41 @@
       </c>
       <c r="D277" s="10" t="inlineStr">
         <is>
-          <t>*maa://39165</t>
+          <t>maa://41362</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="15" t="inlineStr">
         <is>
-          <t>伺夜</t>
+          <t>雪绒</t>
         </is>
       </c>
       <c r="B278" s="15" t="inlineStr">
         <is>
-          <t>IS-6</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="C278" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D278" s="10" t="inlineStr">
         <is>
-          <t>maa://48267, maa://48266</t>
+          <t>maa://20978</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="15" t="inlineStr">
         <is>
-          <t>斥罪</t>
+          <t>子月</t>
         </is>
       </c>
       <c r="B279" s="15" t="inlineStr">
         <is>
-          <t>CB-4</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C279" s="12" t="inlineStr">
@@ -6986,19 +6986,19 @@
       </c>
       <c r="D279" s="10" t="inlineStr">
         <is>
-          <t>maa://29635</t>
+          <t>maa://21002</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="15" t="inlineStr">
         <is>
-          <t>斥罪</t>
+          <t>伺夜</t>
         </is>
       </c>
       <c r="B280" s="15" t="inlineStr">
         <is>
-          <t>IS-7</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C280" s="12" t="inlineStr">
@@ -7008,19 +7008,19 @@
       </c>
       <c r="D280" s="10" t="inlineStr">
         <is>
-          <t>maa://38296</t>
+          <t>*maa://39165</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="15" t="inlineStr">
         <is>
-          <t>缄默德克萨斯</t>
+          <t>伺夜</t>
         </is>
       </c>
       <c r="B281" s="15" t="inlineStr">
         <is>
-          <t>CB-8</t>
+          <t>IS-6</t>
         </is>
       </c>
       <c r="C281" s="12" t="inlineStr">
@@ -7030,41 +7030,41 @@
       </c>
       <c r="D281" s="10" t="inlineStr">
         <is>
-          <t>maa://20899, maa://46332</t>
+          <t>maa://48267, maa://48266</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="15" t="inlineStr">
         <is>
-          <t>谜图</t>
+          <t>斥罪</t>
         </is>
       </c>
       <c r="B282" s="15" t="inlineStr">
         <is>
-          <t>9-4</t>
+          <t>CB-4</t>
         </is>
       </c>
       <c r="C282" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D282" s="10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://29635</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="15" t="inlineStr">
         <is>
-          <t>和弦</t>
+          <t>斥罪</t>
         </is>
       </c>
       <c r="B283" s="15" t="inlineStr">
         <is>
-          <t>6-5</t>
+          <t>IS-7</t>
         </is>
       </c>
       <c r="C283" s="12" t="inlineStr">
@@ -7074,63 +7074,63 @@
       </c>
       <c r="D283" s="10" t="inlineStr">
         <is>
-          <t>maa://20881</t>
+          <t>maa://38296</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="15" t="inlineStr">
         <is>
-          <t>焰影苇草</t>
+          <t>缄默德克萨斯</t>
         </is>
       </c>
       <c r="B284" s="15" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>CB-8</t>
         </is>
       </c>
       <c r="C284" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D284" s="10" t="inlineStr">
         <is>
-          <t>maa://30710, maa://36845, maa://31558, maa://30668</t>
+          <t>maa://20899, maa://46332</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="15" t="inlineStr">
         <is>
-          <t>截云</t>
+          <t>谜图</t>
         </is>
       </c>
       <c r="B285" s="15" t="inlineStr">
         <is>
-          <t>S2-2</t>
+          <t>9-4</t>
         </is>
       </c>
       <c r="C285" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D285" s="10" t="inlineStr">
         <is>
-          <t>maa://20902</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="15" t="inlineStr">
         <is>
-          <t>火哨</t>
+          <t>和弦</t>
         </is>
       </c>
       <c r="B286" s="15" t="inlineStr">
         <is>
-          <t>S4-6</t>
+          <t>6-5</t>
         </is>
       </c>
       <c r="C286" s="12" t="inlineStr">
@@ -7140,14 +7140,14 @@
       </c>
       <c r="D286" s="10" t="inlineStr">
         <is>
-          <t>maa://29159</t>
+          <t>maa://20881</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="15" t="inlineStr">
         <is>
-          <t>林</t>
+          <t>焰影苇草</t>
         </is>
       </c>
       <c r="B287" s="15" t="inlineStr">
@@ -7162,19 +7162,19 @@
       </c>
       <c r="D287" s="10" t="inlineStr">
         <is>
-          <t>maa://25774, maa://28133, maa://22469, **maa://31349</t>
+          <t>maa://30710, maa://36845, maa://31558, maa://30668</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="15" t="inlineStr">
         <is>
-          <t>林</t>
+          <t>截云</t>
         </is>
       </c>
       <c r="B288" s="15" t="inlineStr">
         <is>
-          <t>6-5</t>
+          <t>S2-2</t>
         </is>
       </c>
       <c r="C288" s="12" t="inlineStr">
@@ -7184,63 +7184,63 @@
       </c>
       <c r="D288" s="10" t="inlineStr">
         <is>
-          <t>maa://47882</t>
+          <t>maa://20902</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="15" t="inlineStr">
         <is>
-          <t>重岳</t>
+          <t>火哨</t>
         </is>
       </c>
       <c r="B289" s="15" t="inlineStr">
         <is>
-          <t>WB-7</t>
+          <t>S4-6</t>
         </is>
       </c>
       <c r="C289" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D289" s="10" t="inlineStr">
         <is>
-          <t>maa://32414, maa://32505, maa://39155</t>
+          <t>maa://29159</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="15" t="inlineStr">
         <is>
-          <t>重岳</t>
+          <t>林</t>
         </is>
       </c>
       <c r="B290" s="15" t="inlineStr">
         <is>
-          <t>GA-5</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C290" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D290" s="10" t="inlineStr">
         <is>
-          <t>maa://45799</t>
+          <t>maa://25774, maa://28133, maa://22469, **maa://31349</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="15" t="inlineStr">
         <is>
-          <t>铎铃</t>
+          <t>林</t>
         </is>
       </c>
       <c r="B291" s="15" t="inlineStr">
         <is>
-          <t>2-1</t>
+          <t>6-5</t>
         </is>
       </c>
       <c r="C291" s="12" t="inlineStr">
@@ -7250,14 +7250,14 @@
       </c>
       <c r="D291" s="10" t="inlineStr">
         <is>
-          <t>maa://42312</t>
+          <t>maa://47882</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="15" t="inlineStr">
         <is>
-          <t>仇白</t>
+          <t>重岳</t>
         </is>
       </c>
       <c r="B292" s="15" t="inlineStr">
@@ -7272,151 +7272,151 @@
       </c>
       <c r="D292" s="10" t="inlineStr">
         <is>
-          <t>maa://36642, maa://36867, maa://39155</t>
+          <t>maa://32414, maa://32505, maa://39155</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="15" t="inlineStr">
         <is>
-          <t>火龙S黑角</t>
+          <t>重岳</t>
         </is>
       </c>
       <c r="B293" s="15" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>GA-5</t>
         </is>
       </c>
       <c r="C293" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D293" s="10" t="inlineStr">
         <is>
-          <t>**maa://39166, maa://39167</t>
+          <t>maa://45799</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="15" t="inlineStr">
         <is>
-          <t>麒麟R夜刀</t>
+          <t>铎铃</t>
         </is>
       </c>
       <c r="B294" s="15" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>2-1</t>
         </is>
       </c>
       <c r="C294" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D294" s="10" t="inlineStr">
         <is>
-          <t>maa://29005, maa://31560</t>
+          <t>maa://42312</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="15" t="inlineStr">
         <is>
-          <t>休谟斯</t>
+          <t>仇白</t>
         </is>
       </c>
       <c r="B295" s="15" t="inlineStr">
         <is>
-          <t>7-8</t>
+          <t>WB-7</t>
         </is>
       </c>
       <c r="C295" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D295" s="10" t="inlineStr">
         <is>
-          <t>maa://39168</t>
+          <t>maa://36642, maa://36867, maa://39155</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="15" t="inlineStr">
         <is>
-          <t>摩根</t>
+          <t>火龙S黑角</t>
         </is>
       </c>
       <c r="B296" s="15" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C296" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D296" s="10" t="inlineStr">
         <is>
-          <t>maa://39169</t>
+          <t>**maa://39166, maa://39167</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="15" t="inlineStr">
         <is>
-          <t>洋灰</t>
+          <t>麒麟R夜刀</t>
         </is>
       </c>
       <c r="B297" s="15" t="inlineStr">
         <is>
-          <t>IW-EX-6</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C297" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D297" s="10" t="inlineStr">
         <is>
-          <t>maa://39170</t>
+          <t>maa://29005, maa://31560</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="15" t="inlineStr">
         <is>
-          <t>伊内丝</t>
+          <t>休谟斯</t>
         </is>
       </c>
       <c r="B298" s="15" t="inlineStr">
         <is>
-          <t>12-12</t>
+          <t>7-8</t>
         </is>
       </c>
       <c r="C298" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D298" s="10" t="inlineStr">
         <is>
-          <t>maa://49642, maa://50280, maa://49660, maa://50517</t>
+          <t>maa://39168</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="15" t="inlineStr">
         <is>
-          <t>玫拉</t>
+          <t>摩根</t>
         </is>
       </c>
       <c r="B299" s="15" t="inlineStr">
         <is>
-          <t>S3-5</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="C299" s="12" t="inlineStr">
@@ -7426,19 +7426,19 @@
       </c>
       <c r="D299" s="10" t="inlineStr">
         <is>
-          <t>maa://39171</t>
+          <t>maa://39169</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="15" t="inlineStr">
         <is>
-          <t>淬羽赫默</t>
+          <t>洋灰</t>
         </is>
       </c>
       <c r="B300" s="15" t="inlineStr">
         <is>
-          <t>6-3</t>
+          <t>IW-EX-6</t>
         </is>
       </c>
       <c r="C300" s="12" t="inlineStr">
@@ -7448,41 +7448,41 @@
       </c>
       <c r="D300" s="10" t="inlineStr">
         <is>
-          <t>maa://27939</t>
+          <t>maa://39170</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="15" t="inlineStr">
         <is>
-          <t>霍尔海雅</t>
+          <t>伊内丝</t>
         </is>
       </c>
       <c r="B301" s="15" t="inlineStr">
         <is>
-          <t>OF-7</t>
+          <t>12-12</t>
         </is>
       </c>
       <c r="C301" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D301" s="10" t="inlineStr">
         <is>
-          <t>maa://29129</t>
+          <t>maa://49642, maa://50280, maa://49660, maa://50517</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="15" t="inlineStr">
         <is>
-          <t>霍尔海雅</t>
+          <t>玫拉</t>
         </is>
       </c>
       <c r="B302" s="15" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>S3-5</t>
         </is>
       </c>
       <c r="C302" s="12" t="inlineStr">
@@ -7492,19 +7492,19 @@
       </c>
       <c r="D302" s="10" t="inlineStr">
         <is>
-          <t>maa://36005</t>
+          <t>maa://39171</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="15" t="inlineStr">
         <is>
-          <t>缪尔赛思</t>
+          <t>淬羽赫默</t>
         </is>
       </c>
       <c r="B303" s="15" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>6-3</t>
         </is>
       </c>
       <c r="C303" s="12" t="inlineStr">
@@ -7514,41 +7514,41 @@
       </c>
       <c r="D303" s="10" t="inlineStr">
         <is>
-          <t>maa://35859</t>
+          <t>maa://27939</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="15" t="inlineStr">
         <is>
-          <t>隐现</t>
+          <t>淬羽赫默</t>
         </is>
       </c>
       <c r="B304" s="15" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>WB-5</t>
         </is>
       </c>
       <c r="C304" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D304" s="10" t="inlineStr">
         <is>
-          <t>**maa://39172</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="15" t="inlineStr">
         <is>
-          <t>空构</t>
+          <t>霍尔海雅</t>
         </is>
       </c>
       <c r="B305" s="15" t="inlineStr">
         <is>
-          <t>DM-2</t>
+          <t>OF-7</t>
         </is>
       </c>
       <c r="C305" s="12" t="inlineStr">
@@ -7558,41 +7558,41 @@
       </c>
       <c r="D305" s="10" t="inlineStr">
         <is>
-          <t>maa://39173</t>
+          <t>maa://29129</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="15" t="inlineStr">
         <is>
-          <t>圣约送葬人</t>
+          <t>霍尔海雅</t>
         </is>
       </c>
       <c r="B306" s="15" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C306" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D306" s="10" t="inlineStr">
         <is>
-          <t>maa://25775, *maa://25393</t>
+          <t>maa://36005</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="15" t="inlineStr">
         <is>
-          <t>寒檀</t>
+          <t>缪尔赛思</t>
         </is>
       </c>
       <c r="B307" s="15" t="inlineStr">
         <is>
-          <t>BI-2</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C307" s="12" t="inlineStr">
@@ -7602,41 +7602,41 @@
       </c>
       <c r="D307" s="10" t="inlineStr">
         <is>
-          <t>maa://40161</t>
+          <t>maa://35859</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="15" t="inlineStr">
         <is>
-          <t>提丰</t>
+          <t>缪尔赛思</t>
         </is>
       </c>
       <c r="B308" s="15" t="inlineStr">
         <is>
-          <t>S2-1</t>
+          <t>6-12</t>
         </is>
       </c>
       <c r="C308" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D308" s="10" t="inlineStr">
         <is>
-          <t>maa://25367</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="15" t="inlineStr">
         <is>
-          <t>凛视</t>
+          <t>隐现</t>
         </is>
       </c>
       <c r="B309" s="15" t="inlineStr">
         <is>
-          <t>7-13</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C309" s="12" t="inlineStr">
@@ -7646,19 +7646,19 @@
       </c>
       <c r="D309" s="10" t="inlineStr">
         <is>
-          <t>*maa://43090</t>
+          <t>**maa://39172</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="15" t="inlineStr">
         <is>
-          <t>苍苔</t>
+          <t>空构</t>
         </is>
       </c>
       <c r="B310" s="15" t="inlineStr">
         <is>
-          <t>9-3</t>
+          <t>DM-2</t>
         </is>
       </c>
       <c r="C310" s="12" t="inlineStr">
@@ -7668,63 +7668,63 @@
       </c>
       <c r="D310" s="10" t="inlineStr">
         <is>
-          <t>maa://28070</t>
+          <t>maa://39173</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="15" t="inlineStr">
         <is>
-          <t>青枳</t>
+          <t>圣约送葬人</t>
         </is>
       </c>
       <c r="B311" s="15" t="inlineStr">
         <is>
-          <t>OF-5</t>
+          <t>7-14</t>
         </is>
       </c>
       <c r="C311" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D311" s="10" t="inlineStr">
         <is>
-          <t>maa://28241</t>
+          <t>maa://25775, *maa://25393</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="15" t="inlineStr">
         <is>
-          <t>琳琅诗怀雅</t>
+          <t>寒檀</t>
         </is>
       </c>
       <c r="B312" s="15" t="inlineStr">
         <is>
-          <t>5-2</t>
+          <t>BI-2</t>
         </is>
       </c>
       <c r="C312" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D312" s="10" t="inlineStr">
         <is>
-          <t>maa://25773, *maa://26088</t>
+          <t>maa://40161</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="15" t="inlineStr">
         <is>
-          <t>琳琅诗怀雅</t>
+          <t>提丰</t>
         </is>
       </c>
       <c r="B313" s="15" t="inlineStr">
         <is>
-          <t>11-16</t>
+          <t>S2-1</t>
         </is>
       </c>
       <c r="C313" s="12" t="inlineStr">
@@ -7734,41 +7734,41 @@
       </c>
       <c r="D313" s="10" t="inlineStr">
         <is>
-          <t>maa://39239</t>
+          <t>maa://25367</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="15" t="inlineStr">
         <is>
-          <t>纯烬艾雅法拉</t>
+          <t>凛视</t>
         </is>
       </c>
       <c r="B314" s="15" t="inlineStr">
         <is>
-          <t>FC-5</t>
+          <t>7-13</t>
         </is>
       </c>
       <c r="C314" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D314" s="10" t="inlineStr">
         <is>
-          <t>maa://39692, maa://39810</t>
+          <t>*maa://43090</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="15" t="inlineStr">
         <is>
-          <t>冰酿</t>
+          <t>苍苔</t>
         </is>
       </c>
       <c r="B315" s="15" t="inlineStr">
         <is>
-          <t>S3-3</t>
+          <t>9-3</t>
         </is>
       </c>
       <c r="C315" s="12" t="inlineStr">
@@ -7778,19 +7778,19 @@
       </c>
       <c r="D315" s="10" t="inlineStr">
         <is>
-          <t>*maa://39174</t>
+          <t>maa://28070</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="15" t="inlineStr">
         <is>
-          <t>杏仁</t>
+          <t>青枳</t>
         </is>
       </c>
       <c r="B316" s="15" t="inlineStr">
         <is>
-          <t>BI-2</t>
+          <t>OF-5</t>
         </is>
       </c>
       <c r="C316" s="12" t="inlineStr">
@@ -7800,19 +7800,19 @@
       </c>
       <c r="D316" s="10" t="inlineStr">
         <is>
-          <t>maa://39175</t>
+          <t>maa://28241</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="15" t="inlineStr">
         <is>
-          <t>涤火杰西卡</t>
+          <t>琳琅诗怀雅</t>
         </is>
       </c>
       <c r="B317" s="15" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>5-2</t>
         </is>
       </c>
       <c r="C317" s="12" t="inlineStr">
@@ -7822,19 +7822,19 @@
       </c>
       <c r="D317" s="10" t="inlineStr">
         <is>
-          <t>maa://34867, maa://34715</t>
+          <t>maa://25773, *maa://26088</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="15" t="inlineStr">
         <is>
-          <t>维荻</t>
+          <t>琳琅诗怀雅</t>
         </is>
       </c>
       <c r="B318" s="15" t="inlineStr">
         <is>
-          <t>9-3</t>
+          <t>11-16</t>
         </is>
       </c>
       <c r="C318" s="12" t="inlineStr">
@@ -7844,41 +7844,41 @@
       </c>
       <c r="D318" s="10" t="inlineStr">
         <is>
-          <t>maa://39176</t>
+          <t>maa://39239</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="15" t="inlineStr">
         <is>
-          <t>戴菲恩</t>
+          <t>纯烬艾雅法拉</t>
         </is>
       </c>
       <c r="B319" s="15" t="inlineStr">
         <is>
-          <t>WD-6</t>
+          <t>FC-5</t>
         </is>
       </c>
       <c r="C319" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D319" s="10" t="inlineStr">
         <is>
-          <t>maa://42316</t>
+          <t>maa://39692, maa://39810</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="15" t="inlineStr">
         <is>
-          <t>刺玫</t>
+          <t>冰酿</t>
         </is>
       </c>
       <c r="B320" s="15" t="inlineStr">
         <is>
-          <t>IC-2</t>
+          <t>S3-3</t>
         </is>
       </c>
       <c r="C320" s="12" t="inlineStr">
@@ -7888,19 +7888,19 @@
       </c>
       <c r="D320" s="10" t="inlineStr">
         <is>
-          <t>maa://30680</t>
+          <t>*maa://39174</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="15" t="inlineStr">
         <is>
-          <t>赫德雷</t>
+          <t>杏仁</t>
         </is>
       </c>
       <c r="B321" s="15" t="inlineStr">
         <is>
-          <t>IW-7</t>
+          <t>BI-2</t>
         </is>
       </c>
       <c r="C321" s="12" t="inlineStr">
@@ -7910,41 +7910,41 @@
       </c>
       <c r="D321" s="10" t="inlineStr">
         <is>
-          <t>maa://40956</t>
+          <t>maa://39175</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="15" t="inlineStr">
         <is>
-          <t>深律</t>
+          <t>涤火杰西卡</t>
         </is>
       </c>
       <c r="B322" s="15" t="inlineStr">
         <is>
-          <t>LE-4</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C322" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D322" s="10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://34867, maa://34715</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="15" t="inlineStr">
         <is>
-          <t>止颂</t>
+          <t>维荻</t>
         </is>
       </c>
       <c r="B323" s="15" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>9-3</t>
         </is>
       </c>
       <c r="C323" s="12" t="inlineStr">
@@ -7954,41 +7954,41 @@
       </c>
       <c r="D323" s="10" t="inlineStr">
         <is>
-          <t>maa://34205</t>
+          <t>maa://39176</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="15" t="inlineStr">
         <is>
-          <t>止颂</t>
+          <t>戴菲恩</t>
         </is>
       </c>
       <c r="B324" s="15" t="inlineStr">
         <is>
-          <t>TW-5</t>
+          <t>WD-6</t>
         </is>
       </c>
       <c r="C324" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D324" s="10" t="inlineStr">
         <is>
-          <t>maa://43092, maa://43093</t>
+          <t>maa://42316</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="15" t="inlineStr">
         <is>
-          <t>薇薇安娜</t>
+          <t>刺玫</t>
         </is>
       </c>
       <c r="B325" s="15" t="inlineStr">
         <is>
-          <t>MN-3</t>
+          <t>IC-2</t>
         </is>
       </c>
       <c r="C325" s="12" t="inlineStr">
@@ -7998,63 +7998,63 @@
       </c>
       <c r="D325" s="10" t="inlineStr">
         <is>
-          <t>maa://44234</t>
+          <t>maa://30680</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="15" t="inlineStr">
         <is>
-          <t>塑心</t>
+          <t>赫德雷</t>
         </is>
       </c>
       <c r="B326" s="15" t="inlineStr">
         <is>
-          <t>GA-7</t>
+          <t>IW-7</t>
         </is>
       </c>
       <c r="C326" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D326" s="10" t="inlineStr">
         <is>
-          <t>maa://42968, maa://49245</t>
+          <t>maa://40956</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="15" t="inlineStr">
         <is>
-          <t>哈洛德</t>
+          <t>深律</t>
         </is>
       </c>
       <c r="B327" s="15" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>LE-4</t>
         </is>
       </c>
       <c r="C327" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D327" s="10" t="inlineStr">
         <is>
-          <t>*maa://40162</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="15" t="inlineStr">
         <is>
-          <t>烈夏</t>
+          <t>止颂</t>
         </is>
       </c>
       <c r="B328" s="15" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="C328" s="12" t="inlineStr">
@@ -8064,85 +8064,85 @@
       </c>
       <c r="D328" s="10" t="inlineStr">
         <is>
-          <t>maa://37692</t>
+          <t>maa://34205</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="15" t="inlineStr">
         <is>
-          <t>锏</t>
+          <t>止颂</t>
         </is>
       </c>
       <c r="B329" s="15" t="inlineStr">
         <is>
-          <t>BI-6</t>
+          <t>TW-5</t>
         </is>
       </c>
       <c r="C329" s="12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D329" s="10" t="inlineStr">
         <is>
-          <t>maa://30671, maa://30669, maa://37275, *maa://32410, maa://41605</t>
+          <t>maa://43092, maa://43093</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="15" t="inlineStr">
         <is>
-          <t>莱伊</t>
+          <t>薇薇安娜</t>
         </is>
       </c>
       <c r="B330" s="15" t="inlineStr">
         <is>
-          <t>S9-1</t>
+          <t>MN-3</t>
         </is>
       </c>
       <c r="C330" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D330" s="10" t="inlineStr">
         <is>
-          <t>maa://38295, maa://49332</t>
+          <t>maa://44234</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="12" t="inlineStr">
         <is>
-          <t>万顷</t>
+          <t>塑心</t>
         </is>
       </c>
       <c r="B331" s="12" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>GA-7</t>
         </is>
       </c>
       <c r="C331" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D331" s="13" t="inlineStr">
         <is>
-          <t>maa://32417</t>
+          <t>maa://42968, maa://49245</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="12" t="inlineStr">
         <is>
-          <t>小满</t>
+          <t>哈洛德</t>
         </is>
       </c>
       <c r="B332" s="12" t="inlineStr">
         <is>
-          <t>9-11</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="C332" s="12" t="inlineStr">
@@ -8152,19 +8152,19 @@
       </c>
       <c r="D332" s="13" t="inlineStr">
         <is>
-          <t>maa://32419</t>
+          <t>*maa://40162</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="12" t="inlineStr">
         <is>
-          <t>左乐</t>
+          <t>烈夏</t>
         </is>
       </c>
       <c r="B333" s="12" t="inlineStr">
         <is>
-          <t>WB-5</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C333" s="12" t="inlineStr">
@@ -8174,63 +8174,63 @@
       </c>
       <c r="D333" s="13" t="inlineStr">
         <is>
-          <t>maa://32416</t>
+          <t>maa://37692</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="12" t="inlineStr">
         <is>
-          <t>左乐</t>
+          <t>锏</t>
         </is>
       </c>
       <c r="B334" s="12" t="inlineStr">
         <is>
-          <t>RI-7</t>
+          <t>BI-6</t>
         </is>
       </c>
       <c r="C334" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D334" s="13" t="inlineStr">
         <is>
-          <t>maa://45800</t>
+          <t>maa://30671, maa://30669, maa://37275, *maa://32410, maa://41605</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="12" t="inlineStr">
         <is>
-          <t>黍</t>
+          <t>莱伊</t>
         </is>
       </c>
       <c r="B335" s="12" t="inlineStr">
         <is>
-          <t>11-11</t>
+          <t>S9-1</t>
         </is>
       </c>
       <c r="C335" s="12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D335" s="13" t="inlineStr">
         <is>
-          <t>maa://32647, maa://32415, maa://34677, maa://32892, maa://32653</t>
+          <t>maa://38295, maa://49332</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="12" t="inlineStr">
         <is>
-          <t>红隼</t>
+          <t>万顷</t>
         </is>
       </c>
       <c r="B336" s="12" t="inlineStr">
         <is>
-          <t>11-18</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="C336" s="12" t="inlineStr">
@@ -8240,19 +8240,19 @@
       </c>
       <c r="D336" s="13" t="inlineStr">
         <is>
-          <t>maa://32420</t>
+          <t>maa://32417</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="12" t="inlineStr">
         <is>
-          <t>导火索</t>
+          <t>小满</t>
         </is>
       </c>
       <c r="B337" s="12" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>9-11</t>
         </is>
       </c>
       <c r="C337" s="12" t="inlineStr">
@@ -8262,19 +8262,19 @@
       </c>
       <c r="D337" s="13" t="inlineStr">
         <is>
-          <t>maa://35606</t>
+          <t>maa://32419</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="12" t="inlineStr">
         <is>
-          <t>双月</t>
+          <t>左乐</t>
         </is>
       </c>
       <c r="B338" s="12" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>WB-5</t>
         </is>
       </c>
       <c r="C338" s="12" t="inlineStr">
@@ -8284,19 +8284,19 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>maa://34716</t>
+          <t>maa://32416</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="12" t="inlineStr">
         <is>
-          <t>医生</t>
+          <t>左乐</t>
         </is>
       </c>
       <c r="B339" s="12" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>RI-7</t>
         </is>
       </c>
       <c r="C339" s="12" t="inlineStr">
@@ -8306,41 +8306,41 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>maa://39179</t>
+          <t>maa://45800</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="12" t="inlineStr">
         <is>
-          <t>艾拉</t>
+          <t>黍</t>
         </is>
       </c>
       <c r="B340" s="12" t="inlineStr">
         <is>
-          <t>DM-EX-1</t>
+          <t>11-11</t>
         </is>
       </c>
       <c r="C340" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>maa://34865, maa://34717, *maa://45066</t>
+          <t>maa://32647, maa://32415, maa://34677, maa://32892, maa://32653</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="12" t="inlineStr">
         <is>
-          <t>露托</t>
+          <t>红隼</t>
         </is>
       </c>
       <c r="B341" s="12" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>11-18</t>
         </is>
       </c>
       <c r="C341" s="12" t="inlineStr">
@@ -8350,41 +8350,41 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>maa://39180</t>
+          <t>maa://32420</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="12" t="inlineStr">
         <is>
-          <t>奥达</t>
+          <t>导火索</t>
         </is>
       </c>
       <c r="B342" s="12" t="inlineStr">
         <is>
-          <t>S3-6</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C342" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>maa://45834, maa://45833</t>
+          <t>maa://35606</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="12" t="inlineStr">
         <is>
-          <t>阿罗玛</t>
+          <t>双月</t>
         </is>
       </c>
       <c r="B343" s="12" t="inlineStr">
         <is>
-          <t>GT-HX-3</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C343" s="12" t="inlineStr">
@@ -8394,85 +8394,85 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>maa://39181</t>
+          <t>maa://34716</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="12" t="inlineStr">
         <is>
-          <t>阿斯卡纶</t>
+          <t>医生</t>
         </is>
       </c>
       <c r="B344" s="12" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C344" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>maa://36868, maa://35996, maa://47349</t>
+          <t>maa://39179</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="12" t="inlineStr">
         <is>
-          <t>历阵锐枪芬</t>
+          <t>艾拉</t>
         </is>
       </c>
       <c r="B345" s="12" t="inlineStr">
         <is>
-          <t>4-2</t>
+          <t>DM-EX-1</t>
         </is>
       </c>
       <c r="C345" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>maa://36647</t>
+          <t>maa://34865, maa://34717, *maa://45066</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="12" t="inlineStr">
         <is>
-          <t>魔王</t>
+          <t>露托</t>
         </is>
       </c>
       <c r="B346" s="12" t="inlineStr">
         <is>
-          <t>14-5</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C346" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>maa://42299, *maa://42224</t>
+          <t>maa://39180</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="12" t="inlineStr">
         <is>
-          <t>逻各斯</t>
+          <t>奥达</t>
         </is>
       </c>
       <c r="B347" s="12" t="inlineStr">
         <is>
-          <t>14-9</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C347" s="12" t="inlineStr">
@@ -8482,195 +8482,195 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>maa://49648, *maa://49662</t>
+          <t>maa://45834, maa://45833</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="12" t="inlineStr">
         <is>
-          <t>逻各斯</t>
+          <t>阿罗玛</t>
         </is>
       </c>
       <c r="B348" s="12" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>GT-HX-3</t>
         </is>
       </c>
       <c r="C348" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>maa://36646, maa://36845, maa://51007</t>
+          <t>maa://39181</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="12" t="inlineStr">
         <is>
-          <t>维什戴尔</t>
+          <t>阿斯卡纶</t>
         </is>
       </c>
       <c r="B349" s="12" t="inlineStr">
         <is>
-          <t>DM-5</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C349" s="12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>maa://36645, maa://36841, maa://37484, maa://37858, maa://40489</t>
+          <t>maa://36868, maa://35996, maa://47349</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="12" t="inlineStr">
         <is>
-          <t>阿米娅</t>
+          <t>历阵锐枪芬</t>
         </is>
       </c>
       <c r="B350" s="12" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>4-2</t>
         </is>
       </c>
       <c r="C350" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>maa://42635, maa://48859</t>
+          <t>maa://36647</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="12" t="inlineStr">
         <is>
-          <t>深巡</t>
+          <t>魔王</t>
         </is>
       </c>
       <c r="B351" s="12" t="inlineStr">
         <is>
-          <t>SN-5</t>
+          <t>14-5</t>
         </is>
       </c>
       <c r="C351" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>maa://39183</t>
+          <t>maa://42299, *maa://42224</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="12" t="inlineStr">
         <is>
-          <t>海霓</t>
+          <t>逻各斯</t>
         </is>
       </c>
       <c r="B352" s="12" t="inlineStr">
         <is>
-          <t>SV-4</t>
+          <t>14-9</t>
         </is>
       </c>
       <c r="C352" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>maa://39184</t>
+          <t>maa://49648, *maa://49662</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="12" t="inlineStr">
         <is>
-          <t>乌尔比安</t>
+          <t>逻各斯</t>
         </is>
       </c>
       <c r="B353" s="12" t="inlineStr">
         <is>
-          <t>SV-6</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C353" s="12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>maa://40957, maa://44635, maa://41035, maa://41128, maa://44660, maa://48026</t>
+          <t>maa://36646, maa://36845, maa://51007</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="12" t="inlineStr">
         <is>
-          <t>渡桥</t>
+          <t>维什戴尔</t>
         </is>
       </c>
       <c r="B354" s="12" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>DM-5</t>
         </is>
       </c>
       <c r="C354" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>maa://40164</t>
+          <t>maa://36645, maa://36841, maa://37484, maa://37858, maa://40489</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="12" t="inlineStr">
         <is>
-          <t>锡人</t>
+          <t>阿米娅</t>
         </is>
       </c>
       <c r="B355" s="12" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C355" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>maa://48268</t>
+          <t>maa://42635, maa://48859</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="12" t="inlineStr">
         <is>
-          <t>衡沙</t>
+          <t>深巡</t>
         </is>
       </c>
       <c r="B356" s="12" t="inlineStr">
         <is>
-          <t>DV-2</t>
+          <t>SN-5</t>
         </is>
       </c>
       <c r="C356" s="12" t="inlineStr">
@@ -8680,19 +8680,19 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>maa://40165</t>
+          <t>maa://39183</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="12" t="inlineStr">
         <is>
-          <t>佩佩</t>
+          <t>海霓</t>
         </is>
       </c>
       <c r="B357" s="12" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>SV-4</t>
         </is>
       </c>
       <c r="C357" s="12" t="inlineStr">
@@ -8702,107 +8702,107 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>maa://45798</t>
+          <t>maa://39184</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="12" t="inlineStr">
         <is>
-          <t>森西</t>
+          <t>乌尔比安</t>
         </is>
       </c>
       <c r="B358" s="12" t="inlineStr">
         <is>
-          <t>1-12</t>
+          <t>SV-6</t>
         </is>
       </c>
       <c r="C358" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>maa://42331</t>
+          <t>maa://40957, maa://44635, maa://41035, maa://41128, maa://48026, maa://44660</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="12" t="inlineStr">
         <is>
-          <t>齐尔查克</t>
+          <t>渡桥</t>
         </is>
       </c>
       <c r="B359" s="12" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C359" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>maa://42333, maa://41977, maa://50518</t>
+          <t>maa://40164</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="12" t="inlineStr">
         <is>
-          <t>莱欧斯</t>
+          <t>锡人</t>
         </is>
       </c>
       <c r="B360" s="12" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C360" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>maa://42338, maa://41976</t>
+          <t>maa://48268</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="12" t="inlineStr">
         <is>
-          <t>玛露西尔</t>
+          <t>衡沙</t>
         </is>
       </c>
       <c r="B361" s="12" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>DV-2</t>
         </is>
       </c>
       <c r="C361" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>maa://41110, maa://45605</t>
+          <t>maa://40165</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="12" t="inlineStr">
         <is>
-          <t>凯瑟琳</t>
+          <t>佩佩</t>
         </is>
       </c>
       <c r="B362" s="12" t="inlineStr">
         <is>
-          <t>11-7</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C362" s="12" t="inlineStr">
@@ -8812,19 +8812,19 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>maa://42343</t>
+          <t>maa://45798</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="12" t="inlineStr">
         <is>
-          <t>波卜</t>
+          <t>森西</t>
         </is>
       </c>
       <c r="B363" s="12" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>1-12</t>
         </is>
       </c>
       <c r="C363" s="12" t="inlineStr">
@@ -8834,85 +8834,85 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>maa://43095</t>
+          <t>maa://42331</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="12" t="inlineStr">
         <is>
-          <t>维娜·维多利亚</t>
+          <t>齐尔查克</t>
         </is>
       </c>
       <c r="B364" s="12" t="inlineStr">
         <is>
-          <t>9-5</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C364" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>maa://44233, maa://45570</t>
+          <t>maa://42333, maa://41977, maa://50518</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="12" t="inlineStr">
         <is>
-          <t>裁度</t>
+          <t>莱欧斯</t>
         </is>
       </c>
       <c r="B365" s="12" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="C365" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>maa://43097</t>
+          <t>maa://42338, maa://41976</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="12" t="inlineStr">
         <is>
-          <t>弑君者</t>
+          <t>玛露西尔</t>
         </is>
       </c>
       <c r="B366" s="12" t="inlineStr">
         <is>
-          <t>4-4</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C366" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>maa://43872</t>
+          <t>maa://41110, maa://45605</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="12" t="inlineStr">
         <is>
-          <t>忍冬</t>
+          <t>凯瑟琳</t>
         </is>
       </c>
       <c r="B367" s="12" t="inlineStr">
         <is>
-          <t>S2-3</t>
+          <t>11-7</t>
         </is>
       </c>
       <c r="C367" s="12" t="inlineStr">
@@ -8922,63 +8922,63 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>maa://43875</t>
+          <t>maa://42343</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="12" t="inlineStr">
         <is>
-          <t>荒芜拉普兰德</t>
+          <t>波卜</t>
         </is>
       </c>
       <c r="B368" s="12" t="inlineStr">
         <is>
-          <t>IS-8</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="C368" s="12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>maa://42970, maa://44745, maa://45952, maa://49516, maa://44896</t>
+          <t>maa://43095</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="12" t="inlineStr">
         <is>
-          <t>瑰盐</t>
+          <t>维娜·维多利亚</t>
         </is>
       </c>
       <c r="B369" s="12" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>9-5</t>
         </is>
       </c>
       <c r="C369" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>maa://44389</t>
+          <t>maa://44233, maa://45570</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="12" t="inlineStr">
         <is>
-          <t>引星棘刺</t>
+          <t>裁度</t>
         </is>
       </c>
       <c r="B370" s="12" t="inlineStr">
         <is>
-          <t>OF-7</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="C370" s="12" t="inlineStr">
@@ -8988,19 +8988,19 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>maa://48113</t>
+          <t>maa://43097</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="12" t="inlineStr">
         <is>
-          <t>行箸</t>
+          <t>弑君者</t>
         </is>
       </c>
       <c r="B371" s="12" t="inlineStr">
         <is>
-          <t>3-2</t>
+          <t>4-4</t>
         </is>
       </c>
       <c r="C371" s="12" t="inlineStr">
@@ -9010,85 +9010,85 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>maa://45807</t>
+          <t>maa://43872</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="12" t="inlineStr">
         <is>
-          <t>寻澜</t>
+          <t>弑君者</t>
         </is>
       </c>
       <c r="B372" s="12" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="C372" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>maa://50552</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="12" t="inlineStr">
         <is>
-          <t>诺威尔</t>
+          <t>忍冬</t>
         </is>
       </c>
       <c r="B373" s="12" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>S2-3</t>
         </is>
       </c>
       <c r="C373" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>maa://47175, maa://47174</t>
+          <t>maa://43875</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="12" t="inlineStr">
         <is>
-          <t>隐德来希</t>
+          <t>荒芜拉普兰德</t>
         </is>
       </c>
       <c r="B374" s="12" t="inlineStr">
         <is>
-          <t>10-12</t>
+          <t>IS-8</t>
         </is>
       </c>
       <c r="C374" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>maa://47023</t>
+          <t>maa://42970, maa://44745, maa://45952, *maa://49516, maa://44896</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="12" t="inlineStr">
         <is>
-          <t>钼铅</t>
+          <t>瑰盐</t>
         </is>
       </c>
       <c r="B375" s="12" t="inlineStr">
         <is>
-          <t>9-6</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C375" s="12" t="inlineStr">
@@ -9098,27 +9098,247 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>maa://48618</t>
+          <t>maa://44389</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="12" t="inlineStr">
         <is>
+          <t>引星棘刺</t>
+        </is>
+      </c>
+      <c r="B376" s="12" t="inlineStr">
+        <is>
+          <t>OF-7</t>
+        </is>
+      </c>
+      <c r="C376" s="12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>maa://48113</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="12" t="inlineStr">
+        <is>
+          <t>行箸</t>
+        </is>
+      </c>
+      <c r="B377" s="12" t="inlineStr">
+        <is>
+          <t>3-2</t>
+        </is>
+      </c>
+      <c r="C377" s="12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>maa://45807</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="12" t="inlineStr">
+        <is>
+          <t>寻澜</t>
+        </is>
+      </c>
+      <c r="B378" s="12" t="inlineStr">
+        <is>
+          <t>3-5</t>
+        </is>
+      </c>
+      <c r="C378" s="12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>maa://50552</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="12" t="inlineStr">
+        <is>
+          <t>诺威尔</t>
+        </is>
+      </c>
+      <c r="B379" s="12" t="inlineStr">
+        <is>
+          <t>5-7</t>
+        </is>
+      </c>
+      <c r="C379" s="12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>maa://47175, maa://47174</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="12" t="inlineStr">
+        <is>
+          <t>隐德来希</t>
+        </is>
+      </c>
+      <c r="B380" s="12" t="inlineStr">
+        <is>
+          <t>10-12</t>
+        </is>
+      </c>
+      <c r="C380" s="12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>maa://47023</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="12" t="inlineStr">
+        <is>
+          <t>钼铅</t>
+        </is>
+      </c>
+      <c r="B381" s="12" t="inlineStr">
+        <is>
+          <t>9-6</t>
+        </is>
+      </c>
+      <c r="C381" s="12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>maa://48618</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="12" t="inlineStr">
+        <is>
+          <t>骋风</t>
+        </is>
+      </c>
+      <c r="B382" s="12" t="inlineStr">
+        <is>
+          <t>SN-2</t>
+        </is>
+      </c>
+      <c r="C382" s="12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="12" t="inlineStr">
+        <is>
           <t>阿兰娜</t>
         </is>
       </c>
-      <c r="B376" s="12" t="inlineStr">
+      <c r="B383" s="12" t="inlineStr">
         <is>
           <t>7-14</t>
         </is>
       </c>
-      <c r="C376" s="12" t="inlineStr">
+      <c r="C383" s="12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D376" t="inlineStr">
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="12" t="inlineStr">
+        <is>
+          <t>信仰搅拌机</t>
+        </is>
+      </c>
+      <c r="B384" s="12" t="inlineStr">
+        <is>
+          <t>14-5</t>
+        </is>
+      </c>
+      <c r="C384" s="12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="12" t="inlineStr">
+        <is>
+          <t>蕾缪安</t>
+        </is>
+      </c>
+      <c r="B385" s="12" t="inlineStr">
+        <is>
+          <t>13-13</t>
+        </is>
+      </c>
+      <c r="C385" s="12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="12" t="inlineStr">
+        <is>
+          <t>新约能天使</t>
+        </is>
+      </c>
+      <c r="B386" s="12" t="inlineStr">
+        <is>
+          <t>GA-EX-5</t>
+        </is>
+      </c>
+      <c r="C386" s="12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
         <is>
           <t>None</t>
         </is>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.05.02 13:20:57</t>
+          <t>更新日期：2025.05.03 13:20:53</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -1552,7 +1552,7 @@
       </c>
       <c r="D32" s="10" t="inlineStr">
         <is>
-          <t>maa://36644, maa://36866, maa://27794, maa://45572, maa://20960, maa://20843, **maa://24483, maa://20862, *maa://20893</t>
+          <t>maa://36644, maa://36866, maa://27794, maa://45572, maa://20843, maa://20960, **maa://24483, maa://20862, *maa://20893</t>
         </is>
       </c>
     </row>
@@ -3219,12 +3219,12 @@
       </c>
       <c r="C108" s="12" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D108" s="10" t="inlineStr">
         <is>
-          <t>maa://25018, maa://25776, maa://28361, maa://25772, maa://25161, maa://32653, maa://45194</t>
+          <t>maa://25018, maa://25776, maa://28361, maa://25772, maa://25161, maa://32653, maa://45194, maa://51881</t>
         </is>
       </c>
     </row>
@@ -4143,12 +4143,12 @@
       </c>
       <c r="C150" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D150" s="10" t="inlineStr">
         <is>
-          <t>maa://51549</t>
+          <t>maa://51549, **maa://51923</t>
         </is>
       </c>
     </row>
@@ -6062,7 +6062,7 @@
       </c>
       <c r="D237" s="13" t="inlineStr">
         <is>
-          <t>maa://20922, *maa://32623, *maa://34242</t>
+          <t>maa://20922, *maa://32623, maa://34242</t>
         </is>
       </c>
     </row>
@@ -6783,12 +6783,12 @@
       </c>
       <c r="C270" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D270" s="10" t="inlineStr">
         <is>
-          <t>maa://51630</t>
+          <t>maa://51630, maa://51881</t>
         </is>
       </c>
     </row>
@@ -8570,7 +8570,7 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>maa://42299, *maa://42224</t>
+          <t>maa://42299, maa://42224</t>
         </is>
       </c>
     </row>
@@ -9247,12 +9247,12 @@
       </c>
       <c r="C382" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://51907</t>
         </is>
       </c>
     </row>
@@ -9291,12 +9291,12 @@
       </c>
       <c r="C384" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://51898</t>
         </is>
       </c>
     </row>
@@ -9313,12 +9313,12 @@
       </c>
       <c r="C385" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://51880, maa://51878</t>
         </is>
       </c>
     </row>
@@ -9335,12 +9335,12 @@
       </c>
       <c r="C386" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://51872, maa://51876</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.05.03 13:20:53</t>
+          <t>更新日期：2025.05.10 13:19:34</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -1552,7 +1552,7 @@
       </c>
       <c r="D32" s="10" t="inlineStr">
         <is>
-          <t>maa://36644, maa://36866, maa://27794, maa://45572, maa://20843, maa://20960, **maa://24483, maa://20862, *maa://20893</t>
+          <t>maa://36644, maa://36866, maa://27794, maa://45572, maa://20960, maa://20843, **maa://24483, maa://20862, *maa://20893</t>
         </is>
       </c>
     </row>
@@ -1591,12 +1591,12 @@
       </c>
       <c r="C34" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D34" s="10" t="inlineStr">
         <is>
-          <t>maa://20916</t>
+          <t>maa://20916, maa://52658</t>
         </is>
       </c>
     </row>
@@ -3224,7 +3224,7 @@
       </c>
       <c r="D108" s="10" t="inlineStr">
         <is>
-          <t>maa://25018, maa://25776, maa://28361, maa://25772, maa://25161, maa://32653, maa://45194, maa://51881</t>
+          <t>maa://25018, maa://25776, maa://28361, maa://25772, maa://51881, maa://32653, maa://25161, maa://45194</t>
         </is>
       </c>
     </row>
@@ -4148,7 +4148,7 @@
       </c>
       <c r="D150" s="10" t="inlineStr">
         <is>
-          <t>maa://51549, **maa://51923</t>
+          <t>maa://51549, maa://51923</t>
         </is>
       </c>
     </row>
@@ -4671,12 +4671,12 @@
       </c>
       <c r="C174" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D174" s="10" t="inlineStr">
         <is>
-          <t>maa://32418</t>
+          <t>maa://32418, maa://51440</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="D196" s="10" t="inlineStr">
         <is>
-          <t>maa://44224, *maa://35854, maa://25760, **maa://20872, maa://50388</t>
+          <t>maa://44224, maa://35854, maa://25760, **maa://20872, maa://50388</t>
         </is>
       </c>
     </row>
@@ -6783,12 +6783,12 @@
       </c>
       <c r="C270" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D270" s="10" t="inlineStr">
         <is>
-          <t>maa://51630, maa://51881</t>
+          <t>maa://51630, maa://51881, maa://51893</t>
         </is>
       </c>
     </row>
@@ -7008,7 +7008,7 @@
       </c>
       <c r="D280" s="10" t="inlineStr">
         <is>
-          <t>*maa://39165</t>
+          <t>**maa://39165</t>
         </is>
       </c>
     </row>
@@ -8592,7 +8592,7 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>maa://49648, *maa://49662</t>
+          <t>maa://49648, **maa://49662</t>
         </is>
       </c>
     </row>
@@ -8724,7 +8724,7 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>maa://40957, maa://44635, maa://41035, maa://41128, maa://48026, maa://44660</t>
+          <t>maa://40957, maa://44635, maa://41035, maa://48026, maa://41128, maa://44660</t>
         </is>
       </c>
     </row>
@@ -9247,12 +9247,12 @@
       </c>
       <c r="C382" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>maa://51907</t>
+          <t>maa://51907, maa://51908</t>
         </is>
       </c>
     </row>
@@ -9335,12 +9335,12 @@
       </c>
       <c r="C386" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>maa://51872, maa://51876</t>
+          <t>maa://51872, maa://51876, maa://51873</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.05.10 13:19:34</t>
+          <t>更新日期：2025.05.11 13:19:54</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -1596,7 +1596,7 @@
       </c>
       <c r="D34" s="10" t="inlineStr">
         <is>
-          <t>maa://20916, maa://52658</t>
+          <t>maa://20916, *maa://52658</t>
         </is>
       </c>
     </row>
@@ -3224,7 +3224,7 @@
       </c>
       <c r="D108" s="10" t="inlineStr">
         <is>
-          <t>maa://25018, maa://25776, maa://28361, maa://25772, maa://51881, maa://32653, maa://25161, maa://45194</t>
+          <t>maa://25018, maa://25776, maa://28361, maa://51881, maa://25772, maa://32653, maa://25161, maa://45194</t>
         </is>
       </c>
     </row>
@@ -3972,7 +3972,7 @@
       </c>
       <c r="D142" s="10" t="inlineStr">
         <is>
-          <t>maa://28484, *maa://31185, maa://30306</t>
+          <t>maa://28484, maa://31185, maa://30306</t>
         </is>
       </c>
     </row>
@@ -5419,12 +5419,12 @@
       </c>
       <c r="C208" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D208" s="10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://53354</t>
         </is>
       </c>
     </row>
@@ -7113,12 +7113,12 @@
       </c>
       <c r="C285" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D285" s="10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://53353</t>
         </is>
       </c>
     </row>
@@ -7531,12 +7531,12 @@
       </c>
       <c r="C304" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D304" s="10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://53352</t>
         </is>
       </c>
     </row>
@@ -7619,12 +7619,12 @@
       </c>
       <c r="C308" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D308" s="10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://53348</t>
         </is>
       </c>
     </row>
@@ -9027,12 +9027,12 @@
       </c>
       <c r="C372" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://53307</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.05.11 13:19:54</t>
+          <t>更新日期：2025.05.13 13:20:58</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -3224,7 +3224,7 @@
       </c>
       <c r="D108" s="10" t="inlineStr">
         <is>
-          <t>maa://25018, maa://25776, maa://28361, maa://51881, maa://25772, maa://32653, maa://25161, maa://45194</t>
+          <t>maa://25018, maa://25776, maa://51881, maa://28361, maa://25772, maa://32653, maa://25161, maa://45194</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="D196" s="10" t="inlineStr">
         <is>
-          <t>maa://44224, maa://35854, maa://25760, **maa://20872, maa://50388</t>
+          <t>maa://44224, maa://35854, maa://25760, maa://50388, **maa://20872</t>
         </is>
       </c>
     </row>
@@ -6788,7 +6788,7 @@
       </c>
       <c r="D270" s="10" t="inlineStr">
         <is>
-          <t>maa://51630, maa://51881, maa://51893</t>
+          <t>maa://51881, maa://51630, maa://51893</t>
         </is>
       </c>
     </row>
@@ -8059,12 +8059,12 @@
       </c>
       <c r="C328" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D328" s="10" t="inlineStr">
         <is>
-          <t>maa://34205</t>
+          <t>maa://34205, **maa://39541</t>
         </is>
       </c>
     </row>
@@ -8592,7 +8592,7 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>maa://49648, **maa://49662</t>
+          <t>maa://49648, *maa://49662</t>
         </is>
       </c>
     </row>
@@ -9076,7 +9076,7 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>maa://42970, maa://44745, maa://45952, *maa://49516, maa://44896</t>
+          <t>maa://42970, maa://44745, *maa://49516, maa://45952, maa://44896</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.05.13 13:20:58</t>
+          <t>更新日期：2025.05.14 13:20:50</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.05.14 13:20:50</t>
+          <t>更新日期：2025.05.17 13:19:59</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -3224,7 +3224,7 @@
       </c>
       <c r="D108" s="10" t="inlineStr">
         <is>
-          <t>maa://25018, maa://25776, maa://51881, maa://28361, maa://25772, maa://32653, maa://25161, maa://45194</t>
+          <t>maa://25018, maa://51881, maa://25776, maa://28361, maa://25772, maa://32653, maa://25161, maa://45194</t>
         </is>
       </c>
     </row>
@@ -4830,7 +4830,7 @@
       </c>
       <c r="D181" s="10" t="inlineStr">
         <is>
-          <t>maa://31560, **maa://20968</t>
+          <t>maa://31560, *maa://20968</t>
         </is>
       </c>
     </row>
@@ -5155,12 +5155,12 @@
       </c>
       <c r="C196" s="12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D196" s="10" t="inlineStr">
         <is>
-          <t>maa://44224, maa://35854, maa://25760, maa://50388, **maa://20872</t>
+          <t>maa://44224, maa://35854, maa://25760, maa://50388, **maa://20872, maa://51066</t>
         </is>
       </c>
     </row>
@@ -5177,12 +5177,12 @@
       </c>
       <c r="C197" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D197" s="10" t="inlineStr">
         <is>
-          <t>maa://39156, *maa://39550</t>
+          <t>maa://39156, *maa://39550, **maa://53417</t>
         </is>
       </c>
     </row>
@@ -6788,7 +6788,7 @@
       </c>
       <c r="D270" s="10" t="inlineStr">
         <is>
-          <t>maa://51881, maa://51630, maa://51893</t>
+          <t>maa://51881, maa://51630, *maa://51893</t>
         </is>
       </c>
     </row>
@@ -7008,7 +7008,7 @@
       </c>
       <c r="D280" s="10" t="inlineStr">
         <is>
-          <t>**maa://39165</t>
+          <t>*maa://39165</t>
         </is>
       </c>
     </row>
@@ -7470,7 +7470,7 @@
       </c>
       <c r="D301" s="10" t="inlineStr">
         <is>
-          <t>maa://49642, maa://50280, maa://49660, maa://50517</t>
+          <t>maa://50280, maa://49642, maa://49660, maa://50517</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.05.17 13:19:59</t>
+          <t>更新日期：2025.05.24 13:19:10</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -1552,7 +1552,7 @@
       </c>
       <c r="D32" s="10" t="inlineStr">
         <is>
-          <t>maa://36644, maa://36866, maa://27794, maa://45572, maa://20960, maa://20843, **maa://24483, maa://20862, *maa://20893</t>
+          <t>maa://36644, maa://36866, maa://45572, maa://27794, maa://20843, maa://20960, **maa://24483, maa://20862, *maa://20893</t>
         </is>
       </c>
     </row>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="D46" s="10" t="inlineStr">
         <is>
-          <t>*maa://39025</t>
+          <t>maa://39025</t>
         </is>
       </c>
     </row>
@@ -2674,7 +2674,7 @@
       </c>
       <c r="D83" s="10" t="inlineStr">
         <is>
-          <t>maa://27794, maa://45572, maa://20960</t>
+          <t>maa://45572, maa://27794, maa://20960</t>
         </is>
       </c>
     </row>
@@ -3070,7 +3070,7 @@
       </c>
       <c r="D101" s="10" t="inlineStr">
         <is>
-          <t>maa://27794, maa://45572, *maa://20893</t>
+          <t>maa://45572, maa://27794, *maa://20893</t>
         </is>
       </c>
     </row>
@@ -3180,7 +3180,7 @@
       </c>
       <c r="D106" s="10" t="inlineStr">
         <is>
-          <t>maa://27794, maa://45572, maa://20843, **maa://24483</t>
+          <t>maa://45572, maa://27794, maa://20843, **maa://24483</t>
         </is>
       </c>
     </row>
@@ -3219,12 +3219,12 @@
       </c>
       <c r="C108" s="12" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D108" s="10" t="inlineStr">
         <is>
-          <t>maa://25018, maa://51881, maa://25776, maa://28361, maa://25772, maa://32653, maa://25161, maa://45194</t>
+          <t>maa://25018, maa://51881, maa://25776, maa://28361, maa://25772, maa://32653, maa://25161, maa://45194, maa://56588</t>
         </is>
       </c>
     </row>
@@ -4126,7 +4126,7 @@
       </c>
       <c r="D149" s="10" t="inlineStr">
         <is>
-          <t>maa://36641, maa://40957, maa://36865, maa://44635, maa://41128, maa://44660, maa://42918, maa://44119, maa://46108, maa://37300, maa://42917</t>
+          <t>maa://36641, maa://40957, maa://36865, maa://44635, maa://44660, maa://41128, maa://42918, maa://44119, maa://46108, maa://37300, maa://42917</t>
         </is>
       </c>
     </row>
@@ -4500,7 +4500,7 @@
       </c>
       <c r="D166" s="10" t="inlineStr">
         <is>
-          <t>maa://20975, maa://30806, **maa://47950</t>
+          <t>maa://20975, maa://30806, *maa://47950</t>
         </is>
       </c>
     </row>
@@ -4522,7 +4522,7 @@
       </c>
       <c r="D167" s="10" t="inlineStr">
         <is>
-          <t>maa://29633, maa://29627, maa://29659, **maa://30679, maa://29861, maa://49074, maa://42343</t>
+          <t>maa://29633, maa://29627, maa://29659, maa://49074, **maa://30679, maa://29861, maa://42343</t>
         </is>
       </c>
     </row>
@@ -5182,7 +5182,7 @@
       </c>
       <c r="D197" s="10" t="inlineStr">
         <is>
-          <t>maa://39156, *maa://39550, **maa://53417</t>
+          <t>maa://39156, *maa://39550, *maa://53417</t>
         </is>
       </c>
     </row>
@@ -5248,7 +5248,7 @@
       </c>
       <c r="D200" s="10" t="inlineStr">
         <is>
-          <t>maa://42223, maa://42292, maa://49077, maa://42402</t>
+          <t>maa://42223, maa://49077, maa://42292, maa://42402</t>
         </is>
       </c>
     </row>
@@ -6370,7 +6370,7 @@
       </c>
       <c r="D251" s="10" t="inlineStr">
         <is>
-          <t>maa://24093, maa://31559, maa://20924, maa://49440</t>
+          <t>maa://24093, maa://31559, maa://20924, *maa://49440</t>
         </is>
       </c>
     </row>
@@ -6392,7 +6392,7 @@
       </c>
       <c r="D252" s="10" t="inlineStr">
         <is>
-          <t>maa://40958, maa://45067</t>
+          <t>maa://40958, *maa://45067</t>
         </is>
       </c>
     </row>
@@ -6436,7 +6436,7 @@
       </c>
       <c r="D254" s="10" t="inlineStr">
         <is>
-          <t>maa://20877, maa://45067, maa://20836, maa://20632</t>
+          <t>maa://20877, *maa://45067, maa://20836, maa://20632</t>
         </is>
       </c>
     </row>
@@ -6783,12 +6783,12 @@
       </c>
       <c r="C270" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D270" s="10" t="inlineStr">
         <is>
-          <t>maa://51881, maa://51630, *maa://51893</t>
+          <t>maa://51881, maa://51630, maa://51893, *maa://55171, maa://56588</t>
         </is>
       </c>
     </row>
@@ -6854,7 +6854,7 @@
       </c>
       <c r="D273" s="10" t="inlineStr">
         <is>
-          <t>*maa://20939</t>
+          <t>maa://20939</t>
         </is>
       </c>
     </row>
@@ -7289,12 +7289,12 @@
       </c>
       <c r="C293" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D293" s="10" t="inlineStr">
         <is>
-          <t>maa://45799</t>
+          <t>maa://45799, maa://57199</t>
         </is>
       </c>
     </row>
@@ -7470,7 +7470,7 @@
       </c>
       <c r="D301" s="10" t="inlineStr">
         <is>
-          <t>maa://50280, maa://49642, maa://49660, maa://50517</t>
+          <t>maa://50280, maa://49642, maa://49660, *maa://50517</t>
         </is>
       </c>
     </row>
@@ -8631,12 +8631,12 @@
       </c>
       <c r="C354" s="12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>maa://36645, maa://36841, maa://37484, maa://37858, maa://40489</t>
+          <t>maa://36645, maa://36841, maa://37484, maa://37858, maa://40489, maa://56268</t>
         </is>
       </c>
     </row>
@@ -8653,12 +8653,12 @@
       </c>
       <c r="C355" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>maa://42635, maa://48859</t>
+          <t>maa://42635, maa://50629, maa://48859</t>
         </is>
       </c>
     </row>
@@ -8724,7 +8724,7 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>maa://40957, maa://44635, maa://41035, maa://48026, maa://41128, maa://44660</t>
+          <t>maa://40957, maa://44635, maa://48026, maa://41035, maa://44660, maa://41128</t>
         </is>
       </c>
     </row>
@@ -9076,7 +9076,7 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>maa://42970, maa://44745, *maa://49516, maa://45952, maa://44896</t>
+          <t>maa://42970, maa://44745, **maa://49516, *maa://45952, maa://44896</t>
         </is>
       </c>
     </row>
@@ -9291,12 +9291,12 @@
       </c>
       <c r="C384" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>maa://51898</t>
+          <t>maa://51898, maa://57241</t>
         </is>
       </c>
     </row>
@@ -9313,12 +9313,12 @@
       </c>
       <c r="C385" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>maa://51880, maa://51878</t>
+          <t>maa://51880, maa://51878, maa://56651</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -463,7 +463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB386"/>
+  <dimension ref="A1:AB392"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.05.24 13:19:10</t>
+          <t>更新日期：2025.06.10 00:49:28</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -1530,7 +1530,7 @@
       </c>
       <c r="D31" s="10" t="inlineStr">
         <is>
-          <t>**maa://39024</t>
+          <t>*maa://39024</t>
         </is>
       </c>
     </row>
@@ -1552,7 +1552,7 @@
       </c>
       <c r="D32" s="10" t="inlineStr">
         <is>
-          <t>maa://36644, maa://36866, maa://45572, maa://27794, maa://20843, maa://20960, **maa://24483, maa://20862, *maa://20893</t>
+          <t>maa://36644, maa://36866, maa://45572, maa://27794, maa://20960, maa://20843, **maa://24483, maa://20862, *maa://20893</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1596,7 @@
       </c>
       <c r="D34" s="10" t="inlineStr">
         <is>
-          <t>maa://20916, *maa://52658</t>
+          <t>maa://20916, maa://52658</t>
         </is>
       </c>
     </row>
@@ -1662,7 +1662,7 @@
       </c>
       <c r="D37" s="10" t="inlineStr">
         <is>
-          <t>maa://27376, maa://42635, **maa://20838</t>
+          <t>maa://27376, maa://42635, *maa://20838</t>
         </is>
       </c>
     </row>
@@ -2300,7 +2300,7 @@
       </c>
       <c r="D66" s="10" t="inlineStr">
         <is>
-          <t>maa://20993, maa://20914, maa://45606, maa://20829, maa://40159, maa://20900</t>
+          <t>maa://20993, maa://45606, maa://20914, maa://20829, maa://20900, maa://40159</t>
         </is>
       </c>
     </row>
@@ -3224,7 +3224,7 @@
       </c>
       <c r="D108" s="10" t="inlineStr">
         <is>
-          <t>maa://25018, maa://51881, maa://25776, maa://28361, maa://25772, maa://32653, maa://25161, maa://45194, maa://56588</t>
+          <t>maa://25018, maa://51881, maa://25776, maa://28361, maa://25772, maa://56588, maa://32653, maa://45194, maa://25161</t>
         </is>
       </c>
     </row>
@@ -3373,12 +3373,12 @@
       </c>
       <c r="C115" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D115" s="10" t="inlineStr">
         <is>
-          <t>maa://20908, maa://35723, *maa://23346, maa://38822</t>
+          <t>maa://20908, maa://35723, *maa://23346, maa://38822, maa://58659</t>
         </is>
       </c>
     </row>
@@ -3642,7 +3642,7 @@
       </c>
       <c r="D127" s="10" t="inlineStr">
         <is>
-          <t>maa://20914, maa://31937, maa://20829</t>
+          <t>maa://20914, *maa://31937, maa://20829</t>
         </is>
       </c>
     </row>
@@ -4302,7 +4302,7 @@
       </c>
       <c r="D157" s="10" t="inlineStr">
         <is>
-          <t>**maa://39149</t>
+          <t>*maa://39149</t>
         </is>
       </c>
     </row>
@@ -4544,7 +4544,7 @@
       </c>
       <c r="D168" s="10" t="inlineStr">
         <is>
-          <t>maa://49655, maa://49867</t>
+          <t>maa://49867, maa://49655</t>
         </is>
       </c>
     </row>
@@ -4649,12 +4649,12 @@
       </c>
       <c r="C173" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D173" s="10" t="inlineStr">
         <is>
-          <t>*maa://20905</t>
+          <t>*maa://20905, maa://52268</t>
         </is>
       </c>
     </row>
@@ -4666,51 +4666,51 @@
       </c>
       <c r="B174" s="15" t="inlineStr">
         <is>
-          <t>MB-EX-3</t>
+          <t>LE-5</t>
         </is>
       </c>
       <c r="C174" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D174" s="10" t="inlineStr">
         <is>
-          <t>maa://32418, maa://51440</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="15" t="inlineStr">
         <is>
-          <t>豆苗</t>
+          <t>山</t>
         </is>
       </c>
       <c r="B175" s="15" t="inlineStr">
         <is>
-          <t>S3-7</t>
+          <t>MB-EX-3</t>
         </is>
       </c>
       <c r="C175" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D175" s="10" t="inlineStr">
         <is>
-          <t>maa://37690</t>
+          <t>maa://32418, maa://51440</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="15" t="inlineStr">
         <is>
-          <t>爱丽丝</t>
+          <t>豆苗</t>
         </is>
       </c>
       <c r="B176" s="15" t="inlineStr">
         <is>
-          <t>2-2</t>
+          <t>S3-7</t>
         </is>
       </c>
       <c r="C176" s="12" t="inlineStr">
@@ -4720,19 +4720,19 @@
       </c>
       <c r="D176" s="10" t="inlineStr">
         <is>
-          <t>maa://20842</t>
+          <t>maa://37690</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="15" t="inlineStr">
         <is>
-          <t>空弦</t>
+          <t>爱丽丝</t>
         </is>
       </c>
       <c r="B177" s="15" t="inlineStr">
         <is>
-          <t>SV-4</t>
+          <t>2-2</t>
         </is>
       </c>
       <c r="C177" s="12" t="inlineStr">
@@ -4742,7 +4742,7 @@
       </c>
       <c r="D177" s="10" t="inlineStr">
         <is>
-          <t>maa://20912</t>
+          <t>maa://20842</t>
         </is>
       </c>
     </row>
@@ -4754,51 +4754,51 @@
       </c>
       <c r="B178" s="15" t="inlineStr">
         <is>
-          <t>2-9</t>
+          <t>SV-4</t>
         </is>
       </c>
       <c r="C178" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D178" s="10" t="inlineStr">
         <is>
-          <t>maa://20911, *maa://29012</t>
+          <t>maa://20912</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="15" t="inlineStr">
         <is>
-          <t>图耶</t>
+          <t>空弦</t>
         </is>
       </c>
       <c r="B179" s="15" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>2-9</t>
         </is>
       </c>
       <c r="C179" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D179" s="10" t="inlineStr">
         <is>
-          <t>maa://20964</t>
+          <t>maa://20911, *maa://29012</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="15" t="inlineStr">
         <is>
-          <t>炎狱炎熔</t>
+          <t>图耶</t>
         </is>
       </c>
       <c r="B180" s="15" t="inlineStr">
         <is>
-          <t>WR-4</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C180" s="12" t="inlineStr">
@@ -4808,51 +4808,51 @@
       </c>
       <c r="D180" s="10" t="inlineStr">
         <is>
-          <t>maa://20983</t>
+          <t>maa://20964</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="15" t="inlineStr">
         <is>
-          <t>乌有</t>
+          <t>炎狱炎熔</t>
         </is>
       </c>
       <c r="B181" s="15" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>WR-4</t>
         </is>
       </c>
       <c r="C181" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D181" s="10" t="inlineStr">
         <is>
-          <t>maa://31560, *maa://20968</t>
+          <t>maa://20983</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="15" t="inlineStr">
         <is>
-          <t>嵯峨</t>
+          <t>乌有</t>
         </is>
       </c>
       <c r="B182" s="15" t="inlineStr">
         <is>
-          <t>WR-3</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C182" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D182" s="10" t="inlineStr">
         <is>
-          <t>maa://28104</t>
+          <t>maa://31560, *maa://20968</t>
         </is>
       </c>
     </row>
@@ -4864,7 +4864,7 @@
       </c>
       <c r="B183" s="15" t="inlineStr">
         <is>
-          <t>WR-1</t>
+          <t>WR-3</t>
         </is>
       </c>
       <c r="C183" s="12" t="inlineStr">
@@ -4874,19 +4874,19 @@
       </c>
       <c r="D183" s="10" t="inlineStr">
         <is>
-          <t>maa://20861</t>
+          <t>maa://28104</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="15" t="inlineStr">
         <is>
-          <t>夕</t>
+          <t>嵯峨</t>
         </is>
       </c>
       <c r="B184" s="15" t="inlineStr">
         <is>
-          <t>1-6</t>
+          <t>WR-1</t>
         </is>
       </c>
       <c r="C184" s="12" t="inlineStr">
@@ -4896,7 +4896,7 @@
       </c>
       <c r="D184" s="10" t="inlineStr">
         <is>
-          <t>maa://20970</t>
+          <t>maa://20861</t>
         </is>
       </c>
     </row>
@@ -4908,51 +4908,51 @@
       </c>
       <c r="B185" s="15" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>1-6</t>
         </is>
       </c>
       <c r="C185" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D185" s="10" t="inlineStr">
         <is>
-          <t>maa://20969, maa://41303</t>
+          <t>maa://20970</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="15" t="inlineStr">
         <is>
-          <t>战车</t>
+          <t>夕</t>
         </is>
       </c>
       <c r="B186" s="15" t="inlineStr">
         <is>
-          <t>S2-3</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C186" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D186" s="10" t="inlineStr">
         <is>
-          <t>maa://20999</t>
+          <t>maa://20969, maa://41303</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="15" t="inlineStr">
         <is>
-          <t>闪击</t>
+          <t>战车</t>
         </is>
       </c>
       <c r="B187" s="15" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>S2-3</t>
         </is>
       </c>
       <c r="C187" s="12" t="inlineStr">
@@ -4962,19 +4962,19 @@
       </c>
       <c r="D187" s="10" t="inlineStr">
         <is>
-          <t>maa://35198</t>
+          <t>maa://20999</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="15" t="inlineStr">
         <is>
-          <t>霜华</t>
+          <t>闪击</t>
         </is>
       </c>
       <c r="B188" s="15" t="inlineStr">
         <is>
-          <t>4-4</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C188" s="12" t="inlineStr">
@@ -4984,29 +4984,29 @@
       </c>
       <c r="D188" s="10" t="inlineStr">
         <is>
-          <t>maa://39153</t>
+          <t>maa://35198</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="15" t="inlineStr">
         <is>
-          <t>灰烬</t>
+          <t>霜华</t>
         </is>
       </c>
       <c r="B189" s="15" t="inlineStr">
         <is>
-          <t>SV-8</t>
+          <t>4-4</t>
         </is>
       </c>
       <c r="C189" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D189" s="10" t="inlineStr">
         <is>
-          <t>maa://34866, maa://34714</t>
+          <t>maa://39153</t>
         </is>
       </c>
     </row>
@@ -5018,7 +5018,7 @@
       </c>
       <c r="B190" s="15" t="inlineStr">
         <is>
-          <t>1-12</t>
+          <t>SV-8</t>
         </is>
       </c>
       <c r="C190" s="12" t="inlineStr">
@@ -5028,41 +5028,41 @@
       </c>
       <c r="D190" s="10" t="inlineStr">
         <is>
-          <t>maa://34883, maa://20895</t>
+          <t>maa://34866, maa://34714</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="15" t="inlineStr">
         <is>
-          <t>暴雨</t>
+          <t>灰烬</t>
         </is>
       </c>
       <c r="B191" s="15" t="inlineStr">
         <is>
-          <t>2-7</t>
+          <t>1-12</t>
         </is>
       </c>
       <c r="C191" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D191" s="10" t="inlineStr">
         <is>
-          <t>maa://20853</t>
+          <t>maa://34883, maa://20895</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="15" t="inlineStr">
         <is>
-          <t>熔泉</t>
+          <t>暴雨</t>
         </is>
       </c>
       <c r="B192" s="15" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>2-7</t>
         </is>
       </c>
       <c r="C192" s="12" t="inlineStr">
@@ -5072,19 +5072,19 @@
       </c>
       <c r="D192" s="10" t="inlineStr">
         <is>
-          <t>maa://20942</t>
+          <t>maa://20853</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="15" t="inlineStr">
         <is>
-          <t>异客</t>
+          <t>熔泉</t>
         </is>
       </c>
       <c r="B193" s="15" t="inlineStr">
         <is>
-          <t>2-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C193" s="12" t="inlineStr">
@@ -5094,7 +5094,7 @@
       </c>
       <c r="D193" s="10" t="inlineStr">
         <is>
-          <t>maa://20992</t>
+          <t>maa://20942</t>
         </is>
       </c>
     </row>
@@ -5106,61 +5106,61 @@
       </c>
       <c r="B194" s="15" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>2-2</t>
         </is>
       </c>
       <c r="C194" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D194" s="10" t="inlineStr">
         <is>
-          <t>*maa://28190, maa://20994</t>
+          <t>maa://20992</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="15" t="inlineStr">
         <is>
-          <t>赤冬</t>
+          <t>异客</t>
         </is>
       </c>
       <c r="B195" s="15" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C195" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D195" s="10" t="inlineStr">
         <is>
-          <t>maa://20860</t>
+          <t>*maa://28190, maa://20994</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="15" t="inlineStr">
         <is>
-          <t>歌蕾蒂娅</t>
+          <t>赤冬</t>
         </is>
       </c>
       <c r="B196" s="15" t="inlineStr">
         <is>
-          <t>SV-EX-5</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C196" s="12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D196" s="10" t="inlineStr">
         <is>
-          <t>maa://44224, maa://35854, maa://25760, maa://50388, **maa://20872, maa://51066</t>
+          <t>maa://20860</t>
         </is>
       </c>
     </row>
@@ -5172,39 +5172,39 @@
       </c>
       <c r="B197" s="15" t="inlineStr">
         <is>
-          <t>SN-EX-3</t>
+          <t>SV-EX-5</t>
         </is>
       </c>
       <c r="C197" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D197" s="10" t="inlineStr">
         <is>
-          <t>maa://39156, *maa://39550, *maa://53417</t>
+          <t>maa://44224, maa://35854, maa://50388, maa://25760, *maa://20872, maa://51066</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="15" t="inlineStr">
         <is>
-          <t>凯尔希</t>
+          <t>歌蕾蒂娅</t>
         </is>
       </c>
       <c r="B198" s="15" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>SN-EX-3</t>
         </is>
       </c>
       <c r="C198" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D198" s="10" t="inlineStr">
         <is>
-          <t>maa://27823, *maa://28190, maa://22894, *maa://20906</t>
+          <t>maa://39156, *maa://39550, *maa://53417</t>
         </is>
       </c>
     </row>
@@ -5233,12 +5233,12 @@
     <row r="200">
       <c r="A200" s="15" t="inlineStr">
         <is>
-          <t>浊心斯卡蒂</t>
+          <t>凯尔希</t>
         </is>
       </c>
       <c r="B200" s="15" t="inlineStr">
         <is>
-          <t>SV-5</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C200" s="12" t="inlineStr">
@@ -5248,14 +5248,14 @@
       </c>
       <c r="D200" s="10" t="inlineStr">
         <is>
-          <t>maa://42223, maa://49077, maa://42292, maa://42402</t>
+          <t>maa://27823, *maa://28190, maa://22894, *maa://20906</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="15" t="inlineStr">
         <is>
-          <t>深靛</t>
+          <t>浊心斯卡蒂</t>
         </is>
       </c>
       <c r="B201" s="15" t="inlineStr">
@@ -5265,24 +5265,24 @@
       </c>
       <c r="C201" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D201" s="10" t="inlineStr">
         <is>
-          <t>maa://39154</t>
+          <t>maa://42223, maa://49077, maa://42292, maa://42402</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="15" t="inlineStr">
         <is>
-          <t>贝娜</t>
+          <t>深靛</t>
         </is>
       </c>
       <c r="B202" s="15" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>SV-5</t>
         </is>
       </c>
       <c r="C202" s="12" t="inlineStr">
@@ -5292,19 +5292,19 @@
       </c>
       <c r="D202" s="10" t="inlineStr">
         <is>
-          <t>maa://20854</t>
+          <t>maa://39154</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="15" t="inlineStr">
         <is>
-          <t>绮良</t>
+          <t>贝娜</t>
         </is>
       </c>
       <c r="B203" s="15" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="C203" s="12" t="inlineStr">
@@ -5314,19 +5314,19 @@
       </c>
       <c r="D203" s="10" t="inlineStr">
         <is>
-          <t>maa://20937</t>
+          <t>maa://20854</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="15" t="inlineStr">
         <is>
-          <t>卡涅利安</t>
+          <t>绮良</t>
         </is>
       </c>
       <c r="B204" s="15" t="inlineStr">
         <is>
-          <t>7-3</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C204" s="12" t="inlineStr">
@@ -5336,7 +5336,7 @@
       </c>
       <c r="D204" s="10" t="inlineStr">
         <is>
-          <t>maa://22468</t>
+          <t>maa://20937</t>
         </is>
       </c>
     </row>
@@ -5348,39 +5348,39 @@
       </c>
       <c r="B205" s="15" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>7-3</t>
         </is>
       </c>
       <c r="C205" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D205" s="10" t="inlineStr">
         <is>
-          <t>maa://30673, maa://30672</t>
+          <t>maa://22468</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="15" t="inlineStr">
         <is>
-          <t>帕拉斯</t>
+          <t>卡涅利安</t>
         </is>
       </c>
       <c r="B206" s="15" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C206" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D206" s="13" t="inlineStr">
         <is>
-          <t>maa://20934, maa://20827, maa://20828</t>
+          <t>maa://30673, maa://30672</t>
         </is>
       </c>
     </row>
@@ -5392,29 +5392,29 @@
       </c>
       <c r="B207" s="15" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="C207" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D207" s="10" t="inlineStr">
         <is>
-          <t>maa://20935</t>
+          <t>maa://20934, maa://20827, maa://20828</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="15" t="inlineStr">
         <is>
-          <t>龙舌兰</t>
+          <t>帕拉斯</t>
         </is>
       </c>
       <c r="B208" s="15" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C208" s="12" t="inlineStr">
@@ -5424,51 +5424,51 @@
       </c>
       <c r="D208" s="10" t="inlineStr">
         <is>
-          <t>maa://53354</t>
+          <t>maa://20935</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="15" t="inlineStr">
         <is>
-          <t>羽毛笔</t>
+          <t>龙舌兰</t>
         </is>
       </c>
       <c r="B209" s="15" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="C209" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D209" s="10" t="inlineStr">
         <is>
-          <t>maa://28133, maa://25369</t>
+          <t>maa://53354</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="15" t="inlineStr">
         <is>
-          <t>水月</t>
+          <t>羽毛笔</t>
         </is>
       </c>
       <c r="B210" s="15" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C210" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D210" s="10" t="inlineStr">
         <is>
-          <t>maa://20956, *maa://20830, maa://44703</t>
+          <t>maa://28133, maa://25369</t>
         </is>
       </c>
     </row>
@@ -5480,29 +5480,29 @@
       </c>
       <c r="B211" s="15" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C211" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D211" s="10" t="inlineStr">
         <is>
-          <t>*maa://20955</t>
+          <t>maa://20956, *maa://20830, maa://44703</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="15" t="inlineStr">
         <is>
-          <t>假日威龙陈</t>
+          <t>水月</t>
         </is>
       </c>
       <c r="B212" s="15" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="C212" s="12" t="inlineStr">
@@ -5512,19 +5512,19 @@
       </c>
       <c r="D212" s="10" t="inlineStr">
         <is>
-          <t>maa://39238</t>
+          <t>*maa://20955</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="15" t="inlineStr">
         <is>
-          <t>罗比菈塔</t>
+          <t>假日威龙陈</t>
         </is>
       </c>
       <c r="B213" s="15" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="C213" s="12" t="inlineStr">
@@ -5534,19 +5534,19 @@
       </c>
       <c r="D213" s="10" t="inlineStr">
         <is>
-          <t>maa://45261</t>
+          <t>maa://39238</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="15" t="inlineStr">
         <is>
-          <t>桑葚</t>
+          <t>罗比菈塔</t>
         </is>
       </c>
       <c r="B214" s="15" t="inlineStr">
         <is>
-          <t>SV-5</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C214" s="12" t="inlineStr">
@@ -5556,29 +5556,29 @@
       </c>
       <c r="D214" s="10" t="inlineStr">
         <is>
-          <t>maa://39694</t>
+          <t>maa://45261</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="15" t="inlineStr">
         <is>
-          <t>琴柳</t>
+          <t>桑葚</t>
         </is>
       </c>
       <c r="B215" s="15" t="inlineStr">
         <is>
-          <t>9-2</t>
+          <t>SV-5</t>
         </is>
       </c>
       <c r="C215" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D215" s="10" t="inlineStr">
         <is>
-          <t>maa://24636, maa://25778</t>
+          <t>maa://39694</t>
         </is>
       </c>
     </row>
@@ -5590,29 +5590,29 @@
       </c>
       <c r="B216" s="15" t="inlineStr">
         <is>
-          <t>5-3</t>
+          <t>9-2</t>
         </is>
       </c>
       <c r="C216" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D216" s="10" t="inlineStr">
         <is>
-          <t>maa://48261</t>
+          <t>maa://24636, maa://25778</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="15" t="inlineStr">
         <is>
-          <t>灰毫</t>
+          <t>琴柳</t>
         </is>
       </c>
       <c r="B217" s="15" t="inlineStr">
         <is>
-          <t>7-9</t>
+          <t>5-3</t>
         </is>
       </c>
       <c r="C217" s="12" t="inlineStr">
@@ -5622,29 +5622,29 @@
       </c>
       <c r="D217" s="10" t="inlineStr">
         <is>
-          <t>*maa://39157</t>
+          <t>maa://48261</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="15" t="inlineStr">
         <is>
-          <t>远牙</t>
+          <t>灰毫</t>
         </is>
       </c>
       <c r="B218" s="15" t="inlineStr">
         <is>
-          <t>S2-2</t>
+          <t>7-9</t>
         </is>
       </c>
       <c r="C218" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D218" s="10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>*maa://39157</t>
         </is>
       </c>
     </row>
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B219" s="15" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>S2-2</t>
         </is>
       </c>
       <c r="C219" s="12" t="inlineStr">
@@ -5666,19 +5666,19 @@
       </c>
       <c r="D219" s="10" t="inlineStr">
         <is>
-          <t>maa://26499</t>
+          <t>**maa://20995</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="15" t="inlineStr">
         <is>
-          <t>布丁</t>
+          <t>远牙</t>
         </is>
       </c>
       <c r="B220" s="15" t="inlineStr">
         <is>
-          <t>2-10</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C220" s="12" t="inlineStr">
@@ -5688,19 +5688,19 @@
       </c>
       <c r="D220" s="10" t="inlineStr">
         <is>
-          <t>maa://20858</t>
+          <t>maa://26499</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="15" t="inlineStr">
         <is>
-          <t>蜜莓</t>
+          <t>布丁</t>
         </is>
       </c>
       <c r="B221" s="15" t="inlineStr">
         <is>
-          <t>GA-2</t>
+          <t>2-10</t>
         </is>
       </c>
       <c r="C221" s="12" t="inlineStr">
@@ -5710,19 +5710,19 @@
       </c>
       <c r="D221" s="10" t="inlineStr">
         <is>
-          <t>maa://39695</t>
+          <t>maa://20858</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="15" t="inlineStr">
         <is>
-          <t>野鬃</t>
+          <t>蜜莓</t>
         </is>
       </c>
       <c r="B222" s="15" t="inlineStr">
         <is>
-          <t>MN-2</t>
+          <t>GA-2</t>
         </is>
       </c>
       <c r="C222" s="12" t="inlineStr">
@@ -5732,19 +5732,19 @@
       </c>
       <c r="D222" s="10" t="inlineStr">
         <is>
-          <t>maa://20988</t>
+          <t>maa://39695</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="15" t="inlineStr">
         <is>
-          <t>蚀清</t>
+          <t>野鬃</t>
         </is>
       </c>
       <c r="B223" s="15" t="inlineStr">
         <is>
-          <t>BI-6</t>
+          <t>MN-2</t>
         </is>
       </c>
       <c r="C223" s="12" t="inlineStr">
@@ -5754,29 +5754,29 @@
       </c>
       <c r="D223" s="10" t="inlineStr">
         <is>
-          <t>maa://39158</t>
+          <t>maa://20988</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="15" t="inlineStr">
         <is>
-          <t>焰尾</t>
+          <t>蚀清</t>
         </is>
       </c>
       <c r="B224" s="15" t="inlineStr">
         <is>
-          <t>NL-5</t>
+          <t>BI-6</t>
         </is>
       </c>
       <c r="C224" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D224" s="10" t="inlineStr">
         <is>
-          <t>maa://28187, maa://43531, maa://39520</t>
+          <t>maa://39158</t>
         </is>
       </c>
     </row>
@@ -5788,39 +5788,39 @@
       </c>
       <c r="B225" s="15" t="inlineStr">
         <is>
-          <t>NL-3</t>
+          <t>NL-5</t>
         </is>
       </c>
       <c r="C225" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D225" s="10" t="inlineStr">
         <is>
-          <t>maa://20985</t>
+          <t>maa://28187, maa://43531, maa://39520</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="15" t="inlineStr">
         <is>
-          <t>耀骑士临光</t>
+          <t>焰尾</t>
         </is>
       </c>
       <c r="B226" s="15" t="inlineStr">
         <is>
-          <t>MN-8</t>
+          <t>NL-3</t>
         </is>
       </c>
       <c r="C226" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D226" s="10" t="inlineStr">
         <is>
-          <t>maa://20987, *maa://35801</t>
+          <t>maa://20985</t>
         </is>
       </c>
     </row>
@@ -5832,7 +5832,7 @@
       </c>
       <c r="B227" s="15" t="inlineStr">
         <is>
-          <t>NL-10</t>
+          <t>MN-8</t>
         </is>
       </c>
       <c r="C227" s="12" t="inlineStr">
@@ -5842,41 +5842,41 @@
       </c>
       <c r="D227" s="10" t="inlineStr">
         <is>
-          <t>*maa://29644, maa://39159</t>
+          <t>maa://20987, *maa://35801</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="15" t="inlineStr">
         <is>
-          <t>耶拉</t>
+          <t>耀骑士临光</t>
         </is>
       </c>
       <c r="B228" s="15" t="inlineStr">
         <is>
-          <t>BI-7</t>
+          <t>NL-10</t>
         </is>
       </c>
       <c r="C228" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D228" s="10" t="inlineStr">
         <is>
-          <t>maa://30677</t>
+          <t>*maa://29644, maa://39159</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="15" t="inlineStr">
         <is>
-          <t>极光</t>
+          <t>耶拉</t>
         </is>
       </c>
       <c r="B229" s="15" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>BI-7</t>
         </is>
       </c>
       <c r="C229" s="12" t="inlineStr">
@@ -5886,29 +5886,29 @@
       </c>
       <c r="D229" s="10" t="inlineStr">
         <is>
-          <t>maa://20896</t>
+          <t>maa://30677</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="15" t="inlineStr">
         <is>
-          <t>灵知</t>
+          <t>极光</t>
         </is>
       </c>
       <c r="B230" s="15" t="inlineStr">
         <is>
-          <t>BI-7</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C230" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D230" s="10" t="inlineStr">
         <is>
-          <t>maa://29058, maa://39140, maa://38723</t>
+          <t>maa://20896</t>
         </is>
       </c>
     </row>
@@ -5920,29 +5920,29 @@
       </c>
       <c r="B231" s="15" t="inlineStr">
         <is>
-          <t>5-6</t>
+          <t>BI-7</t>
         </is>
       </c>
       <c r="C231" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D231" s="10" t="inlineStr">
         <is>
-          <t>*maa://48263</t>
+          <t>maa://29058, maa://39140, maa://38723</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="15" t="inlineStr">
         <is>
-          <t>九色鹿</t>
+          <t>灵知</t>
         </is>
       </c>
       <c r="B232" s="15" t="inlineStr">
         <is>
-          <t>IW-3</t>
+          <t>5-6</t>
         </is>
       </c>
       <c r="C232" s="12" t="inlineStr">
@@ -5952,19 +5952,19 @@
       </c>
       <c r="D232" s="10" t="inlineStr">
         <is>
-          <t>maa://39160</t>
+          <t>*maa://48263</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="15" t="inlineStr">
         <is>
-          <t>寒芒克洛丝</t>
+          <t>九色鹿</t>
         </is>
       </c>
       <c r="B233" s="15" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>IW-3</t>
         </is>
       </c>
       <c r="C233" s="12" t="inlineStr">
@@ -5974,19 +5974,19 @@
       </c>
       <c r="D233" s="10" t="inlineStr">
         <is>
-          <t>maa://49491</t>
+          <t>maa://39160</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="15" t="inlineStr">
         <is>
-          <t>夜半</t>
+          <t>寒芒克洛丝</t>
         </is>
       </c>
       <c r="B234" s="15" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C234" s="12" t="inlineStr">
@@ -5996,14 +5996,14 @@
       </c>
       <c r="D234" s="10" t="inlineStr">
         <is>
-          <t>maa://35952</t>
+          <t>maa://49491</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="15" t="inlineStr">
         <is>
-          <t>老鲤</t>
+          <t>夜半</t>
         </is>
       </c>
       <c r="B235" s="15" t="inlineStr">
@@ -6018,7 +6018,7 @@
       </c>
       <c r="D235" s="10" t="inlineStr">
         <is>
-          <t>maa://20917</t>
+          <t>maa://35952</t>
         </is>
       </c>
     </row>
@@ -6030,117 +6030,117 @@
       </c>
       <c r="B236" s="15" t="inlineStr">
         <is>
-          <t>IW-EX-1</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C236" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D236" s="10" t="inlineStr">
         <is>
-          <t>maa://30714, maa://30675</t>
+          <t>maa://20917</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="15" t="inlineStr">
         <is>
-          <t>令</t>
+          <t>老鲤</t>
         </is>
       </c>
       <c r="B237" s="15" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>IW-EX-1</t>
         </is>
       </c>
       <c r="C237" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D237" s="13" t="inlineStr">
         <is>
-          <t>maa://20922, *maa://32623, maa://34242</t>
+          <t>maa://30714, maa://30675</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="15" t="inlineStr">
         <is>
-          <t>夏栎</t>
+          <t>令</t>
         </is>
       </c>
       <c r="B238" s="15" t="inlineStr">
         <is>
-          <t>9-2</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C238" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D238" s="10" t="inlineStr">
         <is>
-          <t>maa://32999</t>
+          <t>maa://20922, *maa://32623, maa://34242</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="15" t="inlineStr">
         <is>
-          <t>澄闪</t>
+          <t>夏栎</t>
         </is>
       </c>
       <c r="B239" s="15" t="inlineStr">
         <is>
-          <t>R8-8</t>
+          <t>9-2</t>
         </is>
       </c>
       <c r="C239" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D239" s="10" t="inlineStr">
         <is>
-          <t>*maa://30667, maa://30666, *maa://30723, maa://39588</t>
+          <t>maa://32999</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="15" t="inlineStr">
         <is>
-          <t>见行者</t>
+          <t>澄闪</t>
         </is>
       </c>
       <c r="B240" s="15" t="inlineStr">
         <is>
-          <t>GA-EX-1</t>
+          <t>R8-8</t>
         </is>
       </c>
       <c r="C240" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D240" s="10" t="inlineStr">
         <is>
-          <t>maa://30512</t>
+          <t>*maa://30667, maa://30666, *maa://30723, maa://39588</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="15" t="inlineStr">
         <is>
-          <t>风丸</t>
+          <t>见行者</t>
         </is>
       </c>
       <c r="B241" s="15" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>GA-EX-1</t>
         </is>
       </c>
       <c r="C241" s="12" t="inlineStr">
@@ -6150,19 +6150,19 @@
       </c>
       <c r="D241" s="10" t="inlineStr">
         <is>
-          <t>maa://20870</t>
+          <t>maa://30512</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="15" t="inlineStr">
         <is>
-          <t>菲亚梅塔</t>
+          <t>风丸</t>
         </is>
       </c>
       <c r="B242" s="15" t="inlineStr">
         <is>
-          <t>GA-4</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C242" s="12" t="inlineStr">
@@ -6172,7 +6172,7 @@
       </c>
       <c r="D242" s="10" t="inlineStr">
         <is>
-          <t>maa://29024</t>
+          <t>maa://20870</t>
         </is>
       </c>
     </row>
@@ -6184,51 +6184,51 @@
       </c>
       <c r="B243" s="15" t="inlineStr">
         <is>
-          <t>S5-9</t>
+          <t>GA-4</t>
         </is>
       </c>
       <c r="C243" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D243" s="10" t="inlineStr">
         <is>
-          <t>maa://20867, maa://38485, *maa://32202</t>
+          <t>maa://29024</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="15" t="inlineStr">
         <is>
-          <t>褐果</t>
+          <t>菲亚梅塔</t>
         </is>
       </c>
       <c r="B244" s="15" t="inlineStr">
         <is>
-          <t>SV-3</t>
+          <t>S5-9</t>
         </is>
       </c>
       <c r="C244" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D244" s="13" t="inlineStr">
         <is>
-          <t>maa://40160</t>
+          <t>maa://20867, maa://38485, *maa://32202</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="15" t="inlineStr">
         <is>
-          <t>海蒂</t>
+          <t>褐果</t>
         </is>
       </c>
       <c r="B245" s="15" t="inlineStr">
         <is>
-          <t>9-7</t>
+          <t>SV-3</t>
         </is>
       </c>
       <c r="C245" s="12" t="inlineStr">
@@ -6238,19 +6238,19 @@
       </c>
       <c r="D245" s="10" t="inlineStr">
         <is>
-          <t>maa://43089</t>
+          <t>maa://40160</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="15" t="inlineStr">
         <is>
-          <t>洛洛</t>
+          <t>海蒂</t>
         </is>
       </c>
       <c r="B246" s="15" t="inlineStr">
         <is>
-          <t>RI-EX-4</t>
+          <t>9-7</t>
         </is>
       </c>
       <c r="C246" s="12" t="inlineStr">
@@ -6260,29 +6260,29 @@
       </c>
       <c r="D246" s="10" t="inlineStr">
         <is>
-          <t>maa://30674</t>
+          <t>maa://43089</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="15" t="inlineStr">
         <is>
-          <t>号角</t>
+          <t>洛洛</t>
         </is>
       </c>
       <c r="B247" s="15" t="inlineStr">
         <is>
-          <t>7-15</t>
+          <t>RI-EX-4</t>
         </is>
       </c>
       <c r="C247" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D247" s="10" t="inlineStr">
         <is>
-          <t>maa://28923, maa://28906</t>
+          <t>maa://30674</t>
         </is>
       </c>
     </row>
@@ -6294,51 +6294,51 @@
       </c>
       <c r="B248" s="15" t="inlineStr">
         <is>
-          <t>9-5</t>
+          <t>7-15</t>
         </is>
       </c>
       <c r="C248" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D248" s="10" t="inlineStr">
         <is>
-          <t>maa://42287, maa://45570, maa://42225</t>
+          <t>maa://28923, maa://28906</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="15" t="inlineStr">
         <is>
-          <t>掠风</t>
+          <t>号角</t>
         </is>
       </c>
       <c r="B249" s="15" t="inlineStr">
         <is>
-          <t>11-9</t>
+          <t>9-5</t>
         </is>
       </c>
       <c r="C249" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D249" s="13" t="inlineStr">
         <is>
-          <t>maa://39161</t>
+          <t>maa://42287, maa://45570, maa://42225</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="15" t="inlineStr">
         <is>
-          <t>流明</t>
+          <t>掠风</t>
         </is>
       </c>
       <c r="B250" s="15" t="inlineStr">
         <is>
-          <t>6-9</t>
+          <t>11-9</t>
         </is>
       </c>
       <c r="C250" s="12" t="inlineStr">
@@ -6348,7 +6348,7 @@
       </c>
       <c r="D250" s="10" t="inlineStr">
         <is>
-          <t>maa://20923</t>
+          <t>maa://39161</t>
         </is>
       </c>
     </row>
@@ -6360,39 +6360,39 @@
       </c>
       <c r="B251" s="15" t="inlineStr">
         <is>
-          <t>OF-5</t>
+          <t>6-9</t>
         </is>
       </c>
       <c r="C251" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D251" s="10" t="inlineStr">
         <is>
-          <t>maa://24093, maa://31559, maa://20924, *maa://49440</t>
+          <t>maa://20923</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="15" t="inlineStr">
         <is>
-          <t>艾丽妮</t>
+          <t>流明</t>
         </is>
       </c>
       <c r="B252" s="15" t="inlineStr">
         <is>
-          <t>SV-EX-1</t>
+          <t>OF-5</t>
         </is>
       </c>
       <c r="C252" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D252" s="10" t="inlineStr">
         <is>
-          <t>maa://40958, *maa://45067</t>
+          <t>maa://24093, maa://31559, maa://20924, *maa://49440</t>
         </is>
       </c>
     </row>
@@ -6404,39 +6404,39 @@
       </c>
       <c r="B253" s="15" t="inlineStr">
         <is>
-          <t>SV-4</t>
+          <t>SV-EX-1</t>
         </is>
       </c>
       <c r="C253" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D253" s="10" t="inlineStr">
         <is>
-          <t>maa://20840</t>
+          <t>maa://40958, *maa://45067</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="15" t="inlineStr">
         <is>
-          <t>归溟幽灵鲨</t>
+          <t>艾丽妮</t>
         </is>
       </c>
       <c r="B254" s="15" t="inlineStr">
         <is>
-          <t>SV-EX-1</t>
+          <t>SV-4</t>
         </is>
       </c>
       <c r="C254" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D254" s="10" t="inlineStr">
         <is>
-          <t>maa://20877, *maa://45067, maa://20836, maa://20632</t>
+          <t>maa://20840</t>
         </is>
       </c>
     </row>
@@ -6448,51 +6448,51 @@
       </c>
       <c r="B255" s="15" t="inlineStr">
         <is>
-          <t>S4-1</t>
+          <t>SV-EX-1</t>
         </is>
       </c>
       <c r="C255" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D255" s="10" t="inlineStr">
         <is>
-          <t>maa://20879, maa://20834</t>
+          <t>maa://20877, *maa://45067, maa://20836, maa://20632</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="15" t="inlineStr">
         <is>
-          <t>埃拉托</t>
+          <t>归溟幽灵鲨</t>
         </is>
       </c>
       <c r="B256" s="15" t="inlineStr">
         <is>
-          <t>S5-9</t>
+          <t>S4-1</t>
         </is>
       </c>
       <c r="C256" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D256" s="10" t="inlineStr">
         <is>
-          <t>maa://20839</t>
+          <t>maa://20879, maa://20834</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="15" t="inlineStr">
         <is>
-          <t>濯尘芙蓉</t>
+          <t>埃拉托</t>
         </is>
       </c>
       <c r="B257" s="15" t="inlineStr">
         <is>
-          <t>LE-4</t>
+          <t>S5-9</t>
         </is>
       </c>
       <c r="C257" s="12" t="inlineStr">
@@ -6502,29 +6502,29 @@
       </c>
       <c r="D257" s="10" t="inlineStr">
         <is>
-          <t>maa://30676</t>
+          <t>maa://20839</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="15" t="inlineStr">
         <is>
-          <t>黑键</t>
+          <t>濯尘芙蓉</t>
         </is>
       </c>
       <c r="B258" s="15" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>LE-4</t>
         </is>
       </c>
       <c r="C258" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D258" s="10" t="inlineStr">
         <is>
-          <t>maa://31560, maa://20884</t>
+          <t>maa://30676</t>
         </is>
       </c>
     </row>
@@ -6536,17 +6536,17 @@
       </c>
       <c r="B259" s="15" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C259" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D259" s="10" t="inlineStr">
         <is>
-          <t>maa://47204</t>
+          <t>maa://31560, maa://20884</t>
         </is>
       </c>
     </row>
@@ -6558,7 +6558,7 @@
       </c>
       <c r="B260" s="15" t="inlineStr">
         <is>
-          <t>11-12</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="C260" s="12" t="inlineStr">
@@ -6568,19 +6568,19 @@
       </c>
       <c r="D260" s="10" t="inlineStr">
         <is>
-          <t>maa://29027</t>
+          <t>maa://47204</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="15" t="inlineStr">
         <is>
-          <t>星源</t>
+          <t>黑键</t>
         </is>
       </c>
       <c r="B261" s="15" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>11-12</t>
         </is>
       </c>
       <c r="C261" s="12" t="inlineStr">
@@ -6590,19 +6590,19 @@
       </c>
       <c r="D261" s="10" t="inlineStr">
         <is>
-          <t>maa://20977</t>
+          <t>maa://29027</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="15" t="inlineStr">
         <is>
-          <t>承曦格雷伊</t>
+          <t>星源</t>
         </is>
       </c>
       <c r="B262" s="15" t="inlineStr">
         <is>
-          <t>1-3</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C262" s="12" t="inlineStr">
@@ -6612,19 +6612,19 @@
       </c>
       <c r="D262" s="10" t="inlineStr">
         <is>
-          <t>maa://39162</t>
+          <t>maa://20977</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="15" t="inlineStr">
         <is>
-          <t>多萝西</t>
+          <t>承曦格雷伊</t>
         </is>
       </c>
       <c r="B263" s="15" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>1-3</t>
         </is>
       </c>
       <c r="C263" s="12" t="inlineStr">
@@ -6634,19 +6634,19 @@
       </c>
       <c r="D263" s="10" t="inlineStr">
         <is>
-          <t>maa://22467</t>
+          <t>maa://39162</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="15" t="inlineStr">
         <is>
-          <t>至简</t>
+          <t>多萝西</t>
         </is>
       </c>
       <c r="B264" s="15" t="inlineStr">
         <is>
-          <t>IC-8</t>
+          <t>MB-EX-1</t>
         </is>
       </c>
       <c r="C264" s="12" t="inlineStr">
@@ -6663,12 +6663,12 @@
     <row r="265">
       <c r="A265" s="15" t="inlineStr">
         <is>
-          <t>晓歌</t>
+          <t>多萝西</t>
         </is>
       </c>
       <c r="B265" s="15" t="inlineStr">
         <is>
-          <t>5-3</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="C265" s="12" t="inlineStr">
@@ -6678,63 +6678,63 @@
       </c>
       <c r="D265" s="10" t="inlineStr">
         <is>
-          <t>maa://49643</t>
+          <t>maa://22467</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="15" t="inlineStr">
         <is>
-          <t>鸿雪</t>
+          <t>至简</t>
         </is>
       </c>
       <c r="B266" s="15" t="inlineStr">
         <is>
-          <t>9-7</t>
+          <t>IC-8</t>
         </is>
       </c>
       <c r="C266" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D266" s="10" t="inlineStr">
         <is>
-          <t>maa://48265</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="15" t="inlineStr">
         <is>
-          <t>鸿雪</t>
+          <t>晓歌</t>
         </is>
       </c>
       <c r="B267" s="15" t="inlineStr">
         <is>
-          <t>2-10</t>
+          <t>5-3</t>
         </is>
       </c>
       <c r="C267" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D267" s="10" t="inlineStr">
         <is>
-          <t>*maa://20825, *maa://21445, *maa://35726</t>
+          <t>maa://49643</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="15" t="inlineStr">
         <is>
-          <t>百炼嘉维尔</t>
+          <t>鸿雪</t>
         </is>
       </c>
       <c r="B268" s="15" t="inlineStr">
         <is>
-          <t>9-2</t>
+          <t>9-7</t>
         </is>
       </c>
       <c r="C268" s="12" t="inlineStr">
@@ -6744,63 +6744,63 @@
       </c>
       <c r="D268" s="10" t="inlineStr">
         <is>
-          <t>maa://25769</t>
+          <t>maa://48265</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="15" t="inlineStr">
         <is>
-          <t>但书</t>
+          <t>鸿雪</t>
         </is>
       </c>
       <c r="B269" s="15" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>2-10</t>
         </is>
       </c>
       <c r="C269" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D269" s="10" t="inlineStr">
         <is>
-          <t>maa://20862</t>
+          <t>*maa://20825, *maa://21445, *maa://35726</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="15" t="inlineStr">
         <is>
-          <t>玛恩纳</t>
+          <t>百炼嘉维尔</t>
         </is>
       </c>
       <c r="B270" s="15" t="inlineStr">
         <is>
-          <t>11-15</t>
+          <t>9-2</t>
         </is>
       </c>
       <c r="C270" s="12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D270" s="10" t="inlineStr">
         <is>
-          <t>maa://51881, maa://51630, maa://51893, *maa://55171, maa://56588</t>
+          <t>maa://25769</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="15" t="inlineStr">
         <is>
-          <t>罗小黑</t>
+          <t>但书</t>
         </is>
       </c>
       <c r="B271" s="15" t="inlineStr">
         <is>
-          <t>IW-4</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="C271" s="12" t="inlineStr">
@@ -6810,41 +6810,41 @@
       </c>
       <c r="D271" s="10" t="inlineStr">
         <is>
-          <t>maa://39163</t>
+          <t>maa://20862</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="15" t="inlineStr">
         <is>
-          <t>海沫</t>
+          <t>玛恩纳</t>
         </is>
       </c>
       <c r="B272" s="15" t="inlineStr">
         <is>
-          <t>SN-2</t>
+          <t>11-15</t>
         </is>
       </c>
       <c r="C272" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D272" s="10" t="inlineStr">
         <is>
-          <t>maa://29061</t>
+          <t>maa://51881, maa://51630, maa://56588, *maa://55171, maa://51893</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="15" t="inlineStr">
         <is>
-          <t>铅踝</t>
+          <t>罗小黑</t>
         </is>
       </c>
       <c r="B273" s="15" t="inlineStr">
         <is>
-          <t>S3-5</t>
+          <t>IW-4</t>
         </is>
       </c>
       <c r="C273" s="12" t="inlineStr">
@@ -6854,19 +6854,19 @@
       </c>
       <c r="D273" s="10" t="inlineStr">
         <is>
-          <t>maa://20939</t>
+          <t>maa://39163</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="15" t="inlineStr">
         <is>
-          <t>达格达</t>
+          <t>海沫</t>
         </is>
       </c>
       <c r="B274" s="15" t="inlineStr">
         <is>
-          <t>11-5</t>
+          <t>SN-2</t>
         </is>
       </c>
       <c r="C274" s="12" t="inlineStr">
@@ -6876,41 +6876,41 @@
       </c>
       <c r="D274" s="10" t="inlineStr">
         <is>
-          <t>maa://39164</t>
+          <t>maa://29061</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="15" t="inlineStr">
         <is>
-          <t>白铁</t>
+          <t>铅踝</t>
         </is>
       </c>
       <c r="B275" s="15" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>S3-5</t>
         </is>
       </c>
       <c r="C275" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D275" s="10" t="inlineStr">
         <is>
-          <t>maa://28133, maa://33394</t>
+          <t>maa://20939</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="15" t="inlineStr">
         <is>
-          <t>白铁</t>
+          <t>达格达</t>
         </is>
       </c>
       <c r="B276" s="15" t="inlineStr">
         <is>
-          <t>9-6</t>
+          <t>11-5</t>
         </is>
       </c>
       <c r="C276" s="12" t="inlineStr">
@@ -6920,41 +6920,41 @@
       </c>
       <c r="D276" s="10" t="inlineStr">
         <is>
-          <t>maa://42311</t>
+          <t>maa://39164</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="15" t="inlineStr">
         <is>
-          <t>石英</t>
+          <t>白铁</t>
         </is>
       </c>
       <c r="B277" s="15" t="inlineStr">
         <is>
-          <t>DH-4</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C277" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D277" s="10" t="inlineStr">
         <is>
-          <t>maa://41362</t>
+          <t>maa://28133, maa://33394</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="15" t="inlineStr">
         <is>
-          <t>雪绒</t>
+          <t>白铁</t>
         </is>
       </c>
       <c r="B278" s="15" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>9-6</t>
         </is>
       </c>
       <c r="C278" s="12" t="inlineStr">
@@ -6964,19 +6964,19 @@
       </c>
       <c r="D278" s="10" t="inlineStr">
         <is>
-          <t>maa://20978</t>
+          <t>maa://42311</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="15" t="inlineStr">
         <is>
-          <t>子月</t>
+          <t>石英</t>
         </is>
       </c>
       <c r="B279" s="15" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>DH-4</t>
         </is>
       </c>
       <c r="C279" s="12" t="inlineStr">
@@ -6986,19 +6986,19 @@
       </c>
       <c r="D279" s="10" t="inlineStr">
         <is>
-          <t>maa://21002</t>
+          <t>maa://41362</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="15" t="inlineStr">
         <is>
-          <t>伺夜</t>
+          <t>雪绒</t>
         </is>
       </c>
       <c r="B280" s="15" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="C280" s="12" t="inlineStr">
@@ -7008,41 +7008,41 @@
       </c>
       <c r="D280" s="10" t="inlineStr">
         <is>
-          <t>*maa://39165</t>
+          <t>maa://20978</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="15" t="inlineStr">
         <is>
-          <t>伺夜</t>
+          <t>子月</t>
         </is>
       </c>
       <c r="B281" s="15" t="inlineStr">
         <is>
-          <t>IS-6</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C281" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D281" s="10" t="inlineStr">
         <is>
-          <t>maa://48267, maa://48266</t>
+          <t>maa://21002</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="15" t="inlineStr">
         <is>
-          <t>斥罪</t>
+          <t>伺夜</t>
         </is>
       </c>
       <c r="B282" s="15" t="inlineStr">
         <is>
-          <t>CB-4</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C282" s="12" t="inlineStr">
@@ -7052,63 +7052,63 @@
       </c>
       <c r="D282" s="10" t="inlineStr">
         <is>
-          <t>maa://29635</t>
+          <t>*maa://39165</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="15" t="inlineStr">
         <is>
-          <t>斥罪</t>
+          <t>伺夜</t>
         </is>
       </c>
       <c r="B283" s="15" t="inlineStr">
         <is>
-          <t>IS-7</t>
+          <t>IS-6</t>
         </is>
       </c>
       <c r="C283" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D283" s="10" t="inlineStr">
         <is>
-          <t>maa://38296</t>
+          <t>maa://48267, maa://48266</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="15" t="inlineStr">
         <is>
-          <t>缄默德克萨斯</t>
+          <t>斥罪</t>
         </is>
       </c>
       <c r="B284" s="15" t="inlineStr">
         <is>
-          <t>CB-8</t>
+          <t>CB-4</t>
         </is>
       </c>
       <c r="C284" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D284" s="10" t="inlineStr">
         <is>
-          <t>maa://20899, maa://46332</t>
+          <t>maa://29635</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="15" t="inlineStr">
         <is>
-          <t>谜图</t>
+          <t>斥罪</t>
         </is>
       </c>
       <c r="B285" s="15" t="inlineStr">
         <is>
-          <t>9-4</t>
+          <t>IS-7</t>
         </is>
       </c>
       <c r="C285" s="12" t="inlineStr">
@@ -7118,63 +7118,63 @@
       </c>
       <c r="D285" s="10" t="inlineStr">
         <is>
-          <t>maa://53353</t>
+          <t>maa://38296</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="15" t="inlineStr">
         <is>
-          <t>和弦</t>
+          <t>缄默德克萨斯</t>
         </is>
       </c>
       <c r="B286" s="15" t="inlineStr">
         <is>
-          <t>6-5</t>
+          <t>CB-8</t>
         </is>
       </c>
       <c r="C286" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D286" s="10" t="inlineStr">
         <is>
-          <t>maa://20881</t>
+          <t>maa://20899, maa://46332</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="15" t="inlineStr">
         <is>
-          <t>焰影苇草</t>
+          <t>谜图</t>
         </is>
       </c>
       <c r="B287" s="15" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>9-4</t>
         </is>
       </c>
       <c r="C287" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D287" s="10" t="inlineStr">
         <is>
-          <t>maa://30710, maa://36845, maa://31558, maa://30668</t>
+          <t>maa://53353</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="15" t="inlineStr">
         <is>
-          <t>截云</t>
+          <t>和弦</t>
         </is>
       </c>
       <c r="B288" s="15" t="inlineStr">
         <is>
-          <t>S2-2</t>
+          <t>6-5</t>
         </is>
       </c>
       <c r="C288" s="12" t="inlineStr">
@@ -7184,63 +7184,63 @@
       </c>
       <c r="D288" s="10" t="inlineStr">
         <is>
-          <t>maa://20902</t>
+          <t>maa://20881</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="15" t="inlineStr">
         <is>
-          <t>火哨</t>
+          <t>焰影苇草</t>
         </is>
       </c>
       <c r="B289" s="15" t="inlineStr">
         <is>
-          <t>S4-6</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C289" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D289" s="10" t="inlineStr">
         <is>
-          <t>maa://29159</t>
+          <t>maa://30710, maa://36845, maa://31558, maa://30668</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="15" t="inlineStr">
         <is>
-          <t>林</t>
+          <t>截云</t>
         </is>
       </c>
       <c r="B290" s="15" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>S2-2</t>
         </is>
       </c>
       <c r="C290" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D290" s="10" t="inlineStr">
         <is>
-          <t>maa://25774, maa://28133, maa://22469, **maa://31349</t>
+          <t>maa://20902</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="15" t="inlineStr">
         <is>
-          <t>林</t>
+          <t>火哨</t>
         </is>
       </c>
       <c r="B291" s="15" t="inlineStr">
         <is>
-          <t>6-5</t>
+          <t>S4-6</t>
         </is>
       </c>
       <c r="C291" s="12" t="inlineStr">
@@ -7250,195 +7250,195 @@
       </c>
       <c r="D291" s="10" t="inlineStr">
         <is>
-          <t>maa://47882</t>
+          <t>maa://29159</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="15" t="inlineStr">
         <is>
-          <t>重岳</t>
+          <t>林</t>
         </is>
       </c>
       <c r="B292" s="15" t="inlineStr">
         <is>
-          <t>WB-7</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C292" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D292" s="10" t="inlineStr">
         <is>
-          <t>maa://32414, maa://32505, maa://39155</t>
+          <t>maa://25774, maa://28133, maa://22469, **maa://31349</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="15" t="inlineStr">
         <is>
-          <t>重岳</t>
+          <t>林</t>
         </is>
       </c>
       <c r="B293" s="15" t="inlineStr">
         <is>
-          <t>GA-5</t>
+          <t>6-5</t>
         </is>
       </c>
       <c r="C293" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D293" s="10" t="inlineStr">
         <is>
-          <t>maa://45799, maa://57199</t>
+          <t>maa://47882</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="15" t="inlineStr">
         <is>
-          <t>铎铃</t>
+          <t>重岳</t>
         </is>
       </c>
       <c r="B294" s="15" t="inlineStr">
         <is>
-          <t>2-1</t>
+          <t>WB-7</t>
         </is>
       </c>
       <c r="C294" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D294" s="10" t="inlineStr">
         <is>
-          <t>maa://42312</t>
+          <t>maa://32414, maa://32505, maa://39155</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="15" t="inlineStr">
         <is>
-          <t>仇白</t>
+          <t>重岳</t>
         </is>
       </c>
       <c r="B295" s="15" t="inlineStr">
         <is>
-          <t>WB-7</t>
+          <t>GA-5</t>
         </is>
       </c>
       <c r="C295" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D295" s="10" t="inlineStr">
         <is>
-          <t>maa://36642, maa://36867, maa://39155</t>
+          <t>maa://45799, maa://57199</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="15" t="inlineStr">
         <is>
-          <t>火龙S黑角</t>
+          <t>铎铃</t>
         </is>
       </c>
       <c r="B296" s="15" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>2-1</t>
         </is>
       </c>
       <c r="C296" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D296" s="10" t="inlineStr">
         <is>
-          <t>**maa://39166, maa://39167</t>
+          <t>maa://42312</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="15" t="inlineStr">
         <is>
-          <t>麒麟R夜刀</t>
+          <t>仇白</t>
         </is>
       </c>
       <c r="B297" s="15" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>WB-7</t>
         </is>
       </c>
       <c r="C297" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D297" s="10" t="inlineStr">
         <is>
-          <t>maa://29005, maa://31560</t>
+          <t>maa://36642, maa://36867, maa://39155</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="15" t="inlineStr">
         <is>
-          <t>休谟斯</t>
+          <t>火龙S黑角</t>
         </is>
       </c>
       <c r="B298" s="15" t="inlineStr">
         <is>
-          <t>7-8</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C298" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D298" s="10" t="inlineStr">
         <is>
-          <t>maa://39168</t>
+          <t>**maa://39166, maa://39167</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="15" t="inlineStr">
         <is>
-          <t>摩根</t>
+          <t>麒麟R夜刀</t>
         </is>
       </c>
       <c r="B299" s="15" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C299" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D299" s="10" t="inlineStr">
         <is>
-          <t>maa://39169</t>
+          <t>maa://29005, maa://31560</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="15" t="inlineStr">
         <is>
-          <t>洋灰</t>
+          <t>休谟斯</t>
         </is>
       </c>
       <c r="B300" s="15" t="inlineStr">
         <is>
-          <t>IW-EX-6</t>
+          <t>7-8</t>
         </is>
       </c>
       <c r="C300" s="12" t="inlineStr">
@@ -7448,41 +7448,41 @@
       </c>
       <c r="D300" s="10" t="inlineStr">
         <is>
-          <t>maa://39170</t>
+          <t>maa://39168</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="15" t="inlineStr">
         <is>
-          <t>伊内丝</t>
+          <t>摩根</t>
         </is>
       </c>
       <c r="B301" s="15" t="inlineStr">
         <is>
-          <t>12-12</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="C301" s="12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D301" s="10" t="inlineStr">
         <is>
-          <t>maa://50280, maa://49642, maa://49660, *maa://50517</t>
+          <t>maa://39169</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="15" t="inlineStr">
         <is>
-          <t>玫拉</t>
+          <t>洋灰</t>
         </is>
       </c>
       <c r="B302" s="15" t="inlineStr">
         <is>
-          <t>S3-5</t>
+          <t>IW-EX-6</t>
         </is>
       </c>
       <c r="C302" s="12" t="inlineStr">
@@ -7492,41 +7492,41 @@
       </c>
       <c r="D302" s="10" t="inlineStr">
         <is>
-          <t>maa://39171</t>
+          <t>maa://39170</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="15" t="inlineStr">
         <is>
-          <t>淬羽赫默</t>
+          <t>伊内丝</t>
         </is>
       </c>
       <c r="B303" s="15" t="inlineStr">
         <is>
-          <t>6-3</t>
+          <t>12-12</t>
         </is>
       </c>
       <c r="C303" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D303" s="10" t="inlineStr">
         <is>
-          <t>maa://27939</t>
+          <t>maa://50280, maa://49642, maa://49660, *maa://50517</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="15" t="inlineStr">
         <is>
-          <t>淬羽赫默</t>
+          <t>玫拉</t>
         </is>
       </c>
       <c r="B304" s="15" t="inlineStr">
         <is>
-          <t>WB-5</t>
+          <t>S3-5</t>
         </is>
       </c>
       <c r="C304" s="12" t="inlineStr">
@@ -7536,19 +7536,19 @@
       </c>
       <c r="D304" s="10" t="inlineStr">
         <is>
-          <t>maa://53352</t>
+          <t>maa://39171</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="15" t="inlineStr">
         <is>
-          <t>霍尔海雅</t>
+          <t>淬羽赫默</t>
         </is>
       </c>
       <c r="B305" s="15" t="inlineStr">
         <is>
-          <t>OF-7</t>
+          <t>6-3</t>
         </is>
       </c>
       <c r="C305" s="12" t="inlineStr">
@@ -7558,19 +7558,19 @@
       </c>
       <c r="D305" s="10" t="inlineStr">
         <is>
-          <t>maa://29129</t>
+          <t>maa://27939</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="15" t="inlineStr">
         <is>
-          <t>霍尔海雅</t>
+          <t>淬羽赫默</t>
         </is>
       </c>
       <c r="B306" s="15" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>WB-5</t>
         </is>
       </c>
       <c r="C306" s="12" t="inlineStr">
@@ -7580,19 +7580,19 @@
       </c>
       <c r="D306" s="10" t="inlineStr">
         <is>
-          <t>maa://36005</t>
+          <t>maa://53352</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="15" t="inlineStr">
         <is>
-          <t>缪尔赛思</t>
+          <t>霍尔海雅</t>
         </is>
       </c>
       <c r="B307" s="15" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>OF-7</t>
         </is>
       </c>
       <c r="C307" s="12" t="inlineStr">
@@ -7602,19 +7602,19 @@
       </c>
       <c r="D307" s="10" t="inlineStr">
         <is>
-          <t>maa://35859</t>
+          <t>maa://29129</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="15" t="inlineStr">
         <is>
-          <t>缪尔赛思</t>
+          <t>霍尔海雅</t>
         </is>
       </c>
       <c r="B308" s="15" t="inlineStr">
         <is>
-          <t>6-12</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C308" s="12" t="inlineStr">
@@ -7624,14 +7624,14 @@
       </c>
       <c r="D308" s="10" t="inlineStr">
         <is>
-          <t>maa://53348</t>
+          <t>maa://36005</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="15" t="inlineStr">
         <is>
-          <t>隐现</t>
+          <t>缪尔赛思</t>
         </is>
       </c>
       <c r="B309" s="15" t="inlineStr">
@@ -7646,19 +7646,19 @@
       </c>
       <c r="D309" s="10" t="inlineStr">
         <is>
-          <t>**maa://39172</t>
+          <t>maa://35859</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="15" t="inlineStr">
         <is>
-          <t>空构</t>
+          <t>缪尔赛思</t>
         </is>
       </c>
       <c r="B310" s="15" t="inlineStr">
         <is>
-          <t>DM-2</t>
+          <t>6-12</t>
         </is>
       </c>
       <c r="C310" s="12" t="inlineStr">
@@ -7668,41 +7668,41 @@
       </c>
       <c r="D310" s="10" t="inlineStr">
         <is>
-          <t>maa://39173</t>
+          <t>maa://53348</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="15" t="inlineStr">
         <is>
-          <t>圣约送葬人</t>
+          <t>隐现</t>
         </is>
       </c>
       <c r="B311" s="15" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C311" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D311" s="10" t="inlineStr">
         <is>
-          <t>maa://25775, *maa://25393</t>
+          <t>**maa://39172</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="15" t="inlineStr">
         <is>
-          <t>寒檀</t>
+          <t>空构</t>
         </is>
       </c>
       <c r="B312" s="15" t="inlineStr">
         <is>
-          <t>BI-2</t>
+          <t>DM-2</t>
         </is>
       </c>
       <c r="C312" s="12" t="inlineStr">
@@ -7712,41 +7712,41 @@
       </c>
       <c r="D312" s="10" t="inlineStr">
         <is>
-          <t>maa://40161</t>
+          <t>maa://39173</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="15" t="inlineStr">
         <is>
-          <t>提丰</t>
+          <t>圣约送葬人</t>
         </is>
       </c>
       <c r="B313" s="15" t="inlineStr">
         <is>
-          <t>S2-1</t>
+          <t>7-14</t>
         </is>
       </c>
       <c r="C313" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D313" s="10" t="inlineStr">
         <is>
-          <t>maa://25367</t>
+          <t>maa://25775, *maa://25393</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="15" t="inlineStr">
         <is>
-          <t>凛视</t>
+          <t>寒檀</t>
         </is>
       </c>
       <c r="B314" s="15" t="inlineStr">
         <is>
-          <t>7-13</t>
+          <t>BI-2</t>
         </is>
       </c>
       <c r="C314" s="12" t="inlineStr">
@@ -7756,19 +7756,19 @@
       </c>
       <c r="D314" s="10" t="inlineStr">
         <is>
-          <t>*maa://43090</t>
+          <t>maa://40161</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="15" t="inlineStr">
         <is>
-          <t>苍苔</t>
+          <t>提丰</t>
         </is>
       </c>
       <c r="B315" s="15" t="inlineStr">
         <is>
-          <t>9-3</t>
+          <t>S2-1</t>
         </is>
       </c>
       <c r="C315" s="12" t="inlineStr">
@@ -7778,19 +7778,19 @@
       </c>
       <c r="D315" s="10" t="inlineStr">
         <is>
-          <t>maa://28070</t>
+          <t>maa://25367</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="15" t="inlineStr">
         <is>
-          <t>青枳</t>
+          <t>凛视</t>
         </is>
       </c>
       <c r="B316" s="15" t="inlineStr">
         <is>
-          <t>OF-5</t>
+          <t>7-13</t>
         </is>
       </c>
       <c r="C316" s="12" t="inlineStr">
@@ -7800,41 +7800,41 @@
       </c>
       <c r="D316" s="10" t="inlineStr">
         <is>
-          <t>maa://28241</t>
+          <t>*maa://43090</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="15" t="inlineStr">
         <is>
-          <t>琳琅诗怀雅</t>
+          <t>苍苔</t>
         </is>
       </c>
       <c r="B317" s="15" t="inlineStr">
         <is>
-          <t>5-2</t>
+          <t>9-3</t>
         </is>
       </c>
       <c r="C317" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D317" s="10" t="inlineStr">
         <is>
-          <t>maa://25773, *maa://26088</t>
+          <t>maa://28070</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="15" t="inlineStr">
         <is>
-          <t>琳琅诗怀雅</t>
+          <t>青枳</t>
         </is>
       </c>
       <c r="B318" s="15" t="inlineStr">
         <is>
-          <t>11-16</t>
+          <t>OF-5</t>
         </is>
       </c>
       <c r="C318" s="12" t="inlineStr">
@@ -7844,19 +7844,19 @@
       </c>
       <c r="D318" s="10" t="inlineStr">
         <is>
-          <t>maa://39239</t>
+          <t>maa://28241</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="15" t="inlineStr">
         <is>
-          <t>纯烬艾雅法拉</t>
+          <t>琳琅诗怀雅</t>
         </is>
       </c>
       <c r="B319" s="15" t="inlineStr">
         <is>
-          <t>FC-5</t>
+          <t>5-2</t>
         </is>
       </c>
       <c r="C319" s="12" t="inlineStr">
@@ -7866,19 +7866,19 @@
       </c>
       <c r="D319" s="10" t="inlineStr">
         <is>
-          <t>maa://39692, maa://39810</t>
+          <t>maa://25773, *maa://26088</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="15" t="inlineStr">
         <is>
-          <t>冰酿</t>
+          <t>琳琅诗怀雅</t>
         </is>
       </c>
       <c r="B320" s="15" t="inlineStr">
         <is>
-          <t>S3-3</t>
+          <t>11-16</t>
         </is>
       </c>
       <c r="C320" s="12" t="inlineStr">
@@ -7888,63 +7888,63 @@
       </c>
       <c r="D320" s="10" t="inlineStr">
         <is>
-          <t>*maa://39174</t>
+          <t>maa://39239</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="15" t="inlineStr">
         <is>
-          <t>杏仁</t>
+          <t>纯烬艾雅法拉</t>
         </is>
       </c>
       <c r="B321" s="15" t="inlineStr">
         <is>
-          <t>BI-2</t>
+          <t>FC-5</t>
         </is>
       </c>
       <c r="C321" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D321" s="10" t="inlineStr">
         <is>
-          <t>maa://39175</t>
+          <t>maa://39692, maa://39810</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="15" t="inlineStr">
         <is>
-          <t>涤火杰西卡</t>
+          <t>冰酿</t>
         </is>
       </c>
       <c r="B322" s="15" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>S3-3</t>
         </is>
       </c>
       <c r="C322" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D322" s="10" t="inlineStr">
         <is>
-          <t>maa://34867, maa://34715</t>
+          <t>*maa://39174</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="15" t="inlineStr">
         <is>
-          <t>维荻</t>
+          <t>杏仁</t>
         </is>
       </c>
       <c r="B323" s="15" t="inlineStr">
         <is>
-          <t>9-3</t>
+          <t>BI-2</t>
         </is>
       </c>
       <c r="C323" s="12" t="inlineStr">
@@ -7954,41 +7954,41 @@
       </c>
       <c r="D323" s="10" t="inlineStr">
         <is>
-          <t>maa://39176</t>
+          <t>maa://39175</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="15" t="inlineStr">
         <is>
-          <t>戴菲恩</t>
+          <t>涤火杰西卡</t>
         </is>
       </c>
       <c r="B324" s="15" t="inlineStr">
         <is>
-          <t>WD-6</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C324" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D324" s="10" t="inlineStr">
         <is>
-          <t>maa://42316</t>
+          <t>maa://34867, maa://34715</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="15" t="inlineStr">
         <is>
-          <t>刺玫</t>
+          <t>维荻</t>
         </is>
       </c>
       <c r="B325" s="15" t="inlineStr">
         <is>
-          <t>IC-2</t>
+          <t>9-3</t>
         </is>
       </c>
       <c r="C325" s="12" t="inlineStr">
@@ -7998,19 +7998,19 @@
       </c>
       <c r="D325" s="10" t="inlineStr">
         <is>
-          <t>maa://30680</t>
+          <t>maa://39176</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="15" t="inlineStr">
         <is>
-          <t>赫德雷</t>
+          <t>戴菲恩</t>
         </is>
       </c>
       <c r="B326" s="15" t="inlineStr">
         <is>
-          <t>IW-7</t>
+          <t>WD-6</t>
         </is>
       </c>
       <c r="C326" s="12" t="inlineStr">
@@ -8020,107 +8020,107 @@
       </c>
       <c r="D326" s="10" t="inlineStr">
         <is>
-          <t>maa://40956</t>
+          <t>maa://42316</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="15" t="inlineStr">
         <is>
-          <t>深律</t>
+          <t>刺玫</t>
         </is>
       </c>
       <c r="B327" s="15" t="inlineStr">
         <is>
-          <t>LE-4</t>
+          <t>IC-2</t>
         </is>
       </c>
       <c r="C327" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D327" s="10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://30680</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="15" t="inlineStr">
         <is>
-          <t>止颂</t>
+          <t>赫德雷</t>
         </is>
       </c>
       <c r="B328" s="15" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>IW-7</t>
         </is>
       </c>
       <c r="C328" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D328" s="10" t="inlineStr">
         <is>
-          <t>maa://34205, **maa://39541</t>
+          <t>maa://40956</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="15" t="inlineStr">
         <is>
-          <t>止颂</t>
+          <t>深律</t>
         </is>
       </c>
       <c r="B329" s="15" t="inlineStr">
         <is>
-          <t>TW-5</t>
+          <t>LE-4</t>
         </is>
       </c>
       <c r="C329" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D329" s="10" t="inlineStr">
         <is>
-          <t>maa://43092, maa://43093</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="15" t="inlineStr">
         <is>
-          <t>薇薇安娜</t>
+          <t>止颂</t>
         </is>
       </c>
       <c r="B330" s="15" t="inlineStr">
         <is>
-          <t>MN-3</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="C330" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D330" s="10" t="inlineStr">
         <is>
-          <t>maa://44234</t>
+          <t>maa://34205, **maa://39541</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="12" t="inlineStr">
         <is>
-          <t>塑心</t>
+          <t>止颂</t>
         </is>
       </c>
       <c r="B331" s="12" t="inlineStr">
         <is>
-          <t>GA-7</t>
+          <t>TW-5</t>
         </is>
       </c>
       <c r="C331" s="12" t="inlineStr">
@@ -8130,19 +8130,19 @@
       </c>
       <c r="D331" s="13" t="inlineStr">
         <is>
-          <t>maa://42968, maa://49245</t>
+          <t>maa://43092, maa://43093</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="12" t="inlineStr">
         <is>
-          <t>哈洛德</t>
+          <t>薇薇安娜</t>
         </is>
       </c>
       <c r="B332" s="12" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>MN-3</t>
         </is>
       </c>
       <c r="C332" s="12" t="inlineStr">
@@ -8152,129 +8152,129 @@
       </c>
       <c r="D332" s="13" t="inlineStr">
         <is>
-          <t>*maa://40162</t>
+          <t>maa://44234</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="12" t="inlineStr">
         <is>
-          <t>烈夏</t>
+          <t>塑心</t>
         </is>
       </c>
       <c r="B333" s="12" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>GA-7</t>
         </is>
       </c>
       <c r="C333" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D333" s="13" t="inlineStr">
         <is>
-          <t>maa://37692</t>
+          <t>maa://42968, maa://49245</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="12" t="inlineStr">
         <is>
-          <t>锏</t>
+          <t>哈洛德</t>
         </is>
       </c>
       <c r="B334" s="12" t="inlineStr">
         <is>
-          <t>BI-6</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="C334" s="12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D334" s="13" t="inlineStr">
         <is>
-          <t>maa://30671, maa://30669, maa://37275, *maa://32410, maa://41605</t>
+          <t>*maa://40162</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="12" t="inlineStr">
         <is>
-          <t>莱伊</t>
+          <t>烈夏</t>
         </is>
       </c>
       <c r="B335" s="12" t="inlineStr">
         <is>
-          <t>S9-1</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C335" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D335" s="13" t="inlineStr">
         <is>
-          <t>maa://38295, maa://49332</t>
+          <t>maa://37692</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="12" t="inlineStr">
         <is>
-          <t>万顷</t>
+          <t>锏</t>
         </is>
       </c>
       <c r="B336" s="12" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>BI-6</t>
         </is>
       </c>
       <c r="C336" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D336" s="13" t="inlineStr">
         <is>
-          <t>maa://32417</t>
+          <t>maa://30671, maa://30669, maa://37275, *maa://32410, maa://41605</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="12" t="inlineStr">
         <is>
-          <t>小满</t>
+          <t>莱伊</t>
         </is>
       </c>
       <c r="B337" s="12" t="inlineStr">
         <is>
-          <t>9-11</t>
+          <t>S9-1</t>
         </is>
       </c>
       <c r="C337" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D337" s="13" t="inlineStr">
         <is>
-          <t>maa://32419</t>
+          <t>maa://38295, maa://49332</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="12" t="inlineStr">
         <is>
-          <t>左乐</t>
+          <t>万顷</t>
         </is>
       </c>
       <c r="B338" s="12" t="inlineStr">
         <is>
-          <t>WB-5</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="C338" s="12" t="inlineStr">
@@ -8284,19 +8284,19 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>maa://32416</t>
+          <t>maa://32417</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="12" t="inlineStr">
         <is>
-          <t>左乐</t>
+          <t>小满</t>
         </is>
       </c>
       <c r="B339" s="12" t="inlineStr">
         <is>
-          <t>RI-7</t>
+          <t>9-11</t>
         </is>
       </c>
       <c r="C339" s="12" t="inlineStr">
@@ -8306,41 +8306,41 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>maa://45800</t>
+          <t>maa://32419</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="12" t="inlineStr">
         <is>
-          <t>黍</t>
+          <t>左乐</t>
         </is>
       </c>
       <c r="B340" s="12" t="inlineStr">
         <is>
-          <t>11-11</t>
+          <t>WB-5</t>
         </is>
       </c>
       <c r="C340" s="12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>maa://32647, maa://32415, maa://34677, maa://32892, maa://32653</t>
+          <t>maa://32416</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="12" t="inlineStr">
         <is>
-          <t>红隼</t>
+          <t>左乐</t>
         </is>
       </c>
       <c r="B341" s="12" t="inlineStr">
         <is>
-          <t>11-18</t>
+          <t>RI-7</t>
         </is>
       </c>
       <c r="C341" s="12" t="inlineStr">
@@ -8350,41 +8350,41 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>maa://32420</t>
+          <t>maa://45800</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="12" t="inlineStr">
         <is>
-          <t>导火索</t>
+          <t>黍</t>
         </is>
       </c>
       <c r="B342" s="12" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>11-11</t>
         </is>
       </c>
       <c r="C342" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>maa://35606</t>
+          <t>maa://32647, maa://32415, maa://34677, maa://32892, maa://32653</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="12" t="inlineStr">
         <is>
-          <t>双月</t>
+          <t>红隼</t>
         </is>
       </c>
       <c r="B343" s="12" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>11-18</t>
         </is>
       </c>
       <c r="C343" s="12" t="inlineStr">
@@ -8394,19 +8394,19 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>maa://34716</t>
+          <t>maa://32420</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="12" t="inlineStr">
         <is>
-          <t>医生</t>
+          <t>导火索</t>
         </is>
       </c>
       <c r="B344" s="12" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C344" s="12" t="inlineStr">
@@ -8416,41 +8416,41 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>maa://39179</t>
+          <t>maa://35606</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="12" t="inlineStr">
         <is>
-          <t>艾拉</t>
+          <t>双月</t>
         </is>
       </c>
       <c r="B345" s="12" t="inlineStr">
         <is>
-          <t>DM-EX-1</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C345" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>maa://34865, maa://34717, *maa://45066</t>
+          <t>maa://34716</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="12" t="inlineStr">
         <is>
-          <t>露托</t>
+          <t>医生</t>
         </is>
       </c>
       <c r="B346" s="12" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C346" s="12" t="inlineStr">
@@ -8460,41 +8460,41 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>maa://39180</t>
+          <t>maa://39179</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="12" t="inlineStr">
         <is>
-          <t>奥达</t>
+          <t>艾拉</t>
         </is>
       </c>
       <c r="B347" s="12" t="inlineStr">
         <is>
-          <t>S3-6</t>
+          <t>DM-EX-1</t>
         </is>
       </c>
       <c r="C347" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>maa://45834, maa://45833</t>
+          <t>maa://34865, maa://34717, *maa://45066</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="12" t="inlineStr">
         <is>
-          <t>阿罗玛</t>
+          <t>露托</t>
         </is>
       </c>
       <c r="B348" s="12" t="inlineStr">
         <is>
-          <t>GT-HX-3</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C348" s="12" t="inlineStr">
@@ -8504,41 +8504,41 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>maa://39181</t>
+          <t>maa://39180</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="12" t="inlineStr">
         <is>
-          <t>阿斯卡纶</t>
+          <t>奥达</t>
         </is>
       </c>
       <c r="B349" s="12" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C349" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>maa://36868, maa://35996, maa://47349</t>
+          <t>maa://45834, maa://45833</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="12" t="inlineStr">
         <is>
-          <t>历阵锐枪芬</t>
+          <t>阿罗玛</t>
         </is>
       </c>
       <c r="B350" s="12" t="inlineStr">
         <is>
-          <t>4-2</t>
+          <t>GT-HX-3</t>
         </is>
       </c>
       <c r="C350" s="12" t="inlineStr">
@@ -8548,195 +8548,195 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>maa://36647</t>
+          <t>maa://39181</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="12" t="inlineStr">
         <is>
-          <t>魔王</t>
+          <t>阿斯卡纶</t>
         </is>
       </c>
       <c r="B351" s="12" t="inlineStr">
         <is>
-          <t>14-5</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C351" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>maa://42299, maa://42224</t>
+          <t>maa://36868, maa://35996, maa://47349</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="12" t="inlineStr">
         <is>
-          <t>逻各斯</t>
+          <t>阿斯卡纶</t>
         </is>
       </c>
       <c r="B352" s="12" t="inlineStr">
         <is>
-          <t>14-9</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C352" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>maa://49648, *maa://49662</t>
+          <t>maa://49696, maa://49695, maa://49758, *maa://52357, *maa://59402</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="12" t="inlineStr">
         <is>
-          <t>逻各斯</t>
+          <t>历阵锐枪芬</t>
         </is>
       </c>
       <c r="B353" s="12" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>4-2</t>
         </is>
       </c>
       <c r="C353" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>maa://36646, maa://36845, maa://51007</t>
+          <t>maa://36647</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="12" t="inlineStr">
         <is>
-          <t>维什戴尔</t>
+          <t>魔王</t>
         </is>
       </c>
       <c r="B354" s="12" t="inlineStr">
         <is>
-          <t>DM-5</t>
+          <t>14-5</t>
         </is>
       </c>
       <c r="C354" s="12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>maa://36645, maa://36841, maa://37484, maa://37858, maa://40489, maa://56268</t>
+          <t>maa://42299, maa://42224</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="12" t="inlineStr">
         <is>
-          <t>阿米娅</t>
+          <t>逻各斯</t>
         </is>
       </c>
       <c r="B355" s="12" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>14-9</t>
         </is>
       </c>
       <c r="C355" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>maa://42635, maa://50629, maa://48859</t>
+          <t>maa://49648, *maa://49662</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="12" t="inlineStr">
         <is>
-          <t>深巡</t>
+          <t>逻各斯</t>
         </is>
       </c>
       <c r="B356" s="12" t="inlineStr">
         <is>
-          <t>SN-5</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C356" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>maa://39183</t>
+          <t>maa://36646, maa://36845, maa://51007</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="12" t="inlineStr">
         <is>
-          <t>海霓</t>
+          <t>维什戴尔</t>
         </is>
       </c>
       <c r="B357" s="12" t="inlineStr">
         <is>
-          <t>SV-4</t>
+          <t>DM-5</t>
         </is>
       </c>
       <c r="C357" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>maa://39184</t>
+          <t>maa://36645, maa://36841, maa://37484, maa://37858, maa://40489, *maa://56268</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="12" t="inlineStr">
         <is>
-          <t>乌尔比安</t>
+          <t>阿米娅</t>
         </is>
       </c>
       <c r="B358" s="12" t="inlineStr">
         <is>
-          <t>SV-6</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C358" s="12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>maa://40957, maa://44635, maa://48026, maa://41035, maa://44660, maa://41128</t>
+          <t>maa://42635, maa://50629, maa://48859</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="12" t="inlineStr">
         <is>
-          <t>渡桥</t>
+          <t>深巡</t>
         </is>
       </c>
       <c r="B359" s="12" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>SN-5</t>
         </is>
       </c>
       <c r="C359" s="12" t="inlineStr">
@@ -8746,19 +8746,19 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>maa://40164</t>
+          <t>maa://39183</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="12" t="inlineStr">
         <is>
-          <t>锡人</t>
+          <t>海霓</t>
         </is>
       </c>
       <c r="B360" s="12" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>SV-4</t>
         </is>
       </c>
       <c r="C360" s="12" t="inlineStr">
@@ -8768,41 +8768,41 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>maa://48268</t>
+          <t>maa://39184</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="12" t="inlineStr">
         <is>
-          <t>衡沙</t>
+          <t>乌尔比安</t>
         </is>
       </c>
       <c r="B361" s="12" t="inlineStr">
         <is>
-          <t>DV-2</t>
+          <t>SV-6</t>
         </is>
       </c>
       <c r="C361" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>maa://40165</t>
+          <t>maa://40957, maa://44635, maa://48026, maa://41035, maa://44660, maa://41128</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="12" t="inlineStr">
         <is>
-          <t>佩佩</t>
+          <t>渡桥</t>
         </is>
       </c>
       <c r="B362" s="12" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C362" s="12" t="inlineStr">
@@ -8812,19 +8812,19 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>maa://45798</t>
+          <t>maa://40164</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="12" t="inlineStr">
         <is>
-          <t>森西</t>
+          <t>锡人</t>
         </is>
       </c>
       <c r="B363" s="12" t="inlineStr">
         <is>
-          <t>1-12</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C363" s="12" t="inlineStr">
@@ -8834,129 +8834,129 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>maa://42331</t>
+          <t>maa://48268</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="12" t="inlineStr">
         <is>
-          <t>齐尔查克</t>
+          <t>衡沙</t>
         </is>
       </c>
       <c r="B364" s="12" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>DV-2</t>
         </is>
       </c>
       <c r="C364" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>maa://42333, maa://41977, maa://50518</t>
+          <t>maa://40165</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="12" t="inlineStr">
         <is>
-          <t>莱欧斯</t>
+          <t>佩佩</t>
         </is>
       </c>
       <c r="B365" s="12" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C365" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>maa://42338, maa://41976</t>
+          <t>maa://45798</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="12" t="inlineStr">
         <is>
-          <t>玛露西尔</t>
+          <t>森西</t>
         </is>
       </c>
       <c r="B366" s="12" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>1-12</t>
         </is>
       </c>
       <c r="C366" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>maa://41110, maa://45605</t>
+          <t>maa://42331</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="12" t="inlineStr">
         <is>
-          <t>凯瑟琳</t>
+          <t>齐尔查克</t>
         </is>
       </c>
       <c r="B367" s="12" t="inlineStr">
         <is>
-          <t>11-7</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C367" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>maa://42343</t>
+          <t>maa://42333, maa://41977, maa://50518</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="12" t="inlineStr">
         <is>
-          <t>波卜</t>
+          <t>莱欧斯</t>
         </is>
       </c>
       <c r="B368" s="12" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="C368" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>maa://43095</t>
+          <t>maa://42338, maa://41976</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="12" t="inlineStr">
         <is>
-          <t>维娜·维多利亚</t>
+          <t>玛露西尔</t>
         </is>
       </c>
       <c r="B369" s="12" t="inlineStr">
         <is>
-          <t>9-5</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C369" s="12" t="inlineStr">
@@ -8966,19 +8966,19 @@
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>maa://44233, maa://45570</t>
+          <t>maa://41110, maa://45605</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="12" t="inlineStr">
         <is>
-          <t>裁度</t>
+          <t>凯瑟琳</t>
         </is>
       </c>
       <c r="B370" s="12" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>11-7</t>
         </is>
       </c>
       <c r="C370" s="12" t="inlineStr">
@@ -8988,19 +8988,19 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>maa://43097</t>
+          <t>maa://42343</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="12" t="inlineStr">
         <is>
-          <t>弑君者</t>
+          <t>波卜</t>
         </is>
       </c>
       <c r="B371" s="12" t="inlineStr">
         <is>
-          <t>4-4</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="C371" s="12" t="inlineStr">
@@ -9010,41 +9010,41 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>maa://43872</t>
+          <t>maa://43095</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="12" t="inlineStr">
         <is>
-          <t>弑君者</t>
+          <t>维娜·维多利亚</t>
         </is>
       </c>
       <c r="B372" s="12" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>9-5</t>
         </is>
       </c>
       <c r="C372" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>maa://53307</t>
+          <t>maa://44233, maa://45570</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="12" t="inlineStr">
         <is>
-          <t>忍冬</t>
+          <t>裁度</t>
         </is>
       </c>
       <c r="B373" s="12" t="inlineStr">
         <is>
-          <t>S2-3</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="C373" s="12" t="inlineStr">
@@ -9054,41 +9054,41 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>maa://43875</t>
+          <t>maa://43097</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="12" t="inlineStr">
         <is>
-          <t>荒芜拉普兰德</t>
+          <t>弑君者</t>
         </is>
       </c>
       <c r="B374" s="12" t="inlineStr">
         <is>
-          <t>IS-8</t>
+          <t>4-4</t>
         </is>
       </c>
       <c r="C374" s="12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>maa://42970, maa://44745, **maa://49516, *maa://45952, maa://44896</t>
+          <t>maa://43872</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="12" t="inlineStr">
         <is>
-          <t>瑰盐</t>
+          <t>弑君者</t>
         </is>
       </c>
       <c r="B375" s="12" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="C375" s="12" t="inlineStr">
@@ -9098,19 +9098,19 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>maa://44389</t>
+          <t>*maa://53307</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="12" t="inlineStr">
         <is>
-          <t>引星棘刺</t>
+          <t>忍冬</t>
         </is>
       </c>
       <c r="B376" s="12" t="inlineStr">
         <is>
-          <t>OF-7</t>
+          <t>S2-3</t>
         </is>
       </c>
       <c r="C376" s="12" t="inlineStr">
@@ -9120,41 +9120,41 @@
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>maa://48113</t>
+          <t>maa://43875</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="12" t="inlineStr">
         <is>
-          <t>行箸</t>
+          <t>荒芜拉普兰德</t>
         </is>
       </c>
       <c r="B377" s="12" t="inlineStr">
         <is>
-          <t>3-2</t>
+          <t>IS-8</t>
         </is>
       </c>
       <c r="C377" s="12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>maa://45807</t>
+          <t>maa://42970, maa://44745, *maa://45952, *maa://44896</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="12" t="inlineStr">
         <is>
-          <t>寻澜</t>
+          <t>瑰盐</t>
         </is>
       </c>
       <c r="B378" s="12" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C378" s="12" t="inlineStr">
@@ -9164,41 +9164,41 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>maa://50552</t>
+          <t>maa://44389</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="12" t="inlineStr">
         <is>
-          <t>诺威尔</t>
+          <t>特克诺</t>
         </is>
       </c>
       <c r="B379" s="12" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>DH-6</t>
         </is>
       </c>
       <c r="C379" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>maa://47175, maa://47174</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="12" t="inlineStr">
         <is>
-          <t>隐德来希</t>
+          <t>引星棘刺</t>
         </is>
       </c>
       <c r="B380" s="12" t="inlineStr">
         <is>
-          <t>10-12</t>
+          <t>OF-7</t>
         </is>
       </c>
       <c r="C380" s="12" t="inlineStr">
@@ -9208,19 +9208,19 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>maa://47023</t>
+          <t>maa://48113</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="12" t="inlineStr">
         <is>
-          <t>钼铅</t>
+          <t>行箸</t>
         </is>
       </c>
       <c r="B381" s="12" t="inlineStr">
         <is>
-          <t>9-6</t>
+          <t>3-2</t>
         </is>
       </c>
       <c r="C381" s="12" t="inlineStr">
@@ -9230,117 +9230,249 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>maa://48618</t>
+          <t>maa://45807</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="12" t="inlineStr">
         <is>
-          <t>骋风</t>
+          <t>寻澜</t>
         </is>
       </c>
       <c r="B382" s="12" t="inlineStr">
         <is>
-          <t>SN-2</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="C382" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>maa://51907, maa://51908</t>
+          <t>maa://50552</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="12" t="inlineStr">
         <is>
-          <t>阿兰娜</t>
+          <t>诺威尔</t>
         </is>
       </c>
       <c r="B383" s="12" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="C383" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://47175, maa://47174</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="12" t="inlineStr">
         <is>
-          <t>信仰搅拌机</t>
+          <t>隐德来希</t>
         </is>
       </c>
       <c r="B384" s="12" t="inlineStr">
         <is>
-          <t>14-5</t>
+          <t>10-12</t>
         </is>
       </c>
       <c r="C384" s="12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>maa://51898, maa://57241</t>
+          <t>maa://47023</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="12" t="inlineStr">
         <is>
-          <t>蕾缪安</t>
+          <t>钼铅</t>
         </is>
       </c>
       <c r="B385" s="12" t="inlineStr">
         <is>
-          <t>13-13</t>
+          <t>9-6</t>
         </is>
       </c>
       <c r="C385" s="12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>maa://51880, maa://51878, maa://56651</t>
+          <t>maa://48618</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="12" t="inlineStr">
         <is>
+          <t>死芒</t>
+        </is>
+      </c>
+      <c r="B386" s="12" t="inlineStr">
+        <is>
+          <t>4-8</t>
+        </is>
+      </c>
+      <c r="C386" s="12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>maa://59533, maa://59577</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="12" t="inlineStr">
+        <is>
+          <t>骋风</t>
+        </is>
+      </c>
+      <c r="B387" s="12" t="inlineStr">
+        <is>
+          <t>SN-2</t>
+        </is>
+      </c>
+      <c r="C387" s="12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>maa://51907, maa://51908</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="12" t="inlineStr">
+        <is>
+          <t>阿兰娜</t>
+        </is>
+      </c>
+      <c r="B388" s="12" t="inlineStr">
+        <is>
+          <t>7-14</t>
+        </is>
+      </c>
+      <c r="C388" s="12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="12" t="inlineStr">
+        <is>
+          <t>信仰搅拌机</t>
+        </is>
+      </c>
+      <c r="B389" s="12" t="inlineStr">
+        <is>
+          <t>14-5</t>
+        </is>
+      </c>
+      <c r="C389" s="12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>maa://51898, maa://57241</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="12" t="inlineStr">
+        <is>
+          <t>蕾缪安</t>
+        </is>
+      </c>
+      <c r="B390" s="12" t="inlineStr">
+        <is>
+          <t>13-13</t>
+        </is>
+      </c>
+      <c r="C390" s="12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>maa://51880, maa://51878, maa://56651</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="12" t="inlineStr">
+        <is>
           <t>新约能天使</t>
         </is>
       </c>
-      <c r="B386" s="12" t="inlineStr">
+      <c r="B391" s="12" t="inlineStr">
         <is>
           <t>GA-EX-5</t>
         </is>
       </c>
-      <c r="C386" s="12" t="inlineStr">
+      <c r="C391" s="12" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D386" t="inlineStr">
+      <c r="D391" t="inlineStr">
         <is>
           <t>maa://51872, maa://51876, maa://51873</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="12" t="inlineStr">
+        <is>
+          <t>酒神</t>
+        </is>
+      </c>
+      <c r="B392" s="12" t="inlineStr">
+        <is>
+          <t>9-6</t>
+        </is>
+      </c>
+      <c r="C392" s="12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>maa://59493, maa://59603</t>
         </is>
       </c>
     </row>

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.06.10 00:49:28</t>
+          <t>更新日期：2025.06.10 00:57:41</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">

--- a/Excel/模组任务干员名单用户版.xlsx
+++ b/Excel/模组任务干员名单用户版.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="14.25" customHeight="1" s="3">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.06.10 00:57:41</t>
+          <t>更新日期：2025.06.10 14:12:09</t>
         </is>
       </c>
       <c r="E1" s="11" t="inlineStr">
@@ -4671,12 +4671,12 @@
       </c>
       <c r="C174" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D174" s="10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://59681</t>
         </is>
       </c>
     </row>
@@ -6695,12 +6695,12 @@
       </c>
       <c r="C266" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D266" s="10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://59689</t>
         </is>
       </c>
     </row>
@@ -8081,12 +8081,12 @@
       </c>
       <c r="C329" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D329" s="10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://59688</t>
         </is>
       </c>
     </row>
@@ -9181,12 +9181,12 @@
       </c>
       <c r="C379" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://59690</t>
         </is>
       </c>
     </row>
@@ -9379,12 +9379,12 @@
       </c>
       <c r="C388" s="12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://59691</t>
         </is>
       </c>
     </row>
